--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
-    <sheet name="Sources" sheetId="3" r:id="rId2"/>
-    <sheet name="ReadMe" sheetId="2" r:id="rId3"/>
+    <sheet name="Figures (2023)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sources" sheetId="3" r:id="rId3"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="403">
   <si>
     <t>Country</t>
   </si>
@@ -1211,6 +1212,30 @@
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>Wealth tax: participating countries in low participation scenario</t>
+  </si>
+  <si>
+    <t>Japan, Germany, Spain, the UK, but not the U.S.</t>
+  </si>
+  <si>
+    <t>the EU but not Japan nor Canada</t>
+  </si>
+  <si>
+    <t>GCS high: share of 2025 territorial CO2 (non-LULUCF) emissions (in %)</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>map_GCS_incidence.R</t>
+  </si>
+  <si>
+    <t>GCS high: number of participating countries (Global South + EU + UK + CH + JP + NO+NZ+IC+KO+TW)</t>
+  </si>
+  <si>
+    <t>GCS_mid: 121 (56% emissions); GCS_low: 120 (25%)</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1246,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+    <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1365,15 +1390,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1680,19 +1705,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="74.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1706,28 +1732,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -1740,6 +1766,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1747,34 +1776,34 @@
         <v>393</v>
       </c>
       <c r="B2" s="7">
-        <f>ROUND($I$2*B3/SUM($B3:$G3),0)</f>
+        <v>4500</v>
+      </c>
+      <c r="C2" s="7">
+        <f>ROUND($B$2*C3/SUM($C3:$H3),0)</f>
         <v>798</v>
       </c>
-      <c r="C2" s="7">
-        <f t="shared" ref="C2:H2" si="0">ROUND($I$2*C3/SUM($B3:$G3),0)</f>
+      <c r="D2" s="7">
+        <f>ROUND($B$2*D3/SUM($C3:$H3),0)</f>
         <v>1048</v>
       </c>
-      <c r="D2" s="7">
-        <f t="shared" si="0"/>
+      <c r="E2" s="7">
+        <f>ROUND($B$2*E3/SUM($C3:$H3),0)</f>
         <v>756</v>
       </c>
-      <c r="E2" s="7">
-        <f>MAX(500,ROUND($I$2*E3/SUM($B3:$G3),0))</f>
+      <c r="F2" s="7">
+        <f>MAX(500,ROUND($B$2*F3/SUM($C3:$H3),0))</f>
         <v>500</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
+      <c r="G2" s="7">
+        <f>ROUND($B$2*G3/SUM($C3:$H3),0)</f>
         <v>603</v>
       </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
+      <c r="H2" s="7">
+        <f>ROUND($B$2*H3/SUM($C3:$H3),0)</f>
         <v>826</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>469</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4500</v>
       </c>
       <c r="J2" s="1">
         <v>2000</v>
@@ -1793,28 +1822,28 @@
       <c r="A3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2">
         <v>53362</v>
       </c>
-      <c r="C3" s="36">
+      <c r="D3" s="34">
         <v>70087</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>50531</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>31352</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>40302</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>55199</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>7365</v>
       </c>
-      <c r="I3" s="6"/>
       <c r="J3" s="2">
         <v>105918</v>
       </c>
@@ -1837,29 +1866,29 @@
       <c r="A4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33">
         <v>66651</v>
       </c>
-      <c r="C4" s="35">
+      <c r="D4" s="33">
         <v>84075</v>
       </c>
-      <c r="D4" s="35">
+      <c r="E4" s="33">
         <v>59146</v>
       </c>
-      <c r="E4" s="35">
+      <c r="F4" s="33">
         <v>38141</v>
       </c>
-      <c r="F4" s="35">
+      <c r="G4" s="33">
         <v>47890</v>
       </c>
-      <c r="G4" s="35">
+      <c r="H4" s="33">
         <v>69551</v>
       </c>
-      <c r="H4" s="35">
+      <c r="I4" s="33">
         <v>8967</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <v>123103</v>
       </c>
       <c r="K4" s="2">
@@ -1868,7 +1897,7 @@
       <c r="L4" s="2">
         <v>34566</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <v>347276</v>
       </c>
       <c r="N4" s="2"/>
@@ -1878,19 +1907,25 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="A5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="35"/>
+      <c r="M5" s="33" t="s">
+        <v>397</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1898,258 +1933,192 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="33">
+        <v>64</v>
+      </c>
+      <c r="C6" s="33">
+        <v>64</v>
+      </c>
+      <c r="D6" s="33">
+        <v>64</v>
+      </c>
+      <c r="E6" s="33">
+        <v>64</v>
+      </c>
+      <c r="F6" s="33">
+        <v>64</v>
+      </c>
+      <c r="G6" s="33">
+        <v>64</v>
+      </c>
+      <c r="H6" s="33">
+        <v>71</v>
+      </c>
+      <c r="I6" s="33">
+        <v>72</v>
+      </c>
+      <c r="J6" s="33">
+        <v>69</v>
+      </c>
+      <c r="K6" s="33">
+        <v>72</v>
+      </c>
+      <c r="L6" s="33">
+        <v>72</v>
+      </c>
+      <c r="M6" s="33">
+        <v>72</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>45</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>45</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="33">
+        <f>156-27</f>
+        <v>129</v>
+      </c>
+      <c r="C7" s="33">
+        <v>129</v>
+      </c>
+      <c r="D7" s="33">
+        <v>129</v>
+      </c>
+      <c r="E7" s="33">
+        <v>129</v>
+      </c>
+      <c r="F7" s="33">
+        <v>129</v>
+      </c>
+      <c r="G7" s="33">
+        <v>129</v>
+      </c>
+      <c r="H7" s="33">
+        <v>155</v>
+      </c>
+      <c r="I7" s="33">
+        <v>155</v>
+      </c>
+      <c r="J7" s="33">
+        <v>155</v>
+      </c>
+      <c r="K7" s="33">
+        <v>156</v>
+      </c>
+      <c r="L7" s="33">
+        <v>156</v>
+      </c>
+      <c r="M7" s="33">
+        <v>156</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="22">
-        <f t="shared" ref="B8:G8" si="1">2.5*B7/1000</f>
-        <v>0.1125</v>
-      </c>
-      <c r="C8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="D8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="E8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="G8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22">
-        <f>2.5*J7/1000</f>
-        <v>0.1125</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22">
-        <f>2.5*M7/1000</f>
-        <v>0.1125</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="19">
-        <f t="shared" ref="B9:G9" si="2">B8*B73</f>
-        <v>9.5625000000000002E-2</v>
-      </c>
-      <c r="C9" s="19">
-        <f t="shared" si="2"/>
-        <v>9.5625000000000002E-2</v>
-      </c>
-      <c r="D9" s="19">
-        <f t="shared" si="2"/>
-        <v>9.5625000000000002E-2</v>
-      </c>
-      <c r="E9" s="19">
-        <f t="shared" si="2"/>
-        <v>0.43762500000000004</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" si="2"/>
-        <v>9.5625000000000002E-2</v>
-      </c>
-      <c r="G9" s="19">
-        <f t="shared" si="2"/>
-        <v>8.2125000000000004E-2</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
-        <f>J8*J73</f>
-        <v>12.262500000000001</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19">
-        <f>M8*M73*3.78541</f>
-        <v>0.42585862500000005</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="1"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" ref="B11:G11" si="3">0.8*0.8*B84*B7*1000000*B73/B85</f>
-        <v>164.25391156221337</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="3"/>
-        <v>284.54272571526855</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="3"/>
-        <v>178.03117201498719</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
-        <v>1139.8701297301359</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>180.84008419659901</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="3"/>
-        <v>154.39364344375809</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
-        <f>0.8*0.8*J84*J7*1000000*J73/J85</f>
-        <v>38475.475811006392</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <f>0.8*0.8*M84*M7*1000000*M73/M85</f>
-        <v>598.70913057561188</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -2166,142 +2135,72 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="6">
-        <f>$M$15*B73</f>
-        <v>25.5</v>
-      </c>
-      <c r="C15" s="6">
-        <f>$M$15*C73</f>
-        <v>25.5</v>
-      </c>
-      <c r="D15" s="6">
-        <f>$M$15*D73</f>
-        <v>25.5</v>
-      </c>
-      <c r="E15" s="6">
-        <f>$M$15*E73</f>
-        <v>116.7</v>
-      </c>
-      <c r="F15" s="6">
-        <f>$M$15*F73</f>
-        <v>25.5</v>
-      </c>
-      <c r="G15" s="6">
-        <f>$M$15*G73</f>
-        <v>21.9</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
-        <v>3300</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="2">
-        <v>30</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B16" s="2">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2">
-        <v>42</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2">
-        <v>59</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>60</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>128</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" ref="B17:D17" si="4">B16*B73</f>
-        <v>39.1</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" si="4"/>
-        <v>51.85</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="4"/>
-        <v>35.699999999999996</v>
-      </c>
-      <c r="E17" s="6">
-        <f>E16*E73</f>
-        <v>163.38</v>
-      </c>
-      <c r="F17" s="6">
-        <f>F16*F73</f>
-        <v>33.15</v>
-      </c>
-      <c r="G17" s="6">
-        <f>G16*G73</f>
-        <v>43.07</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
-        <v>6500</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2320,103 +2219,67 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>12</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="20">
-        <v>4.3</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="24"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2424,697 +2287,350 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="24"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B32" s="2">
-        <v>16754</v>
-      </c>
-      <c r="C32" s="2">
-        <v>16942</v>
-      </c>
-      <c r="D32" s="2">
-        <v>11457</v>
-      </c>
-      <c r="E32" s="2">
-        <v>21850</v>
-      </c>
-      <c r="F32" s="2">
-        <v>9831</v>
-      </c>
-      <c r="G32" s="2">
-        <v>13363</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2">
-        <v>2874373</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B33" s="2">
-        <v>22562</v>
-      </c>
-      <c r="C33" s="2">
-        <v>23515</v>
-      </c>
-      <c r="D33" s="2">
-        <v>17165</v>
-      </c>
-      <c r="E33" s="2">
-        <v>30360</v>
-      </c>
-      <c r="F33" s="2">
-        <v>15015</v>
-      </c>
-      <c r="G33" s="2">
-        <v>19625</v>
-      </c>
+      <c r="J32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2">
-        <v>4250597</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B34" s="2">
-        <v>29932</v>
-      </c>
-      <c r="C34" s="2">
-        <v>31800</v>
-      </c>
-      <c r="D34" s="2">
-        <v>24482</v>
-      </c>
-      <c r="E34" s="2">
-        <v>41566</v>
-      </c>
-      <c r="F34" s="2">
-        <v>22231</v>
-      </c>
-      <c r="G34" s="2">
-        <v>28783</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>6238189</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1400</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="J35" s="2"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1900</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="J36" s="2"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2500</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="J37" s="2"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="J39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>0.2034</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="J41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2">
-        <v>0.24390000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="J42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2">
-        <v>0.31369999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="J43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="J44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="J45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="J46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3127,194 +2643,83 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>87</v>
-      </c>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="J48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="J49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="J51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B53" s="4">
-        <v>64.7</v>
-      </c>
-      <c r="C53" s="4">
-        <v>49.1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>73.7</v>
-      </c>
-      <c r="E53" s="4">
-        <v>80</v>
-      </c>
-      <c r="F53" s="4">
-        <v>57.3</v>
-      </c>
-      <c r="G53" s="4">
-        <v>76</v>
-      </c>
-      <c r="J53" s="4">
-        <v>55</v>
-      </c>
-      <c r="M53" s="4">
-        <v>57.5</v>
-      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
@@ -3330,989 +2735,512 @@
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="35"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B57" s="2">
-        <v>100</v>
-      </c>
-      <c r="C57" s="2">
-        <v>100</v>
-      </c>
-      <c r="D57" s="2">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2">
-        <v>500</v>
-      </c>
-      <c r="F57" s="2">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2">
-        <v>100</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="2">
-        <v>100</v>
-      </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="5"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="M63" s="34"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="25">
-        <v>44341</v>
-      </c>
-      <c r="C64" s="25">
-        <v>44407</v>
-      </c>
-      <c r="D64" s="25">
-        <v>44462</v>
-      </c>
-      <c r="E64" s="25">
-        <v>44467</v>
-      </c>
-      <c r="F64" s="25">
-        <v>44462</v>
-      </c>
-      <c r="G64" s="25">
-        <v>44462</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25">
-        <v>44462</v>
-      </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="25">
-        <v>44280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="25">
-        <v>44356</v>
-      </c>
-      <c r="C65" s="25">
-        <v>44434</v>
-      </c>
-      <c r="D65" s="25">
-        <v>44509</v>
-      </c>
-      <c r="E65" s="25">
-        <v>44523</v>
-      </c>
-      <c r="F65" s="25">
-        <v>44551</v>
-      </c>
-      <c r="G65" s="25">
-        <v>44602</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25">
-        <v>44515</v>
-      </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="25">
-        <v>44325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="25">
-        <v>44370</v>
-      </c>
-      <c r="C66" s="25">
-        <v>44441</v>
-      </c>
-      <c r="D66" s="25">
-        <v>44551</v>
-      </c>
-      <c r="E66" s="25">
-        <v>44564</v>
-      </c>
-      <c r="F66" s="25">
-        <v>44562</v>
-      </c>
-      <c r="G66" s="25">
-        <v>44617</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25">
-        <v>44571</v>
-      </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="25">
-        <v>44567</v>
-      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+    </row>
+    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="M66" s="32"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" t="s">
-        <v>280</v>
-      </c>
-      <c r="D67" t="s">
-        <v>281</v>
-      </c>
-      <c r="E67" t="s">
-        <v>283</v>
-      </c>
-      <c r="F67" t="s">
-        <v>284</v>
-      </c>
-      <c r="G67" t="s">
-        <v>285</v>
-      </c>
-      <c r="J67" t="s">
-        <v>282</v>
-      </c>
-      <c r="M67" t="s">
-        <v>286</v>
-      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="25"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="A68" s="23"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="A69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="25"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="A70" s="23"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="34"/>
+      <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E73" s="2">
-        <v>3.89</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0.73</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2">
-        <v>109</v>
-      </c>
+      <c r="J73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
+      <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="J75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B76" s="2">
-        <v>65.3</v>
-      </c>
-      <c r="C76" s="2">
-        <v>76.2</v>
-      </c>
-      <c r="D76" s="2">
-        <v>58.1</v>
-      </c>
-      <c r="E76" s="2">
-        <v>68.7</v>
-      </c>
-      <c r="F76" s="2">
-        <v>61.9</v>
-      </c>
-      <c r="G76" s="2">
-        <v>75.3</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2">
-        <v>77.3</v>
-      </c>
+      <c r="J76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2">
-        <v>67.099999999999994</v>
-      </c>
+      <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B77" s="2">
-        <v>71</v>
-      </c>
-      <c r="C77" s="2">
-        <v>79.2</v>
-      </c>
-      <c r="D77" s="2">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E77" s="2">
-        <v>71</v>
-      </c>
-      <c r="F77" s="2">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="G77" s="2">
-        <v>78.900000000000006</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2">
-        <v>79.599999999999994</v>
-      </c>
+      <c r="J77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2">
-        <v>73</v>
-      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C78" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D78" s="2">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E78" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0.156</v>
-      </c>
-      <c r="G78" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="2">
-        <v>0.03</v>
-      </c>
+      <c r="J78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G79" s="2">
-        <v>0.20899999999999999</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="2">
-        <v>0.20300000000000001</v>
-      </c>
+      <c r="J79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2">
-        <v>0.27</v>
-      </c>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B80" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0.30700000000000005</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0.18900000000000003</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G80" s="2">
-        <v>0.39899999999999997</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="2">
-        <v>0.313</v>
-      </c>
+      <c r="J80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2">
-        <v>0.39100000000000001</v>
-      </c>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="C81" s="2">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="E81" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="F81" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G81" s="2">
-        <v>8</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2">
-        <v>10</v>
-      </c>
+      <c r="J81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2">
-        <v>18</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="2">
-        <v>447</v>
-      </c>
-      <c r="C82" s="2">
-        <v>887</v>
-      </c>
-      <c r="D82" s="2">
-        <v>458</v>
-      </c>
-      <c r="E82" s="2">
-        <v>376</v>
-      </c>
-      <c r="F82" s="2">
-        <v>296</v>
-      </c>
-      <c r="G82" s="2">
-        <v>557</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="2">
-        <v>1411</v>
-      </c>
+      <c r="J82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2">
-        <v>5716</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="2"/>
-      <c r="R82" s="8"/>
+      <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="20">
-        <f t="shared" ref="B83:G83" si="5">B82/B86</f>
-        <v>6.8769230769230774</v>
-      </c>
-      <c r="C83" s="20">
-        <f t="shared" si="5"/>
-        <v>10.55952380952381</v>
-      </c>
-      <c r="D83" s="20">
-        <f t="shared" si="5"/>
-        <v>7.6333333333333337</v>
-      </c>
-      <c r="E83" s="20">
-        <f t="shared" si="5"/>
-        <v>9.8947368421052637</v>
-      </c>
-      <c r="F83" s="20">
-        <f t="shared" si="5"/>
-        <v>6.2978723404255321</v>
-      </c>
-      <c r="G83" s="20">
-        <f t="shared" si="5"/>
-        <v>8.1911764705882355</v>
-      </c>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20">
-        <f>J82/J86</f>
-        <v>11.110236220472441</v>
-      </c>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20">
-        <f>M82/M86</f>
-        <v>17.268882175226587</v>
-      </c>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B84" s="6">
-        <v>338.19299999999998</v>
-      </c>
-      <c r="C84" s="6">
-        <v>796.529</v>
-      </c>
-      <c r="D84" s="6">
-        <v>361.17599999999999</v>
-      </c>
-      <c r="E84" s="6">
-        <v>319.02800000000002</v>
-      </c>
-      <c r="F84" s="6">
-        <v>282.36399999999998</v>
-      </c>
-      <c r="G84" s="6">
-        <v>379.15</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6">
-        <v>1320.7760000000001</v>
-      </c>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6">
-        <v>5107.393</v>
-      </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="15">
-        <v>50403455</v>
-      </c>
-      <c r="C85" s="21">
-        <v>68527599.400000006</v>
-      </c>
-      <c r="D85" s="21">
-        <v>49663148.200000003</v>
-      </c>
-      <c r="E85" s="21">
-        <v>31355629</v>
-      </c>
-      <c r="F85" s="21">
-        <v>38223111.600000001</v>
-      </c>
-      <c r="G85" s="21">
-        <v>51629389.799999997</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21">
-        <v>107761630.8</v>
-      </c>
-      <c r="L85" s="11"/>
-      <c r="M85" s="21">
-        <v>245683439.40000001</v>
-      </c>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2"/>
+      <c r="R85" s="8"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="11">
-        <v>65</v>
-      </c>
-      <c r="C86" s="6">
-        <v>84</v>
-      </c>
-      <c r="D86" s="6">
-        <v>60</v>
-      </c>
-      <c r="E86" s="6">
-        <v>38</v>
-      </c>
-      <c r="F86" s="6">
-        <v>47</v>
-      </c>
-      <c r="G86" s="6">
-        <v>68</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6">
-        <v>127</v>
-      </c>
-      <c r="L86" s="2"/>
-      <c r="M86" s="6">
-        <v>331</v>
-      </c>
-      <c r="O86" s="4"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="6"/>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L90" s="2"/>
-    </row>
-    <row r="129" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="132" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4320,6 +3248,2712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="7">
+        <f>ROUND($B$2*C3/SUM($C3:$H3),0)</f>
+        <v>798</v>
+      </c>
+      <c r="D2" s="7">
+        <f>ROUND($B$2*D3/SUM($C3:$H3),0)</f>
+        <v>1048</v>
+      </c>
+      <c r="E2" s="7">
+        <f>ROUND($B$2*E3/SUM($C3:$H3),0)</f>
+        <v>756</v>
+      </c>
+      <c r="F2" s="7">
+        <f>MAX(500,ROUND($B$2*F3/SUM($C3:$H3),0))</f>
+        <v>500</v>
+      </c>
+      <c r="G2" s="7">
+        <f>ROUND($B$2*G3/SUM($C3:$H3),0)</f>
+        <v>603</v>
+      </c>
+      <c r="H2" s="7">
+        <f>ROUND($B$2*H3/SUM($C3:$H3),0)</f>
+        <v>826</v>
+      </c>
+      <c r="I2" s="7">
+        <v>469</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2">
+        <v>53362</v>
+      </c>
+      <c r="D3" s="34">
+        <v>70087</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50531</v>
+      </c>
+      <c r="F3" s="2">
+        <v>31352</v>
+      </c>
+      <c r="G3" s="2">
+        <v>40302</v>
+      </c>
+      <c r="H3" s="2">
+        <v>55199</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7365</v>
+      </c>
+      <c r="J3" s="2">
+        <v>105918</v>
+      </c>
+      <c r="K3">
+        <v>114401</v>
+      </c>
+      <c r="L3" s="2">
+        <v>24903</v>
+      </c>
+      <c r="M3" s="2">
+        <v>274384</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33">
+        <v>66651</v>
+      </c>
+      <c r="D4" s="33">
+        <v>84075</v>
+      </c>
+      <c r="E4" s="33">
+        <v>59146</v>
+      </c>
+      <c r="F4" s="33">
+        <v>38141</v>
+      </c>
+      <c r="G4" s="33">
+        <v>47890</v>
+      </c>
+      <c r="H4" s="33">
+        <v>69551</v>
+      </c>
+      <c r="I4" s="33">
+        <v>8967</v>
+      </c>
+      <c r="J4" s="33">
+        <v>123103</v>
+      </c>
+      <c r="K4" s="2">
+        <v>143997</v>
+      </c>
+      <c r="L4" s="2">
+        <v>34566</v>
+      </c>
+      <c r="M4" s="33">
+        <v>347276</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
+        <f t="shared" ref="C11:H11" si="0">2.5*C10/1000</f>
+        <v>0.1125</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22">
+        <f>2.5*J10/1000</f>
+        <v>0.1125</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
+        <f>2.5*M10/1000</f>
+        <v>0.1125</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:H12" si="1">C11*C76</f>
+        <v>9.5625000000000002E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5625000000000002E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5625000000000002E-2</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.43762500000000004</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5625000000000002E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="1"/>
+        <v>8.2125000000000004E-2</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
+        <f>J11*J76</f>
+        <v>12.262500000000001</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19">
+        <f>M11*M76*3.78541</f>
+        <v>0.42585862500000005</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:H14" si="2">0.8*0.8*C87*C10*1000000*C76/C88</f>
+        <v>164.25391156221337</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>284.54272571526855</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>178.03117201498719</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>1139.8701297301359</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>180.84008419659901</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>154.39364344375809</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <f>0.8*0.8*J87*J10*1000000*J76/J88</f>
+        <v>38475.475811006392</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
+        <f>0.8*0.8*M87*M10*1000000*M76/M88</f>
+        <v>598.70913057561188</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:H18" si="3">$M$18*C76</f>
+        <v>25.5</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>116.7</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="3"/>
+        <v>21.9</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>3300</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="2">
+        <v>30</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2">
+        <v>59</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:E20" si="4">C19*C76</f>
+        <v>39.1</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="4"/>
+        <v>51.85</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="4"/>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="F20" s="6">
+        <f>F19*F76</f>
+        <v>163.38</v>
+      </c>
+      <c r="G20" s="6">
+        <f>G19*G76</f>
+        <v>33.15</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H19*H76</f>
+        <v>43.07</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>6500</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>12</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="20">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>16754</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16942</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11457</v>
+      </c>
+      <c r="F35" s="2">
+        <v>21850</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9831</v>
+      </c>
+      <c r="H35" s="2">
+        <v>13363</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>2874373</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>22562</v>
+      </c>
+      <c r="D36" s="2">
+        <v>23515</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17165</v>
+      </c>
+      <c r="F36" s="2">
+        <v>30360</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15015</v>
+      </c>
+      <c r="H36" s="2">
+        <v>19625</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>4250597</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>29932</v>
+      </c>
+      <c r="D37" s="2">
+        <v>31800</v>
+      </c>
+      <c r="E37" s="2">
+        <v>24482</v>
+      </c>
+      <c r="F37" s="2">
+        <v>41566</v>
+      </c>
+      <c r="G37" s="2">
+        <v>22231</v>
+      </c>
+      <c r="H37" s="2">
+        <v>28783</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>6238189</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>0.2034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2">
+        <v>0.24390000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <v>0.31369999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C56" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="D56" s="4">
+        <v>49.1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>73.7</v>
+      </c>
+      <c r="F56" s="4">
+        <v>80</v>
+      </c>
+      <c r="G56" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>76</v>
+      </c>
+      <c r="J56" s="4">
+        <v>55</v>
+      </c>
+      <c r="M56" s="4">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
+        <v>100</v>
+      </c>
+      <c r="D60" s="2">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2">
+        <v>100</v>
+      </c>
+      <c r="F60" s="2">
+        <v>500</v>
+      </c>
+      <c r="G60" s="2">
+        <v>100</v>
+      </c>
+      <c r="H60" s="2">
+        <v>100</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="2">
+        <v>100</v>
+      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="M66" s="32"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25">
+        <v>44341</v>
+      </c>
+      <c r="D67" s="25">
+        <v>44407</v>
+      </c>
+      <c r="E67" s="25">
+        <v>44462</v>
+      </c>
+      <c r="F67" s="25">
+        <v>44467</v>
+      </c>
+      <c r="G67" s="25">
+        <v>44462</v>
+      </c>
+      <c r="H67" s="25">
+        <v>44462</v>
+      </c>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25">
+        <v>44462</v>
+      </c>
+      <c r="L67" s="26"/>
+      <c r="M67" s="25">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25">
+        <v>44356</v>
+      </c>
+      <c r="D68" s="25">
+        <v>44434</v>
+      </c>
+      <c r="E68" s="25">
+        <v>44509</v>
+      </c>
+      <c r="F68" s="25">
+        <v>44523</v>
+      </c>
+      <c r="G68" s="25">
+        <v>44551</v>
+      </c>
+      <c r="H68" s="25">
+        <v>44602</v>
+      </c>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25">
+        <v>44515</v>
+      </c>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25">
+        <v>44370</v>
+      </c>
+      <c r="D69" s="25">
+        <v>44441</v>
+      </c>
+      <c r="E69" s="25">
+        <v>44551</v>
+      </c>
+      <c r="F69" s="25">
+        <v>44564</v>
+      </c>
+      <c r="G69" s="25">
+        <v>44562</v>
+      </c>
+      <c r="H69" s="25">
+        <v>44617</v>
+      </c>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25">
+        <v>44571</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="25">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" t="s">
+        <v>284</v>
+      </c>
+      <c r="H70" t="s">
+        <v>285</v>
+      </c>
+      <c r="J70" t="s">
+        <v>282</v>
+      </c>
+      <c r="M70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="32"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
+        <v>109</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="G79" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="H79" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2">
+        <v>79.2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F80" s="2">
+        <v>71</v>
+      </c>
+      <c r="G80" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H80" s="2">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="H81" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.18900000000000003</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.39899999999999997</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="D84" s="2">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="F84" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>8</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2">
+        <v>10</v>
+      </c>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2">
+        <v>18</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2">
+        <v>447</v>
+      </c>
+      <c r="D85" s="2">
+        <v>887</v>
+      </c>
+      <c r="E85" s="2">
+        <v>458</v>
+      </c>
+      <c r="F85" s="2">
+        <v>376</v>
+      </c>
+      <c r="G85" s="2">
+        <v>296</v>
+      </c>
+      <c r="H85" s="2">
+        <v>557</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2">
+        <v>1411</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2">
+        <v>5716</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="2"/>
+      <c r="R85" s="8"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20">
+        <f t="shared" ref="C86:H86" si="5">C85/C89</f>
+        <v>6.8769230769230774</v>
+      </c>
+      <c r="D86" s="20">
+        <f t="shared" si="5"/>
+        <v>10.55952380952381</v>
+      </c>
+      <c r="E86" s="20">
+        <f t="shared" si="5"/>
+        <v>7.6333333333333337</v>
+      </c>
+      <c r="F86" s="20">
+        <f t="shared" si="5"/>
+        <v>9.8947368421052637</v>
+      </c>
+      <c r="G86" s="20">
+        <f t="shared" si="5"/>
+        <v>6.2978723404255321</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="5"/>
+        <v>8.1911764705882355</v>
+      </c>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20">
+        <f>J85/J89</f>
+        <v>11.110236220472441</v>
+      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20">
+        <f>M85/M89</f>
+        <v>17.268882175226587</v>
+      </c>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6">
+        <v>338.19299999999998</v>
+      </c>
+      <c r="D87" s="6">
+        <v>796.529</v>
+      </c>
+      <c r="E87" s="6">
+        <v>361.17599999999999</v>
+      </c>
+      <c r="F87" s="6">
+        <v>319.02800000000002</v>
+      </c>
+      <c r="G87" s="6">
+        <v>282.36399999999998</v>
+      </c>
+      <c r="H87" s="6">
+        <v>379.15</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6">
+        <v>1320.7760000000001</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6">
+        <v>5107.393</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="15">
+        <v>50403455</v>
+      </c>
+      <c r="D88" s="21">
+        <v>68527599.400000006</v>
+      </c>
+      <c r="E88" s="21">
+        <v>49663148.200000003</v>
+      </c>
+      <c r="F88" s="21">
+        <v>31355629</v>
+      </c>
+      <c r="G88" s="21">
+        <v>38223111.600000001</v>
+      </c>
+      <c r="H88" s="21">
+        <v>51629389.799999997</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21">
+        <v>107761630.8</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="21">
+        <v>245683439.40000001</v>
+      </c>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="11">
+        <v>65</v>
+      </c>
+      <c r="D89" s="6">
+        <v>84</v>
+      </c>
+      <c r="E89" s="6">
+        <v>60</v>
+      </c>
+      <c r="F89" s="6">
+        <v>38</v>
+      </c>
+      <c r="G89" s="6">
+        <v>47</v>
+      </c>
+      <c r="H89" s="6">
+        <v>68</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6">
+        <v>127</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="6">
+        <v>331</v>
+      </c>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="132" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
@@ -4369,16 +6003,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4945,14 +6579,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -5006,14 +6640,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -5970,7 +7604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="434">
   <si>
     <t>Country</t>
   </si>
@@ -1236,6 +1236,99 @@
   </si>
   <si>
     <t>GCS_mid: 121 (56% emissions); GCS_low: 120 (25%)</t>
+  </si>
+  <si>
+    <t>questionnaire.R, Fisher-Post &amp; Gethin (2023) &amp; IMF (2024)</t>
+  </si>
+  <si>
+    <t>Top 1% tax: share of top income affected (in %)</t>
+  </si>
+  <si>
+    <t>Top 1% tax: net contribution as share of GDP (in %)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Top 3% tax: share of top income affected (in %)</t>
+  </si>
+  <si>
+    <t>Top 3% tax: net contribution as share of GDP (in %)</t>
+  </si>
+  <si>
+    <t>Periodicity income</t>
+  </si>
+  <si>
+    <t>Top 3% tax: 80k $PPP threshold in LCU (yearly)</t>
+  </si>
+  <si>
+    <t>Top 3% tax: 80k $PPP threshold in LCU (rounded + country-specific periodicity)</t>
+  </si>
+  <si>
+    <t>Top 1%/3% tax: 120k $PPP threshold in LCU (yearly)</t>
+  </si>
+  <si>
+    <t>Top 1%/3% tax: 120k $PPP threshold in LCU (rounded + country-specific periodicity)</t>
+  </si>
+  <si>
+    <t>Top 3% tax: 1M $PPP threshold in LCU (yearly)</t>
+  </si>
+  <si>
+    <t>Top 3% tax: 1M $PPP threshold in LCU (rounded + country-specific periodicity)</t>
+  </si>
+  <si>
+    <t>160k</t>
+  </si>
+  <si>
+    <t>700k</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>30M</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>85k</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>750k</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>8k</t>
+  </si>
+  <si>
+    <t>3.5M</t>
+  </si>
+  <si>
+    <t>2.5M</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1341,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1422,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1351,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1395,12 +1496,15 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,11 +1809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,6 +1824,8 @@
     <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1773,132 +1879,129 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>4500</v>
       </c>
-      <c r="C2" s="7">
-        <f>ROUND($B$2*C3/SUM($C3:$H3),0)</f>
+      <c r="C3" s="7">
+        <f>ROUND($B$3*C4/SUM($C4:$H4),0)</f>
         <v>798</v>
       </c>
-      <c r="D2" s="7">
-        <f>ROUND($B$2*D3/SUM($C3:$H3),0)</f>
+      <c r="D3" s="7">
+        <f>ROUND($B$3*D4/SUM($C4:$H4),0)</f>
         <v>1048</v>
       </c>
-      <c r="E2" s="7">
-        <f>ROUND($B$2*E3/SUM($C3:$H3),0)</f>
+      <c r="E3" s="7">
+        <f>ROUND($B$3*E4/SUM($C4:$H4),0)</f>
         <v>756</v>
       </c>
-      <c r="F2" s="7">
-        <f>MAX(500,ROUND($B$2*F3/SUM($C3:$H3),0))</f>
+      <c r="F3" s="7">
+        <f>MAX(500,ROUND($B$3*F4/SUM($C4:$H4),0))</f>
         <v>500</v>
       </c>
-      <c r="G2" s="7">
-        <f>ROUND($B$2*G3/SUM($C3:$H3),0)</f>
+      <c r="G3" s="7">
+        <f>ROUND($B$3*G4/SUM($C4:$H4),0)</f>
         <v>603</v>
       </c>
-      <c r="H2" s="7">
-        <f>ROUND($B$2*H3/SUM($C3:$H3),0)</f>
+      <c r="H3" s="7">
+        <f>ROUND($B$3*H4/SUM($C4:$H4),0)</f>
         <v>826</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="7">
         <v>469</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>2000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>1000</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L3" s="1">
         <v>1000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M3" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2">
         <v>53362</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D4" s="34">
         <v>70087</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>50531</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>31352</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>40302</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>55199</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>7365</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="2">
         <v>105918</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>114401</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="2">
         <v>24903</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M4" s="2">
         <v>274384</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33">
-        <v>66651</v>
-      </c>
-      <c r="D4" s="33">
-        <v>84075</v>
-      </c>
-      <c r="E4" s="33">
-        <v>59146</v>
-      </c>
-      <c r="F4" s="33">
-        <v>38141</v>
-      </c>
-      <c r="G4" s="33">
-        <v>47890</v>
-      </c>
-      <c r="H4" s="33">
-        <v>69551</v>
-      </c>
-      <c r="I4" s="33">
-        <v>8967</v>
-      </c>
-      <c r="J4" s="33">
-        <v>123103</v>
-      </c>
-      <c r="K4" s="2">
-        <v>143997</v>
-      </c>
-      <c r="L4" s="2">
-        <v>34566</v>
-      </c>
-      <c r="M4" s="33">
-        <v>347276</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1907,24 +2010,42 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>395</v>
+      <c r="A5" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="33" t="s">
-        <v>397</v>
+      <c r="C5" s="33">
+        <v>66651</v>
+      </c>
+      <c r="D5" s="33">
+        <v>84075</v>
+      </c>
+      <c r="E5" s="33">
+        <v>59146</v>
+      </c>
+      <c r="F5" s="33">
+        <v>38141</v>
+      </c>
+      <c r="G5" s="33">
+        <v>47890</v>
+      </c>
+      <c r="H5" s="33">
+        <v>69551</v>
+      </c>
+      <c r="I5" s="33">
+        <v>8967</v>
+      </c>
+      <c r="J5" s="33">
+        <v>123103</v>
+      </c>
+      <c r="K5" s="2">
+        <v>143997</v>
+      </c>
+      <c r="L5" s="2">
+        <v>34566</v>
+      </c>
+      <c r="M5" s="33">
+        <v>347276</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1934,47 +2055,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="33">
-        <v>64</v>
-      </c>
-      <c r="C6" s="33">
-        <v>64</v>
-      </c>
-      <c r="D6" s="33">
-        <v>64</v>
-      </c>
-      <c r="E6" s="33">
-        <v>64</v>
-      </c>
-      <c r="F6" s="33">
-        <v>64</v>
-      </c>
-      <c r="G6" s="33">
-        <v>64</v>
-      </c>
-      <c r="H6" s="33">
-        <v>71</v>
-      </c>
-      <c r="I6" s="33">
-        <v>72</v>
-      </c>
-      <c r="J6" s="33">
-        <v>69</v>
-      </c>
-      <c r="K6" s="33">
-        <v>72</v>
-      </c>
-      <c r="L6" s="33">
-        <v>72</v>
-      </c>
-      <c r="M6" s="33">
-        <v>72</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1982,47 +2081,46 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B7" s="33">
-        <f>156-27</f>
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C7" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D7" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E7" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="F7" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G7" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="H7" s="33">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="I7" s="33">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="J7" s="33">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="K7" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="L7" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="M7" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2030,309 +2128,622 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="33">
+        <f>156-27</f>
+        <v>129</v>
+      </c>
+      <c r="C8" s="33">
+        <v>129</v>
+      </c>
+      <c r="D8" s="33">
+        <v>129</v>
+      </c>
+      <c r="E8" s="33">
+        <v>129</v>
+      </c>
+      <c r="F8" s="33">
+        <v>129</v>
+      </c>
+      <c r="G8" s="33">
+        <v>129</v>
+      </c>
+      <c r="H8" s="33">
+        <v>155</v>
+      </c>
+      <c r="I8" s="33">
+        <v>155</v>
+      </c>
+      <c r="J8" s="33">
+        <v>155</v>
+      </c>
+      <c r="K8" s="33">
+        <v>156</v>
+      </c>
+      <c r="L8" s="33">
+        <v>156</v>
+      </c>
+      <c r="M8" s="33">
+        <v>156</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
+        <v>2</v>
+      </c>
+      <c r="D9" s="33">
+        <v>4</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33">
+        <v>2</v>
+      </c>
+      <c r="G9" s="33">
+        <v>2</v>
+      </c>
+      <c r="H9" s="33">
+        <v>4</v>
+      </c>
+      <c r="I9" s="33">
+        <v>4</v>
+      </c>
+      <c r="J9" s="33">
+        <v>4</v>
+      </c>
+      <c r="K9" s="33">
+        <v>2</v>
+      </c>
+      <c r="L9" s="33">
+        <v>11</v>
+      </c>
+      <c r="M9" s="33">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33">
+        <v>1</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="K10" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="L10" s="33">
+        <v>5</v>
+      </c>
+      <c r="M10" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="33">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33">
+        <v>10</v>
+      </c>
+      <c r="E11" s="33">
+        <v>5</v>
+      </c>
+      <c r="F11" s="33">
+        <v>4</v>
+      </c>
+      <c r="G11" s="33">
+        <v>5</v>
+      </c>
+      <c r="H11" s="33">
+        <v>5</v>
+      </c>
+      <c r="I11" s="33">
+        <v>18</v>
+      </c>
+      <c r="J11" s="33">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33">
+        <v>4</v>
+      </c>
+      <c r="L11" s="33">
+        <v>16</v>
+      </c>
+      <c r="M11" s="33">
+        <v>18</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="A12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="J12" s="20">
+        <v>4</v>
+      </c>
+      <c r="K12" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L12" s="20">
+        <v>12.2</v>
+      </c>
+      <c r="M12" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I14" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K14" s="38">
+        <v>2358000</v>
+      </c>
+      <c r="L14" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M14" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="C16" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L16" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>120000</v>
+      </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="C18" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K18" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="C19" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="20"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="24"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
@@ -2353,17 +2764,21 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -2376,20 +2791,25 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="24"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
@@ -2467,7 +2887,6 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2477,11 +2896,10 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2491,11 +2909,10 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2505,24 +2922,29 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="6"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2532,10 +2954,11 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2545,10 +2968,11 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2558,11 +2982,11 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2576,7 +3000,6 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2590,7 +3013,6 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2604,7 +3026,6 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2618,6 +3039,7 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2631,6 +3053,7 @@
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2644,6 +3067,7 @@
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2657,6 +3081,7 @@
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2747,8 +3172,18 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
@@ -2764,17 +3199,17 @@
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
@@ -2789,23 +3224,8 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="5"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+    <row r="60" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
@@ -2819,169 +3239,170 @@
       <c r="J61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="33"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-    </row>
-    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="M66" s="32"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="25"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="25"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="25"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="32"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="5"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="M70" s="32"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="25"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="25"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="25"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2994,8 +3415,8 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3008,8 +3429,8 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3021,32 +3442,22 @@
       <c r="J77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M78" s="32"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3060,7 +3471,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3087,6 +3498,11 @@
       <c r="J81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -3101,6 +3517,11 @@
       <c r="J82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
@@ -3129,8 +3550,6 @@
       <c r="J84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -3145,103 +3564,158 @@
       <c r="J85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="2"/>
-      <c r="R85" s="8"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="6"/>
-      <c r="O89" s="4"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="2"/>
+      <c r="R89" s="8"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="132" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="M93" s="6"/>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="136" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D9:H9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3534,13 +4008,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -6003,16 +6477,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6579,14 +7053,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -6640,14 +7114,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="443">
   <si>
     <t>Country</t>
   </si>
@@ -1274,9 +1274,6 @@
     <t>Top 3% tax: net contribution as share of GDP (in %)</t>
   </si>
   <si>
-    <t>Periodicity income</t>
-  </si>
-  <si>
     <t>Top 3% tax: 80k $PPP threshold in LCU (yearly)</t>
   </si>
   <si>
@@ -1304,9 +1301,6 @@
     <t>100M</t>
   </si>
   <si>
-    <t>30M</t>
-  </si>
-  <si>
     <t>13k</t>
   </si>
   <si>
@@ -1325,10 +1319,43 @@
     <t>8k</t>
   </si>
   <si>
-    <t>3.5M</t>
-  </si>
-  <si>
-    <t>2.5M</t>
+    <t>Periodicity income (OECD project)</t>
+  </si>
+  <si>
+    <t>Periodicity income (ChatGPT)</t>
+  </si>
+  <si>
+    <t>120k yr / 10k month</t>
+  </si>
+  <si>
+    <t>3.5M yr / 300k month</t>
+  </si>
+  <si>
+    <t>2.5M yr / 200k monthly</t>
+  </si>
+  <si>
+    <t>180k yr / 15k month</t>
+  </si>
+  <si>
+    <t>30M yr / 2.5M month</t>
+  </si>
+  <si>
+    <t>1.5M / 150k month</t>
+  </si>
+  <si>
+    <t>Source GDP in 2035</t>
+  </si>
+  <si>
+    <t>Source NCQG</t>
+  </si>
+  <si>
+    <t>Bridging the clean energy investment gap (OEC, 2024); Climate Finance Provided and Mobilised by Developed Countries in 2013-2022 (OECD, 2024); Joint Multilateral Development Banks (MDBs) Statement for COP 29 (MDBs, 2024); Raising ambition and accelerating delivery of climate finance (Songe et al., 2024)</t>
+  </si>
+  <si>
+    <t>GDP advanced: 61.35T / others: 43.44 in 2023: IMF (https://www.statista.com/statistics/256328/gross-domestic-product-gdp-of-selected-global-regions/⁩); Growth per year by 2035 advanced: 1.59% / all: 2.7% (https://www.spglobal.com/en/research-insights/special-reports/look-forward/emerging-markets-a-decisive-decade) =&gt; GDP advanced 2035: 61.35*1.0159^12=74.1T / others: world-74=(61.35+43.44)*1.027^12=144-74=70T, i.e. 51% in advanced. NB: the difference between advanced and developed is South Korea, Singapore, Taiwan (Saudi Arabia and Slovenia are classified consistently using both definitions). I subtract 3.1 (South Korea, cf. spglobal above) + 0.9 (Taiwan, current GDP + 20%) + 0.6 (Singapore, current GDP + 20%) = 4.6T to obtain 69.5T for "developed" countries' nominal GDP in 2035.</t>
+  </si>
+  <si>
+    <t>Share of 2025 territorial CO2 (non-LULUCF) emissions (in %)</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1497,14 +1524,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,11 +1837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,43 +2109,33 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="B7" s="33">
-        <v>64</v>
-      </c>
-      <c r="C7" s="33">
-        <v>64</v>
-      </c>
-      <c r="D7" s="33">
-        <v>64</v>
-      </c>
-      <c r="E7" s="33">
-        <v>64</v>
-      </c>
-      <c r="F7" s="33">
-        <v>64</v>
-      </c>
-      <c r="G7" s="33">
-        <v>64</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="33">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I7" s="33">
-        <v>72</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="33">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="K7" s="33">
-        <v>72</v>
+        <v>4.47</v>
       </c>
       <c r="L7" s="33">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="M7" s="33">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>400</v>
@@ -2129,47 +2147,46 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B8" s="33">
-        <f>156-27</f>
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C8" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D8" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E8" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="F8" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G8" s="33">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="H8" s="33">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="I8" s="33">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="J8" s="33">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="K8" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="L8" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="M8" s="33">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2178,44 +2195,47 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B9" s="33"/>
+        <v>401</v>
+      </c>
+      <c r="B9" s="33">
+        <f>156-27</f>
+        <v>129</v>
+      </c>
       <c r="C9" s="33">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D9" s="33">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="E9" s="33">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="F9" s="33">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G9" s="33">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="H9" s="33">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="I9" s="33">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="J9" s="33">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="K9" s="33">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="L9" s="33">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="M9" s="33">
-        <v>8</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>403</v>
+        <v>156</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2224,41 +2244,41 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B10" s="32"/>
+        <v>404</v>
+      </c>
+      <c r="B10" s="33"/>
       <c r="C10" s="33">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="33">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="33">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="33">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="33">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="K10" s="33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L10" s="33">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M10" s="33">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>403</v>
@@ -2270,119 +2290,127 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B11" s="32"/>
       <c r="C11" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="K11" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="L11" s="33">
         <v>5</v>
       </c>
-      <c r="D11" s="33">
-        <v>10</v>
-      </c>
-      <c r="E11" s="33">
-        <v>5</v>
-      </c>
-      <c r="F11" s="33">
-        <v>4</v>
-      </c>
-      <c r="G11" s="33">
-        <v>5</v>
-      </c>
-      <c r="H11" s="33">
-        <v>5</v>
-      </c>
-      <c r="I11" s="33">
-        <v>18</v>
-      </c>
-      <c r="J11" s="33">
-        <v>10</v>
-      </c>
-      <c r="K11" s="33">
-        <v>4</v>
-      </c>
-      <c r="L11" s="33">
-        <v>16</v>
-      </c>
       <c r="M11" s="33">
-        <v>18</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="D12" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3</v>
-      </c>
-      <c r="F12" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="H12" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="I12" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="J12" s="20">
+        <v>413</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33">
+        <v>5</v>
+      </c>
+      <c r="F12" s="33">
         <v>4</v>
       </c>
-      <c r="K12" s="35">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L12" s="20">
-        <v>12.2</v>
-      </c>
-      <c r="M12" s="20">
-        <v>8.4</v>
+      <c r="G12" s="33">
+        <v>5</v>
+      </c>
+      <c r="H12" s="33">
+        <v>5</v>
+      </c>
+      <c r="I12" s="33">
+        <v>18</v>
+      </c>
+      <c r="J12" s="33">
+        <v>10</v>
+      </c>
+      <c r="K12" s="33">
+        <v>4</v>
+      </c>
+      <c r="L12" s="33">
+        <v>16</v>
+      </c>
+      <c r="M12" s="33">
+        <v>18</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20" t="s">
-        <v>266</v>
+      <c r="C13" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="J13" s="20">
+        <v>4</v>
+      </c>
+      <c r="K13" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L13" s="20">
+        <v>12.2</v>
+      </c>
+      <c r="M13" s="20">
+        <v>8.4</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="12"/>
@@ -2392,324 +2420,374 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="6">
-        <v>60000</v>
-      </c>
-      <c r="D14" s="6">
-        <v>61000</v>
-      </c>
-      <c r="E14" s="6">
-        <v>53000</v>
-      </c>
-      <c r="F14" s="6">
-        <v>158000</v>
-      </c>
-      <c r="G14" s="6">
-        <v>49000</v>
-      </c>
-      <c r="H14" s="6">
-        <v>58000</v>
-      </c>
-      <c r="I14" s="6">
-        <v>85000</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K14" s="38">
-        <v>2358000</v>
-      </c>
-      <c r="L14" s="6">
-        <v>121000</v>
-      </c>
-      <c r="M14" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="J15" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="6">
-        <v>91000</v>
+        <v>60000</v>
       </c>
       <c r="D16" s="6">
-        <v>91000</v>
+        <v>61000</v>
       </c>
       <c r="E16" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K16" s="36">
+        <v>2358000</v>
+      </c>
+      <c r="L16" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M16" s="6">
         <v>80000</v>
       </c>
-      <c r="F16" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H16" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I16" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J16" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K16" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L16" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M16" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="39" t="s">
-        <v>62</v>
+        <v>416</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>417</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="6">
-        <v>755000</v>
+        <v>91000</v>
       </c>
       <c r="D18" s="6">
-        <v>758000</v>
+        <v>91000</v>
       </c>
       <c r="E18" s="6">
-        <v>664000</v>
+        <v>80000</v>
       </c>
       <c r="F18" s="6">
-        <v>1974000</v>
+        <v>237000</v>
       </c>
       <c r="G18" s="6">
-        <v>607000</v>
+        <v>73000</v>
       </c>
       <c r="H18" s="6">
-        <v>722000</v>
+        <v>87000</v>
       </c>
       <c r="I18" s="6">
-        <v>1063000</v>
+        <v>128000</v>
       </c>
       <c r="J18" s="6">
-        <v>98298000</v>
+        <v>11796000</v>
       </c>
       <c r="K18" s="4">
-        <v>29472000</v>
+        <v>3537000</v>
       </c>
       <c r="L18" s="6">
-        <v>1510000</v>
+        <v>181000</v>
       </c>
       <c r="M18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+        <v>120000</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K20" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="K21" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2728,132 +2806,138 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="24"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="24"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -2869,22 +2953,17 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -2900,17 +2979,22 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -2926,25 +3010,19 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2954,22 +3032,26 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="2"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -2986,7 +3068,7 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2996,10 +3078,11 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3009,10 +3092,11 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3039,7 +3123,6 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3053,7 +3136,6 @@
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3080,7 +3162,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3094,7 +3176,8 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3107,7 +3190,8 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3120,7 +3204,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3133,7 +3217,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3146,7 +3230,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3159,7 +3243,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3172,7 +3256,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3185,7 +3269,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3198,7 +3282,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3211,7 +3295,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3224,10 +3308,20 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3240,20 +3334,10 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="33"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3266,25 +3350,20 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="5"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="33"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3296,41 +3375,42 @@
       <c r="J65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="5"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -3342,49 +3422,51 @@
       <c r="J68" s="19"/>
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
-    </row>
-    <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="M70" s="32"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="25"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="25"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="M72" s="32"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -3397,39 +3479,39 @@
       <c r="L73" s="26"/>
       <c r="M73" s="25"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="25"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="25"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="C76" s="19"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3443,22 +3525,22 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="32"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3471,19 +3553,19 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="M80" s="32"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
@@ -3498,11 +3580,6 @@
       <c r="J81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -3517,11 +3594,6 @@
       <c r="J82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
@@ -3536,6 +3608,11 @@
       <c r="J83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -3550,6 +3627,11 @@
       <c r="J84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -3606,8 +3688,6 @@
       <c r="J88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -3622,71 +3702,63 @@
       <c r="J89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="2"/>
-      <c r="R89" s="8"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="2"/>
+      <c r="R91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -3694,27 +3766,65 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="6"/>
       <c r="M93" s="6"/>
+      <c r="N93" s="4"/>
       <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="2"/>
-    </row>
-    <row r="136" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="6"/>
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="138" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4008,13 +4118,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -6429,11 +6539,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,271 +6580,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>343</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>346</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>356</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>358</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>360</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>342</v>
@@ -6743,7 +6811,7 @@
         <v>342</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>342</v>
@@ -6751,346 +6819,378 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>349</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>188</v>
+        <v>170</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7102,7 +7202,9 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="23" t="s">
+        <v>334</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7113,167 +7215,159 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="A33" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>367</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="I38" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="I39" s="2" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7283,170 +7377,180 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>387</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>368</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C42" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" t="s">
-        <v>378</v>
-      </c>
-      <c r="E42" t="s">
-        <v>379</v>
-      </c>
-      <c r="F42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G42" t="s">
-        <v>381</v>
-      </c>
-      <c r="H42" t="s">
-        <v>382</v>
-      </c>
-      <c r="I42" t="s">
-        <v>383</v>
+        <v>228</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
+      <c r="D44" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" t="s">
+        <v>379</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>381</v>
+      </c>
+      <c r="H44" t="s">
+        <v>382</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-    </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
-      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="17"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -7527,14 +7631,14 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -7544,39 +7648,39 @@
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
     </row>
@@ -7626,14 +7730,14 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -7648,14 +7752,14 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -7670,25 +7774,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -7769,14 +7873,14 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="30"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
-      <c r="I95" s="30"/>
+      <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -7791,14 +7895,14 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="27"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -8031,13 +8135,35 @@
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B30:I30"/>
   </mergeCells>
-  <conditionalFormatting sqref="B62:I62">
+  <conditionalFormatting sqref="B64:I64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8049,7 +8175,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F61 H61">
+  <conditionalFormatting sqref="D63:F63 H63">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8061,7 +8187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:I62">
+  <conditionalFormatting sqref="B64:I64">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -1235,9 +1235,6 @@
     <t>GCS high: number of participating countries (Global South + EU + UK + CH + JP + NO+NZ+IC+KO+TW)</t>
   </si>
   <si>
-    <t>GCS_mid: 121 (56% emissions); GCS_low: 120 (25%)</t>
-  </si>
-  <si>
     <t>questionnaire.R, Fisher-Post &amp; Gethin (2023) &amp; IMF (2024)</t>
   </si>
   <si>
@@ -1356,6 +1353,9 @@
   </si>
   <si>
     <t>Share of 2025 territorial CO2 (non-LULUCF) emissions (in %)</t>
+  </si>
+  <si>
+    <t>GCS_mid: 118 (56% emissions); GCS_low: 117 (25%)</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1925,22 +1925,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="33">
         <v>8</v>
@@ -2198,44 +2198,43 @@
         <v>401</v>
       </c>
       <c r="B9" s="33">
-        <f>156-27</f>
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C9" s="33">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D9" s="33">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E9" s="33">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F9" s="33">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G9" s="33">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="H9" s="33">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I9" s="33">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9" s="33">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K9" s="33">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L9" s="33">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M9" s="33">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2244,7 +2243,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33">
@@ -2281,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2290,7 +2289,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="33">
@@ -2327,7 +2326,7 @@
         <v>3.2</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2336,7 +2335,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="33">
@@ -2376,7 +2375,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="20">
@@ -2420,7 +2419,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="20" t="s">
@@ -2458,7 +2457,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="20" t="s">
@@ -2502,7 +2501,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="6">
@@ -2539,7 +2538,7 @@
         <v>80000</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -2548,7 +2547,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="37" t="s">
@@ -2561,7 +2560,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>59</v>
@@ -2570,16 +2569,16 @@
         <v>79</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>77</v>
@@ -2592,7 +2591,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="6">
@@ -2632,7 +2631,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="37" t="s">
@@ -2648,7 +2647,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>74</v>
@@ -2657,13 +2656,13 @@
         <v>33</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>53</v>
@@ -2672,7 +2671,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -2716,38 +2715,38 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>40</v>
@@ -6582,18 +6581,18 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -1841,7 +1841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,37 +2150,37 @@
         <v>398</v>
       </c>
       <c r="B8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="33">
+        <v>70</v>
+      </c>
+      <c r="I8" s="33">
         <v>71</v>
       </c>
-      <c r="I8" s="33">
-        <v>72</v>
-      </c>
       <c r="J8" s="33">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="33">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="33">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="33">
         <v>72</v>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
-    <sheet name="Figures (2023)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sources" sheetId="3" r:id="rId3"/>
-    <sheet name="ReadMe" sheetId="2" r:id="rId4"/>
+    <sheet name="Income" sheetId="5" r:id="rId2"/>
+    <sheet name="Policies" sheetId="6" r:id="rId3"/>
+    <sheet name="Figures (2023)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sources" sheetId="3" r:id="rId5"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="562">
   <si>
     <t>Country</t>
   </si>
@@ -1356,6 +1358,363 @@
   </si>
   <si>
     <t>GCS_mid: 118 (56% emissions); GCS_low: 117 (25%)</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Staatsschuldenquote auf unter 60% reduzieren</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rétablissement de l'impôt sur la fortune (ISF)</t>
+  </si>
+  <si>
+    <t>Más necesidades sanitarias dentro del sistema público (cuidado dental, gafas, salud mental)</t>
+  </si>
+  <si>
+    <t>Plan pour l'isolation thermique</t>
+  </si>
+  <si>
+    <t>Inversión en el sistema educativo y universalización de la educación preescolar</t>
+  </si>
+  <si>
+    <t>Plan de redistribution nationale</t>
+  </si>
+  <si>
+    <t>econ_issues</t>
+  </si>
+  <si>
+    <t>Économie</t>
+  </si>
+  <si>
+    <t>Wirtschaftspolitik</t>
+  </si>
+  <si>
+    <t>Asuntos económicos</t>
+  </si>
+  <si>
+    <t>econ1</t>
+  </si>
+  <si>
+    <t>Versement du RSA aux 18-25 ans sans emploi</t>
+  </si>
+  <si>
+    <t>Erhöhung des Regelsatzes des Bürgergelds auf bis zu 600€ pro Monat</t>
+  </si>
+  <si>
+    <t>econ2</t>
+  </si>
+  <si>
+    <t>SMIC à 1600€ net par mois</t>
+  </si>
+  <si>
+    <t>Bürgerversicherung als gerechtere Sozialversicherung</t>
+  </si>
+  <si>
+    <t>Ingreso Básico Garantizado de 600€ al mes</t>
+  </si>
+  <si>
+    <t>econ3</t>
+  </si>
+  <si>
+    <t>Recul de l'âge légal de départ à la retraite à 65 ans</t>
+  </si>
+  <si>
+    <t>Jornada laboral de 34 horas semanales</t>
+  </si>
+  <si>
+    <t>econ4</t>
+  </si>
+  <si>
+    <t>Hausse de 20% du financement de l'hôpital public et de l'Éducation nationale</t>
+  </si>
+  <si>
+    <t>Investitionen für Gigabit-Netzwerke bereitstellen</t>
+  </si>
+  <si>
+    <t>society_issues</t>
+  </si>
+  <si>
+    <t>Démocratie</t>
+  </si>
+  <si>
+    <t>Gesellschaft</t>
+  </si>
+  <si>
+    <t>Asuntos sociales</t>
+  </si>
+  <si>
+    <t>soc1</t>
+  </si>
+  <si>
+    <t>Élection des députés à la proportionnelle</t>
+  </si>
+  <si>
+    <t>Reformar la ley electoral para hacer el Senado más proporcional</t>
+  </si>
+  <si>
+    <t>soc2</t>
+  </si>
+  <si>
+    <t>Référendum d'Initiative Citoyenne (RIC)</t>
+  </si>
+  <si>
+    <t>Cannabis-Legalisierung</t>
+  </si>
+  <si>
+    <t>Abolición de la prostitución</t>
+  </si>
+  <si>
+    <t>climate_pol</t>
+  </si>
+  <si>
+    <t>Climat</t>
+  </si>
+  <si>
+    <t>Klimaschutz</t>
+  </si>
+  <si>
+    <t>Política climática</t>
+  </si>
+  <si>
+    <t>climate1</t>
+  </si>
+  <si>
+    <t>Interdiction des véhicules les plus polluants dans les centres-villes (ZFE)</t>
+  </si>
+  <si>
+    <t>Verpflichtende Solaranlagen auf allen geeigneten Dächern</t>
+  </si>
+  <si>
+    <t>100% de electricidad producida con energías renovables en 2040</t>
+  </si>
+  <si>
+    <t>climate2</t>
+  </si>
+  <si>
+    <t>Plan zur Wärmedämmung</t>
+  </si>
+  <si>
+    <t>Plan de aislamiento térmico</t>
+  </si>
+  <si>
+    <t>climate3</t>
+  </si>
+  <si>
+    <t>Interdiction de la vente de voitures thermiques neuves d'ici 2030</t>
+  </si>
+  <si>
+    <t>Verbot des Verkaufs von Neuwagen mit Verbrennungsmotor bis 2030</t>
+  </si>
+  <si>
+    <t>Prohibir la venta de coches nuevos con motor de combustión para 2030</t>
+  </si>
+  <si>
+    <t>tax_system</t>
+  </si>
+  <si>
+    <t>Fiscalité</t>
+  </si>
+  <si>
+    <t>Steuerpolitik</t>
+  </si>
+  <si>
+    <t>Sistema fiscal</t>
+  </si>
+  <si>
+    <t>tax1</t>
+  </si>
+  <si>
+    <t>Nationales Umverteilungsprogramm</t>
+  </si>
+  <si>
+    <t>Plan de redistribución nacional</t>
+  </si>
+  <si>
+    <t>tax2</t>
+  </si>
+  <si>
+    <t>Die Vermögenssteuer wieder in Kraft setzen</t>
+  </si>
+  <si>
+    <t>Aumentar los impuestos sobre las rentas superiores a 100.000 euros anuales</t>
+  </si>
+  <si>
+    <t>foreign_policy</t>
+  </si>
+  <si>
+    <t>Politique étrangère</t>
+  </si>
+  <si>
+    <t>Außenpolitik</t>
+  </si>
+  <si>
+    <t>Política exterior</t>
+  </si>
+  <si>
+    <t>foreign1</t>
+  </si>
+  <si>
+    <t>Plan mondial pour le climat</t>
+  </si>
+  <si>
+    <t>Globales Klimaprogramm</t>
+  </si>
+  <si>
+    <t>Plan climático global</t>
+  </si>
+  <si>
+    <t>foreign2</t>
+  </si>
+  <si>
+    <t>Taxe mondiale sur les millionaires</t>
+  </si>
+  <si>
+    <t>Globale Steuer auf Millionäre</t>
+  </si>
+  <si>
+    <t>Impuesto mundial a los millonarios</t>
+  </si>
+  <si>
+    <t>foreign3</t>
+  </si>
+  <si>
+    <t>Assemblée démocratique mondiale sur le changement climatique</t>
+  </si>
+  <si>
+    <t>Globale demokratische Versammlung zum Klimawandel</t>
+  </si>
+  <si>
+    <t>Asamblea democrática mundial sobre el cambio climático</t>
+  </si>
+  <si>
+    <t>foreign4</t>
+  </si>
+  <si>
+    <t>Doubler l'aide au développement des pays à faibles revenus</t>
+  </si>
+  <si>
+    <t>Verdoppelung der Mittel für die Entwicklungshilfe in einkommensschwachen Ländern</t>
+  </si>
+  <si>
+    <t>Duplicar la ayuda exterior a los países de renta baja</t>
+  </si>
+  <si>
+    <t>Economic issues</t>
+  </si>
+  <si>
+    <t>Welfare (RSA) payment to unemployed 18-25 year olds</t>
+  </si>
+  <si>
+    <t>Minimum wage (SMIC) at 1600€/month net</t>
+  </si>
+  <si>
+    <t>Raising the legal retirement age to 65</t>
+  </si>
+  <si>
+    <t>20% increase in funding for public hospitals and National Education</t>
+  </si>
+  <si>
+    <t>Institutions</t>
+  </si>
+  <si>
+    <t>Proportional election of MPs</t>
+  </si>
+  <si>
+    <t>Citizens' Initiative Referendum (RIC)</t>
+  </si>
+  <si>
+    <t>Climate policy</t>
+  </si>
+  <si>
+    <t>Prohibition of the most polluting vehicles in city centers (ZFE)</t>
+  </si>
+  <si>
+    <t>Plan for thermal insulation</t>
+  </si>
+  <si>
+    <t>Ban on the sale of new thermal cars by 2030</t>
+  </si>
+  <si>
+    <t>Tax system</t>
+  </si>
+  <si>
+    <t>National redistribution plan</t>
+  </si>
+  <si>
+    <t>Reinstatement of the wealth tax (ISF)</t>
+  </si>
+  <si>
+    <t>Foreign policy</t>
+  </si>
+  <si>
+    <t>Global Climate Plan</t>
+  </si>
+  <si>
+    <t>Global Millionaire Tax</t>
+  </si>
+  <si>
+    <t>Global Democratic Assembly on Climate Change</t>
+  </si>
+  <si>
+    <t>Double foreign aid to low-income countries</t>
+  </si>
+  <si>
+    <t>FR_sources</t>
+  </si>
+  <si>
+    <t>https://www.lemonde.fr/</t>
+  </si>
+  <si>
+    <t>Example (2023)</t>
+  </si>
+  <si>
+    <t>Test (2022)</t>
+  </si>
+  <si>
+    <t>SA_EN</t>
+  </si>
+  <si>
+    <t>IT-CH</t>
+  </si>
+  <si>
+    <t>THIS SHEET IS ONLY MADE OF EXAMPLES</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1727,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +1816,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1475,11 +1855,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1527,6 +1908,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,7 +1919,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1549,12 +1935,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Bluebery PLANTEROSE" id="{B1841E6D-7E30-284D-8D9A-1B2D38EFADD0}" userId="S::bluebery.planterose@sciencespo.fr::b495b69d-f3c3-4357-9166-ef5b6b692f55" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1818,30 +2198,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q46" dT="2021-11-30T13:20:27.57" personId="{B1841E6D-7E30-284D-8D9A-1B2D38EFADD0}" id="{45867FEF-B30E-CA46-B729-12C900818755}">
-    <text>2010</text>
-  </threadedComment>
-  <threadedComment ref="S46" dT="2021-11-30T13:20:44.06" personId="{B1841E6D-7E30-284D-8D9A-1B2D38EFADD0}" id="{776472AD-088F-684A-A069-094A5DB506AC}">
-    <text>2019</text>
-  </threadedComment>
-  <threadedComment ref="F47" dT="2021-11-30T13:15:17.52" personId="{B1841E6D-7E30-284D-8D9A-1B2D38EFADD0}" id="{6C4BBD9E-1BCD-3848-B703-E487C8D54720}">
-    <text>2019</text>
-  </threadedComment>
-  <threadedComment ref="I47" dT="2021-11-30T13:16:01.71" personId="{B1841E6D-7E30-284D-8D9A-1B2D38EFADD0}" id="{E01A8FEC-6813-0F4C-A982-DD80F0C4D3CE}">
-    <text>2019</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3831,6 +4194,714 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>21</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="D8" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>25</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>26</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>31</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>35</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>36</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>42</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>43</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>44</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>45</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D27" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R132"/>
   <sheetViews>
@@ -4117,13 +5188,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -6536,7 +7607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
@@ -6602,16 +7673,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -7178,14 +8249,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -7239,14 +8310,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -8203,7 +9274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
     <sheet name="Income" sheetId="5" r:id="rId2"/>
     <sheet name="Policies" sheetId="6" r:id="rId3"/>
-    <sheet name="Figures (2023)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sources" sheetId="3" r:id="rId5"/>
-    <sheet name="ReadMe" sheetId="2" r:id="rId6"/>
+    <sheet name="examples_custom" sheetId="7" r:id="rId4"/>
+    <sheet name="Figures (2023)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sources" sheetId="3" r:id="rId6"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="586">
   <si>
     <t>Country</t>
   </si>
@@ -1715,6 +1716,78 @@
   </si>
   <si>
     <t>THIS SHEET IS ONLY MADE OF EXAMPLES</t>
+  </si>
+  <si>
+    <t>now_10k</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>now_40k</t>
+  </si>
+  <si>
+    <t>now_60k</t>
+  </si>
+  <si>
+    <t>now_100k</t>
+  </si>
+  <si>
+    <t>€/year</t>
+  </si>
+  <si>
+    <t>$/year</t>
+  </si>
+  <si>
+    <t>zł/rok</t>
+  </si>
+  <si>
+    <t>£/year</t>
+  </si>
+  <si>
+    <t>Income after global redistribution</t>
+  </si>
+  <si>
+    <t>text_unit</t>
+  </si>
+  <si>
+    <t>text_current</t>
+  </si>
+  <si>
+    <t>text_after</t>
+  </si>
+  <si>
+    <t>text_title</t>
+  </si>
+  <si>
+    <t>Income after taxes and transfers of human adults, from the poorest to the richest</t>
+  </si>
+  <si>
+    <t>text_benefit</t>
+  </si>
+  <si>
+    <t>text_lose</t>
+  </si>
+  <si>
+    <t>text_degree</t>
+  </si>
+  <si>
+    <t>Current income</t>
+  </si>
+  <si>
+    <t>Share who lose out:</t>
+  </si>
+  <si>
+    <t>Share who benefit:</t>
+  </si>
+  <si>
+    <t>Degree of redistribution:</t>
+  </si>
+  <si>
+    <t>step_major</t>
+  </si>
+  <si>
+    <t>step_minor</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4271,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,6 +4975,588 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+      <c r="L2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
+      </c>
+      <c r="D3">
+        <v>40000</v>
+      </c>
+      <c r="E3">
+        <v>40000</v>
+      </c>
+      <c r="F3">
+        <v>40000</v>
+      </c>
+      <c r="G3">
+        <v>40000</v>
+      </c>
+      <c r="H3">
+        <v>40000</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="J3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>40000</v>
+      </c>
+      <c r="L3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4">
+        <v>60000</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>60000</v>
+      </c>
+      <c r="E4">
+        <v>60000</v>
+      </c>
+      <c r="F4">
+        <v>60000</v>
+      </c>
+      <c r="G4">
+        <v>60000</v>
+      </c>
+      <c r="H4">
+        <v>60000</v>
+      </c>
+      <c r="I4">
+        <v>60000</v>
+      </c>
+      <c r="J4">
+        <v>60000</v>
+      </c>
+      <c r="K4">
+        <v>60000</v>
+      </c>
+      <c r="L4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" t="s">
+        <v>567</v>
+      </c>
+      <c r="J7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" t="s">
+        <v>580</v>
+      </c>
+      <c r="H8" t="s">
+        <v>580</v>
+      </c>
+      <c r="I8" t="s">
+        <v>580</v>
+      </c>
+      <c r="J8" t="s">
+        <v>580</v>
+      </c>
+      <c r="K8" t="s">
+        <v>580</v>
+      </c>
+      <c r="L8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G9" t="s">
+        <v>571</v>
+      </c>
+      <c r="H9" t="s">
+        <v>571</v>
+      </c>
+      <c r="I9" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" t="s">
+        <v>571</v>
+      </c>
+      <c r="K9" t="s">
+        <v>571</v>
+      </c>
+      <c r="L9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" t="s">
+        <v>576</v>
+      </c>
+      <c r="G10" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" t="s">
+        <v>576</v>
+      </c>
+      <c r="I10" t="s">
+        <v>576</v>
+      </c>
+      <c r="J10" t="s">
+        <v>576</v>
+      </c>
+      <c r="K10" t="s">
+        <v>576</v>
+      </c>
+      <c r="L10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H11" t="s">
+        <v>582</v>
+      </c>
+      <c r="I11" t="s">
+        <v>582</v>
+      </c>
+      <c r="J11" t="s">
+        <v>582</v>
+      </c>
+      <c r="K11" t="s">
+        <v>582</v>
+      </c>
+      <c r="L11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" t="s">
+        <v>581</v>
+      </c>
+      <c r="G12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" t="s">
+        <v>581</v>
+      </c>
+      <c r="J12" t="s">
+        <v>581</v>
+      </c>
+      <c r="K12" t="s">
+        <v>581</v>
+      </c>
+      <c r="L12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" t="s">
+        <v>583</v>
+      </c>
+      <c r="H13" t="s">
+        <v>583</v>
+      </c>
+      <c r="I13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J13" t="s">
+        <v>583</v>
+      </c>
+      <c r="K13" t="s">
+        <v>583</v>
+      </c>
+      <c r="L13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>50000</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <v>10000</v>
+      </c>
+      <c r="L14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15">
+        <v>2500</v>
+      </c>
+      <c r="E15">
+        <v>2500</v>
+      </c>
+      <c r="F15">
+        <v>2500</v>
+      </c>
+      <c r="G15">
+        <v>2500</v>
+      </c>
+      <c r="H15">
+        <v>2500</v>
+      </c>
+      <c r="I15">
+        <v>2500</v>
+      </c>
+      <c r="J15">
+        <v>2500</v>
+      </c>
+      <c r="K15">
+        <v>2500</v>
+      </c>
+      <c r="L15">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R132"/>
   <sheetViews>
@@ -7607,7 +8262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
@@ -9274,7 +9929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
     <sheet name="Income" sheetId="5" r:id="rId2"/>
     <sheet name="Policies" sheetId="6" r:id="rId3"/>
-    <sheet name="examples_custom" sheetId="7" r:id="rId4"/>
+    <sheet name="features" sheetId="7" r:id="rId4"/>
     <sheet name="Figures (2023)" sheetId="4" r:id="rId5"/>
     <sheet name="Sources" sheetId="3" r:id="rId6"/>
     <sheet name="ReadMe" sheetId="2" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="774">
   <si>
     <t>Country</t>
   </si>
@@ -1788,17 +1788,582 @@
   </si>
   <si>
     <t>step_minor</t>
+  </si>
+  <si>
+    <t>DE-CH</t>
+  </si>
+  <si>
+    <t>FR-CH</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>EN-GB</t>
+  </si>
+  <si>
+    <t>ES-US</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>amount_bi</t>
+  </si>
+  <si>
+    <t>periodicity</t>
+  </si>
+  <si>
+    <t>amount_lost</t>
+  </si>
+  <si>
+    <t>amount_expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> per month</t>
+  </si>
+  <si>
+    <t>amount_lottery</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>la France</t>
+  </si>
+  <si>
+    <t>emissions_low_with</t>
+  </si>
+  <si>
+    <t>emissions_with</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>emissions_mid_with</t>
+  </si>
+  <si>
+    <t>emissions_high_with</t>
+  </si>
+  <si>
+    <t>map_append</t>
+  </si>
+  <si>
+    <t>periodicity_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> per year</t>
+  </si>
+  <si>
+    <t>lcu_120k</t>
+  </si>
+  <si>
+    <t>lcu_130k</t>
+  </si>
+  <si>
+    <t>lcu_10k</t>
+  </si>
+  <si>
+    <t>lcu_1500</t>
+  </si>
+  <si>
+    <t>lcu_200k</t>
+  </si>
+  <si>
+    <t>lcu_100k</t>
+  </si>
+  <si>
+    <t>affected_top3</t>
+  </si>
+  <si>
+    <t>affected_top1</t>
+  </si>
+  <si>
+    <t>transfer_top1</t>
+  </si>
+  <si>
+    <t>transfer_top3</t>
+  </si>
+  <si>
+    <t>lcu_80k</t>
+  </si>
+  <si>
+    <t>lcu_90k</t>
+  </si>
+  <si>
+    <t>lcu_1M</t>
+  </si>
+  <si>
+    <t>lcu_75k</t>
+  </si>
+  <si>
+    <t>lcu_150k</t>
+  </si>
+  <si>
+    <t>lcu_10k_top3</t>
+  </si>
+  <si>
+    <t>$1,500</t>
+  </si>
+  <si>
+    <t>$10,000</t>
+  </si>
+  <si>
+    <t>$75,000</t>
+  </si>
+  <si>
+    <t>$80,000</t>
+  </si>
+  <si>
+    <t>$90,000</t>
+  </si>
+  <si>
+    <t>$100,000</t>
+  </si>
+  <si>
+    <t>$120,000</t>
+  </si>
+  <si>
+    <t>$130,000</t>
+  </si>
+  <si>
+    <t>$150,000</t>
+  </si>
+  <si>
+    <t>$200,000</t>
+  </si>
+  <si>
+    <t>$1 million</t>
+  </si>
+  <si>
+    <t>$1,501</t>
+  </si>
+  <si>
+    <t>$1,502</t>
+  </si>
+  <si>
+    <t>$1,503</t>
+  </si>
+  <si>
+    <t>$1,504</t>
+  </si>
+  <si>
+    <t>$1,505</t>
+  </si>
+  <si>
+    <t>$1,506</t>
+  </si>
+  <si>
+    <t>$1,507</t>
+  </si>
+  <si>
+    <t>$1,508</t>
+  </si>
+  <si>
+    <t>$1,509</t>
+  </si>
+  <si>
+    <t>$1,510</t>
+  </si>
+  <si>
+    <t>$1,511</t>
+  </si>
+  <si>
+    <t>$1,512</t>
+  </si>
+  <si>
+    <t>$1,513</t>
+  </si>
+  <si>
+    <t>$1,514</t>
+  </si>
+  <si>
+    <t>$75,001</t>
+  </si>
+  <si>
+    <t>$75,002</t>
+  </si>
+  <si>
+    <t>$75,003</t>
+  </si>
+  <si>
+    <t>$75,004</t>
+  </si>
+  <si>
+    <t>$75,005</t>
+  </si>
+  <si>
+    <t>$75,006</t>
+  </si>
+  <si>
+    <t>$75,007</t>
+  </si>
+  <si>
+    <t>$75,008</t>
+  </si>
+  <si>
+    <t>$75,009</t>
+  </si>
+  <si>
+    <t>$75,010</t>
+  </si>
+  <si>
+    <t>$75,011</t>
+  </si>
+  <si>
+    <t>$75,012</t>
+  </si>
+  <si>
+    <t>$75,013</t>
+  </si>
+  <si>
+    <t>$75,014</t>
+  </si>
+  <si>
+    <t>$80,001</t>
+  </si>
+  <si>
+    <t>$80,002</t>
+  </si>
+  <si>
+    <t>$80,003</t>
+  </si>
+  <si>
+    <t>$80,004</t>
+  </si>
+  <si>
+    <t>$80,005</t>
+  </si>
+  <si>
+    <t>$80,006</t>
+  </si>
+  <si>
+    <t>$80,007</t>
+  </si>
+  <si>
+    <t>$80,008</t>
+  </si>
+  <si>
+    <t>$80,009</t>
+  </si>
+  <si>
+    <t>$80,010</t>
+  </si>
+  <si>
+    <t>$80,011</t>
+  </si>
+  <si>
+    <t>$80,012</t>
+  </si>
+  <si>
+    <t>$80,013</t>
+  </si>
+  <si>
+    <t>$80,014</t>
+  </si>
+  <si>
+    <t>$90,001</t>
+  </si>
+  <si>
+    <t>$90,002</t>
+  </si>
+  <si>
+    <t>$90,003</t>
+  </si>
+  <si>
+    <t>$90,004</t>
+  </si>
+  <si>
+    <t>$90,005</t>
+  </si>
+  <si>
+    <t>$90,006</t>
+  </si>
+  <si>
+    <t>$90,007</t>
+  </si>
+  <si>
+    <t>$90,008</t>
+  </si>
+  <si>
+    <t>$90,009</t>
+  </si>
+  <si>
+    <t>$90,010</t>
+  </si>
+  <si>
+    <t>$90,011</t>
+  </si>
+  <si>
+    <t>$90,012</t>
+  </si>
+  <si>
+    <t>$90,013</t>
+  </si>
+  <si>
+    <t>$90,014</t>
+  </si>
+  <si>
+    <t>$100,001</t>
+  </si>
+  <si>
+    <t>$100,002</t>
+  </si>
+  <si>
+    <t>$100,003</t>
+  </si>
+  <si>
+    <t>$100,004</t>
+  </si>
+  <si>
+    <t>$100,005</t>
+  </si>
+  <si>
+    <t>$100,006</t>
+  </si>
+  <si>
+    <t>$100,007</t>
+  </si>
+  <si>
+    <t>$100,008</t>
+  </si>
+  <si>
+    <t>$100,009</t>
+  </si>
+  <si>
+    <t>$100,010</t>
+  </si>
+  <si>
+    <t>$100,011</t>
+  </si>
+  <si>
+    <t>$100,012</t>
+  </si>
+  <si>
+    <t>$100,013</t>
+  </si>
+  <si>
+    <t>$100,014</t>
+  </si>
+  <si>
+    <t>$120,001</t>
+  </si>
+  <si>
+    <t>$120,002</t>
+  </si>
+  <si>
+    <t>$120,003</t>
+  </si>
+  <si>
+    <t>$120,004</t>
+  </si>
+  <si>
+    <t>$120,005</t>
+  </si>
+  <si>
+    <t>$120,006</t>
+  </si>
+  <si>
+    <t>$120,007</t>
+  </si>
+  <si>
+    <t>$120,008</t>
+  </si>
+  <si>
+    <t>$120,009</t>
+  </si>
+  <si>
+    <t>$120,010</t>
+  </si>
+  <si>
+    <t>$120,011</t>
+  </si>
+  <si>
+    <t>$120,012</t>
+  </si>
+  <si>
+    <t>$120,013</t>
+  </si>
+  <si>
+    <t>$120,014</t>
+  </si>
+  <si>
+    <t>$130,001</t>
+  </si>
+  <si>
+    <t>$130,002</t>
+  </si>
+  <si>
+    <t>$130,003</t>
+  </si>
+  <si>
+    <t>$130,004</t>
+  </si>
+  <si>
+    <t>$130,005</t>
+  </si>
+  <si>
+    <t>$130,006</t>
+  </si>
+  <si>
+    <t>$130,007</t>
+  </si>
+  <si>
+    <t>$130,008</t>
+  </si>
+  <si>
+    <t>$130,009</t>
+  </si>
+  <si>
+    <t>$130,010</t>
+  </si>
+  <si>
+    <t>$130,011</t>
+  </si>
+  <si>
+    <t>$130,012</t>
+  </si>
+  <si>
+    <t>$130,013</t>
+  </si>
+  <si>
+    <t>$130,014</t>
+  </si>
+  <si>
+    <t>$150,001</t>
+  </si>
+  <si>
+    <t>$150,002</t>
+  </si>
+  <si>
+    <t>$150,003</t>
+  </si>
+  <si>
+    <t>$150,004</t>
+  </si>
+  <si>
+    <t>$150,005</t>
+  </si>
+  <si>
+    <t>$150,006</t>
+  </si>
+  <si>
+    <t>$150,007</t>
+  </si>
+  <si>
+    <t>$150,008</t>
+  </si>
+  <si>
+    <t>$150,009</t>
+  </si>
+  <si>
+    <t>$150,010</t>
+  </si>
+  <si>
+    <t>$150,011</t>
+  </si>
+  <si>
+    <t>$150,012</t>
+  </si>
+  <si>
+    <t>$150,013</t>
+  </si>
+  <si>
+    <t>$150,014</t>
+  </si>
+  <si>
+    <t>$200,001</t>
+  </si>
+  <si>
+    <t>$200,002</t>
+  </si>
+  <si>
+    <t>$200,003</t>
+  </si>
+  <si>
+    <t>$200,004</t>
+  </si>
+  <si>
+    <t>$200,005</t>
+  </si>
+  <si>
+    <t>$200,006</t>
+  </si>
+  <si>
+    <t>$200,007</t>
+  </si>
+  <si>
+    <t>$200,008</t>
+  </si>
+  <si>
+    <t>$200,009</t>
+  </si>
+  <si>
+    <t>$200,010</t>
+  </si>
+  <si>
+    <t>$200,011</t>
+  </si>
+  <si>
+    <t>$200,012</t>
+  </si>
+  <si>
+    <t>$200,013</t>
+  </si>
+  <si>
+    <t>$200,014</t>
+  </si>
+  <si>
+    <t>lcu_1500_top3</t>
+  </si>
+  <si>
+    <t>tax_country_name</t>
+  </si>
+  <si>
+    <t>En France</t>
+  </si>
+  <si>
+    <t>tax_country_gdp</t>
+  </si>
+  <si>
+    <t>tax_revenue</t>
+  </si>
+  <si>
+    <t>tax_threshold</t>
+  </si>
+  <si>
+    <t>$430 billion</t>
+  </si>
+  <si>
+    <t>U.S. GDP</t>
+  </si>
+  <si>
+    <t>$5 million</t>
+  </si>
+  <si>
+    <t>tax_revenue_gdp</t>
+  </si>
+  <si>
+    <t>wealth_threshold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1933,7 +2498,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1991,6 +2556,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4976,15 +5542,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5001,25 +5570,37 @@
         <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>408</v>
+        <v>589</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>592</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>410</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>411</v>
+        <v>588</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>562</v>
       </c>
@@ -5056,8 +5637,20 @@
       <c r="L2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+      <c r="O2">
+        <v>10000</v>
+      </c>
+      <c r="P2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>564</v>
       </c>
@@ -5094,8 +5687,20 @@
       <c r="L3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>40000</v>
+      </c>
+      <c r="N3">
+        <v>40000</v>
+      </c>
+      <c r="O3">
+        <v>40000</v>
+      </c>
+      <c r="P3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>565</v>
       </c>
@@ -5132,8 +5737,20 @@
       <c r="L4">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>60000</v>
+      </c>
+      <c r="N4">
+        <v>60000</v>
+      </c>
+      <c r="O4">
+        <v>60000</v>
+      </c>
+      <c r="P4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>566</v>
       </c>
@@ -5170,8 +5787,20 @@
       <c r="L5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>100000</v>
+      </c>
+      <c r="N5">
+        <v>100000</v>
+      </c>
+      <c r="O5">
+        <v>100000</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -5208,8 +5837,20 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>572</v>
       </c>
@@ -5246,8 +5887,20 @@
       <c r="L7" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>568</v>
+      </c>
+      <c r="N7" t="s">
+        <v>568</v>
+      </c>
+      <c r="O7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>573</v>
       </c>
@@ -5284,8 +5937,20 @@
       <c r="L8" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>580</v>
+      </c>
+      <c r="N8" t="s">
+        <v>580</v>
+      </c>
+      <c r="O8" t="s">
+        <v>580</v>
+      </c>
+      <c r="P8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>574</v>
       </c>
@@ -5322,8 +5987,20 @@
       <c r="L9" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>571</v>
+      </c>
+      <c r="N9" t="s">
+        <v>571</v>
+      </c>
+      <c r="O9" t="s">
+        <v>571</v>
+      </c>
+      <c r="P9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>575</v>
       </c>
@@ -5360,8 +6037,20 @@
       <c r="L10" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>576</v>
+      </c>
+      <c r="N10" t="s">
+        <v>576</v>
+      </c>
+      <c r="O10" t="s">
+        <v>576</v>
+      </c>
+      <c r="P10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>577</v>
       </c>
@@ -5398,8 +6087,20 @@
       <c r="L11" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>582</v>
+      </c>
+      <c r="N11" t="s">
+        <v>582</v>
+      </c>
+      <c r="O11" t="s">
+        <v>582</v>
+      </c>
+      <c r="P11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>578</v>
       </c>
@@ -5436,8 +6137,20 @@
       <c r="L12" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>581</v>
+      </c>
+      <c r="N12" t="s">
+        <v>581</v>
+      </c>
+      <c r="O12" t="s">
+        <v>581</v>
+      </c>
+      <c r="P12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>579</v>
       </c>
@@ -5474,8 +6187,20 @@
       <c r="L13" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>583</v>
+      </c>
+      <c r="N13" t="s">
+        <v>583</v>
+      </c>
+      <c r="O13" t="s">
+        <v>583</v>
+      </c>
+      <c r="P13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>584</v>
       </c>
@@ -5512,8 +6237,20 @@
       <c r="L14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="N14">
+        <v>10000</v>
+      </c>
+      <c r="O14">
+        <v>10000</v>
+      </c>
+      <c r="P14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -5549,6 +6286,1768 @@
       </c>
       <c r="L15">
         <v>2500</v>
+      </c>
+      <c r="M15">
+        <v>2500</v>
+      </c>
+      <c r="N15">
+        <v>2500</v>
+      </c>
+      <c r="O15">
+        <v>2500</v>
+      </c>
+      <c r="P15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" t="s">
+        <v>597</v>
+      </c>
+      <c r="E16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F16" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H16" t="s">
+        <v>597</v>
+      </c>
+      <c r="I16" t="s">
+        <v>597</v>
+      </c>
+      <c r="J16" t="s">
+        <v>597</v>
+      </c>
+      <c r="K16" t="s">
+        <v>597</v>
+      </c>
+      <c r="L16" t="s">
+        <v>597</v>
+      </c>
+      <c r="M16" t="s">
+        <v>597</v>
+      </c>
+      <c r="N16" t="s">
+        <v>597</v>
+      </c>
+      <c r="O16" t="s">
+        <v>597</v>
+      </c>
+      <c r="P16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="45">
+        <v>30</v>
+      </c>
+      <c r="C17" s="45">
+        <v>30</v>
+      </c>
+      <c r="D17" s="45">
+        <v>30</v>
+      </c>
+      <c r="E17" s="45">
+        <v>30</v>
+      </c>
+      <c r="F17" s="45">
+        <v>30</v>
+      </c>
+      <c r="G17" s="45">
+        <v>30</v>
+      </c>
+      <c r="H17" s="45">
+        <v>30</v>
+      </c>
+      <c r="I17" s="45">
+        <v>30</v>
+      </c>
+      <c r="J17" s="45">
+        <v>30</v>
+      </c>
+      <c r="K17" s="45">
+        <v>30</v>
+      </c>
+      <c r="L17" s="45">
+        <v>30</v>
+      </c>
+      <c r="M17" s="45">
+        <v>30</v>
+      </c>
+      <c r="N17" s="45">
+        <v>30</v>
+      </c>
+      <c r="O17" s="45">
+        <v>30</v>
+      </c>
+      <c r="P17" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="45">
+        <v>10</v>
+      </c>
+      <c r="C18" s="45">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45">
+        <v>10</v>
+      </c>
+      <c r="E18" s="45">
+        <v>10</v>
+      </c>
+      <c r="F18" s="45">
+        <v>10</v>
+      </c>
+      <c r="G18" s="45">
+        <v>10</v>
+      </c>
+      <c r="H18" s="45">
+        <v>10</v>
+      </c>
+      <c r="I18" s="45">
+        <v>10</v>
+      </c>
+      <c r="J18" s="45">
+        <v>10</v>
+      </c>
+      <c r="K18" s="45">
+        <v>10</v>
+      </c>
+      <c r="L18" s="45">
+        <v>10</v>
+      </c>
+      <c r="M18" s="45">
+        <v>10</v>
+      </c>
+      <c r="N18" s="45">
+        <v>10</v>
+      </c>
+      <c r="O18" s="45">
+        <v>10</v>
+      </c>
+      <c r="P18" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B19" s="45">
+        <v>40</v>
+      </c>
+      <c r="C19" s="45">
+        <v>40</v>
+      </c>
+      <c r="D19" s="45">
+        <v>40</v>
+      </c>
+      <c r="E19" s="45">
+        <v>40</v>
+      </c>
+      <c r="F19" s="45">
+        <v>40</v>
+      </c>
+      <c r="G19" s="45">
+        <v>40</v>
+      </c>
+      <c r="H19" s="45">
+        <v>40</v>
+      </c>
+      <c r="I19" s="45">
+        <v>40</v>
+      </c>
+      <c r="J19" s="45">
+        <v>40</v>
+      </c>
+      <c r="K19" s="45">
+        <v>40</v>
+      </c>
+      <c r="L19" s="45">
+        <v>40</v>
+      </c>
+      <c r="M19" s="45">
+        <v>40</v>
+      </c>
+      <c r="N19" s="45">
+        <v>40</v>
+      </c>
+      <c r="O19" s="45">
+        <v>40</v>
+      </c>
+      <c r="P19" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" s="45">
+        <v>100</v>
+      </c>
+      <c r="C20" s="45">
+        <v>100</v>
+      </c>
+      <c r="D20" s="45">
+        <v>100</v>
+      </c>
+      <c r="E20" s="45">
+        <v>100</v>
+      </c>
+      <c r="F20" s="45">
+        <v>100</v>
+      </c>
+      <c r="G20" s="45">
+        <v>100</v>
+      </c>
+      <c r="H20" s="45">
+        <v>100</v>
+      </c>
+      <c r="I20" s="45">
+        <v>100</v>
+      </c>
+      <c r="J20" s="45">
+        <v>100</v>
+      </c>
+      <c r="K20" s="45">
+        <v>100</v>
+      </c>
+      <c r="L20" s="45">
+        <v>100</v>
+      </c>
+      <c r="M20" s="45">
+        <v>100</v>
+      </c>
+      <c r="N20" s="45">
+        <v>100</v>
+      </c>
+      <c r="O20" s="45">
+        <v>100</v>
+      </c>
+      <c r="P20" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B22" t="s">
+        <v>600</v>
+      </c>
+      <c r="C22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D22" t="s">
+        <v>600</v>
+      </c>
+      <c r="E22" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" t="s">
+        <v>600</v>
+      </c>
+      <c r="G22" t="s">
+        <v>600</v>
+      </c>
+      <c r="H22" t="s">
+        <v>600</v>
+      </c>
+      <c r="I22" t="s">
+        <v>600</v>
+      </c>
+      <c r="J22" t="s">
+        <v>600</v>
+      </c>
+      <c r="K22" t="s">
+        <v>600</v>
+      </c>
+      <c r="L22" t="s">
+        <v>600</v>
+      </c>
+      <c r="M22" t="s">
+        <v>600</v>
+      </c>
+      <c r="N22" t="s">
+        <v>600</v>
+      </c>
+      <c r="O22" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" t="s">
+        <v>603</v>
+      </c>
+      <c r="G23" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" t="s">
+        <v>604</v>
+      </c>
+      <c r="I23" t="s">
+        <v>603</v>
+      </c>
+      <c r="J23" t="s">
+        <v>603</v>
+      </c>
+      <c r="K23" t="s">
+        <v>604</v>
+      </c>
+      <c r="L23" t="s">
+        <v>603</v>
+      </c>
+      <c r="M23" t="s">
+        <v>604</v>
+      </c>
+      <c r="N23" t="s">
+        <v>604</v>
+      </c>
+      <c r="O23" t="s">
+        <v>604</v>
+      </c>
+      <c r="P23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>601</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <v>33</v>
+      </c>
+      <c r="O24">
+        <v>33</v>
+      </c>
+      <c r="P24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>605</v>
+      </c>
+      <c r="B25">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>63</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>63</v>
+      </c>
+      <c r="I25">
+        <v>63</v>
+      </c>
+      <c r="J25">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>63</v>
+      </c>
+      <c r="L25">
+        <v>63</v>
+      </c>
+      <c r="M25">
+        <v>63</v>
+      </c>
+      <c r="N25">
+        <v>63</v>
+      </c>
+      <c r="O25">
+        <v>63</v>
+      </c>
+      <c r="P25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>606</v>
+      </c>
+      <c r="B26">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <v>71</v>
+      </c>
+      <c r="H26">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>71</v>
+      </c>
+      <c r="J26">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>71</v>
+      </c>
+      <c r="L26">
+        <v>71</v>
+      </c>
+      <c r="M26">
+        <v>71</v>
+      </c>
+      <c r="N26">
+        <v>71</v>
+      </c>
+      <c r="O26">
+        <v>71</v>
+      </c>
+      <c r="P26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" t="s">
+        <v>609</v>
+      </c>
+      <c r="C27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" t="s">
+        <v>609</v>
+      </c>
+      <c r="E27" t="s">
+        <v>609</v>
+      </c>
+      <c r="F27" t="s">
+        <v>609</v>
+      </c>
+      <c r="G27" t="s">
+        <v>609</v>
+      </c>
+      <c r="H27" t="s">
+        <v>609</v>
+      </c>
+      <c r="I27" t="s">
+        <v>609</v>
+      </c>
+      <c r="J27" t="s">
+        <v>609</v>
+      </c>
+      <c r="K27" t="s">
+        <v>609</v>
+      </c>
+      <c r="L27" t="s">
+        <v>609</v>
+      </c>
+      <c r="M27" t="s">
+        <v>609</v>
+      </c>
+      <c r="N27" t="s">
+        <v>609</v>
+      </c>
+      <c r="O27" t="s">
+        <v>609</v>
+      </c>
+      <c r="P27" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>616</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <v>18</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>18</v>
+      </c>
+      <c r="P28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>617</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>618</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>613</v>
+      </c>
+      <c r="B32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" t="s">
+        <v>638</v>
+      </c>
+      <c r="E32" t="s">
+        <v>639</v>
+      </c>
+      <c r="F32" t="s">
+        <v>640</v>
+      </c>
+      <c r="G32" t="s">
+        <v>641</v>
+      </c>
+      <c r="H32" t="s">
+        <v>642</v>
+      </c>
+      <c r="I32" t="s">
+        <v>643</v>
+      </c>
+      <c r="J32" t="s">
+        <v>644</v>
+      </c>
+      <c r="K32" t="s">
+        <v>645</v>
+      </c>
+      <c r="L32" t="s">
+        <v>646</v>
+      </c>
+      <c r="M32" t="s">
+        <v>647</v>
+      </c>
+      <c r="N32" t="s">
+        <v>648</v>
+      </c>
+      <c r="O32" t="s">
+        <v>649</v>
+      </c>
+      <c r="P32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>763</v>
+      </c>
+      <c r="B33" t="s">
+        <v>626</v>
+      </c>
+      <c r="C33" t="s">
+        <v>637</v>
+      </c>
+      <c r="D33" t="s">
+        <v>638</v>
+      </c>
+      <c r="E33" t="s">
+        <v>639</v>
+      </c>
+      <c r="F33" t="s">
+        <v>640</v>
+      </c>
+      <c r="G33" t="s">
+        <v>641</v>
+      </c>
+      <c r="H33" t="s">
+        <v>642</v>
+      </c>
+      <c r="I33" t="s">
+        <v>643</v>
+      </c>
+      <c r="J33" t="s">
+        <v>644</v>
+      </c>
+      <c r="K33" t="s">
+        <v>645</v>
+      </c>
+      <c r="L33" t="s">
+        <v>646</v>
+      </c>
+      <c r="M33" t="s">
+        <v>647</v>
+      </c>
+      <c r="N33" t="s">
+        <v>648</v>
+      </c>
+      <c r="O33" t="s">
+        <v>649</v>
+      </c>
+      <c r="P33" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34" t="s">
+        <v>627</v>
+      </c>
+      <c r="E34" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34" t="s">
+        <v>627</v>
+      </c>
+      <c r="G34" t="s">
+        <v>627</v>
+      </c>
+      <c r="H34" t="s">
+        <v>627</v>
+      </c>
+      <c r="I34" t="s">
+        <v>627</v>
+      </c>
+      <c r="J34" t="s">
+        <v>627</v>
+      </c>
+      <c r="K34" t="s">
+        <v>627</v>
+      </c>
+      <c r="L34" t="s">
+        <v>627</v>
+      </c>
+      <c r="M34" t="s">
+        <v>627</v>
+      </c>
+      <c r="N34" t="s">
+        <v>627</v>
+      </c>
+      <c r="O34" t="s">
+        <v>627</v>
+      </c>
+      <c r="P34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" t="s">
+        <v>627</v>
+      </c>
+      <c r="F35" t="s">
+        <v>627</v>
+      </c>
+      <c r="G35" t="s">
+        <v>627</v>
+      </c>
+      <c r="H35" t="s">
+        <v>627</v>
+      </c>
+      <c r="I35" t="s">
+        <v>627</v>
+      </c>
+      <c r="J35" t="s">
+        <v>627</v>
+      </c>
+      <c r="K35" t="s">
+        <v>627</v>
+      </c>
+      <c r="L35" t="s">
+        <v>627</v>
+      </c>
+      <c r="M35" t="s">
+        <v>627</v>
+      </c>
+      <c r="N35" t="s">
+        <v>627</v>
+      </c>
+      <c r="O35" t="s">
+        <v>627</v>
+      </c>
+      <c r="P35" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" t="s">
+        <v>651</v>
+      </c>
+      <c r="D36" t="s">
+        <v>652</v>
+      </c>
+      <c r="E36" t="s">
+        <v>653</v>
+      </c>
+      <c r="F36" t="s">
+        <v>654</v>
+      </c>
+      <c r="G36" t="s">
+        <v>655</v>
+      </c>
+      <c r="H36" t="s">
+        <v>656</v>
+      </c>
+      <c r="I36" t="s">
+        <v>657</v>
+      </c>
+      <c r="J36" t="s">
+        <v>658</v>
+      </c>
+      <c r="K36" t="s">
+        <v>659</v>
+      </c>
+      <c r="L36" t="s">
+        <v>660</v>
+      </c>
+      <c r="M36" t="s">
+        <v>661</v>
+      </c>
+      <c r="N36" t="s">
+        <v>662</v>
+      </c>
+      <c r="O36" t="s">
+        <v>663</v>
+      </c>
+      <c r="P36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>620</v>
+      </c>
+      <c r="B37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" t="s">
+        <v>666</v>
+      </c>
+      <c r="E37" t="s">
+        <v>667</v>
+      </c>
+      <c r="F37" t="s">
+        <v>668</v>
+      </c>
+      <c r="G37" t="s">
+        <v>669</v>
+      </c>
+      <c r="H37" t="s">
+        <v>670</v>
+      </c>
+      <c r="I37" t="s">
+        <v>671</v>
+      </c>
+      <c r="J37" t="s">
+        <v>672</v>
+      </c>
+      <c r="K37" t="s">
+        <v>673</v>
+      </c>
+      <c r="L37" t="s">
+        <v>674</v>
+      </c>
+      <c r="M37" t="s">
+        <v>675</v>
+      </c>
+      <c r="N37" t="s">
+        <v>676</v>
+      </c>
+      <c r="O37" t="s">
+        <v>677</v>
+      </c>
+      <c r="P37" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C38" t="s">
+        <v>679</v>
+      </c>
+      <c r="D38" t="s">
+        <v>680</v>
+      </c>
+      <c r="E38" t="s">
+        <v>681</v>
+      </c>
+      <c r="F38" t="s">
+        <v>682</v>
+      </c>
+      <c r="G38" t="s">
+        <v>683</v>
+      </c>
+      <c r="H38" t="s">
+        <v>684</v>
+      </c>
+      <c r="I38" t="s">
+        <v>685</v>
+      </c>
+      <c r="J38" t="s">
+        <v>686</v>
+      </c>
+      <c r="K38" t="s">
+        <v>687</v>
+      </c>
+      <c r="L38" t="s">
+        <v>688</v>
+      </c>
+      <c r="M38" t="s">
+        <v>689</v>
+      </c>
+      <c r="N38" t="s">
+        <v>690</v>
+      </c>
+      <c r="O38" t="s">
+        <v>691</v>
+      </c>
+      <c r="P38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" t="s">
+        <v>693</v>
+      </c>
+      <c r="D39" t="s">
+        <v>694</v>
+      </c>
+      <c r="E39" t="s">
+        <v>695</v>
+      </c>
+      <c r="F39" t="s">
+        <v>696</v>
+      </c>
+      <c r="G39" t="s">
+        <v>697</v>
+      </c>
+      <c r="H39" t="s">
+        <v>698</v>
+      </c>
+      <c r="I39" t="s">
+        <v>699</v>
+      </c>
+      <c r="J39" t="s">
+        <v>700</v>
+      </c>
+      <c r="K39" t="s">
+        <v>701</v>
+      </c>
+      <c r="L39" t="s">
+        <v>702</v>
+      </c>
+      <c r="M39" t="s">
+        <v>703</v>
+      </c>
+      <c r="N39" t="s">
+        <v>704</v>
+      </c>
+      <c r="O39" t="s">
+        <v>705</v>
+      </c>
+      <c r="P39" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" t="s">
+        <v>632</v>
+      </c>
+      <c r="C40" t="s">
+        <v>707</v>
+      </c>
+      <c r="D40" t="s">
+        <v>708</v>
+      </c>
+      <c r="E40" t="s">
+        <v>709</v>
+      </c>
+      <c r="F40" t="s">
+        <v>710</v>
+      </c>
+      <c r="G40" t="s">
+        <v>711</v>
+      </c>
+      <c r="H40" t="s">
+        <v>712</v>
+      </c>
+      <c r="I40" t="s">
+        <v>713</v>
+      </c>
+      <c r="J40" t="s">
+        <v>714</v>
+      </c>
+      <c r="K40" t="s">
+        <v>715</v>
+      </c>
+      <c r="L40" t="s">
+        <v>716</v>
+      </c>
+      <c r="M40" t="s">
+        <v>717</v>
+      </c>
+      <c r="N40" t="s">
+        <v>718</v>
+      </c>
+      <c r="O40" t="s">
+        <v>719</v>
+      </c>
+      <c r="P40" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>721</v>
+      </c>
+      <c r="D41" t="s">
+        <v>722</v>
+      </c>
+      <c r="E41" t="s">
+        <v>723</v>
+      </c>
+      <c r="F41" t="s">
+        <v>724</v>
+      </c>
+      <c r="G41" t="s">
+        <v>725</v>
+      </c>
+      <c r="H41" t="s">
+        <v>726</v>
+      </c>
+      <c r="I41" t="s">
+        <v>727</v>
+      </c>
+      <c r="J41" t="s">
+        <v>728</v>
+      </c>
+      <c r="K41" t="s">
+        <v>729</v>
+      </c>
+      <c r="L41" t="s">
+        <v>730</v>
+      </c>
+      <c r="M41" t="s">
+        <v>731</v>
+      </c>
+      <c r="N41" t="s">
+        <v>732</v>
+      </c>
+      <c r="O41" t="s">
+        <v>733</v>
+      </c>
+      <c r="P41" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>624</v>
+      </c>
+      <c r="B42" t="s">
+        <v>634</v>
+      </c>
+      <c r="C42" t="s">
+        <v>735</v>
+      </c>
+      <c r="D42" t="s">
+        <v>736</v>
+      </c>
+      <c r="E42" t="s">
+        <v>737</v>
+      </c>
+      <c r="F42" t="s">
+        <v>738</v>
+      </c>
+      <c r="G42" t="s">
+        <v>739</v>
+      </c>
+      <c r="H42" t="s">
+        <v>740</v>
+      </c>
+      <c r="I42" t="s">
+        <v>741</v>
+      </c>
+      <c r="J42" t="s">
+        <v>742</v>
+      </c>
+      <c r="K42" t="s">
+        <v>743</v>
+      </c>
+      <c r="L42" t="s">
+        <v>744</v>
+      </c>
+      <c r="M42" t="s">
+        <v>745</v>
+      </c>
+      <c r="N42" t="s">
+        <v>746</v>
+      </c>
+      <c r="O42" t="s">
+        <v>747</v>
+      </c>
+      <c r="P42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>614</v>
+      </c>
+      <c r="B43" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" t="s">
+        <v>750</v>
+      </c>
+      <c r="E43" t="s">
+        <v>751</v>
+      </c>
+      <c r="F43" t="s">
+        <v>752</v>
+      </c>
+      <c r="G43" t="s">
+        <v>753</v>
+      </c>
+      <c r="H43" t="s">
+        <v>754</v>
+      </c>
+      <c r="I43" t="s">
+        <v>755</v>
+      </c>
+      <c r="J43" t="s">
+        <v>756</v>
+      </c>
+      <c r="K43" t="s">
+        <v>757</v>
+      </c>
+      <c r="L43" t="s">
+        <v>758</v>
+      </c>
+      <c r="M43" t="s">
+        <v>759</v>
+      </c>
+      <c r="N43" t="s">
+        <v>760</v>
+      </c>
+      <c r="O43" t="s">
+        <v>761</v>
+      </c>
+      <c r="P43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>622</v>
+      </c>
+      <c r="B44" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" t="s">
+        <v>636</v>
+      </c>
+      <c r="D44" t="s">
+        <v>636</v>
+      </c>
+      <c r="E44" t="s">
+        <v>636</v>
+      </c>
+      <c r="F44" t="s">
+        <v>636</v>
+      </c>
+      <c r="G44" t="s">
+        <v>636</v>
+      </c>
+      <c r="H44" t="s">
+        <v>636</v>
+      </c>
+      <c r="I44" t="s">
+        <v>636</v>
+      </c>
+      <c r="J44" t="s">
+        <v>636</v>
+      </c>
+      <c r="K44" t="s">
+        <v>636</v>
+      </c>
+      <c r="L44" t="s">
+        <v>636</v>
+      </c>
+      <c r="M44" t="s">
+        <v>636</v>
+      </c>
+      <c r="N44" t="s">
+        <v>636</v>
+      </c>
+      <c r="O44" t="s">
+        <v>636</v>
+      </c>
+      <c r="P44" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>765</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45" t="s">
+        <v>765</v>
+      </c>
+      <c r="E45" t="s">
+        <v>765</v>
+      </c>
+      <c r="F45" t="s">
+        <v>765</v>
+      </c>
+      <c r="G45" t="s">
+        <v>765</v>
+      </c>
+      <c r="H45" t="s">
+        <v>765</v>
+      </c>
+      <c r="I45" t="s">
+        <v>765</v>
+      </c>
+      <c r="J45" t="s">
+        <v>765</v>
+      </c>
+      <c r="K45" t="s">
+        <v>765</v>
+      </c>
+      <c r="L45" t="s">
+        <v>765</v>
+      </c>
+      <c r="M45" t="s">
+        <v>765</v>
+      </c>
+      <c r="N45" t="s">
+        <v>765</v>
+      </c>
+      <c r="O45" t="s">
+        <v>765</v>
+      </c>
+      <c r="P45" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>766</v>
+      </c>
+      <c r="B46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C46" t="s">
+        <v>770</v>
+      </c>
+      <c r="D46" t="s">
+        <v>770</v>
+      </c>
+      <c r="E46" t="s">
+        <v>770</v>
+      </c>
+      <c r="F46" t="s">
+        <v>770</v>
+      </c>
+      <c r="G46" t="s">
+        <v>770</v>
+      </c>
+      <c r="H46" t="s">
+        <v>770</v>
+      </c>
+      <c r="I46" t="s">
+        <v>770</v>
+      </c>
+      <c r="J46" t="s">
+        <v>770</v>
+      </c>
+      <c r="K46" t="s">
+        <v>770</v>
+      </c>
+      <c r="L46" t="s">
+        <v>770</v>
+      </c>
+      <c r="M46" t="s">
+        <v>770</v>
+      </c>
+      <c r="N46" t="s">
+        <v>770</v>
+      </c>
+      <c r="O46" t="s">
+        <v>770</v>
+      </c>
+      <c r="P46" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>767</v>
+      </c>
+      <c r="B47" t="s">
+        <v>769</v>
+      </c>
+      <c r="C47" t="s">
+        <v>769</v>
+      </c>
+      <c r="D47" t="s">
+        <v>769</v>
+      </c>
+      <c r="E47" t="s">
+        <v>769</v>
+      </c>
+      <c r="F47" t="s">
+        <v>769</v>
+      </c>
+      <c r="G47" t="s">
+        <v>769</v>
+      </c>
+      <c r="H47" t="s">
+        <v>769</v>
+      </c>
+      <c r="I47" t="s">
+        <v>769</v>
+      </c>
+      <c r="J47" t="s">
+        <v>769</v>
+      </c>
+      <c r="K47" t="s">
+        <v>769</v>
+      </c>
+      <c r="L47" t="s">
+        <v>769</v>
+      </c>
+      <c r="M47" t="s">
+        <v>769</v>
+      </c>
+      <c r="N47" t="s">
+        <v>769</v>
+      </c>
+      <c r="O47" t="s">
+        <v>769</v>
+      </c>
+      <c r="P47" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>772</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>768</v>
+      </c>
+      <c r="B49" t="s">
+        <v>771</v>
+      </c>
+      <c r="C49" t="s">
+        <v>771</v>
+      </c>
+      <c r="D49" t="s">
+        <v>771</v>
+      </c>
+      <c r="E49" t="s">
+        <v>771</v>
+      </c>
+      <c r="F49" t="s">
+        <v>771</v>
+      </c>
+      <c r="G49" t="s">
+        <v>771</v>
+      </c>
+      <c r="H49" t="s">
+        <v>771</v>
+      </c>
+      <c r="I49" t="s">
+        <v>771</v>
+      </c>
+      <c r="J49" t="s">
+        <v>771</v>
+      </c>
+      <c r="K49" t="s">
+        <v>771</v>
+      </c>
+      <c r="L49" t="s">
+        <v>771</v>
+      </c>
+      <c r="M49" t="s">
+        <v>771</v>
+      </c>
+      <c r="N49" t="s">
+        <v>771</v>
+      </c>
+      <c r="O49" t="s">
+        <v>771</v>
+      </c>
+      <c r="P49" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>773</v>
+      </c>
+      <c r="B50" t="s">
+        <v>636</v>
+      </c>
+      <c r="C50" t="s">
+        <v>636</v>
+      </c>
+      <c r="D50" t="s">
+        <v>636</v>
+      </c>
+      <c r="E50" t="s">
+        <v>636</v>
+      </c>
+      <c r="F50" t="s">
+        <v>636</v>
+      </c>
+      <c r="G50" t="s">
+        <v>636</v>
+      </c>
+      <c r="H50" t="s">
+        <v>636</v>
+      </c>
+      <c r="I50" t="s">
+        <v>636</v>
+      </c>
+      <c r="J50" t="s">
+        <v>636</v>
+      </c>
+      <c r="K50" t="s">
+        <v>636</v>
+      </c>
+      <c r="L50" t="s">
+        <v>636</v>
+      </c>
+      <c r="M50" t="s">
+        <v>636</v>
+      </c>
+      <c r="N50" t="s">
+        <v>636</v>
+      </c>
+      <c r="O50" t="s">
+        <v>636</v>
+      </c>
+      <c r="P50" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="777">
   <si>
     <t>Country</t>
   </si>
@@ -1853,9 +1853,6 @@
     <t>emissions_high_with</t>
   </si>
   <si>
-    <t>map_append</t>
-  </si>
-  <si>
     <t>periodicity_tax</t>
   </si>
   <si>
@@ -2352,6 +2349,18 @@
   </si>
   <si>
     <t>wealth_threshold</t>
+  </si>
+  <si>
+    <t>Net gain per adult\nfollowing the\nGlobal Climate Scheme\nin 2030\n(in % of GDP)</t>
+  </si>
+  <si>
+    <t>gcs_high_legend</t>
+  </si>
+  <si>
+    <t>na_label</t>
+  </si>
+  <si>
+    <t>Non Parties</t>
   </si>
 </sst>
 </file>
@@ -2550,13 +2559,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5542,10 +5551,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,49 +6363,49 @@
       <c r="A17" t="s">
         <v>593</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="43">
         <v>30</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="43">
         <v>30</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <v>30</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="43">
         <v>30</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="43">
         <v>30</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="43">
         <v>30</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="43">
         <v>30</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="43">
         <v>30</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="43">
         <v>30</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="43">
         <v>30</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="43">
         <v>30</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="43">
         <v>30</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="43">
         <v>30</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="43">
         <v>30</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="43">
         <v>30</v>
       </c>
     </row>
@@ -6404,49 +6413,49 @@
       <c r="A18" t="s">
         <v>595</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>10</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="43">
         <v>10</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <v>10</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="43">
         <v>10</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="43">
         <v>10</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="43">
         <v>10</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="43">
         <v>10</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="43">
         <v>10</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="43">
         <v>10</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="43">
         <v>10</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="43">
         <v>10</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="43">
         <v>10</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="43">
         <v>10</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="43">
         <v>10</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <v>10</v>
       </c>
     </row>
@@ -6454,49 +6463,49 @@
       <c r="A19" t="s">
         <v>596</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="43">
         <v>40</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="43">
         <v>40</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <v>40</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="43">
         <v>40</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="43">
         <v>40</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="43">
         <v>40</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="43">
         <v>40</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="43">
         <v>40</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="43">
         <v>40</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="43">
         <v>40</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="43">
         <v>40</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="43">
         <v>40</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="43">
         <v>40</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="43">
         <v>40</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="43">
         <v>40</v>
       </c>
     </row>
@@ -6504,455 +6513,455 @@
       <c r="A20" t="s">
         <v>598</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>100</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="43">
         <v>100</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>100</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="43">
         <v>100</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="43">
         <v>100</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="43">
         <v>100</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="43">
         <v>100</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="43">
         <v>100</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="43">
         <v>100</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="43">
         <v>100</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="43">
         <v>100</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="43">
         <v>100</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="43">
         <v>100</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="43">
         <v>100</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="43">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>607</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="P21" s="45" t="s">
-        <v>7</v>
+        <v>599</v>
+      </c>
+      <c r="B21" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G21" t="s">
+        <v>600</v>
+      </c>
+      <c r="H21" t="s">
+        <v>600</v>
+      </c>
+      <c r="I21" t="s">
+        <v>600</v>
+      </c>
+      <c r="J21" t="s">
+        <v>600</v>
+      </c>
+      <c r="K21" t="s">
+        <v>600</v>
+      </c>
+      <c r="L21" t="s">
+        <v>600</v>
+      </c>
+      <c r="M21" t="s">
+        <v>600</v>
+      </c>
+      <c r="N21" t="s">
+        <v>600</v>
+      </c>
+      <c r="O21" t="s">
+        <v>600</v>
+      </c>
+      <c r="P21" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="J22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="N22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="O22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>602</v>
-      </c>
-      <c r="B23" t="s">
-        <v>603</v>
-      </c>
-      <c r="C23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E23" t="s">
-        <v>603</v>
-      </c>
-      <c r="F23" t="s">
-        <v>603</v>
-      </c>
-      <c r="G23" t="s">
-        <v>603</v>
-      </c>
-      <c r="H23" t="s">
-        <v>604</v>
-      </c>
-      <c r="I23" t="s">
-        <v>603</v>
-      </c>
-      <c r="J23" t="s">
-        <v>603</v>
-      </c>
-      <c r="K23" t="s">
-        <v>604</v>
-      </c>
-      <c r="L23" t="s">
-        <v>603</v>
-      </c>
-      <c r="M23" t="s">
-        <v>604</v>
-      </c>
-      <c r="N23" t="s">
-        <v>604</v>
-      </c>
-      <c r="O23" t="s">
-        <v>604</v>
-      </c>
-      <c r="P23" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>33</v>
+      </c>
+      <c r="K23">
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>33</v>
+      </c>
+      <c r="O23">
+        <v>33</v>
+      </c>
+      <c r="P23">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="O24">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P24">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="O25">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P25">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>606</v>
-      </c>
-      <c r="B26">
-        <v>71</v>
-      </c>
-      <c r="C26">
-        <v>71</v>
-      </c>
-      <c r="D26">
-        <v>71</v>
-      </c>
-      <c r="E26">
-        <v>71</v>
-      </c>
-      <c r="F26">
-        <v>71</v>
-      </c>
-      <c r="G26">
-        <v>71</v>
-      </c>
-      <c r="H26">
-        <v>71</v>
-      </c>
-      <c r="I26">
-        <v>71</v>
-      </c>
-      <c r="J26">
-        <v>71</v>
-      </c>
-      <c r="K26">
-        <v>71</v>
-      </c>
-      <c r="L26">
-        <v>71</v>
-      </c>
-      <c r="M26">
-        <v>71</v>
-      </c>
-      <c r="N26">
-        <v>71</v>
-      </c>
-      <c r="O26">
-        <v>71</v>
-      </c>
-      <c r="P26">
-        <v>71</v>
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" t="s">
+        <v>608</v>
+      </c>
+      <c r="E26" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" t="s">
+        <v>608</v>
+      </c>
+      <c r="H26" t="s">
+        <v>608</v>
+      </c>
+      <c r="I26" t="s">
+        <v>608</v>
+      </c>
+      <c r="J26" t="s">
+        <v>608</v>
+      </c>
+      <c r="K26" t="s">
+        <v>608</v>
+      </c>
+      <c r="L26" t="s">
+        <v>608</v>
+      </c>
+      <c r="M26" t="s">
+        <v>608</v>
+      </c>
+      <c r="N26" t="s">
+        <v>608</v>
+      </c>
+      <c r="O26" t="s">
+        <v>608</v>
+      </c>
+      <c r="P26" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>608</v>
-      </c>
-      <c r="B27" t="s">
-        <v>609</v>
-      </c>
-      <c r="C27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D27" t="s">
-        <v>609</v>
-      </c>
-      <c r="E27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F27" t="s">
-        <v>609</v>
-      </c>
-      <c r="G27" t="s">
-        <v>609</v>
-      </c>
-      <c r="H27" t="s">
-        <v>609</v>
-      </c>
-      <c r="I27" t="s">
-        <v>609</v>
-      </c>
-      <c r="J27" t="s">
-        <v>609</v>
-      </c>
-      <c r="K27" t="s">
-        <v>609</v>
-      </c>
-      <c r="L27" t="s">
-        <v>609</v>
-      </c>
-      <c r="M27" t="s">
-        <v>609</v>
-      </c>
-      <c r="N27" t="s">
-        <v>609</v>
-      </c>
-      <c r="O27" t="s">
-        <v>609</v>
-      </c>
-      <c r="P27" t="s">
-        <v>609</v>
+        <v>615</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P28">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -7005,349 +7014,349 @@
         <v>617</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>618</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
+        <v>612</v>
+      </c>
+      <c r="B31" t="s">
+        <v>625</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>637</v>
+      </c>
+      <c r="E31" t="s">
+        <v>638</v>
+      </c>
+      <c r="F31" t="s">
+        <v>639</v>
+      </c>
+      <c r="G31" t="s">
+        <v>640</v>
+      </c>
+      <c r="H31" t="s">
+        <v>641</v>
+      </c>
+      <c r="I31" t="s">
+        <v>642</v>
+      </c>
+      <c r="J31" t="s">
+        <v>643</v>
+      </c>
+      <c r="K31" t="s">
+        <v>644</v>
+      </c>
+      <c r="L31" t="s">
+        <v>645</v>
+      </c>
+      <c r="M31" t="s">
+        <v>646</v>
+      </c>
+      <c r="N31" t="s">
+        <v>647</v>
+      </c>
+      <c r="O31" t="s">
+        <v>648</v>
+      </c>
+      <c r="P31" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>613</v>
+        <v>762</v>
       </c>
       <c r="B32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D32" t="s">
         <v>637</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>638</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>639</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>640</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>641</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>642</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>643</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>644</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>645</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>646</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>647</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>648</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>649</v>
-      </c>
-      <c r="P32" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>763</v>
+        <v>611</v>
       </c>
       <c r="B33" t="s">
         <v>626</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D33" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E33" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F33" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G33" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="H33" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="I33" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="J33" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="K33" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="L33" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="M33" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="N33" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="O33" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="P33" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B35" t="s">
         <v>627</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="D35" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="E35" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="F35" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="G35" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="H35" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="I35" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="J35" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="K35" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="L35" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="M35" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="N35" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="O35" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="P35" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B36" t="s">
         <v>628</v>
       </c>
       <c r="C36" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="D36" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="F36" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="G36" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="H36" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="I36" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="J36" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="K36" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="L36" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="M36" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="N36" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="O36" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="P36" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -7358,146 +7367,146 @@
         <v>629</v>
       </c>
       <c r="C37" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D37" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="E37" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="F37" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="G37" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="H37" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="I37" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="J37" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="K37" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="L37" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="M37" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="N37" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="O37" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P37" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B38" t="s">
         <v>630</v>
       </c>
       <c r="C38" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D38" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="E38" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="F38" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="G38" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="H38" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="I38" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="J38" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="K38" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="L38" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="M38" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="N38" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="O38" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P38" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B39" t="s">
         <v>631</v>
       </c>
       <c r="C39" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="D39" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="E39" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="F39" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="G39" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="H39" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="I39" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="J39" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="K39" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="L39" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="M39" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N39" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="O39" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P39" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -7508,296 +7517,296 @@
         <v>632</v>
       </c>
       <c r="C40" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="D40" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E40" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="F40" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="G40" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="H40" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="I40" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="J40" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="K40" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="L40" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="M40" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="N40" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="O40" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="P40" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B41" t="s">
         <v>633</v>
       </c>
       <c r="C41" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="D41" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E41" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="F41" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G41" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="H41" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="I41" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="J41" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="K41" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="L41" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="M41" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="N41" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="O41" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="P41" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B42" t="s">
         <v>634</v>
       </c>
       <c r="C42" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="D42" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="E42" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="F42" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="G42" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="H42" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="I42" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="J42" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="K42" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="L42" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="M42" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="N42" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="O42" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="P42" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B43" t="s">
         <v>635</v>
       </c>
       <c r="C43" t="s">
-        <v>749</v>
+        <v>635</v>
       </c>
       <c r="D43" t="s">
-        <v>750</v>
+        <v>635</v>
       </c>
       <c r="E43" t="s">
-        <v>751</v>
+        <v>635</v>
       </c>
       <c r="F43" t="s">
-        <v>752</v>
+        <v>635</v>
       </c>
       <c r="G43" t="s">
-        <v>753</v>
+        <v>635</v>
       </c>
       <c r="H43" t="s">
-        <v>754</v>
+        <v>635</v>
       </c>
       <c r="I43" t="s">
-        <v>755</v>
+        <v>635</v>
       </c>
       <c r="J43" t="s">
-        <v>756</v>
+        <v>635</v>
       </c>
       <c r="K43" t="s">
-        <v>757</v>
+        <v>635</v>
       </c>
       <c r="L43" t="s">
-        <v>758</v>
+        <v>635</v>
       </c>
       <c r="M43" t="s">
-        <v>759</v>
+        <v>635</v>
       </c>
       <c r="N43" t="s">
-        <v>760</v>
+        <v>635</v>
       </c>
       <c r="O43" t="s">
-        <v>761</v>
+        <v>635</v>
       </c>
       <c r="P43" t="s">
-        <v>762</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>622</v>
+        <v>763</v>
       </c>
       <c r="B44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="C44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="D44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="E44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="F44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="G44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="H44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="I44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="J44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="K44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="L44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="M44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="N44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="O44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="P44" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="I45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="J45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="K45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="L45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="M45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="N45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="O45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="P45" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -7805,249 +7814,299 @@
         <v>766</v>
       </c>
       <c r="B46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="K46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="O46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="P46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>767</v>
-      </c>
-      <c r="B47" t="s">
-        <v>769</v>
-      </c>
-      <c r="C47" t="s">
-        <v>769</v>
-      </c>
-      <c r="D47" t="s">
-        <v>769</v>
-      </c>
-      <c r="E47" t="s">
-        <v>769</v>
-      </c>
-      <c r="F47" t="s">
-        <v>769</v>
-      </c>
-      <c r="G47" t="s">
-        <v>769</v>
-      </c>
-      <c r="H47" t="s">
-        <v>769</v>
-      </c>
-      <c r="I47" t="s">
-        <v>769</v>
-      </c>
-      <c r="J47" t="s">
-        <v>769</v>
-      </c>
-      <c r="K47" t="s">
-        <v>769</v>
-      </c>
-      <c r="L47" t="s">
-        <v>769</v>
-      </c>
-      <c r="M47" t="s">
-        <v>769</v>
-      </c>
-      <c r="N47" t="s">
-        <v>769</v>
-      </c>
-      <c r="O47" t="s">
-        <v>769</v>
-      </c>
-      <c r="P47" t="s">
-        <v>769</v>
+        <v>771</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>772</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-      <c r="P48">
-        <v>2</v>
+        <v>767</v>
+      </c>
+      <c r="B48" t="s">
+        <v>770</v>
+      </c>
+      <c r="C48" t="s">
+        <v>770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>770</v>
+      </c>
+      <c r="E48" t="s">
+        <v>770</v>
+      </c>
+      <c r="F48" t="s">
+        <v>770</v>
+      </c>
+      <c r="G48" t="s">
+        <v>770</v>
+      </c>
+      <c r="H48" t="s">
+        <v>770</v>
+      </c>
+      <c r="I48" t="s">
+        <v>770</v>
+      </c>
+      <c r="J48" t="s">
+        <v>770</v>
+      </c>
+      <c r="K48" t="s">
+        <v>770</v>
+      </c>
+      <c r="L48" t="s">
+        <v>770</v>
+      </c>
+      <c r="M48" t="s">
+        <v>770</v>
+      </c>
+      <c r="N48" t="s">
+        <v>770</v>
+      </c>
+      <c r="O48" t="s">
+        <v>770</v>
+      </c>
+      <c r="P48" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="C49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="D49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="E49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="F49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="G49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="H49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="I49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="J49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="K49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="L49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="M49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="N49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="O49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
       <c r="P49" t="s">
-        <v>771</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>774</v>
+      </c>
+      <c r="B50" t="s">
         <v>773</v>
       </c>
-      <c r="B50" t="s">
-        <v>636</v>
-      </c>
       <c r="C50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="D50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="E50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="F50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="G50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="H50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="I50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="J50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="K50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="L50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="M50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="N50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="O50" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="P50" t="s">
-        <v>636</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>775</v>
+      </c>
+      <c r="B51" t="s">
+        <v>776</v>
+      </c>
+      <c r="C51" t="s">
+        <v>776</v>
+      </c>
+      <c r="D51" t="s">
+        <v>776</v>
+      </c>
+      <c r="E51" t="s">
+        <v>776</v>
+      </c>
+      <c r="F51" t="s">
+        <v>776</v>
+      </c>
+      <c r="G51" t="s">
+        <v>776</v>
+      </c>
+      <c r="H51" t="s">
+        <v>776</v>
+      </c>
+      <c r="I51" t="s">
+        <v>776</v>
+      </c>
+      <c r="J51" t="s">
+        <v>776</v>
+      </c>
+      <c r="K51" t="s">
+        <v>776</v>
+      </c>
+      <c r="L51" t="s">
+        <v>776</v>
+      </c>
+      <c r="M51" t="s">
+        <v>776</v>
+      </c>
+      <c r="N51" t="s">
+        <v>776</v>
+      </c>
+      <c r="O51" t="s">
+        <v>776</v>
+      </c>
+      <c r="P51" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -8342,13 +8401,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -10827,16 +10886,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -11403,14 +11462,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -11464,14 +11523,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
-    <sheet name="Income" sheetId="5" r:id="rId2"/>
-    <sheet name="Policies" sheetId="6" r:id="rId3"/>
-    <sheet name="features" sheetId="7" r:id="rId4"/>
+    <sheet name="features" sheetId="7" r:id="rId2"/>
+    <sheet name="Income" sheetId="5" r:id="rId3"/>
+    <sheet name="Policies" sheetId="6" r:id="rId4"/>
     <sheet name="Figures (2023)" sheetId="4" r:id="rId5"/>
     <sheet name="Sources" sheetId="3" r:id="rId6"/>
     <sheet name="ReadMe" sheetId="2" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="812">
   <si>
     <t>Country</t>
   </si>
@@ -2361,6 +2361,111 @@
   </si>
   <si>
     <t>Non Parties</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>American people</t>
+  </si>
+  <si>
+    <t>revenue_split specificities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Medicare, Medicaid...); (EITC, SNAP, childcare, pre-K...); "federal" income tax; </t>
+  </si>
+  <si>
+    <t>VAT (instead of income tax)</t>
+  </si>
+  <si>
+    <t>country_adjective</t>
+  </si>
+  <si>
+    <t>ics_country</t>
+  </si>
+  <si>
+    <t>the European Union</t>
+  </si>
+  <si>
+    <t>the United Kingdom</t>
+  </si>
+  <si>
+    <t>the United States</t>
+  </si>
+  <si>
+    <t>Saudia Arabia</t>
+  </si>
+  <si>
+    <t>the Russian federation</t>
+  </si>
+  <si>
+    <t>country_adjective_plural</t>
+  </si>
+  <si>
+    <t>Americans</t>
+  </si>
+  <si>
+    <t>(Note that we consider Saudi Arabia to be a developed country in this question.)</t>
+  </si>
+  <si>
+    <t>(Note that we consider the Russian federation NOT to be a developed country in this question.)</t>
+  </si>
+  <si>
+    <t>developed_note</t>
+  </si>
+  <si>
+    <t>(Note that Poland is classified as a developed country.)</t>
+  </si>
+  <si>
+    <t>developed_note_long</t>
+  </si>
+  <si>
+    <t>(As some items refer to "developed countries", note that we consider Saudi Arabia to be a developed country in this question.)</t>
+  </si>
+  <si>
+    <t>(As some items refer to "developed countries", note that we consider the Russian federation NOT to be a developed country in this question.)</t>
+  </si>
+  <si>
+    <t>(As some items refer to "developed countries", note that Poland is among the developed countries.)</t>
+  </si>
+  <si>
+    <t>election</t>
+  </si>
+  <si>
+    <t>2024 presidential election</t>
+  </si>
+  <si>
+    <t>2024 European Parliament election</t>
+  </si>
+  <si>
+    <t>2021 European Parliament election</t>
+  </si>
+  <si>
+    <t>2022 European Parliament election</t>
+  </si>
+  <si>
+    <t>2023 European Parliament election</t>
+  </si>
+  <si>
+    <t>2025 European Parliament election</t>
+  </si>
+  <si>
+    <t>2024 UK general election</t>
+  </si>
+  <si>
+    <t>2023 Swiss federal election</t>
+  </si>
+  <si>
+    <t>2024 Japanese general election</t>
+  </si>
+  <si>
+    <t>2024 Russian presidential election</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,6 +3870,9 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3774,8 +3882,12 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>781</v>
+      </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -4843,6 +4955,2851 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+      <c r="L2">
+        <v>10000</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+      <c r="O2">
+        <v>10000</v>
+      </c>
+      <c r="P2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
+      </c>
+      <c r="D3">
+        <v>40000</v>
+      </c>
+      <c r="E3">
+        <v>40000</v>
+      </c>
+      <c r="F3">
+        <v>40000</v>
+      </c>
+      <c r="G3">
+        <v>40000</v>
+      </c>
+      <c r="H3">
+        <v>40000</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="J3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>40000</v>
+      </c>
+      <c r="L3">
+        <v>40000</v>
+      </c>
+      <c r="M3">
+        <v>40000</v>
+      </c>
+      <c r="N3">
+        <v>40000</v>
+      </c>
+      <c r="O3">
+        <v>40000</v>
+      </c>
+      <c r="P3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4">
+        <v>60000</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>60000</v>
+      </c>
+      <c r="E4">
+        <v>60000</v>
+      </c>
+      <c r="F4">
+        <v>60000</v>
+      </c>
+      <c r="G4">
+        <v>60000</v>
+      </c>
+      <c r="H4">
+        <v>60000</v>
+      </c>
+      <c r="I4">
+        <v>60000</v>
+      </c>
+      <c r="J4">
+        <v>60000</v>
+      </c>
+      <c r="K4">
+        <v>60000</v>
+      </c>
+      <c r="L4">
+        <v>60000</v>
+      </c>
+      <c r="M4">
+        <v>60000</v>
+      </c>
+      <c r="N4">
+        <v>60000</v>
+      </c>
+      <c r="O4">
+        <v>60000</v>
+      </c>
+      <c r="P4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>100000</v>
+      </c>
+      <c r="M5">
+        <v>100000</v>
+      </c>
+      <c r="N5">
+        <v>100000</v>
+      </c>
+      <c r="O5">
+        <v>100000</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" t="s">
+        <v>567</v>
+      </c>
+      <c r="J7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M7" t="s">
+        <v>568</v>
+      </c>
+      <c r="N7" t="s">
+        <v>568</v>
+      </c>
+      <c r="O7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" t="s">
+        <v>580</v>
+      </c>
+      <c r="H8" t="s">
+        <v>580</v>
+      </c>
+      <c r="I8" t="s">
+        <v>580</v>
+      </c>
+      <c r="J8" t="s">
+        <v>580</v>
+      </c>
+      <c r="K8" t="s">
+        <v>580</v>
+      </c>
+      <c r="L8" t="s">
+        <v>580</v>
+      </c>
+      <c r="M8" t="s">
+        <v>580</v>
+      </c>
+      <c r="N8" t="s">
+        <v>580</v>
+      </c>
+      <c r="O8" t="s">
+        <v>580</v>
+      </c>
+      <c r="P8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G9" t="s">
+        <v>571</v>
+      </c>
+      <c r="H9" t="s">
+        <v>571</v>
+      </c>
+      <c r="I9" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" t="s">
+        <v>571</v>
+      </c>
+      <c r="K9" t="s">
+        <v>571</v>
+      </c>
+      <c r="L9" t="s">
+        <v>571</v>
+      </c>
+      <c r="M9" t="s">
+        <v>571</v>
+      </c>
+      <c r="N9" t="s">
+        <v>571</v>
+      </c>
+      <c r="O9" t="s">
+        <v>571</v>
+      </c>
+      <c r="P9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" t="s">
+        <v>576</v>
+      </c>
+      <c r="G10" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" t="s">
+        <v>576</v>
+      </c>
+      <c r="I10" t="s">
+        <v>576</v>
+      </c>
+      <c r="J10" t="s">
+        <v>576</v>
+      </c>
+      <c r="K10" t="s">
+        <v>576</v>
+      </c>
+      <c r="L10" t="s">
+        <v>576</v>
+      </c>
+      <c r="M10" t="s">
+        <v>576</v>
+      </c>
+      <c r="N10" t="s">
+        <v>576</v>
+      </c>
+      <c r="O10" t="s">
+        <v>576</v>
+      </c>
+      <c r="P10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H11" t="s">
+        <v>582</v>
+      </c>
+      <c r="I11" t="s">
+        <v>582</v>
+      </c>
+      <c r="J11" t="s">
+        <v>582</v>
+      </c>
+      <c r="K11" t="s">
+        <v>582</v>
+      </c>
+      <c r="L11" t="s">
+        <v>582</v>
+      </c>
+      <c r="M11" t="s">
+        <v>582</v>
+      </c>
+      <c r="N11" t="s">
+        <v>582</v>
+      </c>
+      <c r="O11" t="s">
+        <v>582</v>
+      </c>
+      <c r="P11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" t="s">
+        <v>581</v>
+      </c>
+      <c r="G12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" t="s">
+        <v>581</v>
+      </c>
+      <c r="J12" t="s">
+        <v>581</v>
+      </c>
+      <c r="K12" t="s">
+        <v>581</v>
+      </c>
+      <c r="L12" t="s">
+        <v>581</v>
+      </c>
+      <c r="M12" t="s">
+        <v>581</v>
+      </c>
+      <c r="N12" t="s">
+        <v>581</v>
+      </c>
+      <c r="O12" t="s">
+        <v>581</v>
+      </c>
+      <c r="P12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" t="s">
+        <v>583</v>
+      </c>
+      <c r="H13" t="s">
+        <v>583</v>
+      </c>
+      <c r="I13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J13" t="s">
+        <v>583</v>
+      </c>
+      <c r="K13" t="s">
+        <v>583</v>
+      </c>
+      <c r="L13" t="s">
+        <v>583</v>
+      </c>
+      <c r="M13" t="s">
+        <v>583</v>
+      </c>
+      <c r="N13" t="s">
+        <v>583</v>
+      </c>
+      <c r="O13" t="s">
+        <v>583</v>
+      </c>
+      <c r="P13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>50000</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <v>10000</v>
+      </c>
+      <c r="L14">
+        <v>10000</v>
+      </c>
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="N14">
+        <v>10000</v>
+      </c>
+      <c r="O14">
+        <v>10000</v>
+      </c>
+      <c r="P14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15">
+        <v>2500</v>
+      </c>
+      <c r="E15">
+        <v>2500</v>
+      </c>
+      <c r="F15">
+        <v>2500</v>
+      </c>
+      <c r="G15">
+        <v>2500</v>
+      </c>
+      <c r="H15">
+        <v>2500</v>
+      </c>
+      <c r="I15">
+        <v>2500</v>
+      </c>
+      <c r="J15">
+        <v>2500</v>
+      </c>
+      <c r="K15">
+        <v>2500</v>
+      </c>
+      <c r="L15">
+        <v>2500</v>
+      </c>
+      <c r="M15">
+        <v>2500</v>
+      </c>
+      <c r="N15">
+        <v>2500</v>
+      </c>
+      <c r="O15">
+        <v>2500</v>
+      </c>
+      <c r="P15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" t="s">
+        <v>597</v>
+      </c>
+      <c r="E16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F16" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H16" t="s">
+        <v>597</v>
+      </c>
+      <c r="I16" t="s">
+        <v>597</v>
+      </c>
+      <c r="J16" t="s">
+        <v>597</v>
+      </c>
+      <c r="K16" t="s">
+        <v>597</v>
+      </c>
+      <c r="L16" t="s">
+        <v>597</v>
+      </c>
+      <c r="M16" t="s">
+        <v>597</v>
+      </c>
+      <c r="N16" t="s">
+        <v>597</v>
+      </c>
+      <c r="O16" t="s">
+        <v>597</v>
+      </c>
+      <c r="P16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="43">
+        <v>30</v>
+      </c>
+      <c r="C17" s="43">
+        <v>30</v>
+      </c>
+      <c r="D17" s="43">
+        <v>30</v>
+      </c>
+      <c r="E17" s="43">
+        <v>30</v>
+      </c>
+      <c r="F17" s="43">
+        <v>30</v>
+      </c>
+      <c r="G17" s="43">
+        <v>30</v>
+      </c>
+      <c r="H17" s="43">
+        <v>30</v>
+      </c>
+      <c r="I17" s="43">
+        <v>30</v>
+      </c>
+      <c r="J17" s="43">
+        <v>30</v>
+      </c>
+      <c r="K17" s="43">
+        <v>30</v>
+      </c>
+      <c r="L17" s="43">
+        <v>30</v>
+      </c>
+      <c r="M17" s="43">
+        <v>30</v>
+      </c>
+      <c r="N17" s="43">
+        <v>30</v>
+      </c>
+      <c r="O17" s="43">
+        <v>30</v>
+      </c>
+      <c r="P17" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="43">
+        <v>10</v>
+      </c>
+      <c r="C18" s="43">
+        <v>10</v>
+      </c>
+      <c r="D18" s="43">
+        <v>10</v>
+      </c>
+      <c r="E18" s="43">
+        <v>10</v>
+      </c>
+      <c r="F18" s="43">
+        <v>10</v>
+      </c>
+      <c r="G18" s="43">
+        <v>10</v>
+      </c>
+      <c r="H18" s="43">
+        <v>10</v>
+      </c>
+      <c r="I18" s="43">
+        <v>10</v>
+      </c>
+      <c r="J18" s="43">
+        <v>10</v>
+      </c>
+      <c r="K18" s="43">
+        <v>10</v>
+      </c>
+      <c r="L18" s="43">
+        <v>10</v>
+      </c>
+      <c r="M18" s="43">
+        <v>10</v>
+      </c>
+      <c r="N18" s="43">
+        <v>10</v>
+      </c>
+      <c r="O18" s="43">
+        <v>10</v>
+      </c>
+      <c r="P18" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B19" s="43">
+        <v>40</v>
+      </c>
+      <c r="C19" s="43">
+        <v>40</v>
+      </c>
+      <c r="D19" s="43">
+        <v>40</v>
+      </c>
+      <c r="E19" s="43">
+        <v>40</v>
+      </c>
+      <c r="F19" s="43">
+        <v>40</v>
+      </c>
+      <c r="G19" s="43">
+        <v>40</v>
+      </c>
+      <c r="H19" s="43">
+        <v>40</v>
+      </c>
+      <c r="I19" s="43">
+        <v>40</v>
+      </c>
+      <c r="J19" s="43">
+        <v>40</v>
+      </c>
+      <c r="K19" s="43">
+        <v>40</v>
+      </c>
+      <c r="L19" s="43">
+        <v>40</v>
+      </c>
+      <c r="M19" s="43">
+        <v>40</v>
+      </c>
+      <c r="N19" s="43">
+        <v>40</v>
+      </c>
+      <c r="O19" s="43">
+        <v>40</v>
+      </c>
+      <c r="P19" s="43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" s="43">
+        <v>100</v>
+      </c>
+      <c r="C20" s="43">
+        <v>100</v>
+      </c>
+      <c r="D20" s="43">
+        <v>100</v>
+      </c>
+      <c r="E20" s="43">
+        <v>100</v>
+      </c>
+      <c r="F20" s="43">
+        <v>100</v>
+      </c>
+      <c r="G20" s="43">
+        <v>100</v>
+      </c>
+      <c r="H20" s="43">
+        <v>100</v>
+      </c>
+      <c r="I20" s="43">
+        <v>100</v>
+      </c>
+      <c r="J20" s="43">
+        <v>100</v>
+      </c>
+      <c r="K20" s="43">
+        <v>100</v>
+      </c>
+      <c r="L20" s="43">
+        <v>100</v>
+      </c>
+      <c r="M20" s="43">
+        <v>100</v>
+      </c>
+      <c r="N20" s="43">
+        <v>100</v>
+      </c>
+      <c r="O20" s="43">
+        <v>100</v>
+      </c>
+      <c r="P20" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G21" t="s">
+        <v>600</v>
+      </c>
+      <c r="H21" t="s">
+        <v>600</v>
+      </c>
+      <c r="I21" t="s">
+        <v>600</v>
+      </c>
+      <c r="J21" t="s">
+        <v>600</v>
+      </c>
+      <c r="K21" t="s">
+        <v>600</v>
+      </c>
+      <c r="L21" t="s">
+        <v>600</v>
+      </c>
+      <c r="M21" t="s">
+        <v>600</v>
+      </c>
+      <c r="N21" t="s">
+        <v>600</v>
+      </c>
+      <c r="O21" t="s">
+        <v>600</v>
+      </c>
+      <c r="P21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>603</v>
+      </c>
+      <c r="C22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E22" t="s">
+        <v>603</v>
+      </c>
+      <c r="F22" t="s">
+        <v>603</v>
+      </c>
+      <c r="G22" t="s">
+        <v>603</v>
+      </c>
+      <c r="H22" t="s">
+        <v>604</v>
+      </c>
+      <c r="I22" t="s">
+        <v>603</v>
+      </c>
+      <c r="J22" t="s">
+        <v>603</v>
+      </c>
+      <c r="K22" t="s">
+        <v>604</v>
+      </c>
+      <c r="L22" t="s">
+        <v>603</v>
+      </c>
+      <c r="M22" t="s">
+        <v>604</v>
+      </c>
+      <c r="N22" t="s">
+        <v>604</v>
+      </c>
+      <c r="O22" t="s">
+        <v>604</v>
+      </c>
+      <c r="P22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>601</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>33</v>
+      </c>
+      <c r="K23">
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>33</v>
+      </c>
+      <c r="O23">
+        <v>33</v>
+      </c>
+      <c r="P23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B24">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>63</v>
+      </c>
+      <c r="G24">
+        <v>63</v>
+      </c>
+      <c r="H24">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>63</v>
+      </c>
+      <c r="J24">
+        <v>63</v>
+      </c>
+      <c r="K24">
+        <v>63</v>
+      </c>
+      <c r="L24">
+        <v>63</v>
+      </c>
+      <c r="M24">
+        <v>63</v>
+      </c>
+      <c r="N24">
+        <v>63</v>
+      </c>
+      <c r="O24">
+        <v>63</v>
+      </c>
+      <c r="P24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <v>71</v>
+      </c>
+      <c r="H25">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>71</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>71</v>
+      </c>
+      <c r="L25">
+        <v>71</v>
+      </c>
+      <c r="M25">
+        <v>71</v>
+      </c>
+      <c r="N25">
+        <v>71</v>
+      </c>
+      <c r="O25">
+        <v>71</v>
+      </c>
+      <c r="P25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" t="s">
+        <v>608</v>
+      </c>
+      <c r="E26" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" t="s">
+        <v>608</v>
+      </c>
+      <c r="H26" t="s">
+        <v>608</v>
+      </c>
+      <c r="I26" t="s">
+        <v>608</v>
+      </c>
+      <c r="J26" t="s">
+        <v>608</v>
+      </c>
+      <c r="K26" t="s">
+        <v>608</v>
+      </c>
+      <c r="L26" t="s">
+        <v>608</v>
+      </c>
+      <c r="M26" t="s">
+        <v>608</v>
+      </c>
+      <c r="N26" t="s">
+        <v>608</v>
+      </c>
+      <c r="O26" t="s">
+        <v>608</v>
+      </c>
+      <c r="P26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>617</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B31" t="s">
+        <v>625</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>637</v>
+      </c>
+      <c r="E31" t="s">
+        <v>638</v>
+      </c>
+      <c r="F31" t="s">
+        <v>639</v>
+      </c>
+      <c r="G31" t="s">
+        <v>640</v>
+      </c>
+      <c r="H31" t="s">
+        <v>641</v>
+      </c>
+      <c r="I31" t="s">
+        <v>642</v>
+      </c>
+      <c r="J31" t="s">
+        <v>643</v>
+      </c>
+      <c r="K31" t="s">
+        <v>644</v>
+      </c>
+      <c r="L31" t="s">
+        <v>645</v>
+      </c>
+      <c r="M31" t="s">
+        <v>646</v>
+      </c>
+      <c r="N31" t="s">
+        <v>647</v>
+      </c>
+      <c r="O31" t="s">
+        <v>648</v>
+      </c>
+      <c r="P31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>762</v>
+      </c>
+      <c r="B32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D32" t="s">
+        <v>637</v>
+      </c>
+      <c r="E32" t="s">
+        <v>638</v>
+      </c>
+      <c r="F32" t="s">
+        <v>639</v>
+      </c>
+      <c r="G32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H32" t="s">
+        <v>641</v>
+      </c>
+      <c r="I32" t="s">
+        <v>642</v>
+      </c>
+      <c r="J32" t="s">
+        <v>643</v>
+      </c>
+      <c r="K32" t="s">
+        <v>644</v>
+      </c>
+      <c r="L32" t="s">
+        <v>645</v>
+      </c>
+      <c r="M32" t="s">
+        <v>646</v>
+      </c>
+      <c r="N32" t="s">
+        <v>647</v>
+      </c>
+      <c r="O32" t="s">
+        <v>648</v>
+      </c>
+      <c r="P32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>611</v>
+      </c>
+      <c r="B33" t="s">
+        <v>626</v>
+      </c>
+      <c r="C33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D33" t="s">
+        <v>626</v>
+      </c>
+      <c r="E33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G33" t="s">
+        <v>626</v>
+      </c>
+      <c r="H33" t="s">
+        <v>626</v>
+      </c>
+      <c r="I33" t="s">
+        <v>626</v>
+      </c>
+      <c r="J33" t="s">
+        <v>626</v>
+      </c>
+      <c r="K33" t="s">
+        <v>626</v>
+      </c>
+      <c r="L33" t="s">
+        <v>626</v>
+      </c>
+      <c r="M33" t="s">
+        <v>626</v>
+      </c>
+      <c r="N33" t="s">
+        <v>626</v>
+      </c>
+      <c r="O33" t="s">
+        <v>626</v>
+      </c>
+      <c r="P33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" t="s">
+        <v>626</v>
+      </c>
+      <c r="C34" t="s">
+        <v>626</v>
+      </c>
+      <c r="D34" t="s">
+        <v>626</v>
+      </c>
+      <c r="E34" t="s">
+        <v>626</v>
+      </c>
+      <c r="F34" t="s">
+        <v>626</v>
+      </c>
+      <c r="G34" t="s">
+        <v>626</v>
+      </c>
+      <c r="H34" t="s">
+        <v>626</v>
+      </c>
+      <c r="I34" t="s">
+        <v>626</v>
+      </c>
+      <c r="J34" t="s">
+        <v>626</v>
+      </c>
+      <c r="K34" t="s">
+        <v>626</v>
+      </c>
+      <c r="L34" t="s">
+        <v>626</v>
+      </c>
+      <c r="M34" t="s">
+        <v>626</v>
+      </c>
+      <c r="N34" t="s">
+        <v>626</v>
+      </c>
+      <c r="O34" t="s">
+        <v>626</v>
+      </c>
+      <c r="P34" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>622</v>
+      </c>
+      <c r="B35" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" t="s">
+        <v>650</v>
+      </c>
+      <c r="D35" t="s">
+        <v>651</v>
+      </c>
+      <c r="E35" t="s">
+        <v>652</v>
+      </c>
+      <c r="F35" t="s">
+        <v>653</v>
+      </c>
+      <c r="G35" t="s">
+        <v>654</v>
+      </c>
+      <c r="H35" t="s">
+        <v>655</v>
+      </c>
+      <c r="I35" t="s">
+        <v>656</v>
+      </c>
+      <c r="J35" t="s">
+        <v>657</v>
+      </c>
+      <c r="K35" t="s">
+        <v>658</v>
+      </c>
+      <c r="L35" t="s">
+        <v>659</v>
+      </c>
+      <c r="M35" t="s">
+        <v>660</v>
+      </c>
+      <c r="N35" t="s">
+        <v>661</v>
+      </c>
+      <c r="O35" t="s">
+        <v>662</v>
+      </c>
+      <c r="P35" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>619</v>
+      </c>
+      <c r="B36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" t="s">
+        <v>664</v>
+      </c>
+      <c r="D36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E36" t="s">
+        <v>666</v>
+      </c>
+      <c r="F36" t="s">
+        <v>667</v>
+      </c>
+      <c r="G36" t="s">
+        <v>668</v>
+      </c>
+      <c r="H36" t="s">
+        <v>669</v>
+      </c>
+      <c r="I36" t="s">
+        <v>670</v>
+      </c>
+      <c r="J36" t="s">
+        <v>671</v>
+      </c>
+      <c r="K36" t="s">
+        <v>672</v>
+      </c>
+      <c r="L36" t="s">
+        <v>673</v>
+      </c>
+      <c r="M36" t="s">
+        <v>674</v>
+      </c>
+      <c r="N36" t="s">
+        <v>675</v>
+      </c>
+      <c r="O36" t="s">
+        <v>676</v>
+      </c>
+      <c r="P36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>620</v>
+      </c>
+      <c r="B37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" t="s">
+        <v>678</v>
+      </c>
+      <c r="D37" t="s">
+        <v>679</v>
+      </c>
+      <c r="E37" t="s">
+        <v>680</v>
+      </c>
+      <c r="F37" t="s">
+        <v>681</v>
+      </c>
+      <c r="G37" t="s">
+        <v>682</v>
+      </c>
+      <c r="H37" t="s">
+        <v>683</v>
+      </c>
+      <c r="I37" t="s">
+        <v>684</v>
+      </c>
+      <c r="J37" t="s">
+        <v>685</v>
+      </c>
+      <c r="K37" t="s">
+        <v>686</v>
+      </c>
+      <c r="L37" t="s">
+        <v>687</v>
+      </c>
+      <c r="M37" t="s">
+        <v>688</v>
+      </c>
+      <c r="N37" t="s">
+        <v>689</v>
+      </c>
+      <c r="O37" t="s">
+        <v>690</v>
+      </c>
+      <c r="P37" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D38" t="s">
+        <v>693</v>
+      </c>
+      <c r="E38" t="s">
+        <v>694</v>
+      </c>
+      <c r="F38" t="s">
+        <v>695</v>
+      </c>
+      <c r="G38" t="s">
+        <v>696</v>
+      </c>
+      <c r="H38" t="s">
+        <v>697</v>
+      </c>
+      <c r="I38" t="s">
+        <v>698</v>
+      </c>
+      <c r="J38" t="s">
+        <v>699</v>
+      </c>
+      <c r="K38" t="s">
+        <v>700</v>
+      </c>
+      <c r="L38" t="s">
+        <v>701</v>
+      </c>
+      <c r="M38" t="s">
+        <v>702</v>
+      </c>
+      <c r="N38" t="s">
+        <v>703</v>
+      </c>
+      <c r="O38" t="s">
+        <v>704</v>
+      </c>
+      <c r="P38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>609</v>
+      </c>
+      <c r="B39" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" t="s">
+        <v>706</v>
+      </c>
+      <c r="D39" t="s">
+        <v>707</v>
+      </c>
+      <c r="E39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F39" t="s">
+        <v>709</v>
+      </c>
+      <c r="G39" t="s">
+        <v>710</v>
+      </c>
+      <c r="H39" t="s">
+        <v>711</v>
+      </c>
+      <c r="I39" t="s">
+        <v>712</v>
+      </c>
+      <c r="J39" t="s">
+        <v>713</v>
+      </c>
+      <c r="K39" t="s">
+        <v>714</v>
+      </c>
+      <c r="L39" t="s">
+        <v>715</v>
+      </c>
+      <c r="M39" t="s">
+        <v>716</v>
+      </c>
+      <c r="N39" t="s">
+        <v>717</v>
+      </c>
+      <c r="O39" t="s">
+        <v>718</v>
+      </c>
+      <c r="P39" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" t="s">
+        <v>632</v>
+      </c>
+      <c r="C40" t="s">
+        <v>720</v>
+      </c>
+      <c r="D40" t="s">
+        <v>721</v>
+      </c>
+      <c r="E40" t="s">
+        <v>722</v>
+      </c>
+      <c r="F40" t="s">
+        <v>723</v>
+      </c>
+      <c r="G40" t="s">
+        <v>724</v>
+      </c>
+      <c r="H40" t="s">
+        <v>725</v>
+      </c>
+      <c r="I40" t="s">
+        <v>726</v>
+      </c>
+      <c r="J40" t="s">
+        <v>727</v>
+      </c>
+      <c r="K40" t="s">
+        <v>728</v>
+      </c>
+      <c r="L40" t="s">
+        <v>729</v>
+      </c>
+      <c r="M40" t="s">
+        <v>730</v>
+      </c>
+      <c r="N40" t="s">
+        <v>731</v>
+      </c>
+      <c r="O40" t="s">
+        <v>732</v>
+      </c>
+      <c r="P40" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>734</v>
+      </c>
+      <c r="D41" t="s">
+        <v>735</v>
+      </c>
+      <c r="E41" t="s">
+        <v>736</v>
+      </c>
+      <c r="F41" t="s">
+        <v>737</v>
+      </c>
+      <c r="G41" t="s">
+        <v>738</v>
+      </c>
+      <c r="H41" t="s">
+        <v>739</v>
+      </c>
+      <c r="I41" t="s">
+        <v>740</v>
+      </c>
+      <c r="J41" t="s">
+        <v>741</v>
+      </c>
+      <c r="K41" t="s">
+        <v>742</v>
+      </c>
+      <c r="L41" t="s">
+        <v>743</v>
+      </c>
+      <c r="M41" t="s">
+        <v>744</v>
+      </c>
+      <c r="N41" t="s">
+        <v>745</v>
+      </c>
+      <c r="O41" t="s">
+        <v>746</v>
+      </c>
+      <c r="P41" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>613</v>
+      </c>
+      <c r="B42" t="s">
+        <v>634</v>
+      </c>
+      <c r="C42" t="s">
+        <v>748</v>
+      </c>
+      <c r="D42" t="s">
+        <v>749</v>
+      </c>
+      <c r="E42" t="s">
+        <v>750</v>
+      </c>
+      <c r="F42" t="s">
+        <v>751</v>
+      </c>
+      <c r="G42" t="s">
+        <v>752</v>
+      </c>
+      <c r="H42" t="s">
+        <v>753</v>
+      </c>
+      <c r="I42" t="s">
+        <v>754</v>
+      </c>
+      <c r="J42" t="s">
+        <v>755</v>
+      </c>
+      <c r="K42" t="s">
+        <v>756</v>
+      </c>
+      <c r="L42" t="s">
+        <v>757</v>
+      </c>
+      <c r="M42" t="s">
+        <v>758</v>
+      </c>
+      <c r="N42" t="s">
+        <v>759</v>
+      </c>
+      <c r="O42" t="s">
+        <v>760</v>
+      </c>
+      <c r="P42" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D43" t="s">
+        <v>635</v>
+      </c>
+      <c r="E43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F43" t="s">
+        <v>635</v>
+      </c>
+      <c r="G43" t="s">
+        <v>635</v>
+      </c>
+      <c r="H43" t="s">
+        <v>635</v>
+      </c>
+      <c r="I43" t="s">
+        <v>635</v>
+      </c>
+      <c r="J43" t="s">
+        <v>635</v>
+      </c>
+      <c r="K43" t="s">
+        <v>635</v>
+      </c>
+      <c r="L43" t="s">
+        <v>635</v>
+      </c>
+      <c r="M43" t="s">
+        <v>635</v>
+      </c>
+      <c r="N43" t="s">
+        <v>635</v>
+      </c>
+      <c r="O43" t="s">
+        <v>635</v>
+      </c>
+      <c r="P43" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>763</v>
+      </c>
+      <c r="B44" t="s">
+        <v>764</v>
+      </c>
+      <c r="C44" t="s">
+        <v>764</v>
+      </c>
+      <c r="D44" t="s">
+        <v>764</v>
+      </c>
+      <c r="E44" t="s">
+        <v>764</v>
+      </c>
+      <c r="F44" t="s">
+        <v>764</v>
+      </c>
+      <c r="G44" t="s">
+        <v>764</v>
+      </c>
+      <c r="H44" t="s">
+        <v>764</v>
+      </c>
+      <c r="I44" t="s">
+        <v>764</v>
+      </c>
+      <c r="J44" t="s">
+        <v>764</v>
+      </c>
+      <c r="K44" t="s">
+        <v>764</v>
+      </c>
+      <c r="L44" t="s">
+        <v>764</v>
+      </c>
+      <c r="M44" t="s">
+        <v>764</v>
+      </c>
+      <c r="N44" t="s">
+        <v>764</v>
+      </c>
+      <c r="O44" t="s">
+        <v>764</v>
+      </c>
+      <c r="P44" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>765</v>
+      </c>
+      <c r="B45" t="s">
+        <v>769</v>
+      </c>
+      <c r="C45" t="s">
+        <v>769</v>
+      </c>
+      <c r="D45" t="s">
+        <v>769</v>
+      </c>
+      <c r="E45" t="s">
+        <v>769</v>
+      </c>
+      <c r="F45" t="s">
+        <v>769</v>
+      </c>
+      <c r="G45" t="s">
+        <v>769</v>
+      </c>
+      <c r="H45" t="s">
+        <v>769</v>
+      </c>
+      <c r="I45" t="s">
+        <v>769</v>
+      </c>
+      <c r="J45" t="s">
+        <v>769</v>
+      </c>
+      <c r="K45" t="s">
+        <v>769</v>
+      </c>
+      <c r="L45" t="s">
+        <v>769</v>
+      </c>
+      <c r="M45" t="s">
+        <v>769</v>
+      </c>
+      <c r="N45" t="s">
+        <v>769</v>
+      </c>
+      <c r="O45" t="s">
+        <v>769</v>
+      </c>
+      <c r="P45" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>766</v>
+      </c>
+      <c r="B46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C46" t="s">
+        <v>768</v>
+      </c>
+      <c r="D46" t="s">
+        <v>768</v>
+      </c>
+      <c r="E46" t="s">
+        <v>768</v>
+      </c>
+      <c r="F46" t="s">
+        <v>768</v>
+      </c>
+      <c r="G46" t="s">
+        <v>768</v>
+      </c>
+      <c r="H46" t="s">
+        <v>768</v>
+      </c>
+      <c r="I46" t="s">
+        <v>768</v>
+      </c>
+      <c r="J46" t="s">
+        <v>768</v>
+      </c>
+      <c r="K46" t="s">
+        <v>768</v>
+      </c>
+      <c r="L46" t="s">
+        <v>768</v>
+      </c>
+      <c r="M46" t="s">
+        <v>768</v>
+      </c>
+      <c r="N46" t="s">
+        <v>768</v>
+      </c>
+      <c r="O46" t="s">
+        <v>768</v>
+      </c>
+      <c r="P46" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>771</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>767</v>
+      </c>
+      <c r="B48" t="s">
+        <v>770</v>
+      </c>
+      <c r="C48" t="s">
+        <v>770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>770</v>
+      </c>
+      <c r="E48" t="s">
+        <v>770</v>
+      </c>
+      <c r="F48" t="s">
+        <v>770</v>
+      </c>
+      <c r="G48" t="s">
+        <v>770</v>
+      </c>
+      <c r="H48" t="s">
+        <v>770</v>
+      </c>
+      <c r="I48" t="s">
+        <v>770</v>
+      </c>
+      <c r="J48" t="s">
+        <v>770</v>
+      </c>
+      <c r="K48" t="s">
+        <v>770</v>
+      </c>
+      <c r="L48" t="s">
+        <v>770</v>
+      </c>
+      <c r="M48" t="s">
+        <v>770</v>
+      </c>
+      <c r="N48" t="s">
+        <v>770</v>
+      </c>
+      <c r="O48" t="s">
+        <v>770</v>
+      </c>
+      <c r="P48" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>772</v>
+      </c>
+      <c r="B49" t="s">
+        <v>635</v>
+      </c>
+      <c r="C49" t="s">
+        <v>635</v>
+      </c>
+      <c r="D49" t="s">
+        <v>635</v>
+      </c>
+      <c r="E49" t="s">
+        <v>635</v>
+      </c>
+      <c r="F49" t="s">
+        <v>635</v>
+      </c>
+      <c r="G49" t="s">
+        <v>635</v>
+      </c>
+      <c r="H49" t="s">
+        <v>635</v>
+      </c>
+      <c r="I49" t="s">
+        <v>635</v>
+      </c>
+      <c r="J49" t="s">
+        <v>635</v>
+      </c>
+      <c r="K49" t="s">
+        <v>635</v>
+      </c>
+      <c r="L49" t="s">
+        <v>635</v>
+      </c>
+      <c r="M49" t="s">
+        <v>635</v>
+      </c>
+      <c r="N49" t="s">
+        <v>635</v>
+      </c>
+      <c r="O49" t="s">
+        <v>635</v>
+      </c>
+      <c r="P49" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>774</v>
+      </c>
+      <c r="B50" t="s">
+        <v>773</v>
+      </c>
+      <c r="C50" t="s">
+        <v>773</v>
+      </c>
+      <c r="D50" t="s">
+        <v>773</v>
+      </c>
+      <c r="E50" t="s">
+        <v>773</v>
+      </c>
+      <c r="F50" t="s">
+        <v>773</v>
+      </c>
+      <c r="G50" t="s">
+        <v>773</v>
+      </c>
+      <c r="H50" t="s">
+        <v>773</v>
+      </c>
+      <c r="I50" t="s">
+        <v>773</v>
+      </c>
+      <c r="J50" t="s">
+        <v>773</v>
+      </c>
+      <c r="K50" t="s">
+        <v>773</v>
+      </c>
+      <c r="L50" t="s">
+        <v>773</v>
+      </c>
+      <c r="M50" t="s">
+        <v>773</v>
+      </c>
+      <c r="N50" t="s">
+        <v>773</v>
+      </c>
+      <c r="O50" t="s">
+        <v>773</v>
+      </c>
+      <c r="P50" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>775</v>
+      </c>
+      <c r="B51" t="s">
+        <v>776</v>
+      </c>
+      <c r="C51" t="s">
+        <v>776</v>
+      </c>
+      <c r="D51" t="s">
+        <v>776</v>
+      </c>
+      <c r="E51" t="s">
+        <v>776</v>
+      </c>
+      <c r="F51" t="s">
+        <v>776</v>
+      </c>
+      <c r="G51" t="s">
+        <v>776</v>
+      </c>
+      <c r="H51" t="s">
+        <v>776</v>
+      </c>
+      <c r="I51" t="s">
+        <v>776</v>
+      </c>
+      <c r="J51" t="s">
+        <v>776</v>
+      </c>
+      <c r="K51" t="s">
+        <v>776</v>
+      </c>
+      <c r="L51" t="s">
+        <v>776</v>
+      </c>
+      <c r="M51" t="s">
+        <v>776</v>
+      </c>
+      <c r="N51" t="s">
+        <v>776</v>
+      </c>
+      <c r="O51" t="s">
+        <v>776</v>
+      </c>
+      <c r="P51" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>777</v>
+      </c>
+      <c r="B52" t="s">
+        <v>779</v>
+      </c>
+      <c r="C52" t="s">
+        <v>779</v>
+      </c>
+      <c r="D52" t="s">
+        <v>779</v>
+      </c>
+      <c r="E52" t="s">
+        <v>779</v>
+      </c>
+      <c r="F52" t="s">
+        <v>779</v>
+      </c>
+      <c r="G52" t="s">
+        <v>779</v>
+      </c>
+      <c r="H52" t="s">
+        <v>779</v>
+      </c>
+      <c r="I52" t="s">
+        <v>779</v>
+      </c>
+      <c r="J52" t="s">
+        <v>779</v>
+      </c>
+      <c r="K52" t="s">
+        <v>779</v>
+      </c>
+      <c r="L52" t="s">
+        <v>779</v>
+      </c>
+      <c r="M52" t="s">
+        <v>779</v>
+      </c>
+      <c r="N52" t="s">
+        <v>779</v>
+      </c>
+      <c r="O52" t="s">
+        <v>779</v>
+      </c>
+      <c r="P52" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>783</v>
+      </c>
+      <c r="B53" t="s">
+        <v>778</v>
+      </c>
+      <c r="C53" t="s">
+        <v>778</v>
+      </c>
+      <c r="D53" t="s">
+        <v>778</v>
+      </c>
+      <c r="E53" t="s">
+        <v>778</v>
+      </c>
+      <c r="F53" t="s">
+        <v>778</v>
+      </c>
+      <c r="G53" t="s">
+        <v>778</v>
+      </c>
+      <c r="H53" t="s">
+        <v>778</v>
+      </c>
+      <c r="I53" t="s">
+        <v>778</v>
+      </c>
+      <c r="J53" t="s">
+        <v>778</v>
+      </c>
+      <c r="K53" t="s">
+        <v>778</v>
+      </c>
+      <c r="L53" t="s">
+        <v>778</v>
+      </c>
+      <c r="M53" t="s">
+        <v>778</v>
+      </c>
+      <c r="N53" t="s">
+        <v>778</v>
+      </c>
+      <c r="O53" t="s">
+        <v>778</v>
+      </c>
+      <c r="P53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>790</v>
+      </c>
+      <c r="B54" t="s">
+        <v>791</v>
+      </c>
+      <c r="C54" t="s">
+        <v>791</v>
+      </c>
+      <c r="D54" t="s">
+        <v>791</v>
+      </c>
+      <c r="E54" t="s">
+        <v>791</v>
+      </c>
+      <c r="F54" t="s">
+        <v>791</v>
+      </c>
+      <c r="G54" t="s">
+        <v>791</v>
+      </c>
+      <c r="H54" t="s">
+        <v>791</v>
+      </c>
+      <c r="I54" t="s">
+        <v>791</v>
+      </c>
+      <c r="J54" t="s">
+        <v>791</v>
+      </c>
+      <c r="K54" t="s">
+        <v>791</v>
+      </c>
+      <c r="L54" t="s">
+        <v>791</v>
+      </c>
+      <c r="M54" t="s">
+        <v>791</v>
+      </c>
+      <c r="N54" t="s">
+        <v>791</v>
+      </c>
+      <c r="O54" t="s">
+        <v>791</v>
+      </c>
+      <c r="P54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>784</v>
+      </c>
+      <c r="B55" t="s">
+        <v>785</v>
+      </c>
+      <c r="C55" t="s">
+        <v>785</v>
+      </c>
+      <c r="D55" t="s">
+        <v>785</v>
+      </c>
+      <c r="E55" t="s">
+        <v>785</v>
+      </c>
+      <c r="F55" t="s">
+        <v>785</v>
+      </c>
+      <c r="G55" t="s">
+        <v>786</v>
+      </c>
+      <c r="H55" t="s">
+        <v>389</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>789</v>
+      </c>
+      <c r="K55" t="s">
+        <v>788</v>
+      </c>
+      <c r="L55" t="s">
+        <v>787</v>
+      </c>
+      <c r="M55" t="s">
+        <v>389</v>
+      </c>
+      <c r="N55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s">
+        <v>389</v>
+      </c>
+      <c r="P55" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>794</v>
+      </c>
+      <c r="E56" t="s">
+        <v>795</v>
+      </c>
+      <c r="J56" t="s">
+        <v>793</v>
+      </c>
+      <c r="K56" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>796</v>
+      </c>
+      <c r="E57" t="s">
+        <v>799</v>
+      </c>
+      <c r="J57" t="s">
+        <v>798</v>
+      </c>
+      <c r="K57" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>800</v>
+      </c>
+      <c r="B58" t="s">
+        <v>803</v>
+      </c>
+      <c r="C58" t="s">
+        <v>804</v>
+      </c>
+      <c r="D58" t="s">
+        <v>805</v>
+      </c>
+      <c r="E58" t="s">
+        <v>802</v>
+      </c>
+      <c r="F58" t="s">
+        <v>806</v>
+      </c>
+      <c r="G58" t="s">
+        <v>807</v>
+      </c>
+      <c r="H58" t="s">
+        <v>808</v>
+      </c>
+      <c r="I58" t="s">
+        <v>809</v>
+      </c>
+      <c r="J58" t="s">
+        <v>810</v>
+      </c>
+      <c r="K58" t="s">
+        <v>811</v>
+      </c>
+      <c r="L58" t="s">
+        <v>801</v>
+      </c>
+      <c r="M58" t="s">
+        <v>808</v>
+      </c>
+      <c r="N58" t="s">
+        <v>808</v>
+      </c>
+      <c r="O58" t="s">
+        <v>808</v>
+      </c>
+      <c r="P58" t="s">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4946,7 +7903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -5546,2571 +8503,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-      <c r="H2">
-        <v>10000</v>
-      </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
-      <c r="J2">
-        <v>10000</v>
-      </c>
-      <c r="K2">
-        <v>10000</v>
-      </c>
-      <c r="L2">
-        <v>10000</v>
-      </c>
-      <c r="M2">
-        <v>10000</v>
-      </c>
-      <c r="N2">
-        <v>10000</v>
-      </c>
-      <c r="O2">
-        <v>10000</v>
-      </c>
-      <c r="P2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B3">
-        <v>40000</v>
-      </c>
-      <c r="C3">
-        <v>40000</v>
-      </c>
-      <c r="D3">
-        <v>40000</v>
-      </c>
-      <c r="E3">
-        <v>40000</v>
-      </c>
-      <c r="F3">
-        <v>40000</v>
-      </c>
-      <c r="G3">
-        <v>40000</v>
-      </c>
-      <c r="H3">
-        <v>40000</v>
-      </c>
-      <c r="I3">
-        <v>40000</v>
-      </c>
-      <c r="J3">
-        <v>40000</v>
-      </c>
-      <c r="K3">
-        <v>40000</v>
-      </c>
-      <c r="L3">
-        <v>40000</v>
-      </c>
-      <c r="M3">
-        <v>40000</v>
-      </c>
-      <c r="N3">
-        <v>40000</v>
-      </c>
-      <c r="O3">
-        <v>40000</v>
-      </c>
-      <c r="P3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4">
-        <v>60000</v>
-      </c>
-      <c r="C4">
-        <v>60000</v>
-      </c>
-      <c r="D4">
-        <v>60000</v>
-      </c>
-      <c r="E4">
-        <v>60000</v>
-      </c>
-      <c r="F4">
-        <v>60000</v>
-      </c>
-      <c r="G4">
-        <v>60000</v>
-      </c>
-      <c r="H4">
-        <v>60000</v>
-      </c>
-      <c r="I4">
-        <v>60000</v>
-      </c>
-      <c r="J4">
-        <v>60000</v>
-      </c>
-      <c r="K4">
-        <v>60000</v>
-      </c>
-      <c r="L4">
-        <v>60000</v>
-      </c>
-      <c r="M4">
-        <v>60000</v>
-      </c>
-      <c r="N4">
-        <v>60000</v>
-      </c>
-      <c r="O4">
-        <v>60000</v>
-      </c>
-      <c r="P4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>100000</v>
-      </c>
-      <c r="D5">
-        <v>100000</v>
-      </c>
-      <c r="E5">
-        <v>100000</v>
-      </c>
-      <c r="F5">
-        <v>100000</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
-      <c r="H5">
-        <v>100000</v>
-      </c>
-      <c r="I5">
-        <v>100000</v>
-      </c>
-      <c r="J5">
-        <v>100000</v>
-      </c>
-      <c r="K5">
-        <v>100000</v>
-      </c>
-      <c r="L5">
-        <v>100000</v>
-      </c>
-      <c r="M5">
-        <v>100000</v>
-      </c>
-      <c r="N5">
-        <v>100000</v>
-      </c>
-      <c r="O5">
-        <v>100000</v>
-      </c>
-      <c r="P5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.25</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G7" t="s">
-        <v>570</v>
-      </c>
-      <c r="H7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I7" t="s">
-        <v>567</v>
-      </c>
-      <c r="J7" t="s">
-        <v>567</v>
-      </c>
-      <c r="K7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L7" t="s">
-        <v>568</v>
-      </c>
-      <c r="M7" t="s">
-        <v>568</v>
-      </c>
-      <c r="N7" t="s">
-        <v>568</v>
-      </c>
-      <c r="O7" t="s">
-        <v>568</v>
-      </c>
-      <c r="P7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C8" t="s">
-        <v>580</v>
-      </c>
-      <c r="D8" t="s">
-        <v>580</v>
-      </c>
-      <c r="E8" t="s">
-        <v>580</v>
-      </c>
-      <c r="F8" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" t="s">
-        <v>580</v>
-      </c>
-      <c r="H8" t="s">
-        <v>580</v>
-      </c>
-      <c r="I8" t="s">
-        <v>580</v>
-      </c>
-      <c r="J8" t="s">
-        <v>580</v>
-      </c>
-      <c r="K8" t="s">
-        <v>580</v>
-      </c>
-      <c r="L8" t="s">
-        <v>580</v>
-      </c>
-      <c r="M8" t="s">
-        <v>580</v>
-      </c>
-      <c r="N8" t="s">
-        <v>580</v>
-      </c>
-      <c r="O8" t="s">
-        <v>580</v>
-      </c>
-      <c r="P8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>574</v>
-      </c>
-      <c r="B9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D9" t="s">
-        <v>571</v>
-      </c>
-      <c r="E9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F9" t="s">
-        <v>571</v>
-      </c>
-      <c r="G9" t="s">
-        <v>571</v>
-      </c>
-      <c r="H9" t="s">
-        <v>571</v>
-      </c>
-      <c r="I9" t="s">
-        <v>571</v>
-      </c>
-      <c r="J9" t="s">
-        <v>571</v>
-      </c>
-      <c r="K9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L9" t="s">
-        <v>571</v>
-      </c>
-      <c r="M9" t="s">
-        <v>571</v>
-      </c>
-      <c r="N9" t="s">
-        <v>571</v>
-      </c>
-      <c r="O9" t="s">
-        <v>571</v>
-      </c>
-      <c r="P9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" t="s">
-        <v>576</v>
-      </c>
-      <c r="F10" t="s">
-        <v>576</v>
-      </c>
-      <c r="G10" t="s">
-        <v>576</v>
-      </c>
-      <c r="H10" t="s">
-        <v>576</v>
-      </c>
-      <c r="I10" t="s">
-        <v>576</v>
-      </c>
-      <c r="J10" t="s">
-        <v>576</v>
-      </c>
-      <c r="K10" t="s">
-        <v>576</v>
-      </c>
-      <c r="L10" t="s">
-        <v>576</v>
-      </c>
-      <c r="M10" t="s">
-        <v>576</v>
-      </c>
-      <c r="N10" t="s">
-        <v>576</v>
-      </c>
-      <c r="O10" t="s">
-        <v>576</v>
-      </c>
-      <c r="P10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>577</v>
-      </c>
-      <c r="B11" t="s">
-        <v>582</v>
-      </c>
-      <c r="C11" t="s">
-        <v>582</v>
-      </c>
-      <c r="D11" t="s">
-        <v>582</v>
-      </c>
-      <c r="E11" t="s">
-        <v>582</v>
-      </c>
-      <c r="F11" t="s">
-        <v>582</v>
-      </c>
-      <c r="G11" t="s">
-        <v>582</v>
-      </c>
-      <c r="H11" t="s">
-        <v>582</v>
-      </c>
-      <c r="I11" t="s">
-        <v>582</v>
-      </c>
-      <c r="J11" t="s">
-        <v>582</v>
-      </c>
-      <c r="K11" t="s">
-        <v>582</v>
-      </c>
-      <c r="L11" t="s">
-        <v>582</v>
-      </c>
-      <c r="M11" t="s">
-        <v>582</v>
-      </c>
-      <c r="N11" t="s">
-        <v>582</v>
-      </c>
-      <c r="O11" t="s">
-        <v>582</v>
-      </c>
-      <c r="P11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12" t="s">
-        <v>581</v>
-      </c>
-      <c r="E12" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" t="s">
-        <v>581</v>
-      </c>
-      <c r="G12" t="s">
-        <v>581</v>
-      </c>
-      <c r="H12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I12" t="s">
-        <v>581</v>
-      </c>
-      <c r="J12" t="s">
-        <v>581</v>
-      </c>
-      <c r="K12" t="s">
-        <v>581</v>
-      </c>
-      <c r="L12" t="s">
-        <v>581</v>
-      </c>
-      <c r="M12" t="s">
-        <v>581</v>
-      </c>
-      <c r="N12" t="s">
-        <v>581</v>
-      </c>
-      <c r="O12" t="s">
-        <v>581</v>
-      </c>
-      <c r="P12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>579</v>
-      </c>
-      <c r="B13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" t="s">
-        <v>583</v>
-      </c>
-      <c r="E13" t="s">
-        <v>583</v>
-      </c>
-      <c r="F13" t="s">
-        <v>583</v>
-      </c>
-      <c r="G13" t="s">
-        <v>583</v>
-      </c>
-      <c r="H13" t="s">
-        <v>583</v>
-      </c>
-      <c r="I13" t="s">
-        <v>583</v>
-      </c>
-      <c r="J13" t="s">
-        <v>583</v>
-      </c>
-      <c r="K13" t="s">
-        <v>583</v>
-      </c>
-      <c r="L13" t="s">
-        <v>583</v>
-      </c>
-      <c r="M13" t="s">
-        <v>583</v>
-      </c>
-      <c r="N13" t="s">
-        <v>583</v>
-      </c>
-      <c r="O13" t="s">
-        <v>583</v>
-      </c>
-      <c r="P13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>50000</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>10000</v>
-      </c>
-      <c r="F14">
-        <v>10000</v>
-      </c>
-      <c r="G14">
-        <v>10000</v>
-      </c>
-      <c r="H14">
-        <v>10000</v>
-      </c>
-      <c r="I14">
-        <v>10000</v>
-      </c>
-      <c r="J14">
-        <v>10000</v>
-      </c>
-      <c r="K14">
-        <v>10000</v>
-      </c>
-      <c r="L14">
-        <v>10000</v>
-      </c>
-      <c r="M14">
-        <v>10000</v>
-      </c>
-      <c r="N14">
-        <v>10000</v>
-      </c>
-      <c r="O14">
-        <v>10000</v>
-      </c>
-      <c r="P14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B15">
-        <v>2500</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15">
-        <v>2500</v>
-      </c>
-      <c r="E15">
-        <v>2500</v>
-      </c>
-      <c r="F15">
-        <v>2500</v>
-      </c>
-      <c r="G15">
-        <v>2500</v>
-      </c>
-      <c r="H15">
-        <v>2500</v>
-      </c>
-      <c r="I15">
-        <v>2500</v>
-      </c>
-      <c r="J15">
-        <v>2500</v>
-      </c>
-      <c r="K15">
-        <v>2500</v>
-      </c>
-      <c r="L15">
-        <v>2500</v>
-      </c>
-      <c r="M15">
-        <v>2500</v>
-      </c>
-      <c r="N15">
-        <v>2500</v>
-      </c>
-      <c r="O15">
-        <v>2500</v>
-      </c>
-      <c r="P15">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>594</v>
-      </c>
-      <c r="B16" t="s">
-        <v>597</v>
-      </c>
-      <c r="C16" t="s">
-        <v>597</v>
-      </c>
-      <c r="D16" t="s">
-        <v>597</v>
-      </c>
-      <c r="E16" t="s">
-        <v>597</v>
-      </c>
-      <c r="F16" t="s">
-        <v>597</v>
-      </c>
-      <c r="G16" t="s">
-        <v>597</v>
-      </c>
-      <c r="H16" t="s">
-        <v>597</v>
-      </c>
-      <c r="I16" t="s">
-        <v>597</v>
-      </c>
-      <c r="J16" t="s">
-        <v>597</v>
-      </c>
-      <c r="K16" t="s">
-        <v>597</v>
-      </c>
-      <c r="L16" t="s">
-        <v>597</v>
-      </c>
-      <c r="M16" t="s">
-        <v>597</v>
-      </c>
-      <c r="N16" t="s">
-        <v>597</v>
-      </c>
-      <c r="O16" t="s">
-        <v>597</v>
-      </c>
-      <c r="P16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>593</v>
-      </c>
-      <c r="B17" s="43">
-        <v>30</v>
-      </c>
-      <c r="C17" s="43">
-        <v>30</v>
-      </c>
-      <c r="D17" s="43">
-        <v>30</v>
-      </c>
-      <c r="E17" s="43">
-        <v>30</v>
-      </c>
-      <c r="F17" s="43">
-        <v>30</v>
-      </c>
-      <c r="G17" s="43">
-        <v>30</v>
-      </c>
-      <c r="H17" s="43">
-        <v>30</v>
-      </c>
-      <c r="I17" s="43">
-        <v>30</v>
-      </c>
-      <c r="J17" s="43">
-        <v>30</v>
-      </c>
-      <c r="K17" s="43">
-        <v>30</v>
-      </c>
-      <c r="L17" s="43">
-        <v>30</v>
-      </c>
-      <c r="M17" s="43">
-        <v>30</v>
-      </c>
-      <c r="N17" s="43">
-        <v>30</v>
-      </c>
-      <c r="O17" s="43">
-        <v>30</v>
-      </c>
-      <c r="P17" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>595</v>
-      </c>
-      <c r="B18" s="43">
-        <v>10</v>
-      </c>
-      <c r="C18" s="43">
-        <v>10</v>
-      </c>
-      <c r="D18" s="43">
-        <v>10</v>
-      </c>
-      <c r="E18" s="43">
-        <v>10</v>
-      </c>
-      <c r="F18" s="43">
-        <v>10</v>
-      </c>
-      <c r="G18" s="43">
-        <v>10</v>
-      </c>
-      <c r="H18" s="43">
-        <v>10</v>
-      </c>
-      <c r="I18" s="43">
-        <v>10</v>
-      </c>
-      <c r="J18" s="43">
-        <v>10</v>
-      </c>
-      <c r="K18" s="43">
-        <v>10</v>
-      </c>
-      <c r="L18" s="43">
-        <v>10</v>
-      </c>
-      <c r="M18" s="43">
-        <v>10</v>
-      </c>
-      <c r="N18" s="43">
-        <v>10</v>
-      </c>
-      <c r="O18" s="43">
-        <v>10</v>
-      </c>
-      <c r="P18" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>596</v>
-      </c>
-      <c r="B19" s="43">
-        <v>40</v>
-      </c>
-      <c r="C19" s="43">
-        <v>40</v>
-      </c>
-      <c r="D19" s="43">
-        <v>40</v>
-      </c>
-      <c r="E19" s="43">
-        <v>40</v>
-      </c>
-      <c r="F19" s="43">
-        <v>40</v>
-      </c>
-      <c r="G19" s="43">
-        <v>40</v>
-      </c>
-      <c r="H19" s="43">
-        <v>40</v>
-      </c>
-      <c r="I19" s="43">
-        <v>40</v>
-      </c>
-      <c r="J19" s="43">
-        <v>40</v>
-      </c>
-      <c r="K19" s="43">
-        <v>40</v>
-      </c>
-      <c r="L19" s="43">
-        <v>40</v>
-      </c>
-      <c r="M19" s="43">
-        <v>40</v>
-      </c>
-      <c r="N19" s="43">
-        <v>40</v>
-      </c>
-      <c r="O19" s="43">
-        <v>40</v>
-      </c>
-      <c r="P19" s="43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>598</v>
-      </c>
-      <c r="B20" s="43">
-        <v>100</v>
-      </c>
-      <c r="C20" s="43">
-        <v>100</v>
-      </c>
-      <c r="D20" s="43">
-        <v>100</v>
-      </c>
-      <c r="E20" s="43">
-        <v>100</v>
-      </c>
-      <c r="F20" s="43">
-        <v>100</v>
-      </c>
-      <c r="G20" s="43">
-        <v>100</v>
-      </c>
-      <c r="H20" s="43">
-        <v>100</v>
-      </c>
-      <c r="I20" s="43">
-        <v>100</v>
-      </c>
-      <c r="J20" s="43">
-        <v>100</v>
-      </c>
-      <c r="K20" s="43">
-        <v>100</v>
-      </c>
-      <c r="L20" s="43">
-        <v>100</v>
-      </c>
-      <c r="M20" s="43">
-        <v>100</v>
-      </c>
-      <c r="N20" s="43">
-        <v>100</v>
-      </c>
-      <c r="O20" s="43">
-        <v>100</v>
-      </c>
-      <c r="P20" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>599</v>
-      </c>
-      <c r="B21" t="s">
-        <v>600</v>
-      </c>
-      <c r="C21" t="s">
-        <v>600</v>
-      </c>
-      <c r="D21" t="s">
-        <v>600</v>
-      </c>
-      <c r="E21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G21" t="s">
-        <v>600</v>
-      </c>
-      <c r="H21" t="s">
-        <v>600</v>
-      </c>
-      <c r="I21" t="s">
-        <v>600</v>
-      </c>
-      <c r="J21" t="s">
-        <v>600</v>
-      </c>
-      <c r="K21" t="s">
-        <v>600</v>
-      </c>
-      <c r="L21" t="s">
-        <v>600</v>
-      </c>
-      <c r="M21" t="s">
-        <v>600</v>
-      </c>
-      <c r="N21" t="s">
-        <v>600</v>
-      </c>
-      <c r="O21" t="s">
-        <v>600</v>
-      </c>
-      <c r="P21" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" t="s">
-        <v>603</v>
-      </c>
-      <c r="C22" t="s">
-        <v>603</v>
-      </c>
-      <c r="D22" t="s">
-        <v>603</v>
-      </c>
-      <c r="E22" t="s">
-        <v>603</v>
-      </c>
-      <c r="F22" t="s">
-        <v>603</v>
-      </c>
-      <c r="G22" t="s">
-        <v>603</v>
-      </c>
-      <c r="H22" t="s">
-        <v>604</v>
-      </c>
-      <c r="I22" t="s">
-        <v>603</v>
-      </c>
-      <c r="J22" t="s">
-        <v>603</v>
-      </c>
-      <c r="K22" t="s">
-        <v>604</v>
-      </c>
-      <c r="L22" t="s">
-        <v>603</v>
-      </c>
-      <c r="M22" t="s">
-        <v>604</v>
-      </c>
-      <c r="N22" t="s">
-        <v>604</v>
-      </c>
-      <c r="O22" t="s">
-        <v>604</v>
-      </c>
-      <c r="P22" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>601</v>
-      </c>
-      <c r="B23">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-      <c r="F23">
-        <v>33</v>
-      </c>
-      <c r="G23">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="I23">
-        <v>33</v>
-      </c>
-      <c r="J23">
-        <v>33</v>
-      </c>
-      <c r="K23">
-        <v>33</v>
-      </c>
-      <c r="L23">
-        <v>33</v>
-      </c>
-      <c r="M23">
-        <v>33</v>
-      </c>
-      <c r="N23">
-        <v>33</v>
-      </c>
-      <c r="O23">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>605</v>
-      </c>
-      <c r="B24">
-        <v>63</v>
-      </c>
-      <c r="C24">
-        <v>63</v>
-      </c>
-      <c r="D24">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <v>63</v>
-      </c>
-      <c r="F24">
-        <v>63</v>
-      </c>
-      <c r="G24">
-        <v>63</v>
-      </c>
-      <c r="H24">
-        <v>63</v>
-      </c>
-      <c r="I24">
-        <v>63</v>
-      </c>
-      <c r="J24">
-        <v>63</v>
-      </c>
-      <c r="K24">
-        <v>63</v>
-      </c>
-      <c r="L24">
-        <v>63</v>
-      </c>
-      <c r="M24">
-        <v>63</v>
-      </c>
-      <c r="N24">
-        <v>63</v>
-      </c>
-      <c r="O24">
-        <v>63</v>
-      </c>
-      <c r="P24">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>606</v>
-      </c>
-      <c r="B25">
-        <v>71</v>
-      </c>
-      <c r="C25">
-        <v>71</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>71</v>
-      </c>
-      <c r="F25">
-        <v>71</v>
-      </c>
-      <c r="G25">
-        <v>71</v>
-      </c>
-      <c r="H25">
-        <v>71</v>
-      </c>
-      <c r="I25">
-        <v>71</v>
-      </c>
-      <c r="J25">
-        <v>71</v>
-      </c>
-      <c r="K25">
-        <v>71</v>
-      </c>
-      <c r="L25">
-        <v>71</v>
-      </c>
-      <c r="M25">
-        <v>71</v>
-      </c>
-      <c r="N25">
-        <v>71</v>
-      </c>
-      <c r="O25">
-        <v>71</v>
-      </c>
-      <c r="P25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B26" t="s">
-        <v>608</v>
-      </c>
-      <c r="C26" t="s">
-        <v>608</v>
-      </c>
-      <c r="D26" t="s">
-        <v>608</v>
-      </c>
-      <c r="E26" t="s">
-        <v>608</v>
-      </c>
-      <c r="F26" t="s">
-        <v>608</v>
-      </c>
-      <c r="G26" t="s">
-        <v>608</v>
-      </c>
-      <c r="H26" t="s">
-        <v>608</v>
-      </c>
-      <c r="I26" t="s">
-        <v>608</v>
-      </c>
-      <c r="J26" t="s">
-        <v>608</v>
-      </c>
-      <c r="K26" t="s">
-        <v>608</v>
-      </c>
-      <c r="L26" t="s">
-        <v>608</v>
-      </c>
-      <c r="M26" t="s">
-        <v>608</v>
-      </c>
-      <c r="N26" t="s">
-        <v>608</v>
-      </c>
-      <c r="O26" t="s">
-        <v>608</v>
-      </c>
-      <c r="P26" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>615</v>
-      </c>
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>18</v>
-      </c>
-      <c r="G27">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>18</v>
-      </c>
-      <c r="I27">
-        <v>18</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27">
-        <v>18</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>18</v>
-      </c>
-      <c r="N27">
-        <v>18</v>
-      </c>
-      <c r="O27">
-        <v>18</v>
-      </c>
-      <c r="P27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>618</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="N28">
-        <v>8</v>
-      </c>
-      <c r="O28">
-        <v>8</v>
-      </c>
-      <c r="P28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>616</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>8</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>617</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>612</v>
-      </c>
-      <c r="B31" t="s">
-        <v>625</v>
-      </c>
-      <c r="C31" t="s">
-        <v>636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" t="s">
-        <v>638</v>
-      </c>
-      <c r="F31" t="s">
-        <v>639</v>
-      </c>
-      <c r="G31" t="s">
-        <v>640</v>
-      </c>
-      <c r="H31" t="s">
-        <v>641</v>
-      </c>
-      <c r="I31" t="s">
-        <v>642</v>
-      </c>
-      <c r="J31" t="s">
-        <v>643</v>
-      </c>
-      <c r="K31" t="s">
-        <v>644</v>
-      </c>
-      <c r="L31" t="s">
-        <v>645</v>
-      </c>
-      <c r="M31" t="s">
-        <v>646</v>
-      </c>
-      <c r="N31" t="s">
-        <v>647</v>
-      </c>
-      <c r="O31" t="s">
-        <v>648</v>
-      </c>
-      <c r="P31" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>762</v>
-      </c>
-      <c r="B32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C32" t="s">
-        <v>636</v>
-      </c>
-      <c r="D32" t="s">
-        <v>637</v>
-      </c>
-      <c r="E32" t="s">
-        <v>638</v>
-      </c>
-      <c r="F32" t="s">
-        <v>639</v>
-      </c>
-      <c r="G32" t="s">
-        <v>640</v>
-      </c>
-      <c r="H32" t="s">
-        <v>641</v>
-      </c>
-      <c r="I32" t="s">
-        <v>642</v>
-      </c>
-      <c r="J32" t="s">
-        <v>643</v>
-      </c>
-      <c r="K32" t="s">
-        <v>644</v>
-      </c>
-      <c r="L32" t="s">
-        <v>645</v>
-      </c>
-      <c r="M32" t="s">
-        <v>646</v>
-      </c>
-      <c r="N32" t="s">
-        <v>647</v>
-      </c>
-      <c r="O32" t="s">
-        <v>648</v>
-      </c>
-      <c r="P32" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" t="s">
-        <v>626</v>
-      </c>
-      <c r="C33" t="s">
-        <v>626</v>
-      </c>
-      <c r="D33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F33" t="s">
-        <v>626</v>
-      </c>
-      <c r="G33" t="s">
-        <v>626</v>
-      </c>
-      <c r="H33" t="s">
-        <v>626</v>
-      </c>
-      <c r="I33" t="s">
-        <v>626</v>
-      </c>
-      <c r="J33" t="s">
-        <v>626</v>
-      </c>
-      <c r="K33" t="s">
-        <v>626</v>
-      </c>
-      <c r="L33" t="s">
-        <v>626</v>
-      </c>
-      <c r="M33" t="s">
-        <v>626</v>
-      </c>
-      <c r="N33" t="s">
-        <v>626</v>
-      </c>
-      <c r="O33" t="s">
-        <v>626</v>
-      </c>
-      <c r="P33" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>624</v>
-      </c>
-      <c r="B34" t="s">
-        <v>626</v>
-      </c>
-      <c r="C34" t="s">
-        <v>626</v>
-      </c>
-      <c r="D34" t="s">
-        <v>626</v>
-      </c>
-      <c r="E34" t="s">
-        <v>626</v>
-      </c>
-      <c r="F34" t="s">
-        <v>626</v>
-      </c>
-      <c r="G34" t="s">
-        <v>626</v>
-      </c>
-      <c r="H34" t="s">
-        <v>626</v>
-      </c>
-      <c r="I34" t="s">
-        <v>626</v>
-      </c>
-      <c r="J34" t="s">
-        <v>626</v>
-      </c>
-      <c r="K34" t="s">
-        <v>626</v>
-      </c>
-      <c r="L34" t="s">
-        <v>626</v>
-      </c>
-      <c r="M34" t="s">
-        <v>626</v>
-      </c>
-      <c r="N34" t="s">
-        <v>626</v>
-      </c>
-      <c r="O34" t="s">
-        <v>626</v>
-      </c>
-      <c r="P34" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>622</v>
-      </c>
-      <c r="B35" t="s">
-        <v>627</v>
-      </c>
-      <c r="C35" t="s">
-        <v>650</v>
-      </c>
-      <c r="D35" t="s">
-        <v>651</v>
-      </c>
-      <c r="E35" t="s">
-        <v>652</v>
-      </c>
-      <c r="F35" t="s">
-        <v>653</v>
-      </c>
-      <c r="G35" t="s">
-        <v>654</v>
-      </c>
-      <c r="H35" t="s">
-        <v>655</v>
-      </c>
-      <c r="I35" t="s">
-        <v>656</v>
-      </c>
-      <c r="J35" t="s">
-        <v>657</v>
-      </c>
-      <c r="K35" t="s">
-        <v>658</v>
-      </c>
-      <c r="L35" t="s">
-        <v>659</v>
-      </c>
-      <c r="M35" t="s">
-        <v>660</v>
-      </c>
-      <c r="N35" t="s">
-        <v>661</v>
-      </c>
-      <c r="O35" t="s">
-        <v>662</v>
-      </c>
-      <c r="P35" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>619</v>
-      </c>
-      <c r="B36" t="s">
-        <v>628</v>
-      </c>
-      <c r="C36" t="s">
-        <v>664</v>
-      </c>
-      <c r="D36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E36" t="s">
-        <v>666</v>
-      </c>
-      <c r="F36" t="s">
-        <v>667</v>
-      </c>
-      <c r="G36" t="s">
-        <v>668</v>
-      </c>
-      <c r="H36" t="s">
-        <v>669</v>
-      </c>
-      <c r="I36" t="s">
-        <v>670</v>
-      </c>
-      <c r="J36" t="s">
-        <v>671</v>
-      </c>
-      <c r="K36" t="s">
-        <v>672</v>
-      </c>
-      <c r="L36" t="s">
-        <v>673</v>
-      </c>
-      <c r="M36" t="s">
-        <v>674</v>
-      </c>
-      <c r="N36" t="s">
-        <v>675</v>
-      </c>
-      <c r="O36" t="s">
-        <v>676</v>
-      </c>
-      <c r="P36" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>620</v>
-      </c>
-      <c r="B37" t="s">
-        <v>629</v>
-      </c>
-      <c r="C37" t="s">
-        <v>678</v>
-      </c>
-      <c r="D37" t="s">
-        <v>679</v>
-      </c>
-      <c r="E37" t="s">
-        <v>680</v>
-      </c>
-      <c r="F37" t="s">
-        <v>681</v>
-      </c>
-      <c r="G37" t="s">
-        <v>682</v>
-      </c>
-      <c r="H37" t="s">
-        <v>683</v>
-      </c>
-      <c r="I37" t="s">
-        <v>684</v>
-      </c>
-      <c r="J37" t="s">
-        <v>685</v>
-      </c>
-      <c r="K37" t="s">
-        <v>686</v>
-      </c>
-      <c r="L37" t="s">
-        <v>687</v>
-      </c>
-      <c r="M37" t="s">
-        <v>688</v>
-      </c>
-      <c r="N37" t="s">
-        <v>689</v>
-      </c>
-      <c r="O37" t="s">
-        <v>690</v>
-      </c>
-      <c r="P37" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>614</v>
-      </c>
-      <c r="B38" t="s">
-        <v>630</v>
-      </c>
-      <c r="C38" t="s">
-        <v>692</v>
-      </c>
-      <c r="D38" t="s">
-        <v>693</v>
-      </c>
-      <c r="E38" t="s">
-        <v>694</v>
-      </c>
-      <c r="F38" t="s">
-        <v>695</v>
-      </c>
-      <c r="G38" t="s">
-        <v>696</v>
-      </c>
-      <c r="H38" t="s">
-        <v>697</v>
-      </c>
-      <c r="I38" t="s">
-        <v>698</v>
-      </c>
-      <c r="J38" t="s">
-        <v>699</v>
-      </c>
-      <c r="K38" t="s">
-        <v>700</v>
-      </c>
-      <c r="L38" t="s">
-        <v>701</v>
-      </c>
-      <c r="M38" t="s">
-        <v>702</v>
-      </c>
-      <c r="N38" t="s">
-        <v>703</v>
-      </c>
-      <c r="O38" t="s">
-        <v>704</v>
-      </c>
-      <c r="P38" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>609</v>
-      </c>
-      <c r="B39" t="s">
-        <v>631</v>
-      </c>
-      <c r="C39" t="s">
-        <v>706</v>
-      </c>
-      <c r="D39" t="s">
-        <v>707</v>
-      </c>
-      <c r="E39" t="s">
-        <v>708</v>
-      </c>
-      <c r="F39" t="s">
-        <v>709</v>
-      </c>
-      <c r="G39" t="s">
-        <v>710</v>
-      </c>
-      <c r="H39" t="s">
-        <v>711</v>
-      </c>
-      <c r="I39" t="s">
-        <v>712</v>
-      </c>
-      <c r="J39" t="s">
-        <v>713</v>
-      </c>
-      <c r="K39" t="s">
-        <v>714</v>
-      </c>
-      <c r="L39" t="s">
-        <v>715</v>
-      </c>
-      <c r="M39" t="s">
-        <v>716</v>
-      </c>
-      <c r="N39" t="s">
-        <v>717</v>
-      </c>
-      <c r="O39" t="s">
-        <v>718</v>
-      </c>
-      <c r="P39" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>610</v>
-      </c>
-      <c r="B40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C40" t="s">
-        <v>720</v>
-      </c>
-      <c r="D40" t="s">
-        <v>721</v>
-      </c>
-      <c r="E40" t="s">
-        <v>722</v>
-      </c>
-      <c r="F40" t="s">
-        <v>723</v>
-      </c>
-      <c r="G40" t="s">
-        <v>724</v>
-      </c>
-      <c r="H40" t="s">
-        <v>725</v>
-      </c>
-      <c r="I40" t="s">
-        <v>726</v>
-      </c>
-      <c r="J40" t="s">
-        <v>727</v>
-      </c>
-      <c r="K40" t="s">
-        <v>728</v>
-      </c>
-      <c r="L40" t="s">
-        <v>729</v>
-      </c>
-      <c r="M40" t="s">
-        <v>730</v>
-      </c>
-      <c r="N40" t="s">
-        <v>731</v>
-      </c>
-      <c r="O40" t="s">
-        <v>732</v>
-      </c>
-      <c r="P40" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>623</v>
-      </c>
-      <c r="B41" t="s">
-        <v>633</v>
-      </c>
-      <c r="C41" t="s">
-        <v>734</v>
-      </c>
-      <c r="D41" t="s">
-        <v>735</v>
-      </c>
-      <c r="E41" t="s">
-        <v>736</v>
-      </c>
-      <c r="F41" t="s">
-        <v>737</v>
-      </c>
-      <c r="G41" t="s">
-        <v>738</v>
-      </c>
-      <c r="H41" t="s">
-        <v>739</v>
-      </c>
-      <c r="I41" t="s">
-        <v>740</v>
-      </c>
-      <c r="J41" t="s">
-        <v>741</v>
-      </c>
-      <c r="K41" t="s">
-        <v>742</v>
-      </c>
-      <c r="L41" t="s">
-        <v>743</v>
-      </c>
-      <c r="M41" t="s">
-        <v>744</v>
-      </c>
-      <c r="N41" t="s">
-        <v>745</v>
-      </c>
-      <c r="O41" t="s">
-        <v>746</v>
-      </c>
-      <c r="P41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>613</v>
-      </c>
-      <c r="B42" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" t="s">
-        <v>748</v>
-      </c>
-      <c r="D42" t="s">
-        <v>749</v>
-      </c>
-      <c r="E42" t="s">
-        <v>750</v>
-      </c>
-      <c r="F42" t="s">
-        <v>751</v>
-      </c>
-      <c r="G42" t="s">
-        <v>752</v>
-      </c>
-      <c r="H42" t="s">
-        <v>753</v>
-      </c>
-      <c r="I42" t="s">
-        <v>754</v>
-      </c>
-      <c r="J42" t="s">
-        <v>755</v>
-      </c>
-      <c r="K42" t="s">
-        <v>756</v>
-      </c>
-      <c r="L42" t="s">
-        <v>757</v>
-      </c>
-      <c r="M42" t="s">
-        <v>758</v>
-      </c>
-      <c r="N42" t="s">
-        <v>759</v>
-      </c>
-      <c r="O42" t="s">
-        <v>760</v>
-      </c>
-      <c r="P42" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>621</v>
-      </c>
-      <c r="B43" t="s">
-        <v>635</v>
-      </c>
-      <c r="C43" t="s">
-        <v>635</v>
-      </c>
-      <c r="D43" t="s">
-        <v>635</v>
-      </c>
-      <c r="E43" t="s">
-        <v>635</v>
-      </c>
-      <c r="F43" t="s">
-        <v>635</v>
-      </c>
-      <c r="G43" t="s">
-        <v>635</v>
-      </c>
-      <c r="H43" t="s">
-        <v>635</v>
-      </c>
-      <c r="I43" t="s">
-        <v>635</v>
-      </c>
-      <c r="J43" t="s">
-        <v>635</v>
-      </c>
-      <c r="K43" t="s">
-        <v>635</v>
-      </c>
-      <c r="L43" t="s">
-        <v>635</v>
-      </c>
-      <c r="M43" t="s">
-        <v>635</v>
-      </c>
-      <c r="N43" t="s">
-        <v>635</v>
-      </c>
-      <c r="O43" t="s">
-        <v>635</v>
-      </c>
-      <c r="P43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>763</v>
-      </c>
-      <c r="B44" t="s">
-        <v>764</v>
-      </c>
-      <c r="C44" t="s">
-        <v>764</v>
-      </c>
-      <c r="D44" t="s">
-        <v>764</v>
-      </c>
-      <c r="E44" t="s">
-        <v>764</v>
-      </c>
-      <c r="F44" t="s">
-        <v>764</v>
-      </c>
-      <c r="G44" t="s">
-        <v>764</v>
-      </c>
-      <c r="H44" t="s">
-        <v>764</v>
-      </c>
-      <c r="I44" t="s">
-        <v>764</v>
-      </c>
-      <c r="J44" t="s">
-        <v>764</v>
-      </c>
-      <c r="K44" t="s">
-        <v>764</v>
-      </c>
-      <c r="L44" t="s">
-        <v>764</v>
-      </c>
-      <c r="M44" t="s">
-        <v>764</v>
-      </c>
-      <c r="N44" t="s">
-        <v>764</v>
-      </c>
-      <c r="O44" t="s">
-        <v>764</v>
-      </c>
-      <c r="P44" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>765</v>
-      </c>
-      <c r="B45" t="s">
-        <v>769</v>
-      </c>
-      <c r="C45" t="s">
-        <v>769</v>
-      </c>
-      <c r="D45" t="s">
-        <v>769</v>
-      </c>
-      <c r="E45" t="s">
-        <v>769</v>
-      </c>
-      <c r="F45" t="s">
-        <v>769</v>
-      </c>
-      <c r="G45" t="s">
-        <v>769</v>
-      </c>
-      <c r="H45" t="s">
-        <v>769</v>
-      </c>
-      <c r="I45" t="s">
-        <v>769</v>
-      </c>
-      <c r="J45" t="s">
-        <v>769</v>
-      </c>
-      <c r="K45" t="s">
-        <v>769</v>
-      </c>
-      <c r="L45" t="s">
-        <v>769</v>
-      </c>
-      <c r="M45" t="s">
-        <v>769</v>
-      </c>
-      <c r="N45" t="s">
-        <v>769</v>
-      </c>
-      <c r="O45" t="s">
-        <v>769</v>
-      </c>
-      <c r="P45" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>766</v>
-      </c>
-      <c r="B46" t="s">
-        <v>768</v>
-      </c>
-      <c r="C46" t="s">
-        <v>768</v>
-      </c>
-      <c r="D46" t="s">
-        <v>768</v>
-      </c>
-      <c r="E46" t="s">
-        <v>768</v>
-      </c>
-      <c r="F46" t="s">
-        <v>768</v>
-      </c>
-      <c r="G46" t="s">
-        <v>768</v>
-      </c>
-      <c r="H46" t="s">
-        <v>768</v>
-      </c>
-      <c r="I46" t="s">
-        <v>768</v>
-      </c>
-      <c r="J46" t="s">
-        <v>768</v>
-      </c>
-      <c r="K46" t="s">
-        <v>768</v>
-      </c>
-      <c r="L46" t="s">
-        <v>768</v>
-      </c>
-      <c r="M46" t="s">
-        <v>768</v>
-      </c>
-      <c r="N46" t="s">
-        <v>768</v>
-      </c>
-      <c r="O46" t="s">
-        <v>768</v>
-      </c>
-      <c r="P46" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>771</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>767</v>
-      </c>
-      <c r="B48" t="s">
-        <v>770</v>
-      </c>
-      <c r="C48" t="s">
-        <v>770</v>
-      </c>
-      <c r="D48" t="s">
-        <v>770</v>
-      </c>
-      <c r="E48" t="s">
-        <v>770</v>
-      </c>
-      <c r="F48" t="s">
-        <v>770</v>
-      </c>
-      <c r="G48" t="s">
-        <v>770</v>
-      </c>
-      <c r="H48" t="s">
-        <v>770</v>
-      </c>
-      <c r="I48" t="s">
-        <v>770</v>
-      </c>
-      <c r="J48" t="s">
-        <v>770</v>
-      </c>
-      <c r="K48" t="s">
-        <v>770</v>
-      </c>
-      <c r="L48" t="s">
-        <v>770</v>
-      </c>
-      <c r="M48" t="s">
-        <v>770</v>
-      </c>
-      <c r="N48" t="s">
-        <v>770</v>
-      </c>
-      <c r="O48" t="s">
-        <v>770</v>
-      </c>
-      <c r="P48" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>772</v>
-      </c>
-      <c r="B49" t="s">
-        <v>635</v>
-      </c>
-      <c r="C49" t="s">
-        <v>635</v>
-      </c>
-      <c r="D49" t="s">
-        <v>635</v>
-      </c>
-      <c r="E49" t="s">
-        <v>635</v>
-      </c>
-      <c r="F49" t="s">
-        <v>635</v>
-      </c>
-      <c r="G49" t="s">
-        <v>635</v>
-      </c>
-      <c r="H49" t="s">
-        <v>635</v>
-      </c>
-      <c r="I49" t="s">
-        <v>635</v>
-      </c>
-      <c r="J49" t="s">
-        <v>635</v>
-      </c>
-      <c r="K49" t="s">
-        <v>635</v>
-      </c>
-      <c r="L49" t="s">
-        <v>635</v>
-      </c>
-      <c r="M49" t="s">
-        <v>635</v>
-      </c>
-      <c r="N49" t="s">
-        <v>635</v>
-      </c>
-      <c r="O49" t="s">
-        <v>635</v>
-      </c>
-      <c r="P49" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>774</v>
-      </c>
-      <c r="B50" t="s">
-        <v>773</v>
-      </c>
-      <c r="C50" t="s">
-        <v>773</v>
-      </c>
-      <c r="D50" t="s">
-        <v>773</v>
-      </c>
-      <c r="E50" t="s">
-        <v>773</v>
-      </c>
-      <c r="F50" t="s">
-        <v>773</v>
-      </c>
-      <c r="G50" t="s">
-        <v>773</v>
-      </c>
-      <c r="H50" t="s">
-        <v>773</v>
-      </c>
-      <c r="I50" t="s">
-        <v>773</v>
-      </c>
-      <c r="J50" t="s">
-        <v>773</v>
-      </c>
-      <c r="K50" t="s">
-        <v>773</v>
-      </c>
-      <c r="L50" t="s">
-        <v>773</v>
-      </c>
-      <c r="M50" t="s">
-        <v>773</v>
-      </c>
-      <c r="N50" t="s">
-        <v>773</v>
-      </c>
-      <c r="O50" t="s">
-        <v>773</v>
-      </c>
-      <c r="P50" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>775</v>
-      </c>
-      <c r="B51" t="s">
-        <v>776</v>
-      </c>
-      <c r="C51" t="s">
-        <v>776</v>
-      </c>
-      <c r="D51" t="s">
-        <v>776</v>
-      </c>
-      <c r="E51" t="s">
-        <v>776</v>
-      </c>
-      <c r="F51" t="s">
-        <v>776</v>
-      </c>
-      <c r="G51" t="s">
-        <v>776</v>
-      </c>
-      <c r="H51" t="s">
-        <v>776</v>
-      </c>
-      <c r="I51" t="s">
-        <v>776</v>
-      </c>
-      <c r="J51" t="s">
-        <v>776</v>
-      </c>
-      <c r="K51" t="s">
-        <v>776</v>
-      </c>
-      <c r="L51" t="s">
-        <v>776</v>
-      </c>
-      <c r="M51" t="s">
-        <v>776</v>
-      </c>
-      <c r="N51" t="s">
-        <v>776</v>
-      </c>
-      <c r="O51" t="s">
-        <v>776</v>
-      </c>
-      <c r="P51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="729">
   <si>
     <t>Country</t>
   </si>
@@ -1940,384 +1940,6 @@
     <t>$1 million</t>
   </si>
   <si>
-    <t>$1,501</t>
-  </si>
-  <si>
-    <t>$1,502</t>
-  </si>
-  <si>
-    <t>$1,503</t>
-  </si>
-  <si>
-    <t>$1,504</t>
-  </si>
-  <si>
-    <t>$1,505</t>
-  </si>
-  <si>
-    <t>$1,506</t>
-  </si>
-  <si>
-    <t>$1,507</t>
-  </si>
-  <si>
-    <t>$1,508</t>
-  </si>
-  <si>
-    <t>$1,509</t>
-  </si>
-  <si>
-    <t>$1,510</t>
-  </si>
-  <si>
-    <t>$1,511</t>
-  </si>
-  <si>
-    <t>$1,512</t>
-  </si>
-  <si>
-    <t>$1,513</t>
-  </si>
-  <si>
-    <t>$1,514</t>
-  </si>
-  <si>
-    <t>$75,001</t>
-  </si>
-  <si>
-    <t>$75,002</t>
-  </si>
-  <si>
-    <t>$75,003</t>
-  </si>
-  <si>
-    <t>$75,004</t>
-  </si>
-  <si>
-    <t>$75,005</t>
-  </si>
-  <si>
-    <t>$75,006</t>
-  </si>
-  <si>
-    <t>$75,007</t>
-  </si>
-  <si>
-    <t>$75,008</t>
-  </si>
-  <si>
-    <t>$75,009</t>
-  </si>
-  <si>
-    <t>$75,010</t>
-  </si>
-  <si>
-    <t>$75,011</t>
-  </si>
-  <si>
-    <t>$75,012</t>
-  </si>
-  <si>
-    <t>$75,013</t>
-  </si>
-  <si>
-    <t>$75,014</t>
-  </si>
-  <si>
-    <t>$80,001</t>
-  </si>
-  <si>
-    <t>$80,002</t>
-  </si>
-  <si>
-    <t>$80,003</t>
-  </si>
-  <si>
-    <t>$80,004</t>
-  </si>
-  <si>
-    <t>$80,005</t>
-  </si>
-  <si>
-    <t>$80,006</t>
-  </si>
-  <si>
-    <t>$80,007</t>
-  </si>
-  <si>
-    <t>$80,008</t>
-  </si>
-  <si>
-    <t>$80,009</t>
-  </si>
-  <si>
-    <t>$80,010</t>
-  </si>
-  <si>
-    <t>$80,011</t>
-  </si>
-  <si>
-    <t>$80,012</t>
-  </si>
-  <si>
-    <t>$80,013</t>
-  </si>
-  <si>
-    <t>$80,014</t>
-  </si>
-  <si>
-    <t>$90,001</t>
-  </si>
-  <si>
-    <t>$90,002</t>
-  </si>
-  <si>
-    <t>$90,003</t>
-  </si>
-  <si>
-    <t>$90,004</t>
-  </si>
-  <si>
-    <t>$90,005</t>
-  </si>
-  <si>
-    <t>$90,006</t>
-  </si>
-  <si>
-    <t>$90,007</t>
-  </si>
-  <si>
-    <t>$90,008</t>
-  </si>
-  <si>
-    <t>$90,009</t>
-  </si>
-  <si>
-    <t>$90,010</t>
-  </si>
-  <si>
-    <t>$90,011</t>
-  </si>
-  <si>
-    <t>$90,012</t>
-  </si>
-  <si>
-    <t>$90,013</t>
-  </si>
-  <si>
-    <t>$90,014</t>
-  </si>
-  <si>
-    <t>$100,001</t>
-  </si>
-  <si>
-    <t>$100,002</t>
-  </si>
-  <si>
-    <t>$100,003</t>
-  </si>
-  <si>
-    <t>$100,004</t>
-  </si>
-  <si>
-    <t>$100,005</t>
-  </si>
-  <si>
-    <t>$100,006</t>
-  </si>
-  <si>
-    <t>$100,007</t>
-  </si>
-  <si>
-    <t>$100,008</t>
-  </si>
-  <si>
-    <t>$100,009</t>
-  </si>
-  <si>
-    <t>$100,010</t>
-  </si>
-  <si>
-    <t>$100,011</t>
-  </si>
-  <si>
-    <t>$100,012</t>
-  </si>
-  <si>
-    <t>$100,013</t>
-  </si>
-  <si>
-    <t>$100,014</t>
-  </si>
-  <si>
-    <t>$120,001</t>
-  </si>
-  <si>
-    <t>$120,002</t>
-  </si>
-  <si>
-    <t>$120,003</t>
-  </si>
-  <si>
-    <t>$120,004</t>
-  </si>
-  <si>
-    <t>$120,005</t>
-  </si>
-  <si>
-    <t>$120,006</t>
-  </si>
-  <si>
-    <t>$120,007</t>
-  </si>
-  <si>
-    <t>$120,008</t>
-  </si>
-  <si>
-    <t>$120,009</t>
-  </si>
-  <si>
-    <t>$120,010</t>
-  </si>
-  <si>
-    <t>$120,011</t>
-  </si>
-  <si>
-    <t>$120,012</t>
-  </si>
-  <si>
-    <t>$120,013</t>
-  </si>
-  <si>
-    <t>$120,014</t>
-  </si>
-  <si>
-    <t>$130,001</t>
-  </si>
-  <si>
-    <t>$130,002</t>
-  </si>
-  <si>
-    <t>$130,003</t>
-  </si>
-  <si>
-    <t>$130,004</t>
-  </si>
-  <si>
-    <t>$130,005</t>
-  </si>
-  <si>
-    <t>$130,006</t>
-  </si>
-  <si>
-    <t>$130,007</t>
-  </si>
-  <si>
-    <t>$130,008</t>
-  </si>
-  <si>
-    <t>$130,009</t>
-  </si>
-  <si>
-    <t>$130,010</t>
-  </si>
-  <si>
-    <t>$130,011</t>
-  </si>
-  <si>
-    <t>$130,012</t>
-  </si>
-  <si>
-    <t>$130,013</t>
-  </si>
-  <si>
-    <t>$130,014</t>
-  </si>
-  <si>
-    <t>$150,001</t>
-  </si>
-  <si>
-    <t>$150,002</t>
-  </si>
-  <si>
-    <t>$150,003</t>
-  </si>
-  <si>
-    <t>$150,004</t>
-  </si>
-  <si>
-    <t>$150,005</t>
-  </si>
-  <si>
-    <t>$150,006</t>
-  </si>
-  <si>
-    <t>$150,007</t>
-  </si>
-  <si>
-    <t>$150,008</t>
-  </si>
-  <si>
-    <t>$150,009</t>
-  </si>
-  <si>
-    <t>$150,010</t>
-  </si>
-  <si>
-    <t>$150,011</t>
-  </si>
-  <si>
-    <t>$150,012</t>
-  </si>
-  <si>
-    <t>$150,013</t>
-  </si>
-  <si>
-    <t>$150,014</t>
-  </si>
-  <si>
-    <t>$200,001</t>
-  </si>
-  <si>
-    <t>$200,002</t>
-  </si>
-  <si>
-    <t>$200,003</t>
-  </si>
-  <si>
-    <t>$200,004</t>
-  </si>
-  <si>
-    <t>$200,005</t>
-  </si>
-  <si>
-    <t>$200,006</t>
-  </si>
-  <si>
-    <t>$200,007</t>
-  </si>
-  <si>
-    <t>$200,008</t>
-  </si>
-  <si>
-    <t>$200,009</t>
-  </si>
-  <si>
-    <t>$200,010</t>
-  </si>
-  <si>
-    <t>$200,011</t>
-  </si>
-  <si>
-    <t>$200,012</t>
-  </si>
-  <si>
-    <t>$200,013</t>
-  </si>
-  <si>
-    <t>$200,014</t>
-  </si>
-  <si>
     <t>lcu_1500_top3</t>
   </si>
   <si>
@@ -2441,18 +2063,6 @@
     <t>2024 European Parliament election</t>
   </si>
   <si>
-    <t>2021 European Parliament election</t>
-  </si>
-  <si>
-    <t>2022 European Parliament election</t>
-  </si>
-  <si>
-    <t>2023 European Parliament election</t>
-  </si>
-  <si>
-    <t>2025 European Parliament election</t>
-  </si>
-  <si>
     <t>2024 UK general election</t>
   </si>
   <si>
@@ -2466,18 +2076,158 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>€30</t>
+  </si>
+  <si>
+    <t>€10</t>
+  </si>
+  <si>
+    <t>€40</t>
+  </si>
+  <si>
+    <t>€100</t>
+  </si>
+  <si>
+    <t>belief_nationality</t>
+  </si>
+  <si>
+    <t>Europeans</t>
+  </si>
+  <si>
+    <t>€/an</t>
+  </si>
+  <si>
+    <t>€/Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> par mois</t>
+  </si>
+  <si>
+    <t>Revenu actuel</t>
+  </si>
+  <si>
+    <t>Revenu après la redistribution mondiale</t>
+  </si>
+  <si>
+    <t>Revenu après impôts et transferts des adultes humains, du plus pauvre au plus riche</t>
+  </si>
+  <si>
+    <t>30&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>10&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>40&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>100&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>Proportion avantagée&amp;nbsp;:</t>
+  </si>
+  <si>
+    <t>Proportion désavantagée&amp;nbsp;:</t>
+  </si>
+  <si>
+    <t>Degré de redistribution&amp;nbsp;:</t>
+  </si>
+  <si>
+    <t>1 million d'euros</t>
+  </si>
+  <si>
+    <t>PIB Français</t>
+  </si>
+  <si>
+    <t>16 milliards d'euros</t>
+  </si>
+  <si>
+    <t>5 millions d'euros</t>
+  </si>
+  <si>
+    <t>Gain ou perte par adulte\nsuite au\nPlan mondial pour le climat\nen 2030\n(en % du PIB)</t>
+  </si>
+  <si>
+    <t>Non Participant</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>l'Union Européenne</t>
+  </si>
+  <si>
+    <t>élections européennes de 2024</t>
+  </si>
+  <si>
+    <t>Américains</t>
+  </si>
+  <si>
+    <t>150&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>5&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>6&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>60&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>4&amp;nbsp;500&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>9&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>7.5k</t>
+  </si>
+  <si>
+    <t>7&amp;nbsp;500&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>7&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>8&amp;nbsp;500&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>14&amp;nbsp;000&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>$30</t>
+  </si>
+  <si>
+    <t>$85</t>
+  </si>
+  <si>
+    <t>$115</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>emissions_high_without</t>
+  </si>
+  <si>
+    <t>nb_countries_high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2664,13 +2414,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2955,9 +2705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,13 +3043,13 @@
         <v>68</v>
       </c>
       <c r="K8" s="33">
+        <v>66</v>
+      </c>
+      <c r="L8" s="33">
+        <v>70</v>
+      </c>
+      <c r="M8" s="33">
         <v>71</v>
-      </c>
-      <c r="L8" s="33">
-        <v>71</v>
-      </c>
-      <c r="M8" s="33">
-        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>400</v>
@@ -3314,31 +3064,31 @@
         <v>401</v>
       </c>
       <c r="B9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G9" s="33">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="H9" s="33">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="33">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J9" s="33">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K9" s="33">
         <v>153</v>
@@ -3359,179 +3109,179 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" s="33"/>
+        <v>412</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="33">
+        <v>10</v>
+      </c>
+      <c r="E10" s="33">
+        <v>5</v>
+      </c>
+      <c r="F10" s="33">
         <v>4</v>
       </c>
-      <c r="E10" s="33">
-        <v>2</v>
-      </c>
-      <c r="F10" s="33">
-        <v>2</v>
-      </c>
       <c r="G10" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="33">
+        <v>5</v>
+      </c>
+      <c r="I10" s="33">
+        <v>18</v>
+      </c>
+      <c r="J10" s="33">
+        <v>10</v>
+      </c>
+      <c r="K10" s="33">
         <v>4</v>
       </c>
-      <c r="I10" s="33">
-        <v>4</v>
-      </c>
-      <c r="J10" s="33">
-        <v>4</v>
-      </c>
-      <c r="K10" s="33">
-        <v>2</v>
-      </c>
       <c r="L10" s="33">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M10" s="33">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="E11" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33">
-        <v>1</v>
-      </c>
-      <c r="I11" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="J11" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="K11" s="33">
+        <v>413</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20">
         <v>1.9</v>
       </c>
-      <c r="L11" s="33">
-        <v>5</v>
-      </c>
-      <c r="M11" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="D11" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="J11" s="20">
+        <v>4</v>
+      </c>
+      <c r="K11" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L11" s="20">
+        <v>12.2</v>
+      </c>
+      <c r="M11" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="B12" s="33"/>
       <c r="C12" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="33">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33">
+        <v>2</v>
+      </c>
+      <c r="H12" s="33">
         <v>4</v>
       </c>
-      <c r="G12" s="33">
-        <v>5</v>
-      </c>
-      <c r="H12" s="33">
-        <v>5</v>
-      </c>
       <c r="I12" s="33">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J12" s="33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K12" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" s="33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M12" s="33">
-        <v>18</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20">
+        <v>404</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33">
+        <v>1</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="K13" s="33">
         <v>1.9</v>
       </c>
-      <c r="D13" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E13" s="20">
-        <v>3</v>
-      </c>
-      <c r="F13" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="H13" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="I13" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="J13" s="20">
-        <v>4</v>
-      </c>
-      <c r="K13" s="35">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L13" s="20">
-        <v>12.2</v>
-      </c>
-      <c r="M13" s="20">
-        <v>8.4</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="L13" s="33">
+        <v>5</v>
+      </c>
+      <c r="M13" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3751,7 +3501,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="37" t="s">
-        <v>62</v>
+        <v>718</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>74</v>
@@ -3871,7 +3621,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>780</v>
+        <v>654</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3883,10 +3633,10 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="L22" s="6" t="s">
-        <v>782</v>
+        <v>656</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>781</v>
+        <v>655</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -4955,16 +4705,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -5269,10 +5019,10 @@
         <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>688</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>689</v>
       </c>
       <c r="D7" t="s">
         <v>567</v>
@@ -5319,7 +5069,7 @@
         <v>573</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="C8" t="s">
         <v>580</v>
@@ -5369,7 +5119,7 @@
         <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>692</v>
       </c>
       <c r="C9" t="s">
         <v>571</v>
@@ -5419,7 +5169,7 @@
         <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="C10" t="s">
         <v>576</v>
@@ -5469,7 +5219,7 @@
         <v>577</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="C11" t="s">
         <v>582</v>
@@ -5519,7 +5269,7 @@
         <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>699</v>
       </c>
       <c r="C12" t="s">
         <v>581</v>
@@ -5569,7 +5319,7 @@
         <v>579</v>
       </c>
       <c r="B13" t="s">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="C13" t="s">
         <v>583</v>
@@ -5719,7 +5469,7 @@
         <v>594</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>690</v>
       </c>
       <c r="C16" t="s">
         <v>597</v>
@@ -5749,7 +5499,7 @@
         <v>597</v>
       </c>
       <c r="L16" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="M16" t="s">
         <v>597</v>
@@ -5768,200 +5518,200 @@
       <c r="A17" t="s">
         <v>593</v>
       </c>
-      <c r="B17" s="43">
-        <v>30</v>
-      </c>
-      <c r="C17" s="43">
-        <v>30</v>
-      </c>
-      <c r="D17" s="43">
-        <v>30</v>
-      </c>
-      <c r="E17" s="43">
-        <v>30</v>
-      </c>
-      <c r="F17" s="43">
-        <v>30</v>
-      </c>
-      <c r="G17" s="43">
-        <v>30</v>
-      </c>
-      <c r="H17" s="43">
-        <v>30</v>
-      </c>
-      <c r="I17" s="43">
-        <v>30</v>
-      </c>
-      <c r="J17" s="43">
-        <v>30</v>
-      </c>
-      <c r="K17" s="43">
-        <v>30</v>
-      </c>
-      <c r="L17" s="43">
-        <v>30</v>
-      </c>
-      <c r="M17" s="43">
-        <v>30</v>
-      </c>
-      <c r="N17" s="43">
-        <v>30</v>
-      </c>
-      <c r="O17" s="43">
-        <v>30</v>
-      </c>
-      <c r="P17" s="43">
-        <v>30</v>
+      <c r="B17" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>595</v>
       </c>
-      <c r="B18" s="43">
-        <v>10</v>
-      </c>
-      <c r="C18" s="43">
-        <v>10</v>
-      </c>
-      <c r="D18" s="43">
-        <v>10</v>
-      </c>
-      <c r="E18" s="43">
-        <v>10</v>
-      </c>
-      <c r="F18" s="43">
-        <v>10</v>
-      </c>
-      <c r="G18" s="43">
-        <v>10</v>
-      </c>
-      <c r="H18" s="43">
-        <v>10</v>
-      </c>
-      <c r="I18" s="43">
-        <v>10</v>
-      </c>
-      <c r="J18" s="43">
-        <v>10</v>
-      </c>
-      <c r="K18" s="43">
-        <v>10</v>
-      </c>
-      <c r="L18" s="43">
-        <v>10</v>
-      </c>
-      <c r="M18" s="43">
-        <v>10</v>
-      </c>
-      <c r="N18" s="43">
-        <v>10</v>
-      </c>
-      <c r="O18" s="43">
-        <v>10</v>
-      </c>
-      <c r="P18" s="43">
-        <v>10</v>
+      <c r="B18" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>596</v>
       </c>
-      <c r="B19" s="43">
-        <v>40</v>
-      </c>
-      <c r="C19" s="43">
-        <v>40</v>
-      </c>
-      <c r="D19" s="43">
-        <v>40</v>
-      </c>
-      <c r="E19" s="43">
-        <v>40</v>
-      </c>
-      <c r="F19" s="43">
-        <v>40</v>
-      </c>
-      <c r="G19" s="43">
-        <v>40</v>
-      </c>
-      <c r="H19" s="43">
-        <v>40</v>
-      </c>
-      <c r="I19" s="43">
-        <v>40</v>
-      </c>
-      <c r="J19" s="43">
-        <v>40</v>
-      </c>
-      <c r="K19" s="43">
-        <v>40</v>
-      </c>
-      <c r="L19" s="43">
-        <v>40</v>
-      </c>
-      <c r="M19" s="43">
-        <v>40</v>
-      </c>
-      <c r="N19" s="43">
-        <v>40</v>
-      </c>
-      <c r="O19" s="43">
-        <v>40</v>
-      </c>
-      <c r="P19" s="43">
-        <v>40</v>
+      <c r="B19" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>598</v>
       </c>
-      <c r="B20" s="43">
-        <v>100</v>
-      </c>
-      <c r="C20" s="43">
-        <v>100</v>
-      </c>
-      <c r="D20" s="43">
-        <v>100</v>
-      </c>
-      <c r="E20" s="43">
-        <v>100</v>
-      </c>
-      <c r="F20" s="43">
-        <v>100</v>
-      </c>
-      <c r="G20" s="43">
-        <v>100</v>
-      </c>
-      <c r="H20" s="43">
-        <v>100</v>
-      </c>
-      <c r="I20" s="43">
-        <v>100</v>
-      </c>
-      <c r="J20" s="43">
-        <v>100</v>
-      </c>
-      <c r="K20" s="43">
-        <v>100</v>
-      </c>
-      <c r="L20" s="43">
-        <v>100</v>
-      </c>
-      <c r="M20" s="43">
-        <v>100</v>
-      </c>
-      <c r="N20" s="43">
-        <v>100</v>
-      </c>
-      <c r="O20" s="43">
-        <v>100</v>
-      </c>
-      <c r="P20" s="43">
-        <v>100</v>
+      <c r="B20" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -5999,7 +5749,7 @@
         <v>600</v>
       </c>
       <c r="L21" t="s">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="M21" t="s">
         <v>600</v>
@@ -6087,19 +5837,19 @@
         <v>33</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M23">
         <v>33</v>
@@ -6111,45 +5861,45 @@
         <v>33</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>605</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="33">
         <v>63</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="33">
         <v>63</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="33">
         <v>63</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="33">
         <v>63</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="33">
         <v>63</v>
       </c>
       <c r="G24">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I24">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J24">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M24">
         <v>63</v>
@@ -6161,36 +5911,36 @@
         <v>63</v>
       </c>
       <c r="P24">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>606</v>
-      </c>
-      <c r="B25">
+        <v>727</v>
+      </c>
+      <c r="B25" s="33">
+        <v>63</v>
+      </c>
+      <c r="C25" s="33">
+        <v>63</v>
+      </c>
+      <c r="D25" s="33">
+        <v>63</v>
+      </c>
+      <c r="E25" s="33">
+        <v>63</v>
+      </c>
+      <c r="F25" s="33">
+        <v>63</v>
+      </c>
+      <c r="G25" s="33">
+        <v>70</v>
+      </c>
+      <c r="H25" s="33">
         <v>71</v>
       </c>
-      <c r="C25">
-        <v>71</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>71</v>
-      </c>
-      <c r="F25">
-        <v>71</v>
-      </c>
-      <c r="G25">
-        <v>71</v>
-      </c>
-      <c r="H25">
-        <v>71</v>
-      </c>
-      <c r="I25">
-        <v>71</v>
+      <c r="I25" s="33">
+        <v>68</v>
       </c>
       <c r="J25">
         <v>71</v>
@@ -6216,1580 +5966,1730 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B26" t="s">
-        <v>608</v>
-      </c>
-      <c r="C26" t="s">
-        <v>608</v>
-      </c>
-      <c r="D26" t="s">
-        <v>608</v>
-      </c>
-      <c r="E26" t="s">
-        <v>608</v>
-      </c>
-      <c r="F26" t="s">
-        <v>608</v>
-      </c>
-      <c r="G26" t="s">
-        <v>608</v>
-      </c>
-      <c r="H26" t="s">
-        <v>608</v>
-      </c>
-      <c r="I26" t="s">
-        <v>608</v>
-      </c>
-      <c r="J26" t="s">
-        <v>608</v>
-      </c>
-      <c r="K26" t="s">
-        <v>608</v>
-      </c>
-      <c r="L26" t="s">
-        <v>608</v>
-      </c>
-      <c r="M26" t="s">
-        <v>608</v>
-      </c>
-      <c r="N26" t="s">
-        <v>608</v>
-      </c>
-      <c r="O26" t="s">
-        <v>608</v>
-      </c>
-      <c r="P26" t="s">
-        <v>608</v>
+        <v>606</v>
+      </c>
+      <c r="B26">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <v>71</v>
+      </c>
+      <c r="H26">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>71</v>
+      </c>
+      <c r="J26">
+        <v>76</v>
+      </c>
+      <c r="K26">
+        <v>73</v>
+      </c>
+      <c r="L26">
+        <v>86</v>
+      </c>
+      <c r="M26">
+        <v>71</v>
+      </c>
+      <c r="N26">
+        <v>71</v>
+      </c>
+      <c r="O26">
+        <v>71</v>
+      </c>
+      <c r="P26">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>615</v>
-      </c>
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>18</v>
-      </c>
-      <c r="G27">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>18</v>
-      </c>
-      <c r="I27">
-        <v>18</v>
+        <v>728</v>
+      </c>
+      <c r="B27" s="33">
+        <v>126</v>
+      </c>
+      <c r="C27" s="33">
+        <v>126</v>
+      </c>
+      <c r="D27" s="33">
+        <v>126</v>
+      </c>
+      <c r="E27" s="33">
+        <v>126</v>
+      </c>
+      <c r="F27" s="33">
+        <v>126</v>
+      </c>
+      <c r="G27" s="33">
+        <v>152</v>
+      </c>
+      <c r="H27" s="33">
+        <v>152</v>
+      </c>
+      <c r="I27" s="33">
+        <v>152</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="N27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="O27">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="P27">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>618</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="N28">
-        <v>8</v>
-      </c>
-      <c r="O28">
-        <v>8</v>
-      </c>
-      <c r="P28">
-        <v>8</v>
+        <v>607</v>
+      </c>
+      <c r="B28" t="s">
+        <v>690</v>
+      </c>
+      <c r="C28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" t="s">
+        <v>608</v>
+      </c>
+      <c r="F28" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" t="s">
+        <v>608</v>
+      </c>
+      <c r="H28" t="s">
+        <v>608</v>
+      </c>
+      <c r="I28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J28" t="s">
+        <v>608</v>
+      </c>
+      <c r="K28" t="s">
+        <v>608</v>
+      </c>
+      <c r="L28" t="s">
+        <v>608</v>
+      </c>
+      <c r="M28" t="s">
+        <v>608</v>
+      </c>
+      <c r="N28" t="s">
+        <v>608</v>
+      </c>
+      <c r="O28" t="s">
+        <v>608</v>
+      </c>
+      <c r="P28" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>612</v>
-      </c>
-      <c r="B31" t="s">
-        <v>625</v>
-      </c>
-      <c r="C31" t="s">
-        <v>636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" t="s">
-        <v>638</v>
-      </c>
-      <c r="F31" t="s">
-        <v>639</v>
-      </c>
-      <c r="G31" t="s">
-        <v>640</v>
-      </c>
-      <c r="H31" t="s">
-        <v>641</v>
-      </c>
-      <c r="I31" t="s">
-        <v>642</v>
-      </c>
-      <c r="J31" t="s">
-        <v>643</v>
-      </c>
-      <c r="K31" t="s">
-        <v>644</v>
-      </c>
-      <c r="L31" t="s">
-        <v>645</v>
-      </c>
-      <c r="M31" t="s">
-        <v>646</v>
-      </c>
-      <c r="N31" t="s">
-        <v>647</v>
-      </c>
-      <c r="O31" t="s">
-        <v>648</v>
-      </c>
-      <c r="P31" t="s">
-        <v>649</v>
+        <v>616</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>8</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>762</v>
-      </c>
-      <c r="B32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C32" t="s">
-        <v>636</v>
-      </c>
-      <c r="D32" t="s">
-        <v>637</v>
-      </c>
-      <c r="E32" t="s">
-        <v>638</v>
-      </c>
-      <c r="F32" t="s">
-        <v>639</v>
-      </c>
-      <c r="G32" t="s">
-        <v>640</v>
-      </c>
-      <c r="H32" t="s">
-        <v>641</v>
-      </c>
-      <c r="I32" t="s">
-        <v>642</v>
-      </c>
-      <c r="J32" t="s">
-        <v>643</v>
-      </c>
-      <c r="K32" t="s">
-        <v>644</v>
-      </c>
-      <c r="L32" t="s">
-        <v>645</v>
-      </c>
-      <c r="M32" t="s">
-        <v>646</v>
-      </c>
-      <c r="N32" t="s">
-        <v>647</v>
-      </c>
-      <c r="O32" t="s">
-        <v>648</v>
-      </c>
-      <c r="P32" t="s">
-        <v>649</v>
+        <v>617</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" t="s">
-        <v>626</v>
-      </c>
-      <c r="C33" t="s">
-        <v>626</v>
-      </c>
-      <c r="D33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F33" t="s">
-        <v>626</v>
-      </c>
-      <c r="G33" t="s">
-        <v>626</v>
-      </c>
-      <c r="H33" t="s">
-        <v>626</v>
-      </c>
-      <c r="I33" t="s">
-        <v>626</v>
-      </c>
-      <c r="J33" t="s">
-        <v>626</v>
-      </c>
-      <c r="K33" t="s">
-        <v>626</v>
-      </c>
-      <c r="L33" t="s">
-        <v>626</v>
-      </c>
-      <c r="M33" t="s">
-        <v>626</v>
-      </c>
-      <c r="N33" t="s">
-        <v>626</v>
-      </c>
-      <c r="O33" t="s">
-        <v>626</v>
-      </c>
-      <c r="P33" t="s">
-        <v>626</v>
+        <v>612</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="P33" s="45" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>624</v>
-      </c>
-      <c r="B34" t="s">
-        <v>626</v>
-      </c>
-      <c r="C34" t="s">
-        <v>626</v>
-      </c>
-      <c r="D34" t="s">
-        <v>626</v>
-      </c>
-      <c r="E34" t="s">
-        <v>626</v>
-      </c>
-      <c r="F34" t="s">
-        <v>626</v>
-      </c>
-      <c r="G34" t="s">
-        <v>626</v>
-      </c>
-      <c r="H34" t="s">
-        <v>626</v>
-      </c>
-      <c r="I34" t="s">
-        <v>626</v>
-      </c>
-      <c r="J34" t="s">
-        <v>626</v>
-      </c>
-      <c r="K34" t="s">
-        <v>626</v>
-      </c>
-      <c r="L34" t="s">
-        <v>626</v>
-      </c>
-      <c r="M34" t="s">
-        <v>626</v>
-      </c>
-      <c r="N34" t="s">
-        <v>626</v>
-      </c>
-      <c r="O34" t="s">
-        <v>626</v>
-      </c>
-      <c r="P34" t="s">
-        <v>626</v>
+        <v>636</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="P34" s="45" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>622</v>
-      </c>
-      <c r="B35" t="s">
-        <v>627</v>
-      </c>
-      <c r="C35" t="s">
-        <v>650</v>
-      </c>
-      <c r="D35" t="s">
-        <v>651</v>
-      </c>
-      <c r="E35" t="s">
-        <v>652</v>
-      </c>
-      <c r="F35" t="s">
-        <v>653</v>
-      </c>
-      <c r="G35" t="s">
-        <v>654</v>
-      </c>
-      <c r="H35" t="s">
-        <v>655</v>
-      </c>
-      <c r="I35" t="s">
-        <v>656</v>
-      </c>
-      <c r="J35" t="s">
-        <v>657</v>
-      </c>
-      <c r="K35" t="s">
-        <v>658</v>
-      </c>
-      <c r="L35" t="s">
-        <v>659</v>
-      </c>
-      <c r="M35" t="s">
-        <v>660</v>
-      </c>
-      <c r="N35" t="s">
-        <v>661</v>
-      </c>
-      <c r="O35" t="s">
-        <v>662</v>
-      </c>
-      <c r="P35" t="s">
-        <v>663</v>
+        <v>611</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="P35" s="45" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>619</v>
-      </c>
-      <c r="B36" t="s">
-        <v>628</v>
-      </c>
-      <c r="C36" t="s">
-        <v>664</v>
-      </c>
-      <c r="D36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E36" t="s">
-        <v>666</v>
-      </c>
-      <c r="F36" t="s">
-        <v>667</v>
-      </c>
-      <c r="G36" t="s">
-        <v>668</v>
-      </c>
-      <c r="H36" t="s">
-        <v>669</v>
-      </c>
-      <c r="I36" t="s">
-        <v>670</v>
-      </c>
-      <c r="J36" t="s">
-        <v>671</v>
-      </c>
-      <c r="K36" t="s">
-        <v>672</v>
-      </c>
-      <c r="L36" t="s">
-        <v>673</v>
-      </c>
-      <c r="M36" t="s">
-        <v>674</v>
-      </c>
-      <c r="N36" t="s">
-        <v>675</v>
-      </c>
-      <c r="O36" t="s">
-        <v>676</v>
-      </c>
-      <c r="P36" t="s">
-        <v>677</v>
+        <v>624</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="N36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="O36" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="P36" s="45" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>620</v>
-      </c>
-      <c r="B37" t="s">
-        <v>629</v>
-      </c>
-      <c r="C37" t="s">
-        <v>678</v>
-      </c>
-      <c r="D37" t="s">
-        <v>679</v>
-      </c>
-      <c r="E37" t="s">
-        <v>680</v>
-      </c>
-      <c r="F37" t="s">
-        <v>681</v>
-      </c>
-      <c r="G37" t="s">
-        <v>682</v>
-      </c>
-      <c r="H37" t="s">
-        <v>683</v>
-      </c>
-      <c r="I37" t="s">
-        <v>684</v>
-      </c>
-      <c r="J37" t="s">
-        <v>685</v>
-      </c>
-      <c r="K37" t="s">
-        <v>686</v>
-      </c>
-      <c r="L37" t="s">
-        <v>687</v>
-      </c>
-      <c r="M37" t="s">
-        <v>688</v>
-      </c>
-      <c r="N37" t="s">
-        <v>689</v>
-      </c>
-      <c r="O37" t="s">
-        <v>690</v>
-      </c>
-      <c r="P37" t="s">
-        <v>691</v>
+        <v>622</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="N37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="O37" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="P37" s="45" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>614</v>
-      </c>
-      <c r="B38" t="s">
-        <v>630</v>
-      </c>
-      <c r="C38" t="s">
-        <v>692</v>
-      </c>
-      <c r="D38" t="s">
-        <v>693</v>
-      </c>
-      <c r="E38" t="s">
-        <v>694</v>
-      </c>
-      <c r="F38" t="s">
-        <v>695</v>
-      </c>
-      <c r="G38" t="s">
-        <v>696</v>
-      </c>
-      <c r="H38" t="s">
-        <v>697</v>
-      </c>
-      <c r="I38" t="s">
-        <v>698</v>
-      </c>
-      <c r="J38" t="s">
-        <v>699</v>
-      </c>
-      <c r="K38" t="s">
-        <v>700</v>
-      </c>
-      <c r="L38" t="s">
-        <v>701</v>
-      </c>
-      <c r="M38" t="s">
-        <v>702</v>
-      </c>
-      <c r="N38" t="s">
-        <v>703</v>
-      </c>
-      <c r="O38" t="s">
-        <v>704</v>
-      </c>
-      <c r="P38" t="s">
-        <v>705</v>
+        <v>619</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="N38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="O38" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="P38" s="45" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>609</v>
-      </c>
-      <c r="B39" t="s">
-        <v>631</v>
-      </c>
-      <c r="C39" t="s">
-        <v>706</v>
-      </c>
-      <c r="D39" t="s">
-        <v>707</v>
-      </c>
-      <c r="E39" t="s">
-        <v>708</v>
-      </c>
-      <c r="F39" t="s">
-        <v>709</v>
-      </c>
-      <c r="G39" t="s">
-        <v>710</v>
-      </c>
-      <c r="H39" t="s">
-        <v>711</v>
-      </c>
-      <c r="I39" t="s">
-        <v>712</v>
-      </c>
-      <c r="J39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="45" t="s">
         <v>713</v>
       </c>
-      <c r="K39" t="s">
-        <v>714</v>
-      </c>
-      <c r="L39" t="s">
-        <v>715</v>
-      </c>
-      <c r="M39" t="s">
-        <v>716</v>
-      </c>
-      <c r="N39" t="s">
-        <v>717</v>
-      </c>
-      <c r="O39" t="s">
-        <v>718</v>
-      </c>
-      <c r="P39" t="s">
-        <v>719</v>
+      <c r="C39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="O39" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="P39" s="45" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>610</v>
-      </c>
-      <c r="B40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C40" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="D40" t="s">
-        <v>721</v>
-      </c>
-      <c r="E40" t="s">
-        <v>722</v>
-      </c>
-      <c r="F40" t="s">
-        <v>723</v>
-      </c>
-      <c r="G40" t="s">
-        <v>724</v>
-      </c>
-      <c r="H40" t="s">
-        <v>725</v>
-      </c>
-      <c r="I40" t="s">
-        <v>726</v>
-      </c>
-      <c r="J40" t="s">
-        <v>727</v>
-      </c>
-      <c r="K40" t="s">
-        <v>728</v>
-      </c>
-      <c r="L40" t="s">
-        <v>729</v>
-      </c>
-      <c r="M40" t="s">
-        <v>730</v>
-      </c>
-      <c r="N40" t="s">
-        <v>731</v>
-      </c>
-      <c r="O40" t="s">
-        <v>732</v>
-      </c>
-      <c r="P40" t="s">
-        <v>733</v>
+      <c r="C40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="P40" s="45" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>623</v>
-      </c>
-      <c r="B41" t="s">
-        <v>633</v>
-      </c>
-      <c r="C41" t="s">
-        <v>734</v>
-      </c>
-      <c r="D41" t="s">
-        <v>735</v>
-      </c>
-      <c r="E41" t="s">
-        <v>736</v>
-      </c>
-      <c r="F41" t="s">
-        <v>737</v>
-      </c>
-      <c r="G41" t="s">
-        <v>738</v>
-      </c>
-      <c r="H41" t="s">
-        <v>739</v>
-      </c>
-      <c r="I41" t="s">
-        <v>740</v>
-      </c>
-      <c r="J41" t="s">
-        <v>741</v>
-      </c>
-      <c r="K41" t="s">
-        <v>742</v>
-      </c>
-      <c r="L41" t="s">
-        <v>743</v>
-      </c>
-      <c r="M41" t="s">
-        <v>744</v>
-      </c>
-      <c r="N41" t="s">
-        <v>745</v>
-      </c>
-      <c r="O41" t="s">
-        <v>746</v>
-      </c>
-      <c r="P41" t="s">
-        <v>747</v>
+        <v>609</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="P41" s="45" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>613</v>
-      </c>
-      <c r="B42" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" t="s">
-        <v>748</v>
-      </c>
-      <c r="D42" t="s">
-        <v>749</v>
-      </c>
-      <c r="E42" t="s">
-        <v>750</v>
-      </c>
-      <c r="F42" t="s">
-        <v>751</v>
-      </c>
-      <c r="G42" t="s">
-        <v>752</v>
-      </c>
-      <c r="H42" t="s">
-        <v>753</v>
-      </c>
-      <c r="I42" t="s">
-        <v>754</v>
-      </c>
-      <c r="J42" t="s">
-        <v>755</v>
-      </c>
-      <c r="K42" t="s">
-        <v>756</v>
-      </c>
-      <c r="L42" t="s">
-        <v>757</v>
-      </c>
-      <c r="M42" t="s">
-        <v>758</v>
-      </c>
-      <c r="N42" t="s">
-        <v>759</v>
-      </c>
-      <c r="O42" t="s">
-        <v>760</v>
-      </c>
-      <c r="P42" t="s">
-        <v>761</v>
+        <v>610</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="K42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="N42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="P42" s="45" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>621</v>
-      </c>
-      <c r="B43" t="s">
-        <v>635</v>
-      </c>
-      <c r="C43" t="s">
-        <v>635</v>
-      </c>
-      <c r="D43" t="s">
-        <v>635</v>
-      </c>
-      <c r="E43" t="s">
-        <v>635</v>
-      </c>
-      <c r="F43" t="s">
-        <v>635</v>
-      </c>
-      <c r="G43" t="s">
-        <v>635</v>
-      </c>
-      <c r="H43" t="s">
-        <v>635</v>
-      </c>
-      <c r="I43" t="s">
-        <v>635</v>
-      </c>
-      <c r="J43" t="s">
-        <v>635</v>
-      </c>
-      <c r="K43" t="s">
-        <v>635</v>
-      </c>
-      <c r="L43" t="s">
-        <v>635</v>
-      </c>
-      <c r="M43" t="s">
-        <v>635</v>
-      </c>
-      <c r="N43" t="s">
-        <v>635</v>
-      </c>
-      <c r="O43" t="s">
-        <v>635</v>
-      </c>
-      <c r="P43" t="s">
-        <v>635</v>
+        <v>623</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="K43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>763</v>
-      </c>
-      <c r="B44" t="s">
-        <v>764</v>
-      </c>
-      <c r="C44" t="s">
-        <v>764</v>
-      </c>
-      <c r="D44" t="s">
-        <v>764</v>
-      </c>
-      <c r="E44" t="s">
-        <v>764</v>
-      </c>
-      <c r="F44" t="s">
-        <v>764</v>
-      </c>
-      <c r="G44" t="s">
-        <v>764</v>
-      </c>
-      <c r="H44" t="s">
-        <v>764</v>
-      </c>
-      <c r="I44" t="s">
-        <v>764</v>
-      </c>
-      <c r="J44" t="s">
-        <v>764</v>
-      </c>
-      <c r="K44" t="s">
-        <v>764</v>
-      </c>
-      <c r="L44" t="s">
-        <v>764</v>
-      </c>
-      <c r="M44" t="s">
-        <v>764</v>
-      </c>
-      <c r="N44" t="s">
-        <v>764</v>
-      </c>
-      <c r="O44" t="s">
-        <v>764</v>
-      </c>
-      <c r="P44" t="s">
-        <v>764</v>
+        <v>613</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="I44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="K44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="M44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="N44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="O44" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="P44" s="45" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>765</v>
-      </c>
-      <c r="B45" t="s">
-        <v>769</v>
-      </c>
-      <c r="C45" t="s">
-        <v>769</v>
-      </c>
-      <c r="D45" t="s">
-        <v>769</v>
-      </c>
-      <c r="E45" t="s">
-        <v>769</v>
-      </c>
-      <c r="F45" t="s">
-        <v>769</v>
-      </c>
-      <c r="G45" t="s">
-        <v>769</v>
-      </c>
-      <c r="H45" t="s">
-        <v>769</v>
-      </c>
-      <c r="I45" t="s">
-        <v>769</v>
-      </c>
-      <c r="J45" t="s">
-        <v>769</v>
-      </c>
-      <c r="K45" t="s">
-        <v>769</v>
-      </c>
-      <c r="L45" t="s">
-        <v>769</v>
-      </c>
-      <c r="M45" t="s">
-        <v>769</v>
-      </c>
-      <c r="N45" t="s">
-        <v>769</v>
-      </c>
-      <c r="O45" t="s">
-        <v>769</v>
-      </c>
-      <c r="P45" t="s">
-        <v>769</v>
+        <v>621</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="I45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="K45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="M45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="P45" s="45" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>766</v>
+        <v>637</v>
       </c>
       <c r="B46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="C46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="D46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="E46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="F46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="G46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="H46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="I46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="J46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="K46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="L46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="M46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="N46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="O46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
       <c r="P46" t="s">
-        <v>768</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>771</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>2</v>
+        <v>639</v>
+      </c>
+      <c r="B47" t="s">
+        <v>702</v>
+      </c>
+      <c r="C47" t="s">
+        <v>643</v>
+      </c>
+      <c r="D47" t="s">
+        <v>643</v>
+      </c>
+      <c r="E47" t="s">
+        <v>643</v>
+      </c>
+      <c r="F47" t="s">
+        <v>643</v>
+      </c>
+      <c r="G47" t="s">
+        <v>643</v>
+      </c>
+      <c r="H47" t="s">
+        <v>643</v>
+      </c>
+      <c r="I47" t="s">
+        <v>643</v>
+      </c>
+      <c r="J47" t="s">
+        <v>643</v>
+      </c>
+      <c r="K47" t="s">
+        <v>643</v>
+      </c>
+      <c r="L47" t="s">
+        <v>643</v>
+      </c>
+      <c r="M47" t="s">
+        <v>643</v>
+      </c>
+      <c r="N47" t="s">
+        <v>643</v>
+      </c>
+      <c r="O47" t="s">
+        <v>643</v>
+      </c>
+      <c r="P47" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>767</v>
+        <v>640</v>
       </c>
       <c r="B48" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="C48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="D48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="E48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="F48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="G48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="H48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="I48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="J48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="K48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="L48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="M48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="N48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="O48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
       <c r="P48" t="s">
-        <v>770</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>772</v>
-      </c>
-      <c r="B49" t="s">
-        <v>635</v>
-      </c>
-      <c r="C49" t="s">
-        <v>635</v>
-      </c>
-      <c r="D49" t="s">
-        <v>635</v>
-      </c>
-      <c r="E49" t="s">
-        <v>635</v>
-      </c>
-      <c r="F49" t="s">
-        <v>635</v>
-      </c>
-      <c r="G49" t="s">
-        <v>635</v>
-      </c>
-      <c r="H49" t="s">
-        <v>635</v>
-      </c>
-      <c r="I49" t="s">
-        <v>635</v>
-      </c>
-      <c r="J49" t="s">
-        <v>635</v>
-      </c>
-      <c r="K49" t="s">
-        <v>635</v>
-      </c>
-      <c r="L49" t="s">
-        <v>635</v>
-      </c>
-      <c r="M49" t="s">
-        <v>635</v>
-      </c>
-      <c r="N49" t="s">
-        <v>635</v>
-      </c>
-      <c r="O49" t="s">
-        <v>635</v>
-      </c>
-      <c r="P49" t="s">
-        <v>635</v>
+        <v>645</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>774</v>
+        <v>641</v>
       </c>
       <c r="B50" t="s">
-        <v>773</v>
+        <v>704</v>
       </c>
       <c r="C50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="D50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="E50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="F50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="G50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="H50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="I50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="J50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="K50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="L50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="M50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="N50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="O50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
       <c r="P50" t="s">
-        <v>773</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>775</v>
+        <v>646</v>
       </c>
       <c r="B51" t="s">
-        <v>776</v>
+        <v>701</v>
       </c>
       <c r="C51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="D51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="E51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="F51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="G51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="H51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="I51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="J51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="K51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="L51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="M51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="N51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="O51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="P51" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>777</v>
+        <v>648</v>
       </c>
       <c r="B52" t="s">
-        <v>779</v>
+        <v>705</v>
       </c>
       <c r="C52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="D52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="E52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="F52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="G52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="H52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="I52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="J52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="K52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="L52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="M52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="N52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="O52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="P52" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="B53" t="s">
-        <v>778</v>
+        <v>706</v>
       </c>
       <c r="C53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="D53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="E53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="F53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="G53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="H53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="I53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="J53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="K53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="L53" t="s">
-        <v>778</v>
+        <v>706</v>
       </c>
       <c r="M53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="N53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="O53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="P53" t="s">
-        <v>778</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>790</v>
+        <v>651</v>
       </c>
       <c r="B54" t="s">
-        <v>791</v>
+        <v>707</v>
       </c>
       <c r="C54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="D54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="E54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="F54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="G54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="H54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="I54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="J54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="K54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="L54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="M54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="N54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="O54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
       <c r="P54" t="s">
-        <v>791</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>784</v>
+        <v>657</v>
       </c>
       <c r="B55" t="s">
-        <v>785</v>
+        <v>707</v>
       </c>
       <c r="C55" t="s">
-        <v>785</v>
+        <v>652</v>
       </c>
       <c r="D55" t="s">
-        <v>785</v>
+        <v>652</v>
       </c>
       <c r="E55" t="s">
-        <v>785</v>
+        <v>652</v>
       </c>
       <c r="F55" t="s">
-        <v>785</v>
+        <v>652</v>
       </c>
       <c r="G55" t="s">
-        <v>786</v>
+        <v>652</v>
       </c>
       <c r="H55" t="s">
-        <v>389</v>
+        <v>652</v>
       </c>
       <c r="I55" t="s">
-        <v>6</v>
+        <v>652</v>
       </c>
       <c r="J55" t="s">
-        <v>789</v>
+        <v>652</v>
       </c>
       <c r="K55" t="s">
-        <v>788</v>
+        <v>652</v>
       </c>
       <c r="L55" t="s">
-        <v>787</v>
+        <v>652</v>
       </c>
       <c r="M55" t="s">
-        <v>389</v>
+        <v>652</v>
       </c>
       <c r="N55" t="s">
-        <v>389</v>
+        <v>652</v>
       </c>
       <c r="O55" t="s">
-        <v>389</v>
+        <v>652</v>
       </c>
       <c r="P55" t="s">
-        <v>787</v>
+        <v>652</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>794</v>
+        <v>664</v>
+      </c>
+      <c r="B56" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" t="s">
+        <v>665</v>
+      </c>
+      <c r="D56" t="s">
+        <v>665</v>
       </c>
       <c r="E56" t="s">
-        <v>795</v>
+        <v>665</v>
+      </c>
+      <c r="F56" t="s">
+        <v>665</v>
+      </c>
+      <c r="G56" t="s">
+        <v>665</v>
+      </c>
+      <c r="H56" t="s">
+        <v>665</v>
+      </c>
+      <c r="I56" t="s">
+        <v>665</v>
       </c>
       <c r="J56" t="s">
-        <v>793</v>
+        <v>665</v>
       </c>
       <c r="K56" t="s">
-        <v>792</v>
+        <v>665</v>
+      </c>
+      <c r="L56" t="s">
+        <v>665</v>
+      </c>
+      <c r="M56" t="s">
+        <v>665</v>
+      </c>
+      <c r="N56" t="s">
+        <v>665</v>
+      </c>
+      <c r="O56" t="s">
+        <v>665</v>
+      </c>
+      <c r="P56" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>796</v>
+        <v>658</v>
+      </c>
+      <c r="B57" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" t="s">
+        <v>659</v>
+      </c>
+      <c r="D57" t="s">
+        <v>659</v>
       </c>
       <c r="E57" t="s">
-        <v>799</v>
+        <v>659</v>
+      </c>
+      <c r="F57" t="s">
+        <v>659</v>
+      </c>
+      <c r="G57" t="s">
+        <v>660</v>
+      </c>
+      <c r="H57" t="s">
+        <v>389</v>
+      </c>
+      <c r="I57" t="s">
+        <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>798</v>
+        <v>663</v>
       </c>
       <c r="K57" t="s">
-        <v>797</v>
+        <v>662</v>
+      </c>
+      <c r="L57" t="s">
+        <v>661</v>
+      </c>
+      <c r="M57" t="s">
+        <v>389</v>
+      </c>
+      <c r="N57" t="s">
+        <v>389</v>
+      </c>
+      <c r="O57" t="s">
+        <v>389</v>
+      </c>
+      <c r="P57" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>800</v>
-      </c>
-      <c r="B58" t="s">
-        <v>803</v>
-      </c>
-      <c r="C58" t="s">
-        <v>804</v>
-      </c>
-      <c r="D58" t="s">
-        <v>805</v>
+        <v>668</v>
       </c>
       <c r="E58" t="s">
-        <v>802</v>
-      </c>
-      <c r="F58" t="s">
-        <v>806</v>
-      </c>
-      <c r="G58" t="s">
-        <v>807</v>
-      </c>
-      <c r="H58" t="s">
-        <v>808</v>
-      </c>
-      <c r="I58" t="s">
-        <v>809</v>
+        <v>669</v>
       </c>
       <c r="J58" t="s">
-        <v>810</v>
+        <v>667</v>
       </c>
       <c r="K58" t="s">
-        <v>811</v>
-      </c>
-      <c r="L58" t="s">
-        <v>801</v>
-      </c>
-      <c r="M58" t="s">
-        <v>808</v>
-      </c>
-      <c r="N58" t="s">
-        <v>808</v>
-      </c>
-      <c r="O58" t="s">
-        <v>808</v>
-      </c>
-      <c r="P58" t="s">
-        <v>801</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59" t="s">
+        <v>673</v>
+      </c>
+      <c r="J59" t="s">
+        <v>672</v>
+      </c>
+      <c r="K59" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B60" t="s">
+        <v>709</v>
+      </c>
+      <c r="C60" t="s">
+        <v>676</v>
+      </c>
+      <c r="D60" t="s">
+        <v>676</v>
+      </c>
+      <c r="E60" t="s">
+        <v>676</v>
+      </c>
+      <c r="F60" t="s">
+        <v>676</v>
+      </c>
+      <c r="G60" t="s">
+        <v>677</v>
+      </c>
+      <c r="H60" t="s">
+        <v>678</v>
+      </c>
+      <c r="I60" t="s">
+        <v>679</v>
+      </c>
+      <c r="J60" t="s">
+        <v>680</v>
+      </c>
+      <c r="K60" t="s">
+        <v>681</v>
+      </c>
+      <c r="L60" t="s">
+        <v>675</v>
+      </c>
+      <c r="M60" t="s">
+        <v>678</v>
+      </c>
+      <c r="N60" t="s">
+        <v>678</v>
+      </c>
+      <c r="O60" t="s">
+        <v>678</v>
+      </c>
+      <c r="P60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>686</v>
+      </c>
+      <c r="B61" t="s">
+        <v>710</v>
+      </c>
+      <c r="C61" t="s">
+        <v>665</v>
+      </c>
+      <c r="D61" t="s">
+        <v>665</v>
+      </c>
+      <c r="E61" t="s">
+        <v>665</v>
+      </c>
+      <c r="F61" t="s">
+        <v>665</v>
+      </c>
+      <c r="G61" t="s">
+        <v>665</v>
+      </c>
+      <c r="H61" t="s">
+        <v>665</v>
+      </c>
+      <c r="I61" t="s">
+        <v>665</v>
+      </c>
+      <c r="J61" t="s">
+        <v>665</v>
+      </c>
+      <c r="K61" t="s">
+        <v>665</v>
+      </c>
+      <c r="L61" t="s">
+        <v>687</v>
+      </c>
+      <c r="M61" t="s">
+        <v>665</v>
+      </c>
+      <c r="N61" t="s">
+        <v>665</v>
+      </c>
+      <c r="O61" t="s">
+        <v>665</v>
+      </c>
+      <c r="P61" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -8512,7 +8412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8793,13 +8693,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -11278,16 +11178,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -11854,14 +11754,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -11915,14 +11815,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="759">
   <si>
     <t>Country</t>
   </si>
@@ -2217,6 +2217,96 @@
   </si>
   <si>
     <t>nb_countries_high</t>
+  </si>
+  <si>
+    <t>hic_tax</t>
+  </si>
+  <si>
+    <t>intl_tax</t>
+  </si>
+  <si>
+    <t>hic_tax_en</t>
+  </si>
+  <si>
+    <t>intl_tax_en</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, Japan, Germany, France, the United Kingdom...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, Japan, France, Italy, the United Kingdom...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, Japan, Germany, Italy, the United Kingdom...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, Japan, Germany, France, Italy...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, the European Union, Japan...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the United States, the European Union, South Korea...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that all other high-income countries (such as the European Union, Japan, Canada...) adopt this policy and some middle-income countries (such as China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union, the United Kingdom, and South Korea) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union and the United Kingdom) adopt this policy and others (such as Japan, Canada, and China) do not.</t>
+  </si>
+  <si>
+    <t>the EU, the UK, South Korea, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>the EU and the UK but not Japan, Canada, or China</t>
+  </si>
+  <si>
+    <t>Germany, France, Spain, Switzerland, the UK, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>Germany, Spain, Switzerland, the UK, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>France, Spain, Switzerland, the UK, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>Germany, France, Switzerland, the UK, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>the EU, the UK, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as France, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, France, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, France, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union and the United Kingdom) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union and Switzerland) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>the EU and Switzerland, but not the U.S. or China</t>
+  </si>
+  <si>
+    <t>text_title_short</t>
+  </si>
+  <si>
+    <t>Revenu des humains, du plus pauvre au plus riche</t>
+  </si>
+  <si>
+    <t>Income of humans, from poorest to richest</t>
   </si>
 </sst>
 </file>
@@ -2414,13 +2504,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2705,9 +2795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,21 +3041,41 @@
       <c r="A6" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>744</v>
+      </c>
       <c r="C6" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>748</v>
+      </c>
       <c r="M6" s="33" t="s">
-        <v>397</v>
+        <v>743</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3660,21 +3770,6 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -4705,11 +4800,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23:O23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,707 +5311,707 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>756</v>
       </c>
       <c r="B11" t="s">
-        <v>698</v>
+        <v>757</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="F11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="G11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="H11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="I11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="J11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="K11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="L11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="M11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="N11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="O11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="P11" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B14">
-        <v>10000</v>
-      </c>
-      <c r="C14">
-        <v>50000</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>10000</v>
-      </c>
-      <c r="F14">
-        <v>10000</v>
-      </c>
-      <c r="G14">
-        <v>10000</v>
-      </c>
-      <c r="H14">
-        <v>10000</v>
-      </c>
-      <c r="I14">
-        <v>10000</v>
-      </c>
-      <c r="J14">
-        <v>10000</v>
-      </c>
-      <c r="K14">
-        <v>10000</v>
-      </c>
-      <c r="L14">
-        <v>10000</v>
-      </c>
-      <c r="M14">
-        <v>10000</v>
-      </c>
-      <c r="N14">
-        <v>10000</v>
-      </c>
-      <c r="O14">
-        <v>10000</v>
-      </c>
-      <c r="P14">
-        <v>10000</v>
+        <v>579</v>
+      </c>
+      <c r="B14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14" t="s">
+        <v>583</v>
+      </c>
+      <c r="G14" t="s">
+        <v>583</v>
+      </c>
+      <c r="H14" t="s">
+        <v>583</v>
+      </c>
+      <c r="I14" t="s">
+        <v>583</v>
+      </c>
+      <c r="J14" t="s">
+        <v>583</v>
+      </c>
+      <c r="K14" t="s">
+        <v>583</v>
+      </c>
+      <c r="L14" t="s">
+        <v>583</v>
+      </c>
+      <c r="M14" t="s">
+        <v>583</v>
+      </c>
+      <c r="N14" t="s">
+        <v>583</v>
+      </c>
+      <c r="O14" t="s">
+        <v>583</v>
+      </c>
+      <c r="P14" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="C15">
+        <v>50000</v>
+      </c>
+      <c r="D15">
         <v>10000</v>
       </c>
-      <c r="D15">
-        <v>2500</v>
-      </c>
       <c r="E15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="H15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="I15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="J15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="K15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="M15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="N15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P15">
-        <v>2500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>594</v>
-      </c>
-      <c r="B16" t="s">
-        <v>690</v>
-      </c>
-      <c r="C16" t="s">
-        <v>597</v>
-      </c>
-      <c r="D16" t="s">
-        <v>597</v>
-      </c>
-      <c r="E16" t="s">
-        <v>597</v>
-      </c>
-      <c r="F16" t="s">
-        <v>597</v>
-      </c>
-      <c r="G16" t="s">
-        <v>597</v>
-      </c>
-      <c r="H16" t="s">
-        <v>597</v>
-      </c>
-      <c r="I16" t="s">
-        <v>597</v>
-      </c>
-      <c r="J16" t="s">
-        <v>597</v>
-      </c>
-      <c r="K16" t="s">
-        <v>597</v>
-      </c>
-      <c r="L16" t="s">
-        <v>608</v>
-      </c>
-      <c r="M16" t="s">
-        <v>597</v>
-      </c>
-      <c r="N16" t="s">
-        <v>597</v>
-      </c>
-      <c r="O16" t="s">
-        <v>597</v>
-      </c>
-      <c r="P16" t="s">
-        <v>597</v>
+        <v>585</v>
+      </c>
+      <c r="B16">
+        <v>2500</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>2500</v>
+      </c>
+      <c r="E16">
+        <v>2500</v>
+      </c>
+      <c r="F16">
+        <v>2500</v>
+      </c>
+      <c r="G16">
+        <v>2500</v>
+      </c>
+      <c r="H16">
+        <v>2500</v>
+      </c>
+      <c r="I16">
+        <v>2500</v>
+      </c>
+      <c r="J16">
+        <v>2500</v>
+      </c>
+      <c r="K16">
+        <v>2500</v>
+      </c>
+      <c r="L16">
+        <v>2500</v>
+      </c>
+      <c r="M16">
+        <v>2500</v>
+      </c>
+      <c r="N16">
+        <v>2500</v>
+      </c>
+      <c r="O16">
+        <v>2500</v>
+      </c>
+      <c r="P16">
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>593</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>694</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>723</v>
-      </c>
-      <c r="M17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>682</v>
+        <v>594</v>
+      </c>
+      <c r="B17" t="s">
+        <v>690</v>
+      </c>
+      <c r="C17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E17" t="s">
+        <v>597</v>
+      </c>
+      <c r="F17" t="s">
+        <v>597</v>
+      </c>
+      <c r="G17" t="s">
+        <v>597</v>
+      </c>
+      <c r="H17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" t="s">
+        <v>597</v>
+      </c>
+      <c r="J17" t="s">
+        <v>597</v>
+      </c>
+      <c r="K17" t="s">
+        <v>597</v>
+      </c>
+      <c r="L17" t="s">
+        <v>608</v>
+      </c>
+      <c r="M17" t="s">
+        <v>597</v>
+      </c>
+      <c r="N17" t="s">
+        <v>597</v>
+      </c>
+      <c r="O17" t="s">
+        <v>597</v>
+      </c>
+      <c r="P17" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>595</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>695</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="M18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="P18" s="45" t="s">
-        <v>683</v>
+        <v>593</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>596</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>696</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>684</v>
+        <v>595</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>598</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>697</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="O20" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="P20" s="45" t="s">
-        <v>685</v>
+        <v>596</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>684</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>599</v>
-      </c>
-      <c r="B21" t="s">
-        <v>600</v>
-      </c>
-      <c r="C21" t="s">
-        <v>600</v>
-      </c>
-      <c r="D21" t="s">
-        <v>600</v>
-      </c>
-      <c r="E21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G21" t="s">
-        <v>600</v>
-      </c>
-      <c r="H21" t="s">
-        <v>600</v>
-      </c>
-      <c r="I21" t="s">
-        <v>600</v>
-      </c>
-      <c r="J21" t="s">
-        <v>600</v>
-      </c>
-      <c r="K21" t="s">
-        <v>600</v>
-      </c>
-      <c r="L21" t="s">
-        <v>661</v>
-      </c>
-      <c r="M21" t="s">
-        <v>600</v>
-      </c>
-      <c r="N21" t="s">
-        <v>600</v>
-      </c>
-      <c r="O21" t="s">
-        <v>600</v>
-      </c>
-      <c r="P21" t="s">
-        <v>600</v>
+        <v>598</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L22" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="M22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>601</v>
-      </c>
-      <c r="B23">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-      <c r="F23">
-        <v>33</v>
-      </c>
-      <c r="G23">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <v>25</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <v>26</v>
-      </c>
-      <c r="L23">
-        <v>40</v>
-      </c>
-      <c r="M23">
-        <v>33</v>
-      </c>
-      <c r="N23">
-        <v>33</v>
-      </c>
-      <c r="O23">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>40</v>
+        <v>602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" t="s">
+        <v>603</v>
+      </c>
+      <c r="G23" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" t="s">
+        <v>604</v>
+      </c>
+      <c r="I23" t="s">
+        <v>603</v>
+      </c>
+      <c r="J23" t="s">
+        <v>603</v>
+      </c>
+      <c r="K23" t="s">
+        <v>604</v>
+      </c>
+      <c r="L23" t="s">
+        <v>603</v>
+      </c>
+      <c r="M23" t="s">
+        <v>604</v>
+      </c>
+      <c r="N23" t="s">
+        <v>604</v>
+      </c>
+      <c r="O23" t="s">
+        <v>604</v>
+      </c>
+      <c r="P23" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>605</v>
-      </c>
-      <c r="B24" s="33">
-        <v>63</v>
-      </c>
-      <c r="C24" s="33">
-        <v>63</v>
-      </c>
-      <c r="D24" s="33">
-        <v>63</v>
-      </c>
-      <c r="E24" s="33">
-        <v>63</v>
-      </c>
-      <c r="F24" s="33">
-        <v>63</v>
+        <v>601</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K24">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N24">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O24">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="P24">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>727</v>
+        <v>605</v>
       </c>
       <c r="B25" s="33">
         <v>63</v>
@@ -5933,73 +6028,73 @@
       <c r="F25" s="33">
         <v>63</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>58</v>
+      </c>
+      <c r="J25">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>56</v>
+      </c>
+      <c r="L25">
         <v>70</v>
       </c>
-      <c r="H25" s="33">
-        <v>71</v>
-      </c>
-      <c r="I25" s="33">
-        <v>68</v>
-      </c>
-      <c r="J25">
-        <v>71</v>
-      </c>
-      <c r="K25">
-        <v>71</v>
-      </c>
-      <c r="L25">
-        <v>71</v>
-      </c>
       <c r="M25">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N25">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O25">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P25">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>606</v>
-      </c>
-      <c r="B26">
+        <v>727</v>
+      </c>
+      <c r="B26" s="33">
+        <v>63</v>
+      </c>
+      <c r="C26" s="33">
+        <v>63</v>
+      </c>
+      <c r="D26" s="33">
+        <v>63</v>
+      </c>
+      <c r="E26" s="33">
+        <v>63</v>
+      </c>
+      <c r="F26" s="33">
+        <v>63</v>
+      </c>
+      <c r="G26" s="33">
+        <v>70</v>
+      </c>
+      <c r="H26" s="33">
         <v>71</v>
       </c>
-      <c r="C26">
+      <c r="I26" s="33">
+        <v>68</v>
+      </c>
+      <c r="J26">
         <v>71</v>
       </c>
-      <c r="D26">
+      <c r="K26">
         <v>71</v>
       </c>
-      <c r="E26">
+      <c r="L26">
         <v>71</v>
-      </c>
-      <c r="F26">
-        <v>71</v>
-      </c>
-      <c r="G26">
-        <v>71</v>
-      </c>
-      <c r="H26">
-        <v>71</v>
-      </c>
-      <c r="I26">
-        <v>71</v>
-      </c>
-      <c r="J26">
-        <v>76</v>
-      </c>
-      <c r="K26">
-        <v>73</v>
-      </c>
-      <c r="L26">
-        <v>86</v>
       </c>
       <c r="M26">
         <v>71</v>
@@ -6016,207 +6111,207 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>728</v>
-      </c>
-      <c r="B27" s="33">
-        <v>126</v>
-      </c>
-      <c r="C27" s="33">
-        <v>126</v>
-      </c>
-      <c r="D27" s="33">
-        <v>126</v>
-      </c>
-      <c r="E27" s="33">
-        <v>126</v>
-      </c>
-      <c r="F27" s="33">
-        <v>126</v>
-      </c>
-      <c r="G27" s="33">
-        <v>152</v>
-      </c>
-      <c r="H27" s="33">
-        <v>152</v>
-      </c>
-      <c r="I27" s="33">
-        <v>152</v>
+        <v>606</v>
+      </c>
+      <c r="B27">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <v>71</v>
+      </c>
+      <c r="H27">
+        <v>71</v>
+      </c>
+      <c r="I27">
+        <v>71</v>
       </c>
       <c r="J27">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="L27">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="N27">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="O27">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="P27">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>607</v>
-      </c>
-      <c r="B28" t="s">
-        <v>690</v>
-      </c>
-      <c r="C28" t="s">
-        <v>608</v>
-      </c>
-      <c r="D28" t="s">
-        <v>608</v>
-      </c>
-      <c r="E28" t="s">
-        <v>608</v>
-      </c>
-      <c r="F28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G28" t="s">
-        <v>608</v>
-      </c>
-      <c r="H28" t="s">
-        <v>608</v>
-      </c>
-      <c r="I28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J28" t="s">
-        <v>608</v>
-      </c>
-      <c r="K28" t="s">
-        <v>608</v>
-      </c>
-      <c r="L28" t="s">
-        <v>608</v>
-      </c>
-      <c r="M28" t="s">
-        <v>608</v>
-      </c>
-      <c r="N28" t="s">
-        <v>608</v>
-      </c>
-      <c r="O28" t="s">
-        <v>608</v>
-      </c>
-      <c r="P28" t="s">
-        <v>608</v>
+        <v>728</v>
+      </c>
+      <c r="B28" s="33">
+        <v>126</v>
+      </c>
+      <c r="C28" s="33">
+        <v>126</v>
+      </c>
+      <c r="D28" s="33">
+        <v>126</v>
+      </c>
+      <c r="E28" s="33">
+        <v>126</v>
+      </c>
+      <c r="F28" s="33">
+        <v>126</v>
+      </c>
+      <c r="G28" s="33">
+        <v>152</v>
+      </c>
+      <c r="H28" s="33">
+        <v>152</v>
+      </c>
+      <c r="I28" s="33">
+        <v>152</v>
+      </c>
+      <c r="J28">
+        <v>153</v>
+      </c>
+      <c r="K28">
+        <v>153</v>
+      </c>
+      <c r="L28">
+        <v>153</v>
+      </c>
+      <c r="M28">
+        <v>153</v>
+      </c>
+      <c r="N28">
+        <v>153</v>
+      </c>
+      <c r="O28">
+        <v>153</v>
+      </c>
+      <c r="P28">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>615</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <v>18</v>
-      </c>
-      <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <v>18</v>
-      </c>
-      <c r="I29">
-        <v>18</v>
-      </c>
-      <c r="J29">
-        <v>18</v>
-      </c>
-      <c r="K29">
-        <v>18</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>18</v>
-      </c>
-      <c r="O29">
-        <v>18</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c r="B29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" t="s">
+        <v>608</v>
+      </c>
+      <c r="D29" t="s">
+        <v>608</v>
+      </c>
+      <c r="E29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F29" t="s">
+        <v>608</v>
+      </c>
+      <c r="G29" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29" t="s">
+        <v>608</v>
+      </c>
+      <c r="I29" t="s">
+        <v>608</v>
+      </c>
+      <c r="J29" t="s">
+        <v>608</v>
+      </c>
+      <c r="K29" t="s">
+        <v>608</v>
+      </c>
+      <c r="L29" t="s">
+        <v>608</v>
+      </c>
+      <c r="M29" t="s">
+        <v>608</v>
+      </c>
+      <c r="N29" t="s">
+        <v>608</v>
+      </c>
+      <c r="O29" t="s">
+        <v>608</v>
+      </c>
+      <c r="P29" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -6266,1430 +6361,1680 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>612</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>711</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="O33" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="P33" s="45" t="s">
-        <v>625</v>
+        <v>617</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>636</v>
-      </c>
-      <c r="B34" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="P34" s="45" t="s">
+      <c r="P34" s="43" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>611</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="N35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="O35" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="P35" s="45" t="s">
-        <v>626</v>
+        <v>636</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="P35" s="43" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>624</v>
-      </c>
-      <c r="B36" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="L36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="M36" s="45" t="s">
+      <c r="M36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="N36" s="45" t="s">
+      <c r="N36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="43" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>622</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>716</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="L37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="M37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="N37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="O37" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="P37" s="45" t="s">
-        <v>627</v>
+        <v>624</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>712</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="I38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="M38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="N38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="O38" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="P38" s="45" t="s">
-        <v>628</v>
+        <v>622</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>620</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>713</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="L39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="O39" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="P39" s="45" t="s">
-        <v>629</v>
+        <v>619</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>614</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>720</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="J40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="K40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="N40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="O40" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="P40" s="45" t="s">
-        <v>630</v>
+        <v>620</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>609</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="J41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="K41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="N41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="O41" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="P41" s="45" t="s">
-        <v>631</v>
+        <v>614</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="O41" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="P41" s="43" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>610</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>721</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="J42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="K42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="L42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="M42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="N42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="O42" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="P42" s="45" t="s">
-        <v>632</v>
+        <v>609</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="M42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="O42" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="P42" s="43" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>623</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>717</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="I43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="J43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="M43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="N43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="O43" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="P43" s="45" t="s">
-        <v>633</v>
+        <v>610</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>613</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>722</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="J44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="K44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="L44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="M44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="N44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="O44" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="P44" s="45" t="s">
-        <v>634</v>
+        <v>623</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>621</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>714</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="I45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="J45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="K45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="L45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="M45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="N45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="O45" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="P45" s="45" t="s">
-        <v>635</v>
+        <v>613</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>722</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="M45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="N45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="P45" s="43" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>637</v>
-      </c>
-      <c r="B46" t="s">
-        <v>638</v>
-      </c>
-      <c r="C46" t="s">
-        <v>638</v>
-      </c>
-      <c r="D46" t="s">
-        <v>638</v>
-      </c>
-      <c r="E46" t="s">
-        <v>638</v>
-      </c>
-      <c r="F46" t="s">
-        <v>638</v>
-      </c>
-      <c r="G46" t="s">
-        <v>638</v>
-      </c>
-      <c r="H46" t="s">
-        <v>638</v>
-      </c>
-      <c r="I46" t="s">
-        <v>638</v>
-      </c>
-      <c r="J46" t="s">
-        <v>638</v>
-      </c>
-      <c r="K46" t="s">
-        <v>638</v>
-      </c>
-      <c r="L46" t="s">
-        <v>638</v>
-      </c>
-      <c r="M46" t="s">
-        <v>638</v>
-      </c>
-      <c r="N46" t="s">
-        <v>638</v>
-      </c>
-      <c r="O46" t="s">
-        <v>638</v>
-      </c>
-      <c r="P46" t="s">
-        <v>638</v>
+        <v>621</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B47" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="C47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="J47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="N47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>645</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <v>2</v>
+        <v>640</v>
+      </c>
+      <c r="B49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D49" t="s">
+        <v>642</v>
+      </c>
+      <c r="E49" t="s">
+        <v>642</v>
+      </c>
+      <c r="F49" t="s">
+        <v>642</v>
+      </c>
+      <c r="G49" t="s">
+        <v>642</v>
+      </c>
+      <c r="H49" t="s">
+        <v>642</v>
+      </c>
+      <c r="I49" t="s">
+        <v>642</v>
+      </c>
+      <c r="J49" t="s">
+        <v>642</v>
+      </c>
+      <c r="K49" t="s">
+        <v>642</v>
+      </c>
+      <c r="L49" t="s">
+        <v>642</v>
+      </c>
+      <c r="M49" t="s">
+        <v>642</v>
+      </c>
+      <c r="N49" t="s">
+        <v>642</v>
+      </c>
+      <c r="O49" t="s">
+        <v>642</v>
+      </c>
+      <c r="P49" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>641</v>
-      </c>
-      <c r="B50" t="s">
-        <v>704</v>
-      </c>
-      <c r="C50" t="s">
-        <v>644</v>
-      </c>
-      <c r="D50" t="s">
-        <v>644</v>
-      </c>
-      <c r="E50" t="s">
-        <v>644</v>
-      </c>
-      <c r="F50" t="s">
-        <v>644</v>
-      </c>
-      <c r="G50" t="s">
-        <v>644</v>
-      </c>
-      <c r="H50" t="s">
-        <v>644</v>
-      </c>
-      <c r="I50" t="s">
-        <v>644</v>
-      </c>
-      <c r="J50" t="s">
-        <v>644</v>
-      </c>
-      <c r="K50" t="s">
-        <v>644</v>
-      </c>
-      <c r="L50" t="s">
-        <v>644</v>
-      </c>
-      <c r="M50" t="s">
-        <v>644</v>
-      </c>
-      <c r="N50" t="s">
-        <v>644</v>
-      </c>
-      <c r="O50" t="s">
-        <v>644</v>
-      </c>
-      <c r="P50" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B51" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="D51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="G51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="H51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="I51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="J51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="N51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="O51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="P51" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B52" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="I52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="J52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="L52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="M52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="N52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="O52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="P52" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L53" t="s">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="M53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="O53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="P53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B54" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L54" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="M54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="O54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="P54" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B55" t="s">
         <v>707</v>
       </c>
       <c r="C55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B56" t="s">
         <v>707</v>
       </c>
       <c r="C56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="I56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="J56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="K56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="M56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="N56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="O56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="P56" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C57" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E57" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F57" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G57" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H57" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="I57" t="s">
-        <v>6</v>
+        <v>665</v>
       </c>
       <c r="J57" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K57" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L57" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="M57" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="N57" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="O57" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="P57" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>658</v>
+      </c>
+      <c r="B58" t="s">
+        <v>708</v>
+      </c>
+      <c r="C58" t="s">
+        <v>659</v>
+      </c>
+      <c r="D58" t="s">
+        <v>659</v>
       </c>
       <c r="E58" t="s">
-        <v>669</v>
+        <v>659</v>
+      </c>
+      <c r="F58" t="s">
+        <v>659</v>
+      </c>
+      <c r="G58" t="s">
+        <v>660</v>
+      </c>
+      <c r="H58" t="s">
+        <v>389</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K58" t="s">
-        <v>666</v>
+        <v>662</v>
+      </c>
+      <c r="L58" t="s">
+        <v>661</v>
+      </c>
+      <c r="M58" t="s">
+        <v>389</v>
+      </c>
+      <c r="N58" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" t="s">
+        <v>389</v>
+      </c>
+      <c r="P58" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E59" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J59" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K59" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>674</v>
-      </c>
-      <c r="B60" t="s">
-        <v>709</v>
-      </c>
-      <c r="C60" t="s">
-        <v>676</v>
-      </c>
-      <c r="D60" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E60" t="s">
-        <v>676</v>
-      </c>
-      <c r="F60" t="s">
-        <v>676</v>
-      </c>
-      <c r="G60" t="s">
-        <v>677</v>
-      </c>
-      <c r="H60" t="s">
-        <v>678</v>
-      </c>
-      <c r="I60" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="J60" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K60" t="s">
-        <v>681</v>
-      </c>
-      <c r="L60" t="s">
-        <v>675</v>
-      </c>
-      <c r="M60" t="s">
-        <v>678</v>
-      </c>
-      <c r="N60" t="s">
-        <v>678</v>
-      </c>
-      <c r="O60" t="s">
-        <v>678</v>
-      </c>
-      <c r="P60" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>674</v>
+      </c>
+      <c r="B61" t="s">
+        <v>709</v>
+      </c>
+      <c r="C61" t="s">
+        <v>676</v>
+      </c>
+      <c r="D61" t="s">
+        <v>676</v>
+      </c>
+      <c r="E61" t="s">
+        <v>676</v>
+      </c>
+      <c r="F61" t="s">
+        <v>676</v>
+      </c>
+      <c r="G61" t="s">
+        <v>677</v>
+      </c>
+      <c r="H61" t="s">
+        <v>678</v>
+      </c>
+      <c r="I61" t="s">
+        <v>679</v>
+      </c>
+      <c r="J61" t="s">
+        <v>680</v>
+      </c>
+      <c r="K61" t="s">
+        <v>681</v>
+      </c>
+      <c r="L61" t="s">
+        <v>675</v>
+      </c>
+      <c r="M61" t="s">
+        <v>678</v>
+      </c>
+      <c r="N61" t="s">
+        <v>678</v>
+      </c>
+      <c r="O61" t="s">
+        <v>678</v>
+      </c>
+      <c r="P61" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>686</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>710</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>665</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>665</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>665</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>665</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>665</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>665</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>665</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J62" t="s">
         <v>665</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>665</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L62" t="s">
         <v>687</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M62" t="s">
         <v>665</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N62" t="s">
         <v>665</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O62" t="s">
         <v>665</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P62" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>731</v>
+      </c>
+      <c r="B63" t="s">
+        <v>735</v>
+      </c>
+      <c r="C63" t="s">
+        <v>734</v>
+      </c>
+      <c r="D63" t="s">
+        <v>733</v>
+      </c>
+      <c r="E63" t="s">
+        <v>733</v>
+      </c>
+      <c r="F63" t="s">
+        <v>733</v>
+      </c>
+      <c r="G63" t="s">
+        <v>736</v>
+      </c>
+      <c r="H63" t="s">
+        <v>737</v>
+      </c>
+      <c r="I63" t="s">
+        <v>738</v>
+      </c>
+      <c r="J63" t="s">
+        <v>737</v>
+      </c>
+      <c r="K63" t="s">
+        <v>737</v>
+      </c>
+      <c r="L63" t="s">
+        <v>739</v>
+      </c>
+      <c r="M63" t="s">
+        <v>737</v>
+      </c>
+      <c r="N63" t="s">
+        <v>737</v>
+      </c>
+      <c r="O63" t="s">
+        <v>737</v>
+      </c>
+      <c r="P63" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>729</v>
+      </c>
+      <c r="B64" t="s">
+        <v>735</v>
+      </c>
+      <c r="C64" t="s">
+        <v>734</v>
+      </c>
+      <c r="D64" t="s">
+        <v>733</v>
+      </c>
+      <c r="E64" t="s">
+        <v>733</v>
+      </c>
+      <c r="F64" t="s">
+        <v>733</v>
+      </c>
+      <c r="G64" t="s">
+        <v>736</v>
+      </c>
+      <c r="H64" t="s">
+        <v>737</v>
+      </c>
+      <c r="I64" t="s">
+        <v>738</v>
+      </c>
+      <c r="J64" t="s">
+        <v>737</v>
+      </c>
+      <c r="K64" t="s">
+        <v>737</v>
+      </c>
+      <c r="L64" t="s">
+        <v>739</v>
+      </c>
+      <c r="M64" t="s">
+        <v>737</v>
+      </c>
+      <c r="N64" t="s">
+        <v>737</v>
+      </c>
+      <c r="O64" t="s">
+        <v>737</v>
+      </c>
+      <c r="P64" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>732</v>
+      </c>
+      <c r="B65" t="s">
+        <v>749</v>
+      </c>
+      <c r="C65" t="s">
+        <v>750</v>
+      </c>
+      <c r="D65" t="s">
+        <v>751</v>
+      </c>
+      <c r="E65" t="s">
+        <v>751</v>
+      </c>
+      <c r="F65" t="s">
+        <v>752</v>
+      </c>
+      <c r="G65" t="s">
+        <v>754</v>
+      </c>
+      <c r="H65" t="s">
+        <v>753</v>
+      </c>
+      <c r="I65" t="s">
+        <v>740</v>
+      </c>
+      <c r="J65" t="s">
+        <v>753</v>
+      </c>
+      <c r="K65" t="s">
+        <v>753</v>
+      </c>
+      <c r="L65" t="s">
+        <v>741</v>
+      </c>
+      <c r="M65" t="s">
+        <v>753</v>
+      </c>
+      <c r="N65" t="s">
+        <v>753</v>
+      </c>
+      <c r="O65" t="s">
+        <v>753</v>
+      </c>
+      <c r="P65" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>730</v>
+      </c>
+      <c r="B66" t="s">
+        <v>749</v>
+      </c>
+      <c r="C66" t="s">
+        <v>750</v>
+      </c>
+      <c r="D66" t="s">
+        <v>751</v>
+      </c>
+      <c r="E66" t="s">
+        <v>751</v>
+      </c>
+      <c r="F66" t="s">
+        <v>752</v>
+      </c>
+      <c r="G66" t="s">
+        <v>754</v>
+      </c>
+      <c r="H66" t="s">
+        <v>753</v>
+      </c>
+      <c r="I66" t="s">
+        <v>740</v>
+      </c>
+      <c r="J66" t="s">
+        <v>753</v>
+      </c>
+      <c r="K66" t="s">
+        <v>753</v>
+      </c>
+      <c r="L66" t="s">
+        <v>741</v>
+      </c>
+      <c r="M66" t="s">
+        <v>753</v>
+      </c>
+      <c r="N66" t="s">
+        <v>753</v>
+      </c>
+      <c r="O66" t="s">
+        <v>753</v>
+      </c>
+      <c r="P66" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -8693,13 +9038,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -11178,16 +11523,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -11754,14 +12099,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -11815,14 +12160,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="764">
   <si>
     <t>Country</t>
   </si>
@@ -2307,6 +2307,21 @@
   </si>
   <si>
     <t>Income of humans, from poorest to richest</t>
+  </si>
+  <si>
+    <t>text_countries_high</t>
+  </si>
+  <si>
+    <t>the European Union, Japan, the United Kingdom</t>
+  </si>
+  <si>
+    <t>Japan, the United Kingdom</t>
+  </si>
+  <si>
+    <t>the European Union, Japan</t>
+  </si>
+  <si>
+    <t>the European Union, the United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -4800,11 +4815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:P11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,157 +6226,157 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>607</v>
+        <v>759</v>
       </c>
       <c r="B29" t="s">
-        <v>690</v>
+        <v>761</v>
       </c>
       <c r="C29" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="D29" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="E29" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="F29" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="G29" t="s">
-        <v>608</v>
+        <v>762</v>
       </c>
       <c r="H29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="I29" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
       <c r="J29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="K29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="L29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="M29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="N29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="O29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="P29" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>615</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>18</v>
-      </c>
-      <c r="E30">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
-      <c r="G30">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>18</v>
-      </c>
-      <c r="J30">
-        <v>18</v>
-      </c>
-      <c r="K30">
-        <v>18</v>
-      </c>
-      <c r="L30">
-        <v>18</v>
-      </c>
-      <c r="M30">
-        <v>18</v>
-      </c>
-      <c r="N30">
-        <v>18</v>
-      </c>
-      <c r="O30">
-        <v>18</v>
-      </c>
-      <c r="P30">
-        <v>18</v>
+        <v>607</v>
+      </c>
+      <c r="B30" t="s">
+        <v>690</v>
+      </c>
+      <c r="C30" t="s">
+        <v>608</v>
+      </c>
+      <c r="D30" t="s">
+        <v>608</v>
+      </c>
+      <c r="E30" t="s">
+        <v>608</v>
+      </c>
+      <c r="F30" t="s">
+        <v>608</v>
+      </c>
+      <c r="G30" t="s">
+        <v>608</v>
+      </c>
+      <c r="H30" t="s">
+        <v>608</v>
+      </c>
+      <c r="I30" t="s">
+        <v>608</v>
+      </c>
+      <c r="J30" t="s">
+        <v>608</v>
+      </c>
+      <c r="K30" t="s">
+        <v>608</v>
+      </c>
+      <c r="L30" t="s">
+        <v>608</v>
+      </c>
+      <c r="M30" t="s">
+        <v>608</v>
+      </c>
+      <c r="N30" t="s">
+        <v>608</v>
+      </c>
+      <c r="O30" t="s">
+        <v>608</v>
+      </c>
+      <c r="P30" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -6411,107 +6426,107 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>612</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="L34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="O34" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="P34" s="43" t="s">
-        <v>625</v>
+        <v>617</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>711</v>
@@ -6561,57 +6576,57 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P36" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>715</v>
@@ -6661,1235 +6676,1235 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P38" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P39" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P40" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P41" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P42" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P43" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P44" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P45" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>637</v>
-      </c>
-      <c r="B47" t="s">
-        <v>638</v>
-      </c>
-      <c r="C47" t="s">
-        <v>638</v>
-      </c>
-      <c r="D47" t="s">
-        <v>638</v>
-      </c>
-      <c r="E47" t="s">
-        <v>638</v>
-      </c>
-      <c r="F47" t="s">
-        <v>638</v>
-      </c>
-      <c r="G47" t="s">
-        <v>638</v>
-      </c>
-      <c r="H47" t="s">
-        <v>638</v>
-      </c>
-      <c r="I47" t="s">
-        <v>638</v>
-      </c>
-      <c r="J47" t="s">
-        <v>638</v>
-      </c>
-      <c r="K47" t="s">
-        <v>638</v>
-      </c>
-      <c r="L47" t="s">
-        <v>638</v>
-      </c>
-      <c r="M47" t="s">
-        <v>638</v>
-      </c>
-      <c r="N47" t="s">
-        <v>638</v>
-      </c>
-      <c r="O47" t="s">
-        <v>638</v>
-      </c>
-      <c r="P47" t="s">
-        <v>638</v>
+        <v>621</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B48" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="C48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="J48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="N48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P48" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P49" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>645</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>2</v>
+        <v>640</v>
+      </c>
+      <c r="B50" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" t="s">
+        <v>642</v>
+      </c>
+      <c r="D50" t="s">
+        <v>642</v>
+      </c>
+      <c r="E50" t="s">
+        <v>642</v>
+      </c>
+      <c r="F50" t="s">
+        <v>642</v>
+      </c>
+      <c r="G50" t="s">
+        <v>642</v>
+      </c>
+      <c r="H50" t="s">
+        <v>642</v>
+      </c>
+      <c r="I50" t="s">
+        <v>642</v>
+      </c>
+      <c r="J50" t="s">
+        <v>642</v>
+      </c>
+      <c r="K50" t="s">
+        <v>642</v>
+      </c>
+      <c r="L50" t="s">
+        <v>642</v>
+      </c>
+      <c r="M50" t="s">
+        <v>642</v>
+      </c>
+      <c r="N50" t="s">
+        <v>642</v>
+      </c>
+      <c r="O50" t="s">
+        <v>642</v>
+      </c>
+      <c r="P50" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>641</v>
-      </c>
-      <c r="B51" t="s">
-        <v>704</v>
-      </c>
-      <c r="C51" t="s">
-        <v>644</v>
-      </c>
-      <c r="D51" t="s">
-        <v>644</v>
-      </c>
-      <c r="E51" t="s">
-        <v>644</v>
-      </c>
-      <c r="F51" t="s">
-        <v>644</v>
-      </c>
-      <c r="G51" t="s">
-        <v>644</v>
-      </c>
-      <c r="H51" t="s">
-        <v>644</v>
-      </c>
-      <c r="I51" t="s">
-        <v>644</v>
-      </c>
-      <c r="J51" t="s">
-        <v>644</v>
-      </c>
-      <c r="K51" t="s">
-        <v>644</v>
-      </c>
-      <c r="L51" t="s">
-        <v>644</v>
-      </c>
-      <c r="M51" t="s">
-        <v>644</v>
-      </c>
-      <c r="N51" t="s">
-        <v>644</v>
-      </c>
-      <c r="O51" t="s">
-        <v>644</v>
-      </c>
-      <c r="P51" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B52" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="D52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="G52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="H52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="I52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="J52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="N52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="O52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="P52" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B53" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="I53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="J53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="L53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="M53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="N53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="O53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="P53" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L54" t="s">
-        <v>706</v>
+        <v>647</v>
       </c>
       <c r="M54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="O54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="P54" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L55" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="M55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="O55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="P55" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B56" t="s">
         <v>707</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B57" t="s">
         <v>707</v>
       </c>
       <c r="C57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="I57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="J57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="K57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="M57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="N57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="O57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="P57" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C58" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D58" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E58" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F58" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G58" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H58" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>665</v>
       </c>
       <c r="J58" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K58" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L58" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="M58" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="N58" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="O58" t="s">
-        <v>389</v>
+        <v>665</v>
       </c>
       <c r="P58" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>668</v>
+        <v>658</v>
+      </c>
+      <c r="B59" t="s">
+        <v>708</v>
+      </c>
+      <c r="C59" t="s">
+        <v>659</v>
+      </c>
+      <c r="D59" t="s">
+        <v>659</v>
       </c>
       <c r="E59" t="s">
-        <v>669</v>
+        <v>659</v>
+      </c>
+      <c r="F59" t="s">
+        <v>659</v>
+      </c>
+      <c r="G59" t="s">
+        <v>660</v>
+      </c>
+      <c r="H59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K59" t="s">
-        <v>666</v>
+        <v>662</v>
+      </c>
+      <c r="L59" t="s">
+        <v>661</v>
+      </c>
+      <c r="M59" t="s">
+        <v>389</v>
+      </c>
+      <c r="N59" t="s">
+        <v>389</v>
+      </c>
+      <c r="O59" t="s">
+        <v>389</v>
+      </c>
+      <c r="P59" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E60" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J60" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K60" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>674</v>
-      </c>
-      <c r="B61" t="s">
-        <v>709</v>
-      </c>
-      <c r="C61" t="s">
-        <v>676</v>
-      </c>
-      <c r="D61" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E61" t="s">
-        <v>676</v>
-      </c>
-      <c r="F61" t="s">
-        <v>676</v>
-      </c>
-      <c r="G61" t="s">
-        <v>677</v>
-      </c>
-      <c r="H61" t="s">
-        <v>678</v>
-      </c>
-      <c r="I61" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="J61" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K61" t="s">
-        <v>681</v>
-      </c>
-      <c r="L61" t="s">
-        <v>675</v>
-      </c>
-      <c r="M61" t="s">
-        <v>678</v>
-      </c>
-      <c r="N61" t="s">
-        <v>678</v>
-      </c>
-      <c r="O61" t="s">
-        <v>678</v>
-      </c>
-      <c r="P61" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B62" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C62" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E62" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="F62" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="G62" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="H62" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="I62" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="J62" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="K62" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="L62" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M62" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="N62" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="O62" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="P62" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="B63" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="C63" t="s">
-        <v>734</v>
+        <v>665</v>
       </c>
       <c r="D63" t="s">
-        <v>733</v>
+        <v>665</v>
       </c>
       <c r="E63" t="s">
-        <v>733</v>
+        <v>665</v>
       </c>
       <c r="F63" t="s">
-        <v>733</v>
+        <v>665</v>
       </c>
       <c r="G63" t="s">
-        <v>736</v>
+        <v>665</v>
       </c>
       <c r="H63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="I63" t="s">
-        <v>738</v>
+        <v>665</v>
       </c>
       <c r="J63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="K63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="L63" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
       <c r="M63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="N63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="O63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="P63" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B64" t="s">
         <v>735</v>
@@ -7939,57 +7954,57 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B65" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C65" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D65" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="E65" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="F65" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G65" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="H65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="I65" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="K65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="L65" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="N65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="O65" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="P65" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B66" t="s">
         <v>749</v>
@@ -8034,6 +8049,56 @@
         <v>753</v>
       </c>
       <c r="P66" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>730</v>
+      </c>
+      <c r="B67" t="s">
+        <v>749</v>
+      </c>
+      <c r="C67" t="s">
+        <v>750</v>
+      </c>
+      <c r="D67" t="s">
+        <v>751</v>
+      </c>
+      <c r="E67" t="s">
+        <v>751</v>
+      </c>
+      <c r="F67" t="s">
+        <v>752</v>
+      </c>
+      <c r="G67" t="s">
+        <v>754</v>
+      </c>
+      <c r="H67" t="s">
+        <v>753</v>
+      </c>
+      <c r="I67" t="s">
+        <v>740</v>
+      </c>
+      <c r="J67" t="s">
+        <v>753</v>
+      </c>
+      <c r="K67" t="s">
+        <v>753</v>
+      </c>
+      <c r="L67" t="s">
+        <v>741</v>
+      </c>
+      <c r="M67" t="s">
+        <v>753</v>
+      </c>
+      <c r="N67" t="s">
+        <v>753</v>
+      </c>
+      <c r="O67" t="s">
+        <v>753</v>
+      </c>
+      <c r="P67" t="s">
         <v>741</v>
       </c>
     </row>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="902">
   <si>
     <t>Country</t>
   </si>
@@ -1760,9 +1760,6 @@
     <t>text_title</t>
   </si>
   <si>
-    <t>Income after taxes and transfers of human adults, from the poorest to the richest</t>
-  </si>
-  <si>
     <t>text_benefit</t>
   </si>
   <si>
@@ -1823,9 +1820,6 @@
     <t>amount_expenses</t>
   </si>
   <si>
-    <t xml:space="preserve"> per month</t>
-  </si>
-  <si>
     <t>amount_lottery</t>
   </si>
   <si>
@@ -1982,9 +1976,6 @@
     <t>na_label</t>
   </si>
   <si>
-    <t>Non Parties</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
@@ -2087,18 +2078,12 @@
     <t>€40</t>
   </si>
   <si>
-    <t>€100</t>
-  </si>
-  <si>
     <t>belief_nationality</t>
   </si>
   <si>
     <t>Europeans</t>
   </si>
   <si>
-    <t>€/an</t>
-  </si>
-  <si>
     <t>€/Jahr</t>
   </si>
   <si>
@@ -2111,9 +2096,6 @@
     <t>Revenu après la redistribution mondiale</t>
   </si>
   <si>
-    <t>Revenu après impôts et transferts des adultes humains, du plus pauvre au plus riche</t>
-  </si>
-  <si>
     <t>30&amp;nbsp;€</t>
   </si>
   <si>
@@ -2165,9 +2147,6 @@
     <t>Américains</t>
   </si>
   <si>
-    <t>150&amp;nbsp;</t>
-  </si>
-  <si>
     <t>5&amp;nbsp;000&amp;nbsp;€</t>
   </si>
   <si>
@@ -2252,12 +2231,6 @@
     <t>Imagine that all other high-income countries (such as the European Union, Japan, Canada...) adopt this policy and some middle-income countries (such as China) do not.</t>
   </si>
   <si>
-    <t>Imagine that some countries (such as the European Union, the United Kingdom, and South Korea) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as the European Union and the United Kingdom) adopt this policy and others (such as Japan, Canada, and China) do not.</t>
-  </si>
-  <si>
     <t>the EU, the UK, South Korea, but not the U.S. or China</t>
   </si>
   <si>
@@ -2279,24 +2252,6 @@
     <t>the EU, the UK, but not the U.S. or China</t>
   </si>
   <si>
-    <t>Imagine that some countries (such as Germany, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as France, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as Germany, France, Spain, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as Germany, France, Switzerland, the United Kingdom...) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as the European Union and the United Kingdom) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
-    <t>Imagine that some countries (such as the European Union and Switzerland) adopt this policy and others (such as the United States and China) do not.</t>
-  </si>
-  <si>
     <t>the EU and Switzerland, but not the U.S. or China</t>
   </si>
   <si>
@@ -2322,6 +2277,465 @@
   </si>
   <si>
     <t>the European Union, the United Kingdom</t>
+  </si>
+  <si>
+    <t>nb_countries_low</t>
+  </si>
+  <si>
+    <t>Income (after taxes and transfers) of human adults, from the poorest to the richest</t>
+  </si>
+  <si>
+    <t>In the U.S.</t>
+  </si>
+  <si>
+    <t>£30</t>
+  </si>
+  <si>
+    <t>£10</t>
+  </si>
+  <si>
+    <t>£40</t>
+  </si>
+  <si>
+    <t>£100</t>
+  </si>
+  <si>
+    <t>the UK</t>
+  </si>
+  <si>
+    <t>£1,500</t>
+  </si>
+  <si>
+    <t>£10,000</t>
+  </si>
+  <si>
+    <t>£75,000</t>
+  </si>
+  <si>
+    <t>£80,000</t>
+  </si>
+  <si>
+    <t>£90,000</t>
+  </si>
+  <si>
+    <t>£100,000</t>
+  </si>
+  <si>
+    <t>£120,000</t>
+  </si>
+  <si>
+    <t>£130,000</t>
+  </si>
+  <si>
+    <t>£150,000</t>
+  </si>
+  <si>
+    <t>£200,000</t>
+  </si>
+  <si>
+    <t>£1 million</t>
+  </si>
+  <si>
+    <t>In the UK</t>
+  </si>
+  <si>
+    <t>UK GDP</t>
+  </si>
+  <si>
+    <t>£20 billion</t>
+  </si>
+  <si>
+    <t>£5 million</t>
+  </si>
+  <si>
+    <t>British people</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>Revenu (après impôts et transferts) des adultes humains, du plus pauvre au plus riche</t>
+  </si>
+  <si>
+    <t>le Japon, le Royaume-Uni</t>
+  </si>
+  <si>
+    <t>Imaginez que tous les autres pays à hauts revenus (tels que les États-Unis, le Japon, l'Allemagne, l'Italie, le Royaume-Uni...) adoptent cette mesure et que certains pays à revenus moyens (tels que la Chine) ne l'adoptent pas.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union, the United Kingdom, and Brazil) adopt this policy and others (such as Japan, Canada, and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union, Brazil, and South Korea) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union and Brazil) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, France, the United Kingdom, Brazil...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, France, Spain, the United Kingdom, Brazil...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as France, Spain, the United Kingdom, Brazil...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as Germany, Spain, the United Kingdom, Brazil...) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imaginez que certains pays (tels que l'Allemagne, l'Espagne, le Royaume-Uni, le Brésil...) adoptent cette mesure et que d'autres pays (tels que les États-Unis et la Chine) ne l'adoptent pas.</t>
+  </si>
+  <si>
+    <t>Imagine that some countries (such as the European Union, the United Kingdom, and Brazil) adopt this policy and others (such as the United States and China) do not.</t>
+  </si>
+  <si>
+    <t>Imaginez que certains pays (tels que l'Union Européenne, le Royaume-Uni, le Brésil...) adoptent cette mesure et que d'autres pays (tels que les États-Unis et la Chine) ne l'adoptent pas.</t>
+  </si>
+  <si>
+    <t>Imaginez que tous les autres pays à hauts revenus (tels que les États-Unis, l'Union Européenne, le Japon...) adoptent cette mesure et que certains pays à revenus moyens (tels que la Chine) ne l'adoptent pas.</t>
+  </si>
+  <si>
+    <t>elezioni federali in Svizzera del 2023</t>
+  </si>
+  <si>
+    <t>élections fédérales suisses de 2023</t>
+  </si>
+  <si>
+    <t>Schweizer Parlamentswahlen 2023</t>
+  </si>
+  <si>
+    <t>Periodicity income (personal contact)</t>
+  </si>
+  <si>
+    <t>after-tax monthly</t>
+  </si>
+  <si>
+    <t>In Deutschland</t>
+  </si>
+  <si>
+    <t>In Italia</t>
+  </si>
+  <si>
+    <t>En España</t>
+  </si>
+  <si>
+    <t>In Switzerland</t>
+  </si>
+  <si>
+    <t>日本では</t>
+  </si>
+  <si>
+    <t>В России</t>
+  </si>
+  <si>
+    <t>في المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t>En Suisse</t>
+  </si>
+  <si>
+    <t>In der Schweiz</t>
+  </si>
+  <si>
+    <t>In Svizzera</t>
+  </si>
+  <si>
+    <t>En EE.UU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> al mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miesięcznie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> al mese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pro Monat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> في الشهر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCU per dollar </t>
+  </si>
+  <si>
+    <t>xe.com, 08/01/2025</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Polska</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t>die Schweiz</t>
+  </si>
+  <si>
+    <t>la Suisse</t>
+  </si>
+  <si>
+    <t>Svizzera</t>
+  </si>
+  <si>
+    <t>Los Estados Unidos</t>
+  </si>
+  <si>
+    <t>20,000円</t>
+  </si>
+  <si>
+    <t>500 ريال</t>
+  </si>
+  <si>
+    <t>$ per year</t>
+  </si>
+  <si>
+    <t>€ par an</t>
+  </si>
+  <si>
+    <t>$ al año</t>
+  </si>
+  <si>
+    <t>Japan, the UK</t>
+  </si>
+  <si>
+    <t>Countries participating in GCS high (on top of China, India, &lt;…&gt;, Canada, South Korea, as well as all Africa, Latin America, South-Asia and South-East Asia).</t>
+  </si>
+  <si>
+    <t>Japan, das Vereinigte Königreich</t>
+  </si>
+  <si>
+    <t>Giappone, Regno Unito</t>
+  </si>
+  <si>
+    <t>Japonia, Wielka Brytania</t>
+  </si>
+  <si>
+    <t>Japón, Reino Unido</t>
+  </si>
+  <si>
+    <t>欧州連合, 英国</t>
+  </si>
+  <si>
+    <t>Европейский союз, Япония, Великобритания</t>
+  </si>
+  <si>
+    <t>الاتحاد الأوروبي واليابان والمملكة المتحدة واليابان</t>
+  </si>
+  <si>
+    <t>l'Unione Europea, il Giappone, il Regno Unito</t>
+  </si>
+  <si>
+    <t>l'Union européenne, le Japon, le Royaume-Uni</t>
+  </si>
+  <si>
+    <t>die Europäische Union, Japan, das Vereinigte Königreich</t>
+  </si>
+  <si>
+    <t>la Unión Europea, Japón, el Reino Unido</t>
+  </si>
+  <si>
+    <t>150&amp;nbsp;€</t>
+  </si>
+  <si>
+    <t>500&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>CHF&amp;nbsp;100</t>
+  </si>
+  <si>
+    <t>10&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>100&amp;nbsp;franchi</t>
+  </si>
+  <si>
+    <t>100&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>40.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>300.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>300,000 ريال</t>
+  </si>
+  <si>
+    <t>40,000 ريال</t>
+  </si>
+  <si>
+    <t>50,000 ريال</t>
+  </si>
+  <si>
+    <t>35,000 ريال</t>
+  </si>
+  <si>
+    <t>70,000 ريال</t>
+  </si>
+  <si>
+    <t>25,000 ريال</t>
+  </si>
+  <si>
+    <t>20,000 ريال</t>
+  </si>
+  <si>
+    <t>10,000 ريال</t>
+  </si>
+  <si>
+    <t>1,500 ريال</t>
+  </si>
+  <si>
+    <t>1.500&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>10.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>25.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>35.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>50.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>70.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>30.000&amp;nbsp;zł</t>
+  </si>
+  <si>
+    <t>110,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>120,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>75,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>70,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>85,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>100,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>200,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>140,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>10,000&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>1,500&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;million&amp;nbsp;CHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pro Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> all'anno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> par an</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> al año</t>
+  </si>
+  <si>
+    <t>15&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>100&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>750&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>800&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>900&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;000&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;200&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;300&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>1&amp;nbsp;500&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>2&amp;nbsp;000&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>100&amp;nbsp;000&amp;nbsp;000&amp;nbsp;руб.</t>
+  </si>
+  <si>
+    <t>1,300万円</t>
+  </si>
+  <si>
+    <t>1,400万円</t>
+  </si>
+  <si>
+    <t>1,200万円</t>
+  </si>
+  <si>
+    <t>2,400万円</t>
+  </si>
+  <si>
+    <t>100万円</t>
+  </si>
+  <si>
+    <t>15万円</t>
+  </si>
+  <si>
+    <t>1,900万円</t>
+  </si>
+  <si>
+    <t>2,000万円</t>
+  </si>
+  <si>
+    <t>1,800万円</t>
+  </si>
+  <si>
+    <t>3,600万円</t>
+  </si>
+  <si>
+    <t>15,000万円</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2881,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2526,6 +2940,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2808,11 +3223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,40 +3472,40 @@
         <v>395</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3410,77 +3825,59 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
-        <v>266</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>235</v>
+      <c r="D15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>235</v>
+      <c r="G15" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>266</v>
-      </c>
+      <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="20" t="s">
         <v>266</v>
       </c>
@@ -3492,89 +3889,89 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6">
-        <v>60000</v>
-      </c>
-      <c r="D16" s="6">
-        <v>61000</v>
-      </c>
-      <c r="E16" s="6">
-        <v>53000</v>
-      </c>
-      <c r="F16" s="6">
-        <v>158000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>49000</v>
-      </c>
-      <c r="H16" s="6">
-        <v>58000</v>
-      </c>
-      <c r="I16" s="6">
-        <v>85000</v>
-      </c>
-      <c r="J16" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K16" s="36">
-        <v>2358000</v>
-      </c>
-      <c r="L16" s="6">
-        <v>121000</v>
-      </c>
-      <c r="M16" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="10"/>
+      <c r="C17" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K17" s="36">
+        <v>2358000</v>
+      </c>
+      <c r="L17" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -3582,242 +3979,333 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6">
-        <v>91000</v>
-      </c>
-      <c r="D18" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>80000</v>
-      </c>
-      <c r="F18" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H18" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I18" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J18" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K18" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L18" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M18" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>53</v>
+      <c r="C19" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>120000</v>
       </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
-        <v>755000</v>
-      </c>
-      <c r="D20" s="6">
-        <v>758000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>664000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1974000</v>
-      </c>
-      <c r="G20" s="6">
-        <v>607000</v>
-      </c>
-      <c r="H20" s="6">
-        <v>722000</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1063000</v>
-      </c>
-      <c r="J20" s="6">
-        <v>98298000</v>
-      </c>
-      <c r="K20" s="4">
-        <v>29472000</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1510000</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>418</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K21" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>654</v>
+        <v>419</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="L22" s="6" t="s">
-        <v>656</v>
+        <v>436</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>655</v>
+        <v>40</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="R24" s="7"/>
+      <c r="A24" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="F24" s="33">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G24" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J24" s="33">
+        <v>158</v>
+      </c>
+      <c r="K24" s="33">
+        <v>105</v>
+      </c>
+      <c r="L24" s="33">
+        <v>3.75</v>
+      </c>
+      <c r="M24" s="33">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E25" t="s">
+        <v>746</v>
+      </c>
+      <c r="F25" t="s">
+        <v>746</v>
+      </c>
+      <c r="G25" t="s">
+        <v>747</v>
+      </c>
+      <c r="H25" t="s">
+        <v>745</v>
+      </c>
+      <c r="I25" t="s">
+        <v>748</v>
+      </c>
+      <c r="J25" t="s">
+        <v>745</v>
+      </c>
+      <c r="K25" t="s">
+        <v>745</v>
+      </c>
+      <c r="L25" t="s">
+        <v>745</v>
+      </c>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -3838,83 +4326,83 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="24"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="24"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="33"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -3922,17 +4410,22 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -3961,35 +4454,35 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -4018,36 +4511,35 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="2"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -4078,7 +4570,7 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4088,10 +4580,11 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4131,7 +4624,6 @@
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4187,6 +4679,7 @@
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4316,47 +4809,47 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="33"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="M65" s="33"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -4367,14 +4860,9 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="5"/>
-      <c r="L66" s="6"/>
+      <c r="J66" s="2"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -4385,29 +4873,30 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="J67" s="5"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
@@ -4421,6 +4910,10 @@
       <c r="J69" s="19"/>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
@@ -4435,34 +4928,33 @@
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="M72" s="32"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="25"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+    </row>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4491,21 +4983,21 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
-      <c r="C76" s="19"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="25"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="A77" s="23"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -4537,31 +5029,31 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="32"/>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="32"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -4590,11 +5082,6 @@
       <c r="J83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -4628,6 +5115,11 @@
       <c r="J85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
@@ -4698,8 +5190,6 @@
       <c r="J90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
@@ -4714,99 +5204,115 @@
       <c r="J91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="1"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="R91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="2"/>
+      <c r="R92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="6"/>
-      <c r="O95" s="4"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="2"/>
-    </row>
-    <row r="138" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="6"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="139" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4815,11 +5321,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,34 +5350,34 @@
         <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>410</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>560</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4888,7 +5394,7 @@
         <v>10000</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F2">
         <v>10000</v>
@@ -4900,13 +5406,13 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>1500000</v>
       </c>
       <c r="J2">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="K2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L2">
         <v>10000</v>
@@ -4938,37 +5444,37 @@
         <v>40000</v>
       </c>
       <c r="E3">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="F3">
         <v>40000</v>
       </c>
       <c r="G3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="H3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I3">
-        <v>40000</v>
+        <v>6000000</v>
       </c>
       <c r="J3">
-        <v>40000</v>
+        <v>4000000</v>
       </c>
       <c r="K3">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="L3">
         <v>40000</v>
       </c>
       <c r="M3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="O3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P3">
         <v>40000</v>
@@ -4988,37 +5494,37 @@
         <v>60000</v>
       </c>
       <c r="E4">
-        <v>60000</v>
+        <v>250000</v>
       </c>
       <c r="F4">
         <v>60000</v>
       </c>
       <c r="G4">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H4">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>10000000</v>
       </c>
       <c r="J4">
-        <v>60000</v>
+        <v>6000000</v>
       </c>
       <c r="K4">
-        <v>60000</v>
+        <v>250000</v>
       </c>
       <c r="L4">
         <v>60000</v>
       </c>
       <c r="M4">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="N4">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="O4">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="P4">
         <v>60000</v>
@@ -5038,7 +5544,7 @@
         <v>100000</v>
       </c>
       <c r="E5">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="F5">
         <v>100000</v>
@@ -5050,13 +5556,13 @@
         <v>100000</v>
       </c>
       <c r="I5">
-        <v>100000</v>
+        <v>15000000</v>
       </c>
       <c r="J5">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="L5">
         <v>100000</v>
@@ -5079,60 +5585,74 @@
         <v>563</v>
       </c>
       <c r="B6">
+        <f>1/Figures!C24</f>
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="C6">
+        <f>1/Figures!D24</f>
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="D6">
+        <f>1/Figures!E24</f>
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="E6">
+        <f>1/Figures!F24</f>
+        <v>0.24096385542168672</v>
+      </c>
+      <c r="F6">
+        <f>1/Figures!G24</f>
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="G6">
+        <f>1/Figures!H24</f>
+        <v>1.2360939431396785</v>
+      </c>
+      <c r="H6">
+        <f>1/Figures!I24</f>
+        <v>1.0964912280701753</v>
+      </c>
+      <c r="I6">
+        <f>1/Figures!J24</f>
+        <v>6.3291139240506328E-3</v>
+      </c>
+      <c r="J6">
+        <f>1/Figures!K24</f>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="K6">
+        <f>1/Figures!L24</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="L6">
+        <f>1/Figures!M24</f>
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.25</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>1</v>
+        <f>1/Figures!I24</f>
+        <v>1.0964912280701753</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <f>1/Figures!I24</f>
+        <v>1.0964912280701753</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <f>1/Figures!I24</f>
+        <v>1.0964912280701753</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="46" t="s">
         <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>688</v>
+        <v>826</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D7" t="s">
         <v>567</v>
@@ -5159,7 +5679,7 @@
         <v>568</v>
       </c>
       <c r="L7" t="s">
-        <v>568</v>
+        <v>825</v>
       </c>
       <c r="M7" t="s">
         <v>568</v>
@@ -5171,65 +5691,65 @@
         <v>568</v>
       </c>
       <c r="P7" t="s">
-        <v>568</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="46" t="s">
         <v>573</v>
       </c>
       <c r="B8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="46" t="s">
         <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C9" t="s">
         <v>571</v>
@@ -5275,270 +5795,270 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="46" t="s">
         <v>575</v>
       </c>
       <c r="B10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" t="s">
+        <v>750</v>
+      </c>
+      <c r="D10" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G10" t="s">
+        <v>750</v>
+      </c>
+      <c r="H10" t="s">
+        <v>750</v>
+      </c>
+      <c r="I10" t="s">
+        <v>750</v>
+      </c>
+      <c r="J10" t="s">
+        <v>750</v>
+      </c>
+      <c r="K10" t="s">
+        <v>750</v>
+      </c>
+      <c r="L10" t="s">
+        <v>750</v>
+      </c>
+      <c r="M10" t="s">
+        <v>750</v>
+      </c>
+      <c r="N10" t="s">
+        <v>750</v>
+      </c>
+      <c r="O10" t="s">
+        <v>750</v>
+      </c>
+      <c r="P10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C11" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F11" t="s">
+        <v>743</v>
+      </c>
+      <c r="G11" t="s">
+        <v>743</v>
+      </c>
+      <c r="H11" t="s">
+        <v>743</v>
+      </c>
+      <c r="I11" t="s">
+        <v>743</v>
+      </c>
+      <c r="J11" t="s">
+        <v>743</v>
+      </c>
+      <c r="K11" t="s">
+        <v>743</v>
+      </c>
+      <c r="L11" t="s">
+        <v>743</v>
+      </c>
+      <c r="M11" t="s">
+        <v>743</v>
+      </c>
+      <c r="N11" t="s">
+        <v>743</v>
+      </c>
+      <c r="O11" t="s">
+        <v>743</v>
+      </c>
+      <c r="P11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" t="s">
+        <v>581</v>
+      </c>
+      <c r="G12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" t="s">
+        <v>581</v>
+      </c>
+      <c r="J12" t="s">
+        <v>581</v>
+      </c>
+      <c r="K12" t="s">
+        <v>581</v>
+      </c>
+      <c r="L12" t="s">
+        <v>581</v>
+      </c>
+      <c r="M12" t="s">
+        <v>581</v>
+      </c>
+      <c r="N12" t="s">
+        <v>581</v>
+      </c>
+      <c r="O12" t="s">
+        <v>581</v>
+      </c>
+      <c r="P12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" t="s">
         <v>693</v>
       </c>
-      <c r="C10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" t="s">
-        <v>576</v>
-      </c>
-      <c r="F10" t="s">
-        <v>576</v>
-      </c>
-      <c r="G10" t="s">
-        <v>576</v>
-      </c>
-      <c r="H10" t="s">
-        <v>576</v>
-      </c>
-      <c r="I10" t="s">
-        <v>576</v>
-      </c>
-      <c r="J10" t="s">
-        <v>576</v>
-      </c>
-      <c r="K10" t="s">
-        <v>576</v>
-      </c>
-      <c r="L10" t="s">
-        <v>576</v>
-      </c>
-      <c r="M10" t="s">
-        <v>576</v>
-      </c>
-      <c r="N10" t="s">
-        <v>576</v>
-      </c>
-      <c r="O10" t="s">
-        <v>576</v>
-      </c>
-      <c r="P10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>756</v>
-      </c>
-      <c r="B11" t="s">
-        <v>757</v>
-      </c>
-      <c r="C11" t="s">
-        <v>758</v>
-      </c>
-      <c r="D11" t="s">
-        <v>758</v>
-      </c>
-      <c r="E11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F11" t="s">
-        <v>758</v>
-      </c>
-      <c r="G11" t="s">
-        <v>758</v>
-      </c>
-      <c r="H11" t="s">
-        <v>758</v>
-      </c>
-      <c r="I11" t="s">
-        <v>758</v>
-      </c>
-      <c r="J11" t="s">
-        <v>758</v>
-      </c>
-      <c r="K11" t="s">
-        <v>758</v>
-      </c>
-      <c r="L11" t="s">
-        <v>758</v>
-      </c>
-      <c r="M11" t="s">
-        <v>758</v>
-      </c>
-      <c r="N11" t="s">
-        <v>758</v>
-      </c>
-      <c r="O11" t="s">
-        <v>758</v>
-      </c>
-      <c r="P11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>577</v>
-      </c>
-      <c r="B12" t="s">
-        <v>698</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" t="s">
+        <v>580</v>
+      </c>
+      <c r="F13" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H13" t="s">
+        <v>580</v>
+      </c>
+      <c r="I13" t="s">
+        <v>580</v>
+      </c>
+      <c r="J13" t="s">
+        <v>580</v>
+      </c>
+      <c r="K13" t="s">
+        <v>580</v>
+      </c>
+      <c r="L13" t="s">
+        <v>580</v>
+      </c>
+      <c r="M13" t="s">
+        <v>580</v>
+      </c>
+      <c r="N13" t="s">
+        <v>580</v>
+      </c>
+      <c r="O13" t="s">
+        <v>580</v>
+      </c>
+      <c r="P13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C14" t="s">
         <v>582</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>582</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>582</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>582</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>582</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>582</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I14" t="s">
         <v>582</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J14" t="s">
         <v>582</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K14" t="s">
         <v>582</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L14" t="s">
         <v>582</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M14" t="s">
         <v>582</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N14" t="s">
         <v>582</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O14" t="s">
         <v>582</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P14" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B13" t="s">
-        <v>699</v>
-      </c>
-      <c r="C13" t="s">
-        <v>581</v>
-      </c>
-      <c r="D13" t="s">
-        <v>581</v>
-      </c>
-      <c r="E13" t="s">
-        <v>581</v>
-      </c>
-      <c r="F13" t="s">
-        <v>581</v>
-      </c>
-      <c r="G13" t="s">
-        <v>581</v>
-      </c>
-      <c r="H13" t="s">
-        <v>581</v>
-      </c>
-      <c r="I13" t="s">
-        <v>581</v>
-      </c>
-      <c r="J13" t="s">
-        <v>581</v>
-      </c>
-      <c r="K13" t="s">
-        <v>581</v>
-      </c>
-      <c r="L13" t="s">
-        <v>581</v>
-      </c>
-      <c r="M13" t="s">
-        <v>581</v>
-      </c>
-      <c r="N13" t="s">
-        <v>581</v>
-      </c>
-      <c r="O13" t="s">
-        <v>581</v>
-      </c>
-      <c r="P13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>579</v>
-      </c>
-      <c r="B14" t="s">
-        <v>700</v>
-      </c>
-      <c r="C14" t="s">
-        <v>583</v>
-      </c>
-      <c r="D14" t="s">
-        <v>583</v>
-      </c>
-      <c r="E14" t="s">
-        <v>583</v>
-      </c>
-      <c r="F14" t="s">
-        <v>583</v>
-      </c>
-      <c r="G14" t="s">
-        <v>583</v>
-      </c>
-      <c r="H14" t="s">
-        <v>583</v>
-      </c>
-      <c r="I14" t="s">
-        <v>583</v>
-      </c>
-      <c r="J14" t="s">
-        <v>583</v>
-      </c>
-      <c r="K14" t="s">
-        <v>583</v>
-      </c>
-      <c r="L14" t="s">
-        <v>583</v>
-      </c>
-      <c r="M14" t="s">
-        <v>583</v>
-      </c>
-      <c r="N14" t="s">
-        <v>583</v>
-      </c>
-      <c r="O14" t="s">
-        <v>583</v>
-      </c>
-      <c r="P14" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15">
         <v>10000</v>
       </c>
       <c r="C15">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="D15">
         <v>10000</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F15">
         <v>10000</v>
@@ -5550,13 +6070,14 @@
         <v>10000</v>
       </c>
       <c r="I15">
-        <v>10000</v>
+        <f>10000*200</f>
+        <v>2000000</v>
       </c>
       <c r="J15">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="K15">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L15">
         <v>10000</v>
@@ -5576,19 +6097,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D16">
         <v>2500</v>
       </c>
       <c r="E16">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F16">
         <v>2500</v>
@@ -5600,13 +6121,13 @@
         <v>2500</v>
       </c>
       <c r="I16">
-        <v>2500</v>
+        <v>500000</v>
       </c>
       <c r="J16">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="K16">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L16">
         <v>2500</v>
@@ -5626,357 +6147,357 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C17" t="s">
+        <v>807</v>
+      </c>
+      <c r="D17" t="s">
+        <v>806</v>
+      </c>
+      <c r="E17" t="s">
+        <v>805</v>
+      </c>
+      <c r="F17" t="s">
+        <v>804</v>
+      </c>
+      <c r="G17" t="s">
+        <v>606</v>
+      </c>
+      <c r="H17" t="s">
+        <v>606</v>
+      </c>
+      <c r="I17" t="s">
+        <v>606</v>
+      </c>
+      <c r="J17" t="s">
+        <v>808</v>
+      </c>
+      <c r="K17" t="s">
+        <v>809</v>
+      </c>
+      <c r="L17" t="s">
+        <v>606</v>
+      </c>
+      <c r="M17" t="s">
+        <v>877</v>
+      </c>
+      <c r="N17" t="s">
+        <v>876</v>
+      </c>
+      <c r="O17" t="s">
+        <v>878</v>
+      </c>
+      <c r="P17" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>752</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>690</v>
       </c>
-      <c r="C17" t="s">
-        <v>597</v>
-      </c>
-      <c r="D17" t="s">
-        <v>597</v>
-      </c>
-      <c r="E17" t="s">
-        <v>597</v>
-      </c>
-      <c r="F17" t="s">
-        <v>597</v>
-      </c>
-      <c r="G17" t="s">
-        <v>597</v>
-      </c>
-      <c r="H17" t="s">
-        <v>597</v>
-      </c>
-      <c r="I17" t="s">
-        <v>597</v>
-      </c>
-      <c r="J17" t="s">
-        <v>597</v>
-      </c>
-      <c r="K17" t="s">
-        <v>597</v>
-      </c>
-      <c r="L17" t="s">
-        <v>608</v>
-      </c>
-      <c r="M17" t="s">
-        <v>597</v>
-      </c>
-      <c r="N17" t="s">
-        <v>597</v>
-      </c>
-      <c r="O17" t="s">
-        <v>597</v>
-      </c>
-      <c r="P17" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>593</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>694</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>723</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>595</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>724</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="N19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="O19" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="P19" s="43" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>596</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>696</v>
-      </c>
       <c r="C20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>685</v>
+        <v>842</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>685</v>
+        <v>843</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>685</v>
+        <v>823</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>685</v>
+        <v>844</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>685</v>
+        <v>824</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>685</v>
+        <v>845</v>
       </c>
       <c r="N21" s="43" t="s">
-        <v>685</v>
+        <v>846</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>685</v>
+        <v>846</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C22" t="s">
-        <v>600</v>
+        <v>812</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>813</v>
       </c>
       <c r="E22" t="s">
-        <v>600</v>
+        <v>814</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="G22" t="s">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="H22" t="s">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="I22" t="s">
-        <v>600</v>
+        <v>816</v>
       </c>
       <c r="J22" t="s">
-        <v>600</v>
+        <v>817</v>
       </c>
       <c r="K22" t="s">
-        <v>600</v>
+        <v>818</v>
       </c>
       <c r="L22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M22" t="s">
-        <v>600</v>
+        <v>821</v>
       </c>
       <c r="N22" t="s">
-        <v>600</v>
+        <v>819</v>
       </c>
       <c r="O22" t="s">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="P22" t="s">
-        <v>600</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>600</v>
+      </c>
+      <c r="B23" t="s">
+        <v>601</v>
+      </c>
+      <c r="C23" t="s">
+        <v>601</v>
+      </c>
+      <c r="D23" t="s">
+        <v>601</v>
+      </c>
+      <c r="E23" t="s">
+        <v>601</v>
+      </c>
+      <c r="F23" t="s">
+        <v>601</v>
+      </c>
+      <c r="G23" t="s">
+        <v>601</v>
+      </c>
+      <c r="H23" t="s">
         <v>602</v>
       </c>
-      <c r="B23" t="s">
-        <v>603</v>
-      </c>
-      <c r="C23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E23" t="s">
-        <v>603</v>
-      </c>
-      <c r="F23" t="s">
-        <v>603</v>
-      </c>
-      <c r="G23" t="s">
-        <v>603</v>
-      </c>
-      <c r="H23" t="s">
-        <v>604</v>
-      </c>
       <c r="I23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="O23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>601</v>
+      <c r="A24" s="8" t="s">
+        <v>599</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -6025,8 +6546,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>605</v>
+      <c r="A25" s="8" t="s">
+        <v>603</v>
       </c>
       <c r="B25" s="33">
         <v>63</v>
@@ -6075,8 +6596,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>727</v>
+      <c r="A26" s="8" t="s">
+        <v>720</v>
       </c>
       <c r="B26" s="33">
         <v>63</v>
@@ -6125,8 +6646,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>606</v>
+      <c r="A27" s="8" t="s">
+        <v>604</v>
       </c>
       <c r="B27">
         <v>71</v>
@@ -6175,1931 +6696,1981 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>728</v>
+      <c r="A28" s="8" t="s">
+        <v>721</v>
       </c>
       <c r="B28" s="33">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C28" s="33">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" s="33">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" s="33">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="33">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G28" s="33">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H28" s="33">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I28" s="33">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O28">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P28">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>759</v>
-      </c>
-      <c r="B29" t="s">
-        <v>761</v>
-      </c>
-      <c r="C29" t="s">
-        <v>761</v>
-      </c>
-      <c r="D29" t="s">
-        <v>761</v>
-      </c>
-      <c r="E29" t="s">
-        <v>761</v>
-      </c>
-      <c r="F29" t="s">
-        <v>761</v>
-      </c>
-      <c r="G29" t="s">
-        <v>762</v>
-      </c>
-      <c r="H29" t="s">
-        <v>760</v>
-      </c>
-      <c r="I29" t="s">
-        <v>763</v>
-      </c>
-      <c r="J29" t="s">
-        <v>760</v>
-      </c>
-      <c r="K29" t="s">
-        <v>760</v>
-      </c>
-      <c r="L29" t="s">
-        <v>760</v>
-      </c>
-      <c r="M29" t="s">
-        <v>760</v>
-      </c>
-      <c r="N29" t="s">
-        <v>760</v>
-      </c>
-      <c r="O29" t="s">
-        <v>760</v>
-      </c>
-      <c r="P29" t="s">
-        <v>760</v>
+      <c r="A29" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B29" s="33">
+        <v>118</v>
+      </c>
+      <c r="C29" s="33">
+        <v>118</v>
+      </c>
+      <c r="D29" s="33">
+        <v>118</v>
+      </c>
+      <c r="E29" s="33">
+        <v>118</v>
+      </c>
+      <c r="F29" s="33">
+        <v>118</v>
+      </c>
+      <c r="G29" s="33">
+        <v>144</v>
+      </c>
+      <c r="H29" s="33">
+        <v>144</v>
+      </c>
+      <c r="I29" s="33">
+        <v>144</v>
+      </c>
+      <c r="J29">
+        <v>145</v>
+      </c>
+      <c r="K29">
+        <v>145</v>
+      </c>
+      <c r="L29">
+        <v>145</v>
+      </c>
+      <c r="M29">
+        <v>145</v>
+      </c>
+      <c r="N29">
+        <v>145</v>
+      </c>
+      <c r="O29">
+        <v>145</v>
+      </c>
+      <c r="P29">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>744</v>
       </c>
       <c r="B30" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="C30" t="s">
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="D30" t="s">
-        <v>608</v>
+        <v>831</v>
       </c>
       <c r="E30" t="s">
-        <v>608</v>
+        <v>832</v>
       </c>
       <c r="F30" t="s">
-        <v>608</v>
+        <v>833</v>
       </c>
       <c r="G30" t="s">
-        <v>608</v>
+        <v>747</v>
       </c>
       <c r="H30" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="I30" t="s">
-        <v>608</v>
+        <v>834</v>
       </c>
       <c r="J30" t="s">
-        <v>608</v>
+        <v>835</v>
       </c>
       <c r="K30" t="s">
-        <v>608</v>
+        <v>836</v>
       </c>
       <c r="L30" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="M30" t="s">
-        <v>608</v>
+        <v>837</v>
       </c>
       <c r="N30" t="s">
-        <v>608</v>
+        <v>839</v>
       </c>
       <c r="O30" t="s">
-        <v>608</v>
+        <v>838</v>
       </c>
       <c r="P30" t="s">
-        <v>608</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>615</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>18</v>
-      </c>
-      <c r="G31">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
-      </c>
-      <c r="I31">
-        <v>18</v>
-      </c>
-      <c r="J31">
-        <v>18</v>
-      </c>
-      <c r="K31">
-        <v>18</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>18</v>
-      </c>
-      <c r="O31">
-        <v>18</v>
-      </c>
-      <c r="P31">
-        <v>18</v>
+      <c r="A31" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" t="s">
+        <v>685</v>
+      </c>
+      <c r="C31" t="s">
+        <v>807</v>
+      </c>
+      <c r="D31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E31" t="s">
+        <v>805</v>
+      </c>
+      <c r="F31" t="s">
+        <v>804</v>
+      </c>
+      <c r="G31" t="s">
+        <v>606</v>
+      </c>
+      <c r="H31" t="s">
+        <v>606</v>
+      </c>
+      <c r="I31" t="s">
+        <v>606</v>
+      </c>
+      <c r="J31" t="s">
+        <v>808</v>
+      </c>
+      <c r="K31" t="s">
+        <v>809</v>
+      </c>
+      <c r="L31" t="s">
+        <v>606</v>
+      </c>
+      <c r="M31" t="s">
+        <v>806</v>
+      </c>
+      <c r="N31" t="s">
+        <v>807</v>
+      </c>
+      <c r="O31" t="s">
+        <v>685</v>
+      </c>
+      <c r="P31" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>618</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="J32">
-        <v>8</v>
-      </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <v>8</v>
-      </c>
-      <c r="M32">
-        <v>8</v>
-      </c>
-      <c r="N32">
-        <v>8</v>
-      </c>
-      <c r="O32">
-        <v>8</v>
-      </c>
-      <c r="P32">
-        <v>8</v>
+        <v>613</v>
+      </c>
+      <c r="B32" s="36">
+        <v>5</v>
+      </c>
+      <c r="C32" s="36">
+        <v>10</v>
+      </c>
+      <c r="D32" s="36">
+        <v>5</v>
+      </c>
+      <c r="E32" s="36">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36">
+        <v>5</v>
+      </c>
+      <c r="G32" s="36">
+        <v>5</v>
+      </c>
+      <c r="H32" s="36">
+        <v>18</v>
+      </c>
+      <c r="I32" s="36">
+        <v>10</v>
+      </c>
+      <c r="J32" s="36">
+        <v>4</v>
+      </c>
+      <c r="K32" s="36">
+        <v>16</v>
+      </c>
+      <c r="L32" s="36">
+        <v>18</v>
+      </c>
+      <c r="M32" s="36">
+        <v>18</v>
+      </c>
+      <c r="N32" s="36">
+        <v>18</v>
+      </c>
+      <c r="O32" s="36">
+        <v>18</v>
+      </c>
+      <c r="P32" s="36">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>616</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>3</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4</v>
+      </c>
+      <c r="J33" s="36">
+        <v>5</v>
+      </c>
+      <c r="K33" s="6">
+        <v>12</v>
+      </c>
+      <c r="L33" s="6">
         <v>8</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>8</v>
-      </c>
-      <c r="N33">
-        <v>8</v>
-      </c>
-      <c r="O33">
-        <v>8</v>
-      </c>
-      <c r="P33">
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>3</v>
+      </c>
+      <c r="O33" s="6">
+        <v>3</v>
+      </c>
+      <c r="P33" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>617</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
+        <v>614</v>
+      </c>
+      <c r="B34" s="36">
+        <v>2</v>
+      </c>
+      <c r="C34" s="36">
+        <v>4</v>
+      </c>
+      <c r="D34" s="36">
+        <v>2</v>
+      </c>
+      <c r="E34" s="36">
+        <v>2</v>
+      </c>
+      <c r="F34" s="36">
+        <v>2</v>
+      </c>
+      <c r="G34" s="36">
+        <v>4</v>
+      </c>
+      <c r="H34" s="36">
+        <v>4</v>
+      </c>
+      <c r="I34" s="36">
+        <v>4</v>
+      </c>
+      <c r="J34" s="36">
+        <v>2</v>
+      </c>
+      <c r="K34" s="36">
+        <v>11</v>
+      </c>
+      <c r="L34" s="36">
+        <v>8</v>
+      </c>
+      <c r="M34" s="36">
+        <v>4</v>
+      </c>
+      <c r="N34" s="36">
+        <v>4</v>
+      </c>
+      <c r="O34" s="36">
+        <v>4</v>
+      </c>
+      <c r="P34" s="36">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>615</v>
+      </c>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="36">
+        <v>2</v>
+      </c>
+      <c r="D35" s="36">
+        <v>1</v>
+      </c>
+      <c r="E35" s="36">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36">
+        <v>1</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1</v>
+      </c>
+      <c r="H35" s="36">
+        <v>1</v>
+      </c>
+      <c r="I35" s="36">
+        <v>1</v>
+      </c>
+      <c r="J35" s="36">
+        <v>2</v>
+      </c>
+      <c r="K35" s="36">
+        <v>5</v>
+      </c>
+      <c r="L35" s="36">
+        <v>3</v>
+      </c>
+      <c r="M35" s="36">
+        <v>1</v>
+      </c>
+      <c r="N35" s="36">
+        <v>1</v>
+      </c>
+      <c r="O35" s="36">
+        <v>1</v>
+      </c>
+      <c r="P35" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>896</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>896</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>758</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>758</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>860</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>893</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>855</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>760</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>854</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="O41" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="P41" s="43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>761</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>884</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="M42" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="O42" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="P42" s="43" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="L35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="M35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="N35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="O35" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="P35" s="43" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>636</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="N36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="O36" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="P36" s="43" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B43" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>762</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>899</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>885</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>897</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>887</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="M45" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="N45" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="P45" s="43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>765</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B47" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="K37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="L37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="M37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="N37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="O37" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="P37" s="43" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>624</v>
-      </c>
-      <c r="B38" s="43" t="s">
+      <c r="C47" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="K38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="L38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="N38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="O38" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="P38" s="43" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>622</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>716</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="L39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="M39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="N39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="O39" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="P39" s="43" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D47" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>900</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="L40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="M40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="N40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="O40" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="P40" s="43" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>620</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="K41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="L41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="N41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="O41" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="P41" s="43" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>614</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>720</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="J42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="K42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="L42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="M42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="N42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="O42" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="P42" s="43" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>609</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>719</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="K43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="L43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="M43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="N43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="O43" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="P43" s="43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>610</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>721</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="L44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="M44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="N44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="O44" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="P44" s="43" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>623</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>717</v>
-      </c>
-      <c r="C45" s="43" t="s">
+      <c r="B48" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>767</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="L48" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="M48" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="P48" s="43" t="s">
         <v>633</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="K45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="L45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="N45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="O45" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="P45" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>613</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>722</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="K46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="L46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="M46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="N46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="O46" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="P46" s="43" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>621</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="J47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="K47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="L47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="M47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="N47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="O47" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="P47" s="43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>637</v>
-      </c>
-      <c r="B48" t="s">
-        <v>638</v>
-      </c>
-      <c r="C48" t="s">
-        <v>638</v>
-      </c>
-      <c r="D48" t="s">
-        <v>638</v>
-      </c>
-      <c r="E48" t="s">
-        <v>638</v>
-      </c>
-      <c r="F48" t="s">
-        <v>638</v>
-      </c>
-      <c r="G48" t="s">
-        <v>638</v>
-      </c>
-      <c r="H48" t="s">
-        <v>638</v>
-      </c>
-      <c r="I48" t="s">
-        <v>638</v>
-      </c>
-      <c r="J48" t="s">
-        <v>638</v>
-      </c>
-      <c r="K48" t="s">
-        <v>638</v>
-      </c>
-      <c r="L48" t="s">
-        <v>638</v>
-      </c>
-      <c r="M48" t="s">
-        <v>638</v>
-      </c>
-      <c r="N48" t="s">
-        <v>638</v>
-      </c>
-      <c r="O48" t="s">
-        <v>638</v>
-      </c>
-      <c r="P48" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>636</v>
+      </c>
+      <c r="C49" t="s">
+        <v>793</v>
+      </c>
+      <c r="D49" t="s">
+        <v>794</v>
+      </c>
+      <c r="E49" t="s">
+        <v>794</v>
+      </c>
+      <c r="F49" t="s">
+        <v>795</v>
+      </c>
+      <c r="G49" t="s">
+        <v>768</v>
+      </c>
+      <c r="H49" t="s">
+        <v>796</v>
+      </c>
+      <c r="I49" t="s">
+        <v>797</v>
+      </c>
+      <c r="J49" t="s">
+        <v>798</v>
+      </c>
+      <c r="K49" t="s">
+        <v>799</v>
+      </c>
+      <c r="L49" t="s">
+        <v>751</v>
+      </c>
+      <c r="M49" t="s">
+        <v>802</v>
+      </c>
+      <c r="N49" t="s">
+        <v>801</v>
+      </c>
+      <c r="O49" t="s">
+        <v>800</v>
+      </c>
+      <c r="P49" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="B50" t="s">
+        <v>696</v>
+      </c>
+      <c r="C50" t="s">
+        <v>641</v>
+      </c>
+      <c r="D50" t="s">
+        <v>641</v>
+      </c>
+      <c r="E50" t="s">
+        <v>641</v>
+      </c>
+      <c r="F50" t="s">
+        <v>641</v>
+      </c>
+      <c r="G50" t="s">
+        <v>769</v>
+      </c>
+      <c r="H50" t="s">
+        <v>641</v>
+      </c>
+      <c r="I50" t="s">
+        <v>641</v>
+      </c>
+      <c r="J50" t="s">
+        <v>641</v>
+      </c>
+      <c r="K50" t="s">
+        <v>641</v>
+      </c>
+      <c r="L50" t="s">
+        <v>641</v>
+      </c>
+      <c r="M50" t="s">
+        <v>641</v>
+      </c>
+      <c r="N50" t="s">
+        <v>641</v>
+      </c>
+      <c r="O50" t="s">
+        <v>641</v>
+      </c>
+      <c r="P50" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B51" t="s">
+        <v>697</v>
+      </c>
+      <c r="C51" t="s">
+        <v>640</v>
+      </c>
+      <c r="D51" t="s">
+        <v>640</v>
+      </c>
+      <c r="E51" t="s">
+        <v>640</v>
+      </c>
+      <c r="F51" t="s">
+        <v>640</v>
+      </c>
+      <c r="G51" t="s">
+        <v>770</v>
+      </c>
+      <c r="H51" t="s">
+        <v>640</v>
+      </c>
+      <c r="I51" t="s">
+        <v>640</v>
+      </c>
+      <c r="J51" t="s">
+        <v>640</v>
+      </c>
+      <c r="K51" t="s">
+        <v>640</v>
+      </c>
+      <c r="L51" t="s">
+        <v>640</v>
+      </c>
+      <c r="M51" t="s">
+        <v>640</v>
+      </c>
+      <c r="N51" t="s">
+        <v>640</v>
+      </c>
+      <c r="O51" t="s">
+        <v>640</v>
+      </c>
+      <c r="P51" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B49" t="s">
-        <v>702</v>
-      </c>
-      <c r="C49" t="s">
-        <v>643</v>
-      </c>
-      <c r="D49" t="s">
-        <v>643</v>
-      </c>
-      <c r="E49" t="s">
-        <v>643</v>
-      </c>
-      <c r="F49" t="s">
-        <v>643</v>
-      </c>
-      <c r="G49" t="s">
-        <v>643</v>
-      </c>
-      <c r="H49" t="s">
-        <v>643</v>
-      </c>
-      <c r="I49" t="s">
-        <v>643</v>
-      </c>
-      <c r="J49" t="s">
-        <v>643</v>
-      </c>
-      <c r="K49" t="s">
-        <v>643</v>
-      </c>
-      <c r="L49" t="s">
-        <v>643</v>
-      </c>
-      <c r="M49" t="s">
-        <v>643</v>
-      </c>
-      <c r="N49" t="s">
-        <v>643</v>
-      </c>
-      <c r="O49" t="s">
-        <v>643</v>
-      </c>
-      <c r="P49" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>640</v>
-      </c>
-      <c r="B50" t="s">
-        <v>703</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>698</v>
+      </c>
+      <c r="C53" t="s">
         <v>642</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>642</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E53" t="s">
         <v>642</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>642</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
+        <v>771</v>
+      </c>
+      <c r="H53" t="s">
         <v>642</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I53" t="s">
         <v>642</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J53" t="s">
         <v>642</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K53" t="s">
         <v>642</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L53" t="s">
         <v>642</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M53" t="s">
         <v>642</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N53" t="s">
         <v>642</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O53" t="s">
         <v>642</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P53" t="s">
         <v>642</v>
       </c>
-      <c r="P50" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B54" t="s">
+        <v>695</v>
+      </c>
+      <c r="C54" t="s">
+        <v>633</v>
+      </c>
+      <c r="D54" t="s">
+        <v>633</v>
+      </c>
+      <c r="E54" t="s">
+        <v>633</v>
+      </c>
+      <c r="F54" t="s">
+        <v>633</v>
+      </c>
+      <c r="G54" t="s">
+        <v>767</v>
+      </c>
+      <c r="H54" t="s">
+        <v>633</v>
+      </c>
+      <c r="I54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J54" t="s">
+        <v>633</v>
+      </c>
+      <c r="K54" t="s">
+        <v>633</v>
+      </c>
+      <c r="L54" t="s">
+        <v>633</v>
+      </c>
+      <c r="M54" t="s">
+        <v>633</v>
+      </c>
+      <c r="N54" t="s">
+        <v>633</v>
+      </c>
+      <c r="O54" t="s">
+        <v>633</v>
+      </c>
+      <c r="P54" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>699</v>
+      </c>
+      <c r="C55" t="s">
         <v>645</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>641</v>
-      </c>
-      <c r="B52" t="s">
-        <v>704</v>
-      </c>
-      <c r="C52" t="s">
-        <v>644</v>
-      </c>
-      <c r="D52" t="s">
-        <v>644</v>
-      </c>
-      <c r="E52" t="s">
-        <v>644</v>
-      </c>
-      <c r="F52" t="s">
-        <v>644</v>
-      </c>
-      <c r="G52" t="s">
-        <v>644</v>
-      </c>
-      <c r="H52" t="s">
-        <v>644</v>
-      </c>
-      <c r="I52" t="s">
-        <v>644</v>
-      </c>
-      <c r="J52" t="s">
-        <v>644</v>
-      </c>
-      <c r="K52" t="s">
-        <v>644</v>
-      </c>
-      <c r="L52" t="s">
-        <v>644</v>
-      </c>
-      <c r="M52" t="s">
-        <v>644</v>
-      </c>
-      <c r="N52" t="s">
-        <v>644</v>
-      </c>
-      <c r="O52" t="s">
-        <v>644</v>
-      </c>
-      <c r="P52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>646</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D55" t="s">
+        <v>645</v>
+      </c>
+      <c r="E55" t="s">
+        <v>645</v>
+      </c>
+      <c r="F55" t="s">
+        <v>645</v>
+      </c>
+      <c r="G55" t="s">
+        <v>645</v>
+      </c>
+      <c r="H55" t="s">
+        <v>645</v>
+      </c>
+      <c r="I55" t="s">
+        <v>645</v>
+      </c>
+      <c r="J55" t="s">
+        <v>645</v>
+      </c>
+      <c r="K55" t="s">
+        <v>645</v>
+      </c>
+      <c r="L55" t="s">
+        <v>645</v>
+      </c>
+      <c r="M55" t="s">
+        <v>645</v>
+      </c>
+      <c r="N55" t="s">
+        <v>645</v>
+      </c>
+      <c r="O55" t="s">
+        <v>645</v>
+      </c>
+      <c r="P55" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="B56" t="s">
+        <v>700</v>
+      </c>
+      <c r="C56" t="s">
+        <v>700</v>
+      </c>
+      <c r="D56" t="s">
+        <v>700</v>
+      </c>
+      <c r="E56" t="s">
+        <v>700</v>
+      </c>
+      <c r="F56" t="s">
+        <v>700</v>
+      </c>
+      <c r="G56" t="s">
+        <v>700</v>
+      </c>
+      <c r="H56" t="s">
+        <v>700</v>
+      </c>
+      <c r="I56" t="s">
+        <v>700</v>
+      </c>
+      <c r="J56" t="s">
+        <v>700</v>
+      </c>
+      <c r="K56" t="s">
+        <v>700</v>
+      </c>
+      <c r="L56" t="s">
+        <v>700</v>
+      </c>
+      <c r="M56" t="s">
+        <v>700</v>
+      </c>
+      <c r="N56" t="s">
+        <v>700</v>
+      </c>
+      <c r="O56" t="s">
+        <v>700</v>
+      </c>
+      <c r="P56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="B57" t="s">
         <v>701</v>
       </c>
-      <c r="C53" t="s">
-        <v>635</v>
-      </c>
-      <c r="D53" t="s">
-        <v>635</v>
-      </c>
-      <c r="E53" t="s">
-        <v>635</v>
-      </c>
-      <c r="F53" t="s">
-        <v>635</v>
-      </c>
-      <c r="G53" t="s">
-        <v>635</v>
-      </c>
-      <c r="H53" t="s">
-        <v>635</v>
-      </c>
-      <c r="I53" t="s">
-        <v>635</v>
-      </c>
-      <c r="J53" t="s">
-        <v>635</v>
-      </c>
-      <c r="K53" t="s">
-        <v>635</v>
-      </c>
-      <c r="L53" t="s">
-        <v>635</v>
-      </c>
-      <c r="M53" t="s">
-        <v>635</v>
-      </c>
-      <c r="N53" t="s">
-        <v>635</v>
-      </c>
-      <c r="O53" t="s">
-        <v>635</v>
-      </c>
-      <c r="P53" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>648</v>
-      </c>
-      <c r="B54" t="s">
-        <v>705</v>
-      </c>
-      <c r="C54" t="s">
-        <v>647</v>
-      </c>
-      <c r="D54" t="s">
-        <v>647</v>
-      </c>
-      <c r="E54" t="s">
-        <v>647</v>
-      </c>
-      <c r="F54" t="s">
-        <v>647</v>
-      </c>
-      <c r="G54" t="s">
-        <v>647</v>
-      </c>
-      <c r="H54" t="s">
-        <v>647</v>
-      </c>
-      <c r="I54" t="s">
-        <v>647</v>
-      </c>
-      <c r="J54" t="s">
-        <v>647</v>
-      </c>
-      <c r="K54" t="s">
-        <v>647</v>
-      </c>
-      <c r="L54" t="s">
-        <v>647</v>
-      </c>
-      <c r="M54" t="s">
-        <v>647</v>
-      </c>
-      <c r="N54" t="s">
-        <v>647</v>
-      </c>
-      <c r="O54" t="s">
-        <v>647</v>
-      </c>
-      <c r="P54" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C57" t="s">
+        <v>650</v>
+      </c>
+      <c r="D57" t="s">
+        <v>650</v>
+      </c>
+      <c r="E57" t="s">
+        <v>650</v>
+      </c>
+      <c r="F57" t="s">
+        <v>650</v>
+      </c>
+      <c r="G57" t="s">
+        <v>772</v>
+      </c>
+      <c r="H57" t="s">
+        <v>650</v>
+      </c>
+      <c r="I57" t="s">
+        <v>650</v>
+      </c>
+      <c r="J57" t="s">
+        <v>650</v>
+      </c>
+      <c r="K57" t="s">
+        <v>650</v>
+      </c>
+      <c r="L57" t="s">
+        <v>650</v>
+      </c>
+      <c r="M57" t="s">
+        <v>650</v>
+      </c>
+      <c r="N57" t="s">
+        <v>650</v>
+      </c>
+      <c r="O57" t="s">
+        <v>650</v>
+      </c>
+      <c r="P57" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="B58" t="s">
+        <v>701</v>
+      </c>
+      <c r="C58" t="s">
         <v>649</v>
       </c>
-      <c r="B55" t="s">
-        <v>706</v>
-      </c>
-      <c r="C55" t="s">
-        <v>650</v>
-      </c>
-      <c r="D55" t="s">
-        <v>650</v>
-      </c>
-      <c r="E55" t="s">
-        <v>650</v>
-      </c>
-      <c r="F55" t="s">
-        <v>650</v>
-      </c>
-      <c r="G55" t="s">
-        <v>650</v>
-      </c>
-      <c r="H55" t="s">
-        <v>650</v>
-      </c>
-      <c r="I55" t="s">
-        <v>650</v>
-      </c>
-      <c r="J55" t="s">
-        <v>650</v>
-      </c>
-      <c r="K55" t="s">
-        <v>650</v>
-      </c>
-      <c r="L55" t="s">
-        <v>706</v>
-      </c>
-      <c r="M55" t="s">
-        <v>650</v>
-      </c>
-      <c r="N55" t="s">
-        <v>650</v>
-      </c>
-      <c r="O55" t="s">
-        <v>650</v>
-      </c>
-      <c r="P55" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>651</v>
-      </c>
-      <c r="B56" t="s">
-        <v>707</v>
-      </c>
-      <c r="C56" t="s">
-        <v>653</v>
-      </c>
-      <c r="D56" t="s">
-        <v>653</v>
-      </c>
-      <c r="E56" t="s">
-        <v>653</v>
-      </c>
-      <c r="F56" t="s">
-        <v>653</v>
-      </c>
-      <c r="G56" t="s">
-        <v>653</v>
-      </c>
-      <c r="H56" t="s">
-        <v>653</v>
-      </c>
-      <c r="I56" t="s">
-        <v>653</v>
-      </c>
-      <c r="J56" t="s">
-        <v>653</v>
-      </c>
-      <c r="K56" t="s">
-        <v>653</v>
-      </c>
-      <c r="L56" t="s">
-        <v>653</v>
-      </c>
-      <c r="M56" t="s">
-        <v>653</v>
-      </c>
-      <c r="N56" t="s">
-        <v>653</v>
-      </c>
-      <c r="O56" t="s">
-        <v>653</v>
-      </c>
-      <c r="P56" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>657</v>
-      </c>
-      <c r="B57" t="s">
-        <v>707</v>
-      </c>
-      <c r="C57" t="s">
-        <v>652</v>
-      </c>
-      <c r="D57" t="s">
-        <v>652</v>
-      </c>
-      <c r="E57" t="s">
-        <v>652</v>
-      </c>
-      <c r="F57" t="s">
-        <v>652</v>
-      </c>
-      <c r="G57" t="s">
-        <v>652</v>
-      </c>
-      <c r="H57" t="s">
-        <v>652</v>
-      </c>
-      <c r="I57" t="s">
-        <v>652</v>
-      </c>
-      <c r="J57" t="s">
-        <v>652</v>
-      </c>
-      <c r="K57" t="s">
-        <v>652</v>
-      </c>
-      <c r="L57" t="s">
-        <v>652</v>
-      </c>
-      <c r="M57" t="s">
-        <v>652</v>
-      </c>
-      <c r="N57" t="s">
-        <v>652</v>
-      </c>
-      <c r="O57" t="s">
-        <v>652</v>
-      </c>
-      <c r="P57" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>664</v>
-      </c>
-      <c r="B58" t="s">
-        <v>707</v>
-      </c>
-      <c r="C58" t="s">
-        <v>665</v>
-      </c>
       <c r="D58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="E58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="G58" t="s">
-        <v>665</v>
+        <v>773</v>
       </c>
       <c r="H58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="I58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="J58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="K58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="L58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="M58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="N58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="O58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="P58" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>658</v>
+      <c r="A59" s="46" t="s">
+        <v>661</v>
       </c>
       <c r="B59" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G59" t="s">
-        <v>660</v>
+        <v>772</v>
       </c>
       <c r="H59" t="s">
-        <v>389</v>
+        <v>662</v>
       </c>
       <c r="I59" t="s">
-        <v>6</v>
+        <v>662</v>
       </c>
       <c r="J59" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K59" t="s">
         <v>662</v>
       </c>
       <c r="L59" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M59" t="s">
+        <v>662</v>
+      </c>
+      <c r="N59" t="s">
+        <v>662</v>
+      </c>
+      <c r="O59" t="s">
+        <v>662</v>
+      </c>
+      <c r="P59" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>655</v>
+      </c>
+      <c r="B60" t="s">
+        <v>702</v>
+      </c>
+      <c r="C60" t="s">
+        <v>656</v>
+      </c>
+      <c r="D60" t="s">
+        <v>656</v>
+      </c>
+      <c r="E60" t="s">
+        <v>656</v>
+      </c>
+      <c r="F60" t="s">
+        <v>656</v>
+      </c>
+      <c r="G60" t="s">
+        <v>657</v>
+      </c>
+      <c r="H60" t="s">
         <v>389</v>
       </c>
-      <c r="N59" t="s">
+      <c r="I60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>660</v>
+      </c>
+      <c r="K60" t="s">
+        <v>659</v>
+      </c>
+      <c r="L60" t="s">
+        <v>658</v>
+      </c>
+      <c r="M60" t="s">
         <v>389</v>
       </c>
-      <c r="O59" t="s">
+      <c r="N60" t="s">
         <v>389</v>
       </c>
-      <c r="P59" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="O60" t="s">
+        <v>389</v>
+      </c>
+      <c r="P60" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>665</v>
+      </c>
+      <c r="E61" t="s">
+        <v>666</v>
+      </c>
+      <c r="J61" t="s">
+        <v>664</v>
+      </c>
+      <c r="K61" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="E62" t="s">
+        <v>670</v>
+      </c>
+      <c r="J62" t="s">
+        <v>669</v>
+      </c>
+      <c r="K62" t="s">
         <v>668</v>
       </c>
-      <c r="E60" t="s">
-        <v>669</v>
-      </c>
-      <c r="J60" t="s">
-        <v>667</v>
-      </c>
-      <c r="K60" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>670</v>
-      </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>671</v>
+      </c>
+      <c r="B63" t="s">
+        <v>703</v>
+      </c>
+      <c r="C63" t="s">
         <v>673</v>
       </c>
-      <c r="J61" t="s">
+      <c r="D63" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" t="s">
+        <v>673</v>
+      </c>
+      <c r="F63" t="s">
+        <v>673</v>
+      </c>
+      <c r="G63" t="s">
+        <v>674</v>
+      </c>
+      <c r="H63" t="s">
+        <v>675</v>
+      </c>
+      <c r="I63" t="s">
+        <v>676</v>
+      </c>
+      <c r="J63" t="s">
+        <v>677</v>
+      </c>
+      <c r="K63" t="s">
+        <v>678</v>
+      </c>
+      <c r="L63" t="s">
         <v>672</v>
       </c>
-      <c r="K61" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>674</v>
-      </c>
-      <c r="B62" t="s">
-        <v>709</v>
-      </c>
-      <c r="C62" t="s">
-        <v>676</v>
-      </c>
-      <c r="D62" t="s">
-        <v>676</v>
-      </c>
-      <c r="E62" t="s">
-        <v>676</v>
-      </c>
-      <c r="F62" t="s">
-        <v>676</v>
-      </c>
-      <c r="G62" t="s">
-        <v>677</v>
-      </c>
-      <c r="H62" t="s">
-        <v>678</v>
-      </c>
-      <c r="I62" t="s">
-        <v>679</v>
-      </c>
-      <c r="J62" t="s">
-        <v>680</v>
-      </c>
-      <c r="K62" t="s">
-        <v>681</v>
-      </c>
-      <c r="L62" t="s">
-        <v>675</v>
-      </c>
-      <c r="M62" t="s">
-        <v>678</v>
-      </c>
-      <c r="N62" t="s">
-        <v>678</v>
-      </c>
-      <c r="O62" t="s">
-        <v>678</v>
-      </c>
-      <c r="P62" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>686</v>
-      </c>
-      <c r="B63" t="s">
-        <v>710</v>
-      </c>
-      <c r="C63" t="s">
-        <v>665</v>
-      </c>
-      <c r="D63" t="s">
-        <v>665</v>
-      </c>
-      <c r="E63" t="s">
-        <v>665</v>
-      </c>
-      <c r="F63" t="s">
-        <v>665</v>
-      </c>
-      <c r="G63" t="s">
-        <v>665</v>
-      </c>
-      <c r="H63" t="s">
-        <v>665</v>
-      </c>
-      <c r="I63" t="s">
-        <v>665</v>
-      </c>
-      <c r="J63" t="s">
-        <v>665</v>
-      </c>
-      <c r="K63" t="s">
-        <v>665</v>
-      </c>
-      <c r="L63" t="s">
-        <v>687</v>
-      </c>
       <c r="M63" t="s">
-        <v>665</v>
+        <v>788</v>
       </c>
       <c r="N63" t="s">
-        <v>665</v>
+        <v>790</v>
       </c>
       <c r="O63" t="s">
-        <v>665</v>
+        <v>789</v>
       </c>
       <c r="P63" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>731</v>
+      <c r="A64" s="46" t="s">
+        <v>682</v>
       </c>
       <c r="B64" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="C64" t="s">
-        <v>734</v>
+        <v>662</v>
       </c>
       <c r="D64" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="E64" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="F64" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="G64" t="s">
-        <v>736</v>
+        <v>662</v>
       </c>
       <c r="H64" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="I64" t="s">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="J64" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="K64" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="L64" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
       <c r="M64" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="N64" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="O64" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="P64" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>724</v>
+      </c>
+      <c r="B65" t="s">
+        <v>728</v>
+      </c>
+      <c r="C65" t="s">
+        <v>727</v>
+      </c>
+      <c r="D65" t="s">
+        <v>726</v>
+      </c>
+      <c r="E65" t="s">
+        <v>726</v>
+      </c>
+      <c r="F65" t="s">
+        <v>726</v>
+      </c>
+      <c r="G65" t="s">
         <v>729</v>
       </c>
-      <c r="B65" t="s">
-        <v>735</v>
-      </c>
-      <c r="C65" t="s">
-        <v>734</v>
-      </c>
-      <c r="D65" t="s">
-        <v>733</v>
-      </c>
-      <c r="E65" t="s">
-        <v>733</v>
-      </c>
-      <c r="F65" t="s">
-        <v>733</v>
-      </c>
-      <c r="G65" t="s">
-        <v>736</v>
-      </c>
       <c r="H65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="I65" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="J65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="K65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="L65" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="M65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="N65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="O65" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="P65" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="B66" t="s">
+        <v>776</v>
+      </c>
+      <c r="C66" t="s">
+        <v>727</v>
+      </c>
+      <c r="D66" t="s">
+        <v>726</v>
+      </c>
+      <c r="E66" t="s">
+        <v>726</v>
+      </c>
+      <c r="F66" t="s">
+        <v>726</v>
+      </c>
+      <c r="G66" t="s">
+        <v>729</v>
+      </c>
+      <c r="H66" t="s">
+        <v>730</v>
+      </c>
+      <c r="I66" t="s">
+        <v>731</v>
+      </c>
+      <c r="J66" t="s">
+        <v>730</v>
+      </c>
+      <c r="K66" t="s">
+        <v>730</v>
+      </c>
+      <c r="L66" t="s">
         <v>732</v>
       </c>
-      <c r="B66" t="s">
-        <v>749</v>
-      </c>
-      <c r="C66" t="s">
-        <v>750</v>
-      </c>
-      <c r="D66" t="s">
-        <v>751</v>
-      </c>
-      <c r="E66" t="s">
-        <v>751</v>
-      </c>
-      <c r="F66" t="s">
-        <v>752</v>
-      </c>
-      <c r="G66" t="s">
-        <v>754</v>
-      </c>
-      <c r="H66" t="s">
-        <v>753</v>
-      </c>
-      <c r="I66" t="s">
-        <v>740</v>
-      </c>
-      <c r="J66" t="s">
-        <v>753</v>
-      </c>
-      <c r="K66" t="s">
-        <v>753</v>
-      </c>
-      <c r="L66" t="s">
-        <v>741</v>
-      </c>
       <c r="M66" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="N66" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="O66" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="P66" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B67" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="C67" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="D67" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="E67" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="F67" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="G67" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="H67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="I67" t="s">
-        <v>740</v>
+        <v>778</v>
       </c>
       <c r="J67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="K67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="L67" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="M67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="N67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="O67" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="P67" t="s">
-        <v>741</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="B68" t="s">
+        <v>784</v>
+      </c>
+      <c r="C68" t="s">
+        <v>782</v>
+      </c>
+      <c r="D68" t="s">
+        <v>781</v>
+      </c>
+      <c r="E68" t="s">
+        <v>781</v>
+      </c>
+      <c r="F68" t="s">
+        <v>780</v>
+      </c>
+      <c r="G68" t="s">
+        <v>779</v>
+      </c>
+      <c r="H68" t="s">
+        <v>785</v>
+      </c>
+      <c r="I68" t="s">
+        <v>778</v>
+      </c>
+      <c r="J68" t="s">
+        <v>785</v>
+      </c>
+      <c r="K68" t="s">
+        <v>785</v>
+      </c>
+      <c r="L68" t="s">
+        <v>777</v>
+      </c>
+      <c r="M68" t="s">
+        <v>785</v>
+      </c>
+      <c r="N68" t="s">
+        <v>785</v>
+      </c>
+      <c r="O68" t="s">
+        <v>786</v>
+      </c>
+      <c r="P68" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1098">
   <si>
     <t>Country</t>
   </si>
@@ -1733,15 +1733,9 @@
     <t>now_100k</t>
   </si>
   <si>
-    <t>€/year</t>
-  </si>
-  <si>
     <t>$/year</t>
   </si>
   <si>
-    <t>zł/rok</t>
-  </si>
-  <si>
     <t>£/year</t>
   </si>
   <si>
@@ -1952,9 +1946,6 @@
     <t>tax_threshold</t>
   </si>
   <si>
-    <t>$430 billion</t>
-  </si>
-  <si>
     <t>U.S. GDP</t>
   </si>
   <si>
@@ -2000,72 +1991,36 @@
     <t>ics_country</t>
   </si>
   <si>
-    <t>the European Union</t>
-  </si>
-  <si>
     <t>the United Kingdom</t>
   </si>
   <si>
     <t>the United States</t>
   </si>
   <si>
-    <t>Saudia Arabia</t>
-  </si>
-  <si>
-    <t>the Russian federation</t>
-  </si>
-  <si>
     <t>country_adjective_plural</t>
   </si>
   <si>
     <t>Americans</t>
   </si>
   <si>
-    <t>(Note that we consider Saudi Arabia to be a developed country in this question.)</t>
-  </si>
-  <si>
-    <t>(Note that we consider the Russian federation NOT to be a developed country in this question.)</t>
-  </si>
-  <si>
     <t>developed_note</t>
   </si>
   <si>
-    <t>(Note that Poland is classified as a developed country.)</t>
-  </si>
-  <si>
     <t>developed_note_long</t>
   </si>
   <si>
-    <t>(As some items refer to "developed countries", note that we consider Saudi Arabia to be a developed country in this question.)</t>
-  </si>
-  <si>
-    <t>(As some items refer to "developed countries", note that we consider the Russian federation NOT to be a developed country in this question.)</t>
-  </si>
-  <si>
-    <t>(As some items refer to "developed countries", note that Poland is among the developed countries.)</t>
-  </si>
-  <si>
     <t>election</t>
   </si>
   <si>
     <t>2024 presidential election</t>
   </si>
   <si>
-    <t>2024 European Parliament election</t>
-  </si>
-  <si>
     <t>2024 UK general election</t>
   </si>
   <si>
     <t>2023 Swiss federal election</t>
   </si>
   <si>
-    <t>2024 Japanese general election</t>
-  </si>
-  <si>
-    <t>2024 Russian presidential election</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -2084,9 +2039,6 @@
     <t>Europeans</t>
   </si>
   <si>
-    <t>€/Jahr</t>
-  </si>
-  <si>
     <t xml:space="preserve"> par mois</t>
   </si>
   <si>
@@ -2123,9 +2075,6 @@
     <t>PIB Français</t>
   </si>
   <si>
-    <t>16 milliards d'euros</t>
-  </si>
-  <si>
     <t>5 millions d'euros</t>
   </si>
   <si>
@@ -2342,9 +2291,6 @@
     <t>UK GDP</t>
   </si>
   <si>
-    <t>£20 billion</t>
-  </si>
-  <si>
     <t>£5 million</t>
   </si>
   <si>
@@ -2390,12 +2336,6 @@
     <t>Imagine that some countries (such as the European Union, the United Kingdom, and Brazil) adopt this policy and others (such as the United States and China) do not.</t>
   </si>
   <si>
-    <t>Imaginez que certains pays (tels que l'Union Européenne, le Royaume-Uni, le Brésil...) adoptent cette mesure et que d'autres pays (tels que les États-Unis et la Chine) ne l'adoptent pas.</t>
-  </si>
-  <si>
-    <t>Imaginez que tous les autres pays à hauts revenus (tels que les États-Unis, l'Union Européenne, le Japon...) adoptent cette mesure et que certains pays à revenus moyens (tels que la Chine) ne l'adoptent pas.</t>
-  </si>
-  <si>
     <t>elezioni federali in Svizzera del 2023</t>
   </si>
   <si>
@@ -2507,15 +2447,6 @@
     <t>500 ريال</t>
   </si>
   <si>
-    <t>$ per year</t>
-  </si>
-  <si>
-    <t>€ par an</t>
-  </si>
-  <si>
-    <t>$ al año</t>
-  </si>
-  <si>
     <t>Japan, the UK</t>
   </si>
   <si>
@@ -2579,6 +2510,9 @@
     <t>300.000&amp;nbsp;zł</t>
   </si>
   <si>
+    <t>4 ملايين ريال</t>
+  </si>
+  <si>
     <t>300,000 ريال</t>
   </si>
   <si>
@@ -2736,6 +2670,660 @@
   </si>
   <si>
     <t>15,000万円</t>
+  </si>
+  <si>
+    <t>Wealth tax (2% above 5M, 30% evasion/depreciation): revenue (in % of GNI)</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>4 مليار ريال</t>
+  </si>
+  <si>
+    <t>6.000 millones de euros</t>
+  </si>
+  <si>
+    <t>11 miliardi di euro</t>
+  </si>
+  <si>
+    <t>47 milliards d'euros</t>
+  </si>
+  <si>
+    <t>Wealth tax (2% above 5M, 30% evasion/depreciation): revenue (in billion dollar)</t>
+  </si>
+  <si>
+    <t>42 Milliarden Euro</t>
+  </si>
+  <si>
+    <t>6 mld zł</t>
+  </si>
+  <si>
+    <t>£11 billion</t>
+  </si>
+  <si>
+    <t>CHF 14 billion</t>
+  </si>
+  <si>
+    <t>4兆円</t>
+  </si>
+  <si>
+    <t>16 مليار ريال</t>
+  </si>
+  <si>
+    <t>$514 billion</t>
+  </si>
+  <si>
+    <t>CHF 14 Billionen</t>
+  </si>
+  <si>
+    <t>14 milliards CHF</t>
+  </si>
+  <si>
+    <t>14 miliardi di CHF</t>
+  </si>
+  <si>
+    <t>LIC_revenue</t>
+  </si>
+  <si>
+    <t>4 mld zł</t>
+  </si>
+  <si>
+    <t>£1 billion</t>
+  </si>
+  <si>
+    <t>CHF 1 billion</t>
+  </si>
+  <si>
+    <t>2,000億円</t>
+  </si>
+  <si>
+    <t>100 миллиардов рублей</t>
+  </si>
+  <si>
+    <t>2000 миллиардов рублей</t>
+  </si>
+  <si>
+    <t>$1 billion</t>
+  </si>
+  <si>
+    <t>5 Millionen Euro</t>
+  </si>
+  <si>
+    <t>1 Millionen Euro</t>
+  </si>
+  <si>
+    <t>5 milioni di euro</t>
+  </si>
+  <si>
+    <t>5 milione di euro</t>
+  </si>
+  <si>
+    <t>1 Milliarde Euro</t>
+  </si>
+  <si>
+    <t>1 miliardo di euro</t>
+  </si>
+  <si>
+    <t>1.000 millones de euros</t>
+  </si>
+  <si>
+    <t>1.000 millones de dólares</t>
+  </si>
+  <si>
+    <t>5.000 millones de dólares</t>
+  </si>
+  <si>
+    <t>1 miliarde di CHF</t>
+  </si>
+  <si>
+    <t>CHF 1 Billione</t>
+  </si>
+  <si>
+    <t>1 milliard CHF</t>
+  </si>
+  <si>
+    <t>1 milliard d'euros</t>
+  </si>
+  <si>
+    <t>1 millón de euros</t>
+  </si>
+  <si>
+    <t>5 millones de euros</t>
+  </si>
+  <si>
+    <t>4 mln zł</t>
+  </si>
+  <si>
+    <t>1 Million CHF</t>
+  </si>
+  <si>
+    <t>5 Millionen CHF</t>
+  </si>
+  <si>
+    <t>1 million CHF</t>
+  </si>
+  <si>
+    <t>5 millions CHF</t>
+  </si>
+  <si>
+    <t>1 milione di CHF</t>
+  </si>
+  <si>
+    <t>5 milioni di CHF</t>
+  </si>
+  <si>
+    <t>20 mln zł</t>
+  </si>
+  <si>
+    <t>8億円</t>
+  </si>
+  <si>
+    <t>150百万円</t>
+  </si>
+  <si>
+    <t>500 миллионов рублей</t>
+  </si>
+  <si>
+    <t>100 миллионов рублей</t>
+  </si>
+  <si>
+    <t>20 ملايين ريال</t>
+  </si>
+  <si>
+    <t>Laufendes Einkommen</t>
+  </si>
+  <si>
+    <t>Einkommen nach globaler Umverteilung</t>
+  </si>
+  <si>
+    <t>Einkommen (nach Steuern und Transfers) der erwachsenen Menschen, von den Ärmsten bis zu den Reichsten</t>
+  </si>
+  <si>
+    <t>Einkommen der Menschen, von den Ärmsten bis zu den Reichsten</t>
+  </si>
+  <si>
+    <t>Teilen, wer profitiert:</t>
+  </si>
+  <si>
+    <t>Anteil der Verlierer:</t>
+  </si>
+  <si>
+    <t>Grad der Umverteilung:</t>
+  </si>
+  <si>
+    <t>German GDP</t>
+  </si>
+  <si>
+    <t>Spanish GDP</t>
+  </si>
+  <si>
+    <t>Swiss GDP</t>
+  </si>
+  <si>
+    <t>Swiss people</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>Nettogewinn pro Erwachsenem\ninfolge des\nglobalen Klimaprogramms\nim Jahr 2030\n(in % des BIP)</t>
+  </si>
+  <si>
+    <t>Nicht-Teilnehmer</t>
+  </si>
+  <si>
+    <t>Deutsche</t>
+  </si>
+  <si>
+    <t>die Europäische Union</t>
+  </si>
+  <si>
+    <t>2024 Wahl zum Europäischen Parlament</t>
+  </si>
+  <si>
+    <t>Amerikaner</t>
+  </si>
+  <si>
+    <t>Stellen Sie sich vor, dass alle anderen Länder mit hohem Einkommen (wie die Vereinigten Staaten, Japan, Frankreich, Italien, das Vereinigte Königreich usw.) diese Politik verfolgen, während einige Länder mit mittlerem Einkommen (wie China) dies nicht tun.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sich vor, einige Länder (wie Frankreich, Spanien, das Vereinigte Königreich, Brasilien...) verfolgen diese Politik, andere (wie die Vereinigten Staaten und China) nicht.</t>
+  </si>
+  <si>
+    <t>Immaginate che alcuni Paesi (come Germania, Francia, Spagna, Regno Unito, Brasile...) adottino questa politica e altri (come Stati Uniti e Cina) no.</t>
+  </si>
+  <si>
+    <t>Immaginiamo che tutti gli altri Paesi ad alto reddito (come Stati Uniti, Giappone, Germania, Francia, Regno Unito...) adottino questa politica e che alcuni Paesi a medio reddito (come la Cina) non la adottino.</t>
+  </si>
+  <si>
+    <t>Americani</t>
+  </si>
+  <si>
+    <t>elezioni del Parlamento europeo del 2024</t>
+  </si>
+  <si>
+    <t>l'Unione Europea</t>
+  </si>
+  <si>
+    <t>Italiani</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Popolazione italiana</t>
+  </si>
+  <si>
+    <t>Non partecipante</t>
+  </si>
+  <si>
+    <t>Guadagno netto per adulto\na seguito del\nProgramma climatico globale\nnel 2030\n(in % del PIL)</t>
+  </si>
+  <si>
+    <t>PIL italiano</t>
+  </si>
+  <si>
+    <t>Grado di ridistribuzione:</t>
+  </si>
+  <si>
+    <t>Condividi chi perde:</t>
+  </si>
+  <si>
+    <t>Condividi chi ne beneficia:</t>
+  </si>
+  <si>
+    <t>Reddito degli esseri umani, dai più poveri ai più ricchi</t>
+  </si>
+  <si>
+    <t>Reddito (al netto di tasse e trasferimenti) degli adulti umani, dai più poveri ai più ricchi</t>
+  </si>
+  <si>
+    <t>Reddito dopo la redistribuzione globale</t>
+  </si>
+  <si>
+    <t>Reddito corrente</t>
+  </si>
+  <si>
+    <t>Dochód bieżący</t>
+  </si>
+  <si>
+    <t>Dochód po globalnej redystrybucji</t>
+  </si>
+  <si>
+    <t>Dochód (po opodatkowaniu i transferach) dorosłych ludzi, od najbiedniejszych do najbogatszych</t>
+  </si>
+  <si>
+    <t>Dochody ludzi, od najbiedniejszych do najbogatszych</t>
+  </si>
+  <si>
+    <t>Udostępnij, kto straci:</t>
+  </si>
+  <si>
+    <t>Udostępnij, kto korzysta:</t>
+  </si>
+  <si>
+    <t>Stopień redystrybucji:</t>
+  </si>
+  <si>
+    <t>W Polsce</t>
+  </si>
+  <si>
+    <t>Polski PKB</t>
+  </si>
+  <si>
+    <t>Zysk netto na osobę\ndorosłą wynikający z\nglobalnego programu klimatycznego\nw 2030 r.\n(w % PKB)</t>
+  </si>
+  <si>
+    <t>Nieuczestniczący</t>
+  </si>
+  <si>
+    <t>Polacy</t>
+  </si>
+  <si>
+    <t>Polski</t>
+  </si>
+  <si>
+    <t>Unia Europejska</t>
+  </si>
+  <si>
+    <t>(Należy zauważyć, że Polska jest klasyfikowana jako kraj rozwinięty).</t>
+  </si>
+  <si>
+    <t>(Ponieważ niektóre pozycje odnoszą się do „krajów rozwiniętych”, należy zauważyć, że Polska należy do krajów rozwiniętych).</t>
+  </si>
+  <si>
+    <t>wybory do Parlamentu Europejskiego w 2024 r.</t>
+  </si>
+  <si>
+    <t>Amerykanie</t>
+  </si>
+  <si>
+    <t>Wyobraźmy sobie, że wszystkie inne kraje o wysokich dochodach (takie jak Stany Zjednoczone, Japonia, Niemcy, Francja, Wielka Brytania...) przyjmują tę politykę, a niektóre kraje o średnich dochodach (takie jak Chiny) nie.</t>
+  </si>
+  <si>
+    <t>Wyobraźmy sobie, że niektóre kraje (takie jak Niemcy, Francja, Hiszpania, Wielka Brytania, Brazylia...) przyjmują tę politykę, a inne (takie jak Stany Zjednoczone i Chiny) nie.</t>
+  </si>
+  <si>
+    <t>Imaginemos que algunos países (como Alemania, Francia, Reino Unido, Brasil...) adoptan esta política y otros (como Estados Unidos y China) no.</t>
+  </si>
+  <si>
+    <t>Imaginemos que todos los demás países de renta alta (como Estados Unidos, Japón, Alemania, Francia, Reino Unido...) adoptan esta política y algunos países de renta media (como China) no.</t>
+  </si>
+  <si>
+    <t>Estadounidenses</t>
+  </si>
+  <si>
+    <t>elecciones al Parlamento Europeo de 2024</t>
+  </si>
+  <si>
+    <t>la Unión Europea</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Españoles</t>
+  </si>
+  <si>
+    <t>No participante</t>
+  </si>
+  <si>
+    <t>Ganancia neta por adulto\nsegún el\nEsquema Climático Global\nen 2030\n(en % del PIB)</t>
+  </si>
+  <si>
+    <t>Grado de redistribución:</t>
+  </si>
+  <si>
+    <t>Compartir quién pierde:</t>
+  </si>
+  <si>
+    <t>Comparte quién se beneficia:</t>
+  </si>
+  <si>
+    <t>Renta de los seres humanos, del más pobre al más rico</t>
+  </si>
+  <si>
+    <t>Renta (después de impuestos y transferencias) de las personas adultas, de las más pobres a las más ricas</t>
+  </si>
+  <si>
+    <t>Ingresos tras la redistribución global</t>
+  </si>
+  <si>
+    <t>Ingresos corrientes</t>
+  </si>
+  <si>
+    <t>経常利益</t>
+  </si>
+  <si>
+    <t>世界再分配後の所得</t>
+  </si>
+  <si>
+    <t>成人の所得（税引き後および移転後）（最貧困層から最富裕層まで</t>
+  </si>
+  <si>
+    <t>人類の所得（最貧困層から富裕層まで</t>
+  </si>
+  <si>
+    <t>誰が得をするのかを共有する：</t>
+  </si>
+  <si>
+    <t>負けを分かち合う：</t>
+  </si>
+  <si>
+    <t>再配分の程度：</t>
+  </si>
+  <si>
+    <t>日本のGDP</t>
+  </si>
+  <si>
+    <t>成人1人当たりの純利益\nグローバル気候スキーム\n地球温暖化防止計画\n2030年\n(単位：GDP比）</t>
+  </si>
+  <si>
+    <t>不参加</t>
+  </si>
+  <si>
+    <t>日本人</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>2024年総選挙</t>
+  </si>
+  <si>
+    <t>アメリカ人</t>
+  </si>
+  <si>
+    <t>他のすべての高所得国（米国、EU、韓国など）がこの政策を採用し、一部の中所得国（中国など）が採用しないとする。</t>
+  </si>
+  <si>
+    <t>この政策を採用する国（EU、ブラジル、韓国など）と採用しない国（米国、中国など）があるとしよう。</t>
+  </si>
+  <si>
+    <t>Представьте себе, что некоторые страны (например, Европейский союз, Великобритания и Бразилия) принимают эту политику, а другие (например, США и Китай) - нет.</t>
+  </si>
+  <si>
+    <t>Представьте себе, что все остальные страны с высоким уровнем дохода (такие как США, Европейский союз, Япония...) принимают эту политику, а некоторые страны со средним уровнем дохода (например, Китай) - нет.</t>
+  </si>
+  <si>
+    <t>Американцы</t>
+  </si>
+  <si>
+    <t>Выборы президента России 2024 года</t>
+  </si>
+  <si>
+    <t>(Поскольку в некоторых пунктах упоминаются «развитые страны», обратите внимание, что в данном вопросе мы не считаем Российскую Федерацию развитой страной).</t>
+  </si>
+  <si>
+    <t>(Обратите внимание, что в данном вопросе мы не считаем Российскую Федерацию развитой страной).</t>
+  </si>
+  <si>
+    <t>российская федерация</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Русский народ</t>
+  </si>
+  <si>
+    <t>Не участник</t>
+  </si>
+  <si>
+    <t>Чистая прибыль\nна одного взрослого человека\nпосле реализации\nГлобальной климатической схемы\nв 2030 году\n(в % от ВВП)</t>
+  </si>
+  <si>
+    <t>ВВП России</t>
+  </si>
+  <si>
+    <t>Степень перераспределения:</t>
+  </si>
+  <si>
+    <t>Делитесь, кому выгодно:</t>
+  </si>
+  <si>
+    <t>Делитесь, кто проиграл:</t>
+  </si>
+  <si>
+    <t>Доход людей, от самых бедных до самых богатых</t>
+  </si>
+  <si>
+    <t>Доход (после уплаты налогов и трансфертов) взрослых людей, от самых бедных до самых богатых</t>
+  </si>
+  <si>
+    <t>Доход после глобального перераспределения</t>
+  </si>
+  <si>
+    <t>Текущие доходы</t>
+  </si>
+  <si>
+    <t>CHF/year</t>
+  </si>
+  <si>
+    <t>الدخل الحالي</t>
+  </si>
+  <si>
+    <t>الدخل بعد إعادة التوزيع العالمي</t>
+  </si>
+  <si>
+    <t>الدخل (بعد الضرائب والتحويلات) للبالغين من البشر، من الأفقر إلى الأغنى</t>
+  </si>
+  <si>
+    <t>دخل البشر، من الأفقر إلى الأغنى</t>
+  </si>
+  <si>
+    <t>شارك من يستفيد:</t>
+  </si>
+  <si>
+    <t>شارك من يخسر</t>
+  </si>
+  <si>
+    <t>درجة إعادة التوزيع:</t>
+  </si>
+  <si>
+    <t>الناتج المحلي الإجمالي السعودي</t>
+  </si>
+  <si>
+    <t>صافي المكاسب لكل شخص بالغn\بعدمخطط المناخ العالميn\في عام 2030 n\(بالنسبة المئوية من الناتج المحلي الإجمالي)</t>
+  </si>
+  <si>
+    <t>غير مشارك</t>
+  </si>
+  <si>
+    <t>الشعب السعودي</t>
+  </si>
+  <si>
+    <t>السعوديون</t>
+  </si>
+  <si>
+    <t>(لاحظ أننا نعتبر المملكة العربية السعودية دولة متقدمة في هذا السؤال).</t>
+  </si>
+  <si>
+    <t>(بما أن بعض البنود تشير إلى ”الدول المتقدمة“، لاحظ أننا نعتبر المملكة العربية السعودية دولة متقدمة في هذا السؤال).</t>
+  </si>
+  <si>
+    <t>الأمريكيون</t>
+  </si>
+  <si>
+    <t>تخيّل أن جميع الدول الأخرى ذات الدخل المرتفع (مثل الولايات المتحدة والاتحاد الأوروبي واليابان...) تتبنى هذه السياسة وبعض الدول ذات الدخل المتوسط (مثل الصين) لا تتبناها.</t>
+  </si>
+  <si>
+    <t>تخيّل أن بعض الدول (مثل الاتحاد الأوروبي والمملكة المتحدة والبرازيل) تتبنى هذه السياسة والبعض الآخر (مثل الولايات المتحدة والصين) لا يتبناها.</t>
+  </si>
+  <si>
+    <t>Immaginiamo che alcuni Paesi (come l'Unione Europea, il Regno Unito e il Brasile) adottino questa politica e altri (come gli Stati Uniti e la Cina) no.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sich vor, dass einige Länder (wie die Europäische Union, das Vereinigte Königreich und Brasilien) diese Politik verfolgen und andere (wie die Vereinigten Staaten und China) nicht.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sich vor, dass alle anderen Länder mit hohem Einkommen (wie die Vereinigten Staaten, die Europäische Union, Japan usw.) diese Politik verfolgen, während einige Länder mit mittlerem Einkommen (wie China) dies nicht tun.</t>
+  </si>
+  <si>
+    <t>Imaginez que certains pays (comme l'Union européenne, le Royaume-Uni et le Brésil) adoptent cette politique et que d'autres (comme les États-Unis et la Chine) ne le fassent pas.</t>
+  </si>
+  <si>
+    <t>Imaginez que tous les autres pays à revenu élevé (tels que les États-Unis, l'Union européenne, le Japon...) adoptent cette politique et que certains pays à revenu moyen (tels que la Chine) ne le fassent pas.</t>
+  </si>
+  <si>
+    <t>Immaginiamo che tutti gli altri Paesi ad alto reddito (come gli Stati Uniti, l'Unione Europea, il Giappone...) adottino questa politica e che alcuni Paesi a medio reddito (come la Cina) non lo facciano.</t>
+  </si>
+  <si>
+    <t>Gli svizzeri</t>
+  </si>
+  <si>
+    <t>Schweizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweizer </t>
+  </si>
+  <si>
+    <t>les Suisses</t>
+  </si>
+  <si>
+    <t>suisse</t>
+  </si>
+  <si>
+    <t>suisses</t>
+  </si>
+  <si>
+    <t>Schweizer BIP</t>
+  </si>
+  <si>
+    <t>PIL svizzero</t>
+  </si>
+  <si>
+    <t>PIB suisse</t>
+  </si>
+  <si>
+    <t>Los estadounidenses</t>
+  </si>
+  <si>
+    <t>Estadounidense</t>
+  </si>
+  <si>
+    <t>los Estados Unidos</t>
+  </si>
+  <si>
+    <t>las elecciones presidenciales de 2024</t>
+  </si>
+  <si>
+    <t>Europeos</t>
+  </si>
+  <si>
+    <t>Imaginemos que todos los demás países de renta alta (como la Unión Europea, Japón, Canadá...) adoptan esta política y algunos países de renta media (como China) no.</t>
+  </si>
+  <si>
+    <t>Imaginemos que algunos países (como la Unión Europea, el Reino Unido y Brasil) adoptan esta política y otros (como Japón, Canadá y China) no.</t>
+  </si>
+  <si>
+    <t>€/mois</t>
+  </si>
+  <si>
+    <t>€/Monat</t>
+  </si>
+  <si>
+    <t>€/mese</t>
+  </si>
+  <si>
+    <t>€/miesiąc</t>
+  </si>
+  <si>
+    <t>€/mes</t>
+  </si>
+  <si>
+    <t>ريال شهرياً</t>
+  </si>
+  <si>
+    <t>руб./месяц</t>
+  </si>
+  <si>
+    <t>円／年</t>
+  </si>
+  <si>
+    <t>CHF/an</t>
+  </si>
+  <si>
+    <t>CHF/Jahr</t>
+  </si>
+  <si>
+    <t>CHF/anno</t>
+  </si>
+  <si>
+    <t>$/año</t>
+  </si>
+  <si>
+    <t>period</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +3469,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2940,7 +3528,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -3227,7 +3814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,40 +4059,40 @@
         <v>395</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3825,13 +4412,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -3839,7 +4426,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -4067,7 +4654,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="37" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>74</v>
@@ -4187,7 +4774,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4199,16 +4786,16 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="L23" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="B24" s="33">
         <v>0.97</v>
@@ -4247,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4256,69 +4843,120 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="B25" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="C25" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="D25" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="E25" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="F25" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="G25" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="H25" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="I25" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="J25" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="K25" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="L25" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>889</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="C26" s="2">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>514</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>880</v>
+      </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="2"/>
+      <c r="C27" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="20">
+        <v>1</v>
+      </c>
+      <c r="L27" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="20">
+        <v>1.9</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -5321,11 +5959,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,1254 +5988,1254 @@
         <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>410</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>50000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-      <c r="H2">
-        <v>10000</v>
-      </c>
-      <c r="I2">
-        <v>1500000</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
-      <c r="K2">
-        <v>50000</v>
-      </c>
-      <c r="L2">
-        <v>10000</v>
-      </c>
-      <c r="M2">
-        <v>10000</v>
-      </c>
-      <c r="N2">
-        <v>10000</v>
-      </c>
-      <c r="O2">
-        <v>10000</v>
-      </c>
-      <c r="P2">
-        <v>10000</v>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B3">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="F3">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="J3">
-        <v>4000000</v>
+        <v>100000</v>
       </c>
       <c r="K3">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="L3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="M3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="N3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="P3">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="C4">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="D4">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="E4">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="F4">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="G4">
+        <v>30000</v>
+      </c>
+      <c r="H4">
         <v>50000</v>
       </c>
-      <c r="H4">
-        <v>70000</v>
-      </c>
       <c r="I4">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J4">
-        <v>6000000</v>
+        <v>300000</v>
       </c>
       <c r="K4">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="L4">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="M4">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="N4">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="O4">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="P4">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E5">
+        <v>20000</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5">
+        <v>50000</v>
+      </c>
+      <c r="H5">
+        <v>70000</v>
+      </c>
+      <c r="I5">
+        <v>10000000</v>
+      </c>
+      <c r="J5">
         <v>500000</v>
       </c>
-      <c r="F5">
-        <v>100000</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
-      <c r="H5">
-        <v>100000</v>
-      </c>
-      <c r="I5">
-        <v>15000000</v>
-      </c>
-      <c r="J5">
-        <v>10000000</v>
-      </c>
       <c r="K5">
-        <v>500000</v>
+        <v>20000</v>
       </c>
       <c r="L5">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="M5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="N5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="O5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="P5">
-        <v>100000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>50000</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>100000</v>
+      </c>
+      <c r="H6">
+        <v>100000</v>
+      </c>
+      <c r="I6">
+        <v>15000000</v>
+      </c>
+      <c r="J6">
+        <v>1000000</v>
+      </c>
+      <c r="K6">
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <v>100000</v>
+      </c>
+      <c r="M6">
+        <v>100000</v>
+      </c>
+      <c r="N6">
+        <v>100000</v>
+      </c>
+      <c r="O6">
+        <v>100000</v>
+      </c>
+      <c r="P6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>563</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>1/Figures!C24</f>
         <v>1.0309278350515465</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>1/Figures!D24</f>
         <v>1.0309278350515465</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>1/Figures!E24</f>
         <v>1.0309278350515465</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f>1/Figures!F24</f>
         <v>0.24096385542168672</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f>1/Figures!G24</f>
         <v>1.0309278350515465</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f>1/Figures!H24</f>
         <v>1.2360939431396785</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f>1/Figures!I24</f>
         <v>1.0964912280701753</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <f>1/Figures!J24</f>
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f>1/Figures!K24</f>
         <v>9.5238095238095247E-3</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <f>1/Figures!L24</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <f>1/Figures!M24</f>
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <f>1/Figures!I24</f>
         <v>1.0964912280701753</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f>1/Figures!I24</f>
         <v>1.0964912280701753</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <f>1/Figures!I24</f>
         <v>1.0964912280701753</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G8" t="s">
+        <v>568</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
+        <v>936</v>
+      </c>
+      <c r="D9" t="s">
+        <v>973</v>
+      </c>
+      <c r="E9" t="s">
+        <v>974</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G9" t="s">
+        <v>577</v>
+      </c>
+      <c r="H9" t="s">
+        <v>577</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L9" t="s">
+        <v>577</v>
+      </c>
+      <c r="M9" t="s">
+        <v>670</v>
+      </c>
+      <c r="N9" t="s">
+        <v>936</v>
+      </c>
+      <c r="O9" t="s">
+        <v>973</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B7" t="s">
-        <v>826</v>
-      </c>
-      <c r="C7" t="s">
-        <v>684</v>
-      </c>
-      <c r="D7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>937</v>
+      </c>
+      <c r="D10" t="s">
+        <v>972</v>
+      </c>
+      <c r="E10" t="s">
+        <v>975</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G10" t="s">
         <v>569</v>
       </c>
-      <c r="F7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G7" t="s">
-        <v>570</v>
-      </c>
-      <c r="H7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I7" t="s">
-        <v>567</v>
-      </c>
-      <c r="J7" t="s">
-        <v>567</v>
-      </c>
-      <c r="K7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L7" t="s">
-        <v>825</v>
-      </c>
-      <c r="M7" t="s">
-        <v>568</v>
-      </c>
-      <c r="N7" t="s">
-        <v>568</v>
-      </c>
-      <c r="O7" t="s">
-        <v>568</v>
-      </c>
-      <c r="P7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="H10" t="s">
+        <v>569</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L10" t="s">
+        <v>569</v>
+      </c>
+      <c r="M10" t="s">
+        <v>671</v>
+      </c>
+      <c r="N10" t="s">
+        <v>937</v>
+      </c>
+      <c r="O10" t="s">
+        <v>972</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C11" t="s">
+        <v>938</v>
+      </c>
+      <c r="D11" t="s">
+        <v>971</v>
+      </c>
+      <c r="E11" t="s">
+        <v>976</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H11" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L11" t="s">
+        <v>733</v>
+      </c>
+      <c r="M11" t="s">
+        <v>756</v>
+      </c>
+      <c r="N11" t="s">
+        <v>938</v>
+      </c>
+      <c r="O11" t="s">
+        <v>971</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" t="s">
+        <v>939</v>
+      </c>
+      <c r="D12" t="s">
+        <v>970</v>
+      </c>
+      <c r="E12" t="s">
+        <v>977</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G12" t="s">
+        <v>726</v>
+      </c>
+      <c r="H12" t="s">
+        <v>726</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L12" t="s">
+        <v>726</v>
+      </c>
+      <c r="M12" t="s">
+        <v>725</v>
+      </c>
+      <c r="N12" t="s">
+        <v>939</v>
+      </c>
+      <c r="O12" t="s">
+        <v>970</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" t="s">
+        <v>940</v>
+      </c>
+      <c r="D13" t="s">
+        <v>969</v>
+      </c>
+      <c r="E13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G13" t="s">
         <v>579</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H13" t="s">
         <v>579</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L13" t="s">
         <v>579</v>
       </c>
-      <c r="F8" t="s">
-        <v>579</v>
-      </c>
-      <c r="G8" t="s">
-        <v>579</v>
-      </c>
-      <c r="H8" t="s">
-        <v>579</v>
-      </c>
-      <c r="I8" t="s">
-        <v>579</v>
-      </c>
-      <c r="J8" t="s">
-        <v>579</v>
-      </c>
-      <c r="K8" t="s">
-        <v>579</v>
-      </c>
-      <c r="L8" t="s">
-        <v>579</v>
-      </c>
-      <c r="M8" t="s">
-        <v>579</v>
-      </c>
-      <c r="N8" t="s">
-        <v>579</v>
-      </c>
-      <c r="O8" t="s">
-        <v>579</v>
-      </c>
-      <c r="P8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="B9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D9" t="s">
-        <v>571</v>
-      </c>
-      <c r="E9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F9" t="s">
-        <v>571</v>
-      </c>
-      <c r="G9" t="s">
-        <v>571</v>
-      </c>
-      <c r="H9" t="s">
-        <v>571</v>
-      </c>
-      <c r="I9" t="s">
-        <v>571</v>
-      </c>
-      <c r="J9" t="s">
-        <v>571</v>
-      </c>
-      <c r="K9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L9" t="s">
-        <v>571</v>
-      </c>
-      <c r="M9" t="s">
-        <v>571</v>
-      </c>
-      <c r="N9" t="s">
-        <v>571</v>
-      </c>
-      <c r="O9" t="s">
-        <v>571</v>
-      </c>
-      <c r="P9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="M13" t="s">
+        <v>676</v>
+      </c>
+      <c r="N13" t="s">
+        <v>940</v>
+      </c>
+      <c r="O13" t="s">
+        <v>969</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B10" t="s">
-        <v>774</v>
-      </c>
-      <c r="C10" t="s">
-        <v>750</v>
-      </c>
-      <c r="D10" t="s">
-        <v>750</v>
-      </c>
-      <c r="E10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F10" t="s">
-        <v>750</v>
-      </c>
-      <c r="G10" t="s">
-        <v>750</v>
-      </c>
-      <c r="H10" t="s">
-        <v>750</v>
-      </c>
-      <c r="I10" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" t="s">
-        <v>750</v>
-      </c>
-      <c r="K10" t="s">
-        <v>750</v>
-      </c>
-      <c r="L10" t="s">
-        <v>750</v>
-      </c>
-      <c r="M10" t="s">
-        <v>750</v>
-      </c>
-      <c r="N10" t="s">
-        <v>750</v>
-      </c>
-      <c r="O10" t="s">
-        <v>750</v>
-      </c>
-      <c r="P10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="B11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C11" t="s">
-        <v>743</v>
-      </c>
-      <c r="D11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F11" t="s">
-        <v>743</v>
-      </c>
-      <c r="G11" t="s">
-        <v>743</v>
-      </c>
-      <c r="H11" t="s">
-        <v>743</v>
-      </c>
-      <c r="I11" t="s">
-        <v>743</v>
-      </c>
-      <c r="J11" t="s">
-        <v>743</v>
-      </c>
-      <c r="K11" t="s">
-        <v>743</v>
-      </c>
-      <c r="L11" t="s">
-        <v>743</v>
-      </c>
-      <c r="M11" t="s">
-        <v>743</v>
-      </c>
-      <c r="N11" t="s">
-        <v>743</v>
-      </c>
-      <c r="O11" t="s">
-        <v>743</v>
-      </c>
-      <c r="P11" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="B14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" t="s">
+        <v>941</v>
+      </c>
+      <c r="D14" t="s">
+        <v>968</v>
+      </c>
+      <c r="E14" t="s">
+        <v>978</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>578</v>
+      </c>
+      <c r="H14" t="s">
+        <v>578</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L14" t="s">
+        <v>578</v>
+      </c>
+      <c r="M14" t="s">
+        <v>677</v>
+      </c>
+      <c r="N14" t="s">
+        <v>941</v>
+      </c>
+      <c r="O14" t="s">
+        <v>968</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" t="s">
+        <v>942</v>
+      </c>
+      <c r="D15" t="s">
+        <v>967</v>
+      </c>
+      <c r="E15" t="s">
+        <v>980</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>580</v>
+      </c>
+      <c r="H15" t="s">
+        <v>580</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L15" t="s">
+        <v>580</v>
+      </c>
+      <c r="M15" t="s">
+        <v>678</v>
+      </c>
+      <c r="N15" t="s">
+        <v>942</v>
+      </c>
+      <c r="O15" t="s">
+        <v>967</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>581</v>
       </c>
-      <c r="D12" t="s">
-        <v>581</v>
-      </c>
-      <c r="E12" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" t="s">
-        <v>581</v>
-      </c>
-      <c r="G12" t="s">
-        <v>581</v>
-      </c>
-      <c r="H12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I12" t="s">
-        <v>581</v>
-      </c>
-      <c r="J12" t="s">
-        <v>581</v>
-      </c>
-      <c r="K12" t="s">
-        <v>581</v>
-      </c>
-      <c r="L12" t="s">
-        <v>581</v>
-      </c>
-      <c r="M12" t="s">
-        <v>581</v>
-      </c>
-      <c r="N12" t="s">
-        <v>581</v>
-      </c>
-      <c r="O12" t="s">
-        <v>581</v>
-      </c>
-      <c r="P12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="B13" t="s">
-        <v>693</v>
-      </c>
-      <c r="C13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E13" t="s">
-        <v>580</v>
-      </c>
-      <c r="F13" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" t="s">
-        <v>580</v>
-      </c>
-      <c r="H13" t="s">
-        <v>580</v>
-      </c>
-      <c r="I13" t="s">
-        <v>580</v>
-      </c>
-      <c r="J13" t="s">
-        <v>580</v>
-      </c>
-      <c r="K13" t="s">
-        <v>580</v>
-      </c>
-      <c r="L13" t="s">
-        <v>580</v>
-      </c>
-      <c r="M13" t="s">
-        <v>580</v>
-      </c>
-      <c r="N13" t="s">
-        <v>580</v>
-      </c>
-      <c r="O13" t="s">
-        <v>580</v>
-      </c>
-      <c r="P13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>694</v>
-      </c>
-      <c r="C14" t="s">
-        <v>582</v>
-      </c>
-      <c r="D14" t="s">
-        <v>582</v>
-      </c>
-      <c r="E14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F14" t="s">
-        <v>582</v>
-      </c>
-      <c r="G14" t="s">
-        <v>582</v>
-      </c>
-      <c r="H14" t="s">
-        <v>582</v>
-      </c>
-      <c r="I14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J14" t="s">
-        <v>582</v>
-      </c>
-      <c r="K14" t="s">
-        <v>582</v>
-      </c>
-      <c r="L14" t="s">
-        <v>582</v>
-      </c>
-      <c r="M14" t="s">
-        <v>582</v>
-      </c>
-      <c r="N14" t="s">
-        <v>582</v>
-      </c>
-      <c r="O14" t="s">
-        <v>582</v>
-      </c>
-      <c r="P14" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B15">
+      <c r="B16">
         <v>10000</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>10000</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>10000</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>50000</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>10000</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>10000</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>10000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f>10000*200</f>
         <v>2000000</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1000000</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>50000</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>10000</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>10000</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>10000</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>10000</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>584</v>
-      </c>
-      <c r="B16">
-        <v>2500</v>
-      </c>
-      <c r="C16">
-        <v>2500</v>
-      </c>
-      <c r="D16">
-        <v>2500</v>
-      </c>
-      <c r="E16">
-        <v>10000</v>
-      </c>
-      <c r="F16">
-        <v>2500</v>
-      </c>
-      <c r="G16">
-        <v>2500</v>
-      </c>
-      <c r="H16">
-        <v>2500</v>
-      </c>
-      <c r="I16">
-        <v>500000</v>
-      </c>
-      <c r="J16">
-        <v>250000</v>
-      </c>
-      <c r="K16">
-        <v>10000</v>
-      </c>
-      <c r="L16">
-        <v>2500</v>
-      </c>
-      <c r="M16">
-        <v>2500</v>
-      </c>
-      <c r="N16">
-        <v>2500</v>
-      </c>
-      <c r="O16">
-        <v>2500</v>
-      </c>
-      <c r="P16">
-        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B17">
+        <v>2500</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <v>2500</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <v>2500</v>
+      </c>
+      <c r="G17">
+        <v>2500</v>
+      </c>
+      <c r="H17">
+        <v>2500</v>
+      </c>
+      <c r="I17">
+        <v>500000</v>
+      </c>
+      <c r="J17">
+        <v>250000</v>
+      </c>
+      <c r="K17">
+        <v>10000</v>
+      </c>
+      <c r="L17">
+        <v>2500</v>
+      </c>
+      <c r="M17">
+        <v>2500</v>
+      </c>
+      <c r="N17">
+        <v>2500</v>
+      </c>
+      <c r="O17">
+        <v>2500</v>
+      </c>
+      <c r="P17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" t="s">
+        <v>787</v>
+      </c>
+      <c r="D18" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" t="s">
+        <v>785</v>
+      </c>
+      <c r="F18" t="s">
+        <v>784</v>
+      </c>
+      <c r="G18" t="s">
+        <v>604</v>
+      </c>
+      <c r="H18" t="s">
+        <v>604</v>
+      </c>
+      <c r="I18" t="s">
+        <v>604</v>
+      </c>
+      <c r="J18" t="s">
+        <v>788</v>
+      </c>
+      <c r="K18" t="s">
+        <v>789</v>
+      </c>
+      <c r="L18" t="s">
+        <v>604</v>
+      </c>
+      <c r="M18" t="s">
+        <v>856</v>
+      </c>
+      <c r="N18" t="s">
+        <v>854</v>
+      </c>
+      <c r="O18" t="s">
+        <v>855</v>
+      </c>
+      <c r="P18" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>699</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>673</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>736</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B17" t="s">
-        <v>685</v>
-      </c>
-      <c r="C17" t="s">
-        <v>807</v>
-      </c>
-      <c r="D17" t="s">
-        <v>806</v>
-      </c>
-      <c r="E17" t="s">
-        <v>805</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B21" s="43" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>819</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="K22" s="43" t="s">
         <v>804</v>
       </c>
-      <c r="G17" t="s">
-        <v>606</v>
-      </c>
-      <c r="H17" t="s">
-        <v>606</v>
-      </c>
-      <c r="I17" t="s">
-        <v>606</v>
-      </c>
-      <c r="J17" t="s">
-        <v>808</v>
-      </c>
-      <c r="K17" t="s">
-        <v>809</v>
-      </c>
-      <c r="L17" t="s">
-        <v>606</v>
-      </c>
-      <c r="M17" t="s">
-        <v>877</v>
-      </c>
-      <c r="N17" t="s">
-        <v>876</v>
-      </c>
-      <c r="O17" t="s">
-        <v>878</v>
-      </c>
-      <c r="P17" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>688</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>752</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>716</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>689</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>753</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>717</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="N19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="O19" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="P19" s="43" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="L22" s="43" t="s">
+        <v>702</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>754</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>718</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="O20" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="P20" s="43" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
         <v>596</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>691</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>691</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>691</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>691</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>755</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>823</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>844</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>824</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>719</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>845</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" t="s">
+        <v>793</v>
+      </c>
+      <c r="E23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F23" t="s">
+        <v>795</v>
+      </c>
+      <c r="G23" t="s">
+        <v>739</v>
+      </c>
+      <c r="H23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23" t="s">
+        <v>796</v>
+      </c>
+      <c r="J23" t="s">
+        <v>797</v>
+      </c>
+      <c r="K23" t="s">
+        <v>798</v>
+      </c>
+      <c r="L23" t="s">
+        <v>654</v>
+      </c>
+      <c r="M23" t="s">
+        <v>800</v>
+      </c>
+      <c r="N23" t="s">
+        <v>799</v>
+      </c>
+      <c r="O23" t="s">
+        <v>801</v>
+      </c>
+      <c r="P23" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C24" t="s">
+        <v>599</v>
+      </c>
+      <c r="D24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E24" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" t="s">
+        <v>599</v>
+      </c>
+      <c r="G24" t="s">
+        <v>599</v>
+      </c>
+      <c r="H24" t="s">
+        <v>600</v>
+      </c>
+      <c r="I24" t="s">
+        <v>599</v>
+      </c>
+      <c r="J24" t="s">
+        <v>599</v>
+      </c>
+      <c r="K24" t="s">
+        <v>600</v>
+      </c>
+      <c r="L24" t="s">
+        <v>599</v>
+      </c>
+      <c r="M24" t="s">
+        <v>600</v>
+      </c>
+      <c r="N24" t="s">
+        <v>600</v>
+      </c>
+      <c r="O24" t="s">
+        <v>600</v>
+      </c>
+      <c r="P24" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C22" t="s">
-        <v>812</v>
-      </c>
-      <c r="D22" t="s">
-        <v>813</v>
-      </c>
-      <c r="E22" t="s">
-        <v>814</v>
-      </c>
-      <c r="F22" t="s">
-        <v>815</v>
-      </c>
-      <c r="G22" t="s">
-        <v>756</v>
-      </c>
-      <c r="H22" t="s">
-        <v>389</v>
-      </c>
-      <c r="I22" t="s">
-        <v>816</v>
-      </c>
-      <c r="J22" t="s">
-        <v>817</v>
-      </c>
-      <c r="K22" t="s">
-        <v>818</v>
-      </c>
-      <c r="L22" t="s">
-        <v>658</v>
-      </c>
-      <c r="M22" t="s">
-        <v>821</v>
-      </c>
-      <c r="N22" t="s">
-        <v>819</v>
-      </c>
-      <c r="O22" t="s">
-        <v>820</v>
-      </c>
-      <c r="P22" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>600</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>33</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>33</v>
+      </c>
+      <c r="O25">
+        <v>33</v>
+      </c>
+      <c r="P25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C23" t="s">
-        <v>601</v>
-      </c>
-      <c r="D23" t="s">
-        <v>601</v>
-      </c>
-      <c r="E23" t="s">
-        <v>601</v>
-      </c>
-      <c r="F23" t="s">
-        <v>601</v>
-      </c>
-      <c r="G23" t="s">
-        <v>601</v>
-      </c>
-      <c r="H23" t="s">
-        <v>602</v>
-      </c>
-      <c r="I23" t="s">
-        <v>601</v>
-      </c>
-      <c r="J23" t="s">
-        <v>601</v>
-      </c>
-      <c r="K23" t="s">
-        <v>602</v>
-      </c>
-      <c r="L23" t="s">
-        <v>601</v>
-      </c>
-      <c r="M23" t="s">
-        <v>602</v>
-      </c>
-      <c r="N23" t="s">
-        <v>602</v>
-      </c>
-      <c r="O23" t="s">
-        <v>602</v>
-      </c>
-      <c r="P23" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>28</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="K24">
-        <v>26</v>
-      </c>
-      <c r="L24">
-        <v>40</v>
-      </c>
-      <c r="M24">
-        <v>33</v>
-      </c>
-      <c r="N24">
-        <v>33</v>
-      </c>
-      <c r="O24">
-        <v>33</v>
-      </c>
-      <c r="P24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B25" s="33">
-        <v>63</v>
-      </c>
-      <c r="C25" s="33">
-        <v>63</v>
-      </c>
-      <c r="D25" s="33">
-        <v>63</v>
-      </c>
-      <c r="E25" s="33">
-        <v>63</v>
-      </c>
-      <c r="F25" s="33">
-        <v>63</v>
-      </c>
-      <c r="G25">
-        <v>56</v>
-      </c>
-      <c r="H25">
-        <v>55</v>
-      </c>
-      <c r="I25">
-        <v>58</v>
-      </c>
-      <c r="J25">
-        <v>60</v>
-      </c>
-      <c r="K25">
-        <v>56</v>
-      </c>
-      <c r="L25">
-        <v>70</v>
-      </c>
-      <c r="M25">
-        <v>63</v>
-      </c>
-      <c r="N25">
-        <v>63</v>
-      </c>
-      <c r="O25">
-        <v>63</v>
-      </c>
-      <c r="P25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>720</v>
       </c>
       <c r="B26" s="33">
         <v>63</v>
@@ -6614,73 +7252,73 @@
       <c r="F26" s="33">
         <v>63</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>58</v>
+      </c>
+      <c r="J26">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>56</v>
+      </c>
+      <c r="L26">
         <v>70</v>
       </c>
-      <c r="H26" s="33">
+      <c r="M26">
+        <v>63</v>
+      </c>
+      <c r="N26">
+        <v>63</v>
+      </c>
+      <c r="O26">
+        <v>63</v>
+      </c>
+      <c r="P26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" s="33">
+        <v>63</v>
+      </c>
+      <c r="C27" s="33">
+        <v>63</v>
+      </c>
+      <c r="D27" s="33">
+        <v>63</v>
+      </c>
+      <c r="E27" s="33">
+        <v>63</v>
+      </c>
+      <c r="F27" s="33">
+        <v>63</v>
+      </c>
+      <c r="G27" s="33">
+        <v>70</v>
+      </c>
+      <c r="H27" s="33">
         <v>71</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I27" s="33">
         <v>68</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>71</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>71</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>71</v>
-      </c>
-      <c r="M26">
-        <v>71</v>
-      </c>
-      <c r="N26">
-        <v>71</v>
-      </c>
-      <c r="O26">
-        <v>71</v>
-      </c>
-      <c r="P26">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B27">
-        <v>71</v>
-      </c>
-      <c r="C27">
-        <v>71</v>
-      </c>
-      <c r="D27">
-        <v>71</v>
-      </c>
-      <c r="E27">
-        <v>71</v>
-      </c>
-      <c r="F27">
-        <v>71</v>
-      </c>
-      <c r="G27">
-        <v>71</v>
-      </c>
-      <c r="H27">
-        <v>71</v>
-      </c>
-      <c r="I27">
-        <v>71</v>
-      </c>
-      <c r="J27">
-        <v>76</v>
-      </c>
-      <c r="K27">
-        <v>73</v>
-      </c>
-      <c r="L27">
-        <v>86</v>
       </c>
       <c r="M27">
         <v>71</v>
@@ -6696,603 +7334,603 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="B28" s="33">
+      <c r="A28" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28">
+        <v>71</v>
+      </c>
+      <c r="C28">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>71</v>
+      </c>
+      <c r="G28">
+        <v>71</v>
+      </c>
+      <c r="H28">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>71</v>
+      </c>
+      <c r="J28">
+        <v>76</v>
+      </c>
+      <c r="K28">
+        <v>73</v>
+      </c>
+      <c r="L28">
+        <v>86</v>
+      </c>
+      <c r="M28">
+        <v>71</v>
+      </c>
+      <c r="N28">
+        <v>71</v>
+      </c>
+      <c r="O28">
+        <v>71</v>
+      </c>
+      <c r="P28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B29" s="33">
         <v>128</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C29" s="33">
         <v>128</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D29" s="33">
         <v>128</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E29" s="33">
         <v>128</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F29" s="33">
         <v>128</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G29" s="33">
         <v>154</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H29" s="33">
         <v>154</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I29" s="33">
         <v>154</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>155</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>155</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>155</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>155</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>155</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>155</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="B29" s="33">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B30" s="33">
         <v>118</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C30" s="33">
         <v>118</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="33">
         <v>118</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E30" s="33">
         <v>118</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F30" s="33">
         <v>118</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G30" s="33">
         <v>144</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H30" s="33">
         <v>144</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I30" s="33">
         <v>144</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>145</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>145</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>145</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>145</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>145</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>145</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B30" t="s">
-        <v>775</v>
-      </c>
-      <c r="C30" t="s">
-        <v>830</v>
-      </c>
-      <c r="D30" t="s">
-        <v>831</v>
-      </c>
-      <c r="E30" t="s">
-        <v>832</v>
-      </c>
-      <c r="F30" t="s">
-        <v>833</v>
-      </c>
-      <c r="G30" t="s">
-        <v>747</v>
-      </c>
-      <c r="H30" t="s">
-        <v>745</v>
-      </c>
-      <c r="I30" t="s">
-        <v>834</v>
-      </c>
-      <c r="J30" t="s">
-        <v>835</v>
-      </c>
-      <c r="K30" t="s">
-        <v>836</v>
-      </c>
-      <c r="L30" t="s">
-        <v>745</v>
-      </c>
-      <c r="M30" t="s">
-        <v>837</v>
-      </c>
-      <c r="N30" t="s">
-        <v>839</v>
-      </c>
-      <c r="O30" t="s">
-        <v>838</v>
-      </c>
-      <c r="P30" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>605</v>
+        <v>727</v>
       </c>
       <c r="B31" t="s">
-        <v>685</v>
+        <v>757</v>
       </c>
       <c r="C31" t="s">
         <v>807</v>
       </c>
       <c r="D31" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E31" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F31" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="G31" t="s">
-        <v>606</v>
+        <v>730</v>
       </c>
       <c r="H31" t="s">
-        <v>606</v>
+        <v>728</v>
       </c>
       <c r="I31" t="s">
-        <v>606</v>
+        <v>811</v>
       </c>
       <c r="J31" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="K31" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="L31" t="s">
-        <v>606</v>
+        <v>728</v>
       </c>
       <c r="M31" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="N31" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="O31" t="s">
-        <v>685</v>
+        <v>814</v>
       </c>
       <c r="P31" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>613</v>
-      </c>
-      <c r="B32" s="36">
+      <c r="A32" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" t="s">
+        <v>669</v>
+      </c>
+      <c r="C32" t="s">
+        <v>787</v>
+      </c>
+      <c r="D32" t="s">
+        <v>786</v>
+      </c>
+      <c r="E32" t="s">
+        <v>785</v>
+      </c>
+      <c r="F32" t="s">
+        <v>784</v>
+      </c>
+      <c r="G32" t="s">
+        <v>604</v>
+      </c>
+      <c r="H32" t="s">
+        <v>604</v>
+      </c>
+      <c r="I32" t="s">
+        <v>604</v>
+      </c>
+      <c r="J32" t="s">
+        <v>788</v>
+      </c>
+      <c r="K32" t="s">
+        <v>789</v>
+      </c>
+      <c r="L32" t="s">
+        <v>604</v>
+      </c>
+      <c r="M32" t="s">
+        <v>669</v>
+      </c>
+      <c r="N32" t="s">
+        <v>787</v>
+      </c>
+      <c r="O32" t="s">
+        <v>786</v>
+      </c>
+      <c r="P32" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B33" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C33" s="36">
         <v>10</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D33" s="36">
         <v>5</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E33" s="36">
         <v>4</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F33" s="36">
         <v>5</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G33" s="36">
         <v>5</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H33" s="36">
         <v>18</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I33" s="36">
         <v>10</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J33" s="36">
         <v>4</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K33" s="36">
         <v>16</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L33" s="36">
         <v>18</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M33" s="36">
         <v>18</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N33" s="36">
         <v>18</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O33" s="36">
         <v>18</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P33" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B33" s="6">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B34" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>3</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>4</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>3</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>3</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <v>3</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>4</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J34" s="36">
         <v>5</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>12</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L34" s="6">
         <v>8</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M34" s="6">
         <v>3</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N34" s="6">
         <v>3</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O34" s="6">
         <v>3</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P34" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>614</v>
-      </c>
-      <c r="B34" s="36">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="36">
         <v>2</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C35" s="36">
         <v>4</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D35" s="36">
         <v>2</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E35" s="36">
         <v>2</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F35" s="36">
         <v>2</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G35" s="36">
         <v>4</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H35" s="36">
         <v>4</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I35" s="36">
         <v>4</v>
-      </c>
-      <c r="J34" s="36">
-        <v>2</v>
-      </c>
-      <c r="K34" s="36">
-        <v>11</v>
-      </c>
-      <c r="L34" s="36">
-        <v>8</v>
-      </c>
-      <c r="M34" s="36">
-        <v>4</v>
-      </c>
-      <c r="N34" s="36">
-        <v>4</v>
-      </c>
-      <c r="O34" s="36">
-        <v>4</v>
-      </c>
-      <c r="P34" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>615</v>
-      </c>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-      <c r="C35" s="36">
-        <v>2</v>
-      </c>
-      <c r="D35" s="36">
-        <v>1</v>
-      </c>
-      <c r="E35" s="36">
-        <v>1</v>
-      </c>
-      <c r="F35" s="36">
-        <v>1</v>
-      </c>
-      <c r="G35" s="36">
-        <v>1</v>
-      </c>
-      <c r="H35" s="36">
-        <v>1</v>
-      </c>
-      <c r="I35" s="36">
-        <v>1</v>
       </c>
       <c r="J35" s="36">
         <v>2</v>
       </c>
       <c r="K35" s="36">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L35" s="36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M35" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P35" s="36">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>858</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>896</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>880</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>857</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>623</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="N36" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="O36" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="P36" s="43" t="s">
-        <v>623</v>
+        <v>613</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="36">
+        <v>2</v>
+      </c>
+      <c r="K36" s="36">
+        <v>5</v>
+      </c>
+      <c r="L36" s="36">
+        <v>3</v>
+      </c>
+      <c r="M36" s="36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="E37" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>740</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="J37" s="43" t="s">
         <v>858</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>896</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>880</v>
-      </c>
       <c r="K37" s="43" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="L37" s="43" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M37" s="43" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="N37" s="43" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="O37" s="43" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="P37" s="43" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="K38" s="43" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L38" s="43" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M38" s="43" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="N38" s="43" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="O38" s="43" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="P38" s="43" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>837</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>859</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="L39" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>859</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>758</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>873</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>895</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>881</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>856</v>
-      </c>
-      <c r="L39" s="43" t="s">
-        <v>624</v>
-      </c>
       <c r="M39" s="43" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="N39" s="43" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="P39" s="43" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -7300,1377 +7938,1477 @@
         <v>620</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M40" s="43" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="N40" s="43" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="O40" s="43" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="P40" s="43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="L41" s="43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="N41" s="43" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="O41" s="43" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="P41" s="43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="H42" s="43" t="s">
+        <v>845</v>
+      </c>
+      <c r="I42" s="43" t="s">
         <v>869</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>892</v>
-      </c>
       <c r="J42" s="43" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="L42" s="43" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M42" s="43" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="N42" s="43" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="O42" s="43" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="P42" s="43" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="H43" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="I43" s="43" t="s">
         <v>870</v>
       </c>
-      <c r="I43" s="43" t="s">
-        <v>899</v>
-      </c>
       <c r="J43" s="43" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="L43" s="43" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M43" s="43" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="P43" s="43" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M44" s="43" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="P44" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>862</v>
+        <v>824</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="L45" s="43" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M45" s="43" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="N45" s="43" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="P45" s="43" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="J46" s="43" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="L46" s="43" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M46" s="43" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="N46" s="43" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="P46" s="43" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="J47" s="43" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="K47" s="43" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="L47" s="43" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M47" s="43" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="N47" s="43" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="O47" s="43" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="P47" s="43" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>749</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="L48" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="P48" s="43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>750</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>879</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="K49" s="43" t="s">
+        <v>827</v>
+      </c>
+      <c r="L49" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C50" t="s">
+        <v>773</v>
+      </c>
+      <c r="D50" t="s">
+        <v>774</v>
+      </c>
+      <c r="E50" t="s">
+        <v>981</v>
+      </c>
+      <c r="F50" t="s">
+        <v>775</v>
+      </c>
+      <c r="G50" t="s">
+        <v>751</v>
+      </c>
+      <c r="H50" t="s">
+        <v>776</v>
+      </c>
+      <c r="I50" t="s">
+        <v>777</v>
+      </c>
+      <c r="J50" t="s">
+        <v>778</v>
+      </c>
+      <c r="K50" t="s">
+        <v>779</v>
+      </c>
+      <c r="L50" t="s">
+        <v>734</v>
+      </c>
+      <c r="M50" t="s">
+        <v>780</v>
+      </c>
+      <c r="N50" t="s">
+        <v>781</v>
+      </c>
+      <c r="O50" t="s">
+        <v>782</v>
+      </c>
+      <c r="P50" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B51" t="s">
+        <v>680</v>
+      </c>
+      <c r="C51" t="s">
+        <v>943</v>
+      </c>
+      <c r="D51" t="s">
+        <v>966</v>
+      </c>
+      <c r="E51" t="s">
+        <v>982</v>
+      </c>
+      <c r="F51" t="s">
+        <v>944</v>
+      </c>
+      <c r="G51" t="s">
+        <v>752</v>
+      </c>
+      <c r="H51" t="s">
+        <v>945</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L51" t="s">
+        <v>638</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1075</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P51" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B52" t="s">
+        <v>888</v>
+      </c>
+      <c r="C52" t="s">
+        <v>890</v>
+      </c>
+      <c r="D52" t="s">
+        <v>887</v>
+      </c>
+      <c r="E52" t="s">
+        <v>891</v>
+      </c>
+      <c r="F52" t="s">
+        <v>886</v>
+      </c>
+      <c r="G52" t="s">
+        <v>892</v>
+      </c>
+      <c r="H52" t="s">
+        <v>893</v>
+      </c>
+      <c r="I52" t="s">
+        <v>894</v>
+      </c>
+      <c r="J52" t="s">
+        <v>906</v>
+      </c>
+      <c r="K52" t="s">
+        <v>895</v>
+      </c>
+      <c r="L52" t="s">
+        <v>896</v>
+      </c>
+      <c r="M52" t="s">
+        <v>898</v>
+      </c>
+      <c r="N52" t="s">
+        <v>897</v>
+      </c>
+      <c r="O52" t="s">
+        <v>899</v>
+      </c>
+      <c r="P52" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B53" t="s">
+        <v>920</v>
+      </c>
+      <c r="C53" t="s">
+        <v>912</v>
+      </c>
+      <c r="D53" t="s">
+        <v>913</v>
+      </c>
+      <c r="E53" t="s">
+        <v>901</v>
+      </c>
+      <c r="F53" t="s">
+        <v>914</v>
+      </c>
+      <c r="G53" t="s">
+        <v>902</v>
+      </c>
+      <c r="H53" t="s">
+        <v>903</v>
+      </c>
+      <c r="I53" t="s">
+        <v>904</v>
+      </c>
+      <c r="J53" t="s">
+        <v>905</v>
+      </c>
+      <c r="K53" t="s">
+        <v>885</v>
+      </c>
+      <c r="L53" t="s">
+        <v>907</v>
+      </c>
+      <c r="M53" t="s">
+        <v>919</v>
+      </c>
+      <c r="N53" t="s">
+        <v>918</v>
+      </c>
+      <c r="O53" t="s">
+        <v>917</v>
+      </c>
+      <c r="P53" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B54" t="s">
+        <v>881</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>882</v>
+      </c>
+      <c r="E54" t="s">
+        <v>883</v>
+      </c>
+      <c r="F54" t="s">
+        <v>884</v>
+      </c>
+      <c r="G54">
+        <v>0.4</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0.4</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B55" t="s">
+        <v>681</v>
+      </c>
+      <c r="C55" t="s">
+        <v>908</v>
+      </c>
+      <c r="D55" t="s">
+        <v>910</v>
+      </c>
+      <c r="E55" t="s">
+        <v>930</v>
+      </c>
+      <c r="F55" t="s">
+        <v>922</v>
+      </c>
+      <c r="G55" t="s">
+        <v>753</v>
+      </c>
+      <c r="H55" t="s">
+        <v>639</v>
+      </c>
+      <c r="I55" t="s">
+        <v>931</v>
+      </c>
+      <c r="J55" t="s">
+        <v>933</v>
+      </c>
+      <c r="K55" t="s">
+        <v>935</v>
+      </c>
+      <c r="L55" t="s">
+        <v>639</v>
+      </c>
+      <c r="M55" t="s">
+        <v>927</v>
+      </c>
+      <c r="N55" t="s">
+        <v>925</v>
+      </c>
+      <c r="O55" t="s">
+        <v>929</v>
+      </c>
+      <c r="P55" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B56" t="s">
+        <v>679</v>
+      </c>
+      <c r="C56" t="s">
+        <v>909</v>
+      </c>
+      <c r="D56" t="s">
+        <v>911</v>
+      </c>
+      <c r="E56" t="s">
+        <v>923</v>
+      </c>
+      <c r="F56" t="s">
+        <v>921</v>
+      </c>
+      <c r="G56" t="s">
+        <v>750</v>
+      </c>
+      <c r="H56" t="s">
+        <v>631</v>
+      </c>
+      <c r="I56" t="s">
+        <v>932</v>
+      </c>
+      <c r="J56" t="s">
+        <v>934</v>
+      </c>
+      <c r="K56" t="s">
+        <v>826</v>
+      </c>
+      <c r="L56" t="s">
+        <v>631</v>
+      </c>
+      <c r="M56" t="s">
+        <v>926</v>
+      </c>
+      <c r="N56" t="s">
+        <v>924</v>
+      </c>
+      <c r="O56" t="s">
+        <v>928</v>
+      </c>
+      <c r="P56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B57" t="s">
+        <v>682</v>
+      </c>
+      <c r="C57" t="s">
+        <v>948</v>
+      </c>
+      <c r="D57" t="s">
+        <v>965</v>
+      </c>
+      <c r="E57" t="s">
+        <v>983</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G57" t="s">
+        <v>642</v>
+      </c>
+      <c r="H57" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L57" t="s">
+        <v>642</v>
+      </c>
+      <c r="M57" t="s">
+        <v>682</v>
+      </c>
+      <c r="N57" t="s">
+        <v>948</v>
+      </c>
+      <c r="O57" t="s">
+        <v>965</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B58" t="s">
+        <v>683</v>
+      </c>
+      <c r="C58" t="s">
+        <v>949</v>
+      </c>
+      <c r="D58" t="s">
+        <v>964</v>
+      </c>
+      <c r="E58" t="s">
+        <v>984</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G58" t="s">
+        <v>683</v>
+      </c>
+      <c r="H58" t="s">
+        <v>683</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L58" t="s">
+        <v>683</v>
+      </c>
+      <c r="M58" t="s">
+        <v>683</v>
+      </c>
+      <c r="N58" t="s">
+        <v>949</v>
+      </c>
+      <c r="O58" t="s">
+        <v>964</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B59" t="s">
+        <v>684</v>
+      </c>
+      <c r="C59" t="s">
+        <v>950</v>
+      </c>
+      <c r="D59" t="s">
+        <v>963</v>
+      </c>
+      <c r="E59" t="s">
+        <v>985</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>754</v>
+      </c>
+      <c r="H59" t="s">
+        <v>946</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L59" t="s">
+        <v>647</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B60" t="s">
+        <v>684</v>
+      </c>
+      <c r="C60" t="s">
+        <v>950</v>
+      </c>
+      <c r="D60" t="s">
+        <v>962</v>
+      </c>
+      <c r="E60" t="s">
+        <v>986</v>
+      </c>
+      <c r="F60" t="s">
+        <v>999</v>
+      </c>
+      <c r="G60" t="s">
+        <v>755</v>
+      </c>
+      <c r="H60" t="s">
+        <v>947</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K60" t="s">
+        <v>798</v>
+      </c>
+      <c r="L60" t="s">
+        <v>646</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O60" t="s">
+        <v>801</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B61" t="s">
+        <v>684</v>
+      </c>
+      <c r="C61" t="s">
+        <v>950</v>
+      </c>
+      <c r="D61" t="s">
+        <v>961</v>
+      </c>
+      <c r="E61" t="s">
+        <v>986</v>
+      </c>
+      <c r="F61" t="s">
+        <v>999</v>
+      </c>
+      <c r="G61" t="s">
+        <v>754</v>
+      </c>
+      <c r="H61" t="s">
+        <v>947</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L61" t="s">
+        <v>656</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O61" t="s">
+        <v>801</v>
+      </c>
+      <c r="P61" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B62" t="s">
+        <v>685</v>
+      </c>
+      <c r="C62" t="s">
+        <v>951</v>
+      </c>
+      <c r="D62" t="s">
+        <v>960</v>
+      </c>
+      <c r="E62" t="s">
+        <v>987</v>
+      </c>
+      <c r="F62" t="s">
+        <v>998</v>
+      </c>
+      <c r="G62" t="s">
+        <v>653</v>
+      </c>
+      <c r="H62" t="s">
+        <v>389</v>
+      </c>
+      <c r="I62" t="s">
+        <v>796</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K62" t="s">
+        <v>798</v>
+      </c>
+      <c r="L62" t="s">
+        <v>654</v>
+      </c>
+      <c r="M62" t="s">
+        <v>389</v>
+      </c>
+      <c r="N62" t="s">
+        <v>389</v>
+      </c>
+      <c r="O62" t="s">
+        <v>801</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E63" t="s">
+        <v>988</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E64" t="s">
+        <v>989</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B65" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" t="s">
+        <v>952</v>
+      </c>
+      <c r="D65" t="s">
+        <v>959</v>
+      </c>
+      <c r="E65" t="s">
+        <v>990</v>
+      </c>
+      <c r="F65" t="s">
+        <v>997</v>
+      </c>
+      <c r="G65" t="s">
+        <v>661</v>
+      </c>
+      <c r="H65" t="s">
+        <v>662</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K65" t="s">
+        <v>663</v>
+      </c>
+      <c r="L65" t="s">
+        <v>660</v>
+      </c>
+      <c r="M65" t="s">
+        <v>769</v>
+      </c>
+      <c r="N65" t="s">
+        <v>770</v>
+      </c>
+      <c r="O65" t="s">
+        <v>768</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B66" t="s">
+        <v>687</v>
+      </c>
+      <c r="C66" t="s">
+        <v>953</v>
+      </c>
+      <c r="D66" t="s">
+        <v>958</v>
+      </c>
+      <c r="E66" t="s">
+        <v>991</v>
+      </c>
+      <c r="F66" t="s">
+        <v>996</v>
+      </c>
+      <c r="G66" t="s">
+        <v>656</v>
+      </c>
+      <c r="H66" t="s">
+        <v>656</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L66" t="s">
+        <v>668</v>
+      </c>
+      <c r="M66" t="s">
+        <v>687</v>
+      </c>
+      <c r="N66" t="s">
+        <v>953</v>
+      </c>
+      <c r="O66" t="s">
+        <v>958</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>707</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>707</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>848</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>707</v>
-      </c>
-      <c r="G48" s="43" t="s">
+      <c r="B67" t="s">
+        <v>711</v>
+      </c>
+      <c r="C67" t="s">
+        <v>710</v>
+      </c>
+      <c r="D67" t="s">
+        <v>709</v>
+      </c>
+      <c r="E67" t="s">
+        <v>709</v>
+      </c>
+      <c r="F67" t="s">
+        <v>709</v>
+      </c>
+      <c r="G67" t="s">
+        <v>712</v>
+      </c>
+      <c r="H67" t="s">
+        <v>713</v>
+      </c>
+      <c r="I67" t="s">
+        <v>714</v>
+      </c>
+      <c r="J67" t="s">
+        <v>713</v>
+      </c>
+      <c r="K67" t="s">
+        <v>713</v>
+      </c>
+      <c r="L67" t="s">
+        <v>715</v>
+      </c>
+      <c r="M67" t="s">
+        <v>713</v>
+      </c>
+      <c r="N67" t="s">
+        <v>713</v>
+      </c>
+      <c r="O67" t="s">
+        <v>713</v>
+      </c>
+      <c r="P67" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B68" t="s">
+        <v>758</v>
+      </c>
+      <c r="C68" t="s">
+        <v>954</v>
+      </c>
+      <c r="D68" t="s">
+        <v>957</v>
+      </c>
+      <c r="E68" t="s">
+        <v>992</v>
+      </c>
+      <c r="F68" t="s">
+        <v>995</v>
+      </c>
+      <c r="G68" t="s">
+        <v>712</v>
+      </c>
+      <c r="H68" t="s">
+        <v>713</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O68" t="s">
+        <v>713</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B69" t="s">
+        <v>765</v>
+      </c>
+      <c r="C69" t="s">
+        <v>764</v>
+      </c>
+      <c r="D69" t="s">
+        <v>763</v>
+      </c>
+      <c r="E69" t="s">
+        <v>763</v>
+      </c>
+      <c r="F69" t="s">
+        <v>762</v>
+      </c>
+      <c r="G69" t="s">
+        <v>761</v>
+      </c>
+      <c r="H69" t="s">
         <v>767</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>901</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>890</v>
-      </c>
-      <c r="K48" s="43" t="s">
-        <v>849</v>
-      </c>
-      <c r="L48" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="M48" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="N48" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="O48" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="P48" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>635</v>
-      </c>
-      <c r="B49" t="s">
-        <v>636</v>
-      </c>
-      <c r="C49" t="s">
-        <v>793</v>
-      </c>
-      <c r="D49" t="s">
-        <v>794</v>
-      </c>
-      <c r="E49" t="s">
-        <v>794</v>
-      </c>
-      <c r="F49" t="s">
-        <v>795</v>
-      </c>
-      <c r="G49" t="s">
-        <v>768</v>
-      </c>
-      <c r="H49" t="s">
-        <v>796</v>
-      </c>
-      <c r="I49" t="s">
-        <v>797</v>
-      </c>
-      <c r="J49" t="s">
-        <v>798</v>
-      </c>
-      <c r="K49" t="s">
-        <v>799</v>
-      </c>
-      <c r="L49" t="s">
-        <v>751</v>
-      </c>
-      <c r="M49" t="s">
-        <v>802</v>
-      </c>
-      <c r="N49" t="s">
-        <v>801</v>
-      </c>
-      <c r="O49" t="s">
-        <v>800</v>
-      </c>
-      <c r="P49" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="B50" t="s">
-        <v>696</v>
-      </c>
-      <c r="C50" t="s">
-        <v>641</v>
-      </c>
-      <c r="D50" t="s">
-        <v>641</v>
-      </c>
-      <c r="E50" t="s">
-        <v>641</v>
-      </c>
-      <c r="F50" t="s">
-        <v>641</v>
-      </c>
-      <c r="G50" t="s">
-        <v>769</v>
-      </c>
-      <c r="H50" t="s">
-        <v>641</v>
-      </c>
-      <c r="I50" t="s">
-        <v>641</v>
-      </c>
-      <c r="J50" t="s">
-        <v>641</v>
-      </c>
-      <c r="K50" t="s">
-        <v>641</v>
-      </c>
-      <c r="L50" t="s">
-        <v>641</v>
-      </c>
-      <c r="M50" t="s">
-        <v>641</v>
-      </c>
-      <c r="N50" t="s">
-        <v>641</v>
-      </c>
-      <c r="O50" t="s">
-        <v>641</v>
-      </c>
-      <c r="P50" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B51" t="s">
-        <v>697</v>
-      </c>
-      <c r="C51" t="s">
-        <v>640</v>
-      </c>
-      <c r="D51" t="s">
-        <v>640</v>
-      </c>
-      <c r="E51" t="s">
-        <v>640</v>
-      </c>
-      <c r="F51" t="s">
-        <v>640</v>
-      </c>
-      <c r="G51" t="s">
-        <v>770</v>
-      </c>
-      <c r="H51" t="s">
-        <v>640</v>
-      </c>
-      <c r="I51" t="s">
-        <v>640</v>
-      </c>
-      <c r="J51" t="s">
-        <v>640</v>
-      </c>
-      <c r="K51" t="s">
-        <v>640</v>
-      </c>
-      <c r="L51" t="s">
-        <v>640</v>
-      </c>
-      <c r="M51" t="s">
-        <v>640</v>
-      </c>
-      <c r="N51" t="s">
-        <v>640</v>
-      </c>
-      <c r="O51" t="s">
-        <v>640</v>
-      </c>
-      <c r="P51" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B53" t="s">
-        <v>698</v>
-      </c>
-      <c r="C53" t="s">
-        <v>642</v>
-      </c>
-      <c r="D53" t="s">
-        <v>642</v>
-      </c>
-      <c r="E53" t="s">
-        <v>642</v>
-      </c>
-      <c r="F53" t="s">
-        <v>642</v>
-      </c>
-      <c r="G53" t="s">
-        <v>771</v>
-      </c>
-      <c r="H53" t="s">
-        <v>642</v>
-      </c>
-      <c r="I53" t="s">
-        <v>642</v>
-      </c>
-      <c r="J53" t="s">
-        <v>642</v>
-      </c>
-      <c r="K53" t="s">
-        <v>642</v>
-      </c>
-      <c r="L53" t="s">
-        <v>642</v>
-      </c>
-      <c r="M53" t="s">
-        <v>642</v>
-      </c>
-      <c r="N53" t="s">
-        <v>642</v>
-      </c>
-      <c r="O53" t="s">
-        <v>642</v>
-      </c>
-      <c r="P53" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B54" t="s">
-        <v>695</v>
-      </c>
-      <c r="C54" t="s">
-        <v>633</v>
-      </c>
-      <c r="D54" t="s">
-        <v>633</v>
-      </c>
-      <c r="E54" t="s">
-        <v>633</v>
-      </c>
-      <c r="F54" t="s">
-        <v>633</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I69" t="s">
+        <v>760</v>
+      </c>
+      <c r="J69" t="s">
         <v>767</v>
       </c>
-      <c r="H54" t="s">
-        <v>633</v>
-      </c>
-      <c r="I54" t="s">
-        <v>633</v>
-      </c>
-      <c r="J54" t="s">
-        <v>633</v>
-      </c>
-      <c r="K54" t="s">
-        <v>633</v>
-      </c>
-      <c r="L54" t="s">
-        <v>633</v>
-      </c>
-      <c r="M54" t="s">
-        <v>633</v>
-      </c>
-      <c r="N54" t="s">
-        <v>633</v>
-      </c>
-      <c r="O54" t="s">
-        <v>633</v>
-      </c>
-      <c r="P54" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="B55" t="s">
-        <v>699</v>
-      </c>
-      <c r="C55" t="s">
-        <v>645</v>
-      </c>
-      <c r="D55" t="s">
-        <v>645</v>
-      </c>
-      <c r="E55" t="s">
-        <v>645</v>
-      </c>
-      <c r="F55" t="s">
-        <v>645</v>
-      </c>
-      <c r="G55" t="s">
-        <v>645</v>
-      </c>
-      <c r="H55" t="s">
-        <v>645</v>
-      </c>
-      <c r="I55" t="s">
-        <v>645</v>
-      </c>
-      <c r="J55" t="s">
-        <v>645</v>
-      </c>
-      <c r="K55" t="s">
-        <v>645</v>
-      </c>
-      <c r="L55" t="s">
-        <v>645</v>
-      </c>
-      <c r="M55" t="s">
-        <v>645</v>
-      </c>
-      <c r="N55" t="s">
-        <v>645</v>
-      </c>
-      <c r="O55" t="s">
-        <v>645</v>
-      </c>
-      <c r="P55" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="B56" t="s">
-        <v>700</v>
-      </c>
-      <c r="C56" t="s">
-        <v>700</v>
-      </c>
-      <c r="D56" t="s">
-        <v>700</v>
-      </c>
-      <c r="E56" t="s">
-        <v>700</v>
-      </c>
-      <c r="F56" t="s">
-        <v>700</v>
-      </c>
-      <c r="G56" t="s">
-        <v>700</v>
-      </c>
-      <c r="H56" t="s">
-        <v>700</v>
-      </c>
-      <c r="I56" t="s">
-        <v>700</v>
-      </c>
-      <c r="J56" t="s">
-        <v>700</v>
-      </c>
-      <c r="K56" t="s">
-        <v>700</v>
-      </c>
-      <c r="L56" t="s">
-        <v>700</v>
-      </c>
-      <c r="M56" t="s">
-        <v>700</v>
-      </c>
-      <c r="N56" t="s">
-        <v>700</v>
-      </c>
-      <c r="O56" t="s">
-        <v>700</v>
-      </c>
-      <c r="P56" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="B57" t="s">
-        <v>701</v>
-      </c>
-      <c r="C57" t="s">
-        <v>650</v>
-      </c>
-      <c r="D57" t="s">
-        <v>650</v>
-      </c>
-      <c r="E57" t="s">
-        <v>650</v>
-      </c>
-      <c r="F57" t="s">
-        <v>650</v>
-      </c>
-      <c r="G57" t="s">
-        <v>772</v>
-      </c>
-      <c r="H57" t="s">
-        <v>650</v>
-      </c>
-      <c r="I57" t="s">
-        <v>650</v>
-      </c>
-      <c r="J57" t="s">
-        <v>650</v>
-      </c>
-      <c r="K57" t="s">
-        <v>650</v>
-      </c>
-      <c r="L57" t="s">
-        <v>650</v>
-      </c>
-      <c r="M57" t="s">
-        <v>650</v>
-      </c>
-      <c r="N57" t="s">
-        <v>650</v>
-      </c>
-      <c r="O57" t="s">
-        <v>650</v>
-      </c>
-      <c r="P57" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="B58" t="s">
-        <v>701</v>
-      </c>
-      <c r="C58" t="s">
-        <v>649</v>
-      </c>
-      <c r="D58" t="s">
-        <v>649</v>
-      </c>
-      <c r="E58" t="s">
-        <v>649</v>
-      </c>
-      <c r="F58" t="s">
-        <v>649</v>
-      </c>
-      <c r="G58" t="s">
-        <v>773</v>
-      </c>
-      <c r="H58" t="s">
-        <v>649</v>
-      </c>
-      <c r="I58" t="s">
-        <v>649</v>
-      </c>
-      <c r="J58" t="s">
-        <v>649</v>
-      </c>
-      <c r="K58" t="s">
-        <v>649</v>
-      </c>
-      <c r="L58" t="s">
-        <v>649</v>
-      </c>
-      <c r="M58" t="s">
-        <v>649</v>
-      </c>
-      <c r="N58" t="s">
-        <v>649</v>
-      </c>
-      <c r="O58" t="s">
-        <v>649</v>
-      </c>
-      <c r="P58" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="B59" t="s">
-        <v>701</v>
-      </c>
-      <c r="C59" t="s">
-        <v>662</v>
-      </c>
-      <c r="D59" t="s">
-        <v>662</v>
-      </c>
-      <c r="E59" t="s">
-        <v>662</v>
-      </c>
-      <c r="F59" t="s">
-        <v>662</v>
-      </c>
-      <c r="G59" t="s">
-        <v>772</v>
-      </c>
-      <c r="H59" t="s">
-        <v>662</v>
-      </c>
-      <c r="I59" t="s">
-        <v>662</v>
-      </c>
-      <c r="J59" t="s">
-        <v>662</v>
-      </c>
-      <c r="K59" t="s">
-        <v>662</v>
-      </c>
-      <c r="L59" t="s">
-        <v>662</v>
-      </c>
-      <c r="M59" t="s">
-        <v>662</v>
-      </c>
-      <c r="N59" t="s">
-        <v>662</v>
-      </c>
-      <c r="O59" t="s">
-        <v>662</v>
-      </c>
-      <c r="P59" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>655</v>
-      </c>
-      <c r="B60" t="s">
-        <v>702</v>
-      </c>
-      <c r="C60" t="s">
-        <v>656</v>
-      </c>
-      <c r="D60" t="s">
-        <v>656</v>
-      </c>
-      <c r="E60" t="s">
-        <v>656</v>
-      </c>
-      <c r="F60" t="s">
-        <v>656</v>
-      </c>
-      <c r="G60" t="s">
-        <v>657</v>
-      </c>
-      <c r="H60" t="s">
-        <v>389</v>
-      </c>
-      <c r="I60" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" t="s">
-        <v>660</v>
-      </c>
-      <c r="K60" t="s">
-        <v>659</v>
-      </c>
-      <c r="L60" t="s">
-        <v>658</v>
-      </c>
-      <c r="M60" t="s">
-        <v>389</v>
-      </c>
-      <c r="N60" t="s">
-        <v>389</v>
-      </c>
-      <c r="O60" t="s">
-        <v>389</v>
-      </c>
-      <c r="P60" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
-        <v>665</v>
-      </c>
-      <c r="E61" t="s">
-        <v>666</v>
-      </c>
-      <c r="J61" t="s">
-        <v>664</v>
-      </c>
-      <c r="K61" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>667</v>
-      </c>
-      <c r="E62" t="s">
-        <v>670</v>
-      </c>
-      <c r="J62" t="s">
-        <v>669</v>
-      </c>
-      <c r="K62" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="B63" t="s">
-        <v>703</v>
-      </c>
-      <c r="C63" t="s">
-        <v>673</v>
-      </c>
-      <c r="D63" t="s">
-        <v>673</v>
-      </c>
-      <c r="E63" t="s">
-        <v>673</v>
-      </c>
-      <c r="F63" t="s">
-        <v>673</v>
-      </c>
-      <c r="G63" t="s">
-        <v>674</v>
-      </c>
-      <c r="H63" t="s">
-        <v>675</v>
-      </c>
-      <c r="I63" t="s">
-        <v>676</v>
-      </c>
-      <c r="J63" t="s">
-        <v>677</v>
-      </c>
-      <c r="K63" t="s">
-        <v>678</v>
-      </c>
-      <c r="L63" t="s">
-        <v>672</v>
-      </c>
-      <c r="M63" t="s">
-        <v>788</v>
-      </c>
-      <c r="N63" t="s">
-        <v>790</v>
-      </c>
-      <c r="O63" t="s">
-        <v>789</v>
-      </c>
-      <c r="P63" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="B64" t="s">
-        <v>704</v>
-      </c>
-      <c r="C64" t="s">
-        <v>662</v>
-      </c>
-      <c r="D64" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" t="s">
-        <v>662</v>
-      </c>
-      <c r="F64" t="s">
-        <v>662</v>
-      </c>
-      <c r="G64" t="s">
-        <v>662</v>
-      </c>
-      <c r="H64" t="s">
-        <v>662</v>
-      </c>
-      <c r="I64" t="s">
-        <v>662</v>
-      </c>
-      <c r="J64" t="s">
-        <v>662</v>
-      </c>
-      <c r="K64" t="s">
-        <v>662</v>
-      </c>
-      <c r="L64" t="s">
-        <v>683</v>
-      </c>
-      <c r="M64" t="s">
-        <v>662</v>
-      </c>
-      <c r="N64" t="s">
-        <v>662</v>
-      </c>
-      <c r="O64" t="s">
-        <v>704</v>
-      </c>
-      <c r="P64" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>724</v>
-      </c>
-      <c r="B65" t="s">
-        <v>728</v>
-      </c>
-      <c r="C65" t="s">
-        <v>727</v>
-      </c>
-      <c r="D65" t="s">
-        <v>726</v>
-      </c>
-      <c r="E65" t="s">
-        <v>726</v>
-      </c>
-      <c r="F65" t="s">
-        <v>726</v>
-      </c>
-      <c r="G65" t="s">
-        <v>729</v>
-      </c>
-      <c r="H65" t="s">
-        <v>730</v>
-      </c>
-      <c r="I65" t="s">
-        <v>731</v>
-      </c>
-      <c r="J65" t="s">
-        <v>730</v>
-      </c>
-      <c r="K65" t="s">
-        <v>730</v>
-      </c>
-      <c r="L65" t="s">
-        <v>732</v>
-      </c>
-      <c r="M65" t="s">
-        <v>730</v>
-      </c>
-      <c r="N65" t="s">
-        <v>730</v>
-      </c>
-      <c r="O65" t="s">
-        <v>730</v>
-      </c>
-      <c r="P65" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
-        <v>722</v>
-      </c>
-      <c r="B66" t="s">
-        <v>776</v>
-      </c>
-      <c r="C66" t="s">
-        <v>727</v>
-      </c>
-      <c r="D66" t="s">
-        <v>726</v>
-      </c>
-      <c r="E66" t="s">
-        <v>726</v>
-      </c>
-      <c r="F66" t="s">
-        <v>726</v>
-      </c>
-      <c r="G66" t="s">
-        <v>729</v>
-      </c>
-      <c r="H66" t="s">
-        <v>730</v>
-      </c>
-      <c r="I66" t="s">
-        <v>731</v>
-      </c>
-      <c r="J66" t="s">
-        <v>730</v>
-      </c>
-      <c r="K66" t="s">
-        <v>730</v>
-      </c>
-      <c r="L66" t="s">
-        <v>732</v>
-      </c>
-      <c r="M66" t="s">
-        <v>730</v>
-      </c>
-      <c r="N66" t="s">
-        <v>730</v>
-      </c>
-      <c r="O66" t="s">
-        <v>787</v>
-      </c>
-      <c r="P66" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>725</v>
-      </c>
-      <c r="B67" t="s">
-        <v>783</v>
-      </c>
-      <c r="C67" t="s">
-        <v>782</v>
-      </c>
-      <c r="D67" t="s">
-        <v>781</v>
-      </c>
-      <c r="E67" t="s">
-        <v>781</v>
-      </c>
-      <c r="F67" t="s">
-        <v>780</v>
-      </c>
-      <c r="G67" t="s">
-        <v>779</v>
-      </c>
-      <c r="H67" t="s">
-        <v>785</v>
-      </c>
-      <c r="I67" t="s">
-        <v>778</v>
-      </c>
-      <c r="J67" t="s">
-        <v>785</v>
-      </c>
-      <c r="K67" t="s">
-        <v>785</v>
-      </c>
-      <c r="L67" t="s">
-        <v>777</v>
-      </c>
-      <c r="M67" t="s">
-        <v>785</v>
-      </c>
-      <c r="N67" t="s">
-        <v>785</v>
-      </c>
-      <c r="O67" t="s">
-        <v>785</v>
-      </c>
-      <c r="P67" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="B68" t="s">
-        <v>784</v>
-      </c>
-      <c r="C68" t="s">
-        <v>782</v>
-      </c>
-      <c r="D68" t="s">
-        <v>781</v>
-      </c>
-      <c r="E68" t="s">
-        <v>781</v>
-      </c>
-      <c r="F68" t="s">
-        <v>780</v>
-      </c>
-      <c r="G68" t="s">
-        <v>779</v>
-      </c>
-      <c r="H68" t="s">
-        <v>785</v>
-      </c>
-      <c r="I68" t="s">
-        <v>778</v>
-      </c>
-      <c r="J68" t="s">
-        <v>785</v>
-      </c>
-      <c r="K68" t="s">
-        <v>785</v>
-      </c>
-      <c r="L68" t="s">
-        <v>777</v>
-      </c>
-      <c r="M68" t="s">
-        <v>785</v>
-      </c>
-      <c r="N68" t="s">
-        <v>785</v>
-      </c>
-      <c r="O68" t="s">
-        <v>786</v>
-      </c>
-      <c r="P68" t="s">
-        <v>777</v>
+      <c r="K69" t="s">
+        <v>767</v>
+      </c>
+      <c r="L69" t="s">
+        <v>759</v>
+      </c>
+      <c r="M69" t="s">
+        <v>767</v>
+      </c>
+      <c r="N69" t="s">
+        <v>767</v>
+      </c>
+      <c r="O69" t="s">
+        <v>767</v>
+      </c>
+      <c r="P69" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B70" t="s">
+        <v>766</v>
+      </c>
+      <c r="C70" t="s">
+        <v>955</v>
+      </c>
+      <c r="D70" t="s">
+        <v>956</v>
+      </c>
+      <c r="E70" t="s">
+        <v>993</v>
+      </c>
+      <c r="F70" t="s">
+        <v>994</v>
+      </c>
+      <c r="G70" t="s">
+        <v>761</v>
+      </c>
+      <c r="H70" t="s">
+        <v>767</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L70" t="s">
+        <v>759</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -3302,9 +3302,6 @@
     <t>€/mes</t>
   </si>
   <si>
-    <t>ريال شهرياً</t>
-  </si>
-  <si>
     <t>руб./месяц</t>
   </si>
   <si>
@@ -3324,6 +3321,9 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>ريال/شهر</t>
   </si>
 </sst>
 </file>
@@ -5963,7 +5963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>128</v>
@@ -6358,28 +6358,28 @@
         <v>1045</v>
       </c>
       <c r="I8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K8" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="L8" t="s">
         <v>567</v>
       </c>
       <c r="M8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N8" t="s">
         <v>1093</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>1094</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>1095</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1098">
   <si>
     <t>Country</t>
   </si>
@@ -3812,9 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4416,9 @@
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>235</v>
+      </c>
       <c r="E14" s="33" t="s">
         <v>772</v>
       </c>
@@ -5961,7 +5963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28740" windowHeight="10605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Figures (2023)" sheetId="4" r:id="rId8"/>
     <sheet name="ReadMe" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1269">
   <si>
     <t>Country</t>
   </si>
@@ -3797,6 +3797,48 @@
   </si>
   <si>
     <t>Source quota diploma (mapping : https://gpseducation.oecd.org/CountryProfile)</t>
+  </si>
+  <si>
+    <t>Laurea triennale o equivalente (AFAM…)</t>
+  </si>
+  <si>
+    <t>Scuola superiore, senza diploma di maturità</t>
+  </si>
+  <si>
+    <t>Diploma di maturità, esame di Stato</t>
+  </si>
+  <si>
+    <t>Certificato di specializzazione tecnica superiore (IFTS)</t>
+  </si>
+  <si>
+    <t>Diploma di Tecnico superiore (ITS)</t>
+  </si>
+  <si>
+    <t>Primarstufe oder weniger</t>
+  </si>
+  <si>
+    <t>Sekundarstufe II ohne Abschluss</t>
+  </si>
+  <si>
+    <t>Baccalauréat (général, technologique ou professionnel)</t>
+  </si>
+  <si>
+    <t>Lycée sans diplôme</t>
+  </si>
+  <si>
+    <t>Berufliche Grundbildung oder Berufsmaturität</t>
+  </si>
+  <si>
+    <t>Gymnasiale Maturität oder Fachmaturität</t>
+  </si>
+  <si>
+    <t>Bachelor oder gleichwertig (HF, Berufsprüfung, eidg. Fauchausweis)</t>
+  </si>
+  <si>
+    <t>Master oder mehr</t>
+  </si>
+  <si>
+    <t>Weiterbildung</t>
   </si>
 </sst>
 </file>
@@ -3961,7 +4003,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4044,7 +4086,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -6995,9 +7036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,7 +7102,7 @@
       <c r="D2" s="32" t="s">
         <v>1048</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="32" t="s">
         <v>1249</v>
       </c>
       <c r="F2" s="2"/>
@@ -7071,7 +7112,9 @@
       <c r="H2" t="s">
         <v>1057</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>1260</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
@@ -7089,8 +7132,8 @@
       <c r="D3" t="s">
         <v>1049</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>1227</v>
+      <c r="E3" s="2" t="s">
+        <v>1117</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
@@ -7099,7 +7142,9 @@
       <c r="H3" t="s">
         <v>1058</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" t="s">
+        <v>1223</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
@@ -7112,12 +7157,14 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>1078</v>
+        <v>1263</v>
       </c>
       <c r="D4" t="s">
         <v>1050</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="2" t="s">
+        <v>1256</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
         <v>1086</v>
@@ -7125,7 +7172,9 @@
       <c r="H4" t="s">
         <v>1059</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" t="s">
+        <v>1261</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -7138,13 +7187,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
@@ -7153,7 +7199,9 @@
       <c r="H5" t="s">
         <v>1060</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>1264</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -7166,12 +7214,14 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" t="s">
-        <v>1080</v>
+        <v>1262</v>
       </c>
       <c r="D6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E6" s="58"/>
+        <v>1051</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1257</v>
+      </c>
       <c r="F6" s="32"/>
       <c r="G6" t="s">
         <v>1088</v>
@@ -7179,7 +7229,9 @@
       <c r="H6" t="s">
         <v>1061</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>1265</v>
+      </c>
       <c r="J6" s="32"/>
       <c r="L6" s="2"/>
       <c r="M6" s="32" t="s">
@@ -7194,12 +7246,13 @@
       <c r="D7" t="s">
         <v>1251</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="32" t="s">
+        <v>1258</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
         <v>1087</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="32" t="s">
@@ -7214,8 +7267,8 @@
       <c r="C8" t="s">
         <v>1081</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>1210</v>
+      <c r="E8" s="32" t="s">
+        <v>1259</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
@@ -7224,7 +7277,9 @@
       <c r="H8" t="s">
         <v>1064</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" t="s">
+        <v>1268</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="32" t="s">
@@ -7242,8 +7297,8 @@
       <c r="D9" t="s">
         <v>1054</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>1202</v>
+      <c r="E9" s="2" t="s">
+        <v>1255</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" t="s">
@@ -7252,7 +7307,9 @@
       <c r="H9" t="s">
         <v>1063</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" t="s">
+        <v>1266</v>
+      </c>
       <c r="J9" s="32"/>
       <c r="L9" s="2"/>
       <c r="M9" s="32" t="s">
@@ -7270,7 +7327,7 @@
       <c r="D10" t="s">
         <v>1055</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="2" t="s">
         <v>1250</v>
       </c>
       <c r="F10" s="2"/>
@@ -7280,7 +7337,9 @@
       <c r="H10" t="s">
         <v>1062</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" t="s">
+        <v>1267</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="L10" s="6"/>
       <c r="M10" s="32" t="s">
@@ -13400,7 +13459,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1271">
   <si>
     <t>Country</t>
   </si>
@@ -3839,6 +3839,12 @@
   </si>
   <si>
     <t>Weiterbildung</t>
+  </si>
+  <si>
+    <t>Periodicity income (UpWork translator)</t>
+  </si>
+  <si>
+    <t>before-tax (gross/brutto) monthly</t>
   </si>
 </sst>
 </file>
@@ -4368,11 +4374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,77 +5004,57 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19" t="s">
-        <v>166</v>
-      </c>
+        <v>1269</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>144</v>
+      <c r="D16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>144</v>
+      <c r="G16" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>166</v>
-      </c>
+      <c r="I16" s="19"/>
       <c r="J16" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="19" t="s">
         <v>166</v>
       </c>
@@ -5080,89 +5066,89 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="6">
-        <v>60000</v>
-      </c>
-      <c r="D17" s="6">
-        <v>61000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>53000</v>
-      </c>
-      <c r="F17" s="6">
-        <v>158000</v>
-      </c>
-      <c r="G17" s="6">
-        <v>49000</v>
-      </c>
-      <c r="H17" s="6">
-        <v>58000</v>
-      </c>
-      <c r="I17" s="6">
-        <v>85000</v>
-      </c>
-      <c r="J17" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K17" s="35">
-        <v>2358000</v>
-      </c>
-      <c r="L17" s="6">
-        <v>121000</v>
-      </c>
-      <c r="M17" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+        <v>285</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="10"/>
+      <c r="C18" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2358000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -5170,371 +5156,397 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6">
-        <v>91000</v>
-      </c>
-      <c r="D19" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>80000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H19" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I19" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K19" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L19" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M19" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>43</v>
+      <c r="C20" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>120000</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>755000</v>
-      </c>
-      <c r="D21" s="6">
-        <v>758000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>664000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1974000</v>
-      </c>
-      <c r="G21" s="6">
-        <v>607000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>722000</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1063000</v>
-      </c>
-      <c r="J21" s="6">
-        <v>98298000</v>
-      </c>
-      <c r="K21" s="4">
-        <v>29472000</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1510000</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K22" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="L23" s="6" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>504</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B24" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="D24" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="E24" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="F24" s="32">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G24" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="H24" s="32">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J24" s="32">
-        <v>158</v>
-      </c>
-      <c r="K24" s="32">
-        <v>105</v>
-      </c>
-      <c r="L24" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="M24" s="32">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B25" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D25" t="s">
-        <v>584</v>
-      </c>
-      <c r="E25" t="s">
-        <v>584</v>
-      </c>
-      <c r="F25" t="s">
-        <v>584</v>
-      </c>
-      <c r="G25" t="s">
-        <v>585</v>
-      </c>
-      <c r="H25" t="s">
-        <v>583</v>
-      </c>
-      <c r="I25" t="s">
-        <v>586</v>
-      </c>
-      <c r="J25" t="s">
-        <v>583</v>
-      </c>
-      <c r="K25" t="s">
-        <v>583</v>
-      </c>
-      <c r="L25" t="s">
-        <v>583</v>
-      </c>
-      <c r="R25" s="7"/>
+        <v>645</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="F25" s="32">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J25" s="32">
+        <v>158</v>
+      </c>
+      <c r="K25" s="32">
+        <v>105</v>
+      </c>
+      <c r="L25" s="32">
+        <v>3.75</v>
+      </c>
+      <c r="M25" s="32">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>48</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6</v>
-      </c>
-      <c r="H26" s="2">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2">
-        <v>26</v>
-      </c>
-      <c r="K26" s="2">
-        <v>21</v>
-      </c>
-      <c r="L26" s="2">
-        <v>4</v>
-      </c>
-      <c r="M26" s="2">
-        <v>514</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B26" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" t="s">
+        <v>585</v>
+      </c>
+      <c r="H26" t="s">
+        <v>583</v>
+      </c>
+      <c r="I26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J26" t="s">
+        <v>583</v>
+      </c>
+      <c r="K26" t="s">
+        <v>583</v>
+      </c>
+      <c r="L26" t="s">
+        <v>583</v>
+      </c>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="19">
+      <c r="B28" s="6"/>
+      <c r="C28" s="19">
         <v>1.6</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="19">
         <v>0.9</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="19">
         <v>0.5</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="19">
         <v>0.2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="19">
         <v>0.4</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>0.4</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>1.8</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="19">
         <v>0.5</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K28" s="19">
         <v>1</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L28" s="19">
         <v>0.4</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M28" s="19">
         <v>1.9</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="2"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -5542,153 +5554,154 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B29" s="35">
-        <f>(C$3*C29+D$3*D29+E$3*E29+F$3*F29+G$3*G29+H$3*H29+I$3*I29)/5000</f>
-        <v>20.4313</v>
-      </c>
-      <c r="C29" s="35">
-        <v>16.3</v>
-      </c>
-      <c r="D29" s="35">
-        <v>16.7</v>
-      </c>
-      <c r="E29" s="35">
-        <v>34.5</v>
-      </c>
-      <c r="F29" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="G29" s="35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H29" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="I29" s="35">
-        <v>13.7</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="35">
-        <v>8</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B30" s="35">
-        <f t="shared" ref="B30:B31" si="0">(C$3*C30+D$3*D30+E$3*E30+F$3*F30+G$3*G30+H$3*H30+I$3*I30)/5000</f>
-        <v>40.694020000000009</v>
-      </c>
-      <c r="C30" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="E30" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="F30" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="G30" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="H30" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="I30" s="6">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J30" s="6"/>
+        <f>(C$3*C30+D$3*D30+E$3*E30+F$3*F30+G$3*G30+H$3*H30+I$3*I30)/5000</f>
+        <v>20.4313</v>
+      </c>
+      <c r="C30" s="35">
+        <v>16.3</v>
+      </c>
+      <c r="D30" s="35">
+        <v>16.7</v>
+      </c>
+      <c r="E30" s="35">
+        <v>34.5</v>
+      </c>
+      <c r="F30" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="G30" s="35">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H30" s="35">
+        <v>17.8</v>
+      </c>
+      <c r="I30" s="35">
+        <v>13.7</v>
+      </c>
+      <c r="J30" s="35"/>
       <c r="K30" s="4"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6">
-        <v>41.3</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="M30" s="35">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B31" s="35">
-        <f t="shared" si="0"/>
-        <v>38.83728</v>
+        <f t="shared" ref="B31:B32" si="0">(C$3*C31+D$3*D31+E$3*E31+F$3*F31+G$3*G31+H$3*H31+I$3*I31)/5000</f>
+        <v>40.694020000000009</v>
       </c>
       <c r="C31" s="6">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="D31" s="6">
-        <v>33.4</v>
+        <v>49.9</v>
       </c>
       <c r="E31" s="6">
-        <v>21.6</v>
+        <v>43.9</v>
       </c>
       <c r="F31" s="6">
-        <v>37.9</v>
+        <v>56.4</v>
       </c>
       <c r="G31" s="6">
-        <v>41.4</v>
+        <v>22.7</v>
       </c>
       <c r="H31" s="6">
-        <v>52.7</v>
+        <v>29.5</v>
       </c>
       <c r="I31" s="6">
-        <v>46</v>
-      </c>
-      <c r="J31" s="6">
-        <v>56</v>
-      </c>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B32" s="35">
+        <f t="shared" si="0"/>
+        <v>38.83728</v>
+      </c>
+      <c r="C32" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="G32" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="H32" s="6">
+        <v>52.7</v>
+      </c>
+      <c r="I32" s="6">
+        <v>46</v>
+      </c>
+      <c r="J32" s="6">
+        <v>56</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6">
         <v>50.7</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="23"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="23"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="32"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5696,886 +5709,890 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>1068</v>
-      </c>
+      <c r="M34" s="32"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1049</v>
+        <v>1076</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>1048</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1092</v>
+        <v>1042</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H36" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H37" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D38" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+        <v>1051</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H38" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+        <v>1060</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" t="s">
+        <v>1080</v>
+      </c>
       <c r="D39" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+        <v>1052</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="32" t="s">
-        <v>1072</v>
-      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" t="s">
-        <v>1081</v>
+      <c r="D40" t="s">
+        <v>1053</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1064</v>
-      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B41" s="32"/>
+        <v>1045</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+        <v>1081</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H41" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
+        <v>1064</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="32" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+        <v>1073</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
         <v>1083</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>1055</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="32" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1062</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="32" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1097</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1103</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1166</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C45" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="D45" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="E45" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F45" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G45" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="H45" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="I45" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="J45" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="K45" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="L45" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="M45" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C46" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="D46" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="E46" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="F46" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="G46" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="H46" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="I46" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J46" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="K46" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="L46" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="M46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C47" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="D47" t="s">
-        <v>1051</v>
+        <v>1116</v>
       </c>
       <c r="E47" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="F47" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="G47" t="s">
-        <v>1088</v>
+        <v>1119</v>
       </c>
       <c r="H47" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="I47" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="J47" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="K47" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="L47" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="M47" t="s">
-        <v>1093</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C48" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="D48" t="s">
-        <v>1134</v>
+        <v>1051</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1127</v>
       </c>
       <c r="G48" t="s">
-        <v>1135</v>
+        <v>1088</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1128</v>
       </c>
       <c r="I48" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="J48" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="K48" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="L48" t="s">
-        <v>1139</v>
+        <v>1132</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1174</v>
+        <v>1173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1133</v>
       </c>
       <c r="D49" t="s">
-        <v>1140</v>
+        <v>1134</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1141</v>
+        <v>1174</v>
       </c>
       <c r="D50" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1146</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M50" t="s">
-        <v>1093</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C51" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="D51" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="E51" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F51" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="G51" t="s">
-        <v>1152</v>
+        <v>1090</v>
       </c>
       <c r="H51" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I51" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="J51" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="K51" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="L51" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="M51" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>1177</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>1157</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>1158</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>1159</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>1160</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>1161</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>1162</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>1160</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J53" t="s">
         <v>1163</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K53" t="s">
         <v>1164</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L53" t="s">
         <v>1165</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M53" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1241</v>
-      </c>
       <c r="B54" s="2"/>
-      <c r="C54" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1231</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1230</v>
-      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="D55" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="E55" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="F55" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="G55" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
       <c r="H55" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="I55" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="J55" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="K55" t="s">
-        <v>1123</v>
+        <v>1232</v>
       </c>
       <c r="L55" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="M55" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="D56" t="s">
-        <v>1051</v>
+        <v>1228</v>
       </c>
       <c r="E56" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="F56" t="s">
-        <v>1217</v>
+        <v>1226</v>
       </c>
       <c r="G56" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="H56" t="s">
-        <v>1120</v>
+        <v>1224</v>
       </c>
       <c r="I56" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="J56" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="K56" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="L56" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="M56" t="s">
-        <v>1167</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="D57" t="s">
-        <v>1211</v>
+        <v>1051</v>
       </c>
       <c r="E57" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="F57" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="G57" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="H57" t="s">
-        <v>1207</v>
+        <v>1120</v>
       </c>
       <c r="I57" t="s">
-        <v>1206</v>
+        <v>1215</v>
       </c>
       <c r="J57" t="s">
-        <v>1137</v>
+        <v>1214</v>
       </c>
       <c r="K57" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="L57" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="M57" t="s">
-        <v>1204</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="D58" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="E58" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="F58" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="G58" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="H58" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="I58" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="J58" t="s">
-        <v>1198</v>
+        <v>1137</v>
       </c>
       <c r="K58" t="s">
-        <v>1197</v>
+        <v>1138</v>
       </c>
       <c r="L58" t="s">
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="M58" t="s">
-        <v>1195</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>1194</v>
+        <v>1203</v>
       </c>
       <c r="D59" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
       <c r="E59" t="s">
-        <v>1193</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="s">
-        <v>1192</v>
+        <v>1201</v>
       </c>
       <c r="G59" t="s">
-        <v>1191</v>
+        <v>1200</v>
       </c>
       <c r="H59" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="I59" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
       <c r="J59" t="s">
-        <v>1154</v>
+        <v>1198</v>
       </c>
       <c r="K59" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="L59" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="M59" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
         <v>1186</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>1185</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>1184</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>1183</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>1182</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>1178</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>1181</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J61" t="s">
         <v>1163</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K61" t="s">
         <v>1180</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L61" t="s">
         <v>1179</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M61" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="32"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="M65" s="32"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -6586,14 +6603,9 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="5"/>
-      <c r="L66" s="6"/>
+      <c r="J66" s="2"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -6604,29 +6616,30 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="J67" s="5"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="18"/>
@@ -6640,6 +6653,10 @@
       <c r="J69" s="18"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
@@ -6654,34 +6671,33 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
-    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="M72" s="31"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="24"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -6710,21 +6726,21 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="24"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="A77" s="22"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -6756,31 +6772,31 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="31"/>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="31"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -6809,11 +6825,6 @@
       <c r="J83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -6847,6 +6858,11 @@
       <c r="J85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
@@ -6917,8 +6933,6 @@
       <c r="J90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
@@ -6933,99 +6947,115 @@
       <c r="J91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="1"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="R91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="2"/>
+      <c r="R92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="6"/>
-      <c r="O95" s="4"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="2"/>
-    </row>
-    <row r="138" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="6"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="139" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7036,7 +7066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -9998,8 +10028,8 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P70" sqref="A1:P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10309,59 +10339,59 @@
         <v>418</v>
       </c>
       <c r="B7">
-        <f>1/Figures!C24</f>
+        <f>1/Figures!C25</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="C7">
-        <f>1/Figures!D24</f>
+        <f>1/Figures!D25</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="D7">
-        <f>1/Figures!E24</f>
+        <f>1/Figures!E25</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="E7">
-        <f>1/Figures!F24</f>
+        <f>1/Figures!F25</f>
         <v>0.24096385542168672</v>
       </c>
       <c r="F7">
-        <f>1/Figures!G24</f>
+        <f>1/Figures!G25</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="G7">
-        <f>1/Figures!H24</f>
+        <f>1/Figures!H25</f>
         <v>1.2360939431396785</v>
       </c>
       <c r="H7">
-        <f>1/Figures!I24</f>
+        <f>1/Figures!I25</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="I7">
-        <f>1/Figures!J24</f>
+        <f>1/Figures!J25</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="J7">
-        <f>1/Figures!K24</f>
+        <f>1/Figures!K25</f>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="K7">
-        <f>1/Figures!L24</f>
+        <f>1/Figures!L25</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="L7">
-        <f>1/Figures!M24</f>
+        <f>1/Figures!M25</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>1/Figures!I24</f>
+        <f>1/Figures!I25</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="N7">
-        <f>1/Figures!I24</f>
+        <f>1/Figures!I25</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="O7">
-        <f>1/Figures!I24</f>
+        <f>1/Figures!I25</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="P7">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1297">
   <si>
     <t>Country</t>
   </si>
@@ -3190,12 +3190,6 @@
     <t>Abitur</t>
   </si>
   <si>
-    <t>Universität ohne Abschluss verlassen</t>
-  </si>
-  <si>
-    <t>Berufsschule oder Zweitausbildung</t>
-  </si>
-  <si>
     <t>Bachelor oder Fachhochschulabschluss</t>
   </si>
   <si>
@@ -3253,9 +3247,6 @@
     <t>Some college, no degree</t>
   </si>
   <si>
-    <t>2-year college degree or associates degree (for example: AA, AS)</t>
-  </si>
-  <si>
     <t>Bachelor's degree (for example: BA, BS)</t>
   </si>
   <si>
@@ -3271,12 +3262,6 @@
     <t>CAP ou BEP</t>
   </si>
   <si>
-    <t>Baccalauréat technologique ou professionnel</t>
-  </si>
-  <si>
-    <t>Baccalauréat général</t>
-  </si>
-  <si>
     <t>Bac +2 (BTS, DUT, DEUG…)</t>
   </si>
   <si>
@@ -3748,9 +3733,6 @@
     <t>Brak wykształcenia / Edukacja podstawowa</t>
   </si>
   <si>
-    <t>Nessun titolo di studio / Istruzione primaria</t>
-  </si>
-  <si>
     <t>Kein Abschluss / Grundschule</t>
   </si>
   <si>
@@ -3845,6 +3827,102 @@
   </si>
   <si>
     <t>before-tax (gross/brutto) monthly</t>
+  </si>
+  <si>
+    <t>ISCED 0-1 (primary or less), cf. https://gpseducation.oecd.org/CountryProfile</t>
+  </si>
+  <si>
+    <t>Szkoła podstawowa lub niższe</t>
+  </si>
+  <si>
+    <t>Świadectwo dojrzałości lub Świadectwo ukończenia szkoły</t>
+  </si>
+  <si>
+    <t>Dyplom zawodowy lub świadectwo ukończenia branżowej szkoły II stopnia</t>
+  </si>
+  <si>
+    <t>Świadectwo czeladnicze lub świadectwo ukończenia branżowej szkoły I stopnia</t>
+  </si>
+  <si>
+    <t>Niektóre szkoły średnie</t>
+  </si>
+  <si>
+    <t>Świadectwo dyplomowanego specjalisty</t>
+  </si>
+  <si>
+    <t>Licencjat lub inżynier</t>
+  </si>
+  <si>
+    <t>Magister, magister inżynier lub więcej</t>
+  </si>
+  <si>
+    <t>Świadectwo ukończenia szkoły policealnej</t>
+  </si>
+  <si>
+    <t>初等教育以下</t>
+  </si>
+  <si>
+    <t>中日</t>
+  </si>
+  <si>
+    <t>中等教育学校</t>
+  </si>
+  <si>
+    <t>高等学校卒業程度認定試験</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
+    <t>修士以上</t>
+  </si>
+  <si>
+    <t>専修学校</t>
+  </si>
+  <si>
+    <t>準学士または短機大学士</t>
+  </si>
+  <si>
+    <t>Начальная школа или меньше</t>
+  </si>
+  <si>
+    <t>Oсновное общее образование</t>
+  </si>
+  <si>
+    <t>Бакалавр</t>
+  </si>
+  <si>
+    <t>Магистр или более</t>
+  </si>
+  <si>
+    <t>Единый государственный экзамен (ЕГЭ)</t>
+  </si>
+  <si>
+    <t>Специалитет</t>
+  </si>
+  <si>
+    <t>Среднее общее образование (неполное)</t>
+  </si>
+  <si>
+    <t>Профессиональное училище или cреднее профессиональное образование</t>
+  </si>
+  <si>
+    <t>التعليم الابتدائي أو أقل</t>
+  </si>
+  <si>
+    <t>بعض المدارس الثانوية</t>
+  </si>
+  <si>
+    <t>المعاهد الثانوية الصناعية والبناء الصناعي</t>
+  </si>
+  <si>
+    <t>دبلوم مشارك</t>
+  </si>
+  <si>
+    <t>معاهد وكليات التعليم التقني والمهني أو الدبلوم العام المتوسط لكليات المجتمع</t>
+  </si>
+  <si>
+    <t>ماجستير أو أعلى</t>
   </si>
 </sst>
 </file>
@@ -4376,9 +4454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,14 +5082,14 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5573,7 +5651,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B30" s="35">
         <f>(C$3*C30+D$3*D30+E$3*E30+F$3*F30+G$3*G30+H$3*H30+I$3*I30)/5000</f>
@@ -5614,7 +5692,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B31" s="35">
         <f t="shared" ref="B31:B32" si="0">(C$3*C31+D$3*D31+E$3*E31+F$3*F31+G$3*G31+H$3*H31+I$3*I31)/5000</f>
@@ -5654,7 +5732,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B32" s="35">
         <f t="shared" si="0"/>
@@ -5727,28 +5805,41 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1047</v>
+        <v>1265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>1048</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1266</v>
+      </c>
       <c r="G35" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="H35" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="L35" s="2"/>
+        <v>1055</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>1291</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -5757,50 +5848,76 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D36" t="s">
         <v>1049</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1270</v>
+      </c>
       <c r="G36" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="H36" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="L36" s="2"/>
+        <v>1056</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1216</v>
+      </c>
       <c r="M36" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>1078</v>
+        <v>1257</v>
       </c>
       <c r="D37" t="s">
         <v>1050</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1269</v>
+      </c>
       <c r="G37" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H37" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="L37" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1292</v>
+      </c>
       <c r="M37" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -5809,24 +5926,34 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D38" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+        <v>1246</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1268</v>
+      </c>
       <c r="G38" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="H38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="L38" s="2"/>
+        <v>1058</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="M38" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -5835,23 +5962,38 @@
       </c>
       <c r="B39" s="32"/>
       <c r="C39" t="s">
-        <v>1080</v>
+        <v>1256</v>
       </c>
       <c r="D39" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+        <v>1051</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1267</v>
+      </c>
       <c r="G39" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="32"/>
+        <v>1059</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>1070</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5864,15 +6006,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="D40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="L40" s="2"/>
+        <v>1245</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>1294</v>
+      </c>
       <c r="M40" s="32" t="s">
-        <v>1072</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -5881,21 +6031,34 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+        <v>1076</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>1271</v>
+      </c>
       <c r="G41" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="H41" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="L41" s="2"/>
+        <v>1062</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>1295</v>
+      </c>
       <c r="M41" s="32" t="s">
-        <v>1073</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -5904,24 +6067,37 @@
       </c>
       <c r="B42" s="32"/>
       <c r="C42" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D42" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+        <v>1052</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>1272</v>
+      </c>
       <c r="G42" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="H42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="L42" s="2"/>
+        <v>1061</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1191</v>
+      </c>
       <c r="M42" s="32" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5931,28 +6107,41 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D43" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+        <v>1053</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>1273</v>
+      </c>
       <c r="G43" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="H43" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="L43" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>1296</v>
+      </c>
       <c r="M43" s="32" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -5969,304 +6158,31 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1097</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1102</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1166</v>
-      </c>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1167</v>
-      </c>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1168</v>
-      </c>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1129</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1130</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L48" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L49" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1140</v>
-      </c>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1146</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L51" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M51" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L52" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1094</v>
-      </c>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1164</v>
-      </c>
-      <c r="L53" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M53" t="s">
-        <v>1095</v>
-      </c>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
@@ -6282,277 +6198,32 @@
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1241</v>
-      </c>
+      <c r="A55"/>
       <c r="B55" s="2"/>
-      <c r="C55" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1231</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1230</v>
-      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1242</v>
-      </c>
+      <c r="A56"/>
       <c r="B56" s="2"/>
-      <c r="C56" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1220</v>
-      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1243</v>
-      </c>
+      <c r="A57"/>
       <c r="B57" s="2"/>
-      <c r="C57" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1213</v>
-      </c>
-      <c r="M57" t="s">
-        <v>1167</v>
-      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1247</v>
-      </c>
+      <c r="A58"/>
       <c r="B58" s="2"/>
-      <c r="C58" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M58" t="s">
-        <v>1204</v>
-      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1244</v>
-      </c>
+      <c r="A59"/>
       <c r="B59" s="2"/>
-      <c r="C59" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M59" t="s">
-        <v>1195</v>
-      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1245</v>
-      </c>
+      <c r="A60"/>
       <c r="B60" s="2"/>
-      <c r="C60" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K60" t="s">
-        <v>1189</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1187</v>
-      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1246</v>
-      </c>
+      <c r="A61"/>
       <c r="B61" s="2"/>
-      <c r="C61" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1178</v>
-      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -7064,319 +6735,375 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>244</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
-        <v>1076</v>
+      <c r="B2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1048</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>1243</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1079</v>
+      </c>
       <c r="G2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1057</v>
+        <v>1055</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s">
+        <v>1074</v>
+      </c>
       <c r="C3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D3" t="s">
         <v>1049</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>1112</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>1270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1080</v>
+      </c>
       <c r="G3" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
       <c r="H3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>1087</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1257</v>
+      </c>
       <c r="C4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D4" t="s">
         <v>1050</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>1250</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>1269</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1081</v>
+      </c>
       <c r="G4" t="s">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="H4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s">
+        <v>1075</v>
+      </c>
       <c r="C5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>1246</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1082</v>
+      </c>
       <c r="G5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1060</v>
+        <v>1058</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1258</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" t="s">
+        <v>1256</v>
+      </c>
       <c r="C6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D6" t="s">
         <v>1051</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>1251</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F6" s="32"/>
+        <v>1267</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1083</v>
+      </c>
       <c r="G6" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1061</v>
+        <v>1059</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>1259</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="32" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="D7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="32" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="J7" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>1081</v>
+      <c r="B8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>1253</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>1271</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1084</v>
+      </c>
       <c r="G8" t="s">
-        <v>1089</v>
+        <v>1062</v>
       </c>
       <c r="H8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="32" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" t="s">
+        <v>1077</v>
+      </c>
       <c r="C9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="32" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="B10" t="s">
+        <v>1078</v>
+      </c>
       <c r="C10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>1053</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1086</v>
+      </c>
       <c r="G10" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="H10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="32" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7386,311 +7113,310 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1169</v>
+        <v>1164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1091</v>
       </c>
       <c r="C12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G12" t="s">
         <v>1096</v>
       </c>
-      <c r="D12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1100</v>
-      </c>
       <c r="H12" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="I12" t="s">
         <v>1097</v>
       </c>
       <c r="J12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D13" t="s">
         <v>1102</v>
       </c>
-      <c r="K12" t="s">
+      <c r="E13" t="s">
         <v>1103</v>
       </c>
-      <c r="L12" t="s">
+      <c r="F13" t="s">
         <v>1104</v>
       </c>
-      <c r="M12" t="s">
+      <c r="H13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1170</v>
       </c>
-      <c r="C13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1171</v>
       </c>
-      <c r="C14" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1172</v>
       </c>
-      <c r="C15" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1129</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1130</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L20" t="s">
         <v>1090</v>
       </c>
-      <c r="H18" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1146</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1164</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7700,286 +7426,275 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1241</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1240</v>
       </c>
-      <c r="D22" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1231</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L24" t="s">
-        <v>1213</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1189</v>
-      </c>
-      <c r="L27" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B28" s="2"/>
+      <c r="B28" t="s">
+        <v>1181</v>
+      </c>
       <c r="C28" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D28" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="E28" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F28" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="G28" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="H28" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I28" t="s">
-        <v>1181</v>
+        <v>1158</v>
       </c>
       <c r="J28" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="K28" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="L28" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13706,7 +13421,7 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1040</v>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1301">
   <si>
     <t>Country</t>
   </si>
@@ -3923,6 +3923,18 @@
   </si>
   <si>
     <t>ماجستير أو أعلى</t>
+  </si>
+  <si>
+    <t>Proofreading, translation</t>
+  </si>
+  <si>
+    <t>Ewa $150</t>
+  </si>
+  <si>
+    <t>Aysha $55</t>
+  </si>
+  <si>
+    <t>https://stat.gov.pl/en/national-census/national-population-and-housing-census-2021/national-population-and-housing-census-2021/population-by-social-characteristics-preliminary-results-of-the-national-census-2021,5,1.html https://stat.gov.pl/spisy-powszechne/nsp-2021/nsp-2021-wyniki-wstepne/ludnosc-wedlug-cech-spolecznych-wyniki-wstepne-nsp-2021,2,1.html</t>
   </si>
 </sst>
 </file>
@@ -4455,8 +4467,8 @@
   <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6158,7 +6170,15 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45"/>
+      <c r="A45" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46"/>
@@ -6737,9 +6757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9743,7 +9763,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P70" sqref="A1:P70"/>
     </sheetView>
   </sheetViews>
@@ -13204,7 +13224,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13432,8 +13452,8 @@
       <c r="D12" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>1040</v>
+      <c r="E12" t="s">
+        <v>1300</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1040</v>
@@ -14495,8 +14515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1309">
   <si>
     <t>Country</t>
   </si>
@@ -3935,6 +3935,30 @@
   </si>
   <si>
     <t>https://stat.gov.pl/en/national-census/national-population-and-housing-census-2021/national-population-and-housing-census-2021/population-by-social-characteristics-preliminary-results-of-the-national-census-2021,5,1.html https://stat.gov.pl/spisy-powszechne/nsp-2021/nsp-2021-wyniki-wstepne/ludnosc-wedlug-cech-spolecznych-wyniki-wstepne-nsp-2021,2,1.html</t>
+  </si>
+  <si>
+    <t>net monthly</t>
+  </si>
+  <si>
+    <t>gross yearly</t>
+  </si>
+  <si>
+    <t>gross monthly</t>
+  </si>
+  <si>
+    <t>Income source</t>
+  </si>
+  <si>
+    <t>WID pretax</t>
+  </si>
+  <si>
+    <t>WID pretax OR US census</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>Gethin</t>
   </si>
 </sst>
 </file>
@@ -4464,11 +4488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F29:F32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,37 +5184,37 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>144</v>
+        <v>1301</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1302</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>144</v>
+        <v>1301</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>144</v>
+        <v>1301</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>144</v>
+        <v>1301</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>166</v>
+        <v>1302</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>166</v>
+        <v>1302</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>166</v>
+        <v>1302</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>144</v>
+        <v>1301</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>144</v>
+        <v>1303</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>166</v>
+        <v>1302</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="12"/>
@@ -5200,89 +5224,83 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="6">
-        <v>60000</v>
-      </c>
-      <c r="D18" s="6">
-        <v>61000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>53000</v>
-      </c>
-      <c r="F18" s="6">
-        <v>158000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>49000</v>
-      </c>
-      <c r="H18" s="6">
-        <v>58000</v>
-      </c>
-      <c r="I18" s="6">
-        <v>85000</v>
-      </c>
-      <c r="J18" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K18" s="35">
-        <v>2358000</v>
-      </c>
-      <c r="L18" s="6">
-        <v>121000</v>
-      </c>
-      <c r="M18" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+        <v>1304</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="10"/>
+      <c r="C19" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2358000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -5290,371 +5308,397 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6">
-        <v>91000</v>
-      </c>
-      <c r="D20" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>80000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G20" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H20" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I20" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J20" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K20" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L20" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M20" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>43</v>
+      <c r="C21" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M21" s="6">
+        <v>120000</v>
       </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>755000</v>
-      </c>
-      <c r="D22" s="6">
-        <v>758000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>664000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1974000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>607000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>722000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1063000</v>
-      </c>
-      <c r="J22" s="6">
-        <v>98298000</v>
-      </c>
-      <c r="K22" s="4">
-        <v>29472000</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1510000</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K23" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="L24" s="6" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>504</v>
+        <v>30</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B25" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="C25" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="D25" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="E25" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="F25" s="32">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G25" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="H25" s="32">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I25" s="32">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J25" s="32">
-        <v>158</v>
-      </c>
-      <c r="K25" s="32">
-        <v>105</v>
-      </c>
-      <c r="L25" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="M25" s="32">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D26" t="s">
-        <v>584</v>
-      </c>
-      <c r="E26" t="s">
-        <v>584</v>
-      </c>
-      <c r="F26" t="s">
-        <v>584</v>
-      </c>
-      <c r="G26" t="s">
-        <v>585</v>
-      </c>
-      <c r="H26" t="s">
-        <v>583</v>
-      </c>
-      <c r="I26" t="s">
-        <v>586</v>
-      </c>
-      <c r="J26" t="s">
-        <v>583</v>
-      </c>
-      <c r="K26" t="s">
-        <v>583</v>
-      </c>
-      <c r="L26" t="s">
-        <v>583</v>
-      </c>
-      <c r="R26" s="7"/>
+        <v>645</v>
+      </c>
+      <c r="B26" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="F26" s="32">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J26" s="32">
+        <v>158</v>
+      </c>
+      <c r="K26" s="32">
+        <v>105</v>
+      </c>
+      <c r="L26" s="32">
+        <v>3.75</v>
+      </c>
+      <c r="M26" s="32">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2">
-        <v>26</v>
-      </c>
-      <c r="K27" s="2">
-        <v>21</v>
-      </c>
-      <c r="L27" s="2">
-        <v>4</v>
-      </c>
-      <c r="M27" s="2">
-        <v>514</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B27" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" t="s">
+        <v>584</v>
+      </c>
+      <c r="D27" t="s">
+        <v>584</v>
+      </c>
+      <c r="E27" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" t="s">
+        <v>584</v>
+      </c>
+      <c r="G27" t="s">
+        <v>585</v>
+      </c>
+      <c r="H27" t="s">
+        <v>583</v>
+      </c>
+      <c r="I27" t="s">
+        <v>586</v>
+      </c>
+      <c r="J27" t="s">
+        <v>583</v>
+      </c>
+      <c r="K27" t="s">
+        <v>583</v>
+      </c>
+      <c r="L27" t="s">
+        <v>583</v>
+      </c>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2">
+        <v>15</v>
+      </c>
+      <c r="J28" s="2">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>21</v>
+      </c>
+      <c r="L28" s="2">
+        <v>4</v>
+      </c>
+      <c r="M28" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="19">
+      <c r="B29" s="6"/>
+      <c r="C29" s="19">
         <v>1.6</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D29" s="19">
         <v>0.9</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>0.5</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="19">
         <v>0.2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="19">
         <v>0.4</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>0.4</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>1.8</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J29" s="19">
         <v>0.5</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K29" s="19">
         <v>1</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L29" s="19">
         <v>0.4</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M29" s="19">
         <v>1.9</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="2"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -5662,153 +5706,154 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B30" s="35">
-        <f>(C$3*C30+D$3*D30+E$3*E30+F$3*F30+G$3*G30+H$3*H30+I$3*I30)/5000</f>
-        <v>20.4313</v>
-      </c>
-      <c r="C30" s="35">
-        <v>16.3</v>
-      </c>
-      <c r="D30" s="35">
-        <v>16.7</v>
-      </c>
-      <c r="E30" s="35">
-        <v>34.5</v>
-      </c>
-      <c r="F30" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="G30" s="35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H30" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="I30" s="35">
-        <v>13.7</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="35">
-        <v>8</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B31" s="35">
-        <f t="shared" ref="B31:B32" si="0">(C$3*C31+D$3*D31+E$3*E31+F$3*F31+G$3*G31+H$3*H31+I$3*I31)/5000</f>
-        <v>40.694020000000009</v>
-      </c>
-      <c r="C31" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="D31" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="E31" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="F31" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="G31" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="H31" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="I31" s="6">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J31" s="6"/>
+        <f>(C$3*C31+D$3*D31+E$3*E31+F$3*F31+G$3*G31+H$3*H31+I$3*I31)/5000</f>
+        <v>20.4313</v>
+      </c>
+      <c r="C31" s="35">
+        <v>16.3</v>
+      </c>
+      <c r="D31" s="35">
+        <v>16.7</v>
+      </c>
+      <c r="E31" s="35">
+        <v>34.5</v>
+      </c>
+      <c r="F31" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="G31" s="35">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H31" s="35">
+        <v>17.8</v>
+      </c>
+      <c r="I31" s="35">
+        <v>13.7</v>
+      </c>
+      <c r="J31" s="35"/>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <v>41.3</v>
-      </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="M31" s="35">
+        <v>8</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B32" s="35">
-        <f t="shared" si="0"/>
-        <v>38.83728</v>
+        <f t="shared" ref="B32:B33" si="0">(C$3*C32+D$3*D32+E$3*E32+F$3*F32+G$3*G32+H$3*H32+I$3*I32)/5000</f>
+        <v>40.694020000000009</v>
       </c>
       <c r="C32" s="6">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="D32" s="6">
-        <v>33.4</v>
+        <v>49.9</v>
       </c>
       <c r="E32" s="6">
-        <v>21.6</v>
+        <v>43.9</v>
       </c>
       <c r="F32" s="6">
-        <v>37.9</v>
+        <v>56.4</v>
       </c>
       <c r="G32" s="6">
-        <v>41.4</v>
+        <v>22.7</v>
       </c>
       <c r="H32" s="6">
-        <v>52.7</v>
+        <v>29.5</v>
       </c>
       <c r="I32" s="6">
-        <v>46</v>
-      </c>
-      <c r="J32" s="6">
-        <v>56</v>
-      </c>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J32" s="6"/>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B33" s="35">
+        <f t="shared" si="0"/>
+        <v>38.83728</v>
+      </c>
+      <c r="C33" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D33" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="E33" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="F33" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="G33" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="H33" s="6">
+        <v>52.7</v>
+      </c>
+      <c r="I33" s="6">
+        <v>46</v>
+      </c>
+      <c r="J33" s="6">
+        <v>56</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6">
         <v>50.7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="23"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="23"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5816,372 +5861,386 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1042</v>
+        <v>1265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>1112</v>
+        <v>1073</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>1243</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H36" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1218</v>
+        <v>1055</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1216</v>
+        <v>1283</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>1257</v>
+        <v>1074</v>
       </c>
       <c r="D37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1250</v>
+        <v>1112</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G37" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H37" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I37" t="s">
-        <v>1255</v>
+        <v>1218</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="L37" t="s">
-        <v>1292</v>
+        <v>1216</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>1075</v>
+        <v>1257</v>
       </c>
       <c r="D38" t="s">
-        <v>1246</v>
+        <v>1050</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G38" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H38" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>1258</v>
+        <v>1057</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1255</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1292</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>1256</v>
+        <v>1075</v>
       </c>
       <c r="D39" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J39" s="32" t="s">
-        <v>1278</v>
+        <v>1058</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>1281</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M39" s="32" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" t="s">
+        <v>1256</v>
+      </c>
       <c r="D40" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>1274</v>
+        <v>1051</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="G40" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2" t="s">
-        <v>1294</v>
+        <v>1083</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1208</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>1202</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" t="s">
-        <v>1076</v>
+      <c r="D41" t="s">
+        <v>1245</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="G41" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>1288</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>1247</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B42" s="32"/>
+        <v>1045</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>1249</v>
+        <v>1076</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>1253</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G42" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H42" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I42" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1191</v>
+        <v>1282</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+        <v>1247</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
         <v>1078</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>1053</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F44" s="32" t="s">
         <v>1273</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>1086</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>1060</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>1261</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J44" s="32" t="s">
         <v>1280</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K44" s="32" t="s">
         <v>1286</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L44" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="M43" s="32" t="s">
+      <c r="M44" s="32" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="2"/>
-    </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47"/>
@@ -6205,21 +6264,20 @@
       <c r="A53"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55"/>
       <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -6246,57 +6304,48 @@
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="32"/>
+      <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="M66" s="32"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -6307,14 +6356,9 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="5"/>
-      <c r="L67" s="6"/>
+      <c r="J67" s="2"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -6325,29 +6369,30 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="J68" s="5"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
@@ -6361,6 +6406,10 @@
       <c r="J70" s="18"/>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
@@ -6375,34 +6424,33 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="M73" s="31"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="24"/>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="M74" s="31"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -6431,21 +6479,21 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="24"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="A78" s="22"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -6477,31 +6525,31 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="31"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="M82" s="31"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
@@ -6530,11 +6578,6 @@
       <c r="J84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -6568,6 +6611,11 @@
       <c r="J86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -6638,8 +6686,6 @@
       <c r="J91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
@@ -6654,99 +6700,115 @@
       <c r="J92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="1"/>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="R92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="2"/>
+      <c r="R93" s="8"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="6"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L100" s="2"/>
-    </row>
-    <row r="139" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="6"/>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="140" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6758,8 +6820,8 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10074,59 +10136,59 @@
         <v>418</v>
       </c>
       <c r="B7">
-        <f>1/Figures!C25</f>
+        <f>1/Figures!C26</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="C7">
-        <f>1/Figures!D25</f>
+        <f>1/Figures!D26</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="D7">
-        <f>1/Figures!E25</f>
+        <f>1/Figures!E26</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="E7">
-        <f>1/Figures!F25</f>
+        <f>1/Figures!F26</f>
         <v>0.24096385542168672</v>
       </c>
       <c r="F7">
-        <f>1/Figures!G25</f>
+        <f>1/Figures!G26</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="G7">
-        <f>1/Figures!H25</f>
+        <f>1/Figures!H26</f>
         <v>1.2360939431396785</v>
       </c>
       <c r="H7">
-        <f>1/Figures!I25</f>
+        <f>1/Figures!I26</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="I7">
-        <f>1/Figures!J25</f>
+        <f>1/Figures!J26</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="J7">
-        <f>1/Figures!K25</f>
+        <f>1/Figures!K26</f>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="K7">
-        <f>1/Figures!L25</f>
+        <f>1/Figures!L26</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="L7">
-        <f>1/Figures!M25</f>
+        <f>1/Figures!M26</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>1/Figures!I25</f>
+        <f>1/Figures!I26</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="N7">
-        <f>1/Figures!I25</f>
+        <f>1/Figures!I26</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="O7">
-        <f>1/Figures!I25</f>
+        <f>1/Figures!I26</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="P7">
@@ -14515,7 +14577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="features" sheetId="7" r:id="rId4"/>
     <sheet name="Sources" sheetId="3" r:id="rId5"/>
     <sheet name="Income" sheetId="5" r:id="rId6"/>
-    <sheet name="Policies" sheetId="6" r:id="rId7"/>
-    <sheet name="Figures (2023)" sheetId="4" r:id="rId8"/>
-    <sheet name="ReadMe" sheetId="2" r:id="rId9"/>
+    <sheet name="income_raw" sheetId="10" r:id="rId7"/>
+    <sheet name="Policies" sheetId="6" r:id="rId8"/>
+    <sheet name="Figures (2023)" sheetId="4" r:id="rId9"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1376">
   <si>
     <t>Country</t>
   </si>
@@ -3952,13 +3953,214 @@
     <t>WID pretax</t>
   </si>
   <si>
-    <t>WID pretax OR US census</t>
-  </si>
-  <si>
     <t>Eurostat</t>
   </si>
   <si>
-    <t>Gethin</t>
+    <t>fr20</t>
+  </si>
+  <si>
+    <t>de20</t>
+  </si>
+  <si>
+    <t>it20</t>
+  </si>
+  <si>
+    <t>pl20</t>
+  </si>
+  <si>
+    <t>es22</t>
+  </si>
+  <si>
+    <t>uk21</t>
+  </si>
+  <si>
+    <t>ch19</t>
+  </si>
+  <si>
+    <t>jp20</t>
+  </si>
+  <si>
+    <t>ru22</t>
+  </si>
+  <si>
+    <t>us23</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>au18</t>
+  </si>
+  <si>
+    <t>at21</t>
+  </si>
+  <si>
+    <t>be21</t>
+  </si>
+  <si>
+    <t>br22</t>
+  </si>
+  <si>
+    <t>cn18</t>
+  </si>
+  <si>
+    <t>co23</t>
+  </si>
+  <si>
+    <t>dk22</t>
+  </si>
+  <si>
+    <t>kr21</t>
+  </si>
+  <si>
+    <t>ie21</t>
+  </si>
+  <si>
+    <t>il21</t>
+  </si>
+  <si>
+    <t>lt21</t>
+  </si>
+  <si>
+    <t>lu21</t>
+  </si>
+  <si>
+    <t>ml20</t>
+  </si>
+  <si>
+    <t>mx22</t>
+  </si>
+  <si>
+    <t>nl21</t>
+  </si>
+  <si>
+    <t>no21</t>
+  </si>
+  <si>
+    <t>pe21</t>
+  </si>
+  <si>
+    <t>ro21</t>
+  </si>
+  <si>
+    <t>rs22</t>
+  </si>
+  <si>
+    <t>se21</t>
+  </si>
+  <si>
+    <t>tw21</t>
+  </si>
+  <si>
+    <t>uy22</t>
+  </si>
+  <si>
+    <t>za17</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>LIS total income</t>
+  </si>
+  <si>
+    <t>LIS disposable or Gethin</t>
+  </si>
+  <si>
+    <t>LIS total income OR WID pretax OR US census</t>
+  </si>
+  <si>
+    <t>GNI pc 2023, current LCU (https://data.worldbank.org/indicator/NY.GNP.PCAP.CN?end=2023&amp;locations=GB-CH-JP-RU-US&amp;start=2019, 02/14/2025)</t>
+  </si>
+  <si>
+    <t>GNI pc LIS_year, current LCU (https://data.worldbank.org/indicator/NY.GNP.PCAP.CN?end=2023&amp;locations=GB-CH-JP-RU-US&amp;start=2019, 02/14/2025)</t>
+  </si>
+  <si>
+    <t>GDP pc 2023, current $ (https://www.imf.org/external/datamapper/NGDPDPC@WEO/FRA/DEU/POL/RUS/ESP/CHE/GBR/USA/ITA/SAU/JPN, 02/14/2025)</t>
+  </si>
+  <si>
+    <t>GDP pc 2024, current $ (https://www.imf.org/external/datamapper/NGDPDPC@WEO/FRA/DEU/POL/RUS/ESP/CHE/GBR/USA/ITA/SAU/JPN, 02/14/2025)</t>
+  </si>
+  <si>
+    <t>LCU/$ 2023, https://www.irs.gov/individuals/international-taxpayers/yearly-average-currency-exchange-rates and PL: https://www.ofx.com/en-ie/forex-news/historical-exchange-rates/yearly-average-rates/ (02/14/2025)</t>
+  </si>
+  <si>
+    <t>LCU/$ 2024, https://www.irs.gov/individuals/international-taxpayers/yearly-average-currency-exchange-rates and PL: https://www.ofx.com/en-ie/forex-news/historical-exchange-rates/yearly-average-rates/ (02/14/2025)</t>
+  </si>
+  <si>
+    <t>GNI pc 2024 over 2023, current LCU (own estimate)</t>
+  </si>
+  <si>
+    <t>GNI pc 2023 over LIS_year, current LCU (own estimate)</t>
+  </si>
+  <si>
+    <t>2024 individualized income</t>
+  </si>
+  <si>
+    <t>GNI pc 2024 over LIS_year current LCU (own estimate)</t>
+  </si>
+  <si>
+    <t>LIS total income (equivalised LCU, 02/14/2025, cf. data/LIS_income_deciles.txt)</t>
+  </si>
+  <si>
+    <t>LIS disposable cash income (equivalised LCU, 02/14/2025, cf. data/LIS_income_deciles.txt)</t>
+  </si>
+  <si>
+    <t>Eurostat disposable income (equivalised LCU, https://ec.europa.eu/eurostat/databrowser/view/ilc_di01/default/table?lang=en&amp;category=livcon.ilc.ilc_ip.ilc_di, 02/13/2025)</t>
+  </si>
+  <si>
+    <t>FR23</t>
+  </si>
+  <si>
+    <t>DE24</t>
+  </si>
+  <si>
+    <t>IT23</t>
+  </si>
+  <si>
+    <t>PL23</t>
+  </si>
+  <si>
+    <t>ES23</t>
+  </si>
+  <si>
+    <t>CH23</t>
+  </si>
+  <si>
+    <t>Periodicity</t>
+  </si>
+  <si>
+    <t>Rounding</t>
   </si>
 </sst>
 </file>
@@ -4488,11 +4690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,31 +5430,37 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+        <v>1306</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>1352</v>
+      </c>
       <c r="K18" s="19" t="s">
-        <v>1308</v>
+        <v>1353</v>
       </c>
       <c r="L18" s="19" t="s">
         <v>1305</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>1306</v>
+        <v>1354</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="12"/>
@@ -5261,90 +5469,87 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="6">
-        <v>60000</v>
-      </c>
-      <c r="D19" s="6">
-        <v>61000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>53000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>158000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>49000</v>
-      </c>
-      <c r="H19" s="6">
-        <v>58000</v>
-      </c>
-      <c r="I19" s="6">
-        <v>85000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K19" s="35">
-        <v>2358000</v>
-      </c>
-      <c r="L19" s="6">
-        <v>121000</v>
-      </c>
-      <c r="M19" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="10"/>
+      <c r="C20" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K20" s="35">
+        <v>2358000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -5352,371 +5557,397 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6">
-        <v>91000</v>
-      </c>
-      <c r="D21" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>80000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G21" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I21" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J21" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K21" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L21" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M21" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>43</v>
+      <c r="C22" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L22" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M22" s="6">
+        <v>120000</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
-        <v>755000</v>
-      </c>
-      <c r="D23" s="6">
-        <v>758000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>664000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1974000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>607000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>722000</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1063000</v>
-      </c>
-      <c r="J23" s="6">
-        <v>98298000</v>
-      </c>
-      <c r="K23" s="4">
-        <v>29472000</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1510000</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G24" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J24" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K24" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="L25" s="6" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>504</v>
+        <v>30</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="D26" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="F26" s="32">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G26" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J26" s="32">
-        <v>158</v>
-      </c>
-      <c r="K26" s="32">
-        <v>105</v>
-      </c>
-      <c r="L26" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="M26" s="32">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B27" t="s">
-        <v>660</v>
-      </c>
-      <c r="C27" t="s">
-        <v>584</v>
-      </c>
-      <c r="D27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E27" t="s">
-        <v>584</v>
-      </c>
-      <c r="F27" t="s">
-        <v>584</v>
-      </c>
-      <c r="G27" t="s">
-        <v>585</v>
-      </c>
-      <c r="H27" t="s">
-        <v>583</v>
-      </c>
-      <c r="I27" t="s">
-        <v>586</v>
-      </c>
-      <c r="J27" t="s">
-        <v>583</v>
-      </c>
-      <c r="K27" t="s">
-        <v>583</v>
-      </c>
-      <c r="L27" t="s">
-        <v>583</v>
-      </c>
-      <c r="R27" s="7"/>
+        <v>645</v>
+      </c>
+      <c r="B27" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="F27" s="32">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J27" s="32">
+        <v>158</v>
+      </c>
+      <c r="K27" s="32">
+        <v>105</v>
+      </c>
+      <c r="L27" s="32">
+        <v>3.75</v>
+      </c>
+      <c r="M27" s="32">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2">
-        <v>26</v>
-      </c>
-      <c r="K28" s="2">
-        <v>21</v>
-      </c>
-      <c r="L28" s="2">
-        <v>4</v>
-      </c>
-      <c r="M28" s="2">
-        <v>514</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B28" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" t="s">
+        <v>584</v>
+      </c>
+      <c r="D28" t="s">
+        <v>584</v>
+      </c>
+      <c r="E28" t="s">
+        <v>584</v>
+      </c>
+      <c r="F28" t="s">
+        <v>584</v>
+      </c>
+      <c r="G28" t="s">
+        <v>585</v>
+      </c>
+      <c r="H28" t="s">
+        <v>583</v>
+      </c>
+      <c r="I28" t="s">
+        <v>586</v>
+      </c>
+      <c r="J28" t="s">
+        <v>583</v>
+      </c>
+      <c r="K28" t="s">
+        <v>583</v>
+      </c>
+      <c r="L28" t="s">
+        <v>583</v>
+      </c>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2">
+        <v>15</v>
+      </c>
+      <c r="J29" s="2">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="19">
+      <c r="B30" s="6"/>
+      <c r="C30" s="19">
         <v>1.6</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <v>0.9</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>0.5</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>0.2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="19">
         <v>0.4</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>0.4</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>1.8</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>0.5</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="19">
         <v>1</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L30" s="19">
         <v>0.4</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M30" s="19">
         <v>1.9</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="2"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -5724,153 +5955,154 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B31" s="35">
-        <f>(C$3*C31+D$3*D31+E$3*E31+F$3*F31+G$3*G31+H$3*H31+I$3*I31)/5000</f>
-        <v>20.4313</v>
-      </c>
-      <c r="C31" s="35">
-        <v>16.3</v>
-      </c>
-      <c r="D31" s="35">
-        <v>16.7</v>
-      </c>
-      <c r="E31" s="35">
-        <v>34.5</v>
-      </c>
-      <c r="F31" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="G31" s="35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H31" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="I31" s="35">
-        <v>13.7</v>
-      </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="35">
-        <v>8</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B32" s="35">
-        <f t="shared" ref="B32:B33" si="0">(C$3*C32+D$3*D32+E$3*E32+F$3*F32+G$3*G32+H$3*H32+I$3*I32)/5000</f>
-        <v>40.694020000000009</v>
-      </c>
-      <c r="C32" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="E32" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="F32" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="G32" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="H32" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="I32" s="6">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J32" s="6"/>
+        <f>(C$3*C32+D$3*D32+E$3*E32+F$3*F32+G$3*G32+H$3*H32+I$3*I32)/5000</f>
+        <v>20.4313</v>
+      </c>
+      <c r="C32" s="35">
+        <v>16.3</v>
+      </c>
+      <c r="D32" s="35">
+        <v>16.7</v>
+      </c>
+      <c r="E32" s="35">
+        <v>34.5</v>
+      </c>
+      <c r="F32" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="G32" s="35">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H32" s="35">
+        <v>17.8</v>
+      </c>
+      <c r="I32" s="35">
+        <v>13.7</v>
+      </c>
+      <c r="J32" s="35"/>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6">
-        <v>41.3</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="M32" s="35">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B33" s="35">
-        <f t="shared" si="0"/>
-        <v>38.83728</v>
+        <f t="shared" ref="B33:B34" si="0">(C$3*C33+D$3*D33+E$3*E33+F$3*F33+G$3*G33+H$3*H33+I$3*I33)/5000</f>
+        <v>40.694020000000009</v>
       </c>
       <c r="C33" s="6">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="D33" s="6">
-        <v>33.4</v>
+        <v>49.9</v>
       </c>
       <c r="E33" s="6">
-        <v>21.6</v>
+        <v>43.9</v>
       </c>
       <c r="F33" s="6">
-        <v>37.9</v>
+        <v>56.4</v>
       </c>
       <c r="G33" s="6">
-        <v>41.4</v>
+        <v>22.7</v>
       </c>
       <c r="H33" s="6">
-        <v>52.7</v>
+        <v>29.5</v>
       </c>
       <c r="I33" s="6">
-        <v>46</v>
-      </c>
-      <c r="J33" s="6">
-        <v>56</v>
-      </c>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B34" s="35">
+        <f t="shared" si="0"/>
+        <v>38.83728</v>
+      </c>
+      <c r="C34" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="E34" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="F34" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="G34" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="H34" s="6">
+        <v>52.7</v>
+      </c>
+      <c r="I34" s="6">
+        <v>46</v>
+      </c>
+      <c r="J34" s="6">
+        <v>56</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6">
         <v>50.7</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="23"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="23"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="32"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5878,372 +6110,386 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1042</v>
+        <v>1265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1112</v>
+        <v>1073</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>1243</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1218</v>
+        <v>1055</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1216</v>
+        <v>1283</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>1257</v>
+        <v>1074</v>
       </c>
       <c r="D38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1250</v>
+        <v>1112</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I38" t="s">
-        <v>1255</v>
+        <v>1218</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="L38" t="s">
-        <v>1292</v>
+        <v>1216</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>1075</v>
+        <v>1257</v>
       </c>
       <c r="D39" t="s">
-        <v>1246</v>
+        <v>1050</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>1258</v>
+        <v>1057</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1255</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1292</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="2"/>
       <c r="C40" t="s">
-        <v>1256</v>
+        <v>1075</v>
       </c>
       <c r="D40" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G40" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H40" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>1278</v>
+        <v>1058</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>1281</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M40" s="32" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" t="s">
+        <v>1256</v>
+      </c>
       <c r="D41" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>1274</v>
+        <v>1051</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="G41" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
-        <v>1294</v>
+        <v>1083</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1208</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>1202</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" t="s">
-        <v>1076</v>
+      <c r="D42" t="s">
+        <v>1245</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="G42" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>1288</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>1247</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B43" s="32"/>
+        <v>1045</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1249</v>
+        <v>1076</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>1253</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G43" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H43" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I43" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1191</v>
+        <v>1282</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+        <v>1247</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
         <v>1078</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>1053</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F45" s="32" t="s">
         <v>1273</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>1086</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>1060</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>1261</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J45" s="32" t="s">
         <v>1280</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K45" s="32" t="s">
         <v>1286</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="M44" s="32" t="s">
+      <c r="M45" s="32" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="2"/>
-    </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48"/>
@@ -6267,21 +6513,20 @@
       <c r="A54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56"/>
       <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57"/>
@@ -6308,57 +6553,48 @@
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="32"/>
+      <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="M67" s="32"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -6369,14 +6605,9 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="5"/>
-      <c r="L68" s="6"/>
+      <c r="J68" s="2"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
@@ -6387,29 +6618,30 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="J69" s="5"/>
+      <c r="L69" s="6"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
@@ -6423,6 +6655,10 @@
       <c r="J71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
@@ -6437,34 +6673,33 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
-    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="M74" s="31"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="24"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="M75" s="31"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
@@ -6493,21 +6728,21 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="24"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="A79" s="22"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -6539,31 +6774,31 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="31"/>
+      <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="M83" s="31"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -6592,11 +6827,6 @@
       <c r="J85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
@@ -6630,6 +6860,11 @@
       <c r="J87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -6700,8 +6935,6 @@
       <c r="J92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -6716,102 +6949,153 @@
       <c r="J93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-      <c r="N93" s="1"/>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="R93" s="8"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="2"/>
+      <c r="R94" s="8"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="6"/>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L101" s="2"/>
-    </row>
-    <row r="140" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="6"/>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="141" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10136,59 +10420,59 @@
         <v>418</v>
       </c>
       <c r="B7">
-        <f>1/Figures!C26</f>
+        <f>1/Figures!C27</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="C7">
-        <f>1/Figures!D26</f>
+        <f>1/Figures!D27</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="D7">
-        <f>1/Figures!E26</f>
+        <f>1/Figures!E27</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="E7">
-        <f>1/Figures!F26</f>
+        <f>1/Figures!F27</f>
         <v>0.24096385542168672</v>
       </c>
       <c r="F7">
-        <f>1/Figures!G26</f>
+        <f>1/Figures!G27</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="G7">
-        <f>1/Figures!H26</f>
+        <f>1/Figures!H27</f>
         <v>1.2360939431396785</v>
       </c>
       <c r="H7">
-        <f>1/Figures!I26</f>
+        <f>1/Figures!I27</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="I7">
-        <f>1/Figures!J26</f>
+        <f>1/Figures!J27</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="J7">
-        <f>1/Figures!K26</f>
+        <f>1/Figures!K27</f>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="K7">
-        <f>1/Figures!L26</f>
+        <f>1/Figures!L27</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="L7">
-        <f>1/Figures!M26</f>
+        <f>1/Figures!M27</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>1/Figures!I26</f>
+        <f>1/Figures!I27</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="N7">
-        <f>1/Figures!I26</f>
+        <f>1/Figures!I27</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="O7">
-        <f>1/Figures!I26</f>
+        <f>1/Figures!I27</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="P7">
@@ -14578,7 +14862,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14622,55 +14906,539 @@
       <c r="A2" t="s">
         <v>298</v>
       </c>
+      <c r="B2">
+        <f>income_raw!B$15*ROUND(income_raw!B2/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>1100</v>
+      </c>
+      <c r="C2">
+        <f>income_raw!C$15*ROUND(income_raw!C2/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>1200</v>
+      </c>
+      <c r="D2">
+        <f>income_raw!D$15*ROUND(income_raw!D2/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <f>income_raw!E$15*ROUND(income_raw!E2/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>2100</v>
+      </c>
+      <c r="F2">
+        <f>income_raw!F$15*ROUND(income_raw!F2/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>700</v>
+      </c>
+      <c r="G2">
+        <f>income_raw!G$15*ROUND(income_raw!G2/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>13500</v>
+      </c>
+      <c r="H2">
+        <f>income_raw!H$15*ROUND(income_raw!H2/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>40000</v>
+      </c>
+      <c r="I2">
+        <f>income_raw!I$15*ROUND(income_raw!I2/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>1580000</v>
+      </c>
+      <c r="J2">
+        <f>income_raw!J$15*ROUND(income_raw!J2/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>30000</v>
+      </c>
+      <c r="K2">
+        <f>income_raw!K$15*ROUND(income_raw!K2/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>income_raw!L$15*ROUND(income_raw!L2/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>19000</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
+      <c r="B3">
+        <f>income_raw!B$15*ROUND(income_raw!B3/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>1400</v>
+      </c>
+      <c r="C3">
+        <f>income_raw!C$15*ROUND(income_raw!C3/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>1500</v>
+      </c>
+      <c r="D3">
+        <f>income_raw!D$15*ROUND(income_raw!D3/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1050</v>
+      </c>
+      <c r="E3">
+        <f>income_raw!E$15*ROUND(income_raw!E3/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>2700</v>
+      </c>
+      <c r="F3">
+        <f>income_raw!F$15*ROUND(income_raw!F3/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>950</v>
+      </c>
+      <c r="G3">
+        <f>income_raw!G$15*ROUND(income_raw!G3/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>17500</v>
+      </c>
+      <c r="H3">
+        <f>income_raw!H$15*ROUND(income_raw!H3/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>50000</v>
+      </c>
+      <c r="I3">
+        <f>income_raw!I$15*ROUND(income_raw!I3/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>2210000</v>
+      </c>
+      <c r="J3">
+        <f>income_raw!J$15*ROUND(income_raw!J3/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>37000</v>
+      </c>
+      <c r="K3">
+        <f>income_raw!K$15*ROUND(income_raw!K3/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>income_raw!L$15*ROUND(income_raw!L3/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>27000</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
+      <c r="B4">
+        <f>income_raw!B$15*ROUND(income_raw!B4/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <f>income_raw!C$15*ROUND(income_raw!C4/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>1650</v>
+      </c>
+      <c r="D4">
+        <f>income_raw!D$15*ROUND(income_raw!D4/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1150</v>
+      </c>
+      <c r="E4">
+        <f>income_raw!E$15*ROUND(income_raw!E4/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>2950</v>
+      </c>
+      <c r="F4">
+        <f>income_raw!F$15*ROUND(income_raw!F4/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>1100</v>
+      </c>
+      <c r="G4">
+        <f>income_raw!G$15*ROUND(income_raw!G4/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>18500</v>
+      </c>
+      <c r="H4">
+        <f>income_raw!H$15*ROUND(income_raw!H4/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>54000</v>
+      </c>
+      <c r="I4">
+        <f>income_raw!I$15*ROUND(income_raw!I4/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>2470000</v>
+      </c>
+      <c r="J4">
+        <f>income_raw!J$15*ROUND(income_raw!J4/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>40000</v>
+      </c>
+      <c r="K4">
+        <f>income_raw!K$15*ROUND(income_raw!K4/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>income_raw!L$15*ROUND(income_raw!L4/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>31000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
+      <c r="B5">
+        <f>income_raw!B$15*ROUND(income_raw!B5/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>1650</v>
+      </c>
+      <c r="C5">
+        <f>income_raw!C$15*ROUND(income_raw!C5/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <f>income_raw!D$15*ROUND(income_raw!D5/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1250</v>
+      </c>
+      <c r="E5">
+        <f>income_raw!E$15*ROUND(income_raw!E5/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>3150</v>
+      </c>
+      <c r="F5">
+        <f>income_raw!F$15*ROUND(income_raw!F5/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>1200</v>
+      </c>
+      <c r="G5">
+        <f>income_raw!G$15*ROUND(income_raw!G5/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>20500</v>
+      </c>
+      <c r="H5">
+        <f>income_raw!H$15*ROUND(income_raw!H5/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>58000</v>
+      </c>
+      <c r="I5">
+        <f>income_raw!I$15*ROUND(income_raw!I5/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>2720000</v>
+      </c>
+      <c r="J5">
+        <f>income_raw!J$15*ROUND(income_raw!J5/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>43000</v>
+      </c>
+      <c r="K5">
+        <f>income_raw!K$15*ROUND(income_raw!K5/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>income_raw!L$15*ROUND(income_raw!L5/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>35000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
+      <c r="B6">
+        <f>income_raw!B$15*ROUND(income_raw!B6/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>1850</v>
+      </c>
+      <c r="C6">
+        <f>income_raw!C$15*ROUND(income_raw!C6/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>2050</v>
+      </c>
+      <c r="D6">
+        <f>income_raw!D$15*ROUND(income_raw!D6/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <f>income_raw!E$15*ROUND(income_raw!E6/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>3550</v>
+      </c>
+      <c r="F6">
+        <f>income_raw!F$15*ROUND(income_raw!F6/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>1400</v>
+      </c>
+      <c r="G6">
+        <f>income_raw!G$15*ROUND(income_raw!G6/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>24000</v>
+      </c>
+      <c r="H6">
+        <f>income_raw!H$15*ROUND(income_raw!H6/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>66000</v>
+      </c>
+      <c r="I6">
+        <f>income_raw!I$15*ROUND(income_raw!I6/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>3210000</v>
+      </c>
+      <c r="J6">
+        <f>income_raw!J$15*ROUND(income_raw!J6/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>50000</v>
+      </c>
+      <c r="K6">
+        <f>income_raw!K$15*ROUND(income_raw!K6/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>income_raw!L$15*ROUND(income_raw!L6/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>44000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>302</v>
       </c>
+      <c r="B7">
+        <f>income_raw!B$15*ROUND(income_raw!B7/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>2100</v>
+      </c>
+      <c r="C7">
+        <f>income_raw!C$15*ROUND(income_raw!C7/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>2300</v>
+      </c>
+      <c r="D7">
+        <f>income_raw!D$15*ROUND(income_raw!D7/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1700</v>
+      </c>
+      <c r="E7">
+        <f>income_raw!E$15*ROUND(income_raw!E7/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>3950</v>
+      </c>
+      <c r="F7">
+        <f>income_raw!F$15*ROUND(income_raw!F7/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>1600</v>
+      </c>
+      <c r="G7">
+        <f>income_raw!G$15*ROUND(income_raw!G7/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>28500</v>
+      </c>
+      <c r="H7">
+        <f>income_raw!H$15*ROUND(income_raw!H7/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>75000</v>
+      </c>
+      <c r="I7">
+        <f>income_raw!I$15*ROUND(income_raw!I7/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>3730000</v>
+      </c>
+      <c r="J7">
+        <f>income_raw!J$15*ROUND(income_raw!J7/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>57000</v>
+      </c>
+      <c r="K7">
+        <f>income_raw!K$15*ROUND(income_raw!K7/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>income_raw!L$15*ROUND(income_raw!L7/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>54000</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>304</v>
       </c>
+      <c r="B8">
+        <f>income_raw!B$15*ROUND(income_raw!B8/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>2350</v>
+      </c>
+      <c r="C8">
+        <f>income_raw!C$15*ROUND(income_raw!C8/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>2600</v>
+      </c>
+      <c r="D8">
+        <f>income_raw!D$15*ROUND(income_raw!D8/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>1950</v>
+      </c>
+      <c r="E8">
+        <f>income_raw!E$15*ROUND(income_raw!E8/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>4400</v>
+      </c>
+      <c r="F8">
+        <f>income_raw!F$15*ROUND(income_raw!F8/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>1850</v>
+      </c>
+      <c r="G8">
+        <f>income_raw!G$15*ROUND(income_raw!G8/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>33500</v>
+      </c>
+      <c r="H8">
+        <f>income_raw!H$15*ROUND(income_raw!H8/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>85000</v>
+      </c>
+      <c r="I8">
+        <f>income_raw!I$15*ROUND(income_raw!I8/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>4350000</v>
+      </c>
+      <c r="J8">
+        <f>income_raw!J$15*ROUND(income_raw!J8/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>65000</v>
+      </c>
+      <c r="K8">
+        <f>income_raw!K$15*ROUND(income_raw!K8/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>income_raw!L$15*ROUND(income_raw!L8/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>65000</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>305</v>
       </c>
+      <c r="B9">
+        <f>income_raw!B$15*ROUND(income_raw!B9/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>2650</v>
+      </c>
+      <c r="C9">
+        <f>income_raw!C$15*ROUND(income_raw!C9/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>2950</v>
+      </c>
+      <c r="D9">
+        <f>income_raw!D$15*ROUND(income_raw!D9/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>2250</v>
+      </c>
+      <c r="E9">
+        <f>income_raw!E$15*ROUND(income_raw!E9/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="F9">
+        <f>income_raw!F$15*ROUND(income_raw!F9/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>2100</v>
+      </c>
+      <c r="G9">
+        <f>income_raw!G$15*ROUND(income_raw!G9/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>39000</v>
+      </c>
+      <c r="H9">
+        <f>income_raw!H$15*ROUND(income_raw!H9/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>97000</v>
+      </c>
+      <c r="I9">
+        <f>income_raw!I$15*ROUND(income_raw!I9/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>4970000</v>
+      </c>
+      <c r="J9">
+        <f>income_raw!J$15*ROUND(income_raw!J9/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>76000</v>
+      </c>
+      <c r="K9">
+        <f>income_raw!K$15*ROUND(income_raw!K9/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>income_raw!L$15*ROUND(income_raw!L9/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>80000</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>306</v>
       </c>
+      <c r="B10">
+        <f>income_raw!B$15*ROUND(income_raw!B10/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>2850</v>
+      </c>
+      <c r="C10">
+        <f>income_raw!C$15*ROUND(income_raw!C10/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>3200</v>
+      </c>
+      <c r="D10">
+        <f>income_raw!D$15*ROUND(income_raw!D10/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>2400</v>
+      </c>
+      <c r="E10">
+        <f>income_raw!E$15*ROUND(income_raw!E10/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>5300</v>
+      </c>
+      <c r="F10">
+        <f>income_raw!F$15*ROUND(income_raw!F10/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>2300</v>
+      </c>
+      <c r="G10">
+        <f>income_raw!G$15*ROUND(income_raw!G10/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>42500</v>
+      </c>
+      <c r="H10">
+        <f>income_raw!H$15*ROUND(income_raw!H10/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>104000</v>
+      </c>
+      <c r="I10">
+        <f>income_raw!I$15*ROUND(income_raw!I10/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>5480000</v>
+      </c>
+      <c r="J10">
+        <f>income_raw!J$15*ROUND(income_raw!J10/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>83000</v>
+      </c>
+      <c r="K10">
+        <f>income_raw!K$15*ROUND(income_raw!K10/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>income_raw!L$15*ROUND(income_raw!L10/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>90000</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>307</v>
       </c>
+      <c r="B11">
+        <f>income_raw!B$15*ROUND(income_raw!B11/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>3050</v>
+      </c>
+      <c r="C11">
+        <f>income_raw!C$15*ROUND(income_raw!C11/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>3450</v>
+      </c>
+      <c r="D11">
+        <f>income_raw!D$15*ROUND(income_raw!D11/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>2600</v>
+      </c>
+      <c r="E11">
+        <f>income_raw!E$15*ROUND(income_raw!E11/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>5750</v>
+      </c>
+      <c r="F11">
+        <f>income_raw!F$15*ROUND(income_raw!F11/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>2500</v>
+      </c>
+      <c r="G11">
+        <f>income_raw!G$15*ROUND(income_raw!G11/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>47000</v>
+      </c>
+      <c r="H11">
+        <f>income_raw!H$15*ROUND(income_raw!H11/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>113000</v>
+      </c>
+      <c r="I11">
+        <f>income_raw!I$15*ROUND(income_raw!I11/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>6030000</v>
+      </c>
+      <c r="J11">
+        <f>income_raw!J$15*ROUND(income_raw!J11/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>91000</v>
+      </c>
+      <c r="K11">
+        <f>income_raw!K$15*ROUND(income_raw!K11/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>income_raw!L$15*ROUND(income_raw!L11/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>102000</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>308</v>
+      </c>
+      <c r="B12">
+        <f>income_raw!B$15*ROUND(income_raw!B12/income_raw!B$14/income_raw!B$15, 0)</f>
+        <v>3800</v>
+      </c>
+      <c r="C12">
+        <f>income_raw!C$15*ROUND(income_raw!C12/income_raw!C$14/income_raw!C$15, 0)</f>
+        <v>4300</v>
+      </c>
+      <c r="D12">
+        <f>income_raw!D$15*ROUND(income_raw!D12/income_raw!D$14/income_raw!D$15, 0)</f>
+        <v>3300</v>
+      </c>
+      <c r="E12">
+        <f>income_raw!E$15*ROUND(income_raw!E12/income_raw!E$14/income_raw!E$15, 0)</f>
+        <v>7100</v>
+      </c>
+      <c r="F12">
+        <f>income_raw!F$15*ROUND(income_raw!F12/income_raw!F$14/income_raw!F$15, 0)</f>
+        <v>3150</v>
+      </c>
+      <c r="G12">
+        <f>income_raw!G$15*ROUND(income_raw!G12/income_raw!G$14/income_raw!G$15, 0)</f>
+        <v>61000</v>
+      </c>
+      <c r="H12">
+        <f>income_raw!H$15*ROUND(income_raw!H12/income_raw!H$14/income_raw!H$15, 0)</f>
+        <v>144000</v>
+      </c>
+      <c r="I12">
+        <f>income_raw!I$15*ROUND(income_raw!I12/income_raw!I$14/income_raw!I$15, 0)</f>
+        <v>7560000</v>
+      </c>
+      <c r="J12">
+        <f>income_raw!J$15*ROUND(income_raw!J12/income_raw!J$14/income_raw!J$15, 0)</f>
+        <v>116000</v>
+      </c>
+      <c r="K12">
+        <f>income_raw!K$15*ROUND(income_raw!K12/income_raw!K$14/income_raw!K$15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>income_raw!L$15*ROUND(income_raw!L12/income_raw!L$14/income_raw!L$15, 0)</f>
+        <v>144000</v>
       </c>
     </row>
   </sheetData>
@@ -14679,6 +15447,3694 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B2">
+        <f>B57*B$26</f>
+        <v>12997.222414165408</v>
+      </c>
+      <c r="C2">
+        <f>C57</f>
+        <v>14190</v>
+      </c>
+      <c r="D2">
+        <f>D57*D$26</f>
+        <v>9588.6275314022023</v>
+      </c>
+      <c r="E2">
+        <f>E57*E$26</f>
+        <v>25323.510098041897</v>
+      </c>
+      <c r="F2">
+        <f>F57*F$26</f>
+        <v>8531.5336283185825</v>
+      </c>
+      <c r="G2">
+        <f>G31*G$28</f>
+        <v>13468.408849515914</v>
+      </c>
+      <c r="H2">
+        <f>H31*H$28</f>
+        <v>39874.615262765474</v>
+      </c>
+      <c r="I2">
+        <f>I31*I$28</f>
+        <v>1578465.0359747021</v>
+      </c>
+      <c r="J2">
+        <f>J44*J$28</f>
+        <v>357506.37215418415</v>
+      </c>
+      <c r="L2">
+        <f>L31*L$26</f>
+        <v>19066.237911025146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B3">
+        <f>B58*B$26</f>
+        <v>16596.676527747786</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">C58</f>
+        <v>18104</v>
+      </c>
+      <c r="D3">
+        <f>D58*D$26</f>
+        <v>12588.946680338373</v>
+      </c>
+      <c r="E3">
+        <f>E58*E$26</f>
+        <v>32307.597474146969</v>
+      </c>
+      <c r="F3">
+        <f>F58*F$26</f>
+        <v>11537.260176991149</v>
+      </c>
+      <c r="G3">
+        <f>G32*G$28</f>
+        <v>17272.774378771359</v>
+      </c>
+      <c r="H3">
+        <f>H32*H$28</f>
+        <v>49754.962987740939</v>
+      </c>
+      <c r="I3">
+        <f>I32*I$28</f>
+        <v>2209851.9974438413</v>
+      </c>
+      <c r="J3">
+        <f>J45*J$28</f>
+        <v>441365.45018248394</v>
+      </c>
+      <c r="L3">
+        <f>L32*L$26</f>
+        <v>27114.845261121856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B4">
+        <f>B59*B$26</f>
+        <v>18144.483264953575</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>19836</v>
+      </c>
+      <c r="D4">
+        <f>D59*D$26</f>
+        <v>13979.111766213789</v>
+      </c>
+      <c r="E4">
+        <f>E59*E$26</f>
+        <v>35237.941359473807</v>
+      </c>
+      <c r="F4">
+        <f>F59*F$26</f>
+        <v>13000.53274336283</v>
+      </c>
+      <c r="G4">
+        <f>G33*G$28</f>
+        <v>18705.088306222904</v>
+      </c>
+      <c r="H4">
+        <f>H33*H$28</f>
+        <v>53993.655342104226</v>
+      </c>
+      <c r="I4">
+        <f>I33*I$28</f>
+        <v>2469170.5853248513</v>
+      </c>
+      <c r="J4">
+        <f>J46*J$28</f>
+        <v>480295.2459147253</v>
+      </c>
+      <c r="L4">
+        <f>L33*L$26</f>
+        <v>30952.799806576404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B5">
+        <f>B60*B$26</f>
+        <v>19647.711509393219</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>21415</v>
+      </c>
+      <c r="D5">
+        <f>D60*D$26</f>
+        <v>15190.600358882335</v>
+      </c>
+      <c r="E5">
+        <f>E60*E$26</f>
+        <v>37805.27853160799</v>
+      </c>
+      <c r="F5">
+        <f>F60*F$26</f>
+        <v>14369.843362831856</v>
+      </c>
+      <c r="G5">
+        <f>G34*G$28</f>
+        <v>20546.135720288672</v>
+      </c>
+      <c r="H5">
+        <f>H34*H$28</f>
+        <v>58099.888560393665</v>
+      </c>
+      <c r="I5">
+        <f>I34*I$28</f>
+        <v>2716275.4023203054</v>
+      </c>
+      <c r="J5">
+        <f>J47*J$28</f>
+        <v>518392.18420961488</v>
+      </c>
+      <c r="L5">
+        <f>L34*L$26</f>
+        <v>34886.022727272728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B6">
+        <f>B61*B$26</f>
+        <v>22348.338803714101</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24440</v>
+      </c>
+      <c r="D6">
+        <f>D61*D$26</f>
+        <v>18000.882081517557</v>
+      </c>
+      <c r="E6">
+        <f>E61*E$26</f>
+        <v>42734.687241396932</v>
+      </c>
+      <c r="F6">
+        <f>F61*F$26</f>
+        <v>16787.515929203535</v>
+      </c>
+      <c r="G6">
+        <f>G35*G$28</f>
+        <v>24203.776408195423</v>
+      </c>
+      <c r="H6">
+        <f>H35*H$28</f>
+        <v>66049.644377092729</v>
+      </c>
+      <c r="I6">
+        <f>I35*I$28</f>
+        <v>3208853.6922886972</v>
+      </c>
+      <c r="J6">
+        <f>J48*J$28</f>
+        <v>596238.53469735116</v>
+      </c>
+      <c r="L6">
+        <f>L35*L$26</f>
+        <v>43831.827852998067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B7">
+        <f>B62*B$26</f>
+        <v>25066.590153314621</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>27556</v>
+      </c>
+      <c r="D7">
+        <f>D62*D$26</f>
+        <v>20469.302999230964</v>
+      </c>
+      <c r="E7">
+        <f>E62*E$26</f>
+        <v>47609.493270092826</v>
+      </c>
+      <c r="F7">
+        <f>F62*F$26</f>
+        <v>19337.157522123889</v>
+      </c>
+      <c r="G7">
+        <f>G36*G$28</f>
+        <v>28500.718190550062</v>
+      </c>
+      <c r="H7">
+        <f>H36*H$28</f>
+        <v>74658.384395759203</v>
+      </c>
+      <c r="I7">
+        <f>I36*I$28</f>
+        <v>3729124.579771379</v>
+      </c>
+      <c r="J7">
+        <f>J49*J$28</f>
+        <v>682205.57622368599</v>
+      </c>
+      <c r="L7">
+        <f>L36*L$26</f>
+        <v>53601.54738878143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B8">
+        <f>B63*B$26</f>
+        <v>27997.366875404881</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>31182</v>
+      </c>
+      <c r="D8">
+        <f>D63*D$26</f>
+        <v>23439.670597282744</v>
+      </c>
+      <c r="E8">
+        <f>E63*E$26</f>
+        <v>52935.276998186848</v>
+      </c>
+      <c r="F8">
+        <f>F63*F$26</f>
+        <v>22018.768141592915</v>
+      </c>
+      <c r="G8">
+        <f>G37*G$28</f>
+        <v>33265.782085779101</v>
+      </c>
+      <c r="H8">
+        <f>H37*H$28</f>
+        <v>85020.000315136334</v>
+      </c>
+      <c r="I8">
+        <f>I37*I$28</f>
+        <v>4350645.3430666085</v>
+      </c>
+      <c r="J8">
+        <f>J50*J$28</f>
+        <v>783789.02572478552</v>
+      </c>
+      <c r="L8">
+        <f>L37*L$26</f>
+        <v>65371.902804642166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B9">
+        <f>B64*B$26</f>
+        <v>31759.584323040381</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>35572</v>
+      </c>
+      <c r="D9">
+        <f>D64*D$26</f>
+        <v>26792.178672135346</v>
+      </c>
+      <c r="E9">
+        <f>E64*E$26</f>
+        <v>59704.998292963661</v>
+      </c>
+      <c r="F9">
+        <f>F64*F$26</f>
+        <v>25324.328318584066</v>
+      </c>
+      <c r="G9">
+        <f>G38*G$28</f>
+        <v>39097.512287955804</v>
+      </c>
+      <c r="H9">
+        <f>H38*H$28</f>
+        <v>96614.590026134247</v>
+      </c>
+      <c r="I9">
+        <f>I38*I$28</f>
+        <v>4972166.106361839</v>
+      </c>
+      <c r="J9">
+        <f>J51*J$28</f>
+        <v>907144.61329007475</v>
+      </c>
+      <c r="L9">
+        <f>L38*L$26</f>
+        <v>80290.302224371379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B10">
+        <f>B65*B$26</f>
+        <v>34020.646944504428</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>38196</v>
+      </c>
+      <c r="D10">
+        <f>D65*D$26</f>
+        <v>28889.820046142009</v>
+      </c>
+      <c r="E10">
+        <f>E65*E$26</f>
+        <v>63657.625707643652</v>
+      </c>
+      <c r="F10">
+        <f>F65*F$26</f>
+        <v>27483.341592920347</v>
+      </c>
+      <c r="G10">
+        <f>G39*G$28</f>
+        <v>42705.080212545145</v>
+      </c>
+      <c r="H10">
+        <f>H39*H$28</f>
+        <v>104089.70060523534</v>
+      </c>
+      <c r="I10">
+        <f>I39*I$28</f>
+        <v>5478590.6950873751</v>
+      </c>
+      <c r="J10">
+        <f>J52*J$28</f>
+        <v>992317.19621162256</v>
+      </c>
+      <c r="L10">
+        <f>L39*L$26</f>
+        <v>89864.250483558993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B11">
+        <f>B66*B$26</f>
+        <v>36659.071690779529</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>41370</v>
+      </c>
+      <c r="D11">
+        <f>D66*D$26</f>
+        <v>31440.86593181235</v>
+      </c>
+      <c r="E11">
+        <f>E66*E$26</f>
+        <v>69100.704084011624</v>
+      </c>
+      <c r="F11">
+        <f>F66*F$26</f>
+        <v>29925.296460176985</v>
+      </c>
+      <c r="G11">
+        <f>G40*G$28</f>
+        <v>46750.493695444871</v>
+      </c>
+      <c r="H11">
+        <f>H40*H$28</f>
+        <v>113326.51769411867</v>
+      </c>
+      <c r="I11">
+        <f>I40*I$28</f>
+        <v>6031052.8065615306</v>
+      </c>
+      <c r="J11">
+        <f>J53*J$28</f>
+        <v>1091564.937414648</v>
+      </c>
+      <c r="L11">
+        <f>L40*L$26</f>
+        <v>101731.96808510639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B12">
+        <f>B67*B$26</f>
+        <v>45688.808248758367</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>51810</v>
+      </c>
+      <c r="D12">
+        <f>D67*D$26</f>
+        <v>39493.701871315039</v>
+      </c>
+      <c r="E12">
+        <f>E67*E$26</f>
+        <v>85005.251693502956</v>
+      </c>
+      <c r="F12">
+        <f>F67*F$26</f>
+        <v>37878.277876106185</v>
+      </c>
+      <c r="G12">
+        <f>G41*G$28</f>
+        <v>61181.929876670081</v>
+      </c>
+      <c r="H12">
+        <f>H41*H$28</f>
+        <v>144080.21761206543</v>
+      </c>
+      <c r="I12">
+        <f>I41*I$28</f>
+        <v>7559721.5989810191</v>
+      </c>
+      <c r="J12">
+        <f>J54*J$28</f>
+        <v>1394274.8514013183</v>
+      </c>
+      <c r="L12">
+        <f>L41*L$26</f>
+        <v>143697.16392649902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B15" s="6">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
+        <v>500</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="6">
+        <v>50</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G17">
+        <v>34264</v>
+      </c>
+      <c r="H17">
+        <v>80695</v>
+      </c>
+      <c r="I17">
+        <v>4432138</v>
+      </c>
+      <c r="J17">
+        <v>1035817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G18">
+        <v>38805</v>
+      </c>
+      <c r="H18">
+        <v>86961</v>
+      </c>
+      <c r="I18">
+        <v>5025289</v>
+      </c>
+      <c r="J18">
+        <v>1161019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B20">
+        <v>46310</v>
+      </c>
+      <c r="C20">
+        <v>53570</v>
+      </c>
+      <c r="D20">
+        <v>39010</v>
+      </c>
+      <c r="E20">
+        <v>22090</v>
+      </c>
+      <c r="F20">
+        <v>33900</v>
+      </c>
+      <c r="G20">
+        <v>49650</v>
+      </c>
+      <c r="H20">
+        <v>101510</v>
+      </c>
+      <c r="I20">
+        <v>33900</v>
+      </c>
+      <c r="J20">
+        <v>13740</v>
+      </c>
+      <c r="K20">
+        <v>32530</v>
+      </c>
+      <c r="L20">
+        <v>82720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B21">
+        <v>48010</v>
+      </c>
+      <c r="C21">
+        <v>55520</v>
+      </c>
+      <c r="D21">
+        <v>40290</v>
+      </c>
+      <c r="E21">
+        <v>23560</v>
+      </c>
+      <c r="F21">
+        <v>35790</v>
+      </c>
+      <c r="G21">
+        <v>52420</v>
+      </c>
+      <c r="H21">
+        <v>106100</v>
+      </c>
+      <c r="I21">
+        <v>32860</v>
+      </c>
+      <c r="J21">
+        <v>14950</v>
+      </c>
+      <c r="K21">
+        <v>32880</v>
+      </c>
+      <c r="L21">
+        <v>86600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E23">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="H23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I23">
+        <v>140.511</v>
+      </c>
+      <c r="J23">
+        <v>85.509</v>
+      </c>
+      <c r="K23">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E24">
+        <v>3.98</v>
+      </c>
+      <c r="F24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I24">
+        <v>151.35300000000001</v>
+      </c>
+      <c r="J24">
+        <v>92.837000000000003</v>
+      </c>
+      <c r="K24">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B26" s="12">
+        <f>B21*B24/(B20*B23)</f>
+        <v>1.0367091340963075</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" ref="C26:L26" si="1">C21*C24/(C20*C23)</f>
+        <v>1.0364009706925519</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0328120994616763</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.011160760982347</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0557522123893803</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0282139153176713</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0242896226928879</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0441155647877662</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="1"/>
+        <v>1.181309591882554</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0107592991085153</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0469052224371374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G27" s="12">
+        <f>G18/G17</f>
+        <v>1.1325297688536073</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" ref="H27:J27" si="2">H18/H17</f>
+        <v>1.0776504120453561</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1338295423111826</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.120872702417512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G28" s="12">
+        <f>G27*G26</f>
+        <v>1.1644828678467849</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" ref="H28:J28" si="3">H27*H26</f>
+        <v>1.1038261339487729</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="3"/>
+        <v>1.1838490729432949</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="3"/>
+        <v>1.3240976746451265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1330</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1335</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B31">
+        <v>13100</v>
+      </c>
+      <c r="C31">
+        <v>13680</v>
+      </c>
+      <c r="D31">
+        <v>6531</v>
+      </c>
+      <c r="E31">
+        <v>16408</v>
+      </c>
+      <c r="F31">
+        <v>8900</v>
+      </c>
+      <c r="G31">
+        <v>11566</v>
+      </c>
+      <c r="H31">
+        <v>36124</v>
+      </c>
+      <c r="I31">
+        <v>1333333</v>
+      </c>
+      <c r="J31">
+        <v>301060</v>
+      </c>
+      <c r="L31">
+        <v>18212</v>
+      </c>
+      <c r="M31">
+        <v>23421</v>
+      </c>
+      <c r="N31">
+        <v>16002</v>
+      </c>
+      <c r="O31">
+        <v>16031</v>
+      </c>
+      <c r="P31">
+        <v>6600</v>
+      </c>
+      <c r="Q31">
+        <v>10300</v>
+      </c>
+      <c r="R31">
+        <v>2820000</v>
+      </c>
+      <c r="S31">
+        <v>198974</v>
+      </c>
+      <c r="T31">
+        <v>13200000</v>
+      </c>
+      <c r="U31">
+        <v>16250</v>
+      </c>
+      <c r="V31">
+        <v>34740</v>
+      </c>
+      <c r="W31">
+        <v>4974</v>
+      </c>
+      <c r="X31">
+        <v>28777</v>
+      </c>
+      <c r="Y31">
+        <v>174496</v>
+      </c>
+      <c r="Z31">
+        <v>33925</v>
+      </c>
+      <c r="AA31">
+        <v>18798</v>
+      </c>
+      <c r="AB31">
+        <v>267030</v>
+      </c>
+      <c r="AC31">
+        <v>2489</v>
+      </c>
+      <c r="AD31">
+        <v>15047</v>
+      </c>
+      <c r="AE31">
+        <v>212000</v>
+      </c>
+      <c r="AF31">
+        <v>171905</v>
+      </c>
+      <c r="AG31">
+        <v>251640</v>
+      </c>
+      <c r="AH31">
+        <v>159995</v>
+      </c>
+      <c r="AI31">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B32">
+        <v>16930</v>
+      </c>
+      <c r="C32">
+        <v>19261</v>
+      </c>
+      <c r="D32">
+        <v>8972</v>
+      </c>
+      <c r="E32">
+        <v>21960</v>
+      </c>
+      <c r="F32">
+        <v>12261</v>
+      </c>
+      <c r="G32">
+        <v>14833</v>
+      </c>
+      <c r="H32">
+        <v>45075</v>
+      </c>
+      <c r="I32">
+        <v>1866667</v>
+      </c>
+      <c r="J32">
+        <v>370221</v>
+      </c>
+      <c r="L32">
+        <v>25900</v>
+      </c>
+      <c r="M32">
+        <v>30596</v>
+      </c>
+      <c r="N32">
+        <v>21596</v>
+      </c>
+      <c r="O32">
+        <v>20312</v>
+      </c>
+      <c r="P32">
+        <v>10491</v>
+      </c>
+      <c r="Q32">
+        <v>16012</v>
+      </c>
+      <c r="R32">
+        <v>4714286</v>
+      </c>
+      <c r="S32">
+        <v>251339</v>
+      </c>
+      <c r="T32">
+        <v>18575000</v>
+      </c>
+      <c r="U32">
+        <v>20590</v>
+      </c>
+      <c r="V32">
+        <v>48888</v>
+      </c>
+      <c r="W32">
+        <v>6783</v>
+      </c>
+      <c r="X32">
+        <v>36487</v>
+      </c>
+      <c r="Y32">
+        <v>239112</v>
+      </c>
+      <c r="Z32">
+        <v>46505</v>
+      </c>
+      <c r="AA32">
+        <v>23915</v>
+      </c>
+      <c r="AB32">
+        <v>353976</v>
+      </c>
+      <c r="AC32">
+        <v>4421</v>
+      </c>
+      <c r="AD32">
+        <v>22600</v>
+      </c>
+      <c r="AE32">
+        <v>287093</v>
+      </c>
+      <c r="AF32">
+        <v>223669</v>
+      </c>
+      <c r="AG32">
+        <v>325455</v>
+      </c>
+      <c r="AH32">
+        <v>208000</v>
+      </c>
+      <c r="AI32">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B33">
+        <v>18672</v>
+      </c>
+      <c r="C33">
+        <v>21953</v>
+      </c>
+      <c r="D33">
+        <v>10300</v>
+      </c>
+      <c r="E33">
+        <v>23845</v>
+      </c>
+      <c r="F33">
+        <v>13889</v>
+      </c>
+      <c r="G33">
+        <v>16063</v>
+      </c>
+      <c r="H33">
+        <v>48915</v>
+      </c>
+      <c r="I33">
+        <v>2085714</v>
+      </c>
+      <c r="J33">
+        <v>402605</v>
+      </c>
+      <c r="L33">
+        <v>29566</v>
+      </c>
+      <c r="M33">
+        <v>34360</v>
+      </c>
+      <c r="N33">
+        <v>23705</v>
+      </c>
+      <c r="O33">
+        <v>23018</v>
+      </c>
+      <c r="P33">
+        <v>12096</v>
+      </c>
+      <c r="Q33">
+        <v>18775</v>
+      </c>
+      <c r="R33">
+        <v>5627586</v>
+      </c>
+      <c r="S33">
+        <v>273656</v>
+      </c>
+      <c r="T33">
+        <v>21060870</v>
+      </c>
+      <c r="U33">
+        <v>22611</v>
+      </c>
+      <c r="V33">
+        <v>55521</v>
+      </c>
+      <c r="W33">
+        <v>7824</v>
+      </c>
+      <c r="X33">
+        <v>40570</v>
+      </c>
+      <c r="Y33">
+        <v>265046</v>
+      </c>
+      <c r="Z33">
+        <v>51949</v>
+      </c>
+      <c r="AA33">
+        <v>26334</v>
+      </c>
+      <c r="AB33">
+        <v>389500</v>
+      </c>
+      <c r="AC33">
+        <v>5370</v>
+      </c>
+      <c r="AD33">
+        <v>25915</v>
+      </c>
+      <c r="AE33">
+        <v>318261</v>
+      </c>
+      <c r="AF33">
+        <v>247431</v>
+      </c>
+      <c r="AG33">
+        <v>356152</v>
+      </c>
+      <c r="AH33">
+        <v>232685</v>
+      </c>
+      <c r="AI33">
+        <v>14174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B34">
+        <v>20367</v>
+      </c>
+      <c r="C34">
+        <v>24098</v>
+      </c>
+      <c r="D34">
+        <v>11502</v>
+      </c>
+      <c r="E34">
+        <v>25550</v>
+      </c>
+      <c r="F34">
+        <v>15404</v>
+      </c>
+      <c r="G34">
+        <v>17644</v>
+      </c>
+      <c r="H34">
+        <v>52635</v>
+      </c>
+      <c r="I34">
+        <v>2294444</v>
+      </c>
+      <c r="J34">
+        <v>435005</v>
+      </c>
+      <c r="L34">
+        <v>33323</v>
+      </c>
+      <c r="M34">
+        <v>38674</v>
+      </c>
+      <c r="N34">
+        <v>26421</v>
+      </c>
+      <c r="O34">
+        <v>25789</v>
+      </c>
+      <c r="P34">
+        <v>13851</v>
+      </c>
+      <c r="Q34">
+        <v>21795</v>
+      </c>
+      <c r="R34">
+        <v>6500000</v>
+      </c>
+      <c r="S34">
+        <v>300454</v>
+      </c>
+      <c r="T34">
+        <v>23308696</v>
+      </c>
+      <c r="U34">
+        <v>24840</v>
+      </c>
+      <c r="V34">
+        <v>63210</v>
+      </c>
+      <c r="W34">
+        <v>8850</v>
+      </c>
+      <c r="X34">
+        <v>44972</v>
+      </c>
+      <c r="Y34">
+        <v>293068</v>
+      </c>
+      <c r="Z34">
+        <v>57321</v>
+      </c>
+      <c r="AA34">
+        <v>28995</v>
+      </c>
+      <c r="AB34">
+        <v>421111</v>
+      </c>
+      <c r="AC34">
+        <v>6254</v>
+      </c>
+      <c r="AD34">
+        <v>28728</v>
+      </c>
+      <c r="AE34">
+        <v>353333</v>
+      </c>
+      <c r="AF34">
+        <v>273425</v>
+      </c>
+      <c r="AG34">
+        <v>383914</v>
+      </c>
+      <c r="AH34">
+        <v>256000</v>
+      </c>
+      <c r="AI34">
+        <v>16634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B35">
+        <v>23579</v>
+      </c>
+      <c r="C35">
+        <v>28750</v>
+      </c>
+      <c r="D35">
+        <v>14410</v>
+      </c>
+      <c r="E35">
+        <v>29280</v>
+      </c>
+      <c r="F35">
+        <v>18378</v>
+      </c>
+      <c r="G35">
+        <v>20785</v>
+      </c>
+      <c r="H35">
+        <v>59837</v>
+      </c>
+      <c r="I35">
+        <v>2710526</v>
+      </c>
+      <c r="J35">
+        <v>503643</v>
+      </c>
+      <c r="L35">
+        <v>41868</v>
+      </c>
+      <c r="M35">
+        <v>47403</v>
+      </c>
+      <c r="N35">
+        <v>30854</v>
+      </c>
+      <c r="O35">
+        <v>31337</v>
+      </c>
+      <c r="P35">
+        <v>16923</v>
+      </c>
+      <c r="Q35">
+        <v>27621</v>
+      </c>
+      <c r="R35">
+        <v>8307692</v>
+      </c>
+      <c r="S35">
+        <v>356159</v>
+      </c>
+      <c r="T35">
+        <v>27708333</v>
+      </c>
+      <c r="U35">
+        <v>30080</v>
+      </c>
+      <c r="V35">
+        <v>79480</v>
+      </c>
+      <c r="W35">
+        <v>11035</v>
+      </c>
+      <c r="X35">
+        <v>51981</v>
+      </c>
+      <c r="Y35">
+        <v>354449</v>
+      </c>
+      <c r="Z35">
+        <v>68163</v>
+      </c>
+      <c r="AA35">
+        <v>34816</v>
+      </c>
+      <c r="AB35">
+        <v>480625</v>
+      </c>
+      <c r="AC35">
+        <v>7914</v>
+      </c>
+      <c r="AD35">
+        <v>35333</v>
+      </c>
+      <c r="AE35">
+        <v>411429</v>
+      </c>
+      <c r="AF35">
+        <v>318936</v>
+      </c>
+      <c r="AG35">
+        <v>435668</v>
+      </c>
+      <c r="AH35">
+        <v>304384</v>
+      </c>
+      <c r="AI35">
+        <v>22369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B36">
+        <v>26890</v>
+      </c>
+      <c r="C36">
+        <v>33335</v>
+      </c>
+      <c r="D36">
+        <v>17645</v>
+      </c>
+      <c r="E36">
+        <v>32876</v>
+      </c>
+      <c r="F36">
+        <v>21602</v>
+      </c>
+      <c r="G36">
+        <v>24475</v>
+      </c>
+      <c r="H36">
+        <v>67636</v>
+      </c>
+      <c r="I36">
+        <v>3150000</v>
+      </c>
+      <c r="J36">
+        <v>576125</v>
+      </c>
+      <c r="L36">
+        <v>51200</v>
+      </c>
+      <c r="M36">
+        <v>56129</v>
+      </c>
+      <c r="N36">
+        <v>35414</v>
+      </c>
+      <c r="O36">
+        <v>37027</v>
+      </c>
+      <c r="P36">
+        <v>20800</v>
+      </c>
+      <c r="Q36">
+        <v>34053</v>
+      </c>
+      <c r="R36">
+        <v>10404848</v>
+      </c>
+      <c r="S36">
+        <v>411181</v>
+      </c>
+      <c r="T36">
+        <v>32333333</v>
+      </c>
+      <c r="U36">
+        <v>35933</v>
+      </c>
+      <c r="V36">
+        <v>97072</v>
+      </c>
+      <c r="W36">
+        <v>13682</v>
+      </c>
+      <c r="X36">
+        <v>61818</v>
+      </c>
+      <c r="Y36">
+        <v>416613</v>
+      </c>
+      <c r="Z36">
+        <v>79738</v>
+      </c>
+      <c r="AA36">
+        <v>40484</v>
+      </c>
+      <c r="AB36">
+        <v>540119</v>
+      </c>
+      <c r="AC36">
+        <v>9654</v>
+      </c>
+      <c r="AD36">
+        <v>42090</v>
+      </c>
+      <c r="AE36">
+        <v>469371</v>
+      </c>
+      <c r="AF36">
+        <v>364313</v>
+      </c>
+      <c r="AG36">
+        <v>487116</v>
+      </c>
+      <c r="AH36">
+        <v>360000</v>
+      </c>
+      <c r="AI36">
+        <v>31143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B37">
+        <v>30500</v>
+      </c>
+      <c r="C37">
+        <v>38499</v>
+      </c>
+      <c r="D37">
+        <v>20785</v>
+      </c>
+      <c r="E37">
+        <v>36680</v>
+      </c>
+      <c r="F37">
+        <v>25138</v>
+      </c>
+      <c r="G37">
+        <v>28567</v>
+      </c>
+      <c r="H37">
+        <v>77023</v>
+      </c>
+      <c r="I37">
+        <v>3675000</v>
+      </c>
+      <c r="J37">
+        <v>662069</v>
+      </c>
+      <c r="L37">
+        <v>62443</v>
+      </c>
+      <c r="M37">
+        <v>66167</v>
+      </c>
+      <c r="N37">
+        <v>40552</v>
+      </c>
+      <c r="O37">
+        <v>42115</v>
+      </c>
+      <c r="P37">
+        <v>24704</v>
+      </c>
+      <c r="Q37">
+        <v>41367</v>
+      </c>
+      <c r="R37">
+        <v>13052525</v>
+      </c>
+      <c r="S37">
+        <v>468231</v>
+      </c>
+      <c r="T37">
+        <v>37353333</v>
+      </c>
+      <c r="U37">
+        <v>42394</v>
+      </c>
+      <c r="V37">
+        <v>117635</v>
+      </c>
+      <c r="W37">
+        <v>16387</v>
+      </c>
+      <c r="X37">
+        <v>69516</v>
+      </c>
+      <c r="Y37">
+        <v>488830</v>
+      </c>
+      <c r="Z37">
+        <v>94326</v>
+      </c>
+      <c r="AA37">
+        <v>45750</v>
+      </c>
+      <c r="AB37">
+        <v>603588</v>
+      </c>
+      <c r="AC37">
+        <v>11646</v>
+      </c>
+      <c r="AD37">
+        <v>48451</v>
+      </c>
+      <c r="AE37">
+        <v>540000</v>
+      </c>
+      <c r="AF37">
+        <v>413287</v>
+      </c>
+      <c r="AG37">
+        <v>550132</v>
+      </c>
+      <c r="AH37">
+        <v>424000</v>
+      </c>
+      <c r="AI37">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B38">
+        <v>35028</v>
+      </c>
+      <c r="C38">
+        <v>45105</v>
+      </c>
+      <c r="D38">
+        <v>25191</v>
+      </c>
+      <c r="E38">
+        <v>41333</v>
+      </c>
+      <c r="F38">
+        <v>29664</v>
+      </c>
+      <c r="G38">
+        <v>33575</v>
+      </c>
+      <c r="H38">
+        <v>87527</v>
+      </c>
+      <c r="I38">
+        <v>4200000</v>
+      </c>
+      <c r="J38">
+        <v>770599</v>
+      </c>
+      <c r="L38">
+        <v>76693</v>
+      </c>
+      <c r="M38">
+        <v>77245</v>
+      </c>
+      <c r="N38">
+        <v>46894</v>
+      </c>
+      <c r="O38">
+        <v>48519</v>
+      </c>
+      <c r="P38">
+        <v>30714</v>
+      </c>
+      <c r="Q38">
+        <v>50896</v>
+      </c>
+      <c r="R38">
+        <v>16701778</v>
+      </c>
+      <c r="S38">
+        <v>533058</v>
+      </c>
+      <c r="T38">
+        <v>43812000</v>
+      </c>
+      <c r="U38">
+        <v>49724</v>
+      </c>
+      <c r="V38">
+        <v>142264</v>
+      </c>
+      <c r="W38">
+        <v>19955</v>
+      </c>
+      <c r="X38">
+        <v>81581</v>
+      </c>
+      <c r="Y38">
+        <v>568086</v>
+      </c>
+      <c r="Z38">
+        <v>112657</v>
+      </c>
+      <c r="AA38">
+        <v>51666</v>
+      </c>
+      <c r="AB38">
+        <v>679724</v>
+      </c>
+      <c r="AC38">
+        <v>14279</v>
+      </c>
+      <c r="AD38">
+        <v>56533</v>
+      </c>
+      <c r="AE38">
+        <v>626735</v>
+      </c>
+      <c r="AF38">
+        <v>468708</v>
+      </c>
+      <c r="AG38">
+        <v>624594</v>
+      </c>
+      <c r="AH38">
+        <v>508800</v>
+      </c>
+      <c r="AI38">
+        <v>62546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B39">
+        <v>37868</v>
+      </c>
+      <c r="C39">
+        <v>49200</v>
+      </c>
+      <c r="D39">
+        <v>27355</v>
+      </c>
+      <c r="E39">
+        <v>44000</v>
+      </c>
+      <c r="F39">
+        <v>32517</v>
+      </c>
+      <c r="G39">
+        <v>36673</v>
+      </c>
+      <c r="H39">
+        <v>94299</v>
+      </c>
+      <c r="I39">
+        <v>4627778</v>
+      </c>
+      <c r="J39">
+        <v>840454</v>
+      </c>
+      <c r="L39">
+        <v>85838</v>
+      </c>
+      <c r="M39">
+        <v>84293</v>
+      </c>
+      <c r="N39">
+        <v>50563</v>
+      </c>
+      <c r="O39">
+        <v>52103</v>
+      </c>
+      <c r="P39">
+        <v>34667</v>
+      </c>
+      <c r="Q39">
+        <v>57167</v>
+      </c>
+      <c r="R39">
+        <v>19087238</v>
+      </c>
+      <c r="S39">
+        <v>572269</v>
+      </c>
+      <c r="T39">
+        <v>47793333</v>
+      </c>
+      <c r="U39">
+        <v>54710</v>
+      </c>
+      <c r="V39">
+        <v>156392</v>
+      </c>
+      <c r="W39">
+        <v>21995</v>
+      </c>
+      <c r="X39">
+        <v>89221</v>
+      </c>
+      <c r="Y39">
+        <v>627273</v>
+      </c>
+      <c r="Z39">
+        <v>124476</v>
+      </c>
+      <c r="AA39">
+        <v>55530</v>
+      </c>
+      <c r="AB39">
+        <v>727589</v>
+      </c>
+      <c r="AC39">
+        <v>15887</v>
+      </c>
+      <c r="AD39">
+        <v>60728</v>
+      </c>
+      <c r="AE39">
+        <v>672970</v>
+      </c>
+      <c r="AF39">
+        <v>500993</v>
+      </c>
+      <c r="AG39">
+        <v>671103</v>
+      </c>
+      <c r="AH39">
+        <v>566227</v>
+      </c>
+      <c r="AI39">
+        <v>77126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B40">
+        <v>41309</v>
+      </c>
+      <c r="C40">
+        <v>53764</v>
+      </c>
+      <c r="D40">
+        <v>30355</v>
+      </c>
+      <c r="E40">
+        <v>47667</v>
+      </c>
+      <c r="F40">
+        <v>36078</v>
+      </c>
+      <c r="G40">
+        <v>40147</v>
+      </c>
+      <c r="H40">
+        <v>102667</v>
+      </c>
+      <c r="I40">
+        <v>5094444</v>
+      </c>
+      <c r="J40">
+        <v>929988</v>
+      </c>
+      <c r="L40">
+        <v>97174</v>
+      </c>
+      <c r="M40">
+        <v>93800</v>
+      </c>
+      <c r="N40">
+        <v>54642</v>
+      </c>
+      <c r="O40">
+        <v>57090</v>
+      </c>
+      <c r="P40">
+        <v>40000</v>
+      </c>
+      <c r="Q40">
+        <v>64342</v>
+      </c>
+      <c r="R40">
+        <v>22341818</v>
+      </c>
+      <c r="S40">
+        <v>618076</v>
+      </c>
+      <c r="T40">
+        <v>52804000</v>
+      </c>
+      <c r="U40">
+        <v>59790</v>
+      </c>
+      <c r="V40">
+        <v>174631</v>
+      </c>
+      <c r="W40">
+        <v>24503</v>
+      </c>
+      <c r="X40">
+        <v>95564</v>
+      </c>
+      <c r="Y40">
+        <v>697341</v>
+      </c>
+      <c r="Z40">
+        <v>140371</v>
+      </c>
+      <c r="AA40">
+        <v>60724</v>
+      </c>
+      <c r="AB40">
+        <v>786485</v>
+      </c>
+      <c r="AC40">
+        <v>18034</v>
+      </c>
+      <c r="AD40">
+        <v>66405</v>
+      </c>
+      <c r="AE40">
+        <v>728000</v>
+      </c>
+      <c r="AF40">
+        <v>541366</v>
+      </c>
+      <c r="AG40">
+        <v>734158</v>
+      </c>
+      <c r="AH40">
+        <v>640000</v>
+      </c>
+      <c r="AI40">
+        <v>101099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B41">
+        <v>53816</v>
+      </c>
+      <c r="C41">
+        <v>69957</v>
+      </c>
+      <c r="D41">
+        <v>39495</v>
+      </c>
+      <c r="E41">
+        <v>59400</v>
+      </c>
+      <c r="F41">
+        <v>46945</v>
+      </c>
+      <c r="G41">
+        <v>52540</v>
+      </c>
+      <c r="H41">
+        <v>130528</v>
+      </c>
+      <c r="I41">
+        <v>6385714</v>
+      </c>
+      <c r="J41">
+        <v>1195402</v>
+      </c>
+      <c r="L41">
+        <v>137259</v>
+      </c>
+      <c r="M41">
+        <v>120687</v>
+      </c>
+      <c r="N41">
+        <v>69267</v>
+      </c>
+      <c r="O41">
+        <v>70165</v>
+      </c>
+      <c r="P41">
+        <v>61867</v>
+      </c>
+      <c r="Q41">
+        <v>87576</v>
+      </c>
+      <c r="R41">
+        <v>35669091</v>
+      </c>
+      <c r="S41">
+        <v>769446</v>
+      </c>
+      <c r="T41">
+        <v>68112000</v>
+      </c>
+      <c r="U41">
+        <v>77880</v>
+      </c>
+      <c r="V41">
+        <v>237500</v>
+      </c>
+      <c r="W41">
+        <v>32994</v>
+      </c>
+      <c r="X41">
+        <v>119487</v>
+      </c>
+      <c r="Y41">
+        <v>942696</v>
+      </c>
+      <c r="Z41">
+        <v>195692</v>
+      </c>
+      <c r="AA41">
+        <v>76169</v>
+      </c>
+      <c r="AB41">
+        <v>978627</v>
+      </c>
+      <c r="AC41">
+        <v>24919</v>
+      </c>
+      <c r="AD41">
+        <v>84713</v>
+      </c>
+      <c r="AE41">
+        <v>893333</v>
+      </c>
+      <c r="AF41">
+        <v>674234</v>
+      </c>
+      <c r="AG41">
+        <v>936134</v>
+      </c>
+      <c r="AH41">
+        <v>906000</v>
+      </c>
+      <c r="AI41">
+        <v>202070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1330</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1335</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1336</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1337</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B44">
+        <v>12068</v>
+      </c>
+      <c r="C44">
+        <v>12240</v>
+      </c>
+      <c r="D44">
+        <v>6006</v>
+      </c>
+      <c r="E44">
+        <v>16035</v>
+      </c>
+      <c r="F44">
+        <v>8296</v>
+      </c>
+      <c r="G44">
+        <v>11009</v>
+      </c>
+      <c r="H44">
+        <v>24781</v>
+      </c>
+      <c r="I44">
+        <v>1165764</v>
+      </c>
+      <c r="J44">
+        <v>270000</v>
+      </c>
+      <c r="L44">
+        <v>16275</v>
+      </c>
+      <c r="M44">
+        <v>23267</v>
+      </c>
+      <c r="N44">
+        <v>14624</v>
+      </c>
+      <c r="O44">
+        <v>15403</v>
+      </c>
+      <c r="P44">
+        <v>6500</v>
+      </c>
+      <c r="Q44">
+        <v>10300</v>
+      </c>
+      <c r="R44">
+        <v>2553846</v>
+      </c>
+      <c r="S44">
+        <v>144982</v>
+      </c>
+      <c r="T44">
+        <v>12270000</v>
+      </c>
+      <c r="U44">
+        <v>15980</v>
+      </c>
+      <c r="V44">
+        <v>32873</v>
+      </c>
+      <c r="W44">
+        <v>4721</v>
+      </c>
+      <c r="X44">
+        <v>23594</v>
+      </c>
+      <c r="Y44">
+        <v>97953</v>
+      </c>
+      <c r="Z44">
+        <v>29068</v>
+      </c>
+      <c r="AA44">
+        <v>15975</v>
+      </c>
+      <c r="AB44">
+        <v>231923</v>
+      </c>
+      <c r="AC44">
+        <v>2081</v>
+      </c>
+      <c r="AD44">
+        <v>11052</v>
+      </c>
+      <c r="AE44">
+        <v>194400</v>
+      </c>
+      <c r="AF44">
+        <v>149011</v>
+      </c>
+      <c r="AG44">
+        <v>213145</v>
+      </c>
+      <c r="AH44">
+        <v>137010</v>
+      </c>
+      <c r="AI44">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B45">
+        <v>15120</v>
+      </c>
+      <c r="C45">
+        <v>16469</v>
+      </c>
+      <c r="D45">
+        <v>8064</v>
+      </c>
+      <c r="E45">
+        <v>21577</v>
+      </c>
+      <c r="F45">
+        <v>11138</v>
+      </c>
+      <c r="G45">
+        <v>13882</v>
+      </c>
+      <c r="H45">
+        <v>32130</v>
+      </c>
+      <c r="I45">
+        <v>1623153</v>
+      </c>
+      <c r="J45">
+        <v>333333</v>
+      </c>
+      <c r="L45">
+        <v>23143</v>
+      </c>
+      <c r="M45">
+        <v>28785</v>
+      </c>
+      <c r="N45">
+        <v>18829</v>
+      </c>
+      <c r="O45">
+        <v>18502</v>
+      </c>
+      <c r="P45">
+        <v>10217</v>
+      </c>
+      <c r="Q45">
+        <v>16012</v>
+      </c>
+      <c r="R45">
+        <v>4429111</v>
+      </c>
+      <c r="S45">
+        <v>178869</v>
+      </c>
+      <c r="T45">
+        <v>17120000</v>
+      </c>
+      <c r="U45">
+        <v>19588</v>
+      </c>
+      <c r="V45">
+        <v>46297</v>
+      </c>
+      <c r="W45">
+        <v>6041</v>
+      </c>
+      <c r="X45">
+        <v>29146</v>
+      </c>
+      <c r="Y45">
+        <v>154146</v>
+      </c>
+      <c r="Z45">
+        <v>41049</v>
+      </c>
+      <c r="AA45">
+        <v>19619</v>
+      </c>
+      <c r="AB45">
+        <v>290789</v>
+      </c>
+      <c r="AC45">
+        <v>3839</v>
+      </c>
+      <c r="AD45">
+        <v>15944</v>
+      </c>
+      <c r="AE45">
+        <v>275067</v>
+      </c>
+      <c r="AF45">
+        <v>186088</v>
+      </c>
+      <c r="AG45">
+        <v>273508</v>
+      </c>
+      <c r="AH45">
+        <v>190487</v>
+      </c>
+      <c r="AI45">
+        <v>11603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B46">
+        <v>16550</v>
+      </c>
+      <c r="C46">
+        <v>18017</v>
+      </c>
+      <c r="D46">
+        <v>9258</v>
+      </c>
+      <c r="E46">
+        <v>23400</v>
+      </c>
+      <c r="F46">
+        <v>12567</v>
+      </c>
+      <c r="G46">
+        <v>15088</v>
+      </c>
+      <c r="H46">
+        <v>35236</v>
+      </c>
+      <c r="I46">
+        <v>1819257</v>
+      </c>
+      <c r="J46">
+        <v>362734</v>
+      </c>
+      <c r="L46">
+        <v>26290</v>
+      </c>
+      <c r="M46">
+        <v>31967</v>
+      </c>
+      <c r="N46">
+        <v>20400</v>
+      </c>
+      <c r="O46">
+        <v>19976</v>
+      </c>
+      <c r="P46">
+        <v>11826</v>
+      </c>
+      <c r="Q46">
+        <v>18775</v>
+      </c>
+      <c r="R46">
+        <v>5333333</v>
+      </c>
+      <c r="S46">
+        <v>191206</v>
+      </c>
+      <c r="T46">
+        <v>19317857</v>
+      </c>
+      <c r="U46">
+        <v>21028</v>
+      </c>
+      <c r="V46">
+        <v>52205</v>
+      </c>
+      <c r="W46">
+        <v>6771</v>
+      </c>
+      <c r="X46">
+        <v>31568</v>
+      </c>
+      <c r="Y46">
+        <v>180000</v>
+      </c>
+      <c r="Z46">
+        <v>46220</v>
+      </c>
+      <c r="AA46">
+        <v>21272</v>
+      </c>
+      <c r="AB46">
+        <v>315192</v>
+      </c>
+      <c r="AC46">
+        <v>4745</v>
+      </c>
+      <c r="AD46">
+        <v>18000</v>
+      </c>
+      <c r="AE46">
+        <v>300000</v>
+      </c>
+      <c r="AF46">
+        <v>203217</v>
+      </c>
+      <c r="AG46">
+        <v>298618</v>
+      </c>
+      <c r="AH46">
+        <v>214675</v>
+      </c>
+      <c r="AI46">
+        <v>13846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B47">
+        <v>17870</v>
+      </c>
+      <c r="C47">
+        <v>19517</v>
+      </c>
+      <c r="D47">
+        <v>10228</v>
+      </c>
+      <c r="E47">
+        <v>25068</v>
+      </c>
+      <c r="F47">
+        <v>13832</v>
+      </c>
+      <c r="G47">
+        <v>16149</v>
+      </c>
+      <c r="H47">
+        <v>37618</v>
+      </c>
+      <c r="I47">
+        <v>1986469</v>
+      </c>
+      <c r="J47">
+        <v>391506</v>
+      </c>
+      <c r="L47">
+        <v>29593</v>
+      </c>
+      <c r="M47">
+        <v>34689</v>
+      </c>
+      <c r="N47">
+        <v>22052</v>
+      </c>
+      <c r="O47">
+        <v>21621</v>
+      </c>
+      <c r="P47">
+        <v>13440</v>
+      </c>
+      <c r="Q47">
+        <v>21795</v>
+      </c>
+      <c r="R47">
+        <v>6171532</v>
+      </c>
+      <c r="S47">
+        <v>203353</v>
+      </c>
+      <c r="T47">
+        <v>21275000</v>
+      </c>
+      <c r="U47">
+        <v>22600</v>
+      </c>
+      <c r="V47">
+        <v>58890</v>
+      </c>
+      <c r="W47">
+        <v>7383</v>
+      </c>
+      <c r="X47">
+        <v>33407</v>
+      </c>
+      <c r="Y47">
+        <v>204167</v>
+      </c>
+      <c r="Z47">
+        <v>51288</v>
+      </c>
+      <c r="AA47">
+        <v>22791</v>
+      </c>
+      <c r="AB47">
+        <v>336609</v>
+      </c>
+      <c r="AC47">
+        <v>5551</v>
+      </c>
+      <c r="AD47">
+        <v>20316</v>
+      </c>
+      <c r="AE47">
+        <v>336000</v>
+      </c>
+      <c r="AF47">
+        <v>221397</v>
+      </c>
+      <c r="AG47">
+        <v>323522</v>
+      </c>
+      <c r="AH47">
+        <v>240000</v>
+      </c>
+      <c r="AI47">
+        <v>16167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B48">
+        <v>20270</v>
+      </c>
+      <c r="C48">
+        <v>22529</v>
+      </c>
+      <c r="D48">
+        <v>12062</v>
+      </c>
+      <c r="E48">
+        <v>28794</v>
+      </c>
+      <c r="F48">
+        <v>16176</v>
+      </c>
+      <c r="G48">
+        <v>18728</v>
+      </c>
+      <c r="H48">
+        <v>42864</v>
+      </c>
+      <c r="I48">
+        <v>2314403</v>
+      </c>
+      <c r="J48">
+        <v>450298</v>
+      </c>
+      <c r="L48">
+        <v>36549</v>
+      </c>
+      <c r="M48">
+        <v>40695</v>
+      </c>
+      <c r="N48">
+        <v>25039</v>
+      </c>
+      <c r="O48">
+        <v>24843</v>
+      </c>
+      <c r="P48">
+        <v>16237</v>
+      </c>
+      <c r="Q48">
+        <v>27621</v>
+      </c>
+      <c r="R48">
+        <v>7983220</v>
+      </c>
+      <c r="S48">
+        <v>228743</v>
+      </c>
+      <c r="T48">
+        <v>25073333</v>
+      </c>
+      <c r="U48">
+        <v>25940</v>
+      </c>
+      <c r="V48">
+        <v>72928</v>
+      </c>
+      <c r="W48">
+        <v>8681</v>
+      </c>
+      <c r="X48">
+        <v>38992</v>
+      </c>
+      <c r="Y48">
+        <v>257143</v>
+      </c>
+      <c r="Z48">
+        <v>61475</v>
+      </c>
+      <c r="AA48">
+        <v>26336</v>
+      </c>
+      <c r="AB48">
+        <v>375827</v>
+      </c>
+      <c r="AC48">
+        <v>7052</v>
+      </c>
+      <c r="AD48">
+        <v>23863</v>
+      </c>
+      <c r="AE48">
+        <v>398400</v>
+      </c>
+      <c r="AF48">
+        <v>255845</v>
+      </c>
+      <c r="AG48">
+        <v>369457</v>
+      </c>
+      <c r="AH48">
+        <v>288000</v>
+      </c>
+      <c r="AI48">
+        <v>22020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B49">
+        <v>22610</v>
+      </c>
+      <c r="C49">
+        <v>25341</v>
+      </c>
+      <c r="D49">
+        <v>14203</v>
+      </c>
+      <c r="E49">
+        <v>32308</v>
+      </c>
+      <c r="F49">
+        <v>18611</v>
+      </c>
+      <c r="G49">
+        <v>21389</v>
+      </c>
+      <c r="H49">
+        <v>48584</v>
+      </c>
+      <c r="I49">
+        <v>2650183</v>
+      </c>
+      <c r="J49">
+        <v>515223</v>
+      </c>
+      <c r="L49">
+        <v>43846</v>
+      </c>
+      <c r="M49">
+        <v>46825</v>
+      </c>
+      <c r="N49">
+        <v>28057</v>
+      </c>
+      <c r="O49">
+        <v>27597</v>
+      </c>
+      <c r="P49">
+        <v>19899</v>
+      </c>
+      <c r="Q49">
+        <v>34053</v>
+      </c>
+      <c r="R49">
+        <v>10000000</v>
+      </c>
+      <c r="S49">
+        <v>254285</v>
+      </c>
+      <c r="T49">
+        <v>29120000</v>
+      </c>
+      <c r="U49">
+        <v>29255</v>
+      </c>
+      <c r="V49">
+        <v>87948</v>
+      </c>
+      <c r="W49">
+        <v>10210</v>
+      </c>
+      <c r="X49">
+        <v>45471</v>
+      </c>
+      <c r="Y49">
+        <v>309609</v>
+      </c>
+      <c r="Z49">
+        <v>72747</v>
+      </c>
+      <c r="AA49">
+        <v>29518</v>
+      </c>
+      <c r="AB49">
+        <v>413657</v>
+      </c>
+      <c r="AC49">
+        <v>8582</v>
+      </c>
+      <c r="AD49">
+        <v>27538</v>
+      </c>
+      <c r="AE49">
+        <v>456000</v>
+      </c>
+      <c r="AF49">
+        <v>289975</v>
+      </c>
+      <c r="AG49">
+        <v>416398</v>
+      </c>
+      <c r="AH49">
+        <v>344000</v>
+      </c>
+      <c r="AI49">
+        <v>30261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B50">
+        <v>25248</v>
+      </c>
+      <c r="C50">
+        <v>28358</v>
+      </c>
+      <c r="D50">
+        <v>16464</v>
+      </c>
+      <c r="E50">
+        <v>36000</v>
+      </c>
+      <c r="F50">
+        <v>21211</v>
+      </c>
+      <c r="G50">
+        <v>24570</v>
+      </c>
+      <c r="H50">
+        <v>54908</v>
+      </c>
+      <c r="I50">
+        <v>3013167</v>
+      </c>
+      <c r="J50">
+        <v>591942</v>
+      </c>
+      <c r="L50">
+        <v>52250</v>
+      </c>
+      <c r="M50">
+        <v>53768</v>
+      </c>
+      <c r="N50">
+        <v>31387</v>
+      </c>
+      <c r="O50">
+        <v>30720</v>
+      </c>
+      <c r="P50">
+        <v>23423</v>
+      </c>
+      <c r="Q50">
+        <v>41367</v>
+      </c>
+      <c r="R50">
+        <v>12568348</v>
+      </c>
+      <c r="S50">
+        <v>281985</v>
+      </c>
+      <c r="T50">
+        <v>33500000</v>
+      </c>
+      <c r="U50">
+        <v>33320</v>
+      </c>
+      <c r="V50">
+        <v>103624</v>
+      </c>
+      <c r="W50">
+        <v>11824</v>
+      </c>
+      <c r="X50">
+        <v>51537</v>
+      </c>
+      <c r="Y50">
+        <v>372414</v>
+      </c>
+      <c r="Z50">
+        <v>86447</v>
+      </c>
+      <c r="AA50">
+        <v>32432</v>
+      </c>
+      <c r="AB50">
+        <v>454355</v>
+      </c>
+      <c r="AC50">
+        <v>10383</v>
+      </c>
+      <c r="AD50">
+        <v>31975</v>
+      </c>
+      <c r="AE50">
+        <v>525714</v>
+      </c>
+      <c r="AF50">
+        <v>325184</v>
+      </c>
+      <c r="AG50">
+        <v>469794</v>
+      </c>
+      <c r="AH50">
+        <v>408000</v>
+      </c>
+      <c r="AI50">
+        <v>41164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B51">
+        <v>28473</v>
+      </c>
+      <c r="C51">
+        <v>31897</v>
+      </c>
+      <c r="D51">
+        <v>19081</v>
+      </c>
+      <c r="E51">
+        <v>40258</v>
+      </c>
+      <c r="F51">
+        <v>24336</v>
+      </c>
+      <c r="G51">
+        <v>28194</v>
+      </c>
+      <c r="H51">
+        <v>62994</v>
+      </c>
+      <c r="I51">
+        <v>3456054</v>
+      </c>
+      <c r="J51">
+        <v>685104</v>
+      </c>
+      <c r="L51">
+        <v>62473</v>
+      </c>
+      <c r="M51">
+        <v>61672</v>
+      </c>
+      <c r="N51">
+        <v>35273</v>
+      </c>
+      <c r="O51">
+        <v>33541</v>
+      </c>
+      <c r="P51">
+        <v>28754</v>
+      </c>
+      <c r="Q51">
+        <v>50896</v>
+      </c>
+      <c r="R51">
+        <v>16088024</v>
+      </c>
+      <c r="S51">
+        <v>314367</v>
+      </c>
+      <c r="T51">
+        <v>38876000</v>
+      </c>
+      <c r="U51">
+        <v>36773</v>
+      </c>
+      <c r="V51">
+        <v>120834</v>
+      </c>
+      <c r="W51">
+        <v>14030</v>
+      </c>
+      <c r="X51">
+        <v>59336</v>
+      </c>
+      <c r="Y51">
+        <v>450000</v>
+      </c>
+      <c r="Z51">
+        <v>103719</v>
+      </c>
+      <c r="AA51">
+        <v>35827</v>
+      </c>
+      <c r="AB51">
+        <v>502492</v>
+      </c>
+      <c r="AC51">
+        <v>12622</v>
+      </c>
+      <c r="AD51">
+        <v>36000</v>
+      </c>
+      <c r="AE51">
+        <v>607826</v>
+      </c>
+      <c r="AF51">
+        <v>365464</v>
+      </c>
+      <c r="AG51">
+        <v>535897</v>
+      </c>
+      <c r="AH51">
+        <v>493333</v>
+      </c>
+      <c r="AI51">
+        <v>59503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B52">
+        <v>30444</v>
+      </c>
+      <c r="C52">
+        <v>34247</v>
+      </c>
+      <c r="D52">
+        <v>20682</v>
+      </c>
+      <c r="E52">
+        <v>42900</v>
+      </c>
+      <c r="F52">
+        <v>26382</v>
+      </c>
+      <c r="G52">
+        <v>30217</v>
+      </c>
+      <c r="H52">
+        <v>67802</v>
+      </c>
+      <c r="I52">
+        <v>3717319</v>
+      </c>
+      <c r="J52">
+        <v>749429</v>
+      </c>
+      <c r="L52">
+        <v>68942</v>
+      </c>
+      <c r="M52">
+        <v>66271</v>
+      </c>
+      <c r="N52">
+        <v>37422</v>
+      </c>
+      <c r="O52">
+        <v>35703</v>
+      </c>
+      <c r="P52">
+        <v>32319</v>
+      </c>
+      <c r="Q52">
+        <v>57167</v>
+      </c>
+      <c r="R52">
+        <v>18341042</v>
+      </c>
+      <c r="S52">
+        <v>333831</v>
+      </c>
+      <c r="T52">
+        <v>42111111</v>
+      </c>
+      <c r="U52">
+        <v>39573</v>
+      </c>
+      <c r="V52">
+        <v>131300</v>
+      </c>
+      <c r="W52">
+        <v>15451</v>
+      </c>
+      <c r="X52">
+        <v>15451</v>
+      </c>
+      <c r="Y52">
+        <v>63105</v>
+      </c>
+      <c r="Z52">
+        <v>500000</v>
+      </c>
+      <c r="AA52">
+        <v>115475</v>
+      </c>
+      <c r="AB52">
+        <v>38007</v>
+      </c>
+      <c r="AC52">
+        <v>532138</v>
+      </c>
+      <c r="AD52">
+        <v>14166</v>
+      </c>
+      <c r="AE52">
+        <v>39000</v>
+      </c>
+      <c r="AF52">
+        <v>386621</v>
+      </c>
+      <c r="AG52">
+        <v>578278</v>
+      </c>
+      <c r="AH52">
+        <v>550137</v>
+      </c>
+      <c r="AI52">
+        <v>72624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B53">
+        <v>32783</v>
+      </c>
+      <c r="C53">
+        <v>36989</v>
+      </c>
+      <c r="D53">
+        <v>22349</v>
+      </c>
+      <c r="E53">
+        <v>46286</v>
+      </c>
+      <c r="F53">
+        <v>28757</v>
+      </c>
+      <c r="G53">
+        <v>32764</v>
+      </c>
+      <c r="H53">
+        <v>73576</v>
+      </c>
+      <c r="I53">
+        <v>4046829</v>
+      </c>
+      <c r="J53">
+        <v>824384</v>
+      </c>
+      <c r="L53">
+        <v>76902</v>
+      </c>
+      <c r="M53">
+        <v>72314</v>
+      </c>
+      <c r="N53">
+        <v>40090</v>
+      </c>
+      <c r="O53">
+        <v>37931</v>
+      </c>
+      <c r="P53">
+        <v>36931</v>
+      </c>
+      <c r="Q53">
+        <v>64342</v>
+      </c>
+      <c r="R53">
+        <v>21336436</v>
+      </c>
+      <c r="S53">
+        <v>357184</v>
+      </c>
+      <c r="T53">
+        <v>46207692</v>
+      </c>
+      <c r="U53">
+        <v>41868</v>
+      </c>
+      <c r="V53">
+        <v>143576</v>
+      </c>
+      <c r="W53">
+        <v>16819</v>
+      </c>
+      <c r="X53">
+        <v>16819</v>
+      </c>
+      <c r="Y53">
+        <v>66706</v>
+      </c>
+      <c r="Z53">
+        <v>556667</v>
+      </c>
+      <c r="AA53">
+        <v>129770</v>
+      </c>
+      <c r="AB53">
+        <v>40363</v>
+      </c>
+      <c r="AC53">
+        <v>568116</v>
+      </c>
+      <c r="AD53">
+        <v>15965</v>
+      </c>
+      <c r="AE53">
+        <v>42856</v>
+      </c>
+      <c r="AF53">
+        <v>413681</v>
+      </c>
+      <c r="AG53">
+        <v>634049</v>
+      </c>
+      <c r="AH53">
+        <v>624000</v>
+      </c>
+      <c r="AI53">
+        <v>91475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B54">
+        <v>41060</v>
+      </c>
+      <c r="C54">
+        <v>46687</v>
+      </c>
+      <c r="D54">
+        <v>27703</v>
+      </c>
+      <c r="E54">
+        <v>56690</v>
+      </c>
+      <c r="F54">
+        <v>36242</v>
+      </c>
+      <c r="G54">
+        <v>41279</v>
+      </c>
+      <c r="H54">
+        <v>93646</v>
+      </c>
+      <c r="I54">
+        <v>5018925</v>
+      </c>
+      <c r="J54">
+        <v>1053000</v>
+      </c>
+      <c r="L54">
+        <v>104552</v>
+      </c>
+      <c r="M54">
+        <v>90698</v>
+      </c>
+      <c r="N54">
+        <v>48671</v>
+      </c>
+      <c r="O54">
+        <v>44975</v>
+      </c>
+      <c r="P54">
+        <v>55210</v>
+      </c>
+      <c r="Q54">
+        <v>87576</v>
+      </c>
+      <c r="R54">
+        <v>35669091</v>
+      </c>
+      <c r="S54">
+        <v>431136</v>
+      </c>
+      <c r="T54">
+        <v>58292308</v>
+      </c>
+      <c r="U54">
+        <v>51345</v>
+      </c>
+      <c r="V54">
+        <v>181720</v>
+      </c>
+      <c r="W54">
+        <v>22621</v>
+      </c>
+      <c r="X54">
+        <v>22621</v>
+      </c>
+      <c r="Y54">
+        <v>83332</v>
+      </c>
+      <c r="Z54">
+        <v>800000</v>
+      </c>
+      <c r="AA54">
+        <v>183785</v>
+      </c>
+      <c r="AB54">
+        <v>48465</v>
+      </c>
+      <c r="AC54">
+        <v>683043</v>
+      </c>
+      <c r="AD54">
+        <v>21932</v>
+      </c>
+      <c r="AE54">
+        <v>52000</v>
+      </c>
+      <c r="AF54">
+        <v>498659</v>
+      </c>
+      <c r="AG54">
+        <v>809868</v>
+      </c>
+      <c r="AH54">
+        <v>888000</v>
+      </c>
+      <c r="AI54">
+        <v>173310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>12537</v>
+      </c>
+      <c r="C57">
+        <v>14190</v>
+      </c>
+      <c r="D57">
+        <v>9284</v>
+      </c>
+      <c r="E57">
+        <v>25044</v>
+      </c>
+      <c r="F57">
+        <v>8081</v>
+      </c>
+      <c r="H57">
+        <v>24281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>16009</v>
+      </c>
+      <c r="C58">
+        <v>18104</v>
+      </c>
+      <c r="D58">
+        <v>12189</v>
+      </c>
+      <c r="E58">
+        <v>31951</v>
+      </c>
+      <c r="F58">
+        <v>10928</v>
+      </c>
+      <c r="H58">
+        <v>31934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>17502</v>
+      </c>
+      <c r="C59">
+        <v>19836</v>
+      </c>
+      <c r="D59">
+        <v>13535</v>
+      </c>
+      <c r="E59">
+        <v>34849</v>
+      </c>
+      <c r="F59">
+        <v>12314</v>
+      </c>
+      <c r="H59">
+        <v>35095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>18952</v>
+      </c>
+      <c r="C60">
+        <v>21415</v>
+      </c>
+      <c r="D60">
+        <v>14708</v>
+      </c>
+      <c r="E60">
+        <v>37388</v>
+      </c>
+      <c r="F60">
+        <v>13611</v>
+      </c>
+      <c r="H60">
+        <v>37777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>21557</v>
+      </c>
+      <c r="C61">
+        <v>24440</v>
+      </c>
+      <c r="D61">
+        <v>17429</v>
+      </c>
+      <c r="E61">
+        <v>42263</v>
+      </c>
+      <c r="F61">
+        <v>15901</v>
+      </c>
+      <c r="H61">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>24179</v>
+      </c>
+      <c r="C62">
+        <v>27556</v>
+      </c>
+      <c r="D62">
+        <v>19819</v>
+      </c>
+      <c r="E62">
+        <v>47084</v>
+      </c>
+      <c r="F62">
+        <v>18316</v>
+      </c>
+      <c r="H62">
+        <v>49560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>27006</v>
+      </c>
+      <c r="C63">
+        <v>31182</v>
+      </c>
+      <c r="D63">
+        <v>22695</v>
+      </c>
+      <c r="E63">
+        <v>52351</v>
+      </c>
+      <c r="F63">
+        <v>20856</v>
+      </c>
+      <c r="H63">
+        <v>56220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>30635</v>
+      </c>
+      <c r="C64">
+        <v>35572</v>
+      </c>
+      <c r="D64">
+        <v>25941</v>
+      </c>
+      <c r="E64">
+        <v>59046</v>
+      </c>
+      <c r="F64">
+        <v>23987</v>
+      </c>
+      <c r="H64">
+        <v>63479</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>32816</v>
+      </c>
+      <c r="C65">
+        <v>38196</v>
+      </c>
+      <c r="D65">
+        <v>27972</v>
+      </c>
+      <c r="E65">
+        <v>62955</v>
+      </c>
+      <c r="F65">
+        <v>26032</v>
+      </c>
+      <c r="H65">
+        <v>68083</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>35361</v>
+      </c>
+      <c r="C66">
+        <v>41370</v>
+      </c>
+      <c r="D66">
+        <v>30442</v>
+      </c>
+      <c r="E66">
+        <v>68338</v>
+      </c>
+      <c r="F66">
+        <v>28345</v>
+      </c>
+      <c r="H66">
+        <v>74078</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>44071</v>
+      </c>
+      <c r="C67">
+        <v>51810</v>
+      </c>
+      <c r="D67">
+        <v>38239</v>
+      </c>
+      <c r="E67">
+        <v>84067</v>
+      </c>
+      <c r="F67">
+        <v>35878</v>
+      </c>
+      <c r="H67">
+        <v>92421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -15281,7 +19737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R132"/>
   <sheetViews>
@@ -17985,39 +22441,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="1387">
   <si>
     <t>Country</t>
   </si>
@@ -3950,12 +3950,6 @@
     <t>Income source</t>
   </si>
   <si>
-    <t>WID pretax</t>
-  </si>
-  <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
     <t>fr20</t>
   </si>
   <si>
@@ -4091,15 +4085,6 @@
     <t>sa</t>
   </si>
   <si>
-    <t>LIS total income</t>
-  </si>
-  <si>
-    <t>LIS disposable or Gethin</t>
-  </si>
-  <si>
-    <t>LIS total income OR WID pretax OR US census</t>
-  </si>
-  <si>
     <t>GNI pc 2023, current LCU (https://data.worldbank.org/indicator/NY.GNP.PCAP.CN?end=2023&amp;locations=GB-CH-JP-RU-US&amp;start=2019, 02/14/2025)</t>
   </si>
   <si>
@@ -4151,9 +4136,6 @@
     <t>PL23</t>
   </si>
   <si>
-    <t>ES23</t>
-  </si>
-  <si>
     <t>CH23</t>
   </si>
   <si>
@@ -4161,6 +4143,57 @@
   </si>
   <si>
     <t>Rounding</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>WID pretax income 2023 LCUcst tptinc_992_j (https://wid.world/data, 02/13/2025)</t>
+  </si>
+  <si>
+    <t>WID 2023 pretax inflated, equal-split</t>
+  </si>
+  <si>
+    <t>Eurostat 2023 disposable inflated, equivalised</t>
+  </si>
+  <si>
+    <t>Eurostat 2024 disposable inflated, equivalised</t>
+  </si>
+  <si>
+    <t>Eurostat 2023 inflated, equivalised</t>
+  </si>
+  <si>
+    <t>LIS 2021 total income inflated, equivalised</t>
+  </si>
+  <si>
+    <t>LIS 2019 total income inflated, equivalised</t>
+  </si>
+  <si>
+    <t>LIS 2020 total income inflated, equivalised</t>
+  </si>
+  <si>
+    <t>Vocational training or Some college without degree</t>
+  </si>
+  <si>
+    <t>ES24</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US Census 2023 Total income per household (https://www.census.gov/data/tables/time-series/demo/income-poverty/cps-hinc/hinc-06.html)</t>
+  </si>
+  <si>
+    <t>US Census 2023 total income, inflated, household-level</t>
+  </si>
+  <si>
+    <t>LIS 2022 disposable inflated, equivalised</t>
+  </si>
+  <si>
+    <t>Income rounding</t>
   </si>
 </sst>
 </file>
@@ -4690,11 +4723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,37 +5463,37 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1306</v>
+        <v>1375</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1306</v>
+        <v>1376</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>1352</v>
+        <v>1377</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>1352</v>
+        <v>1379</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>1353</v>
+        <v>1385</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>1305</v>
+        <v>1373</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="12"/>
@@ -5469,6 +5502,9 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1368</v>
+      </c>
       <c r="B19" s="21"/>
       <c r="C19" s="19" t="s">
         <v>144</v>
@@ -5511,89 +5547,89 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="18"/>
+        <v>1386</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="6">
-        <v>60000</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6">
-        <v>61000</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6">
-        <v>53000</v>
+        <v>50</v>
       </c>
       <c r="F20" s="6">
-        <v>158000</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6">
-        <v>49000</v>
+        <v>50</v>
       </c>
       <c r="H20" s="6">
-        <v>58000</v>
+        <v>500</v>
       </c>
       <c r="I20" s="6">
-        <v>85000</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="6">
-        <v>7864000</v>
-      </c>
-      <c r="K20" s="35">
-        <v>2358000</v>
+        <v>10000</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1000</v>
       </c>
       <c r="L20" s="6">
-        <v>121000</v>
+        <v>50</v>
       </c>
       <c r="M20" s="6">
-        <v>80000</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="10"/>
+      <c r="C21" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>61000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>53000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>158000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>49000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>58000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>85000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7864000</v>
+      </c>
+      <c r="K21" s="35">
+        <v>2358000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>121000</v>
+      </c>
+      <c r="M21" s="6">
+        <v>80000</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -5601,371 +5637,397 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6">
-        <v>91000</v>
-      </c>
-      <c r="D22" s="6">
-        <v>91000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>80000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>237000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>73000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>87000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>128000</v>
-      </c>
-      <c r="J22" s="6">
-        <v>11796000</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3537000</v>
-      </c>
-      <c r="L22" s="6">
-        <v>181000</v>
-      </c>
-      <c r="M22" s="6">
-        <v>120000</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>43</v>
+      <c r="C23" s="6">
+        <v>91000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>237000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>73000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>87000</v>
+      </c>
+      <c r="I23" s="6">
+        <v>128000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>11796000</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3537000</v>
+      </c>
+      <c r="L23" s="6">
+        <v>181000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>120000</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
-        <v>755000</v>
-      </c>
-      <c r="D24" s="6">
-        <v>758000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>664000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1974000</v>
-      </c>
-      <c r="G24" s="6">
-        <v>607000</v>
-      </c>
-      <c r="H24" s="6">
-        <v>722000</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1063000</v>
-      </c>
-      <c r="J24" s="6">
-        <v>98298000</v>
-      </c>
-      <c r="K24" s="4">
-        <v>29472000</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1510000</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>755000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>758000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>664000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1974000</v>
+      </c>
+      <c r="G25" s="6">
+        <v>607000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>722000</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1063000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>98298000</v>
+      </c>
+      <c r="K25" s="4">
+        <v>29472000</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1510000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="L26" s="6" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>504</v>
+        <v>30</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B27" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="D27" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="F27" s="32">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G27" s="32">
-        <v>0.97</v>
-      </c>
-      <c r="H27" s="32">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J27" s="32">
-        <v>158</v>
-      </c>
-      <c r="K27" s="32">
-        <v>105</v>
-      </c>
-      <c r="L27" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="M27" s="32">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B28" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" t="s">
-        <v>584</v>
-      </c>
-      <c r="D28" t="s">
-        <v>584</v>
-      </c>
-      <c r="E28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F28" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" t="s">
-        <v>585</v>
-      </c>
-      <c r="H28" t="s">
-        <v>583</v>
-      </c>
-      <c r="I28" t="s">
-        <v>586</v>
-      </c>
-      <c r="J28" t="s">
-        <v>583</v>
-      </c>
-      <c r="K28" t="s">
-        <v>583</v>
-      </c>
-      <c r="L28" t="s">
-        <v>583</v>
-      </c>
-      <c r="R28" s="7"/>
+        <v>645</v>
+      </c>
+      <c r="B28" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="F28" s="32">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J28" s="32">
+        <v>158</v>
+      </c>
+      <c r="K28" s="32">
+        <v>105</v>
+      </c>
+      <c r="L28" s="32">
+        <v>3.75</v>
+      </c>
+      <c r="M28" s="32">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2">
-        <v>26</v>
-      </c>
-      <c r="K29" s="2">
-        <v>21</v>
-      </c>
-      <c r="L29" s="2">
-        <v>4</v>
-      </c>
-      <c r="M29" s="2">
-        <v>514</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B29" t="s">
+        <v>660</v>
+      </c>
+      <c r="C29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" t="s">
+        <v>584</v>
+      </c>
+      <c r="E29" t="s">
+        <v>584</v>
+      </c>
+      <c r="F29" t="s">
+        <v>584</v>
+      </c>
+      <c r="G29" t="s">
+        <v>585</v>
+      </c>
+      <c r="H29" t="s">
+        <v>583</v>
+      </c>
+      <c r="I29" t="s">
+        <v>586</v>
+      </c>
+      <c r="J29" t="s">
+        <v>583</v>
+      </c>
+      <c r="K29" t="s">
+        <v>583</v>
+      </c>
+      <c r="L29" t="s">
+        <v>583</v>
+      </c>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <v>21</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="19">
+      <c r="B31" s="6"/>
+      <c r="C31" s="19">
         <v>1.6</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="19">
         <v>0.9</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>0.5</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>0.2</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G31" s="19">
         <v>0.4</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>0.4</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>1.8</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>0.5</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L31" s="19">
         <v>0.4</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M31" s="19">
         <v>1.9</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="2"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -5973,153 +6035,154 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B32" s="35">
-        <f>(C$3*C32+D$3*D32+E$3*E32+F$3*F32+G$3*G32+H$3*H32+I$3*I32)/5000</f>
-        <v>20.4313</v>
-      </c>
-      <c r="C32" s="35">
-        <v>16.3</v>
-      </c>
-      <c r="D32" s="35">
-        <v>16.7</v>
-      </c>
-      <c r="E32" s="35">
-        <v>34.5</v>
-      </c>
-      <c r="F32" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="G32" s="35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H32" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="I32" s="35">
-        <v>13.7</v>
-      </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="35">
-        <v>8</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B33" s="35">
-        <f t="shared" ref="B33:B34" si="0">(C$3*C33+D$3*D33+E$3*E33+F$3*F33+G$3*G33+H$3*H33+I$3*I33)/5000</f>
-        <v>40.694020000000009</v>
-      </c>
-      <c r="C33" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="D33" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="E33" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="F33" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="G33" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="H33" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="I33" s="6">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J33" s="6"/>
+        <f>(C$3*C33+D$3*D33+E$3*E33+F$3*F33+G$3*G33+H$3*H33+I$3*I33)/5000</f>
+        <v>20.4313</v>
+      </c>
+      <c r="C33" s="35">
+        <v>16.3</v>
+      </c>
+      <c r="D33" s="35">
+        <v>16.7</v>
+      </c>
+      <c r="E33" s="35">
+        <v>34.5</v>
+      </c>
+      <c r="F33" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="G33" s="35">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H33" s="35">
+        <v>17.8</v>
+      </c>
+      <c r="I33" s="35">
+        <v>13.7</v>
+      </c>
+      <c r="J33" s="35"/>
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6">
-        <v>41.3</v>
-      </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="M33" s="35">
+        <v>8</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B34" s="35">
-        <f t="shared" si="0"/>
-        <v>38.83728</v>
+        <f t="shared" ref="B34:B35" si="0">(C$3*C34+D$3*D34+E$3*E34+F$3*F34+G$3*G34+H$3*H34+I$3*I34)/5000</f>
+        <v>40.694020000000009</v>
       </c>
       <c r="C34" s="6">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="D34" s="6">
-        <v>33.4</v>
+        <v>49.9</v>
       </c>
       <c r="E34" s="6">
-        <v>21.6</v>
+        <v>43.9</v>
       </c>
       <c r="F34" s="6">
-        <v>37.9</v>
+        <v>56.4</v>
       </c>
       <c r="G34" s="6">
-        <v>41.4</v>
+        <v>22.7</v>
       </c>
       <c r="H34" s="6">
-        <v>52.7</v>
+        <v>29.5</v>
       </c>
       <c r="I34" s="6">
-        <v>46</v>
-      </c>
-      <c r="J34" s="6">
-        <v>56</v>
-      </c>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B35" s="35">
+        <f t="shared" si="0"/>
+        <v>38.83728</v>
+      </c>
+      <c r="C35" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D35" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="E35" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="G35" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="H35" s="6">
+        <v>52.7</v>
+      </c>
+      <c r="I35" s="6">
+        <v>46</v>
+      </c>
+      <c r="J35" s="6">
+        <v>56</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6">
         <v>50.7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="23"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="23"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="32"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6127,372 +6190,386 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1042</v>
+        <v>1265</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1112</v>
+        <v>1073</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>1243</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H38" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1218</v>
+        <v>1055</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1216</v>
+        <v>1283</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>1257</v>
+        <v>1074</v>
       </c>
       <c r="D39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1250</v>
+        <v>1112</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H39" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I39" t="s">
-        <v>1255</v>
+        <v>1218</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="L39" t="s">
-        <v>1292</v>
+        <v>1216</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s">
-        <v>1075</v>
+        <v>1257</v>
       </c>
       <c r="D40" t="s">
-        <v>1246</v>
+        <v>1050</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G40" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>1258</v>
+        <v>1057</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1255</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1292</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>1256</v>
+        <v>1075</v>
       </c>
       <c r="D41" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G41" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H41" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>1278</v>
+        <v>1058</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1281</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M41" s="32" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" t="s">
+        <v>1256</v>
+      </c>
       <c r="D42" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>1274</v>
+        <v>1051</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="G42" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2" t="s">
-        <v>1294</v>
+        <v>1083</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1208</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>1202</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" t="s">
-        <v>1076</v>
+      <c r="D43" t="s">
+        <v>1245</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="G43" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>1288</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>1247</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B44" s="32"/>
+        <v>1045</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1249</v>
+        <v>1076</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>1253</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G44" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H44" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I44" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1191</v>
+        <v>1282</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+        <v>1247</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
         <v>1078</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>1053</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F46" s="32" t="s">
         <v>1273</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>1086</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>1060</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>1261</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J46" s="32" t="s">
         <v>1280</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K46" s="32" t="s">
         <v>1286</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L46" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="M45" s="32" t="s">
+      <c r="M46" s="32" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="2"/>
-    </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49"/>
@@ -6516,21 +6593,20 @@
       <c r="A55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57"/>
       <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58"/>
@@ -6557,57 +6633,48 @@
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="32"/>
+      <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="32"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
@@ -6618,14 +6685,9 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="5"/>
-      <c r="L69" s="6"/>
+      <c r="J69" s="2"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
@@ -6636,29 +6698,30 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="5"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
@@ -6672,6 +6735,10 @@
       <c r="J72" s="18"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
@@ -6686,34 +6753,33 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="M75" s="31"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="24"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="M76" s="31"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -6742,21 +6808,21 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="24"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="A80" s="22"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -6788,31 +6854,31 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="31"/>
+      <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="M84" s="31"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -6841,11 +6907,6 @@
       <c r="J86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -6879,6 +6940,11 @@
       <c r="J88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -6949,8 +7015,6 @@
       <c r="J93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
@@ -6965,99 +7029,115 @@
       <c r="J94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="1"/>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="R94" s="8"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="2"/>
+      <c r="R95" s="8"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="6"/>
-      <c r="O98" s="4"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L102" s="2"/>
-    </row>
-    <row r="141" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="6"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="142" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7104,8 +7184,8 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7355,7 +7435,7 @@
         <v>1294</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>1202</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10420,59 +10500,59 @@
         <v>418</v>
       </c>
       <c r="B7">
-        <f>1/Figures!C27</f>
+        <f>1/Figures!C28</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="C7">
-        <f>1/Figures!D27</f>
+        <f>1/Figures!D28</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="D7">
-        <f>1/Figures!E27</f>
+        <f>1/Figures!E28</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="E7">
-        <f>1/Figures!F27</f>
+        <f>1/Figures!F28</f>
         <v>0.24096385542168672</v>
       </c>
       <c r="F7">
-        <f>1/Figures!G27</f>
+        <f>1/Figures!G28</f>
         <v>1.0309278350515465</v>
       </c>
       <c r="G7">
-        <f>1/Figures!H27</f>
+        <f>1/Figures!H28</f>
         <v>1.2360939431396785</v>
       </c>
       <c r="H7">
-        <f>1/Figures!I27</f>
+        <f>1/Figures!I28</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="I7">
-        <f>1/Figures!J27</f>
+        <f>1/Figures!J28</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="J7">
-        <f>1/Figures!K27</f>
+        <f>1/Figures!K28</f>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="K7">
-        <f>1/Figures!L27</f>
+        <f>1/Figures!L28</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="L7">
-        <f>1/Figures!M27</f>
+        <f>1/Figures!M28</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>1/Figures!I27</f>
+        <f>1/Figures!I28</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="N7">
-        <f>1/Figures!I27</f>
+        <f>1/Figures!I28</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="O7">
-        <f>1/Figures!I27</f>
+        <f>1/Figures!I28</f>
         <v>1.0964912280701753</v>
       </c>
       <c r="P7">
@@ -14861,8 +14941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14936,19 +15016,19 @@
       </c>
       <c r="I2">
         <f>income_raw!I$15*ROUND(income_raw!I2/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="J2">
         <f>income_raw!J$15*ROUND(income_raw!J2/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="K2">
         <f>income_raw!K$15*ROUND(income_raw!K2/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L2">
         <f>income_raw!L$15*ROUND(income_raw!L2/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>19000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14981,23 +15061,23 @@
       </c>
       <c r="H3">
         <f>income_raw!H$15*ROUND(income_raw!H3/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="I3">
         <f>income_raw!I$15*ROUND(income_raw!I3/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>2210000</v>
+        <v>2130000</v>
       </c>
       <c r="J3">
         <f>income_raw!J$15*ROUND(income_raw!J3/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="K3">
         <f>income_raw!K$15*ROUND(income_raw!K3/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="L3">
         <f>income_raw!L$15*ROUND(income_raw!L3/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>27000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -15026,27 +15106,27 @@
       </c>
       <c r="G4">
         <f>income_raw!G$15*ROUND(income_raw!G4/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="H4">
         <f>income_raw!H$15*ROUND(income_raw!H4/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="I4">
         <f>income_raw!I$15*ROUND(income_raw!I4/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>2470000</v>
+        <v>2420000</v>
       </c>
       <c r="J4">
         <f>income_raw!J$15*ROUND(income_raw!J4/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="K4">
         <f>income_raw!K$15*ROUND(income_raw!K4/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L4">
         <f>income_raw!L$15*ROUND(income_raw!L4/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>31000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -15075,27 +15155,27 @@
       </c>
       <c r="G5">
         <f>income_raw!G$15*ROUND(income_raw!G5/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="H5">
         <f>income_raw!H$15*ROUND(income_raw!H5/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="I5">
         <f>income_raw!I$15*ROUND(income_raw!I5/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>2720000</v>
+        <v>2660000</v>
       </c>
       <c r="J5">
         <f>income_raw!J$15*ROUND(income_raw!J5/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="K5">
         <f>income_raw!K$15*ROUND(income_raw!K5/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="L5">
         <f>income_raw!L$15*ROUND(income_raw!L5/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>35000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -15124,27 +15204,27 @@
       </c>
       <c r="G6">
         <f>income_raw!G$15*ROUND(income_raw!G6/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="H6">
         <f>income_raw!H$15*ROUND(income_raw!H6/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="I6">
         <f>income_raw!I$15*ROUND(income_raw!I6/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>3210000</v>
+        <v>3170000</v>
       </c>
       <c r="J6">
         <f>income_raw!J$15*ROUND(income_raw!J6/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="K6">
         <f>income_raw!K$15*ROUND(income_raw!K6/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>4150</v>
       </c>
       <c r="L6">
         <f>income_raw!L$15*ROUND(income_raw!L6/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>44000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -15173,27 +15253,27 @@
       </c>
       <c r="G7">
         <f>income_raw!G$15*ROUND(income_raw!G7/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>28500</v>
+        <v>29500</v>
       </c>
       <c r="H7">
         <f>income_raw!H$15*ROUND(income_raw!H7/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>75000</v>
+        <v>77000</v>
       </c>
       <c r="I7">
         <f>income_raw!I$15*ROUND(income_raw!I7/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>3730000</v>
+        <v>3700000</v>
       </c>
       <c r="J7">
         <f>income_raw!J$15*ROUND(income_raw!J7/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>57000</v>
+        <v>59000</v>
       </c>
       <c r="K7">
         <f>income_raw!K$15*ROUND(income_raw!K7/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="L7">
         <f>income_raw!L$15*ROUND(income_raw!L7/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>54000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -15222,27 +15302,27 @@
       </c>
       <c r="G8">
         <f>income_raw!G$15*ROUND(income_raw!G8/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="H8">
         <f>income_raw!H$15*ROUND(income_raw!H8/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>85000</v>
+        <v>88000</v>
       </c>
       <c r="I8">
         <f>income_raw!I$15*ROUND(income_raw!I8/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>4350000</v>
+        <v>4320000</v>
       </c>
       <c r="J8">
         <f>income_raw!J$15*ROUND(income_raw!J8/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>65000</v>
+        <v>68000</v>
       </c>
       <c r="K8">
         <f>income_raw!K$15*ROUND(income_raw!K8/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="L8">
         <f>income_raw!L$15*ROUND(income_raw!L8/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>65000</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -15271,11 +15351,11 @@
       </c>
       <c r="G9">
         <f>income_raw!G$15*ROUND(income_raw!G9/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="H9">
         <f>income_raw!H$15*ROUND(income_raw!H9/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>97000</v>
+        <v>100000</v>
       </c>
       <c r="I9">
         <f>income_raw!I$15*ROUND(income_raw!I9/income_raw!I$14/income_raw!I$15, 0)</f>
@@ -15283,15 +15363,15 @@
       </c>
       <c r="J9">
         <f>income_raw!J$15*ROUND(income_raw!J9/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>76000</v>
+        <v>79000</v>
       </c>
       <c r="K9">
         <f>income_raw!K$15*ROUND(income_raw!K9/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="L9">
         <f>income_raw!L$15*ROUND(income_raw!L9/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -15320,27 +15400,27 @@
       </c>
       <c r="G10">
         <f>income_raw!G$15*ROUND(income_raw!G10/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>42500</v>
+        <v>44000</v>
       </c>
       <c r="H10">
         <f>income_raw!H$15*ROUND(income_raw!H10/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>104000</v>
+        <v>107000</v>
       </c>
       <c r="I10">
         <f>income_raw!I$15*ROUND(income_raw!I10/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>5480000</v>
+        <v>5490000</v>
       </c>
       <c r="J10">
         <f>income_raw!J$15*ROUND(income_raw!J10/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>83000</v>
+        <v>86000</v>
       </c>
       <c r="K10">
-        <f>income_raw!K$15*ROUND(income_raw!K10/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <f>500*ROUND(income_raw!K10/income_raw!K$14/500, 0)</f>
+        <v>11000</v>
       </c>
       <c r="L10">
         <f>income_raw!L$15*ROUND(income_raw!L10/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -15369,11 +15449,11 @@
       </c>
       <c r="G11">
         <f>income_raw!G$15*ROUND(income_raw!G11/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="H11">
         <f>income_raw!H$15*ROUND(income_raw!H11/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>113000</v>
+        <v>117000</v>
       </c>
       <c r="I11">
         <f>income_raw!I$15*ROUND(income_raw!I11/income_raw!I$14/income_raw!I$15, 0)</f>
@@ -15381,15 +15461,15 @@
       </c>
       <c r="J11">
         <f>income_raw!J$15*ROUND(income_raw!J11/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>91000</v>
+        <v>94000</v>
       </c>
       <c r="K11">
-        <f>income_raw!K$15*ROUND(income_raw!K11/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <f>500*ROUND(income_raw!K11/income_raw!K$14/500, 0)</f>
+        <v>13000</v>
       </c>
       <c r="L11">
         <f>income_raw!L$15*ROUND(income_raw!L11/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>102000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -15414,31 +15494,31 @@
       </c>
       <c r="F12">
         <f>income_raw!F$15*ROUND(income_raw!F12/income_raw!F$14/income_raw!F$15, 0)</f>
-        <v>3150</v>
+        <v>3100</v>
       </c>
       <c r="G12">
         <f>income_raw!G$15*ROUND(income_raw!G12/income_raw!G$14/income_raw!G$15, 0)</f>
-        <v>61000</v>
+        <v>62500</v>
       </c>
       <c r="H12">
         <f>income_raw!H$15*ROUND(income_raw!H12/income_raw!H$14/income_raw!H$15, 0)</f>
-        <v>144000</v>
+        <v>147000</v>
       </c>
       <c r="I12">
         <f>income_raw!I$15*ROUND(income_raw!I12/income_raw!I$14/income_raw!I$15, 0)</f>
-        <v>7560000</v>
+        <v>7620000</v>
       </c>
       <c r="J12">
         <f>income_raw!J$15*ROUND(income_raw!J12/income_raw!J$14/income_raw!J$15, 0)</f>
-        <v>116000</v>
+        <v>121000</v>
       </c>
       <c r="K12">
-        <f>income_raw!K$15*ROUND(income_raw!K12/income_raw!K$14/income_raw!K$15, 0)</f>
-        <v>0</v>
+        <f>500*ROUND(income_raw!K12/income_raw!K$14/500, 0)</f>
+        <v>24000</v>
       </c>
       <c r="L12">
         <f>income_raw!L$15*ROUND(income_raw!L12/income_raw!L$14/income_raw!L$15, 0)</f>
-        <v>144000</v>
+        <v>213000</v>
       </c>
     </row>
   </sheetData>
@@ -15448,10 +15528,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="B15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15459,9 +15539,9 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -15496,543 +15576,599 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B2">
+        <v>1315</v>
+      </c>
+      <c r="B2" s="4">
         <f>B57*B$26</f>
         <v>12997.222414165408</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>C57</f>
         <v>14190</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <f>D57*D$26</f>
         <v>9588.6275314022023</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f>E57*E$26</f>
         <v>25323.510098041897</v>
       </c>
-      <c r="F2">
-        <f>F57*F$26</f>
-        <v>8531.5336283185825</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4">
+        <f>F57</f>
+        <v>8391</v>
+      </c>
+      <c r="G2" s="4">
         <f>G31*G$28</f>
-        <v>13468.408849515914</v>
-      </c>
-      <c r="H2">
+        <v>13693.28097164294</v>
+      </c>
+      <c r="H2" s="4">
         <f>H31*H$28</f>
-        <v>39874.615262765474</v>
-      </c>
-      <c r="I2">
+        <v>40271.256418955687</v>
+      </c>
+      <c r="I2" s="4">
         <f>I31*I$28</f>
-        <v>1578465.0359747021</v>
-      </c>
-      <c r="J2">
+        <v>1501467.1169903141</v>
+      </c>
+      <c r="J2" s="4">
         <f>J44*J$28</f>
-        <v>357506.37215418415</v>
-      </c>
-      <c r="L2">
-        <f>L31*L$26</f>
-        <v>19066.237911025146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>367569.51712968241</v>
+      </c>
+      <c r="K2" s="4">
+        <f>K70*K$26</f>
+        <v>10891.537903473718</v>
+      </c>
+      <c r="L2" s="4">
+        <f>L57*L$26</f>
+        <v>16936.832688588009</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B3">
+        <v>1316</v>
+      </c>
+      <c r="B3" s="4">
         <f>B58*B$26</f>
         <v>16596.676527747786</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C12" si="0">C58</f>
         <v>18104</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <f>D58*D$26</f>
         <v>12588.946680338373</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f>E58*E$26</f>
         <v>32307.597474146969</v>
       </c>
-      <c r="F3">
-        <f>F58*F$26</f>
-        <v>11537.260176991149</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F12" si="1">F58</f>
+        <v>11687</v>
+      </c>
+      <c r="G3" s="4">
         <f>G32*G$28</f>
-        <v>17272.774378771359</v>
-      </c>
-      <c r="H3">
+        <v>17594.381257213285</v>
+      </c>
+      <c r="H3" s="4">
         <f>H32*H$28</f>
-        <v>49754.962987740939</v>
-      </c>
-      <c r="I3">
+        <v>50784.832770715147</v>
+      </c>
+      <c r="I3" s="4">
         <f>I32*I$28</f>
-        <v>2209851.9974438413</v>
-      </c>
-      <c r="J3">
+        <v>2130928.3312979308</v>
+      </c>
+      <c r="J3" s="4">
         <f>J45*J$28</f>
-        <v>441365.45018248394</v>
-      </c>
-      <c r="L3">
-        <f>L32*L$26</f>
-        <v>27114.845261121856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457445.57967256976</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K12" si="2">K71*K$26</f>
+        <v>32130.016600061484</v>
+      </c>
+      <c r="L3" s="4">
+        <f>L58*L$26</f>
+        <v>30031.523210831721</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B4">
+        <v>1317</v>
+      </c>
+      <c r="B4" s="4">
         <f>B59*B$26</f>
         <v>18144.483264953575</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>19836</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f>D59*D$26</f>
         <v>13979.111766213789</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f>E59*E$26</f>
         <v>35237.941359473807</v>
       </c>
-      <c r="F4">
-        <f>F59*F$26</f>
-        <v>13000.53274336283</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>13090</v>
+      </c>
+      <c r="G4" s="4">
         <f>G33*G$28</f>
-        <v>18705.088306222904</v>
-      </c>
-      <c r="H4">
+        <v>19316.441811842469</v>
+      </c>
+      <c r="H4" s="4">
         <f>H33*H$28</f>
-        <v>53993.655342104226</v>
-      </c>
-      <c r="I4">
+        <v>55393.549721700743</v>
+      </c>
+      <c r="I4" s="4">
         <f>I33*I$28</f>
-        <v>2469170.5853248513</v>
-      </c>
-      <c r="J4">
+        <v>2415052.1088043214</v>
+      </c>
+      <c r="J4" s="4">
         <f>J46*J$28</f>
-        <v>480295.2459147253</v>
-      </c>
-      <c r="L4">
-        <f>L33*L$26</f>
-        <v>30952.799806576404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>497860.73625934892</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>35803.722348601288</v>
+      </c>
+      <c r="L4" s="4">
+        <f>L59*L$26</f>
+        <v>36205.123307543523</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B5">
+        <v>1318</v>
+      </c>
+      <c r="B5" s="4">
         <f>B60*B$26</f>
         <v>19647.711509393219</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>21415</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f>D60*D$26</f>
         <v>15190.600358882335</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f>E60*E$26</f>
         <v>37805.27853160799</v>
       </c>
-      <c r="F5">
-        <f>F60*F$26</f>
-        <v>14369.843362831856</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>14387</v>
+      </c>
+      <c r="G5" s="4">
         <f>G34*G$28</f>
-        <v>20546.135720288672</v>
-      </c>
-      <c r="H5">
+        <v>21229.631268537079</v>
+      </c>
+      <c r="H5" s="4">
         <f>H34*H$28</f>
-        <v>58099.888560393665</v>
-      </c>
-      <c r="I5">
+        <v>59852.606613967168</v>
+      </c>
+      <c r="I5" s="4">
         <f>I34*I$28</f>
-        <v>2716275.4023203054</v>
-      </c>
-      <c r="J5">
+        <v>2663660.4141224134</v>
+      </c>
+      <c r="J5" s="4">
         <f>J47*J$28</f>
-        <v>518392.18420961488</v>
-      </c>
-      <c r="L5">
-        <f>L34*L$26</f>
-        <v>34886.022727272728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>538907.75225646887</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>41715.04703350753</v>
+      </c>
+      <c r="L5" s="4">
+        <f>L60*L$26</f>
+        <v>43108.416344294004</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B6">
+        <v>1319</v>
+      </c>
+      <c r="B6" s="4">
         <f>B61*B$26</f>
         <v>22348.338803714101</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>24440</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f>D61*D$26</f>
         <v>18000.882081517557</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>E61*E$26</f>
         <v>42734.687241396932</v>
       </c>
-      <c r="F6">
-        <f>F61*F$26</f>
-        <v>16787.515929203535</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>16887</v>
+      </c>
+      <c r="G6" s="4">
         <f>G35*G$28</f>
-        <v>24203.776408195423</v>
-      </c>
-      <c r="H6">
+        <v>25146.998215288375</v>
+      </c>
+      <c r="H6" s="4">
         <f>H35*H$28</f>
-        <v>66049.644377092729</v>
-      </c>
-      <c r="I6">
+        <v>68412.515572120014</v>
+      </c>
+      <c r="I6" s="4">
         <f>I35*I$28</f>
-        <v>3208853.6922886972</v>
-      </c>
-      <c r="J6">
+        <v>3172715.5154880304</v>
+      </c>
+      <c r="J6" s="4">
         <f>J48*J$28</f>
-        <v>596238.53469735116</v>
-      </c>
-      <c r="L6">
-        <f>L35*L$26</f>
-        <v>43831.827852998067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>620707.86237298849</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>49539.536919766368</v>
+      </c>
+      <c r="L6" s="4">
+        <f>L61*L$26</f>
+        <v>56375.846228239847</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B7">
+        <v>1320</v>
+      </c>
+      <c r="B7" s="4">
         <f>B62*B$26</f>
         <v>25066.590153314621</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>27556</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>D62*D$26</f>
         <v>20469.302999230964</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f>E62*E$26</f>
         <v>47609.493270092826</v>
       </c>
-      <c r="F7">
-        <f>F62*F$26</f>
-        <v>19337.157522123889</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>19307</v>
+      </c>
+      <c r="G7" s="4">
         <f>G36*G$28</f>
-        <v>28500.718190550062</v>
-      </c>
-      <c r="H7">
+        <v>29290.796526726746</v>
+      </c>
+      <c r="H7" s="4">
         <f>H36*H$28</f>
-        <v>74658.384395759203</v>
-      </c>
-      <c r="I7">
+        <v>77170.692676626612</v>
+      </c>
+      <c r="I7" s="4">
         <f>I36*I$28</f>
-        <v>3729124.579771379</v>
-      </c>
-      <c r="J7">
+        <v>3696991.5301233493</v>
+      </c>
+      <c r="J7" s="4">
         <f>J49*J$28</f>
-        <v>682205.57622368599</v>
-      </c>
-      <c r="L7">
-        <f>L36*L$26</f>
-        <v>53601.54738878143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>708300.06960683863</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>66571.033261604665</v>
+      </c>
+      <c r="L7" s="4">
+        <f>L62*L$26</f>
+        <v>72097.221953578337</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B8">
+        <v>1321</v>
+      </c>
+      <c r="B8" s="4">
         <f>B63*B$26</f>
         <v>27997.366875404881</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>31182</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f>D63*D$26</f>
         <v>23439.670597282744</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f>E63*E$26</f>
         <v>52935.276998186848</v>
       </c>
-      <c r="F8">
-        <f>F63*F$26</f>
-        <v>22018.768141592915</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>22172</v>
+      </c>
+      <c r="G8" s="4">
         <f>G37*G$28</f>
-        <v>33265.782085779101</v>
-      </c>
-      <c r="H8">
+        <v>34405.8690375445</v>
+      </c>
+      <c r="H8" s="4">
         <f>H37*H$28</f>
-        <v>85020.000315136334</v>
-      </c>
-      <c r="I8">
+        <v>87947.711484992687</v>
+      </c>
+      <c r="I8" s="4">
         <f>I37*I$28</f>
-        <v>4350645.3430666085</v>
-      </c>
-      <c r="J8">
+        <v>4321049.1162430262</v>
+      </c>
+      <c r="J8" s="4">
         <f>J50*J$28</f>
-        <v>783789.02572478552</v>
-      </c>
-      <c r="L8">
-        <f>L37*L$26</f>
-        <v>65371.902804642166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>810347.80336477095</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>84381.420719335991</v>
+      </c>
+      <c r="L8" s="4">
+        <f>L63*L$26</f>
+        <v>91173.928916827848</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B9">
+        <v>1322</v>
+      </c>
+      <c r="B9" s="4">
         <f>B64*B$26</f>
         <v>31759.584323040381</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>35572</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f>D64*D$26</f>
         <v>26792.178672135346</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f>E64*E$26</f>
         <v>59704.998292963661</v>
       </c>
-      <c r="F9">
-        <f>F64*F$26</f>
-        <v>25324.328318584066</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>25381</v>
+      </c>
+      <c r="G9" s="4">
         <f>G38*G$28</f>
-        <v>39097.512287955804</v>
-      </c>
-      <c r="H9">
+        <v>40289.162541109457</v>
+      </c>
+      <c r="H9" s="4">
         <f>H38*H$28</f>
-        <v>96614.590026134247</v>
-      </c>
-      <c r="I9">
+        <v>99976.469129256671</v>
+      </c>
+      <c r="I9" s="4">
         <f>I38*I$28</f>
         <v>4972166.106361839</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <f>J51*J$28</f>
-        <v>907144.61329007475</v>
-      </c>
-      <c r="L9">
-        <f>L38*L$26</f>
-        <v>80290.302224371379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>943709.63678028376</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>111648.57325545652</v>
+      </c>
+      <c r="L9" s="4">
+        <f>L64*L$26</f>
+        <v>114965.89700193424</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B10">
+        <v>1323</v>
+      </c>
+      <c r="B10" s="4">
         <f>B65*B$26</f>
         <v>34020.646944504428</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>38196</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f>D65*D$26</f>
         <v>28889.820046142009</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f>E65*E$26</f>
         <v>63657.625707643652</v>
       </c>
-      <c r="F10">
-        <f>F65*F$26</f>
-        <v>27483.341592920347</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>27399</v>
+      </c>
+      <c r="G10" s="4">
         <f>G39*G$28</f>
-        <v>42705.080212545145</v>
-      </c>
-      <c r="H10">
+        <v>43783.717403374263</v>
+      </c>
+      <c r="H10" s="4">
         <f>H39*H$28</f>
-        <v>104089.70060523534</v>
-      </c>
-      <c r="I10">
+        <v>107184.46482220349</v>
+      </c>
+      <c r="I10" s="4">
         <f>I39*I$28</f>
-        <v>5478590.6950873751</v>
-      </c>
-      <c r="J10">
+        <v>5493059.6984568881</v>
+      </c>
+      <c r="J10" s="4">
         <f>J52*J$28</f>
-        <v>992317.19621162256</v>
-      </c>
-      <c r="L10">
-        <f>L39*L$26</f>
-        <v>89864.250483558993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1032796.1729822219</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>131363.23123270826</v>
+      </c>
+      <c r="L10" s="4">
+        <f>L65*L$26</f>
+        <v>129898.95309477756</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B11">
+        <v>1324</v>
+      </c>
+      <c r="B11" s="4">
         <f>B66*B$26</f>
         <v>36659.071690779529</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>41370</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f>D66*D$26</f>
         <v>31440.86593181235</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f>E66*E$26</f>
         <v>69100.704084011624</v>
       </c>
-      <c r="F11">
-        <f>F66*F$26</f>
-        <v>29925.296460176985</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>29828</v>
+      </c>
+      <c r="G11" s="4">
         <f>G40*G$28</f>
-        <v>46750.493695444871</v>
-      </c>
-      <c r="H11">
+        <v>47988.094442563757</v>
+      </c>
+      <c r="H11" s="4">
         <f>H40*H$28</f>
-        <v>113326.51769411867</v>
-      </c>
-      <c r="I11">
+        <v>116904.01819424664</v>
+      </c>
+      <c r="I11" s="4">
         <f>I40*I$28</f>
-        <v>6031052.8065615306</v>
-      </c>
-      <c r="J11">
+        <v>6031053.3274551239</v>
+      </c>
+      <c r="J11" s="4">
         <f>J53*J$28</f>
-        <v>1091564.937414648</v>
-      </c>
-      <c r="L11">
-        <f>L40*L$26</f>
-        <v>101731.96808510639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1129077.5116827865</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>154737.24217645251</v>
+      </c>
+      <c r="L11" s="4">
+        <f>L66*L$26</f>
+        <v>149695.93085106384</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B12">
+        <v>1325</v>
+      </c>
+      <c r="B12" s="4">
         <f>B67*B$26</f>
         <v>45688.808248758367</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>51810</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f>D67*D$26</f>
         <v>39493.701871315039</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>E67*E$26</f>
         <v>85005.251693502956</v>
       </c>
-      <c r="F12">
-        <f>F67*F$26</f>
-        <v>37878.277876106185</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>37303</v>
+      </c>
+      <c r="G12" s="4">
         <f>G41*G$28</f>
-        <v>61181.929876670081</v>
-      </c>
-      <c r="H12">
+        <v>62682.79691055177</v>
+      </c>
+      <c r="H12" s="4">
         <f>H41*H$28</f>
-        <v>144080.21761206543</v>
-      </c>
-      <c r="I12">
+        <v>146643.92003772949</v>
+      </c>
+      <c r="I12" s="4">
         <f>I41*I$28</f>
-        <v>7559721.5989810191</v>
-      </c>
-      <c r="J12">
+        <v>7623988.0297548193</v>
+      </c>
+      <c r="J12" s="4">
         <f>J54*J$28</f>
-        <v>1394274.8514013183</v>
-      </c>
-      <c r="L12">
-        <f>L41*L$26</f>
-        <v>143697.16392649902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1457024.7273481926</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>286259.87015063019</v>
+      </c>
+      <c r="L12" s="4">
+        <f>L67*L$26</f>
+        <v>212538.51063829788</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>990</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1306</v>
+        <v>1375</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>1306</v>
+        <v>1374</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1306</v>
+        <v>1376</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1352</v>
+        <v>1377</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>1352</v>
+        <v>1379</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>1353</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>1305</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -16068,9 +16204,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B15" s="6">
         <v>50</v>
@@ -16106,9 +16242,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="G17">
         <v>34264</v>
@@ -16123,9 +16259,9 @@
         <v>1035817</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="G18">
         <v>38805</v>
@@ -16140,9 +16276,9 @@
         <v>1161019</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B20">
         <v>46310</v>
@@ -16178,9 +16314,9 @@
         <v>82720</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B21">
         <v>48010</v>
@@ -16216,9 +16352,9 @@
         <v>86600</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B23">
         <v>0.92400000000000004</v>
@@ -16254,9 +16390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B24">
         <v>0.92400000000000004</v>
@@ -16292,2623 +16428,2687 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="B26" s="12">
         <f>B21*B24/(B20*B23)</f>
         <v>1.0367091340963075</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" ref="C26:L26" si="1">C21*C24/(C20*C23)</f>
+        <f t="shared" ref="C26:L26" si="3">C21*C24/(C20*C23)</f>
         <v>1.0364009706925519</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0328120994616763</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.011160760982347</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0557522123893803</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0282139153176713</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0242896226928879</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0441155647877662</v>
       </c>
       <c r="J26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.181309591882554</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0107592991085153</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0469052224371374</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="G27" s="12">
         <f>G18/G17</f>
         <v>1.1325297688536073</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" ref="H27:J27" si="2">H18/H17</f>
+        <f t="shared" ref="H27:J27" si="4">H18/H17</f>
         <v>1.0776504120453561</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1338295423111826</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.120872702417512</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="G28" s="12">
         <f>G27*G26</f>
         <v>1.1644828678467849</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" ref="H28:J28" si="3">H27*H26</f>
+        <f t="shared" ref="H28:J28" si="5">H27*H26</f>
         <v>1.1038261339487729</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1838490729432949</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3240976746451265</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B30" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D30" t="s">
         <v>1307</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>1308</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>1309</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>1310</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>1311</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>1312</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>1313</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L30" t="s">
         <v>1314</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1335</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1315</v>
       </c>
-      <c r="K30" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="B31" s="4">
+        <v>13520</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13666.666999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6875.1360000000004</v>
+      </c>
+      <c r="E31" s="4">
+        <v>16320</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9421.1110000000008</v>
+      </c>
+      <c r="G31" s="4">
+        <v>11759.109</v>
+      </c>
+      <c r="H31" s="4">
+        <v>36483.332999999999</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1268292.683</v>
+      </c>
+      <c r="J31" s="4">
+        <v>306350.3</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
+        <v>18493.332999999999</v>
+      </c>
+      <c r="M31" s="4">
+        <v>23567.280999999999</v>
+      </c>
+      <c r="N31" s="4">
+        <v>16520.22</v>
+      </c>
+      <c r="O31" s="4">
+        <v>16222.31</v>
+      </c>
+      <c r="P31" s="4">
+        <v>7800</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>10342.746999999999</v>
+      </c>
+      <c r="R31" s="4">
+        <v>3107037.5610000002</v>
+      </c>
+      <c r="S31" s="4">
+        <v>197734</v>
+      </c>
+      <c r="T31" s="4">
+        <v>12686666.666999999</v>
+      </c>
+      <c r="U31" s="4">
+        <v>16320</v>
+      </c>
+      <c r="V31" s="4">
+        <v>36480</v>
+      </c>
+      <c r="W31" s="4">
+        <v>4844.4799999999996</v>
+      </c>
+      <c r="X31" s="4">
+        <v>29836.891</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>178730.98</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>36194.330999999998</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>18784.667000000001</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>264508</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>2513.6089999999999</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>15536.703</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>214340.571</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>175859.13</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>243878</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>169666.66699999999</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>8128</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1316</v>
       </c>
-      <c r="M30" t="s">
+      <c r="B32" s="4">
+        <v>17520</v>
+      </c>
+      <c r="C32" s="4">
+        <v>19366.25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9549.25</v>
+      </c>
+      <c r="E32" s="4">
+        <v>21913.040000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>12749.6</v>
+      </c>
+      <c r="G32" s="4">
+        <v>15109.18</v>
+      </c>
+      <c r="H32" s="4">
+        <v>46008</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="J32" s="4">
+        <v>380686.67</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <v>26749</v>
+      </c>
+      <c r="M32" s="4">
+        <v>30200.53</v>
+      </c>
+      <c r="N32" s="4">
+        <v>22153.98</v>
+      </c>
+      <c r="O32" s="4">
+        <v>20273.13</v>
+      </c>
+      <c r="P32" s="4">
+        <v>11913.48</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>16176.86</v>
+      </c>
+      <c r="R32" s="4">
+        <v>5217391.3</v>
+      </c>
+      <c r="S32" s="4">
+        <v>247307.08</v>
+      </c>
+      <c r="T32" s="4">
+        <v>18075000</v>
+      </c>
+      <c r="U32" s="4">
+        <v>20660</v>
+      </c>
+      <c r="V32" s="4">
+        <v>51497.14</v>
+      </c>
+      <c r="W32" s="4">
+        <v>6605.4</v>
+      </c>
+      <c r="X32" s="4">
+        <v>38289.29</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>245369.23</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>49332.69</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>23349</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>352064</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>4542.91</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>23247.040000000001</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>288000</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>225693.33</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>319537</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>224582.41</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>13406.9</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B33" s="4">
+        <v>19264.754000000001</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21938.667000000001</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10987.833000000001</v>
+      </c>
+      <c r="E33" s="4">
+        <v>23869.412</v>
+      </c>
+      <c r="F33" s="4">
+        <v>14404.2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>16588</v>
+      </c>
+      <c r="H33" s="4">
+        <v>50183.22</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2040000</v>
+      </c>
+      <c r="J33" s="4">
+        <v>415211.429</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>30757.143</v>
+      </c>
+      <c r="M33" s="4">
+        <v>34162.127</v>
+      </c>
+      <c r="N33" s="4">
+        <v>24751.719000000001</v>
+      </c>
+      <c r="O33" s="4">
+        <v>22821.599999999999</v>
+      </c>
+      <c r="P33" s="4">
+        <v>13776.4</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>18971.904999999999</v>
+      </c>
+      <c r="R33" s="4">
+        <v>6227884.0279999999</v>
+      </c>
+      <c r="S33" s="4">
+        <v>266780.66700000002</v>
+      </c>
+      <c r="T33" s="4">
+        <v>20612000</v>
+      </c>
+      <c r="U33" s="4">
+        <v>22743.332999999999</v>
+      </c>
+      <c r="V33" s="4">
+        <v>58608</v>
+      </c>
+      <c r="W33" s="4">
+        <v>7606.4</v>
+      </c>
+      <c r="X33" s="4">
+        <v>42598.233999999997</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>272154.83899999998</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>55128.781999999999</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>25765.332999999999</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>387834</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>5569.3329999999996</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>26298.564999999999</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>319714.28600000002</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>249510</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>350790</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>249600</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>16393.225999999999</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>14174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B34" s="4">
+        <v>20998.017</v>
+      </c>
+      <c r="C34" s="4">
+        <v>24101</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12161.708000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>25600</v>
+      </c>
+      <c r="F34" s="4">
+        <v>15947.066999999999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>18230.952000000001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>54222.857000000004</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2250000</v>
+      </c>
+      <c r="J34" s="4">
+        <v>451768.88900000002</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>34986.667000000001</v>
+      </c>
+      <c r="M34" s="4">
+        <v>38486.358</v>
+      </c>
+      <c r="N34" s="4">
+        <v>27101.55</v>
+      </c>
+      <c r="O34" s="4">
+        <v>25539.922999999999</v>
+      </c>
+      <c r="P34" s="4">
+        <v>15531.759</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>22035.602999999999</v>
+      </c>
+      <c r="R34" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="S34" s="4">
+        <v>291403</v>
+      </c>
+      <c r="T34" s="4">
+        <v>22884000</v>
+      </c>
+      <c r="U34" s="4">
+        <v>25335</v>
+      </c>
+      <c r="V34" s="4">
+        <v>65937.048999999999</v>
+      </c>
+      <c r="W34" s="4">
+        <v>8620</v>
+      </c>
+      <c r="X34" s="4">
+        <v>46393.894</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>302823.75</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>60853.826999999997</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>28201.429</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>420255.33299999998</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>6511.7079999999996</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>29270.986000000001</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>355200</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>275201.25</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>379617.6</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>273127.54300000001</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>18930.217000000001</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>16634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B35" s="4">
+        <v>24302.13</v>
+      </c>
+      <c r="C35" s="4">
+        <v>28866.667000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14985.324000000001</v>
+      </c>
+      <c r="E35" s="4">
+        <v>29333.332999999999</v>
+      </c>
+      <c r="F35" s="4">
+        <v>18904.919999999998</v>
+      </c>
+      <c r="G35" s="4">
+        <v>21594.991999999998</v>
+      </c>
+      <c r="H35" s="4">
+        <v>61977.618999999999</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2680000</v>
+      </c>
+      <c r="J35" s="4">
+        <v>522738.67700000003</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>43832.692000000003</v>
+      </c>
+      <c r="M35" s="4">
+        <v>47864.52</v>
+      </c>
+      <c r="N35" s="4">
+        <v>31810.394</v>
+      </c>
+      <c r="O35" s="4">
+        <v>30726.087</v>
+      </c>
+      <c r="P35" s="4">
+        <v>18756.522000000001</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>27946.668000000001</v>
+      </c>
+      <c r="R35" s="4">
+        <v>9266666.6669999994</v>
+      </c>
+      <c r="S35" s="4">
+        <v>346602</v>
+      </c>
+      <c r="T35" s="4">
+        <v>27245000</v>
+      </c>
+      <c r="U35" s="4">
+        <v>30800</v>
+      </c>
+      <c r="V35" s="4">
+        <v>82185.600000000006</v>
+      </c>
+      <c r="W35" s="4">
+        <v>10849.18</v>
+      </c>
+      <c r="X35" s="4">
+        <v>53759.48</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>366666.66700000002</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>72200.967999999993</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>34039</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>481516</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>8306.9619999999995</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>35902.468000000001</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>412640</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>322185.23800000001</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>433375.5</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>324000</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>26788.437999999998</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>22369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B36" s="4">
+        <v>27593.96</v>
+      </c>
+      <c r="C36" s="4">
+        <v>33600</v>
+      </c>
+      <c r="D36" s="4">
+        <v>18160.5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>32973.910000000003</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22100.27</v>
+      </c>
+      <c r="G36" s="4">
+        <v>25153.48</v>
+      </c>
+      <c r="H36" s="4">
+        <v>69912</v>
+      </c>
+      <c r="I36" s="4">
+        <v>3122857.14</v>
+      </c>
+      <c r="J36" s="4">
+        <v>599386.37</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>53720.4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>57155.37</v>
+      </c>
+      <c r="N36" s="4">
+        <v>36377.040000000001</v>
+      </c>
+      <c r="O36" s="4">
+        <v>36698.06</v>
+      </c>
+      <c r="P36" s="4">
+        <v>22131.67</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>34556.28</v>
+      </c>
+      <c r="R36" s="4">
+        <v>11586666.67</v>
+      </c>
+      <c r="S36" s="4">
+        <v>404741.9</v>
+      </c>
+      <c r="T36" s="4">
+        <v>32020000</v>
+      </c>
+      <c r="U36" s="4">
+        <v>36721.74</v>
+      </c>
+      <c r="V36" s="4">
+        <v>100539.43</v>
+      </c>
+      <c r="W36" s="4">
+        <v>13472.63</v>
+      </c>
+      <c r="X36" s="4">
+        <v>62910.51</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>432029.6</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>85069.55</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>39548</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>543292.6</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>10202.4</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>42555.38</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>470400</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>369681.15</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>485220</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>381000</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>36838.89</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>31143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B37" s="4">
+        <v>31342.97</v>
+      </c>
+      <c r="C37" s="4">
+        <v>38971.33</v>
+      </c>
+      <c r="D37" s="4">
+        <v>21340.86</v>
+      </c>
+      <c r="E37" s="4">
+        <v>36720</v>
+      </c>
+      <c r="F37" s="4">
+        <v>25666.87</v>
+      </c>
+      <c r="G37" s="4">
+        <v>29546.05</v>
+      </c>
+      <c r="H37" s="4">
+        <v>79675.33</v>
+      </c>
+      <c r="I37" s="4">
+        <v>3650000</v>
+      </c>
+      <c r="J37" s="4">
+        <v>689655.19</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
+        <v>65200</v>
+      </c>
+      <c r="M37" s="4">
+        <v>67808.070000000007</v>
+      </c>
+      <c r="N37" s="4">
+        <v>41759.730000000003</v>
+      </c>
+      <c r="O37" s="4">
+        <v>42125.06</v>
+      </c>
+      <c r="P37" s="4">
+        <v>26623.82</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>42119.839999999997</v>
+      </c>
+      <c r="R37" s="4">
+        <v>14560000</v>
+      </c>
+      <c r="S37" s="4">
+        <v>465471.54</v>
+      </c>
+      <c r="T37" s="4">
+        <v>37203448.280000001</v>
+      </c>
+      <c r="U37" s="4">
+        <v>42834.48</v>
+      </c>
+      <c r="V37" s="4">
+        <v>121484</v>
+      </c>
+      <c r="W37" s="4">
+        <v>16360.59</v>
+      </c>
+      <c r="X37" s="4">
+        <v>71657.06</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>506365.87</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>100434.76</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>44900.5</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>609488.1</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>12370.07</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>48877.68</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>540480</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>420157.62</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>547851.5</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>448000</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>50807.4</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B38" s="4">
+        <v>35951.42</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45501</v>
+      </c>
+      <c r="D38" s="4">
+        <v>25770.26</v>
+      </c>
+      <c r="E38" s="4">
+        <v>41252.31</v>
+      </c>
+      <c r="F38" s="4">
+        <v>30270</v>
+      </c>
+      <c r="G38" s="4">
+        <v>34598.33</v>
+      </c>
+      <c r="H38" s="4">
+        <v>90572.66</v>
+      </c>
+      <c r="I38" s="4">
+        <v>4200000</v>
+      </c>
+      <c r="J38" s="4">
+        <v>802358.62</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>79655</v>
+      </c>
+      <c r="M38" s="4">
+        <v>78913.06</v>
+      </c>
+      <c r="N38" s="4">
+        <v>48482.91</v>
+      </c>
+      <c r="O38" s="4">
+        <v>48733.120000000003</v>
+      </c>
+      <c r="P38" s="4">
+        <v>32836</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>51784.45</v>
+      </c>
+      <c r="R38" s="4">
+        <v>18461538.460000001</v>
+      </c>
+      <c r="S38" s="4">
+        <v>533759</v>
+      </c>
+      <c r="T38" s="4">
+        <v>43695238.100000001</v>
+      </c>
+      <c r="U38" s="4">
+        <v>50710</v>
+      </c>
+      <c r="V38" s="4">
+        <v>145344</v>
+      </c>
+      <c r="W38" s="4">
+        <v>19838.97</v>
+      </c>
+      <c r="X38" s="4">
+        <v>83423.27</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>600163.29</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>119758.62</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>50856.67</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>688880.4</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>15165.29</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>57117.37</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>626086.96</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>476736.5</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>620746.67000000004</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>533398.67000000004</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>73333</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>62546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B39" s="4">
+        <v>38800.160000000003</v>
+      </c>
+      <c r="C39" s="4">
+        <v>49820</v>
+      </c>
+      <c r="D39" s="4">
+        <v>27760.86</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>33164</v>
+      </c>
+      <c r="G39" s="4">
+        <v>37599.279999999999</v>
+      </c>
+      <c r="H39" s="4">
+        <v>97102.67</v>
+      </c>
+      <c r="I39" s="4">
+        <v>4640000</v>
+      </c>
+      <c r="J39" s="4">
+        <v>877724.74</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
+        <v>89072.78</v>
+      </c>
+      <c r="M39" s="4">
+        <v>86760.960000000006</v>
+      </c>
+      <c r="N39" s="4">
+        <v>51919.26</v>
+      </c>
+      <c r="O39" s="4">
+        <v>52633.29</v>
+      </c>
+      <c r="P39" s="4">
+        <v>37200</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>57961.99</v>
+      </c>
+      <c r="R39" s="4">
+        <v>21040000</v>
+      </c>
+      <c r="S39" s="4">
+        <v>574920</v>
+      </c>
+      <c r="T39" s="4">
+        <v>47666666.670000002</v>
+      </c>
+      <c r="U39" s="4">
+        <v>55453.33</v>
+      </c>
+      <c r="V39" s="4">
+        <v>160742.60999999999</v>
+      </c>
+      <c r="W39" s="4">
+        <v>21906.799999999999</v>
+      </c>
+      <c r="X39" s="4">
+        <v>91170.67</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>662169.54</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>132898.45000000001</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>54869.57</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>738204.67</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>17065.72</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>61600.57</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>672969.6</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>510245</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>668161.67000000004</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>593382</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>91200</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>77126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B40" s="4">
+        <v>42463.88</v>
+      </c>
+      <c r="C40" s="4">
+        <v>54347.199999999997</v>
+      </c>
+      <c r="D40" s="4">
+        <v>30949.48</v>
+      </c>
+      <c r="E40" s="4">
+        <v>47585.45</v>
+      </c>
+      <c r="F40" s="4">
+        <v>36703.919999999998</v>
+      </c>
+      <c r="G40" s="4">
+        <v>41209.79</v>
+      </c>
+      <c r="H40" s="4">
+        <v>105908</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5094444.4400000004</v>
+      </c>
+      <c r="J40" s="4">
+        <v>962854.23</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
+        <v>100368</v>
+      </c>
+      <c r="M40" s="4">
+        <v>95947.74</v>
+      </c>
+      <c r="N40" s="4">
+        <v>56057.35</v>
+      </c>
+      <c r="O40" s="4">
+        <v>57815.93</v>
+      </c>
+      <c r="P40" s="4">
+        <v>43000</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>65017.3</v>
+      </c>
+      <c r="R40" s="4">
+        <v>24583333.329999998</v>
+      </c>
+      <c r="S40" s="4">
+        <v>622183.48</v>
+      </c>
+      <c r="T40" s="4">
+        <v>52566666.670000002</v>
+      </c>
+      <c r="U40" s="4">
+        <v>60870</v>
+      </c>
+      <c r="V40" s="4">
+        <v>178392</v>
+      </c>
+      <c r="W40" s="4">
+        <v>24360.33</v>
+      </c>
+      <c r="X40" s="4">
+        <v>97890</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>744000</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>150180.14000000001</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>60026</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>798890.67</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>19289.169999999998</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>67120.47</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>726400</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>551858.5</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>731414.44</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>666666.67000000004</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>120000</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>101099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B41" s="4">
+        <v>55180.92</v>
+      </c>
+      <c r="C41" s="4">
+        <v>71340</v>
+      </c>
+      <c r="D41" s="4">
+        <v>40201.129999999997</v>
+      </c>
+      <c r="E41" s="4">
+        <v>59010</v>
+      </c>
+      <c r="F41" s="4">
+        <v>47583.4</v>
+      </c>
+      <c r="G41" s="4">
+        <v>53828.87</v>
+      </c>
+      <c r="H41" s="4">
+        <v>132850.56</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6440000</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1241379.31</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
+        <v>141324</v>
+      </c>
+      <c r="M41" s="4">
+        <v>123467.52</v>
+      </c>
+      <c r="N41" s="4">
+        <v>70984.37</v>
+      </c>
+      <c r="O41" s="4">
+        <v>71566.66</v>
+      </c>
+      <c r="P41" s="4">
+        <v>66026.67</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>88345</v>
+      </c>
+      <c r="R41" s="4">
+        <v>39469091.200000003</v>
+      </c>
+      <c r="S41" s="4">
+        <v>777378</v>
+      </c>
+      <c r="T41" s="4">
+        <v>67580000</v>
+      </c>
+      <c r="U41" s="4">
+        <v>79473.33</v>
+      </c>
+      <c r="V41" s="4">
+        <v>242948.57</v>
+      </c>
+      <c r="W41" s="4">
+        <v>32769.449999999997</v>
+      </c>
+      <c r="X41" s="4">
+        <v>123619.84</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1009360</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>209547.91</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>75531.899999999994</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>995235.6</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>26720.78</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>85338.76</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>890098.67</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>685221.33</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>932690.5</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>938000</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>235545.33</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>202070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O43" t="s">
         <v>1328</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P43" t="s">
         <v>1329</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q43" t="s">
         <v>1330</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R43" t="s">
         <v>1331</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S43" t="s">
         <v>1332</v>
       </c>
-      <c r="R30" t="s">
+      <c r="T43" t="s">
         <v>1333</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U43" t="s">
         <v>1334</v>
       </c>
-      <c r="T30" t="s">
+      <c r="V43" t="s">
         <v>1335</v>
       </c>
-      <c r="U30" t="s">
+      <c r="W43" t="s">
         <v>1336</v>
       </c>
-      <c r="V30" t="s">
+      <c r="X43" t="s">
         <v>1337</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Y43" t="s">
         <v>1338</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Z43" t="s">
         <v>1339</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA43" t="s">
         <v>1340</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AB43" t="s">
         <v>1341</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AC43" t="s">
         <v>1342</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AD43" t="s">
         <v>1343</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AE43" t="s">
         <v>1344</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AF43" t="s">
         <v>1345</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG43" t="s">
         <v>1346</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AH43" t="s">
         <v>1347</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AI43" t="s">
         <v>1348</v>
       </c>
-      <c r="AH30" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B44" s="4">
+        <v>12473.913</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12185.806</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6401.8590000000004</v>
+      </c>
+      <c r="E44" s="4">
+        <v>15952</v>
+      </c>
+      <c r="F44" s="4">
+        <v>8738.1200000000008</v>
+      </c>
+      <c r="G44" s="4">
+        <v>11218.800999999999</v>
+      </c>
+      <c r="H44" s="4">
+        <v>25288</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1135575.247</v>
+      </c>
+      <c r="J44" s="4">
+        <v>277600.00199999998</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>16795</v>
+      </c>
+      <c r="M44" s="4">
+        <v>23371.754000000001</v>
+      </c>
+      <c r="N44" s="4">
+        <v>14998.52</v>
+      </c>
+      <c r="O44" s="4">
+        <v>15502.79</v>
+      </c>
+      <c r="P44" s="4">
+        <v>7607.143</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>10342.746999999999</v>
+      </c>
+      <c r="R44" s="4">
+        <v>2800000</v>
+      </c>
+      <c r="S44" s="4">
+        <v>143622.66699999999</v>
+      </c>
+      <c r="T44" s="4">
+        <v>11791304.347999999</v>
+      </c>
+      <c r="U44" s="4">
+        <v>16180</v>
+      </c>
+      <c r="V44" s="4">
+        <v>35088</v>
+      </c>
+      <c r="W44" s="4">
+        <v>4624.72</v>
+      </c>
+      <c r="X44" s="4">
+        <v>24526.044999999998</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>98039.216</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>30717.361000000001</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>15942</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>231843.86499999999</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>2135.1999999999998</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>11784</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>196266.66699999999</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>151791</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>208585.33300000001</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>153333.33300000001</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>8022.2380000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B45" s="4">
+        <v>15726.666999999999</v>
+      </c>
+      <c r="C45" s="4">
+        <v>16639.332999999999</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8461.6579999999994</v>
+      </c>
+      <c r="E45" s="4">
+        <v>21564.705999999998</v>
+      </c>
+      <c r="F45" s="4">
+        <v>11636.2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>14334.322</v>
+      </c>
+      <c r="H45" s="4">
+        <v>32867.31</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1590591.2560000001</v>
+      </c>
+      <c r="J45" s="4">
+        <v>345477.217</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
+        <v>24244.667000000001</v>
+      </c>
+      <c r="M45" s="4">
+        <v>28885.311000000002</v>
+      </c>
+      <c r="N45" s="4">
+        <v>19288.97</v>
+      </c>
+      <c r="O45" s="4">
+        <v>18533.12</v>
+      </c>
+      <c r="P45" s="4">
+        <v>11514.233</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>16176.861000000001</v>
+      </c>
+      <c r="R45" s="4">
+        <v>4846153.8459999999</v>
+      </c>
+      <c r="S45" s="4">
+        <v>177386</v>
+      </c>
+      <c r="T45" s="4">
+        <v>16672000</v>
+      </c>
+      <c r="U45" s="4">
+        <v>19900</v>
+      </c>
+      <c r="V45" s="4">
+        <v>48819.13</v>
+      </c>
+      <c r="W45" s="4">
+        <v>5980.1670000000004</v>
+      </c>
+      <c r="X45" s="4">
+        <v>30037.626</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>158064.516</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>43624.266000000003</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>19441.429</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>291506.11099999998</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>4000</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>16565.556</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>276000</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>187385</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>269296.071</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>208695.652</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>13101.583000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1317</v>
       </c>
-      <c r="B31">
-        <v>13100</v>
-      </c>
-      <c r="C31">
-        <v>13680</v>
-      </c>
-      <c r="D31">
-        <v>6531</v>
-      </c>
-      <c r="E31">
-        <v>16408</v>
-      </c>
-      <c r="F31">
-        <v>8900</v>
-      </c>
-      <c r="G31">
-        <v>11566</v>
-      </c>
-      <c r="H31">
-        <v>36124</v>
-      </c>
-      <c r="I31">
-        <v>1333333</v>
-      </c>
-      <c r="J31">
-        <v>301060</v>
-      </c>
-      <c r="L31">
-        <v>18212</v>
-      </c>
-      <c r="M31">
-        <v>23421</v>
-      </c>
-      <c r="N31">
-        <v>16002</v>
-      </c>
-      <c r="O31">
-        <v>16031</v>
-      </c>
-      <c r="P31">
-        <v>6600</v>
-      </c>
-      <c r="Q31">
-        <v>10300</v>
-      </c>
-      <c r="R31">
-        <v>2820000</v>
-      </c>
-      <c r="S31">
-        <v>198974</v>
-      </c>
-      <c r="T31">
-        <v>13200000</v>
-      </c>
-      <c r="U31">
-        <v>16250</v>
-      </c>
-      <c r="V31">
-        <v>34740</v>
-      </c>
-      <c r="W31">
-        <v>4974</v>
-      </c>
-      <c r="X31">
-        <v>28777</v>
-      </c>
-      <c r="Y31">
-        <v>174496</v>
-      </c>
-      <c r="Z31">
-        <v>33925</v>
-      </c>
-      <c r="AA31">
-        <v>18798</v>
-      </c>
-      <c r="AB31">
-        <v>267030</v>
-      </c>
-      <c r="AC31">
-        <v>2489</v>
-      </c>
-      <c r="AD31">
-        <v>15047</v>
-      </c>
-      <c r="AE31">
-        <v>212000</v>
-      </c>
-      <c r="AF31">
-        <v>171905</v>
-      </c>
-      <c r="AG31">
-        <v>251640</v>
-      </c>
-      <c r="AH31">
-        <v>159995</v>
-      </c>
-      <c r="AI31">
-        <v>7407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B46" s="4">
+        <v>17220</v>
+      </c>
+      <c r="C46" s="4">
+        <v>18101</v>
+      </c>
+      <c r="D46" s="4">
+        <v>9571.9539999999997</v>
+      </c>
+      <c r="E46" s="4">
+        <v>23406.315999999999</v>
+      </c>
+      <c r="F46" s="4">
+        <v>13067.867</v>
+      </c>
+      <c r="G46" s="4">
+        <v>15583.370999999999</v>
+      </c>
+      <c r="H46" s="4">
+        <v>35953.379999999997</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1784787.9979999999</v>
+      </c>
+      <c r="J46" s="4">
+        <v>376000.00799999997</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
+        <v>27624.615000000002</v>
+      </c>
+      <c r="M46" s="4">
+        <v>32066.100999999999</v>
+      </c>
+      <c r="N46" s="4">
+        <v>21080.23</v>
+      </c>
+      <c r="O46" s="4">
+        <v>20011.312999999998</v>
+      </c>
+      <c r="P46" s="4">
+        <v>13382.4</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>18971.904999999999</v>
+      </c>
+      <c r="R46" s="4">
+        <v>5944444.4440000001</v>
+      </c>
+      <c r="S46" s="4">
+        <v>189364</v>
+      </c>
+      <c r="T46" s="4">
+        <v>18900000</v>
+      </c>
+      <c r="U46" s="4">
+        <v>21254.167000000001</v>
+      </c>
+      <c r="V46" s="4">
+        <v>54929.142999999996</v>
+      </c>
+      <c r="W46" s="4">
+        <v>6685.09</v>
+      </c>
+      <c r="X46" s="4">
+        <v>32208.025000000001</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>184615.38500000001</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>48980.737999999998</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>20918</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>316425.33299999998</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>4948.6959999999999</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>18528</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>300000</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>205418</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>295403.5</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>235254.54699999999</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>1318</v>
       </c>
-      <c r="B32">
-        <v>16930</v>
-      </c>
-      <c r="C32">
-        <v>19261</v>
-      </c>
-      <c r="D32">
-        <v>8972</v>
-      </c>
-      <c r="E32">
-        <v>21960</v>
-      </c>
-      <c r="F32">
-        <v>12261</v>
-      </c>
-      <c r="G32">
-        <v>14833</v>
-      </c>
-      <c r="H32">
-        <v>45075</v>
-      </c>
-      <c r="I32">
-        <v>1866667</v>
-      </c>
-      <c r="J32">
-        <v>370221</v>
-      </c>
-      <c r="L32">
-        <v>25900</v>
-      </c>
-      <c r="M32">
-        <v>30596</v>
-      </c>
-      <c r="N32">
-        <v>21596</v>
-      </c>
-      <c r="O32">
-        <v>20312</v>
-      </c>
-      <c r="P32">
-        <v>10491</v>
-      </c>
-      <c r="Q32">
-        <v>16012</v>
-      </c>
-      <c r="R32">
-        <v>4714286</v>
-      </c>
-      <c r="S32">
-        <v>251339</v>
-      </c>
-      <c r="T32">
-        <v>18575000</v>
-      </c>
-      <c r="U32">
-        <v>20590</v>
-      </c>
-      <c r="V32">
-        <v>48888</v>
-      </c>
-      <c r="W32">
-        <v>6783</v>
-      </c>
-      <c r="X32">
-        <v>36487</v>
-      </c>
-      <c r="Y32">
-        <v>239112</v>
-      </c>
-      <c r="Z32">
-        <v>46505</v>
-      </c>
-      <c r="AA32">
-        <v>23915</v>
-      </c>
-      <c r="AB32">
-        <v>353976</v>
-      </c>
-      <c r="AC32">
-        <v>4421</v>
-      </c>
-      <c r="AD32">
-        <v>22600</v>
-      </c>
-      <c r="AE32">
-        <v>287093</v>
-      </c>
-      <c r="AF32">
-        <v>223669</v>
-      </c>
-      <c r="AG32">
-        <v>325455</v>
-      </c>
-      <c r="AH32">
-        <v>208000</v>
-      </c>
-      <c r="AI32">
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B47" s="4">
+        <v>18506.667000000001</v>
+      </c>
+      <c r="C47" s="4">
+        <v>19743</v>
+      </c>
+      <c r="D47" s="4">
+        <v>10484.906000000001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>25161.29</v>
+      </c>
+      <c r="F47" s="4">
+        <v>14295.8</v>
+      </c>
+      <c r="G47" s="4">
+        <v>16732.897000000001</v>
+      </c>
+      <c r="H47" s="4">
+        <v>38561.127</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1942824.8049999999</v>
+      </c>
+      <c r="J47" s="4">
+        <v>406999.99900000001</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
+        <v>31059.444</v>
+      </c>
+      <c r="M47" s="4">
+        <v>35125.675000000003</v>
+      </c>
+      <c r="N47" s="4">
+        <v>22579.724999999999</v>
+      </c>
+      <c r="O47" s="4">
+        <v>21613.463</v>
+      </c>
+      <c r="P47" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>22035.602999999999</v>
+      </c>
+      <c r="R47" s="4">
+        <v>6875000</v>
+      </c>
+      <c r="S47" s="4">
+        <v>200904</v>
+      </c>
+      <c r="T47" s="4">
+        <v>20933333.333000001</v>
+      </c>
+      <c r="U47" s="4">
+        <v>23156</v>
+      </c>
+      <c r="V47" s="4">
+        <v>62142.857000000004</v>
+      </c>
+      <c r="W47" s="4">
+        <v>7295.7340000000004</v>
+      </c>
+      <c r="X47" s="4">
+        <v>34519.072</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>211111.111</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>54489.120000000003</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>22439.332999999999</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>338572.66700000002</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>5791</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>21000</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>336000</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>223988</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>320440</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>260800</v>
+      </c>
+      <c r="AI47" s="4">
+        <v>18608.504000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>1319</v>
       </c>
-      <c r="B33">
-        <v>18672</v>
-      </c>
-      <c r="C33">
-        <v>21953</v>
-      </c>
-      <c r="D33">
-        <v>10300</v>
-      </c>
-      <c r="E33">
-        <v>23845</v>
-      </c>
-      <c r="F33">
-        <v>13889</v>
-      </c>
-      <c r="G33">
-        <v>16063</v>
-      </c>
-      <c r="H33">
-        <v>48915</v>
-      </c>
-      <c r="I33">
-        <v>2085714</v>
-      </c>
-      <c r="J33">
-        <v>402605</v>
-      </c>
-      <c r="L33">
-        <v>29566</v>
-      </c>
-      <c r="M33">
-        <v>34360</v>
-      </c>
-      <c r="N33">
-        <v>23705</v>
-      </c>
-      <c r="O33">
-        <v>23018</v>
-      </c>
-      <c r="P33">
-        <v>12096</v>
-      </c>
-      <c r="Q33">
-        <v>18775</v>
-      </c>
-      <c r="R33">
-        <v>5627586</v>
-      </c>
-      <c r="S33">
-        <v>273656</v>
-      </c>
-      <c r="T33">
-        <v>21060870</v>
-      </c>
-      <c r="U33">
-        <v>22611</v>
-      </c>
-      <c r="V33">
-        <v>55521</v>
-      </c>
-      <c r="W33">
-        <v>7824</v>
-      </c>
-      <c r="X33">
-        <v>40570</v>
-      </c>
-      <c r="Y33">
-        <v>265046</v>
-      </c>
-      <c r="Z33">
-        <v>51949</v>
-      </c>
-      <c r="AA33">
-        <v>26334</v>
-      </c>
-      <c r="AB33">
-        <v>389500</v>
-      </c>
-      <c r="AC33">
-        <v>5370</v>
-      </c>
-      <c r="AD33">
-        <v>25915</v>
-      </c>
-      <c r="AE33">
-        <v>318261</v>
-      </c>
-      <c r="AF33">
-        <v>247431</v>
-      </c>
-      <c r="AG33">
-        <v>356152</v>
-      </c>
-      <c r="AH33">
-        <v>232685</v>
-      </c>
-      <c r="AI33">
-        <v>14174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B34">
-        <v>20367</v>
-      </c>
-      <c r="C34">
-        <v>24098</v>
-      </c>
-      <c r="D34">
-        <v>11502</v>
-      </c>
-      <c r="E34">
-        <v>25550</v>
-      </c>
-      <c r="F34">
-        <v>15404</v>
-      </c>
-      <c r="G34">
-        <v>17644</v>
-      </c>
-      <c r="H34">
-        <v>52635</v>
-      </c>
-      <c r="I34">
-        <v>2294444</v>
-      </c>
-      <c r="J34">
-        <v>435005</v>
-      </c>
-      <c r="L34">
-        <v>33323</v>
-      </c>
-      <c r="M34">
-        <v>38674</v>
-      </c>
-      <c r="N34">
-        <v>26421</v>
-      </c>
-      <c r="O34">
-        <v>25789</v>
-      </c>
-      <c r="P34">
-        <v>13851</v>
-      </c>
-      <c r="Q34">
-        <v>21795</v>
-      </c>
-      <c r="R34">
-        <v>6500000</v>
-      </c>
-      <c r="S34">
-        <v>300454</v>
-      </c>
-      <c r="T34">
-        <v>23308696</v>
-      </c>
-      <c r="U34">
-        <v>24840</v>
-      </c>
-      <c r="V34">
-        <v>63210</v>
-      </c>
-      <c r="W34">
-        <v>8850</v>
-      </c>
-      <c r="X34">
-        <v>44972</v>
-      </c>
-      <c r="Y34">
-        <v>293068</v>
-      </c>
-      <c r="Z34">
-        <v>57321</v>
-      </c>
-      <c r="AA34">
-        <v>28995</v>
-      </c>
-      <c r="AB34">
-        <v>421111</v>
-      </c>
-      <c r="AC34">
-        <v>6254</v>
-      </c>
-      <c r="AD34">
-        <v>28728</v>
-      </c>
-      <c r="AE34">
-        <v>353333</v>
-      </c>
-      <c r="AF34">
-        <v>273425</v>
-      </c>
-      <c r="AG34">
-        <v>383914</v>
-      </c>
-      <c r="AH34">
-        <v>256000</v>
-      </c>
-      <c r="AI34">
-        <v>16634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B35">
-        <v>23579</v>
-      </c>
-      <c r="C35">
-        <v>28750</v>
-      </c>
-      <c r="D35">
-        <v>14410</v>
-      </c>
-      <c r="E35">
-        <v>29280</v>
-      </c>
-      <c r="F35">
-        <v>18378</v>
-      </c>
-      <c r="G35">
-        <v>20785</v>
-      </c>
-      <c r="H35">
-        <v>59837</v>
-      </c>
-      <c r="I35">
-        <v>2710526</v>
-      </c>
-      <c r="J35">
-        <v>503643</v>
-      </c>
-      <c r="L35">
-        <v>41868</v>
-      </c>
-      <c r="M35">
-        <v>47403</v>
-      </c>
-      <c r="N35">
-        <v>30854</v>
-      </c>
-      <c r="O35">
-        <v>31337</v>
-      </c>
-      <c r="P35">
-        <v>16923</v>
-      </c>
-      <c r="Q35">
-        <v>27621</v>
-      </c>
-      <c r="R35">
-        <v>8307692</v>
-      </c>
-      <c r="S35">
-        <v>356159</v>
-      </c>
-      <c r="T35">
-        <v>27708333</v>
-      </c>
-      <c r="U35">
-        <v>30080</v>
-      </c>
-      <c r="V35">
-        <v>79480</v>
-      </c>
-      <c r="W35">
-        <v>11035</v>
-      </c>
-      <c r="X35">
-        <v>51981</v>
-      </c>
-      <c r="Y35">
-        <v>354449</v>
-      </c>
-      <c r="Z35">
-        <v>68163</v>
-      </c>
-      <c r="AA35">
-        <v>34816</v>
-      </c>
-      <c r="AB35">
-        <v>480625</v>
-      </c>
-      <c r="AC35">
-        <v>7914</v>
-      </c>
-      <c r="AD35">
-        <v>35333</v>
-      </c>
-      <c r="AE35">
-        <v>411429</v>
-      </c>
-      <c r="AF35">
-        <v>318936</v>
-      </c>
-      <c r="AG35">
-        <v>435668</v>
-      </c>
-      <c r="AH35">
-        <v>304384</v>
-      </c>
-      <c r="AI35">
-        <v>22369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B36">
-        <v>26890</v>
-      </c>
-      <c r="C36">
-        <v>33335</v>
-      </c>
-      <c r="D36">
-        <v>17645</v>
-      </c>
-      <c r="E36">
-        <v>32876</v>
-      </c>
-      <c r="F36">
-        <v>21602</v>
-      </c>
-      <c r="G36">
-        <v>24475</v>
-      </c>
-      <c r="H36">
-        <v>67636</v>
-      </c>
-      <c r="I36">
-        <v>3150000</v>
-      </c>
-      <c r="J36">
-        <v>576125</v>
-      </c>
-      <c r="L36">
-        <v>51200</v>
-      </c>
-      <c r="M36">
-        <v>56129</v>
-      </c>
-      <c r="N36">
-        <v>35414</v>
-      </c>
-      <c r="O36">
-        <v>37027</v>
-      </c>
-      <c r="P36">
-        <v>20800</v>
-      </c>
-      <c r="Q36">
-        <v>34053</v>
-      </c>
-      <c r="R36">
-        <v>10404848</v>
-      </c>
-      <c r="S36">
-        <v>411181</v>
-      </c>
-      <c r="T36">
-        <v>32333333</v>
-      </c>
-      <c r="U36">
-        <v>35933</v>
-      </c>
-      <c r="V36">
-        <v>97072</v>
-      </c>
-      <c r="W36">
-        <v>13682</v>
-      </c>
-      <c r="X36">
-        <v>61818</v>
-      </c>
-      <c r="Y36">
-        <v>416613</v>
-      </c>
-      <c r="Z36">
-        <v>79738</v>
-      </c>
-      <c r="AA36">
-        <v>40484</v>
-      </c>
-      <c r="AB36">
-        <v>540119</v>
-      </c>
-      <c r="AC36">
-        <v>9654</v>
-      </c>
-      <c r="AD36">
-        <v>42090</v>
-      </c>
-      <c r="AE36">
-        <v>469371</v>
-      </c>
-      <c r="AF36">
-        <v>364313</v>
-      </c>
-      <c r="AG36">
-        <v>487116</v>
-      </c>
-      <c r="AH36">
-        <v>360000</v>
-      </c>
-      <c r="AI36">
-        <v>31143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B37">
-        <v>30500</v>
-      </c>
-      <c r="C37">
-        <v>38499</v>
-      </c>
-      <c r="D37">
-        <v>20785</v>
-      </c>
-      <c r="E37">
-        <v>36680</v>
-      </c>
-      <c r="F37">
-        <v>25138</v>
-      </c>
-      <c r="G37">
-        <v>28567</v>
-      </c>
-      <c r="H37">
-        <v>77023</v>
-      </c>
-      <c r="I37">
-        <v>3675000</v>
-      </c>
-      <c r="J37">
-        <v>662069</v>
-      </c>
-      <c r="L37">
-        <v>62443</v>
-      </c>
-      <c r="M37">
-        <v>66167</v>
-      </c>
-      <c r="N37">
-        <v>40552</v>
-      </c>
-      <c r="O37">
-        <v>42115</v>
-      </c>
-      <c r="P37">
-        <v>24704</v>
-      </c>
-      <c r="Q37">
-        <v>41367</v>
-      </c>
-      <c r="R37">
-        <v>13052525</v>
-      </c>
-      <c r="S37">
-        <v>468231</v>
-      </c>
-      <c r="T37">
-        <v>37353333</v>
-      </c>
-      <c r="U37">
-        <v>42394</v>
-      </c>
-      <c r="V37">
-        <v>117635</v>
-      </c>
-      <c r="W37">
-        <v>16387</v>
-      </c>
-      <c r="X37">
-        <v>69516</v>
-      </c>
-      <c r="Y37">
-        <v>488830</v>
-      </c>
-      <c r="Z37">
-        <v>94326</v>
-      </c>
-      <c r="AA37">
-        <v>45750</v>
-      </c>
-      <c r="AB37">
-        <v>603588</v>
-      </c>
-      <c r="AC37">
-        <v>11646</v>
-      </c>
-      <c r="AD37">
-        <v>48451</v>
-      </c>
-      <c r="AE37">
-        <v>540000</v>
-      </c>
-      <c r="AF37">
-        <v>413287</v>
-      </c>
-      <c r="AG37">
-        <v>550132</v>
-      </c>
-      <c r="AH37">
-        <v>424000</v>
-      </c>
-      <c r="AI37">
-        <v>42565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B38">
-        <v>35028</v>
-      </c>
-      <c r="C38">
-        <v>45105</v>
-      </c>
-      <c r="D38">
-        <v>25191</v>
-      </c>
-      <c r="E38">
-        <v>41333</v>
-      </c>
-      <c r="F38">
-        <v>29664</v>
-      </c>
-      <c r="G38">
-        <v>33575</v>
-      </c>
-      <c r="H38">
-        <v>87527</v>
-      </c>
-      <c r="I38">
-        <v>4200000</v>
-      </c>
-      <c r="J38">
-        <v>770599</v>
-      </c>
-      <c r="L38">
-        <v>76693</v>
-      </c>
-      <c r="M38">
-        <v>77245</v>
-      </c>
-      <c r="N38">
-        <v>46894</v>
-      </c>
-      <c r="O38">
-        <v>48519</v>
-      </c>
-      <c r="P38">
-        <v>30714</v>
-      </c>
-      <c r="Q38">
-        <v>50896</v>
-      </c>
-      <c r="R38">
-        <v>16701778</v>
-      </c>
-      <c r="S38">
-        <v>533058</v>
-      </c>
-      <c r="T38">
-        <v>43812000</v>
-      </c>
-      <c r="U38">
-        <v>49724</v>
-      </c>
-      <c r="V38">
-        <v>142264</v>
-      </c>
-      <c r="W38">
-        <v>19955</v>
-      </c>
-      <c r="X38">
-        <v>81581</v>
-      </c>
-      <c r="Y38">
-        <v>568086</v>
-      </c>
-      <c r="Z38">
-        <v>112657</v>
-      </c>
-      <c r="AA38">
-        <v>51666</v>
-      </c>
-      <c r="AB38">
-        <v>679724</v>
-      </c>
-      <c r="AC38">
-        <v>14279</v>
-      </c>
-      <c r="AD38">
-        <v>56533</v>
-      </c>
-      <c r="AE38">
-        <v>626735</v>
-      </c>
-      <c r="AF38">
-        <v>468708</v>
-      </c>
-      <c r="AG38">
-        <v>624594</v>
-      </c>
-      <c r="AH38">
-        <v>508800</v>
-      </c>
-      <c r="AI38">
-        <v>62546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B39">
-        <v>37868</v>
-      </c>
-      <c r="C39">
-        <v>49200</v>
-      </c>
-      <c r="D39">
-        <v>27355</v>
-      </c>
-      <c r="E39">
-        <v>44000</v>
-      </c>
-      <c r="F39">
-        <v>32517</v>
-      </c>
-      <c r="G39">
-        <v>36673</v>
-      </c>
-      <c r="H39">
-        <v>94299</v>
-      </c>
-      <c r="I39">
-        <v>4627778</v>
-      </c>
-      <c r="J39">
-        <v>840454</v>
-      </c>
-      <c r="L39">
-        <v>85838</v>
-      </c>
-      <c r="M39">
-        <v>84293</v>
-      </c>
-      <c r="N39">
-        <v>50563</v>
-      </c>
-      <c r="O39">
-        <v>52103</v>
-      </c>
-      <c r="P39">
-        <v>34667</v>
-      </c>
-      <c r="Q39">
-        <v>57167</v>
-      </c>
-      <c r="R39">
-        <v>19087238</v>
-      </c>
-      <c r="S39">
-        <v>572269</v>
-      </c>
-      <c r="T39">
-        <v>47793333</v>
-      </c>
-      <c r="U39">
-        <v>54710</v>
-      </c>
-      <c r="V39">
-        <v>156392</v>
-      </c>
-      <c r="W39">
-        <v>21995</v>
-      </c>
-      <c r="X39">
-        <v>89221</v>
-      </c>
-      <c r="Y39">
-        <v>627273</v>
-      </c>
-      <c r="Z39">
-        <v>124476</v>
-      </c>
-      <c r="AA39">
-        <v>55530</v>
-      </c>
-      <c r="AB39">
-        <v>727589</v>
-      </c>
-      <c r="AC39">
-        <v>15887</v>
-      </c>
-      <c r="AD39">
-        <v>60728</v>
-      </c>
-      <c r="AE39">
-        <v>672970</v>
-      </c>
-      <c r="AF39">
-        <v>500993</v>
-      </c>
-      <c r="AG39">
-        <v>671103</v>
-      </c>
-      <c r="AH39">
-        <v>566227</v>
-      </c>
-      <c r="AI39">
-        <v>77126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B40">
-        <v>41309</v>
-      </c>
-      <c r="C40">
-        <v>53764</v>
-      </c>
-      <c r="D40">
-        <v>30355</v>
-      </c>
-      <c r="E40">
-        <v>47667</v>
-      </c>
-      <c r="F40">
-        <v>36078</v>
-      </c>
-      <c r="G40">
-        <v>40147</v>
-      </c>
-      <c r="H40">
-        <v>102667</v>
-      </c>
-      <c r="I40">
-        <v>5094444</v>
-      </c>
-      <c r="J40">
-        <v>929988</v>
-      </c>
-      <c r="L40">
-        <v>97174</v>
-      </c>
-      <c r="M40">
-        <v>93800</v>
-      </c>
-      <c r="N40">
-        <v>54642</v>
-      </c>
-      <c r="O40">
-        <v>57090</v>
-      </c>
-      <c r="P40">
-        <v>40000</v>
-      </c>
-      <c r="Q40">
-        <v>64342</v>
-      </c>
-      <c r="R40">
-        <v>22341818</v>
-      </c>
-      <c r="S40">
-        <v>618076</v>
-      </c>
-      <c r="T40">
-        <v>52804000</v>
-      </c>
-      <c r="U40">
-        <v>59790</v>
-      </c>
-      <c r="V40">
-        <v>174631</v>
-      </c>
-      <c r="W40">
-        <v>24503</v>
-      </c>
-      <c r="X40">
-        <v>95564</v>
-      </c>
-      <c r="Y40">
-        <v>697341</v>
-      </c>
-      <c r="Z40">
-        <v>140371</v>
-      </c>
-      <c r="AA40">
-        <v>60724</v>
-      </c>
-      <c r="AB40">
-        <v>786485</v>
-      </c>
-      <c r="AC40">
-        <v>18034</v>
-      </c>
-      <c r="AD40">
-        <v>66405</v>
-      </c>
-      <c r="AE40">
-        <v>728000</v>
-      </c>
-      <c r="AF40">
-        <v>541366</v>
-      </c>
-      <c r="AG40">
-        <v>734158</v>
-      </c>
-      <c r="AH40">
-        <v>640000</v>
-      </c>
-      <c r="AI40">
-        <v>101099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B41">
-        <v>53816</v>
-      </c>
-      <c r="C41">
-        <v>69957</v>
-      </c>
-      <c r="D41">
-        <v>39495</v>
-      </c>
-      <c r="E41">
-        <v>59400</v>
-      </c>
-      <c r="F41">
-        <v>46945</v>
-      </c>
-      <c r="G41">
-        <v>52540</v>
-      </c>
-      <c r="H41">
-        <v>130528</v>
-      </c>
-      <c r="I41">
-        <v>6385714</v>
-      </c>
-      <c r="J41">
-        <v>1195402</v>
-      </c>
-      <c r="L41">
-        <v>137259</v>
-      </c>
-      <c r="M41">
-        <v>120687</v>
-      </c>
-      <c r="N41">
-        <v>69267</v>
-      </c>
-      <c r="O41">
-        <v>70165</v>
-      </c>
-      <c r="P41">
-        <v>61867</v>
-      </c>
-      <c r="Q41">
-        <v>87576</v>
-      </c>
-      <c r="R41">
-        <v>35669091</v>
-      </c>
-      <c r="S41">
-        <v>769446</v>
-      </c>
-      <c r="T41">
-        <v>68112000</v>
-      </c>
-      <c r="U41">
-        <v>77880</v>
-      </c>
-      <c r="V41">
-        <v>237500</v>
-      </c>
-      <c r="W41">
-        <v>32994</v>
-      </c>
-      <c r="X41">
-        <v>119487</v>
-      </c>
-      <c r="Y41">
-        <v>942696</v>
-      </c>
-      <c r="Z41">
-        <v>195692</v>
-      </c>
-      <c r="AA41">
-        <v>76169</v>
-      </c>
-      <c r="AB41">
-        <v>978627</v>
-      </c>
-      <c r="AC41">
-        <v>24919</v>
-      </c>
-      <c r="AD41">
-        <v>84713</v>
-      </c>
-      <c r="AE41">
-        <v>893333</v>
-      </c>
-      <c r="AF41">
-        <v>674234</v>
-      </c>
-      <c r="AG41">
-        <v>936134</v>
-      </c>
-      <c r="AH41">
-        <v>906000</v>
-      </c>
-      <c r="AI41">
-        <v>202070</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1316</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1329</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P43" t="s">
-        <v>1331</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>1332</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1333</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1334</v>
-      </c>
-      <c r="T43" t="s">
-        <v>1335</v>
-      </c>
-      <c r="U43" t="s">
-        <v>1336</v>
-      </c>
-      <c r="V43" t="s">
-        <v>1337</v>
-      </c>
-      <c r="W43" t="s">
-        <v>1338</v>
-      </c>
-      <c r="X43" t="s">
-        <v>1339</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>1340</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1342</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>1343</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>1344</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>1345</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B44">
-        <v>12068</v>
-      </c>
-      <c r="C44">
-        <v>12240</v>
-      </c>
-      <c r="D44">
-        <v>6006</v>
-      </c>
-      <c r="E44">
-        <v>16035</v>
-      </c>
-      <c r="F44">
-        <v>8296</v>
-      </c>
-      <c r="G44">
-        <v>11009</v>
-      </c>
-      <c r="H44">
-        <v>24781</v>
-      </c>
-      <c r="I44">
-        <v>1165764</v>
-      </c>
-      <c r="J44">
-        <v>270000</v>
-      </c>
-      <c r="L44">
-        <v>16275</v>
-      </c>
-      <c r="M44">
-        <v>23267</v>
-      </c>
-      <c r="N44">
-        <v>14624</v>
-      </c>
-      <c r="O44">
-        <v>15403</v>
-      </c>
-      <c r="P44">
-        <v>6500</v>
-      </c>
-      <c r="Q44">
-        <v>10300</v>
-      </c>
-      <c r="R44">
-        <v>2553846</v>
-      </c>
-      <c r="S44">
-        <v>144982</v>
-      </c>
-      <c r="T44">
-        <v>12270000</v>
-      </c>
-      <c r="U44">
-        <v>15980</v>
-      </c>
-      <c r="V44">
-        <v>32873</v>
-      </c>
-      <c r="W44">
-        <v>4721</v>
-      </c>
-      <c r="X44">
-        <v>23594</v>
-      </c>
-      <c r="Y44">
-        <v>97953</v>
-      </c>
-      <c r="Z44">
-        <v>29068</v>
-      </c>
-      <c r="AA44">
-        <v>15975</v>
-      </c>
-      <c r="AB44">
-        <v>231923</v>
-      </c>
-      <c r="AC44">
-        <v>2081</v>
-      </c>
-      <c r="AD44">
-        <v>11052</v>
-      </c>
-      <c r="AE44">
-        <v>194400</v>
-      </c>
-      <c r="AF44">
-        <v>149011</v>
-      </c>
-      <c r="AG44">
-        <v>213145</v>
-      </c>
-      <c r="AH44">
-        <v>137010</v>
-      </c>
-      <c r="AI44">
-        <v>7273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B45">
-        <v>15120</v>
-      </c>
-      <c r="C45">
-        <v>16469</v>
-      </c>
-      <c r="D45">
-        <v>8064</v>
-      </c>
-      <c r="E45">
-        <v>21577</v>
-      </c>
-      <c r="F45">
-        <v>11138</v>
-      </c>
-      <c r="G45">
-        <v>13882</v>
-      </c>
-      <c r="H45">
-        <v>32130</v>
-      </c>
-      <c r="I45">
-        <v>1623153</v>
-      </c>
-      <c r="J45">
-        <v>333333</v>
-      </c>
-      <c r="L45">
-        <v>23143</v>
-      </c>
-      <c r="M45">
-        <v>28785</v>
-      </c>
-      <c r="N45">
-        <v>18829</v>
-      </c>
-      <c r="O45">
-        <v>18502</v>
-      </c>
-      <c r="P45">
-        <v>10217</v>
-      </c>
-      <c r="Q45">
-        <v>16012</v>
-      </c>
-      <c r="R45">
-        <v>4429111</v>
-      </c>
-      <c r="S45">
-        <v>178869</v>
-      </c>
-      <c r="T45">
-        <v>17120000</v>
-      </c>
-      <c r="U45">
-        <v>19588</v>
-      </c>
-      <c r="V45">
-        <v>46297</v>
-      </c>
-      <c r="W45">
-        <v>6041</v>
-      </c>
-      <c r="X45">
-        <v>29146</v>
-      </c>
-      <c r="Y45">
-        <v>154146</v>
-      </c>
-      <c r="Z45">
-        <v>41049</v>
-      </c>
-      <c r="AA45">
-        <v>19619</v>
-      </c>
-      <c r="AB45">
-        <v>290789</v>
-      </c>
-      <c r="AC45">
-        <v>3839</v>
-      </c>
-      <c r="AD45">
-        <v>15944</v>
-      </c>
-      <c r="AE45">
-        <v>275067</v>
-      </c>
-      <c r="AF45">
-        <v>186088</v>
-      </c>
-      <c r="AG45">
-        <v>273508</v>
-      </c>
-      <c r="AH45">
-        <v>190487</v>
-      </c>
-      <c r="AI45">
-        <v>11603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B46">
-        <v>16550</v>
-      </c>
-      <c r="C46">
-        <v>18017</v>
-      </c>
-      <c r="D46">
-        <v>9258</v>
-      </c>
-      <c r="E46">
-        <v>23400</v>
-      </c>
-      <c r="F46">
-        <v>12567</v>
-      </c>
-      <c r="G46">
-        <v>15088</v>
-      </c>
-      <c r="H46">
-        <v>35236</v>
-      </c>
-      <c r="I46">
-        <v>1819257</v>
-      </c>
-      <c r="J46">
-        <v>362734</v>
-      </c>
-      <c r="L46">
-        <v>26290</v>
-      </c>
-      <c r="M46">
-        <v>31967</v>
-      </c>
-      <c r="N46">
-        <v>20400</v>
-      </c>
-      <c r="O46">
-        <v>19976</v>
-      </c>
-      <c r="P46">
-        <v>11826</v>
-      </c>
-      <c r="Q46">
-        <v>18775</v>
-      </c>
-      <c r="R46">
-        <v>5333333</v>
-      </c>
-      <c r="S46">
-        <v>191206</v>
-      </c>
-      <c r="T46">
-        <v>19317857</v>
-      </c>
-      <c r="U46">
-        <v>21028</v>
-      </c>
-      <c r="V46">
-        <v>52205</v>
-      </c>
-      <c r="W46">
-        <v>6771</v>
-      </c>
-      <c r="X46">
-        <v>31568</v>
-      </c>
-      <c r="Y46">
-        <v>180000</v>
-      </c>
-      <c r="Z46">
-        <v>46220</v>
-      </c>
-      <c r="AA46">
-        <v>21272</v>
-      </c>
-      <c r="AB46">
-        <v>315192</v>
-      </c>
-      <c r="AC46">
-        <v>4745</v>
-      </c>
-      <c r="AD46">
+      <c r="B48" s="4">
+        <v>20925</v>
+      </c>
+      <c r="C48" s="4">
+        <v>22762</v>
+      </c>
+      <c r="D48" s="4">
+        <v>12603.19</v>
+      </c>
+      <c r="E48" s="4">
+        <v>28800</v>
+      </c>
+      <c r="F48" s="4">
+        <v>16622.965</v>
+      </c>
+      <c r="G48" s="4">
+        <v>19402.492999999999</v>
+      </c>
+      <c r="H48" s="4">
+        <v>44102.756999999998</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2291279.0010000002</v>
+      </c>
+      <c r="J48" s="4">
+        <v>468778.00199999998</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
+        <v>38336.667000000001</v>
+      </c>
+      <c r="M48" s="4">
+        <v>41511.711000000003</v>
+      </c>
+      <c r="N48" s="4">
+        <v>25761.577000000001</v>
+      </c>
+      <c r="O48" s="4">
+        <v>24796.005000000001</v>
+      </c>
+      <c r="P48" s="4">
         <v>18000</v>
       </c>
-      <c r="AE46">
-        <v>300000</v>
-      </c>
-      <c r="AF46">
-        <v>203217</v>
-      </c>
-      <c r="AG46">
-        <v>298618</v>
-      </c>
-      <c r="AH46">
-        <v>214675</v>
-      </c>
-      <c r="AI46">
-        <v>13846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B47">
-        <v>17870</v>
-      </c>
-      <c r="C47">
-        <v>19517</v>
-      </c>
-      <c r="D47">
-        <v>10228</v>
-      </c>
-      <c r="E47">
-        <v>25068</v>
-      </c>
-      <c r="F47">
-        <v>13832</v>
-      </c>
-      <c r="G47">
-        <v>16149</v>
-      </c>
-      <c r="H47">
-        <v>37618</v>
-      </c>
-      <c r="I47">
-        <v>1986469</v>
-      </c>
-      <c r="J47">
-        <v>391506</v>
-      </c>
-      <c r="L47">
-        <v>29593</v>
-      </c>
-      <c r="M47">
-        <v>34689</v>
-      </c>
-      <c r="N47">
-        <v>22052</v>
-      </c>
-      <c r="O47">
-        <v>21621</v>
-      </c>
-      <c r="P47">
-        <v>13440</v>
-      </c>
-      <c r="Q47">
-        <v>21795</v>
-      </c>
-      <c r="R47">
-        <v>6171532</v>
-      </c>
-      <c r="S47">
-        <v>203353</v>
-      </c>
-      <c r="T47">
-        <v>21275000</v>
-      </c>
-      <c r="U47">
-        <v>22600</v>
-      </c>
-      <c r="V47">
-        <v>58890</v>
-      </c>
-      <c r="W47">
-        <v>7383</v>
-      </c>
-      <c r="X47">
-        <v>33407</v>
-      </c>
-      <c r="Y47">
-        <v>204167</v>
-      </c>
-      <c r="Z47">
-        <v>51288</v>
-      </c>
-      <c r="AA47">
-        <v>22791</v>
-      </c>
-      <c r="AB47">
-        <v>336609</v>
-      </c>
-      <c r="AC47">
-        <v>5551</v>
-      </c>
-      <c r="AD47">
-        <v>20316</v>
-      </c>
-      <c r="AE47">
-        <v>336000</v>
-      </c>
-      <c r="AF47">
-        <v>221397</v>
-      </c>
-      <c r="AG47">
-        <v>323522</v>
-      </c>
-      <c r="AH47">
-        <v>240000</v>
-      </c>
-      <c r="AI47">
-        <v>16167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B48">
-        <v>20270</v>
-      </c>
-      <c r="C48">
-        <v>22529</v>
-      </c>
-      <c r="D48">
-        <v>12062</v>
-      </c>
-      <c r="E48">
-        <v>28794</v>
-      </c>
-      <c r="F48">
-        <v>16176</v>
-      </c>
-      <c r="G48">
-        <v>18728</v>
-      </c>
-      <c r="H48">
-        <v>42864</v>
-      </c>
-      <c r="I48">
-        <v>2314403</v>
-      </c>
-      <c r="J48">
-        <v>450298</v>
-      </c>
-      <c r="L48">
-        <v>36549</v>
-      </c>
-      <c r="M48">
-        <v>40695</v>
-      </c>
-      <c r="N48">
-        <v>25039</v>
-      </c>
-      <c r="O48">
-        <v>24843</v>
-      </c>
-      <c r="P48">
-        <v>16237</v>
-      </c>
-      <c r="Q48">
-        <v>27621</v>
-      </c>
-      <c r="R48">
-        <v>7983220</v>
-      </c>
-      <c r="S48">
-        <v>228743</v>
-      </c>
-      <c r="T48">
-        <v>25073333</v>
-      </c>
-      <c r="U48">
-        <v>25940</v>
-      </c>
-      <c r="V48">
-        <v>72928</v>
-      </c>
-      <c r="W48">
-        <v>8681</v>
-      </c>
-      <c r="X48">
-        <v>38992</v>
-      </c>
-      <c r="Y48">
-        <v>257143</v>
-      </c>
-      <c r="Z48">
-        <v>61475</v>
-      </c>
-      <c r="AA48">
-        <v>26336</v>
-      </c>
-      <c r="AB48">
-        <v>375827</v>
-      </c>
-      <c r="AC48">
-        <v>7052</v>
-      </c>
-      <c r="AD48">
-        <v>23863</v>
-      </c>
-      <c r="AE48">
-        <v>398400</v>
-      </c>
-      <c r="AF48">
-        <v>255845</v>
-      </c>
-      <c r="AG48">
-        <v>369457</v>
-      </c>
-      <c r="AH48">
-        <v>288000</v>
-      </c>
-      <c r="AI48">
-        <v>22020</v>
+      <c r="Q48" s="4">
+        <v>27946.668000000001</v>
+      </c>
+      <c r="R48" s="4">
+        <v>8869565.2170000002</v>
+      </c>
+      <c r="S48" s="4">
+        <v>226567.33300000001</v>
+      </c>
+      <c r="T48" s="4">
+        <v>24793333.333000001</v>
+      </c>
+      <c r="U48" s="4">
+        <v>26655</v>
+      </c>
+      <c r="V48" s="4">
+        <v>76742.221999999994</v>
+      </c>
+      <c r="W48" s="4">
+        <v>8632.7000000000007</v>
+      </c>
+      <c r="X48" s="4">
+        <v>40701.705000000002</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>264042.55300000001</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>65372.000999999997</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>25914</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>378740</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>7438.2560000000003</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>24300</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>399354.83899999998</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>259906</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>367086</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>312000</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>26344.295999999998</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B49">
-        <v>22610</v>
-      </c>
-      <c r="C49">
-        <v>25341</v>
-      </c>
-      <c r="D49">
-        <v>14203</v>
-      </c>
-      <c r="E49">
-        <v>32308</v>
-      </c>
-      <c r="F49">
-        <v>18611</v>
-      </c>
-      <c r="G49">
-        <v>21389</v>
-      </c>
-      <c r="H49">
-        <v>48584</v>
-      </c>
-      <c r="I49">
-        <v>2650183</v>
-      </c>
-      <c r="J49">
-        <v>515223</v>
-      </c>
-      <c r="L49">
-        <v>43846</v>
-      </c>
-      <c r="M49">
-        <v>46825</v>
-      </c>
-      <c r="N49">
-        <v>28057</v>
-      </c>
-      <c r="O49">
-        <v>27597</v>
-      </c>
-      <c r="P49">
-        <v>19899</v>
-      </c>
-      <c r="Q49">
-        <v>34053</v>
-      </c>
-      <c r="R49">
-        <v>10000000</v>
-      </c>
-      <c r="S49">
-        <v>254285</v>
-      </c>
-      <c r="T49">
-        <v>29120000</v>
-      </c>
-      <c r="U49">
-        <v>29255</v>
-      </c>
-      <c r="V49">
-        <v>87948</v>
-      </c>
-      <c r="W49">
-        <v>10210</v>
-      </c>
-      <c r="X49">
-        <v>45471</v>
-      </c>
-      <c r="Y49">
-        <v>309609</v>
-      </c>
-      <c r="Z49">
-        <v>72747</v>
-      </c>
-      <c r="AA49">
-        <v>29518</v>
-      </c>
-      <c r="AB49">
-        <v>413657</v>
-      </c>
-      <c r="AC49">
-        <v>8582</v>
-      </c>
-      <c r="AD49">
-        <v>27538</v>
-      </c>
-      <c r="AE49">
+        <v>1320</v>
+      </c>
+      <c r="B49" s="4">
+        <v>23300</v>
+      </c>
+      <c r="C49" s="4">
+        <v>25610</v>
+      </c>
+      <c r="D49" s="4">
+        <v>14779.191999999999</v>
+      </c>
+      <c r="E49" s="4">
+        <v>32400</v>
+      </c>
+      <c r="F49" s="4">
+        <v>19082.511999999999</v>
+      </c>
+      <c r="G49" s="4">
+        <v>22164.312999999998</v>
+      </c>
+      <c r="H49" s="4">
+        <v>50150.821000000004</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2633710.7930000001</v>
+      </c>
+      <c r="J49" s="4">
+        <v>534930.37800000003</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
+        <v>45922.5</v>
+      </c>
+      <c r="M49" s="4">
+        <v>48194.046000000002</v>
+      </c>
+      <c r="N49" s="4">
+        <v>28812.66</v>
+      </c>
+      <c r="O49" s="4">
+        <v>27574.993999999999</v>
+      </c>
+      <c r="P49" s="4">
+        <v>21066.596000000001</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>34556.277000000002</v>
+      </c>
+      <c r="R49" s="4">
+        <v>11161904.762</v>
+      </c>
+      <c r="S49" s="4">
+        <v>253357.33300000001</v>
+      </c>
+      <c r="T49" s="4">
+        <v>28960000</v>
+      </c>
+      <c r="U49" s="4">
+        <v>30380</v>
+      </c>
+      <c r="V49" s="4">
+        <v>91752</v>
+      </c>
+      <c r="W49" s="4">
+        <v>10146.81</v>
+      </c>
+      <c r="X49" s="4">
+        <v>46540.525999999998</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>326470.58799999999</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>77923.467000000004</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>29144.667000000001</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>418103.33299999998</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>9149.2980000000007</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>28000</v>
+      </c>
+      <c r="AE49" s="4">
         <v>456000</v>
       </c>
-      <c r="AF49">
-        <v>289975</v>
-      </c>
-      <c r="AG49">
-        <v>416398</v>
-      </c>
-      <c r="AH49">
-        <v>344000</v>
-      </c>
-      <c r="AI49">
-        <v>30261</v>
+      <c r="AF49" s="4">
+        <v>293727.33299999998</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>414808.571</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>366290.58899999998</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>36300.33</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B50">
-        <v>25248</v>
-      </c>
-      <c r="C50">
-        <v>28358</v>
-      </c>
-      <c r="D50">
-        <v>16464</v>
-      </c>
-      <c r="E50">
+        <v>1321</v>
+      </c>
+      <c r="B50" s="4">
+        <v>25960</v>
+      </c>
+      <c r="C50" s="4">
+        <v>28820.67</v>
+      </c>
+      <c r="D50" s="4">
+        <v>17021.689999999999</v>
+      </c>
+      <c r="E50" s="4">
         <v>36000</v>
       </c>
-      <c r="F50">
-        <v>21211</v>
-      </c>
-      <c r="G50">
-        <v>24570</v>
-      </c>
-      <c r="H50">
-        <v>54908</v>
-      </c>
-      <c r="I50">
-        <v>3013167</v>
-      </c>
-      <c r="J50">
-        <v>591942</v>
-      </c>
-      <c r="L50">
-        <v>52250</v>
-      </c>
-      <c r="M50">
-        <v>53768</v>
-      </c>
-      <c r="N50">
-        <v>31387</v>
-      </c>
-      <c r="O50">
-        <v>30720</v>
-      </c>
-      <c r="P50">
-        <v>23423</v>
-      </c>
-      <c r="Q50">
-        <v>41367</v>
-      </c>
-      <c r="R50">
-        <v>12568348</v>
-      </c>
-      <c r="S50">
-        <v>281985</v>
-      </c>
-      <c r="T50">
-        <v>33500000</v>
-      </c>
-      <c r="U50">
-        <v>33320</v>
-      </c>
-      <c r="V50">
-        <v>103624</v>
-      </c>
-      <c r="W50">
-        <v>11824</v>
-      </c>
-      <c r="X50">
-        <v>51537</v>
-      </c>
-      <c r="Y50">
-        <v>372414</v>
-      </c>
-      <c r="Z50">
-        <v>86447</v>
-      </c>
-      <c r="AA50">
-        <v>32432</v>
-      </c>
-      <c r="AB50">
-        <v>454355</v>
-      </c>
-      <c r="AC50">
-        <v>10383</v>
-      </c>
-      <c r="AD50">
-        <v>31975</v>
-      </c>
-      <c r="AE50">
-        <v>525714</v>
-      </c>
-      <c r="AF50">
-        <v>325184</v>
-      </c>
-      <c r="AG50">
-        <v>469794</v>
-      </c>
-      <c r="AH50">
-        <v>408000</v>
-      </c>
-      <c r="AI50">
-        <v>41164</v>
+      <c r="F50" s="4">
+        <v>21624.86</v>
+      </c>
+      <c r="G50" s="4">
+        <v>25435.119999999999</v>
+      </c>
+      <c r="H50" s="4">
+        <v>57047</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3004026</v>
+      </c>
+      <c r="J50" s="4">
+        <v>612000.02</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
+        <v>54474</v>
+      </c>
+      <c r="M50" s="4">
+        <v>55570.81</v>
+      </c>
+      <c r="N50" s="4">
+        <v>32317.17</v>
+      </c>
+      <c r="O50" s="4">
+        <v>30872.81</v>
+      </c>
+      <c r="P50" s="4">
+        <v>25226.34</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>42119.839999999997</v>
+      </c>
+      <c r="R50" s="4">
+        <v>14086956.52</v>
+      </c>
+      <c r="S50" s="4">
+        <v>282827.33</v>
+      </c>
+      <c r="T50" s="4">
+        <v>33476190.48</v>
+      </c>
+      <c r="U50" s="4">
+        <v>34006.67</v>
+      </c>
+      <c r="V50" s="4">
+        <v>108107.14</v>
+      </c>
+      <c r="W50" s="4">
+        <v>11812.15</v>
+      </c>
+      <c r="X50" s="4">
+        <v>53108.97</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>393405</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>92506.72</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>32177.5</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>460373.33</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>11062.13</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>32784</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>528000</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>330613.67</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>468719.6</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>433770</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>49114.37</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B51">
-        <v>28473</v>
-      </c>
-      <c r="C51">
-        <v>31897</v>
-      </c>
-      <c r="D51">
-        <v>19081</v>
-      </c>
-      <c r="E51">
-        <v>40258</v>
-      </c>
-      <c r="F51">
-        <v>24336</v>
-      </c>
-      <c r="G51">
-        <v>28194</v>
-      </c>
-      <c r="H51">
-        <v>62994</v>
-      </c>
-      <c r="I51">
-        <v>3456054</v>
-      </c>
-      <c r="J51">
-        <v>685104</v>
-      </c>
-      <c r="L51">
-        <v>62473</v>
-      </c>
-      <c r="M51">
-        <v>61672</v>
-      </c>
-      <c r="N51">
-        <v>35273</v>
-      </c>
-      <c r="O51">
-        <v>33541</v>
-      </c>
-      <c r="P51">
-        <v>28754</v>
-      </c>
-      <c r="Q51">
-        <v>50896</v>
-      </c>
-      <c r="R51">
-        <v>16088024</v>
-      </c>
-      <c r="S51">
-        <v>314367</v>
-      </c>
-      <c r="T51">
-        <v>38876000</v>
-      </c>
-      <c r="U51">
-        <v>36773</v>
-      </c>
-      <c r="V51">
-        <v>120834</v>
-      </c>
-      <c r="W51">
-        <v>14030</v>
-      </c>
-      <c r="X51">
-        <v>59336</v>
-      </c>
-      <c r="Y51">
-        <v>450000</v>
-      </c>
-      <c r="Z51">
-        <v>103719</v>
-      </c>
-      <c r="AA51">
-        <v>35827</v>
-      </c>
-      <c r="AB51">
-        <v>502492</v>
-      </c>
-      <c r="AC51">
-        <v>12622</v>
-      </c>
-      <c r="AD51">
-        <v>36000</v>
-      </c>
-      <c r="AE51">
-        <v>607826</v>
-      </c>
-      <c r="AF51">
-        <v>365464</v>
-      </c>
-      <c r="AG51">
-        <v>535897</v>
-      </c>
-      <c r="AH51">
-        <v>493333</v>
-      </c>
-      <c r="AI51">
-        <v>59503</v>
+        <v>1322</v>
+      </c>
+      <c r="B51" s="4">
+        <v>29268</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32388.5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>19569.21</v>
+      </c>
+      <c r="E51" s="4">
+        <v>40320</v>
+      </c>
+      <c r="F51" s="4">
+        <v>24865.53</v>
+      </c>
+      <c r="G51" s="4">
+        <v>28917.279999999999</v>
+      </c>
+      <c r="H51" s="4">
+        <v>64689.86</v>
+      </c>
+      <c r="I51" s="4">
+        <v>3465473.43</v>
+      </c>
+      <c r="J51" s="4">
+        <v>712719.05</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
+        <v>64935.68</v>
+      </c>
+      <c r="M51" s="4">
+        <v>63729.33</v>
+      </c>
+      <c r="N51" s="4">
+        <v>36315.47</v>
+      </c>
+      <c r="O51" s="4">
+        <v>34051.050000000003</v>
+      </c>
+      <c r="P51" s="4">
+        <v>30925.5</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>51784.45</v>
+      </c>
+      <c r="R51" s="4">
+        <v>17767272</v>
+      </c>
+      <c r="S51" s="4">
+        <v>317176.67</v>
+      </c>
+      <c r="T51" s="4">
+        <v>38885714.289999999</v>
+      </c>
+      <c r="U51" s="4">
+        <v>38117.14</v>
+      </c>
+      <c r="V51" s="4">
+        <v>125126.39999999999</v>
+      </c>
+      <c r="W51" s="4">
+        <v>13937.56</v>
+      </c>
+      <c r="X51" s="4">
+        <v>60206.26</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>480000</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>111006.94</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>35638.89</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>510834.65</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>13594</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>37200</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>607272.73</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>372090</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>534053.32999999996</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>520000</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>70155.360000000001</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B52">
-        <v>30444</v>
-      </c>
-      <c r="C52">
-        <v>34247</v>
-      </c>
-      <c r="D52">
-        <v>20682</v>
-      </c>
-      <c r="E52">
-        <v>42900</v>
-      </c>
-      <c r="F52">
-        <v>26382</v>
-      </c>
-      <c r="G52">
-        <v>30217</v>
-      </c>
-      <c r="H52">
-        <v>67802</v>
-      </c>
-      <c r="I52">
-        <v>3717319</v>
-      </c>
-      <c r="J52">
-        <v>749429</v>
-      </c>
-      <c r="L52">
-        <v>68942</v>
-      </c>
-      <c r="M52">
-        <v>66271</v>
-      </c>
-      <c r="N52">
-        <v>37422</v>
-      </c>
-      <c r="O52">
-        <v>35703</v>
-      </c>
-      <c r="P52">
-        <v>32319</v>
-      </c>
-      <c r="Q52">
-        <v>57167</v>
-      </c>
-      <c r="R52">
-        <v>18341042</v>
-      </c>
-      <c r="S52">
-        <v>333831</v>
-      </c>
-      <c r="T52">
-        <v>42111111</v>
-      </c>
-      <c r="U52">
-        <v>39573</v>
-      </c>
-      <c r="V52">
-        <v>131300</v>
-      </c>
-      <c r="W52">
-        <v>15451</v>
-      </c>
-      <c r="X52">
-        <v>15451</v>
-      </c>
-      <c r="Y52">
-        <v>63105</v>
-      </c>
-      <c r="Z52">
-        <v>500000</v>
-      </c>
-      <c r="AA52">
-        <v>115475</v>
-      </c>
-      <c r="AB52">
-        <v>38007</v>
-      </c>
-      <c r="AC52">
-        <v>532138</v>
-      </c>
-      <c r="AD52">
-        <v>14166</v>
-      </c>
-      <c r="AE52">
-        <v>39000</v>
-      </c>
-      <c r="AF52">
-        <v>386621</v>
-      </c>
-      <c r="AG52">
-        <v>578278</v>
-      </c>
-      <c r="AH52">
-        <v>550137</v>
-      </c>
-      <c r="AI52">
-        <v>72624</v>
+        <v>1323</v>
+      </c>
+      <c r="B52" s="4">
+        <v>31220</v>
+      </c>
+      <c r="C52" s="4">
+        <v>34752</v>
+      </c>
+      <c r="D52" s="4">
+        <v>21063.56</v>
+      </c>
+      <c r="E52" s="4">
+        <v>42954</v>
+      </c>
+      <c r="F52" s="4">
+        <v>26899.4</v>
+      </c>
+      <c r="G52" s="4">
+        <v>31070</v>
+      </c>
+      <c r="H52" s="4">
+        <v>69958.13</v>
+      </c>
+      <c r="I52" s="4">
+        <v>3763039.25</v>
+      </c>
+      <c r="J52" s="4">
+        <v>779999.99</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
+        <v>71460.800000000003</v>
+      </c>
+      <c r="M52" s="4">
+        <v>68425.41</v>
+      </c>
+      <c r="N52" s="4">
+        <v>38375.46</v>
+      </c>
+      <c r="O52" s="4">
+        <v>36055.49</v>
+      </c>
+      <c r="P52" s="4">
+        <v>34617.269999999997</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>57961.99</v>
+      </c>
+      <c r="R52" s="4">
+        <v>20224581.75</v>
+      </c>
+      <c r="S52" s="4">
+        <v>337644.44</v>
+      </c>
+      <c r="T52" s="4">
+        <v>42133333.329999998</v>
+      </c>
+      <c r="U52" s="4">
+        <v>40666.67</v>
+      </c>
+      <c r="V52" s="4">
+        <v>135840</v>
+      </c>
+      <c r="W52" s="4">
+        <v>15378.99</v>
+      </c>
+      <c r="X52" s="4">
+        <v>63201.26</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>530232.56000000006</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>123189.07</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>37758.89</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>541506.67000000004</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>15154.14</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>40000</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>660000</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>394305.42</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>575962.67000000004</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>573913.05000000005</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>84705.88</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B53">
-        <v>32783</v>
-      </c>
-      <c r="C53">
-        <v>36989</v>
-      </c>
-      <c r="D53">
-        <v>22349</v>
-      </c>
-      <c r="E53">
-        <v>46286</v>
-      </c>
-      <c r="F53">
-        <v>28757</v>
-      </c>
-      <c r="G53">
-        <v>32764</v>
-      </c>
-      <c r="H53">
-        <v>73576</v>
-      </c>
-      <c r="I53">
-        <v>4046829</v>
-      </c>
-      <c r="J53">
-        <v>824384</v>
-      </c>
-      <c r="L53">
-        <v>76902</v>
-      </c>
-      <c r="M53">
-        <v>72314</v>
-      </c>
-      <c r="N53">
-        <v>40090</v>
-      </c>
-      <c r="O53">
-        <v>37931</v>
-      </c>
-      <c r="P53">
-        <v>36931</v>
-      </c>
-      <c r="Q53">
-        <v>64342</v>
-      </c>
-      <c r="R53">
-        <v>21336436</v>
-      </c>
-      <c r="S53">
-        <v>357184</v>
-      </c>
-      <c r="T53">
-        <v>46207692</v>
-      </c>
-      <c r="U53">
-        <v>41868</v>
-      </c>
-      <c r="V53">
-        <v>143576</v>
-      </c>
-      <c r="W53">
-        <v>16819</v>
-      </c>
-      <c r="X53">
-        <v>16819</v>
-      </c>
-      <c r="Y53">
-        <v>66706</v>
-      </c>
-      <c r="Z53">
-        <v>556667</v>
-      </c>
-      <c r="AA53">
-        <v>129770</v>
-      </c>
-      <c r="AB53">
-        <v>40363</v>
-      </c>
-      <c r="AC53">
-        <v>568116</v>
-      </c>
-      <c r="AD53">
-        <v>15965</v>
-      </c>
-      <c r="AE53">
-        <v>42856</v>
-      </c>
-      <c r="AF53">
-        <v>413681</v>
-      </c>
-      <c r="AG53">
-        <v>634049</v>
-      </c>
-      <c r="AH53">
-        <v>624000</v>
-      </c>
-      <c r="AI53">
-        <v>91475</v>
+        <v>1324</v>
+      </c>
+      <c r="B53" s="4">
+        <v>33740</v>
+      </c>
+      <c r="C53" s="4">
+        <v>37711.25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>22860.75</v>
+      </c>
+      <c r="E53" s="4">
+        <v>46400</v>
+      </c>
+      <c r="F53" s="4">
+        <v>29336.75</v>
+      </c>
+      <c r="G53" s="4">
+        <v>33745.25</v>
+      </c>
+      <c r="H53" s="4">
+        <v>75973.75</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4074191.19</v>
+      </c>
+      <c r="J53" s="4">
+        <v>852714.67</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>79427.5</v>
+      </c>
+      <c r="M53" s="4">
+        <v>74327.66</v>
+      </c>
+      <c r="N53" s="4">
+        <v>40995.129999999997</v>
+      </c>
+      <c r="O53" s="4">
+        <v>38441.21</v>
+      </c>
+      <c r="P53" s="4">
+        <v>39674.660000000003</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>65017.3</v>
+      </c>
+      <c r="R53" s="4">
+        <v>23513566.440000001</v>
+      </c>
+      <c r="S53" s="4">
+        <v>362060</v>
+      </c>
+      <c r="T53" s="4">
+        <v>46126666.670000002</v>
+      </c>
+      <c r="U53" s="4">
+        <v>43257.14</v>
+      </c>
+      <c r="V53" s="4">
+        <v>148158</v>
+      </c>
+      <c r="W53" s="4">
+        <v>16800</v>
+      </c>
+      <c r="X53" s="4">
+        <v>67522.91</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>601969.69999999995</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>139705.35999999999</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>40168</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>578660.32999999996</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>17072.5</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>43935.48</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>720000</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>423836.67</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>631131.6</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>652173.92000000004</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>108383.55</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B54">
-        <v>41060</v>
-      </c>
-      <c r="C54">
-        <v>46687</v>
-      </c>
-      <c r="D54">
-        <v>27703</v>
-      </c>
-      <c r="E54">
-        <v>56690</v>
-      </c>
-      <c r="F54">
-        <v>36242</v>
-      </c>
-      <c r="G54">
-        <v>41279</v>
-      </c>
-      <c r="H54">
-        <v>93646</v>
-      </c>
-      <c r="I54">
-        <v>5018925</v>
-      </c>
-      <c r="J54">
-        <v>1053000</v>
-      </c>
-      <c r="L54">
-        <v>104552</v>
-      </c>
-      <c r="M54">
-        <v>90698</v>
-      </c>
-      <c r="N54">
-        <v>48671</v>
-      </c>
-      <c r="O54">
-        <v>44975</v>
-      </c>
-      <c r="P54">
-        <v>55210</v>
-      </c>
-      <c r="Q54">
-        <v>87576</v>
-      </c>
-      <c r="R54">
-        <v>35669091</v>
-      </c>
-      <c r="S54">
-        <v>431136</v>
-      </c>
-      <c r="T54">
-        <v>58292308</v>
-      </c>
-      <c r="U54">
-        <v>51345</v>
-      </c>
-      <c r="V54">
-        <v>181720</v>
-      </c>
-      <c r="W54">
-        <v>22621</v>
-      </c>
-      <c r="X54">
-        <v>22621</v>
-      </c>
-      <c r="Y54">
-        <v>83332</v>
-      </c>
-      <c r="Z54">
-        <v>800000</v>
-      </c>
-      <c r="AA54">
-        <v>183785</v>
-      </c>
-      <c r="AB54">
-        <v>48465</v>
-      </c>
-      <c r="AC54">
-        <v>683043</v>
-      </c>
-      <c r="AD54">
-        <v>21932</v>
-      </c>
-      <c r="AE54">
-        <v>52000</v>
-      </c>
-      <c r="AF54">
-        <v>498659</v>
-      </c>
-      <c r="AG54">
-        <v>809868</v>
-      </c>
-      <c r="AH54">
-        <v>888000</v>
-      </c>
-      <c r="AI54">
-        <v>173310</v>
+        <v>1325</v>
+      </c>
+      <c r="B54" s="4">
+        <v>41905.56</v>
+      </c>
+      <c r="C54" s="4">
+        <v>47196</v>
+      </c>
+      <c r="D54" s="4">
+        <v>28203.1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>56666.67</v>
+      </c>
+      <c r="F54" s="4">
+        <v>36856.550000000003</v>
+      </c>
+      <c r="G54" s="4">
+        <v>42312.35</v>
+      </c>
+      <c r="H54" s="4">
+        <v>95601.32</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5026464.96</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1100390.67</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
+        <v>107849</v>
+      </c>
+      <c r="M54" s="4">
+        <v>92583.96</v>
+      </c>
+      <c r="N54" s="4">
+        <v>49685.07</v>
+      </c>
+      <c r="O54" s="4">
+        <v>45823.55</v>
+      </c>
+      <c r="P54" s="4">
+        <v>58549.63</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>88345</v>
+      </c>
+      <c r="R54" s="4">
+        <v>36668581.75</v>
+      </c>
+      <c r="S54" s="4">
+        <v>437862.67</v>
+      </c>
+      <c r="T54" s="4">
+        <v>58292307.689999998</v>
+      </c>
+      <c r="U54" s="4">
+        <v>53065.71</v>
+      </c>
+      <c r="V54" s="4">
+        <v>188384.35</v>
+      </c>
+      <c r="W54" s="4">
+        <v>22532.82</v>
+      </c>
+      <c r="X54" s="4">
+        <v>85096.07</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>857857.14</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>198260.8</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>48329.05</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>696034</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>23367.96</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>52300</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>878400</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>508897</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>807341.6</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>920000</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>201089.89</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H56" t="s">
         <v>1367</v>
       </c>
-      <c r="B56" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1373</v>
+      <c r="L56" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1315</v>
+      </c>
       <c r="B57">
         <v>12537</v>
       </c>
@@ -18922,13 +19122,20 @@
         <v>25044</v>
       </c>
       <c r="F57">
-        <v>8081</v>
+        <v>8391</v>
       </c>
       <c r="H57">
         <v>24281</v>
       </c>
+      <c r="L57" s="4">
+        <v>16178</v>
+      </c>
+      <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1316</v>
+      </c>
       <c r="B58">
         <v>16009</v>
       </c>
@@ -18942,13 +19149,19 @@
         <v>31951</v>
       </c>
       <c r="F58">
-        <v>10928</v>
+        <v>11687</v>
       </c>
       <c r="H58">
         <v>31934</v>
       </c>
+      <c r="L58" s="4">
+        <v>28686</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1317</v>
+      </c>
       <c r="B59">
         <v>17502</v>
       </c>
@@ -18962,13 +19175,19 @@
         <v>34849</v>
       </c>
       <c r="F59">
-        <v>12314</v>
+        <v>13090</v>
       </c>
       <c r="H59">
         <v>35095</v>
       </c>
+      <c r="L59" s="4">
+        <v>34583</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1318</v>
+      </c>
       <c r="B60">
         <v>18952</v>
       </c>
@@ -18982,13 +19201,19 @@
         <v>37388</v>
       </c>
       <c r="F60">
-        <v>13611</v>
+        <v>14387</v>
       </c>
       <c r="H60">
         <v>37777</v>
       </c>
+      <c r="L60" s="4">
+        <v>41177</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1319</v>
+      </c>
       <c r="B61">
         <v>21557</v>
       </c>
@@ -19002,13 +19227,19 @@
         <v>42263</v>
       </c>
       <c r="F61">
-        <v>15901</v>
+        <v>16887</v>
       </c>
       <c r="H61">
         <v>43803</v>
       </c>
+      <c r="L61" s="4">
+        <v>53850</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1320</v>
+      </c>
       <c r="B62">
         <v>24179</v>
       </c>
@@ -19022,13 +19253,19 @@
         <v>47084</v>
       </c>
       <c r="F62">
-        <v>18316</v>
+        <v>19307</v>
       </c>
       <c r="H62">
         <v>49560</v>
       </c>
+      <c r="L62" s="4">
+        <v>68867</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1321</v>
+      </c>
       <c r="B63">
         <v>27006</v>
       </c>
@@ -19042,13 +19279,19 @@
         <v>52351</v>
       </c>
       <c r="F63">
-        <v>20856</v>
+        <v>22172</v>
       </c>
       <c r="H63">
         <v>56220</v>
       </c>
+      <c r="L63" s="4">
+        <v>87089</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1322</v>
+      </c>
       <c r="B64">
         <v>30635</v>
       </c>
@@ -19062,13 +19305,19 @@
         <v>59046</v>
       </c>
       <c r="F64">
-        <v>23987</v>
+        <v>25381</v>
       </c>
       <c r="H64">
         <v>63479</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L64" s="4">
+        <v>109815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1323</v>
+      </c>
       <c r="B65">
         <v>32816</v>
       </c>
@@ -19082,13 +19331,19 @@
         <v>62955</v>
       </c>
       <c r="F65">
-        <v>26032</v>
+        <v>27399</v>
       </c>
       <c r="H65">
         <v>68083</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L65" s="4">
+        <v>124079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1324</v>
+      </c>
       <c r="B66">
         <v>35361</v>
       </c>
@@ -19102,13 +19357,19 @@
         <v>68338</v>
       </c>
       <c r="F66">
-        <v>28345</v>
+        <v>29828</v>
       </c>
       <c r="H66">
         <v>74078</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L66" s="4">
+        <v>142989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1325</v>
+      </c>
       <c r="B67">
         <v>44071</v>
       </c>
@@ -19122,10 +19383,541 @@
         <v>84067</v>
       </c>
       <c r="F67">
-        <v>35878</v>
+        <v>37303</v>
       </c>
       <c r="H67">
         <v>92421</v>
+      </c>
+      <c r="L67" s="4">
+        <v>203016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" t="s">
+        <v>264</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>265</v>
+      </c>
+      <c r="K69" t="s">
+        <v>266</v>
+      </c>
+      <c r="L69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6078.1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>6383</v>
+      </c>
+      <c r="D70" s="4">
+        <v>358.4</v>
+      </c>
+      <c r="E70" s="4">
+        <v>11230.2</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4649</v>
+      </c>
+      <c r="G70" s="4">
+        <v>6145.9</v>
+      </c>
+      <c r="H70" s="4">
+        <v>14025.6</v>
+      </c>
+      <c r="I70" s="4">
+        <v>460802.5</v>
+      </c>
+      <c r="J70" s="4">
+        <v>139458.70000000001</v>
+      </c>
+      <c r="K70" s="4">
+        <v>10775.6</v>
+      </c>
+      <c r="L70" s="4">
+        <v>9228.6</v>
+      </c>
+      <c r="M70" s="4">
+        <v>4613625.5</v>
+      </c>
+      <c r="N70" s="4">
+        <v>6790.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B71" s="4">
+        <v>17930.400000000001</v>
+      </c>
+      <c r="C71" s="4">
+        <v>18829.900000000001</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8257.4</v>
+      </c>
+      <c r="E71" s="4">
+        <v>33129.1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>13714.7</v>
+      </c>
+      <c r="G71" s="4">
+        <v>18130.3</v>
+      </c>
+      <c r="H71" s="4">
+        <v>41375.699999999997</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1359367.5</v>
+      </c>
+      <c r="J71" s="4">
+        <v>411403.1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>31788</v>
+      </c>
+      <c r="L71" s="4">
+        <v>20997.1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>13610196</v>
+      </c>
+      <c r="N71" s="4">
+        <v>21717.200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B72" s="4">
+        <v>20676.7</v>
+      </c>
+      <c r="C72" s="4">
+        <v>22283.9</v>
+      </c>
+      <c r="D72" s="4">
+        <v>12726.9</v>
+      </c>
+      <c r="E72" s="4">
+        <v>38253.4</v>
+      </c>
+      <c r="F72" s="4">
+        <v>15588.7</v>
+      </c>
+      <c r="G72" s="4">
+        <v>20490</v>
+      </c>
+      <c r="H72" s="4">
+        <v>47905.3</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1752374.6</v>
+      </c>
+      <c r="J72" s="4">
+        <v>464634.9</v>
+      </c>
+      <c r="K72" s="4">
+        <v>35422.6</v>
+      </c>
+      <c r="L72" s="4">
+        <v>24175.1</v>
+      </c>
+      <c r="M72" s="4">
+        <v>17541398</v>
+      </c>
+      <c r="N72" s="4">
+        <v>28571.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B73" s="4">
+        <v>23351.3</v>
+      </c>
+      <c r="C73" s="4">
+        <v>25165.4</v>
+      </c>
+      <c r="D73" s="4">
+        <v>15434.7</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43225.7</v>
+      </c>
+      <c r="F73" s="4">
+        <v>17109.7</v>
+      </c>
+      <c r="G73" s="4">
+        <v>23135.8</v>
+      </c>
+      <c r="H73" s="4">
+        <v>52516.1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2188251.5</v>
+      </c>
+      <c r="J73" s="4">
+        <v>511788.2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>41271</v>
+      </c>
+      <c r="L73" s="4">
+        <v>28126.400000000001</v>
+      </c>
+      <c r="M73" s="4">
+        <v>21917586</v>
+      </c>
+      <c r="N73" s="4">
+        <v>35050.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B74" s="4">
+        <v>30297.4</v>
+      </c>
+      <c r="C74" s="4">
+        <v>30985.5</v>
+      </c>
+      <c r="D74" s="4">
+        <v>20989</v>
+      </c>
+      <c r="E74" s="4">
+        <v>53705.8</v>
+      </c>
+      <c r="F74" s="4">
+        <v>20392.5</v>
+      </c>
+      <c r="G74" s="4">
+        <v>28314.400000000001</v>
+      </c>
+      <c r="H74" s="4">
+        <v>62869.9</v>
+      </c>
+      <c r="I74" s="4">
+        <v>3067746.3</v>
+      </c>
+      <c r="J74" s="4">
+        <v>615778.6</v>
+      </c>
+      <c r="K74" s="4">
+        <v>49012.2</v>
+      </c>
+      <c r="L74" s="4">
+        <v>38865.1</v>
+      </c>
+      <c r="M74" s="4">
+        <v>30778044</v>
+      </c>
+      <c r="N74" s="4">
+        <v>47247.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B75" s="4">
+        <v>37074.9</v>
+      </c>
+      <c r="C75" s="4">
+        <v>37286</v>
+      </c>
+      <c r="D75" s="4">
+        <v>26071.4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>63501.5</v>
+      </c>
+      <c r="F75" s="4">
+        <v>24444.799999999999</v>
+      </c>
+      <c r="G75" s="4">
+        <v>33390.800000000003</v>
+      </c>
+      <c r="H75" s="4">
+        <v>72742.2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>3845050.8</v>
+      </c>
+      <c r="J75" s="4">
+        <v>714173.8</v>
+      </c>
+      <c r="K75" s="4">
+        <v>65862.399999999994</v>
+      </c>
+      <c r="L75" s="4">
+        <v>50166.5</v>
+      </c>
+      <c r="M75" s="4">
+        <v>38680148</v>
+      </c>
+      <c r="N75" s="4">
+        <v>59143.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B76" s="4">
+        <v>43624.800000000003</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44189</v>
+      </c>
+      <c r="D76" s="4">
+        <v>31337.3</v>
+      </c>
+      <c r="E76" s="4">
+        <v>73984.3</v>
+      </c>
+      <c r="F76" s="4">
+        <v>28752.1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>39412.400000000001</v>
+      </c>
+      <c r="H76" s="4">
+        <v>82784.3</v>
+      </c>
+      <c r="I76" s="4">
+        <v>4392949.5</v>
+      </c>
+      <c r="J76" s="4">
+        <v>853768.3</v>
+      </c>
+      <c r="K76" s="4">
+        <v>83483.199999999997</v>
+      </c>
+      <c r="L76" s="4">
+        <v>64944.6</v>
+      </c>
+      <c r="M76" s="4">
+        <v>44360744</v>
+      </c>
+      <c r="N76" s="4">
+        <v>71467.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B77" s="4">
+        <v>50815.3</v>
+      </c>
+      <c r="C77" s="4">
+        <v>53022.2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>37956.1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>87004</v>
+      </c>
+      <c r="F77" s="4">
+        <v>33740.199999999997</v>
+      </c>
+      <c r="G77" s="4">
+        <v>47140.5</v>
+      </c>
+      <c r="H77" s="4">
+        <v>94901.3</v>
+      </c>
+      <c r="I77" s="4">
+        <v>4644803.5</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1015481.7</v>
+      </c>
+      <c r="K77" s="4">
+        <v>110460.1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>83331.7</v>
+      </c>
+      <c r="M77" s="4">
+        <v>46916760</v>
+      </c>
+      <c r="N77" s="4">
+        <v>87715.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B78" s="4">
+        <v>55410.9</v>
+      </c>
+      <c r="C78" s="4">
+        <v>58865.8</v>
+      </c>
+      <c r="D78" s="4">
+        <v>42168.2</v>
+      </c>
+      <c r="E78" s="4">
+        <v>95817.7</v>
+      </c>
+      <c r="F78" s="4">
+        <v>36803.5</v>
+      </c>
+      <c r="G78" s="4">
+        <v>51824.6</v>
+      </c>
+      <c r="H78" s="4">
+        <v>102102.5</v>
+      </c>
+      <c r="I78" s="4">
+        <v>4676404</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1115791.8</v>
+      </c>
+      <c r="K78" s="4">
+        <v>129964.9</v>
+      </c>
+      <c r="L78" s="4">
+        <v>95172.3</v>
+      </c>
+      <c r="M78" s="4">
+        <v>46933868</v>
+      </c>
+      <c r="N78" s="4">
+        <v>97356.800000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B79" s="4">
+        <v>60296.4</v>
+      </c>
+      <c r="C79" s="4">
+        <v>65544</v>
+      </c>
+      <c r="D79" s="4">
+        <v>47406.2</v>
+      </c>
+      <c r="E79" s="4">
+        <v>108004.8</v>
+      </c>
+      <c r="F79" s="4">
+        <v>40629.199999999997</v>
+      </c>
+      <c r="G79" s="4">
+        <v>57570</v>
+      </c>
+      <c r="H79" s="4">
+        <v>111637.8</v>
+      </c>
+      <c r="I79" s="4">
+        <v>4729980.5</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1265519.3</v>
+      </c>
+      <c r="K79" s="4">
+        <v>153090.1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>110384.5</v>
+      </c>
+      <c r="M79" s="4">
+        <v>46934076</v>
+      </c>
+      <c r="N79" s="4">
+        <v>109565.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B80" s="4">
+        <v>81117.100000000006</v>
+      </c>
+      <c r="C80" s="4">
+        <v>92009.4</v>
+      </c>
+      <c r="D80" s="4">
+        <v>65838</v>
+      </c>
+      <c r="E80" s="4">
+        <v>146150.70000000001</v>
+      </c>
+      <c r="F80" s="4">
+        <v>52773.2</v>
+      </c>
+      <c r="G80" s="4">
+        <v>78656.899999999994</v>
+      </c>
+      <c r="H80" s="4">
+        <v>146376.79999999999</v>
+      </c>
+      <c r="I80" s="4">
+        <v>6930031.5</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1826221.5</v>
+      </c>
+      <c r="K80" s="4">
+        <v>283212.7</v>
+      </c>
+      <c r="L80" s="4">
+        <v>165346.29999999999</v>
+      </c>
+      <c r="M80" s="4">
+        <v>52612360</v>
+      </c>
+      <c r="N80" s="4">
+        <v>149432</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="28380" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1464">
   <si>
     <t>Country</t>
   </si>
@@ -4371,18 +4371,73 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>median loss from GCS in 2030 (LCU)</t>
+  </si>
+  <si>
+    <t>median loss from GCS in 2030 ($)</t>
+  </si>
+  <si>
+    <t>Median/Average carbon footprint</t>
+  </si>
+  <si>
+    <t>net loss GCS ($/month)</t>
+  </si>
+  <si>
+    <t>Adult pop 2030</t>
+  </si>
+  <si>
+    <t>e/E global emission share</t>
+  </si>
+  <si>
+    <t>Pop &gt;14 2015</t>
+  </si>
+  <si>
+    <t>Pop &gt;14 2030</t>
+  </si>
+  <si>
+    <t>average carbon footprint</t>
+  </si>
+  <si>
+    <t>US individual average of deciles 5 and 6 (or 4 to 7) over individual average, from Fremstad &amp; Paul (2019)</t>
+  </si>
+  <si>
+    <t>UN World Population Prospects (2017) POP/7-1</t>
+  </si>
+  <si>
+    <t>UK 82% from Ivanova &amp; Wood (2020) Supplementary material (Table 6)</t>
+  </si>
+  <si>
+    <t>EU from Ivanova &amp; Wood (2020)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_countries_by_greenhouse_gas_emissions</t>
+  </si>
+  <si>
+    <t>e national emission (GHG territorial 2023)</t>
+  </si>
+  <si>
+    <t>Carbon tax revenues in 2030</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Revenue pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="171" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -4542,7 +4597,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4622,10 +4677,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4637,6 +4689,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4919,24 +4981,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X143"/>
+  <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -4985,6 +5046,9 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>254</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6290,6 +6354,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
       <c r="N33" s="7"/>
@@ -6299,628 +6364,1023 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B34" s="35">
-        <f>(C$3*C34+D$3*D34+E$3*E34+F$3*F34+G$3*G34+H$3*H34+I$3*I34)/5000</f>
-        <v>20.4313</v>
-      </c>
-      <c r="C34" s="35">
-        <v>16.3</v>
-      </c>
-      <c r="D34" s="35">
-        <v>16.7</v>
-      </c>
-      <c r="E34" s="35">
-        <v>34.5</v>
-      </c>
-      <c r="F34" s="35">
-        <v>5.7</v>
-      </c>
-      <c r="G34" s="35">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H34" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="I34" s="35">
-        <v>13.7</v>
-      </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="35">
-        <v>8</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="A34" s="44" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B35" s="35">
-        <f t="shared" ref="B35:B36" si="0">(C$3*C35+D$3*D35+E$3*E35+F$3*F35+G$3*G35+H$3*H35+I$3*I35)/5000</f>
-        <v>40.694020000000009</v>
-      </c>
-      <c r="C35" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="D35" s="6">
-        <v>49.9</v>
-      </c>
-      <c r="E35" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="F35" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="G35" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="H35" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="I35" s="6">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6">
-        <v>41.3</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="A35" s="44" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B36" s="35">
+      <c r="A36" s="64" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="C36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="D36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="G36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="H36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="I36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="J36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="K36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="M36" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1455</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6">
+        <f>(C40*(C42/C41)*$O$41/$O$42)*$O$40/C41/12-$O$37</f>
+        <v>-5.8213445601484608</v>
+      </c>
+      <c r="D37" s="6">
+        <f>(D40*(D42/D41)*$O$41/$O$42)*$O$40/D41/12-$O$37</f>
+        <v>-0.3339862452499105</v>
+      </c>
+      <c r="E37" s="6">
+        <f>(E40*(E42/E41)*$O$41/$O$42)*$O$40/E41/12-$O$37</f>
+        <v>-7.7350194066496059</v>
+      </c>
+      <c r="F37" s="6">
+        <f>(F40*(F42/F41)*$O$41/$O$42)*$O$40/F41/12-$O$37</f>
+        <v>3.8636804858914395</v>
+      </c>
+      <c r="G37" s="6">
+        <f>(G40*(G42/G41)*$O$41/$O$42)*$O$40/G41/12-$O$37</f>
+        <v>-7.1482464460668851</v>
+      </c>
+      <c r="H37" s="6">
+        <f>(H40*(H42/H41)*$O$41/$O$42)*$O$40/H41/12-$O$37</f>
+        <v>-6.4453959508781153</v>
+      </c>
+      <c r="I37" s="6">
+        <f>(I40*(I42/I41)*$O$41/$O$42)*$O$40/I41/12-$O$37</f>
+        <v>-9.1677437344968986</v>
+      </c>
+      <c r="J37" s="6">
+        <f>(J40*(J42/J41)*$O$41/$O$42)*$O$40/J41/12-$O$37</f>
+        <v>-2.3386660245131097</v>
+      </c>
+      <c r="K37" s="6">
+        <f>(K40*(K42/K41)*$O$41/$O$42)*$O$40/K41/12-$O$37</f>
+        <v>37.311076166399275</v>
+      </c>
+      <c r="L37" s="6">
+        <f>(L40*(L42/L41)*$O$41/$O$42)*$O$40/L41/12-$O$37</f>
+        <v>111.38326162942874</v>
+      </c>
+      <c r="M37" s="6">
+        <f>(M40*(M42/M41)*$O$41/$O$42)*$O$40/M41/12-$O$37</f>
+        <v>50.307426568214552</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O37" s="9">
+        <f>O40/O42/12</f>
+        <v>30.22537731649803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="66">
+        <v>54111901.200000003</v>
+      </c>
+      <c r="D38" s="66">
+        <v>68790855.400000006</v>
+      </c>
+      <c r="E38" s="66">
+        <v>49348414.399999999</v>
+      </c>
+      <c r="F38" s="66">
+        <v>30809621.599999998</v>
+      </c>
+      <c r="G38" s="66">
+        <v>39183865</v>
+      </c>
+      <c r="H38" s="66">
+        <v>56025497.79999999</v>
+      </c>
+      <c r="I38" s="66">
+        <v>7553446.4000000004</v>
+      </c>
+      <c r="J38" s="66">
+        <v>103484205.8</v>
+      </c>
+      <c r="K38" s="66">
+        <v>110678564.59999999</v>
+      </c>
+      <c r="L38" s="66">
+        <v>29158395.599999994</v>
+      </c>
+      <c r="M38" s="66">
+        <v>277698298.59999996</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>385520</v>
+      </c>
+      <c r="D39" s="2">
+        <v>681810</v>
+      </c>
+      <c r="E39" s="2">
+        <v>374124</v>
+      </c>
+      <c r="F39" s="2">
+        <v>363794</v>
+      </c>
+      <c r="G39" s="2">
+        <v>285383</v>
+      </c>
+      <c r="H39" s="2">
+        <v>379318</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43446</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1041012</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2672039</v>
+      </c>
+      <c r="L39" s="2">
+        <v>805158</v>
+      </c>
+      <c r="M39" s="2">
+        <v>5960804</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O39">
+        <v>52962900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="68">
+        <f>C39/$O39</f>
+        <v>7.2790576044740752E-3</v>
+      </c>
+      <c r="D40" s="68">
+        <f>D39/$O39</f>
+        <v>1.2873350968319333E-2</v>
+      </c>
+      <c r="E40" s="68">
+        <f>E39/$O39</f>
+        <v>7.0638881179089516E-3</v>
+      </c>
+      <c r="F40" s="68">
+        <f>F39/$O39</f>
+        <v>6.8688459279986555E-3</v>
+      </c>
+      <c r="G40" s="68">
+        <f>G39/$O39</f>
+        <v>5.3883567553891501E-3</v>
+      </c>
+      <c r="H40" s="68">
+        <f>H39/$O39</f>
+        <v>7.1619567659625891E-3</v>
+      </c>
+      <c r="I40" s="68">
+        <f>I39/$O39</f>
+        <v>8.2031006610287576E-4</v>
+      </c>
+      <c r="J40" s="68">
+        <f>J39/$O39</f>
+        <v>1.9655494695343344E-2</v>
+      </c>
+      <c r="K40" s="68">
+        <f>K39/$O39</f>
+        <v>5.0451145990872859E-2</v>
+      </c>
+      <c r="L40" s="68">
+        <f>L39/$O39</f>
+        <v>1.5202301988750616E-2</v>
+      </c>
+      <c r="M40" s="68">
+        <f>M39/$O39</f>
+        <v>0.11254678274792354</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1461</v>
+      </c>
+      <c r="O40" s="13">
+        <v>2367000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="67">
+        <v>52684006.999999993</v>
+      </c>
+      <c r="D41" s="67">
+        <v>70988739.999999985</v>
+      </c>
+      <c r="E41" s="67">
+        <v>51336241</v>
+      </c>
+      <c r="F41" s="67">
+        <v>32569900</v>
+      </c>
+      <c r="G41" s="67">
+        <v>39480741</v>
+      </c>
+      <c r="H41" s="67">
+        <v>53897216.999999993</v>
+      </c>
+      <c r="I41" s="67">
+        <v>7089710</v>
+      </c>
+      <c r="J41" s="67">
+        <v>111349449</v>
+      </c>
+      <c r="K41" s="67">
+        <v>119667855.99999996</v>
+      </c>
+      <c r="L41" s="67">
+        <v>23352752.000000004</v>
+      </c>
+      <c r="M41" s="67">
+        <v>258461619</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O41">
+        <v>5452476469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="66">
+        <v>56464893</v>
+      </c>
+      <c r="D42" s="66">
+        <v>71001565</v>
+      </c>
+      <c r="E42" s="66">
+        <v>50913758</v>
+      </c>
+      <c r="F42" s="66">
+        <v>31944679.999999996</v>
+      </c>
+      <c r="G42" s="66">
+        <v>40507042</v>
+      </c>
+      <c r="H42" s="66">
+        <v>58525746.999999993</v>
+      </c>
+      <c r="I42" s="66">
+        <v>7829300</v>
+      </c>
+      <c r="J42" s="66">
+        <v>106739198</v>
+      </c>
+      <c r="K42" s="66">
+        <v>116320619</v>
+      </c>
+      <c r="L42" s="66">
+        <v>30824141.999999993</v>
+      </c>
+      <c r="M42" s="66">
+        <v>290045628.99999994</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1456</v>
+      </c>
+      <c r="O42">
+        <v>6525973123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="9">
+        <f>1000*C39/C41</f>
+        <v>7.3175907064168459</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" ref="D43:M43" si="0">1000*D39/D41</f>
+        <v>9.6044809359906953</v>
+      </c>
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
-        <v>38.83728</v>
-      </c>
-      <c r="C36" s="6">
-        <v>42.4</v>
-      </c>
-      <c r="D36" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="E36" s="6">
-        <v>21.6</v>
-      </c>
-      <c r="F36" s="6">
-        <v>37.9</v>
-      </c>
-      <c r="G36" s="6">
-        <v>41.4</v>
-      </c>
-      <c r="H36" s="6">
-        <v>52.7</v>
-      </c>
-      <c r="I36" s="6">
-        <v>46</v>
-      </c>
-      <c r="J36" s="6">
-        <v>56</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="23"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1176</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M43" s="32" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+        <v>7.2877170730128062</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>11.169638224249997</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="0"/>
+        <v>7.2284104292774041</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0378030835989183</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="0"/>
+        <v>6.1280362666456032</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="0"/>
+        <v>9.3490538960816956</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="0"/>
+        <v>22.328794793482395</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="0"/>
+        <v>34.478077787149019</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="0"/>
+        <v>23.062627337330113</v>
+      </c>
+      <c r="O43" s="9">
+        <f>O39*1000/O42</f>
+        <v>8.1157091826410817</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>1002</v>
-      </c>
+      <c r="A44"/>
       <c r="B44" s="2"/>
-      <c r="D44" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M44" s="32" t="s">
-        <v>1160</v>
-      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>1205</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="B45" s="35">
+        <f>(C$3*C45+D$3*D45+E$3*E45+F$3*F45+G$3*G45+H$3*H45+I$3*I45)/5000</f>
+        <v>20.4313</v>
+      </c>
+      <c r="C45" s="35">
+        <v>16.3</v>
+      </c>
+      <c r="D45" s="35">
+        <v>16.7</v>
+      </c>
+      <c r="E45" s="35">
+        <v>34.5</v>
+      </c>
+      <c r="F45" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="G45" s="35">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H45" s="35">
+        <v>17.8</v>
+      </c>
+      <c r="I45" s="35">
+        <v>13.7</v>
+      </c>
+      <c r="J45" s="35"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="35">
+        <v>8</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+        <v>1022</v>
+      </c>
+      <c r="B46" s="35">
+        <f t="shared" ref="B46:B47" si="1">(C$3*C46+D$3*D46+E$3*E46+F$3*F46+G$3*G46+H$3*H46+I$3*I46)/5000</f>
+        <v>40.694020000000009</v>
+      </c>
+      <c r="C46" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="E46" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="F46" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="G46" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="H46" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="I46" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B47" s="35">
+        <f t="shared" si="1"/>
+        <v>38.83728</v>
+      </c>
+      <c r="C47" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="D47" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="E47" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="F47" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="G47" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="H47" s="6">
+        <v>52.7</v>
+      </c>
+      <c r="I47" s="6">
+        <v>46</v>
+      </c>
+      <c r="J47" s="6">
+        <v>56</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="43"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="23"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M54" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="D55" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K56" s="32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
         <v>1036</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D58" t="s">
         <v>1011</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>1231</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G58" t="s">
         <v>1044</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H58" t="s">
         <v>1018</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I58" t="s">
         <v>1219</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J58" s="32" t="s">
         <v>1238</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K58" s="32" t="s">
         <v>1244</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L58" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M58" s="32" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65"/>
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="32"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="32"/>
+      <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
@@ -6931,9 +7391,14 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="5"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="2"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
@@ -6944,30 +7409,29 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="5"/>
-      <c r="L71" s="6"/>
+      <c r="J71" s="2"/>
+      <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
@@ -6981,10 +7445,6 @@
       <c r="J73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
@@ -6999,33 +7459,34 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-    </row>
-    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="M77" s="31"/>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="M76" s="31"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="24"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -7054,21 +7515,21 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="24"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -7100,31 +7561,31 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="M84" s="31"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="31"/>
+      <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
@@ -7153,6 +7614,11 @@
       <c r="J87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
@@ -7186,11 +7652,6 @@
       <c r="J89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
@@ -7261,6 +7722,8 @@
       <c r="J94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
@@ -7275,115 +7738,99 @@
       <c r="J95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95" s="1"/>
       <c r="O95" s="2"/>
+      <c r="R95" s="8"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="2"/>
-      <c r="R96" s="8"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="6"/>
+      <c r="O99" s="4"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="6"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L104" s="2"/>
-    </row>
-    <row r="143" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="142" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10434,7 +10881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
@@ -11600,46 +12047,46 @@
       <c r="B24" t="s">
         <v>524</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="57">
         <v>40</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <v>40</v>
       </c>
       <c r="E24" t="s">
         <v>1414</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>587</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="57">
         <v>40</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="57">
         <v>40</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="57">
         <v>40</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="57">
         <v>40</v>
       </c>
       <c r="L24" t="s">
         <v>551</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="57">
         <v>40</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="57">
         <v>40</v>
       </c>
-      <c r="O24" s="58">
+      <c r="O24" s="57">
         <v>40</v>
       </c>
-      <c r="P24" s="58">
+      <c r="P24" s="57">
         <v>40</v>
       </c>
     </row>
@@ -11993,163 +12440,163 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+    <row r="32" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="59">
         <v>128</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="59">
         <v>128</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="59">
         <v>128</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="59">
         <v>128</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="59">
         <v>128</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="59">
         <v>154</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="59">
         <v>154</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="59">
         <v>154</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="59">
         <v>155</v>
       </c>
-      <c r="K32" s="60">
+      <c r="K32" s="59">
         <v>155</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="59">
         <v>155</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="59">
         <v>155</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="59">
         <v>155</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="59">
         <v>155</v>
       </c>
-      <c r="P32" s="60">
+      <c r="P32" s="59">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="60">
         <v>118</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="60">
         <v>118</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="60">
         <v>118</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="60">
         <v>118</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="60">
         <v>118</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="60">
         <v>144</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33" s="60">
         <v>144</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33" s="60">
         <v>144</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33" s="60">
         <v>145</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="61">
         <v>145</v>
       </c>
-      <c r="L33" s="61">
+      <c r="L33" s="60">
         <v>145</v>
       </c>
-      <c r="M33" s="61">
+      <c r="M33" s="60">
         <v>145</v>
       </c>
-      <c r="N33" s="61">
+      <c r="N33" s="60">
         <v>145</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33" s="60">
         <v>145</v>
       </c>
-      <c r="P33" s="61">
+      <c r="P33" s="60">
         <v>145</v>
       </c>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-    </row>
-    <row r="34" spans="1:26" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+    </row>
+    <row r="34" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="59" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="59" t="s">
         <v>651</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="59" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>653</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="59" t="s">
         <v>654</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="59" t="s">
         <v>580</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="59" t="s">
         <v>655</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="K34" s="60" t="s">
+      <c r="K34" s="59" t="s">
         <v>657</v>
       </c>
-      <c r="L34" s="60" t="s">
+      <c r="L34" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="M34" s="60" t="s">
+      <c r="M34" s="59" t="s">
         <v>659</v>
       </c>
-      <c r="N34" s="60" t="s">
+      <c r="N34" s="59" t="s">
         <v>660</v>
       </c>
-      <c r="O34" s="60" t="s">
+      <c r="O34" s="59" t="s">
         <v>658</v>
       </c>
-      <c r="P34" s="60" t="s">
+      <c r="P34" s="59" t="s">
         <v>661</v>
       </c>
     </row>
@@ -21800,13 +22247,13 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1525">
   <si>
     <t>Country</t>
   </si>
@@ -2420,9 +2420,6 @@
     <t>Polski PKB</t>
   </si>
   <si>
-    <t>Zysk netto na osobę\ndorosłą wynikający z\nglobalnego programu klimatycznego\nw 2030 r.\n(w % PKB)</t>
-  </si>
-  <si>
     <t>Nieuczestniczący</t>
   </si>
   <si>
@@ -3671,36 +3668,6 @@
     <t>before-tax (gross/brutto) monthly</t>
   </si>
   <si>
-    <t>ISCED 0-1 (primary or less), cf. https://gpseducation.oecd.org/CountryProfile</t>
-  </si>
-  <si>
-    <t>Szkoła podstawowa lub niższe</t>
-  </si>
-  <si>
-    <t>Świadectwo dojrzałości lub Świadectwo ukończenia szkoły</t>
-  </si>
-  <si>
-    <t>Dyplom zawodowy lub świadectwo ukończenia branżowej szkoły II stopnia</t>
-  </si>
-  <si>
-    <t>Świadectwo czeladnicze lub świadectwo ukończenia branżowej szkoły I stopnia</t>
-  </si>
-  <si>
-    <t>Niektóre szkoły średnie</t>
-  </si>
-  <si>
-    <t>Świadectwo dyplomowanego specjalisty</t>
-  </si>
-  <si>
-    <t>Licencjat lub inżynier</t>
-  </si>
-  <si>
-    <t>Magister, magister inżynier lub więcej</t>
-  </si>
-  <si>
-    <t>Świadectwo ukończenia szkoły policealnej</t>
-  </si>
-  <si>
     <t>初等教育以下</t>
   </si>
   <si>
@@ -3752,9 +3719,6 @@
     <t>التعليم الابتدائي أو أقل</t>
   </si>
   <si>
-    <t>بعض المدارس الثانوية</t>
-  </si>
-  <si>
     <t>المعاهد الثانوية الصناعية والبناء الصناعي</t>
   </si>
   <si>
@@ -4497,6 +4461,153 @@
   </si>
   <si>
     <t>emissions_low_without</t>
+  </si>
+  <si>
+    <t>Podstawowe lub brak</t>
+  </si>
+  <si>
+    <t>Zasadnicze zawodowe</t>
+  </si>
+  <si>
+    <t>Średnie zawodowe</t>
+  </si>
+  <si>
+    <t>Średnie ogólne</t>
+  </si>
+  <si>
+    <t>Policealne / pomaturalne</t>
+  </si>
+  <si>
+    <t>Specjalistyczne / kolegium</t>
+  </si>
+  <si>
+    <t>Wyższe licencjackie lub równorzędne</t>
+  </si>
+  <si>
+    <t>Wyższe magisterskie lub więcej</t>
+  </si>
+  <si>
+    <t>educ_1</t>
+  </si>
+  <si>
+    <t>educ_2</t>
+  </si>
+  <si>
+    <t>educ_3</t>
+  </si>
+  <si>
+    <t>educ_4</t>
+  </si>
+  <si>
+    <t>educ_5</t>
+  </si>
+  <si>
+    <t>educ_6</t>
+  </si>
+  <si>
+    <t>educ_7</t>
+  </si>
+  <si>
+    <t>educ_8</t>
+  </si>
+  <si>
+    <t>Niveau secondaire I</t>
+  </si>
+  <si>
+    <t>Secondaire II sans diplôme</t>
+  </si>
+  <si>
+    <t>Formation professionnelle initiale ou maturité professionnelle</t>
+  </si>
+  <si>
+    <t>Maturité gymnasiale ou maturité spécialisée</t>
+  </si>
+  <si>
+    <t>Formation continue</t>
+  </si>
+  <si>
+    <t>Bachelor ou équivalent (ES, examen professionnel, certificat fédéral de capacité)</t>
+  </si>
+  <si>
+    <t>Master ou plus</t>
+  </si>
+  <si>
+    <t>Livello primario o inferiore</t>
+  </si>
+  <si>
+    <t>Livello secondario inferiore</t>
+  </si>
+  <si>
+    <t>Livello secondario II senza qualifica</t>
+  </si>
+  <si>
+    <t>Formazione professionale di base o diploma di maturità professionale</t>
+  </si>
+  <si>
+    <t>Diploma di maturità o diploma di maturità specializzata</t>
+  </si>
+  <si>
+    <t>Formazione continua</t>
+  </si>
+  <si>
+    <t>Laurea triennale o equivalente (HF, esame professionale, attestato federale)</t>
+  </si>
+  <si>
+    <t>Laurea specialistica o superiore</t>
+  </si>
+  <si>
+    <t>Primary level or less</t>
+  </si>
+  <si>
+    <t>Lower secondary level</t>
+  </si>
+  <si>
+    <t>Secondary level II without qualification</t>
+  </si>
+  <si>
+    <t>Basic vocational training or vocational baccalaureate</t>
+  </si>
+  <si>
+    <t>Gymnasium baccalaureate or specialized baccalaureate</t>
+  </si>
+  <si>
+    <t>Further education</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or equivalent (HF, professional examination, federal certificate)</t>
+  </si>
+  <si>
+    <t>Master's degree or more</t>
+  </si>
+  <si>
+    <t>Primaria o menos</t>
+  </si>
+  <si>
+    <t>Octavo grado</t>
+  </si>
+  <si>
+    <t>Algunos estudios secundarios</t>
+  </si>
+  <si>
+    <t>Bachillerato ordinario/GED o credencial alternativa</t>
+  </si>
+  <si>
+    <t>Formación profesional o estudios universitarios sin titulación</t>
+  </si>
+  <si>
+    <t>Diplomatura o licenciatura universitaria de dos años (por ejemplo: AA, AS)</t>
+  </si>
+  <si>
+    <t>Licenciatura (por ejemplo: BA, BS)</t>
+  </si>
+  <si>
+    <t>Máster o superior (MA, MS, MEng, MEd, MSW, MBA, MD, DDS, DVM, LLB, JD, PhD)</t>
+  </si>
+  <si>
+    <t>ISCED 0-1 (primary or less), cf. https://gpseducation.oecd.org/CountryProfile https://isced.uis.unesco.org/wp-content/uploads/sites/15/2021/07/UIS-ISCED-DiagramsCompare-OECDAnnex-final.pdf</t>
+  </si>
+  <si>
+    <t>Zysk netto\nna osobę dorosłą\nw wyniku realizacji z\nGlobalnego Programu\nKlimatycznego\nw 2030 r.\n(w % PKB)</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4779,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4769,6 +4880,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5054,8 +5166,8 @@
   <dimension ref="A1:X148"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49:M49"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,7 +5230,7 @@
         <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5683,14 +5795,14 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5755,37 +5867,37 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="19" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="12"/>
@@ -5795,41 +5907,41 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="12"/>
@@ -5839,41 +5951,41 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="12"/>
@@ -5883,7 +5995,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="19" t="s">
@@ -5927,7 +6039,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="6">
@@ -6439,37 +6551,37 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="42" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="H34" s="42" t="s">
         <v>576</v>
       </c>
       <c r="I34" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="J34" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="K34" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="L34" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="M34" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
@@ -6479,7 +6591,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="B35" s="6">
         <f>B37*B29</f>
@@ -6537,25 +6649,25 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="M36" s="2" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -6565,7 +6677,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -6606,7 +6718,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -6647,7 +6759,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B39" s="1">
         <v>31</v>
@@ -6679,7 +6791,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="K40">
         <v>29</v>
@@ -6693,7 +6805,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -6722,7 +6834,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -6763,7 +6875,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="B43" s="1">
         <v>26</v>
@@ -6795,7 +6907,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="B44" s="4">
         <v>35.74</v>
@@ -6836,7 +6948,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="B45" s="4">
         <v>22.308</v>
@@ -6877,7 +6989,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="B46" s="4">
         <f>B44*B29</f>
@@ -6930,7 +7042,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="B47" s="4">
         <f>B45*B29</f>
@@ -6987,61 +7099,61 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="42" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="H48" s="42" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I48" t="s">
         <v>1467</v>
       </c>
-      <c r="I48" t="s">
-        <v>1479</v>
-      </c>
       <c r="J48" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="K48" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="L48" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="M48" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="42" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="I49" s="42">
         <v>1</v>
@@ -7050,13 +7162,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="L49" s="42" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -7065,7 +7177,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B51" s="35">
         <f>(C$3*C51+D$3*D51+E$3*E51+F$3*F51+G$3*G51+H$3*H51+I$3*I51)/5000</f>
@@ -7106,7 +7218,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B52" s="35">
         <f>(C$3*C52+D$3*D52+E$3*E52+F$3*F52+G$3*G52+H$3*H52+I$3*I52)/5000</f>
@@ -7146,7 +7258,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B53" s="35">
         <f>(C$3*C53+D$3*D53+E$3*E53+F$3*F53+G$3*G53+H$3*H53+I$3*I53)/5000</f>
@@ -7219,194 +7331,188 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1212</v>
+        <v>1523</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1213</v>
+        <v>1476</v>
       </c>
       <c r="G56" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H56" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D57" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1217</v>
+        <v>1477</v>
       </c>
       <c r="G57" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H57" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I57" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="L57" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D58" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1216</v>
+        <v>1478</v>
       </c>
       <c r="G58" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H58" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I58" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D59" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>1215</v>
+        <v>1192</v>
       </c>
       <c r="G59" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H59" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>1240</v>
-      </c>
       <c r="M59" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D60" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J60" s="32" t="s">
         <v>1214</v>
       </c>
-      <c r="G60" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I60" s="32" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J60" s="32" t="s">
-        <v>1225</v>
-      </c>
       <c r="K60" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="L60" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7416,102 +7522,102 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B61" s="2"/>
       <c r="D61" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>1221</v>
+        <v>1198</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1480</v>
       </c>
       <c r="G61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F62" s="32" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J62" s="32" t="s">
         <v>1218</v>
       </c>
-      <c r="G62" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>1229</v>
-      </c>
       <c r="K62" s="32" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D63" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>1219</v>
+        <v>1482</v>
       </c>
       <c r="G63" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H63" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I63" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="K63" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="L63" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7521,41 +7627,41 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D64" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>1220</v>
+        <v>1483</v>
       </c>
       <c r="G64" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H64" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I64" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -7573,13 +7679,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -8145,8 +8251,8 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8201,127 +8307,130 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="B2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>995</v>
-      </c>
       <c r="D2" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1213</v>
+        <v>1476</v>
       </c>
       <c r="F2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1217</v>
+        <v>1477</v>
       </c>
       <c r="F3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="K3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1216</v>
+        <v>1478</v>
       </c>
       <c r="F4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B5" t="s">
-        <v>1022</v>
+        <v>1202</v>
       </c>
       <c r="C5" t="s">
-        <v>1193</v>
+        <v>997</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1197</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1215</v>
+        <v>1479</v>
       </c>
       <c r="F5" t="s">
         <v>1029</v>
@@ -8329,185 +8438,180 @@
       <c r="G5" t="s">
         <v>1005</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="32" t="s">
         <v>1205</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1240</v>
+      <c r="I5" s="32" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1154</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B6" t="s">
-        <v>1203</v>
+        <v>1021</v>
       </c>
       <c r="C6" t="s">
-        <v>998</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="F6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L6" s="32"/>
+        <v>1004</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1228</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E7" s="32"/>
+        <v>1198</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1480</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>1218</v>
       </c>
-      <c r="F8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>1229</v>
-      </c>
       <c r="J8" s="32" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>1219</v>
+        <v>1482</v>
       </c>
       <c r="F9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="J9" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="K9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>1220</v>
+        <v>1483</v>
       </c>
       <c r="F10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8525,302 +8629,302 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C12" t="s">
         <v>1038</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1039</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1040</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1041</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1042</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I12" t="s">
         <v>1043</v>
       </c>
-      <c r="H12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>1044</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>1045</v>
       </c>
-      <c r="K12" t="s">
-        <v>1046</v>
-      </c>
       <c r="L12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C13" t="s">
         <v>1047</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1048</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1049</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1050</v>
       </c>
-      <c r="F13" t="s">
-        <v>1051</v>
-      </c>
       <c r="H13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I13" t="s">
         <v>1053</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>1054</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>1055</v>
       </c>
-      <c r="K13" t="s">
-        <v>1056</v>
-      </c>
       <c r="L13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C14" t="s">
         <v>1057</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1058</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
         <v>1060</v>
       </c>
-      <c r="F14" t="s">
-        <v>1061</v>
-      </c>
       <c r="G14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I14" t="s">
         <v>1063</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>1064</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>1065</v>
       </c>
-      <c r="K14" t="s">
-        <v>1066</v>
-      </c>
       <c r="L14" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C15" t="s">
+        <v>997</v>
+      </c>
+      <c r="D15" t="s">
         <v>1067</v>
       </c>
-      <c r="C15" t="s">
-        <v>998</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="F15" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I15" t="s">
         <v>1071</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>1072</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>1073</v>
       </c>
-      <c r="K15" t="s">
-        <v>1074</v>
-      </c>
       <c r="L15" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C16" t="s">
         <v>1075</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>1076</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="G16" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
         <v>1078</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>1079</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>1080</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C18" t="s">
         <v>1083</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1084</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1085</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="F18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" t="s">
         <v>1087</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>1088</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>1089</v>
       </c>
-      <c r="K18" t="s">
-        <v>1090</v>
-      </c>
       <c r="L18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D19" t="s">
         <v>1091</v>
       </c>
-      <c r="C19" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1092</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>1093</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H19" t="s">
         <v>1094</v>
       </c>
-      <c r="G19" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>1095</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>1096</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>1097</v>
       </c>
-      <c r="K19" t="s">
-        <v>1098</v>
-      </c>
       <c r="L19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C20" t="s">
         <v>1099</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1100</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>1102</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>1103</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I20" t="s">
         <v>1104</v>
       </c>
-      <c r="H20" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>1105</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>1106</v>
       </c>
-      <c r="K20" t="s">
-        <v>1107</v>
-      </c>
       <c r="L20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -8838,265 +8942,265 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B22" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C22" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D22" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E22" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F22" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H22" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B23" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C23" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D23" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F23" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G23" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I23" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J23" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="L23" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B24" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C24" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G24" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J24" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="L24" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>1080</v>
-      </c>
       <c r="K25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="L25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F26" t="s">
         <v>1141</v>
       </c>
-      <c r="D26" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1142</v>
-      </c>
       <c r="G26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K26" t="s">
         <v>1137</v>
       </c>
-      <c r="H26" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1138</v>
-      </c>
       <c r="L26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B27" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F27" t="s">
         <v>1132</v>
       </c>
-      <c r="D27" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1133</v>
-      </c>
       <c r="G27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K27" t="s">
         <v>1129</v>
       </c>
-      <c r="H27" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1130</v>
-      </c>
       <c r="L27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B28" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K28" t="s">
         <v>1120</v>
       </c>
-      <c r="H28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1105</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1121</v>
-      </c>
       <c r="L28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -9160,64 +9264,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>900</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>22</v>
@@ -9241,70 +9345,70 @@
         <v>264</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AG1" s="44" t="s">
         <v>923</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AH1" s="44" t="s">
         <v>924</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AI1" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>926</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="AY1" s="1"/>
     </row>
@@ -9421,7 +9525,7 @@
         <v>384.43086816720256</v>
       </c>
       <c r="AT2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
@@ -9488,7 +9592,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9633,18 +9737,18 @@
         <v>234.92226429526269</v>
       </c>
       <c r="AT4" t="s">
+        <v>952</v>
+      </c>
+      <c r="AU4" t="s">
         <v>953</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>954</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B5" s="4">
         <f>SUM(B6:B11)</f>
@@ -9769,7 +9873,7 @@
       <c r="AR5" s="36"/>
       <c r="AS5" s="36"/>
       <c r="AW5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -9890,16 +9994,16 @@
         <v>279.75493895671485</v>
       </c>
       <c r="AT6" t="s">
+        <v>938</v>
+      </c>
+      <c r="AU6" t="s">
         <v>939</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>940</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>941</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -10020,19 +10124,19 @@
         <v>274.09720721907513</v>
       </c>
       <c r="AT7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AU7" t="s">
+        <v>942</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>914</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>941</v>
+      </c>
+      <c r="AX7" t="s">
         <v>943</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>915</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>942</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -10261,16 +10365,16 @@
         <v>398.96224256292913</v>
       </c>
       <c r="AT10" t="s">
+        <v>944</v>
+      </c>
+      <c r="AV10" t="s">
         <v>945</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
+        <v>941</v>
+      </c>
+      <c r="AX10" t="s">
         <v>946</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>942</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -10391,22 +10495,22 @@
         <v>370.55851048015467</v>
       </c>
       <c r="AT11" t="s">
+        <v>947</v>
+      </c>
+      <c r="AU11" t="s">
         <v>948</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>949</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>950</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
+        <v>941</v>
+      </c>
+      <c r="AY11" t="s">
         <v>951</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>942</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -10728,7 +10832,7 @@
         <v>1153.2926045016077</v>
       </c>
       <c r="AW16" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -10740,22 +10844,22 @@
         <v>79</v>
       </c>
       <c r="AG18" s="47" t="s">
+        <v>957</v>
+      </c>
+      <c r="AH18" s="47" t="s">
         <v>958</v>
       </c>
-      <c r="AH18" s="47" t="s">
+      <c r="AI18" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="AI18" s="47" t="s">
+      <c r="AJ18" s="47" t="s">
         <v>960</v>
-      </c>
-      <c r="AJ18" s="47" t="s">
-        <v>961</v>
       </c>
       <c r="AK18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="AL18" s="55" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AN18" s="48"/>
       <c r="AO18" s="48"/>
@@ -10767,97 +10871,97 @@
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="AF19" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="AG19" s="49" t="s">
         <v>983</v>
       </c>
-      <c r="AG19" s="49" t="s">
+      <c r="AH19" s="49" t="s">
         <v>984</v>
       </c>
-      <c r="AH19" s="49" t="s">
+      <c r="AI19" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="AI19" s="49" t="s">
-        <v>986</v>
-      </c>
       <c r="AJ19" s="50" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AL19" s="56" t="s">
+        <v>963</v>
+      </c>
+      <c r="AO19" t="s">
         <v>964</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="AF20" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="AG20" s="49" t="s">
         <v>966</v>
       </c>
-      <c r="AG20" s="49" t="s">
+      <c r="AH20" s="49" t="s">
         <v>967</v>
       </c>
-      <c r="AH20" s="49" t="s">
+      <c r="AI20" s="49" t="s">
         <v>968</v>
       </c>
-      <c r="AI20" s="49" t="s">
+      <c r="AJ20" s="50" t="s">
         <v>969</v>
-      </c>
-      <c r="AJ20" s="50" t="s">
-        <v>970</v>
       </c>
       <c r="AK20" s="2" t="s">
         <v>262</v>
       </c>
       <c r="AL20" s="51" t="s">
+        <v>970</v>
+      </c>
+      <c r="AO20" t="s">
         <v>971</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="AF21" t="s">
+        <v>972</v>
+      </c>
+      <c r="AG21" s="49" t="s">
         <v>973</v>
       </c>
-      <c r="AG21" s="49" t="s">
+      <c r="AH21" s="49" t="s">
         <v>974</v>
       </c>
-      <c r="AH21" s="49" t="s">
+      <c r="AI21" s="49" t="s">
         <v>975</v>
       </c>
-      <c r="AI21" s="49" t="s">
+      <c r="AJ21" s="50" t="s">
         <v>976</v>
-      </c>
-      <c r="AJ21" s="50" t="s">
-        <v>977</v>
       </c>
       <c r="AK21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AL21" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AO21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="AF22" t="s">
+        <v>978</v>
+      </c>
+      <c r="AG22" t="s">
         <v>979</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
+        <v>967</v>
+      </c>
+      <c r="AI22" t="s">
         <v>980</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>968</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>981</v>
       </c>
       <c r="AK22" t="s">
         <v>7</v>
@@ -11147,11 +11251,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A22:A24"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11208,7 +11312,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
@@ -11511,49 +11615,49 @@
         <v>425</v>
       </c>
       <c r="B8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C8" t="s">
         <v>888</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>889</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F8" t="s">
         <v>890</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F8" t="s">
-        <v>891</v>
       </c>
       <c r="G8" t="s">
         <v>423</v>
       </c>
       <c r="H8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L8" t="s">
         <v>422</v>
       </c>
       <c r="M8" t="s">
+        <v>893</v>
+      </c>
+      <c r="N8" t="s">
         <v>894</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>895</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>896</v>
-      </c>
-      <c r="P8" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -11573,7 +11677,7 @@
         <v>789</v>
       </c>
       <c r="F9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G9" t="s">
         <v>432</v>
@@ -11582,13 +11686,13 @@
         <v>432</v>
       </c>
       <c r="I9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L9" t="s">
         <v>432</v>
@@ -11603,7 +11707,7 @@
         <v>788</v>
       </c>
       <c r="P9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -11623,7 +11727,7 @@
         <v>790</v>
       </c>
       <c r="F10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G10" t="s">
         <v>424</v>
@@ -11632,13 +11736,13 @@
         <v>424</v>
       </c>
       <c r="I10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L10" t="s">
         <v>424</v>
@@ -11653,7 +11757,7 @@
         <v>787</v>
       </c>
       <c r="P10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -11670,10 +11774,10 @@
         <v>786</v>
       </c>
       <c r="E11" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="F11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G11" t="s">
         <v>574</v>
@@ -11682,13 +11786,13 @@
         <v>574</v>
       </c>
       <c r="I11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L11" t="s">
         <v>574</v>
@@ -11703,7 +11807,7 @@
         <v>786</v>
       </c>
       <c r="P11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11723,7 +11827,7 @@
         <v>791</v>
       </c>
       <c r="F12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G12" t="s">
         <v>567</v>
@@ -11732,13 +11836,13 @@
         <v>567</v>
       </c>
       <c r="I12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L12" t="s">
         <v>567</v>
@@ -11753,7 +11857,7 @@
         <v>785</v>
       </c>
       <c r="P12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11770,10 +11874,10 @@
         <v>784</v>
       </c>
       <c r="E13" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="F13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G13" t="s">
         <v>434</v>
@@ -11782,13 +11886,13 @@
         <v>434</v>
       </c>
       <c r="I13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L13" t="s">
         <v>434</v>
@@ -11803,7 +11907,7 @@
         <v>784</v>
       </c>
       <c r="P13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -11820,10 +11924,10 @@
         <v>783</v>
       </c>
       <c r="E14" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="F14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G14" t="s">
         <v>433</v>
@@ -11832,13 +11936,13 @@
         <v>433</v>
       </c>
       <c r="I14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L14" t="s">
         <v>433</v>
@@ -11853,7 +11957,7 @@
         <v>783</v>
       </c>
       <c r="P14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11873,7 +11977,7 @@
         <v>792</v>
       </c>
       <c r="F15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G15" t="s">
         <v>435</v>
@@ -11882,13 +11986,13 @@
         <v>435</v>
       </c>
       <c r="I15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L15" t="s">
         <v>435</v>
@@ -11903,57 +12007,57 @@
         <v>782</v>
       </c>
       <c r="P15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="B16" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C16" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="D16" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="E16" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="F16" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="G16" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="H16" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="I16" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="J16" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="K16" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="L16" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="M16" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="N16" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="O16" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="P16" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -12060,122 +12164,122 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="C19" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="D19" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="F19" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="H19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="I19" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="J19" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="K19" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="L19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="M19" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="N19" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="O19" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="P19" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K20" s="42" t="s">
         <v>1363</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>1375</v>
-      </c>
       <c r="L20" s="42" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="G21" s="42" t="s">
         <v>166</v>
@@ -12184,28 +12288,28 @@
         <v>166</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="L21" s="42" t="s">
         <v>166</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="P21" s="42" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -12213,49 +12317,49 @@
         <v>445</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="G22" s="42" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H22" t="s">
         <v>1467</v>
       </c>
-      <c r="H22" t="s">
-        <v>1479</v>
-      </c>
       <c r="I22" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="J22" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="K22" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="L22" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="M22" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="N22" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="O22" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="P22" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -12263,72 +12367,72 @@
         <v>447</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>576</v>
       </c>
       <c r="H23" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="I23" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="J23" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="K23" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="L23" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="M23" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="N23" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="O23" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="P23" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="H24" s="42">
         <v>1</v>
@@ -12337,25 +12441,25 @@
         <v>2</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="K24" s="42" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="N24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="P24" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -12372,7 +12476,7 @@
         <v>519</v>
       </c>
       <c r="E25" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="F25" t="s">
         <v>519</v>
@@ -12463,49 +12567,49 @@
         <v>452</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="G27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="H27" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="I27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="J27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="K27" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="L27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="M27" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="N27" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="O27" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="P27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -12560,7 +12664,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="B29" s="32">
         <v>25</v>
@@ -12923,49 +13027,49 @@
         <v>446</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="P36" s="35" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -12973,49 +13077,49 @@
         <v>455</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -13123,49 +13227,49 @@
         <v>463</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="J40" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="K40" s="42" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="L40" s="42" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="M40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="N40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="O40" s="42" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="P40" s="42" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -13173,49 +13277,49 @@
         <v>464</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="J41" s="42" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="L41" s="42" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="N41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="P41" s="42" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -13232,7 +13336,7 @@
         <v>651</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>651</v>
@@ -13282,7 +13386,7 @@
         <v>651</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>651</v>
@@ -13332,7 +13436,7 @@
         <v>535</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>535</v>
@@ -13382,7 +13486,7 @@
         <v>535</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>535</v>
@@ -13432,7 +13536,7 @@
         <v>536</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="F46" s="42" t="s">
         <v>536</v>
@@ -13482,7 +13586,7 @@
         <v>532</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>532</v>
@@ -13532,7 +13636,7 @@
         <v>533</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>533</v>
@@ -13582,7 +13686,7 @@
         <v>540</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>540</v>
@@ -13632,7 +13736,7 @@
         <v>539</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>539</v>
@@ -13682,7 +13786,7 @@
         <v>541</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>541</v>
@@ -13732,7 +13836,7 @@
         <v>537</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>537</v>
@@ -13782,7 +13886,7 @@
         <v>542</v>
       </c>
       <c r="E53" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="F53" t="s">
         <v>542</v>
@@ -13832,7 +13936,7 @@
         <v>534</v>
       </c>
       <c r="E54" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="F54" t="s">
         <v>534</v>
@@ -13944,25 +14048,25 @@
         <v>760</v>
       </c>
       <c r="I56" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J56" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K56" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L56" t="s">
         <v>489</v>
       </c>
       <c r="M56" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="N56" t="s">
+        <v>877</v>
+      </c>
+      <c r="O56" t="s">
         <v>878</v>
-      </c>
-      <c r="O56" t="s">
-        <v>879</v>
       </c>
       <c r="P56" t="s">
         <v>489</v>
@@ -13982,7 +14086,7 @@
         <v>706</v>
       </c>
       <c r="E57" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="F57" t="s">
         <v>705</v>
@@ -14032,7 +14136,7 @@
         <v>730</v>
       </c>
       <c r="E58" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="F58" t="s">
         <v>731</v>
@@ -14132,7 +14236,7 @@
         <v>727</v>
       </c>
       <c r="E60" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="F60" t="s">
         <v>739</v>
@@ -14182,7 +14286,7 @@
         <v>728</v>
       </c>
       <c r="E61" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="F61" t="s">
         <v>738</v>
@@ -14232,10 +14336,10 @@
         <v>780</v>
       </c>
       <c r="E62" t="s">
-        <v>795</v>
+        <v>1524</v>
       </c>
       <c r="F62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G62" t="s">
         <v>493</v>
@@ -14244,13 +14348,13 @@
         <v>493</v>
       </c>
       <c r="I62" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J62" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K62" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L62" t="s">
         <v>493</v>
@@ -14265,7 +14369,7 @@
         <v>780</v>
       </c>
       <c r="P62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -14282,10 +14386,10 @@
         <v>779</v>
       </c>
       <c r="E63" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G63" t="s">
         <v>527</v>
@@ -14294,13 +14398,13 @@
         <v>527</v>
       </c>
       <c r="I63" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L63" t="s">
         <v>527</v>
@@ -14315,7 +14419,7 @@
         <v>779</v>
       </c>
       <c r="P63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -14332,10 +14436,10 @@
         <v>778</v>
       </c>
       <c r="E64" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G64" t="s">
         <v>593</v>
@@ -14344,28 +14448,28 @@
         <v>761</v>
       </c>
       <c r="I64" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J64" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K64" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L64" t="s">
         <v>498</v>
       </c>
       <c r="M64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N64" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O64" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P64" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -14382,10 +14486,10 @@
         <v>777</v>
       </c>
       <c r="E65" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="F65" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G65" t="s">
         <v>594</v>
@@ -14394,10 +14498,10 @@
         <v>762</v>
       </c>
       <c r="I65" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K65" t="s">
         <v>631</v>
@@ -14406,16 +14510,16 @@
         <v>497</v>
       </c>
       <c r="M65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O65" t="s">
         <v>634</v>
       </c>
       <c r="P65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -14432,10 +14536,10 @@
         <v>776</v>
       </c>
       <c r="E66" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G66" t="s">
         <v>593</v>
@@ -14444,28 +14548,28 @@
         <v>762</v>
       </c>
       <c r="I66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J66" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K66" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L66" t="s">
         <v>507</v>
       </c>
       <c r="M66" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N66" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O66" t="s">
         <v>634</v>
       </c>
       <c r="P66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -14482,10 +14586,10 @@
         <v>775</v>
       </c>
       <c r="E67" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="F67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G67" t="s">
         <v>504</v>
@@ -14497,7 +14601,7 @@
         <v>629</v>
       </c>
       <c r="J67" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K67" t="s">
         <v>631</v>
@@ -14515,7 +14619,7 @@
         <v>634</v>
       </c>
       <c r="P67" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -14523,13 +14627,13 @@
         <v>508</v>
       </c>
       <c r="E68" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="J68" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K68" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -14537,13 +14641,13 @@
         <v>509</v>
       </c>
       <c r="E69" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="J69" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K69" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -14560,10 +14664,10 @@
         <v>774</v>
       </c>
       <c r="E70" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="F70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G70" t="s">
         <v>512</v>
@@ -14572,10 +14676,10 @@
         <v>513</v>
       </c>
       <c r="I70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J70" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K70" t="s">
         <v>514</v>
@@ -14593,7 +14697,7 @@
         <v>607</v>
       </c>
       <c r="P70" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -14610,10 +14714,10 @@
         <v>773</v>
       </c>
       <c r="E71" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="F71" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G71" t="s">
         <v>507</v>
@@ -14622,13 +14726,13 @@
         <v>507</v>
       </c>
       <c r="I71" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J71" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L71" t="s">
         <v>516</v>
@@ -14643,7 +14747,7 @@
         <v>773</v>
       </c>
       <c r="P71" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -14710,10 +14814,10 @@
         <v>772</v>
       </c>
       <c r="E73" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="F73" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G73" t="s">
         <v>553</v>
@@ -14722,28 +14826,28 @@
         <v>554</v>
       </c>
       <c r="I73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J73" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K73" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M73" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N73" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O73" t="s">
         <v>554</v>
       </c>
       <c r="P73" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -14810,10 +14914,10 @@
         <v>771</v>
       </c>
       <c r="E75" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="F75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G75" t="s">
         <v>600</v>
@@ -14822,28 +14926,428 @@
         <v>606</v>
       </c>
       <c r="I75" t="s">
+        <v>828</v>
+      </c>
+      <c r="J75" t="s">
         <v>829</v>
       </c>
-      <c r="J75" t="s">
-        <v>830</v>
-      </c>
       <c r="K75" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L75" t="s">
         <v>598</v>
       </c>
       <c r="M75" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N75" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O75" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P75" t="s">
-        <v>887</v>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1499</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C77" t="s">
+        <v>995</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>996</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1501</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>997</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L79" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1495</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1503</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1502</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J81" s="32" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L81" s="32" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C82" t="s">
+        <v>998</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L82" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C83" t="s">
+        <v>999</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J83" s="32" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L83" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
@@ -15075,34 +15579,34 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>988</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16157,7 +16661,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -16973,7 +17477,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="B14" s="6">
         <v>50</v>
@@ -17025,124 +17529,124 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="C15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="D15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="E15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="F15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="G15" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="H15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="I15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="J15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="K15" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="L15" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="M15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="N15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="O15" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="P15" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B17" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C17" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="D17" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="F17" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="G17" t="s">
         <v>166</v>
@@ -17151,78 +17655,78 @@
         <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="J17" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="K17" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="L17" t="s">
         <v>166</v>
       </c>
       <c r="M17" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="N17" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="O17" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="P17" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K18" t="s">
         <v>1363</v>
       </c>
-      <c r="B18" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1375</v>
-      </c>
       <c r="L18" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="M18" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="N18" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="O18" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="P18" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -17279,7 +17783,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -17318,7 +17822,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B12" si="0">B57*B$26</f>
@@ -17369,7 +17873,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
@@ -17420,7 +17924,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
@@ -17471,7 +17975,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
@@ -17522,7 +18026,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
@@ -17573,7 +18077,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
@@ -17624,7 +18128,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
@@ -17675,7 +18179,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
@@ -17726,7 +18230,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
@@ -17777,7 +18281,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
@@ -17828,7 +18332,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
@@ -17879,40 +18383,40 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -17955,7 +18459,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="B15" s="6">
         <v>50</v>
@@ -17993,7 +18497,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="G17">
         <v>34264</v>
@@ -18010,7 +18514,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="G18">
         <v>38805</v>
@@ -18027,7 +18531,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="B20">
         <v>46310</v>
@@ -18065,7 +18569,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B21">
         <v>48010</v>
@@ -18103,7 +18607,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="B23">
         <v>0.92400000000000004</v>
@@ -18141,7 +18645,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="B24">
         <v>0.92400000000000004</v>
@@ -18179,7 +18683,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="B26" s="12">
         <f>B21*B24/(B20*B23)</f>
@@ -18228,7 +18732,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="G27" s="12">
         <f>G18/G17</f>
@@ -18249,7 +18753,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="G28" s="12">
         <f>G27*G26</f>
@@ -18270,114 +18774,114 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="B30" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="C30" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="D30" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="E30" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="F30" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="G30" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H30" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="I30" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="J30" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="K30" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="L30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M30" t="s">
         <v>1261</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1265</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1267</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1268</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1269</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Y30" t="s">
         <v>1273</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Z30" t="s">
         <v>1274</v>
       </c>
-      <c r="O30" t="s">
+      <c r="AA30" t="s">
         <v>1275</v>
       </c>
-      <c r="P30" t="s">
+      <c r="AB30" t="s">
         <v>1276</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="AC30" t="s">
         <v>1277</v>
       </c>
-      <c r="R30" t="s">
+      <c r="AD30" t="s">
         <v>1278</v>
       </c>
-      <c r="S30" t="s">
+      <c r="AE30" t="s">
         <v>1279</v>
       </c>
-      <c r="T30" t="s">
+      <c r="AF30" t="s">
         <v>1280</v>
       </c>
-      <c r="U30" t="s">
+      <c r="AG30" t="s">
         <v>1281</v>
       </c>
-      <c r="V30" t="s">
+      <c r="AH30" t="s">
         <v>1282</v>
       </c>
-      <c r="W30" t="s">
+      <c r="AI30" t="s">
         <v>1283</v>
-      </c>
-      <c r="X30" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>1285</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>1287</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>1289</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B31" s="4">
         <v>13520</v>
@@ -18485,7 +18989,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B32" s="4">
         <v>17520</v>
@@ -18593,7 +19097,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B33" s="4">
         <v>19264.754000000001</v>
@@ -18701,7 +19205,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B34" s="4">
         <v>20998.017</v>
@@ -18809,7 +19313,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B35" s="4">
         <v>24302.13</v>
@@ -18917,7 +19421,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B36" s="4">
         <v>27593.96</v>
@@ -19025,7 +19529,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B37" s="4">
         <v>31342.97</v>
@@ -19133,7 +19637,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B38" s="4">
         <v>35951.42</v>
@@ -19241,7 +19745,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B39" s="4">
         <v>38800.160000000003</v>
@@ -19349,7 +19853,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B40" s="4">
         <v>42463.88</v>
@@ -19457,7 +19961,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B41" s="4">
         <v>55180.92</v>
@@ -19565,114 +20069,114 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B43" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="C43" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="D43" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="E43" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="F43" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="G43" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H43" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="I43" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="J43" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="K43" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="L43" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M43" t="s">
         <v>1261</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1265</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1267</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1268</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1269</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1271</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Y43" t="s">
         <v>1273</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Z43" t="s">
         <v>1274</v>
       </c>
-      <c r="O43" t="s">
+      <c r="AA43" t="s">
         <v>1275</v>
       </c>
-      <c r="P43" t="s">
+      <c r="AB43" t="s">
         <v>1276</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="AC43" t="s">
         <v>1277</v>
       </c>
-      <c r="R43" t="s">
+      <c r="AD43" t="s">
         <v>1278</v>
       </c>
-      <c r="S43" t="s">
+      <c r="AE43" t="s">
         <v>1279</v>
       </c>
-      <c r="T43" t="s">
+      <c r="AF43" t="s">
         <v>1280</v>
       </c>
-      <c r="U43" t="s">
+      <c r="AG43" t="s">
         <v>1281</v>
       </c>
-      <c r="V43" t="s">
+      <c r="AH43" t="s">
         <v>1282</v>
       </c>
-      <c r="W43" t="s">
+      <c r="AI43" t="s">
         <v>1283</v>
-      </c>
-      <c r="X43" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>1285</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1287</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>1289</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B44" s="4">
         <v>12473.913</v>
@@ -19777,7 +20281,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B45" s="4">
         <v>15726.666999999999</v>
@@ -19882,7 +20386,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B46" s="4">
         <v>17220</v>
@@ -19987,7 +20491,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B47" s="4">
         <v>18506.667000000001</v>
@@ -20092,7 +20596,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B48" s="4">
         <v>20925</v>
@@ -20197,7 +20701,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B49" s="4">
         <v>23300</v>
@@ -20302,7 +20806,7 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B50" s="4">
         <v>25960</v>
@@ -20407,7 +20911,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B51" s="4">
         <v>29268</v>
@@ -20512,7 +21016,7 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B52" s="4">
         <v>31220</v>
@@ -20617,7 +21121,7 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B53" s="4">
         <v>33740</v>
@@ -20722,7 +21226,7 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B54" s="4">
         <v>41905.56</v>
@@ -20827,36 +21331,36 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="B56" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="C56" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="D56" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="E56" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="F56" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="H56" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="L56" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="M56" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B57">
         <v>12537</v>
@@ -20883,7 +21387,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B58">
         <v>16009</v>
@@ -20909,7 +21413,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B59">
         <v>17502</v>
@@ -20935,7 +21439,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B60">
         <v>18952</v>
@@ -20961,7 +21465,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B61">
         <v>21557</v>
@@ -20987,7 +21491,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B62">
         <v>24179</v>
@@ -21013,7 +21517,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B63">
         <v>27006</v>
@@ -21039,7 +21543,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B64">
         <v>30635</v>
@@ -21065,7 +21569,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B65">
         <v>32816</v>
@@ -21091,7 +21595,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B66">
         <v>35361</v>
@@ -21117,7 +21621,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B67">
         <v>44071</v>
@@ -21143,7 +21647,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -21179,15 +21683,15 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="N69" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B70" s="4">
         <v>6078.1</v>
@@ -21231,7 +21735,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B71" s="4">
         <v>17930.400000000001</v>
@@ -21275,7 +21779,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B72" s="4">
         <v>20676.7</v>
@@ -21319,7 +21823,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B73" s="4">
         <v>23351.3</v>
@@ -21363,7 +21867,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B74" s="4">
         <v>30297.4</v>
@@ -21407,7 +21911,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B75" s="4">
         <v>37074.9</v>
@@ -21451,7 +21955,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B76" s="4">
         <v>43624.800000000003</v>
@@ -21495,7 +21999,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B77" s="4">
         <v>50815.3</v>
@@ -21539,7 +22043,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B78" s="4">
         <v>55410.9</v>
@@ -21583,7 +22087,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B79" s="4">
         <v>60296.4</v>
@@ -21627,7 +22131,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B80" s="4">
         <v>81117.100000000006</v>
@@ -22986,7 +23490,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -23003,7 +23507,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -23020,7 +23524,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="B24" s="63">
         <v>0.9</v>
@@ -23059,18 +23563,18 @@
         <v>0.9</v>
       </c>
       <c r="N24" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="O24" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="P24" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6">
@@ -23118,7 +23622,7 @@
         <v>50.307426568214552</v>
       </c>
       <c r="N25" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="O25" s="9">
         <f>O28/O30/12</f>
@@ -23127,7 +23631,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="64">
@@ -23164,12 +23668,12 @@
         <v>277698298.59999996</v>
       </c>
       <c r="N26" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -23206,7 +23710,7 @@
         <v>5960804</v>
       </c>
       <c r="N27" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="O27">
         <v>52962900</v>
@@ -23214,7 +23718,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="66">
@@ -23262,7 +23766,7 @@
         <v>0.11254678274792354</v>
       </c>
       <c r="N28" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="O28" s="13">
         <v>2367000000000</v>
@@ -23270,7 +23774,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="65">
@@ -23307,7 +23811,7 @@
         <v>258461619</v>
       </c>
       <c r="N29" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="O29">
         <v>5452476469</v>
@@ -23315,7 +23819,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="64">
@@ -23352,7 +23856,7 @@
         <v>290045628.99999994</v>
       </c>
       <c r="N30" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="O30">
         <v>6525973123</v>
@@ -23360,7 +23864,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="9">

--- a/questionnaire/sources.xlsx
+++ b/questionnaire/sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="22980" windowHeight="8145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="22980" windowHeight="8145" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1533">
   <si>
     <t>Country</t>
   </si>
@@ -1277,9 +1277,6 @@
     <t>Test (2022)</t>
   </si>
   <si>
-    <t>SA_EN</t>
-  </si>
-  <si>
     <t>IT-CH</t>
   </si>
   <si>
@@ -4608,6 +4605,33 @@
   </si>
   <si>
     <t>Zysk netto\nna osobę dorosłą\nw wyniku realizacji z\nGlobalnego Programu\nKlimatycznego\nw 2030 r.\n(w % PKB)</t>
+  </si>
+  <si>
+    <t>unit_before</t>
+  </si>
+  <si>
+    <t>unit_after</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp;€ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp;CHF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp;PLN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">万円 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp;руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ريال</t>
   </si>
 </sst>
 </file>
@@ -4619,7 +4643,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -4876,11 +4900,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5166,8 +5190,8 @@
   <dimension ref="A1:X148"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5254,7 @@
         <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5414,40 +5438,40 @@
         <v>250</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>563</v>
-      </c>
       <c r="J6" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>557</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>558</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5767,7 +5791,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
@@ -5775,7 +5799,7 @@
         <v>144</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -5783,7 +5807,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
@@ -5795,14 +5819,14 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -5867,37 +5891,37 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>1236</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>1237</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="M17" s="19" t="s">
         <v>1236</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>1236</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>1237</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="12"/>
@@ -5907,41 +5931,41 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>1308</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>1309</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>1310</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>1311</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="J18" s="19" t="s">
         <v>1312</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>1313</v>
-      </c>
       <c r="K18" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="12"/>
@@ -5951,41 +5975,41 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="J19" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="K19" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="M19" s="19" t="s">
         <v>1338</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>1339</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>1339</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>1339</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>1339</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="12"/>
@@ -5995,7 +6019,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="19" t="s">
@@ -6039,7 +6063,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="6">
@@ -6217,7 +6241,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>64</v>
@@ -6337,7 +6361,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6349,16 +6373,16 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B29" s="32">
         <v>0.97</v>
@@ -6397,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -6406,46 +6430,46 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30" t="s">
+        <v>569</v>
+      </c>
+      <c r="F30" t="s">
+        <v>569</v>
+      </c>
+      <c r="G30" t="s">
         <v>570</v>
       </c>
-      <c r="D30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E30" t="s">
-        <v>570</v>
-      </c>
-      <c r="F30" t="s">
-        <v>570</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>568</v>
+      </c>
+      <c r="I30" t="s">
         <v>571</v>
       </c>
-      <c r="H30" t="s">
-        <v>569</v>
-      </c>
-      <c r="I30" t="s">
-        <v>572</v>
-      </c>
       <c r="J30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
@@ -6484,7 +6508,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="19">
@@ -6547,41 +6571,41 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="42" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D34" s="42" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>1452</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>1453</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>1454</v>
-      </c>
       <c r="G34" s="42" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I34" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J34" t="s">
         <v>1456</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>1457</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>1458</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>1459</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1460</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
@@ -6591,7 +6615,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B35" s="6">
         <f>B37*B29</f>
@@ -6649,25 +6673,25 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="M36" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -6677,7 +6701,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -6718,7 +6742,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -6759,7 +6783,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B39" s="1">
         <v>31</v>
@@ -6791,7 +6815,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="K40">
         <v>29</v>
@@ -6805,7 +6829,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -6834,7 +6858,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -6875,7 +6899,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B43" s="1">
         <v>26</v>
@@ -6907,7 +6931,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B44" s="4">
         <v>35.74</v>
@@ -6948,7 +6972,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B45" s="4">
         <v>22.308</v>
@@ -6989,7 +7013,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B46" s="4">
         <f>B44*B29</f>
@@ -7042,7 +7066,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B47" s="4">
         <f>B45*B29</f>
@@ -7095,65 +7119,65 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="42" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F48" s="42" t="s">
         <v>1465</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F48" s="42" t="s">
+      <c r="G48" s="42" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I48" t="s">
         <v>1466</v>
       </c>
-      <c r="G48" s="42" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>1467</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>1468</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>1469</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>1470</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="42" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I49" s="42">
         <v>1</v>
@@ -7162,13 +7186,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="42" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L49" s="42" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -7177,7 +7201,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B51" s="35">
         <f>(C$3*C51+D$3*D51+E$3*E51+F$3*F51+G$3*G51+H$3*H51+I$3*I51)/5000</f>
@@ -7218,7 +7242,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B52" s="35">
         <f>(C$3*C52+D$3*D52+E$3*E52+F$3*F52+G$3*G52+H$3*H52+I$3*I52)/5000</f>
@@ -7258,7 +7282,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B53" s="35">
         <f>(C$3*C53+D$3*D53+E$3*E53+F$3*F53+G$3*G53+H$3*H53+I$3*I53)/5000</f>
@@ -7331,188 +7355,188 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G56" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H56" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D57" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H57" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I57" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L57" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D58" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G58" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H58" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I58" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D59" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H59" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D60" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H60" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L60" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7522,102 +7546,102 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B61" s="2"/>
       <c r="D61" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G62" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H62" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I62" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D63" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G63" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H63" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I63" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K63" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L63" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7627,41 +7651,41 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D64" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G64" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H64" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I64" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -7679,13 +7703,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -8307,311 +8331,311 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="B2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>994</v>
-      </c>
       <c r="D2" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H10" t="s">
-        